--- a/summary.xlsx
+++ b/summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-09 20:10:55</t>
+          <t>2026-02-10 14:32:25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,53 +460,53 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>965420</v>
+        <v>1069463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-09 20:10:55</t>
+          <t>2026-02-10 18:59:28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>237650353920</t>
+          <t>237650651854</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+          <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>965420</v>
+        <v>270213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-09 20:17:23</t>
+          <t>2026-02-10 14:56:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>237651433330</t>
+          <t>237650874464</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RAOUL TCHANGA TCHUALEU</t>
+          <t>ANGE ASTRIDE VIAZIE DJOMBI NYADJO</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4682</v>
+        <v>108281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-09 21:25:01</t>
+          <t>2026-02-10 16:30:21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -520,947 +520,1907 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>172110</v>
+        <v>128932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-09 22:20:12</t>
+          <t>2026-02-10 16:01:50</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>237654037914</t>
+          <t>237650988697</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>POLYCARPE NGOUBEU</t>
+          <t>FABASSOU GASPARD ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>52528</v>
+        <v>183700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-09 19:20:22</t>
+          <t>2026-02-10 13:59:32</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>237651346686</t>
+          <t>237651213730</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DOUANLA ARMEL VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+          <t>HORTENSE WEKAM MOUAFO</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100199</v>
+        <v>136702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-09 20:13:12</t>
+          <t>2026-02-10 14:18:19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>237654137136</t>
+          <t>237651346686</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NGANGUE NDOUMBE CHARLOTTE MINDEM SARL</t>
+          <t>DOUANLA ARMEL VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>228280</v>
+        <v>10195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-10 00:10:19</t>
+          <t>2026-02-10 14:25:03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>237653816480</t>
+          <t>237651433330</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BERYL NAKOMA TOUFOIN TOP MOBIL TELECOM</t>
+          <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>930441</v>
+        <v>33608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-09 19:58:29</t>
+          <t>2026-02-10 17:52:02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>237671378136</t>
+          <t>237651533411</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>TETHA FRANCLIN GEORGES ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>39721</v>
+        <v>9432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-05 19:30:06</t>
+          <t>2026-02-10 17:00:28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>237671358082</t>
+          <t>237651809692</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VALERY MBAH FOLAPNEH</t>
+          <t>AUREL KAMTA TEUMEN</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>316769</v>
+        <v>492343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-09 21:25:43</t>
+          <t>2026-02-10 13:19:55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>237674243367</t>
+          <t>237651843112</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+          <t>JEANNE ROSY MODJO TCHUENTE</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>693</v>
+        <v>80900</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-09 21:19:36</t>
+          <t>2026-02-10 12:29:25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>237673018936</t>
+          <t>237651927448</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EJUH AKEP EUGENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>NORMAND DJOMO YOUDOM</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24028</v>
+        <v>300271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-09 21:25:57</t>
+          <t>2026-02-10 15:05:31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>237674929348</t>
+          <t>237651927707</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GLORY SHIMINYI</t>
+          <t>BERNARD DONFACK</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>135147</v>
+        <v>223923</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-09 21:30:08</t>
+          <t>2026-02-10 16:54:16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>237674895078</t>
+          <t>237651937677</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+          <t>TAYONG UFUFEI ODILIA ETS TCHATCHAOUNG PAUL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5380</v>
+        <v>416548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-02-09 20:39:53</t>
+          <t>2026-02-10 15:32:11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>237676439452</t>
+          <t>237651988929</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+          <t>UKAM EPSE TANYI HELDA BETTEH ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>280147</v>
+        <v>126756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-02-09 17:50:11</t>
+          <t>2026-02-10 15:32:22</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>237675831509</t>
+          <t>237652049507</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>DONGMO GUESSOP ROVIELLE LAURA TOP MOBIL TELECOM</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42521</v>
+        <v>71570</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-07 13:03:33</t>
+          <t>2026-02-10 15:12:02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>237678559161</t>
+          <t>237652071114</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N A VALENTINE KUM KANG</t>
+          <t>LA NEGRESSE SARL TALLA BOYOM JEAN ERNEST</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>627943</v>
+        <v>501400</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-02-07 13:03:33</t>
+          <t>2026-02-10 13:20:14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>237678559161</t>
+          <t>237652194260</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N A VALENTINE KUM KANG</t>
+          <t>CRISTELLE DIANE TCHAHANE</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>627943</v>
+        <v>563468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-02-09 22:25:29</t>
+          <t>2026-02-10 14:28:12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>237679732169</t>
+          <t>237652194293</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HILAIRE EBWANGA FOTSO</t>
+          <t>MABEKOU TALLA MARIELLE SANDRA _MINDEM SARL</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>991479</v>
+        <v>603442</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-02-08 13:49:24</t>
+          <t>2026-02-10 15:12:46</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>237679550294</t>
+          <t>237652275301</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NGOUNOU JOSIANE GAELLE CHIC MOBILE SARL</t>
+          <t>GEORGES DURAND TEMBI BILIOK</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36786</v>
+        <v>9644</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-02-09 22:15:40</t>
+          <t>2026-02-10 13:40:38</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>237681657939</t>
+          <t>237652285489</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+          <t>joseline kenne</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28507</v>
+        <v>108039</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-02-09 18:42:16</t>
+          <t>2026-02-10 14:09:15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>237679567513</t>
+          <t>237652297747</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GOLDA DOUANLA DJOZANG</t>
+          <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3982</v>
+        <v>85757</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-02-09 23:35:32</t>
+          <t>2026-02-10 12:15:01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>237679580678</t>
+          <t>237652356041</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ngo Ndjeng Marie Pauline</t>
+          <t>JULES ROSTAND DJALEU</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>400803</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-02-08 21:25:15</t>
+          <t>2026-02-10 14:27:23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>237681662761</t>
+          <t>237652386684</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ETS AMOUR DE DIEU SERVICES LTDLA_CBOX_R1_MBOCK NICOLE RUTH</t>
+          <t>MARTIALE IDA NGAKAM</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18537</v>
+        <v>584833</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-02-09 23:22:11</t>
+          <t>2026-02-10 11:54:16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>237681662606</t>
+          <t>237652427111</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GAEL PHALENNE NANA POUASSI</t>
+          <t>CELESTINE CHANTAL MENDJOBOU EPSE NZIAKOU NJANJO</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32256</v>
+        <v>49413</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-02-09 20:38:46</t>
+          <t>2026-02-10 14:58:25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>237683394976</t>
+          <t>237652579681</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIALLO MAMADOU OURY</t>
+          <t>NGOUBE NGOUPAYOU ARAMI ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14674</v>
+        <v>100741</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-02-09 21:19:42</t>
+          <t>2026-02-10 13:58:41</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>237683323481</t>
+          <t>237652667691</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JUICE CABREL MBIAKOP MBIAKOP</t>
+          <t>CHLOE NJAMBE ALEJANDRA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>578895</v>
+        <v>15279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-02-10 03:44:03</t>
+          <t>2026-02-07 12:37:26</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>237683353137</t>
+          <t>237652678854</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>VOUGMO NGUEMO MERLIN WILLIAM ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>LA NEGRESSE SARL MATADON DORALICE FLORE</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50891</v>
+        <v>642511</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-02-09 20:36:55</t>
+          <t>2026-02-10 12:01:43</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>237683356603</t>
+          <t>237652724076</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MFS MATCHINDA SENDRINE</t>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>86337</v>
+        <v>308498</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-02-09 20:30:09</t>
+          <t>2026-02-10 18:30:03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>237683356768</t>
+          <t>237652817931</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>stephane donfack atemzem</t>
+          <t>SENGUE RUTH NICAISE YOLANDE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>151488</v>
+        <v>498143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-02-10 01:09:30</t>
+          <t>2026-02-10 14:05:47</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>237683360459</t>
+          <t>237652899422</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+          <t>STEVE ADAM AUDREY DIBAMEGNI MABI</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>940</v>
+        <v>197663</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-02-09 21:11:16</t>
+          <t>2026-02-10 16:12:14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>237683366333</t>
+          <t>237652927180</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ETS MOBILE FINANCIAL SERVICES MFS DJIAGUE JEANNETTE</t>
+          <t>NDUMBE ROLINE JANONG ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>90628</v>
+        <v>34516</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-02-09 21:26:04</t>
+          <t>2026-02-10 22:14:38</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>237683368985</t>
+          <t>237652940152</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MFS BELL HENRIE BERNARD</t>
+          <t>GISAWO AIME LE CONTENT</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>371362</v>
+        <v>160081</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-02-09 21:09:06</t>
+          <t>2026-02-10 10:20:51</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>237683379070</t>
+          <t>237652958984</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SERGE TAKOUTSOP TCHINDA</t>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2299073</v>
+        <v>125228</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-02-09 18:44:29</t>
+          <t>2026-02-10 16:10:29</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>237683379155</t>
+          <t>237653190282</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NGUEUGANG ALLIANCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>EDOUARD ROMAIN NDINDA BIDIAS</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>327302</v>
+        <v>203186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-02-10 01:34:17</t>
+          <t>2026-02-10 16:06:40</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>237683379207</t>
+          <t>237653239050</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>STEPHALIN YANNICK KETCHA MBIAKOP</t>
+          <t>ARMAND KAMTA KUITSA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>119408</v>
+        <v>522611</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-02-09 22:23:56</t>
+          <t>2026-02-10 10:40:21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>237683386020</t>
+          <t>237653294562</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+          <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>14612</v>
+        <v>450743</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-02-09 20:38:46</t>
+          <t>2026-02-10 18:21:53</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>237683394976</t>
+          <t>237653316656</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIALLO MAMADOU OURY</t>
+          <t>TAMOKOUE HUGUES PASCAL ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>14674</v>
+        <v>336645</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-02-09 21:26:50</t>
+          <t>2026-02-10 12:14:43</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>237683395123</t>
+          <t>237653321271</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+          <t>GOUETH ANNE MARIE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>101402</v>
+        <v>188256</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-02-09 20:16:25</t>
+          <t>2026-02-10 14:46:01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>237683396173</t>
+          <t>237653423810</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>TEFFO ALAIN NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>189389</v>
+        <v>66574</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-02-09 21:17:19</t>
+          <t>2026-02-10 19:50:42</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>237683400719</t>
+          <t>237653430377</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CHANCELINE LAGMAGO</t>
+          <t>KENGNE KUATE AUBIN ULRICH ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>16448</v>
+        <v>94331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-02-09 19:21:44</t>
+          <t>2026-02-10 16:34:37</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>237683408221</t>
+          <t>237653472620</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MAYRA MOICHE DENKA</t>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>166732</v>
+        <v>395145</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-02-09 21:26:40</t>
+          <t>2026-02-10 17:22:30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>237683432110</t>
+          <t>237653626798</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ERODINE TOUMENI</t>
+          <t>PAGLAN BIKOND SIMONE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>782820</v>
+        <v>36896</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-02-09 22:00:42</t>
+          <t>2026-02-10 15:56:57</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>237683454059</t>
+          <t>237653650087</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>RTS BELLE HOLLANDAISE</t>
+          <t>TCHOUALA THIERRY LTDLA_POLAS_BTQ_NDOGBONG ECOLE LAIC</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>215169</v>
+        <v>824185</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-02-09 19:51:07</t>
+          <t>2026-02-10 16:20:55</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>237683454060</t>
+          <t>237653674387</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>RTS BP CITÉ</t>
+          <t>LA NEGRESSE SARL PAGDABANG PIERRE LOTI</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>233165</v>
+        <v>167845</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-02-09 17:53:46</t>
+          <t>2026-02-10 17:22:12</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>237683555873</t>
+          <t>237653816480</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+          <t>BERYL NAKOMA TOUFOIN TOP MOBIL TELECOM</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1535220</v>
+        <v>332979</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-02-09 20:13:03</t>
+          <t>2026-02-10 11:04:32</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>237683557193</t>
+          <t>237653854849</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>KOUYEKE MONIQUE LA NEGRESSE SARL</t>
+          <t>TITTI GASTON CLEMENT TOP MOBIL</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-02-09 19:13:31</t>
+          <t>2026-02-10 14:07:02</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>237683612202</t>
+          <t>237653901359</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>YANN NICEFORT ARTHUR TSAFACK</t>
+          <t>MFS KIOSK BP CITE</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-02-09 20:15:47</t>
+          <t>2026-02-10 12:42:31</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>237683730580</t>
+          <t>237653946894</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LA NEGRESSE SARL LTDLA_CBOX_R1_TSAFO NICOLE</t>
+          <t>DJENE ETONGUE GERMAINE ROYAL LOGISTICS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>417577</v>
+        <v>55278</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-02-09 21:16:56</t>
+          <t>2026-02-10 11:49:26</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>237683743490</t>
+          <t>237653959075</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ETS LE CONTENT NGAH MARIE</t>
+          <t>Wapet Clement ATB POINT COM</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1883</v>
+        <v>65053</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-02-09 20:44:15</t>
+          <t>2026-02-10 19:27:09</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>237683815311</t>
+          <t>237654020285</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+          <t>BRIGITTE ANNISSE YAMBOCK</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>31185</v>
+        <v>48363</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:00:21</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>237654037914</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL YONGA RUSSEL DONALD</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>35271</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:55:54</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>237654117741</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>406717</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:39:10</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>237654134124</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Atangoh Hustencia ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>271026</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:05:09</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>237654137136</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NGANGUE NDOUMBE CHARLOTTE MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>208256</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:46:32</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>237654138873</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>OUMAR DIAKITE</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:35:51</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>237654150202</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MBOU WILLY JUNIOR ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>39685</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:03:58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>237654164073</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NGUIDJOL SIMONE ASTRIDE SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>25162</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:37:27</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>237654168696</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>47681</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-02-10 08:28:15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>237654247769</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>LEKEAGNI DONTSOP ANNIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>6696</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:38:36</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>237654261990</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DOUANLA NOUPONG LEOPOLDINE TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>181480</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:39:53</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>237654270800</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>222367</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:43:47</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>237654355100</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ALEX YANNICK NZIE</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>285379</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:39:41</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>237654508603</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NINA MORELLE KUEDONG NGUETSA</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>537720</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:55:19</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>237670018166</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CECILE NONO SIMO</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>642532</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:18:03</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>237670078170</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MARIA NGO KAMEN</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>8825</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:29:02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>237670097580</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ALBERT FILS NYEMECK</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>416198</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:26:22</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>237670148911</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>FRANKLIN NGONGFARH</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20553</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:51:12</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>237670358585</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:29:59</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>237670473852</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 MAGNE TALLA EMILIE</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>314640</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:05:40</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>237670652138</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NGO BIYICK ELISE NATHALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:03:10</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>237670709824</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NAABI FINANCE PIERRE</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>94369</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:06:29</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>237670799877</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Francis Oberlin Patrice Kamdem</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>289096</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:38:19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>237670806337</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:25:22</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>237670808320</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 63</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>19184</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:12:37</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>237670809154</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>TCHUISSANG BETTOU CHARLINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>100250</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:35:53</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>237670809743</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>158538</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:02:24</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>237670904526</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:30:39</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>237670984670</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>64611</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:19:05</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>237671105116</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:18:52</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>237671105715</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DJOUMEGNI HORIELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>190607</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:42:51</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>237671290825</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>LONGMENE FLORIDE NINA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:39:32</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>237671351291</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MFS LTDLA CBOX R3 MOUTHIEU JOSETTE CHANCELINE</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>8453</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:50:25</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>237671357520</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CALICE WOTI EPSE DJOMO</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>21010</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:59:24</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>237671358082</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>VALERY MBAH FOLAPNEH</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>271163</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:14:05</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>237671378136</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>23375</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:04:34</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>237671432720</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PIERRE DJOH</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>123890</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:55:44</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>237671517964</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ROSINE FLORE YOTA NGOUO</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>93273</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:04:24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>237671563291</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 221</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:25:11</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>237671605749</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1038227</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:07:42</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>237671615641</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Therese neukam</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>19042</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:57:39</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>237671631547</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>GERALDINE BIH</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>154646</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-10 08:56:49</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>237671645947</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CLOVIS TAMKOU SOCTOUO</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>34450</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:10:38</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>237671646117</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>FLORENCE MEDONGUE</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>716338</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-10 06:27:44</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>237671661287</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>USMANU TATA SUNDZE</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>14215</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:40:22</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>237671664239</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ANEBEP ZEPHERINE MFS</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>459935</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:09:08</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>237671694408</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>TSAPONG EDWIGE FLORE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>183142</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:22:38</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>237671734324</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>DONGMO TEMGOUA VANESSA LADOUCE STYLE.COM</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>352608</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:55:56</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>237671823369</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>468872</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2423,6 +2423,1986 @@
         <v>468872</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:52:06</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>237671823371</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MFS MARCHE BEEDI</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:24:13</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>237671825253</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MAFFO YEMDJI CHIMENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>206742</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:39:50</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>237671838460</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>104606</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:56:58</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>237671892536</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>AYUNWI MEME FUH</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>492971</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:22:39</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>237672029564</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NANGA BENOIT STYLE. COM</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>14611</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:58:05</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>237672064755</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>KENFACK FRANC DUVIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1088984</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:33:14</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>237672128028</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CAROLINE WAKO DJAMNOU</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>48963</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:41:09</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>237672276931</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MIREILLE MAGOLACK FOMEKONG</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:37:59</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>237672277367</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1100121</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:02:33</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>237672279571</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>MOTCHUENG MADO LIONNELLE_ TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1182587</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:06:34</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>237672587687</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Kamaha Tomy Nadine LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>171600</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-09 14:28:09</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>237672695037</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DOMCHE GAPIMSI N A</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>467398</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:40:06</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>237672731004</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>DIALLO OUSMANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:48:14</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>237672777139</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>kabirou Yanou Issa Mohamadou</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>21118</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:17:16</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>237672777369</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>WANDJI OBI RUSSEL_ MFS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>16724</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:51:33</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>237672838535</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MANISHKA SYBELLE NDEDI NGAKO</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>24835</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:39:34</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>237672869396</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MOUSTAFA DJIKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:07:19</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>237672916354</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>25902</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:24:27</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>237672920086</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:18:50</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>237672956746</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MERLINE CHRISTILE TEZEMBONG SONGOU</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>350722</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:33:57</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>237673018936</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>EJUH AKEP EUGENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>38228</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:53:54</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>237673144978</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DIALLO MAMADOU LAMARANA</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>95947</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:58:09</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>237673180671</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>SITECK NDJO SALOMON SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>34507</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:17:17</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>237673220938</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>KAMGANG TOMDJIO SIMEONE BABETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:57:53</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>237673492083</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>MALAMA SIMON ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:54:56</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>237673560726</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>AMELIE MEKEU EPSE LELE</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>69409</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:15:58</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>237673718583</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Soppi Verole ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>983490</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:43:20</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>237673739931</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>MOFFO GERMAIN SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:02:58</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>237673816350</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>vanelle lea ngnintcheyi</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>56428</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:56:26</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>237674000053</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>181735</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:55:17</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>237674062440</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>BIANKE HEUTCHOU FRANKLIN ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:00:15</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>237674069453</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>118407</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:54:56</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>237674240552</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>HELENE EBELE EPSE NKOTH</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>52491</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:49:58</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>237674243367</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:58:54</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>237674248126</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NKWAKETP ANNIE ARISTIDE</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>31493</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:31:10</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>237674272162</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>162426</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:06:19</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>237674323650</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>JEAN BOYOMO BOYOMO</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>118270</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:47:59</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>237674431977</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>AUROLE ELSA DOMEZA</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1229260</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:52:28</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>237674435926</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>LILIANE CEPHORA DEUMEGNI</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>43695</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:56:06</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>237674437082</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>MODESTE NGOUKOUA</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>14947</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:49:27</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>237674440808</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>HOUMI EPSE MVEINGUE GUINDOP TATIANA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:44:42</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>237674446293</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>NIWUBAGHA PEACE DZE</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:23:49</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>237674450580</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>TCHIYADJE VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>111856</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2026-02-10 06:58:05</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>237674450898</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CBOX R2 NGO DIBE HERMINE</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:12:06</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>237674466307</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>MFS MEYIMDOUNG MARIE LOUISE</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>59015</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:09:49</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>237674484736</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>MAMADOU ALPHA DIALLO</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>264610</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:36:27</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>237674580187</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ALEX STEPHAN SOUOP TAGNE</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>24185</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:48:34</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>237674629681</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ROSINE SOCBOU KENNE</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>504434</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:04:59</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>237674673359</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>252061</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:16:31</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>237674679432</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sekou Kevine Chanelle ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:41:26</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>237674701120</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ARMAND JEROME NDOUMBE SAMUEL</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>12439</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:05:21</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>237674769580</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SANDIE KAMGUE BELVA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>63683</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:52:36</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>237674841555</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>50392</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:21:38</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>237674853971</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>434926</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:56:37</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>237674854630</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>NGANSOP JEAN</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>242910</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:26:40</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>237674884705</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:51:11</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>237674884831</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>VOUMO MESSALEMO ESTHER TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1450401</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:48:27</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>237674884916</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R2 ALPHA OUMAR</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>19401</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:20:19</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>237674890653</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R2 TSAFACK DONGMO ALAIN PATRIC</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1589512</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:15:29</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>237674892352</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Nguimdo Diane</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>332807</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:42:34</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>237674895078</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:22:25</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>237674895309</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>BORIS LIONEL FOTSING WENCI</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>356837</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:07:54</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>237674895389</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_MABAH DASSI FANNY BLANCHE</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>331334</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:19:38</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>237674895525</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>NFOR EPSE FOMUNGUM ASSUMPTA MUMBEB</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>184757</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:24:20</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>237674895877</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>OSCAR STEPHANE MBENGALA</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>328117</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:04:16</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>237674899678</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:38:45</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>237674908364</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL ZAGBA PIERRE</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>25179</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:03:24</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>237674908416</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>GNITEDEMO MEDJOUTSA CHARLOTTE SYLVIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:34:36</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>237674913584</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>MBAKOP DJOUMOU DARC TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>199135</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:21:50</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>237674926472</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>NGO SAMNICK ELISABETH JOSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:37:50</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>237674928987</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>MFS TSAFACK KEMENE VIVIEN CEDRIC</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>204726</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41:44</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>237674929348</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>JEAN MARIE NKOLO</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:20:09</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>237674929391</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>HERVE BASILE TSOBING</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>454930</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:47:31</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>237674929417</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>HORTANCE MANTHO</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>228866</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:38:53</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>237674933038</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>MFS MANDENG II PATIENT CESAR EITEL</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:51:32</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>237674933048</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NINZEGA EMILIENNE CLAIRE</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>28306</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:41:11</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>237674956331</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>MELANIE NONO TONKAM</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>155153</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:58:05</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>237674959564</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:34:14</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>237674979451</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>EMPIRE COMPANY   LIMITED SWKBA CBOX R4 TCHOUALA GLADIS NADEGE</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>231013</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:26:33</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>237675207106</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>NEEH MANFOUO VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>518429</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:01:25</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>237675208505</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>HAPSATOU N A MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>16412</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:55:36</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>237675239360</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>NGO NKOT MARIE LOUISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>56311</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:14:53</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>237675329176</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>NGHOMBOMBONG ALPHONSE NKWANUI LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>148631</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2026-02-10 03:47:03</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>237675396752</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>BENEDICTE CHANTAL MANTSANG</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>12308</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:23:17</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>237675432472</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:26:50</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>237675443028</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>LYSETTE LEONELLE  S NGUENA</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:37:09</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>237675450046</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>FLORENT LOKO</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>69709</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:17:14</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>237675457527</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>TCHOUANKAP DJOMKAM ISMAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>17433</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:35:06</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>237675551814</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>PELAGIE AIMEE NTOUBA MPAKO</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>47369</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:33:53</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>237675555508</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>11873</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:47:15</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>237675556347</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>CLARISSE MAKOLO</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>33973</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:25:46</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>237675557616</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>KAMILAH CONNECTION LTDLA CBOX R1 KEUBOU CHANCELINE</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>137913</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:28:20</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>237675579920</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA_CB0118_LIELO</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:59:06</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>237675621967</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>NGO NTAMACK CECILE CECIC</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:37:30</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>237675626141</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>DIAMANCE ELVIA FEUDJIO</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>221373</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:01:25</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>237675641522</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>128278</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:01:06</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>237675779272</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:46:31</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>237675788721</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS TCHAWE MBOUGA JUDITH FLORE</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>18076</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:21:27</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>237675826419</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Sara Gaetane Njouma epse Ntoma</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>60864</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4403,6 +4403,1986 @@
         <v>60864</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2026-02-10 03:31:53</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>237675831509</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>41021</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:32:55</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>237675889982</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL JOSEPH MBANG</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:30:28</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>237675944533</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>LONGA ELDRINE ELYSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>26359</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:09:58</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>237675950748</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>ATANGANA HENRI EITEL ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>362153</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:44:23</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>237675986754</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>VIVIANE MANTO DZOUA</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>19864</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:36:11</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>237676036869</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>KENFACK VIRGINIE GIODELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>643408</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:33:19</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>237676036914</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>FRIDA ESUNG AJANG</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>304409</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:47:16</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>237676076193</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>AMADOU ROBERT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>172424</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:50:38</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>237676270842</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:17:53</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>237676286294</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>JEAN PIERRE KAMAYOU</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>265250</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:28:39</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>237676301061</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>FRANCIS BERTRAND BOGNING NGOUNE</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>181104</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:17:09</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>237676391673</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>GUEWADA HERVE MONIQUE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>206078</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:38:01</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>237676439452</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>191904</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:08:11</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>237676575053</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>MARIE MADELEINE YANKOUA</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>278649</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:03:41</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>237676664056</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>DJAMBOU SIEWE LOUIS MFS</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>316616</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:50:17</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>237676695935</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>MFS MAKEPE MATURITE</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>581483</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:58:19</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>237676770192</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>NADIA NANCY MEZOH PROGRESS</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>248889</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2026-02-10 22:21:16</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>237676840777</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ETP109 ETP</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>518927</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2026-02-09 05:02:12</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>237676974240</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>FRANCK DEUTOU NGAMENI</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>423090</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2026-02-10 07:08:39</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>237677178575</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>GISELE CLAIRE ZAGBOUE DJIALA</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>85957</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:47:05</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>237677304210</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>CARINE OROCK</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>257800</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:26:34</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>237677313421</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>WALTER OJONG EBANGHA</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>3522511</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:31:21</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>237677316351</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>JOSUE TCHAKO</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>36269</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:31:47</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>237677525770</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>47861</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:55:59</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>237677567788</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>NGOKAP TONKAM EMILLIE NADEGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>38215</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:54:18</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>237677745809</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>JOSEPHINE CLAIRE NGUENKAM KADJI</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>240311</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:49:59</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>237677831340</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>YEPCHE NGANSOP DORINELLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>17225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:33:22</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>237677833877</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>MEDJOM TAGNE MICHELLE GUILENE LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>83168</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:55:43</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>237677880357</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>1089990</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2026-02-10 06:03:05</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>237677939039</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ROMARIC TRESOR TCHOUNKEU MBAKOP ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:38:37</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>237678046498</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>MFS SOCAVER</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:46:24</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>237678183211</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>KAMTO NANGOP STEVE GAETAN ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>32283</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2026-02-10 20:12:58</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>237678201584</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>1187880</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:42:10</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>237678225987</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>LEOPOLD KUATE</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>71541</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:20:43</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>237678239927</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MADAGAL MOHAMED</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>20391</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2026-02-06 09:50:11</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>237678267353</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:22:19</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>237678319711</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>MUKAM KENGNE SIMPLICE COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>105786</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:18:20</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>237678370615</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>14585</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2026-02-03 04:19:08</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>237678384388</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>DJOUMESSI KEUMOU FLAUBERT COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>10226</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:13:53</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>237678530662</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>KEUDEM SONTSA GYSLAIN BERNY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>212064</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:01:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>237678559161</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>627843</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:27:34</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>237678623874</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>39427</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:27:28</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>237678637179</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ETS LAMARQUE PK8- ESG CAMPUS A 2</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>338895</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2026-02-10 07:01:27</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>237678722616</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>KWEDI BELLE GEORGES GAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:43:41</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>237678746317</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>EMMANUEL NWAE A BIEHE</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>339177</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:48:54</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>237678796497</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>MANIGANG NDALLOKA MARIE JOSIANE ALBARKA GN SARL</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:01:33</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>237678836319</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>48114</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:48:33</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>237678839078</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>TEWA TCHIFFO LANDRY MERVEIL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>521335</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:27:28</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>237678843959</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NGO NDJAYICK THERESE</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:52:03</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>237678854978</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>NSAMO NDJOUOHOU MICRANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>355531</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:53:35</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>237678872943</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>ZANKIA RAISSA DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>210974</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:52:34</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>237678922502</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>565162</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:56:42</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>237679038720</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>MUEINGNIEU MBIAWANG EPSE TCHATCHOUA ROSE ANNETTE Ets KENTO  Co</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>168477</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:15:31</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>237679068456</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>NDATSE EPSE NANWO ANGELE SOLANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>241647</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:02:21</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>237679071551</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>106378</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:11:50</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>237679085953</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>MADELEINE NKOUADJIO</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>67003</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:20:12</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>237679087694</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>VALERIE MADJUIKOUO</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>123199</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:49:27</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>237679093371</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>ADAMA SARRE</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>257575</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2026-02-10 11:41:40</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>237679097028</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>SIDOUENE ALLIANCE TCHOUAMEN</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>360779</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:02:51</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>237679111075</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>TCHAMABE YOSSA JEAN JOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>546983</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:51:33</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>237679127464</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2026-02-09 08:26:36</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>237679209479</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>TEDJON CLAUVIS FRANCIS TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2026-02-10 20:13:09</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>237679244994</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>5872271</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:08:19</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>237679338102</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>BLAISE TABE ETAH</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>361034</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:27:00</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>237679422176</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 28</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:42:31</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>237679422291</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 32</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:52:37</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>237679422591</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 42</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:55:38</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>237679428698</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 29</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:17:08</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>237679508295</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Valentine Kum Kang World T Plus</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>229535</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:30:11</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>237679548340</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>APPOLINE CLAUDE ANGOTCHOU</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>553455</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:27:21</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>237679550294</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>NGOUNOU JOSIANE GAELLE CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>44163</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:47:30</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>237679551262</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>JEAN JULES KALIA</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>50746</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:15:27</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>237679553674</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>DESIRE MAGINZANG MBOUEZKO</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>36748</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:15:52</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>237679567513</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>KWATIEU BLANDINE ATELCOM</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:19:47</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>237679580678</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Ngo Ndjeng Marie Pauline</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:45:45</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>237679604574</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>KINGUE KOMBI VICTORINE SIDONIE VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>35289</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:55:34</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>237679607838</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>AUBIN CYRIAQUE DEUGOUE FITCHEU</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>60748</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:58:01</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>237679654555</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>PAULINE NGUELEMO</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>126163</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:19:21</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>237679732169</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>HILAIRE EBWANGA FOTSO</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>176311</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:01:29</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>237679789713</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 68</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:19:51</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>237679791269</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 67</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:03:26</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>237679793647</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 71</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:59:42</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>237679808809</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>ANNETTE JASMINE EKOTTO</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>126721</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:14:54</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>237679869809</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>XAVIEE ROSINE MEZAMO</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>5725</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2026-02-10 02:05:02</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>237679882190</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL POUGA LOUISE MARGOT</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>283026</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:23:12</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>237679884264</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>MFS CICAM</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>77963</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:02:38</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>237679909537</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>19527</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2026-02-09 13:43:30</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>237680116452</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL NDE HENRI</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>81419</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:50:06</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>237680119435</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>N A BARRY ADJARA</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>454845</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:40:36</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>237680144977</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>NDZEMBATEH NDZENAPU N ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:20:30</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>237680415220</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>TIPA CHRISTELLE NADIA LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:32:27</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>237680435802</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>derice mboumela</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>467488</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:34:22</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>237680472978</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>EDITH NOPELBA</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>34710</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:49:46</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>237680574202</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>TOUMEWO SAMUEL</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>303967</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:39:50</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>237680670799</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>DJOMOU BETCHOWA PRESLEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:16:58</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>237680857383</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>MOUNIKIEL TECLAIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>406091</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:28:41</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>237680887643</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>VICTOR ANI ANI</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>55817</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:47:27</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>237680950910</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>LIBYA OIL CAMEROUN UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:38:59</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>237681019523</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>201096</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6383,6 +6383,1666 @@
         <v>201096</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:07:35</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>237681102046</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>CLARION MENKE BAKARI</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>79120</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:49:18</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>237681114247</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>MINDEM SARL ymele voufoYMELE VOUFO VANESSA</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:18:14</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>237681114370</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:23:50</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>237681118330</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>SAHA NDESA JONAS LTDLA_POLAS_OTH_NDOGBONG SERIE</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>408039</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:18:23</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>237681125655</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>EMENGUE PICHOU ROMEO KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>137219</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:31:19</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>237681180496</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>ALEX NGOUO YOUNDA</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>9944</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:00:49</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>237681240793</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:43:17</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>237681299829</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>NDEBI MEDARD DESIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:18:12</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>237681446273</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>CHRISTIANE MARTINE ALEXANDRINE NSANG EPSE ESSAKA EBOUMBOU</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>43120</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:48:56</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>237681490029</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>MOISE LONTCHI</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:14:45</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>237681589841</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>LEINTENG ROSE MARY</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>70456</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:07:51</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>237681602244</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>TSOMEJIO KENFACK NICAISE NESLIE ETS TCHATCHOUANG PAUL  ETP</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>62339</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:34:52</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>237681603496</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>ADVINE STEPHANIE NGOUNGO WABEU</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>295896</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:01:21</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>237681606646</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>DERRICK SONWA LONTIO</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>114713</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:26:57</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>237681611433</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Barry Diakariaou World T Plus</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>79704</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:04:43</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>237681655237</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>46613</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:42:15</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>237681655241</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>18433</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:53:01</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>237681656314</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>SWIRRI AZINWI NGANG LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>481905</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:42:32</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>237681657461</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MOKAM KOUAM VIVIANE</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>215288</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:41:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>237681657562</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>BLANDINE PEYEMBOUO</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>81593</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:39:44</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>237681657939</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:25:01</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>237681658403</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:09:33</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>237681662596</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 TIOKENG SANDRINE</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>589452</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:45:41</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>237681662606</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>119513</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:05:40</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>237681662680</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>112445</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:44:12</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>237681662761</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>ETS AMOUR DE DIEU SERVICES LTDLA_CBOX_R1_MBOCK NICOLE RUTH</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>61980</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:41:55</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>237681663743</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL FONGA SINTCHA YOLANDE MIREILLE</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>441531</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:33:52</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>237681676445</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>MELANIE NGAFFO</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>401091</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2026-02-09 15:12:33</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>237681677617</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MANFOUO TCHOUALA HUGUETTE</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>79864</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:30:17</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>237681678622</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>122195</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2026-02-10 21:51:16</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>237681679096</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>TAMNOU NGANGO ULRICH BERNARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>124569</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:06:49</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>237681679214</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>TIENTCHEU ROSINE CHRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>26962</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2026-02-10 18:14:48</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>237681679310</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DIALLO AMADOU OURY</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:16:02</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>237681679880</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>TSAKEM AGNES LAIDY ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>18717</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:02:38</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>237681862876</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>TIDO GARLINE NOGRA-POLAS-BTQ-MAKEPE MISSOKE</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>10280</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:07:12</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>237682117915</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>132271</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:18:35</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>237682154553</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>20837</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:41:36</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>237682238745</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>RACHEL PRUDENCE JIKE KETCHA</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>734434</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:41:01</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>237682316602</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>DANGA ZAMPA PATRICE VICKY TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>898713</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2026-02-10 09:53:22</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>237682323406</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT LAS VEGAS</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:59:09</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>237682368679</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>24203</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:20:36</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>237682370358</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>CARINE SONKENG</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>350161</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:15:47</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>237682430965</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>ELSA CABRELLE MAKOUNGANG ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>57098</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:20:24</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>237682480811</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>KENGNE TADJO LYNDA NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>597064</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:38:21</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>237682511457</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>FRANFORETTE NWOGUEP KODJOUO</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>55164</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:28:27</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>237682520113</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>KEUYAP NGATCHEU JUDITH JOSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>254361</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:43:10</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>237682639044</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>JOSEPH KAMGA</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>53913</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:54:44</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>237682764368</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LIEDJI GINETTE</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>503106</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:30:43</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>237682798275</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>NGAFFO YOCADINE BENEDITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2026-02-10 02:27:05</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>237682803277</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>NGUEMASSOM RENE MARTIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:36:45</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>237682814055</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>DIALL BOUCARI KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>23560</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:47:09</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>237682827350</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>ALAIN GACIEN DOUANLA</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>441750</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:53:40</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>237682975726</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL NYOUNG JOSEPH CLOTAIRE</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>182156</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2026-02-09 14:50:06</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>237683023087</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>FAGHUIE ABIBA</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>580555</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:34:21</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>237683075075</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>PARFAIT TEMOH DAH</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>322352</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:17:36</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>237683079541</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>THIERRY MELINGUI AYINA</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>200040</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:18:08</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>237683165199</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>DIALLO MAMADOU LAMINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:09:38</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>237683279255</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Deuffi Yvonne laurette LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:11:32</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>237683323481</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT TSAZE DONFOUET FLORETTE ROSINE</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>576123</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2026-02-10 21:05:50</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>237683353137</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>VOUGMO NGUEMO MERLIN WILLIAM ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>238659</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:47:31</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>237683356603</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>MFS MATCHINDA SENDRINE</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:38:08</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>237683356768</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>RUSSEL LECLER KOUTJEM</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>219074</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2026-02-10 00:56:11</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>237683360459</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:58:43</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>237683366333</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DJIAGUE JEANNETTE</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>33240</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:54:52</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>237683368985</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>MFS BELL HENRIE BERNARD</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>240076</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:09:57</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>237683379070</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>MELI DOUANLA ORNELA LINDA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>1309653</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:03:30</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>237683379155</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>NIMBUNG EPSE BWEH ODETTE</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>739806</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:23:20</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>237683379207</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>NANFACK EPSE SOKENG SOLANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>162662</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:11:43</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>237683386020</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>8632</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:07:47</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>237683394976</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>DIALLO MAMADOU OURY</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>15860</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:29:50</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>237683395123</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>87704</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:48:08</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>237683396173</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>115623</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:42:30</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>237683400719</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>CHANCELINE LAGMAGO</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>169858</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:27:10</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>237683408221</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>KOMI GISELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>69841</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:08:28</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>237683432110</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>ARNAUD GHISLAIN FOSSO</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>818170</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:43:57</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>237683454059</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>ELISABETH MARIE ETIENNE ANZIN</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>59951</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2026-02-10 12:35:10</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>237683454060</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>RTS BP CITÉ</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>6635</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:02:10</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>237683555873</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>1291825</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:38:12</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>237683557193</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>KOUYEKE MONIQUE LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>22845</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:14:32</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>237683612202</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>ALBERTINE TIBELLE DONGMO NANFACK</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:31:46</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>237683730580</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA_CBOX_R1_TSAFO NICOLE</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>330575</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:46:49</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>237683743490</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT NGAH MARIE</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>10613</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:50:52</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>237683815311</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>2759</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,6 +2135,446 @@
         <v>682483</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:02:52</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>237671823369</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>103700</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:50:43</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>237672128028</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DELVIN NDIFON BAH</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>64935</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:37:59</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>237672277367</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1100121</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:23:12</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>237674853971</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>379307</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:01:40</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>237674884705</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>19074</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:36:14</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>237675779272</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>137655</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:54:38</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>237677304210</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CARINE OROCK</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>90031</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-06 09:50:11</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>237678267353</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:24:33</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>237678370615</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>123243</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:14:13</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>237678836319</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>109522</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:58:14</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>237678922502</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>563253</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:10:23</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>237679884264</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MFS CICAM</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>117365</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:32:34</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>237681019523</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>90676</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:54:37</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>237681125655</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>EMILE MADELO</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>12821</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:09:32</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>237681240793</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:38:08</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>237682117915</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>23687</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:37:09</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>237682154553</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>31551</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:36:22</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>237682803277</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NGUEMASSOM RENE MARTIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>69625</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:06:30</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>237683323481</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT TSAZE DONFOUET FLORETTE ROSINE</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>509243</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:29:21</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>237683368985</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MFS BELL HENRIE BERNARD</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>232132</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:43:45</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>237683432110</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ERODINE TOUMENI</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>822255</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:34:26</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>237683743490</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT NGAH MARIE</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>4823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-11 14:45:58</t>
+          <t>2026-02-11 16:16:24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15019</v>
+        <v>12778</v>
       </c>
     </row>
     <row r="7">
@@ -2573,6 +2573,1086 @@
       </c>
       <c r="D107" t="n">
         <v>4823</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:47:45</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>237679909537</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>14665</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:35:54</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>237681114370</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>39739</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:49:28</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>237681490029</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>7335</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:14:21</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>237681655237</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>38195</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:56:37</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>237681662606</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>51963</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:42:52</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>237681662680</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>100639</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-02-10 17:06:49</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>237681679214</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>TIENTCHEU ROSINE CHRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>26962</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:56:26</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>237651927707</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>LEONARD TATSINKOU DZONDA</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>21017</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:00:58</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>237654270800</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>331375</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:00:15</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>237674069453</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>118407</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:01:20</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>237674895078</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>87492</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:26:25</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>237674895309</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>BORIS LIONEL FOTSING WENCI</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>174191</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:35:34</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>237675826419</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sara Gaetane Njouma epse Ntoma</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>200938</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:09:57</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>237676286294</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>TECLAIRE KAMENI TCHOKOTHE KEMAYOU EPSE TCHANI</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>236900</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:06:48</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>237677313421</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>SOFT DEAL TRADING LIMITED ESG CAMPUS A</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>2612991</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:21:59</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>237677880357</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>342694</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:52:38</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>237678201584</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>3986182</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:03:12</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>237678239927</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ANGELE FLAURE EDJAN EKANDJOUM</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>17317</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:47:30</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>237678623874</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CHANCELVIE KAYI NGOGO</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>414220</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:24:24</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>237678637179</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ETS LAMARQUE PK8- ESG CAMPUS A 2</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>959163</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:38:54</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>237679567513</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>KWATIEU BLANDINE ATELCOM</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:09:46</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>237680119435</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Beni Donnatien Mpeck</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>526607</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:13:36</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>237683386020</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:24:20</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>237683408221</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>KOMI GISELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>34491</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:02:22</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>237650651854</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>65353</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:10:47</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>237650988697</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>FABASSOU GASPARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>242620</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:09:03</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>237651809692</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>AUREL KAMTA TEUMEN</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>574287</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:30:51</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>237652579681</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NGOUBE NGOUPAYOU ARAMI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:59:57</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>237652724076</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>286398</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:56:48</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>237652958984</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>124764</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:02:23</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>237653239050</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ARMAND KAMTA KUITSA</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>782783</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:02:00</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>237653472620</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>373702</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:09:09</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>237654117741</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>143892</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:22:04</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>237654134124</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Atangoh Hustencia ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>392100</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:32:58</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>237670358585</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>50950</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:40:21</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>237670806337</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:09:26</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>237670809743</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>480142</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:07:48</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>237670984670</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>169952</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:00:57</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>237671364668</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ODETTE PELANTITCHOUWE</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>113445</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:04:07</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>237671369692</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>EDITH MELI TEMZENETCHOU</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>198191</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:50:35</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>237674272162</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>BERIAUD NDADA TCHEUTCHOUA</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>675226</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:25:29</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>237674431977</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>444434</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:37:51</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>237674913584</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>MATHIEU TAGNE TCHOUEDEM</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>212687</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:14:54</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>237675432472</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>75168</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:34:49</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>237675450046</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>94610</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:08:40</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>237675641522</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>484778</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:41:00</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>237676270842</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>129660</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2026-02-10 15:31:47</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>237677525770</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>47861</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:48:45</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>237679071551</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>50620</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:40:30</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>237680472978</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>NICOLAS BIKECK</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>57978</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:03:11</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>237681102046</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>FRANCOISE NKENFACK NKENGMO</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>66892</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2026-02-11 05:47:32</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>237682368679</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>79302</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2026-02-10 00:56:11</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>237683360459</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:33:39</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>237652899422</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>AUGUSTIN MERIMEE DJEMELE TSAFACK</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>436587</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3655,6 +3655,1646 @@
         <v>436587</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:23:05</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>237670904526</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:35:14</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>237671105116</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:06:23</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>237672916354</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>MCLEWIS ESEME NGOLE EKANE</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>13654</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:39:27</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>237672920086</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>196942</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:00:49</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>237674000053</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:28:50</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>237674841555</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>327685</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:07:42</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>237674899678</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>88532</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:10:30</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>237676439452</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>MARINA MANANG GWAI</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>245162</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:48:56</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>237676695935</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>MFS MAKEPE MATURITE</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>478493</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:19:57</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>237677745809</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>MOUSSA ABOUBAKAR</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>272103</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:35:40</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>237679127464</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>46316</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:24:11</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>237679422291</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 32</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:30:51</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>237651433330</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20936</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:06:58</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>237654168696</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:51:49</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>237670799877</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MENANDJIO HORTENSE BIENVENUE</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>718737</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:31:06</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>237671351291</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>EVILORE PULCHERIE NGAKE MBOU</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>586709</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:45:14</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>237671378136</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>154462</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:49:42</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>237671605749</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1004585</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:44:49</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>237671615641</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>BEGO FOGUE CHRISTELLE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>36236</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:15:08</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>237673739931</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>colette sergine nane</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:13:36</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>237674466307</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>MFS MEYIMDOUNG MARIE LOUISE</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>46941</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:15:10</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>237674959564</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2026-02-11 09:38:24</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>237675208505</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>HAPSATOU N A MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>15734</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:57:15</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>237675555508</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:00:20</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>237675557616</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>ALEXIS EYONG AGBOR</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>100211</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:30:13</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>237676301061</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>NGO TONYE ELISE AUDREY STYLE.COM</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>131597</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2026-02-11 08:00:51</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>237677939039</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>ROMARIC TRESOR TCHOUNKEU MBAKOP ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:50:35</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>237678225987</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>REGINE NGAMBA</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>21398</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:07:51</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>237679553674</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>DESIRE MAGINZANG MBOUEZKO</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>129711</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:10:23</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>237679654555</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>PAULINE NGUELEMO</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>217843</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:36:39</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>237679789713</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 68</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:07:26</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>237681589841</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>LEINTENG ROSE MARY</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>102572</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:51:10</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>237681676445</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>MELANIE NGAFFO</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>368456</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:13:28</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>237681678622</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ANTOINEMARTIN KEVIN LINDJECK</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>107997</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:12:42</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>237683815311</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:06:56</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>237651533411</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>NADINE FLORE MEKA EPS TCHENGA</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>87920</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:01:05</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>237651843112</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>VICTOR HUGO NZODE</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>60029</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:11:02</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>237652297747</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>80679</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:18:50</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>237653316656</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>THIERRY MARTIN TESSADJOU FONDONG</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>302788</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:27:39</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>237671290825</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>NJOUME DENISE EBOUDE</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:53:08</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>237672276931</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>MIREILLE MAGOLACK FOMEKONG</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:41:43</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>237674580187</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>ROSETTE SIGHOM</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>24685</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:30:03</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>237674673359</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>213985</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:56:50</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>237674769580</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>VAKSA BELLO</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>72983</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:11:30</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>237674926472</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>NGO SAMNICK ELISABETH JOSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>88012</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:06:30</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>237675831509</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>7507</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:38:14</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>237676770192</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>alexia duma densai</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>443879</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:33:58</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>237680857383</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>DOMINIK BEN BELL</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>360193</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:55:17</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>237681180496</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ALEX NGOUO YOUNDA</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:20:30</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>237681299829</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>PATRICIA NKASSA</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>64656</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:17:27</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>237681657939</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>9069</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:02:16</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>237675944533</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>LONGA ELDRINE ELYSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>58906</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2026-02-10 13:22:19</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>237678319711</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>MUKAM KENGNE SIMPLICE COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>105786</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:09:28</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>237654261990</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>JEAN RODRIGUE KAMDEM</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>257110</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:26:16</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>237670148911</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>FRANKLIN NGONGFARH</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:21:02</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>237671517964</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 214</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:52:06</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>237671823371</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>MFS MARCHE BEEDI</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:47:07</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>237671838460</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>71698</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2026-02-11 08:02:44</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>237674248126</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NKWAKETP ANNIE ARISTIDE</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>110293</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:21:02</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>237674629681</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ROSINE SOCBOU KENNE</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>481820</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:50:05</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>237674929391</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>BILI TATIANE METSADJIO</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>323738</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:03:02</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>237680670799</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>DJOMOU BETCHOWA PRESLEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>13121</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:18:24</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>237681679880</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>TSAKEM AGNES LAIDY ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>9827</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:54:23</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>237682827350</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ETS KASSAV ENGINEERING</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>429704</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:33:32</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>237683400719</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ROSIANE NADINE NGUEFO</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>249634</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:53:03</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>237652356041</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>AGNES EMILIENNE AZEBAZE DJOUAKA</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>827397</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:39:24</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>237652817931</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SENGUE RUTH NICAISE YOLANDE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>496929</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:30:42</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>237653816480</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>BERYL NAKOMA TOUFOIN TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>1243173</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:42:06</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>237654020285</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>BRIGITTE ANNISSE YAMBOCK</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>28115</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:21:17</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>237670809154</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>TCHUISSANG BETTOU CHARLINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>193731</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:05:19</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>237672695037</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>LYNE ARIELLE KEMKUMING TSANANG</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>426648</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:14:08</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>237674679432</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>MAO STEPHANE LEUGA</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>53225</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:09:45</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>237674928987</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>MFS TSAFACK KEMENE VIVIEN CEDRIC</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>328168</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:16:17</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>237676664056</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>DJAMBOU SIEWE LOUIS MFS</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>396142</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2026-02-09 05:02:12</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>237676974240</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>FRANCK DEUTOU NGAMENI</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>423090</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:26:20</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>237679422176</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 28</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:52:43</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>237679607838</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>MARIE CLAIRE MIREILLE EKOUNDA EPSE KWEMO FOZE</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>119244</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:37:30</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>237680887643</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>BEUTCHOM VIVIANE MELANIE TOP MOBILE TELECOM</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>56117</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:57:33</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>237680950910</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>GEORDAN DIBEL WAFFO MTOSSI</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:42:27</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>237652194293</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>MABEKOU TALLA MARIELLE SANDRA _MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>627182</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:59:32</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>237652386684</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>MARTIALE IDA NGAKAM</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>474267</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:12:46</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>237652927180</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>BRICE NKEMBIE NJIOMU</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>415196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,6 +5295,26 @@
         <v>415196</v>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:03:10</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>237679038720</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>MUEINGNIEU MBIAWANG EPSE TCHATCHOUA ROSE ANNETTE Ets KENTO  Co</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>82844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5315,6 +5315,1226 @@
         <v>82844</v>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:15:16</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>237679087694</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>RODELPHA TANE TATSIDA</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>82791</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:44:42</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>237679869809</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>XAVIEE ROSINE MEZAMO</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>16393</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:31:26</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>237680435802</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>derice mboumela</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>1525642</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:43:05</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>237681114247</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>LIVIE CHRISTIANE NGOUFACK SONTIA</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>85354</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2026-02-11 09:01:34</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>237681602244</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>TSOMEJIO KENFACK NICAISE NESLIE ETS TCHATCHOUANG PAUL  ETP</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>10339</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:02:37</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>237681606646</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DONFACK PAULINE PELAGIE</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>152371</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:28:54</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>237681655241</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>38042</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:58:37</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>237681658403</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>147230</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:21:30</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>237681862876</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>TIDO GARLINE NOGRA-POLAS-BTQ-MAKEPE MISSOKE</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>12408</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:31:35</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>237683555873</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>658042</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:20:15</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>237654037914</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL YONGA RUSSEL DONALD</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>24303</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:49:58</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>237674243367</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:37:29</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>237681656314</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>SWIRRI AZINWI NGANG LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>448279</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2026-02-11 05:00:54</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>237682511457</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>FRANFORETTE NWOGUEP KODJOUO</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>80586</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:36:39</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>237650934256</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>DIDIER ROMUALD MBAKOP NYA</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:52:52</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>237652275301</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>NDAMI EPSE NONGA ROSALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:29:56</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>237652427111</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>CELESTINE CHANTAL MENDJOBOU EPSE NZIAKOU NJANJO</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>46749</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2026-02-11 08:32:49</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>237671645947</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>CLOVIS TAMKOU SOCTOUO</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>24776</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:03:09</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>237672064755</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>KENFACK FRANC DUVIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>1155719</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:30:18</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>237672956746</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>ALAIN MOISE NDJONG ITALEN</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:14:10</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>237673718583</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Soppi Verole ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>250482</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2026-02-11 09:14:48</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>237674933048</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NINZEGA EMILIENNE CLAIRE</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:13:10</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>237675950748</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ATANGANA HENRI EITEL ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>222843</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:48:59</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>237682520113</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>KEUYAP NGATCHEU JUDITH JOSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>205235</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:27:24</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>237683356603</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>MFS MATCHINDA SENDRINE</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>11827</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:48:42</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>237683394976</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>DIALLO MAMADOU OURY</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>13786</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:27:53</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>237683395123</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>105285</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:55:38</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>237670174030</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_FOHOM STEPHANE THIERRY</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>86097</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:28:19</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>237679111075</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>TCHAMABE YOSSA JEAN JOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>289231</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2026-02-11 17:38:42</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>237681611433</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Barry Diakariaou World T Plus</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>73806</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:52:47</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>237652194260</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>NADEGE MALEUTCHOUA</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>739368</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:12:57</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>237652667691</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>OLIVIA BI</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>36045</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:39:37</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>237670473852</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 MAGNE TALLA EMILIE</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>387450</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:13:02</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>237673018936</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>EJUH AKEP EUGENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>51934</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:00:26</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>237673560726</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>MAGUELON NADERGE -CHIC MOBILE</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>9875</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:03:33</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>237674450580</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>TCHIYADJE VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>31259</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:48:24</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>237674929417</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>HORTANCE MANTHO</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>54522</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:01:57</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>237677316351</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>QUELIE LOVE KAGE LEUYOUM</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:17:07</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>237677831340</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>YEPCHE NGANSOP DORINELLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>27133</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:33:54</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>237678843959</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NGO NDJAYICK THERESE</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>35994</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:22:44</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>237679068456</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>NDATSE EPSE NANWO ANGELE SOLANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>228147</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:57:10</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>237679793647</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 71</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2026-02-11 09:48:27</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>237682323406</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT LAS VEGAS</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:19:55</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>237682764368</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LIEDJI GINETTE</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>755746</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:46:01</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>237682814055</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>SORELLE REINE MAKANKEU TENE</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>31910</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:57:32</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>237683079541</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>THIERRY MELINGUI AYINA</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>243401</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:17:27</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>237683379070</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>MELI DOUANLA ORNELA LINDA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>806983</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:19:01</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>237683730580</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>DANIELLA KOMGUEP KOUAMO</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>46349</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:56:33</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>237651213730</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>NZONDE GABRIEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>147892</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2026-02-11 17:12:58</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>237652071114</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL TALLA BOYOM JEAN ERNEST</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>145243</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:37:54</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>237652285489</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>joseline kenne</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>108119</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2026-02-11 17:55:52</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>237652940152</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>GISAWO AIME LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>187901</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:30:14</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>237654137136</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>NGANGUE NDOUMBE CHARLOTTE MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>259628</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2026-02-11 09:58:52</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>237671694408</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>LOUISE STEPHANIE ZEH</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>144302</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:51:12</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>237672279571</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>MOTCHUENG MADO LIONNELLE_ TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>1477567</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:48:35</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>237672777139</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>CHOURUPOUO MBAKOP ABDEL MFS</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>165980</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:40:28</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>237673220938</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>KAMGANG TOMDJIO SIMEONE BABETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2026-02-11 17:01:17</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>237674437082</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>MODESTE NGOUKOUA</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>55319</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:53:52</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>237674895877</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>jeanne annie ngo mback</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>365789</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:11:48</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>237674956331</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>ODETTE KUYUKEH</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>256053</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:34:41</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>237674979451</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>EMPIRE COMPANY   LIMITED SWKBA CBOX R4 TCHOUALA GLADIS NADEGE</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>72051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6535,6 +6535,346 @@
         <v>72051</v>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2026-02-11 18:25:33</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>237676840777</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>IVANS FANWOUM NOUPOUEH</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>193917</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:17:49</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>237677833877</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>MEDJOM TAGNE MICHELLE GUILENE LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>131184</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:24:19</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>237678854978</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>NSAMO NDJOUOHOU MICRANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>92731</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2026-02-11 15:22:13</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>237679422591</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 42</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:00:57</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>237650353920</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>612128</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:42:44</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>237651927448</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>ODETTE MABAKOU EPOUSE KENNE</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>172411</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:42:19</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>237653294562</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>847745</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2026-02-11 17:34:56</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>237678046498</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>MFS SOCAVER</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>6477</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2026-02-11 09:56:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>237679428698</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 29</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:59:28</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>237679551262</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 MEGNE JUDITH</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>152434</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:21:14</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>237680574202</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>TOUMEWO SAMUEL</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>224117</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:06:11</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>237681118330</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>SAHA NDESA JONAS LTDLA_POLAS_OTH_NDOGBONG SERIE</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>132896</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2026-02-11 13:47:47</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>237674446293</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>ARSENE TITCHO KWAKEP</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>11136</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:40:19</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>237679085953</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>FERNANDEZ NJOFANG TCHIYADJE</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>58169</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:49:33</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>237681662761</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>ROLCHILE DJAMEN KOUDJOU</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>8697</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2026-02-11 17:31:02</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>237682975726</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL NYOUNG JOSEPH CLOTAIRE</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>114072</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2026-02-11 18:21:36</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>237683075075</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>GLADYS LANG NGOINSEH</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>134739</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1435,6 +1435,726 @@
         <v>107201</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-02-09 08:26:36</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>237679209479</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>TEDJON CLAUVIS FRANCIS TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:15:36</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>237679732169</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>HILAIRE EBWANGA FOTSO</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>123586</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:55:14</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>237679791269</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 67</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:50:44</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>237681663743</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL FONGA SINTCHA YOLANDE MIREILLE</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>544540</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:26:46</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>237682480811</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>KENGNE TADJO LYNDA NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>115972</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-02-12 11:33:58</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>237682798275</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NGAFFO YOCADINE BENEDITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>76900</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:39:54</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>237683165199</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DIALLO MAMADOU LAMINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>14234</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:44:41</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>237683454059</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RTS BELLE HOLLANDAISE</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>211783</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:30:07</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>237653423810</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TEFFO ALAIN NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>151896</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:17:25</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>237653430377</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>KENGNE KUATE AUBIN ULRICH ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>490795</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:19:20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>237670097580</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ALBERT FILS NYEMECK</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>779460</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-12 10:42:52</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>237670709824</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NAABI FINANCE PIERRE</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>117713</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:23:18</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>237671358082</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>VALERY MBAH FOLAPNEH</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>414447</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:16:05</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>237672777369</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NADINE ELIZABETH TOCKE EPOUPA</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>153732</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:11:10</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>237674062440</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BIANKE HEUTCHOU FRANKLIN ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:48:40</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>237674323650</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>OHANDZA CLOTILDE ANTOINETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>49324</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:08:30</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>237675579920</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA_CB0118_LIELO</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:08:53</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>237676575053</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MARIE MADELEINE YANKOUA</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>440341</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:26:38</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>237679338102</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>IKECHELI KEPSEU IFEOMA YANELL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>131274</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:23:46</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>237681657562</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>BLANDINE PEYEMBOUO</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>9597</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:31:46</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>237683612202</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DANIEL RUDY ETONNO</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>16804</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:08:14</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>237651988929</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>UKAM EPSE TANYI HELDA BETTEH ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:55:16</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>237653190282</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>JANGMAN LIBA ERICA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>10092</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:05:28</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>237653674387</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL PAGDABANG PIERRE LOTI</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>200757</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-12 18:06:46</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>237653946894</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DJENE ETONGUE GERMAINE ROYAL LOGISTICS</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>46326</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:29:38</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>237653959075</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>JOUNEDOU NDOUKOUO</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>596211</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:25:02</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>237654138873</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PRAISE NJI-FONJIA NGOASONG</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:39:25</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>237654150202</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MOHAMED YAP POUAMOUN</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:13:40</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>237654355100</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>abdou arahime sundzeh</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>125869</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:50:48</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>237670018166</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CECILE NONO SIMO</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>266207</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:49:26</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>237671563291</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 221</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:24:58</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>237671664239</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ANEBEP ZEPHERINE MFS</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>206581</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-02-12 11:45:34</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>237671823369</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>252447</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:31:37</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>237672128028</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CAROLINE WAKO DJAMNOU</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>32871</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:12:47</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>237672277367</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>290996</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:49:31</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>237674853971</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>16026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,6 +2155,1586 @@
         <v>16026</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:53:17</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>237674884705</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>22426</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:57:05</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>237675779272</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>266355</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:02:06</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>237677304210</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ANDRE MARIE NSIA</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>57939</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-06 09:50:11</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>237678267353</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:54:34</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>237678370615</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>496297</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:53:02</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>237678836319</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>161580</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:34:42</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>237678922502</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>551417</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:27:01</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>237679884264</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MFS CICAM</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>198287</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:32:32</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>237681019523</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>48476</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:40:34</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>237681125655</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>EMENGUE PICHOU ROMEO KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:21:28</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>237681240793</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:53:57</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>237682117915</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>114053</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-02-12 10:54:41</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>237682154553</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>261921</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:28:42</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>237682803277</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NGUEMASSOM RENE MARTIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>53395</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:07:24</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>237683323481</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT TSAZE DONFOUET FLORETTE ROSINE</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>510837</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:04:00</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>237683368985</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>BLESSING MUMBANG NSALAR</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>76318</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:14:16</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>237683432110</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ERODINE TOUMENI</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>657145</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:33:00</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>237683743490</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>EMMANUEL JOSEPH KENFACK DJEUMENI</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:52:21</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>237651346686</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>DANIEL BLAISE MOUCHIE</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>143102</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:44:46</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>237654508603</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NINA MORELLE KUEDONG NGUETSA</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>567368</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:07:27</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>237672731004</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>OLVIANE LISE HENDJIE YOUMBI EPOUSE NGEULASSI</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-02-11 11:27:13</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>237674884831</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>VOUMO MESSALEMO ESTHER TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>985235</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:15:10</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>237675986754</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>VIVIANE MANTO DZOUA</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>13342</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-03 04:19:08</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>237678384388</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>DJOUMESSI KEUMOU FLAUBERT COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>10226</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:51:36</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>237678559161</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:43:30</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>237678872943</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ZANKIA RAISSA DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>62563</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-02-12 19:54:13</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>237679244994</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>3923301</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-02-12 18:34:42</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>237679508295</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Valentine Kum Kang World T Plus</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>17752</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-02-12 18:12:54</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>237679808809</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>TONLEPEU NGALAGNI CHANCELINE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>170803</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:25:35</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>237679909537</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20689</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:32:14</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>237681114370</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:26:07</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>237681490029</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>77491</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:07:09</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>237681655237</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:10:00</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>237681662606</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>309755</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:51:12</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>237681662680</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>234365</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:56:08</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>237681679214</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>TIENTCHEU ROSINE CHRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>22572</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:00:48</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>237651927707</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ELVICE NGOH WONG</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>68939</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:57:00</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>237654270800</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>704541</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:40:12</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>237674069453</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>144307</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:30:02</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>237674895078</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:16:47</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>237674895309</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>RAISSA MEGANE NDJONGUI NNANE</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>359301</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:32:34</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>237675826419</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sara Gaetane Njouma epse Ntoma</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>100434</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:09:57</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>237676286294</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>TECLAIRE KAMENI TCHOKOTHE KEMAYOU EPSE TCHANI</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>236900</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:22:43</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>237677313421</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>WALTER OJONG EBANGHA</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>3228841</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:16:07</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>237677880357</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>245184</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-02-12 20:01:15</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>237678201584</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>965961</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:36:39</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>237678239927</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>EMMERIE SUISSE YOUSSEU DJOMALEU</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-02-12 09:54:45</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>237678623874</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>191120</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:04:41</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>237678637179</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ETS LAMARQUE PK8- ESG CAMPUS A 2</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>959113</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:28:03</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>237679567513</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>KWATIEU BLANDINE ATELCOM</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:21:30</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>237680119435</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Jospin Maurice wangue</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>176787</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:44:51</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>237683386020</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>32361</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:05:03</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>237683408221</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>KOMI GISELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>257666</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-02-12 18:49:31</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>237650651854</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>274793</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:54:46</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>237650988697</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>FABASSOU GASPARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>356070</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:00:44</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>237651809692</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>AUREL KAMTA TEUMEN</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>559669</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:43:46</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>237652579681</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>LAURENT BIFOU</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>128777</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:04:47</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>237652724076</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>285398</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2026-02-12 05:02:51</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>237652958984</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>324514</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:25:15</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>237653239050</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ARMAND KAMTA KUITSA</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:14:34</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>237653472620</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>349143</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:24:34</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>237654117741</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>208866</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:53:42</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>237654134124</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Atangoh Hustencia ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>86266</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:19:28</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>237670358585</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>154456</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:44:16</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>237670806337</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:58:45</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>237670809743</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>MADELEINE NGUETNIA</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>10441</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:18:08</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>237670984670</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>101180</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:30:54</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>237671364668</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ODETTE PELANTITCHOUWE</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>343731</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:21:05</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>237671369692</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ELVIS MBONGOO</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>209173</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:08:25</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>237674272162</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>316776</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:43:04</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>237674431977</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>2241081</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2026-02-12 03:42:37</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>237674913584</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>DELPHINE ENDAM SANDAG</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>240659</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:59:46</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>237675432472</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>17738</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2026-02-11 10:34:49</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>237675450046</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>94610</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:56:51</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>237675641522</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>279270</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:23:06</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>237676270842</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>35248</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:52:00</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>237677525770</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>76760</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-02-12 11:53:28</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>237679071551</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>169090</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:20:43</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>237680472978</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>NICOLAS BIKECK</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>174866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3735,6 +3735,1666 @@
         <v>174866</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:10:15</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>237681102046</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>FRANCOISE NKENFACK NKENGMO</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>57802</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:23:40</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>237682368679</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2026-02-10 00:56:11</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>237683360459</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:55:03</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>237652899422</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>NOUMOU epouse SAGNON MARCELINE LA NEGRESSE</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>38059</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:32:48</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>237670904526</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>48379</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:35:13</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>237671105116</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:57:36</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>237672916354</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>14072</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:52:34</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>237672920086</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>105458</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:30:54</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>237674000053</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>596273</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:30:54</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>237674841555</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>386599</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:15:09</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>237674899678</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>WILFRIED NGNIPIEME NDE</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>150171</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2026-02-12 11:34:35</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>237676439452</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>ELIE HIBERT WANSI DJOMALEU</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>486609</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:03:05</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>237676695935</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>MFS MAKEPE MATURITE</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>671781</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:09:22</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>237677745809</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>JOSEPHINE CLAIRE NGUENKAM KADJI</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>247953</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:27:19</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>237679127464</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>15823</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:16:11</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>237679422291</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 32</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>100008</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2026-02-12 02:30:12</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>237651433330</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:19:33</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>237654168696</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>14497</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:52:30</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>237670799877</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MENANDJIO HORTENSE BIENVENUE</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>714965</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:51:29</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>237671351291</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>MFS LTDLA CBOX R3 MOUTHIEU JOSETTE CHANCELINE</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>329725</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:15:51</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>237671378136</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>173503</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:39:28</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>237671605749</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>291756</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:56:50</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>237671615641</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>JOSEPH DJOUKTOUING AOTOUING</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>25338</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:50:06</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>237673739931</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>MOFFO GERMAIN SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>48845</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:24:21</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>237674466307</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>MFS MEYIMDOUNG MARIE LOUISE</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>144681</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:07:34</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>237674959564</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2026-02-12 06:23:39</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>237675208505</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>MARIE SOLANGE TSAFACK TIOMO</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>25334</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:24:55</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>237675555508</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2026-02-12 11:10:22</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>237675557616</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SEDRIQUE PEKEKO SUEYEBO</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>160747</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:54:35</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>237676301061</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>eric Rodrigue djelo</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>149104</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:58:03</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>237677939039</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>ROMARIC TRESOR TCHOUNKEU MBAKOP ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:07:46</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>237678225987</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>FINGO FOTO SOPHIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>82164</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:35:05</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>237679553674</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DESIRE MAGINZANG MBOUEZKO</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>60583</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:49:59</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>237679654555</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>PAULINE NGUELEMO</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>137161</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:06:06</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>237679789713</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 68</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:51:26</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>237681589841</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>LEINTENG ROSE MARY</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>184768</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:04:17</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>237681676445</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>MELANIE NGAFFO</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>325442</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:30:44</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>237681678622</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>11921</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:34:23</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>237683815311</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:59:07</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>237651533411</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>TETHA FRANCLIN GEORGES ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>47771</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2026-02-12 02:25:00</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>237651843112</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>NLOGA NGO SIPORAH FELICITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>30029</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:22:38</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>237652297747</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>124405</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:52:14</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>237653316656</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>TAMOKOUE HUGUES PASCAL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>131468</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:14:22</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>237671290825</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>LONGMENE FLORIDE NINA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2026-02-12 07:01:26</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>237672276931</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>MIREILLE MAGOLACK FOMEKONG</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:26:08</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>237674580187</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>ROSETTE SIGHOM</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>21739</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:11:59</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>237674673359</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>191735</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:10:43</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>237674769580</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>SANDIE KAMGUE BELVA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>7583</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:48:59</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>237674926472</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>NGO SAMNICK ELISABETH JOSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>29836</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:24:01</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>237675831509</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>7407</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:18:22</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>237676770192</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>MBOUOMBO PEHUIE JOSEPHINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>288331</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:53:17</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>237680857383</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>MOUNIKIEL TECLAIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>358710</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:13:25</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>237681180496</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ALEX NGOUO YOUNDA</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>25418</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:08:06</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>237681299829</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>NDEBI MEDARD DESIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:05:18</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>237681657939</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>52907</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:36:00</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>237675944533</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>LONGA ELDRINE ELYSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>109549</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:54:19</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>237678319711</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>MUKAM KENGNE SIMPLICE COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>39394</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:28:07</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>237654261990</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>DOUANLA NOUPONG LEOPOLDINE TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>241356</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:52:18</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>237670148911</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>FRANKLIN NGONGFARH</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>28426</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:59:35</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>237671517964</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 214</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2026-02-12 11:06:39</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>237671823371</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>MFS MARCHE BEEDI</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:47:10</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>237671838460</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>107194</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:35:59</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>237674248126</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NKWAKETP ANNIE ARISTIDE</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>197493</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:45:38</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>237674629681</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ROSINE SOCBOU KENNE</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>507782</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:00:24</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>237674929391</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>BILI TATIANE METSADJIO</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>105074</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:47:10</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>237680670799</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>DJOMOU BETCHOWA PRESLEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>377121</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:14:39</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>237681679880</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>TSAKEM AGNES LAIDY ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:49:31</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>237682827350</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ETS KASSAV ENGINEERING</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>190218</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:04:30</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>237683400719</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>CHANCELINE LAGMAGO</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>205084</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:47:34</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>237652356041</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>HELMIA MBURLI TAMNJONG</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>967653</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:04:44</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>237652817931</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>david MAYA</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>167955</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:29:36</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>237653816480</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>BERYL NAKOMA TOUFOIN TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>889899</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:00:09</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>237654020285</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>BRIGITTE ANNISSE YAMBOCK</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>118971</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:15:55</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>237670809154</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>TCHUISSANG BETTOU CHARLINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>99705</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:10:44</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>237672695037</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DOMCHE GAPIMSI N A</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>344434</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:39:14</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>237674679432</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Sekou Kevine Chanelle ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>195667</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:33:13</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>237674928987</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>MFS TSAFACK KEMENE VIVIEN CEDRIC</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>369662</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:23:35</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>237676664056</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>DJAMBOU SIEWE LOUIS MFS</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>1002316</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2026-02-12 04:08:41</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>237676974240</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>YAMBA KEMAJOU DANIELLE MERCY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>422590</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:26:20</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>237679422176</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 28</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:58:26</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>237679607838</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>COLETTE EUGENE BARMIDI</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>218464</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:25:50</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>237680887643</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>BEUTCHOM VIVIANE MELANIE TOP MOBILE TELECOM</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>88267</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:56:07</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>237680950910</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>LIBYA OIL CAMEROUN UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D248"/>
+  <dimension ref="A1:D296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5395,6 +5395,966 @@
         <v>525</v>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:35:02</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>237652194293</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>MABEKOU TALLA MARIELLE SANDRA _MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>429804</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:47:02</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>237652386684</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>GUSTAVE KOUAM KUISSEU</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>12387</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:35:53</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>237652927180</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>NDUMBE ROLINE JANONG ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>206948</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:07:17</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>237653650087</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>TCHOUALA THIERRY LTDLA_POLAS_BTQ_NDOGBONG ECOLE LAIC</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>170358</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:14:57</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>237675396752</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>BENEDICTE CHANTAL MANTSANG</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>40772</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:54:50</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>237675621967</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>NGO NTAMACK CECILE CECIC</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:30:41</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>237679548340</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>etienne ulrich awongo mbazoa</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>1786691</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:06:04</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>237680144977</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>NDZEMBATEH NDZENAPU N ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>47690</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2026-02-12 18:28:26</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>237681679310</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DIALLO AMADOU OURY</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>9125</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:50:53</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>237682238745</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>RACHEL PRUDENCE JIKE KETCHA</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>3706014</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:45:51</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>237682316602</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>GAELLE MAYEMELI ZAMPA</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>244667</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:45:20</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>237682430965</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ELSA CABRELLE MAKOUNGANG ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:47:39</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>237683366333</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DJIAGUE JEANNETTE</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>37492</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:09:36</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>237683379155</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>GUY LEONEL FOTSO SIMO</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>513256</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:36:18</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>237683379207</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>christain alex mboo</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>157204</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:39:10</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>237652049507</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>DONGMO GUESSOP ROVIELLE LAURA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>23056</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:40:13</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>237671105715</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>DJOUMEGNI HORIELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>140383</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2026-02-12 11:55:29</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>237674435926</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>FABRICE TCHOFFO</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>74695</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2026-02-12 13:15:02</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>237674892352</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>FRANCOIS MITTERANA TAGUEGUIM</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>153550</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:46:49</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>237674895389</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_MABAH DASSI FANNY BLANCHE</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>16726</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:01:25</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>237674908416</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>GNITEDEMO MEDJOUTSA CHARLOTTE SYLVIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:33:12</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>237675207106</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>germaine pougoue epse tchanang</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>1132334</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:08:03</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>237675443028</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>LYSETTE LEONELLE  S NGUENA</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:46:09</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>237676036869</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>KENFACK VIRGINIE GIODELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>658203</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:42:57</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>237677178575</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>GISELE CLAIRE ZAGBOUE DJIALA</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>74485</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:04:33</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>237678183211</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>KAMTO NANGOP STEVE GAETAN ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>27359</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:18:25</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>237679038720</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>MUEINGNIEU MBIAWANG EPSE TCHATCHOUA ROSE ANNETTE Ets KENTO  Co</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>160874</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:40:05</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>237679087694</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Christ Brayant Penjeu Tchinkou</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>134023</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:40:57</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>237679869809</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>XAVIEE ROSINE MEZAMO</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>15161</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:23:52</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>237680435802</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>derice mboumela</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>835574</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:21:39</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>237681114247</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>MINDEM SARL ymele voufoYMELE VOUFO VANESSA</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>68382</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2026-02-12 07:45:38</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>237681602244</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>TSOMEJIO KENFACK NICAISE NESLIE ETS TCHATCHOUANG PAUL  ETP</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>509875</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:10:39</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>237681606646</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DONFACK PAULINE PELAGIE</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>100311</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:16:00</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>237681655241</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>36416</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:19:16</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>237681658403</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>57370</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:00:38</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>237681862876</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>TIDO GARLINE NOGRA-POLAS-BTQ-MAKEPE MISSOKE</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>24620</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:49:58</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>237674243367</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:34:32</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>237681656314</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>GATIEN TCHOUAYA MBOUCHIEKO</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>428865</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:50:57</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>237650934256</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>DIDIER ROMUALD MBAKOP NYA</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>100918</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:08:22</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>237652427111</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>CELESTINE CHANTAL MENDJOBOU EPSE NZIAKOU NJANJO</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>174411</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:52:14</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>237672064755</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>KENFACK FRANC DUVIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>1096209</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:32:52</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>237673718583</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Soppi Verole ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>128142</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:40:50</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>237675950748</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>ATANGANA HENRI EITEL ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>1024033</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:58:12</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>237683356603</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>MFS MATCHINDA SENDRINE</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2026-02-12 16:25:52</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>237683395123</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>58071</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:27:21</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>237670174030</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_FOHOM STEPHANE THIERRY</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:56:21</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>237681611433</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Barry Diakariaou World T Plus</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>90790</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:48:21</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>237652667691</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>MAPI TAKIAN LIVINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>82481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2295,6 +2295,346 @@
         <v>586339</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:28:50</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>237671825253</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MAFFO YEMDJI CHIMENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>27439</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:13:39</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>237673816350</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DJUIDJE EPOUSE TAGNE HELENE ADELE</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>102856</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:41:16</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>237674484736</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MAMADOU ALPHA DIALLO</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>175549</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:52:43</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>237674895525</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NFOR EPSE FOMUNGUM ASSUMPTA MUMBEB</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>287848</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:59:01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>237675457527</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>TCHOUANKAP DJOMKAM ISMAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>121749</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:57:51</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>237675551814</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PELAGIE AIMEE NTOUBA MPAKO</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>299530</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:33:12</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>237678530662</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Seraphine Abela Eyele</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>122082</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:26:26</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>237678796497</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MANIGANG NDALLOKA MARIE JOSIANE ALBARKA GN SARL</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>136760</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-02-13 18:23:22</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>237679093371</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ADAMA SARRE</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>29745</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-02-09 08:26:36</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>237679209479</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>TEDJON CLAUVIS FRANCIS TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:12:46</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>237679732169</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>HILAIRE EBWANGA FOTSO</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>76217</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:19:47</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>237679791269</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 67</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:43:52</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>237681663743</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL FONGA SINTCHA YOLANDE MIREILLE</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>514278</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:31:20</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>237682480811</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>KENGNE TADJO LYNDA NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>764658</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-02-13 11:57:18</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>237682798275</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NGAFFO YOCADINE BENEDITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>200036</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:11:27</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>237683165199</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>N A ABASS GONI</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>9058</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:50:13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>237683454059</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>RTS BELLE HOLLANDAISE</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>223585</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2635,6 +2635,1306 @@
         <v>223585</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:43:43</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>237671358082</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>VALERY MBAH FOLAPNEH</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>231071</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:54:50</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>237672777369</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>WANDJI OBI RUSSEL_ MFS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>76704</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:50:56</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>237674062440</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>BIANKE HEUTCHOU FRANKLIN ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>7262</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:18:07</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>237674323650</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>OHANDZA CLOTILDE ANTOINETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>183196</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:36:33</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>237675579920</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA_CB0118_LIELO</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>245723</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:08:53</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>237676575053</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MARIE MADELEINE YANKOUA</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>440341</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:07:14</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>237679338102</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>IKECHELI KEPSEU IFEOMA YANELL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>70476</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:34:18</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>237681657562</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>BLANDINE PEYEMBOUO</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:37:12</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>237683612202</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ETS CAMPUS III ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:54:23</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>237651988929</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>UKAM EPSE TANYI HELDA BETTEH ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>89954</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:26:31</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>237653190282</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>JANGMAN LIBA ERICA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:10:57</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>237653674387</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL PAGDABANG PIERRE LOTI</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>241479</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:06:25</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>237653946894</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DJENE ETONGUE GERMAINE ROYAL LOGISTICS</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>35634</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-02-13 11:48:14</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>237653959075</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>VIRGINIE AIMEE FOUELIFACK EPSE MONDIE</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>849347</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:46:44</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>237654138873</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>OUMAR DIAKITE</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:04:08</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>237654150202</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>MBOU WILLY JUNIOR ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>58335</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:59:29</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>237654355100</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>abdou arahime sundzeh</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>275769</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:14:17</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>237670018166</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CECILE NONO SIMO</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:00:08</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>237671563291</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CHANCEL TIAYO KONNANG</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:48:43</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>237671664239</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ZEPHERINE ANEBEP</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>86339</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:05:52</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>237671823369</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>257448</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:56:47</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>237672128028</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CAROLINE WAKO DJAMNOU</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>23361</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-02-13 07:28:05</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>237672277367</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>VIVIENNE BIH ACHINE EPSE WETIE</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1476996</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:07:54</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>237674853971</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>135321</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:36:29</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>237674884705</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:59:20</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>237675779272</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>79625</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:13:34</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>237677304210</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>CARINE OROCK</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>235659</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-02-06 09:50:11</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>237678267353</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:20:18</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>237678370615</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>423955</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:30:02</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>237678836319</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CHRISTON TCHOFFO SIZONO</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>87974</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:03:05</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>237678922502</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>653301</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:34:10</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>237679884264</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MFS CICAM</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>139723</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:27:33</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>237681019523</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:21:10</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>237681125655</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>EMENGUE PICHOU ROMEO KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>38869</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2026-02-13 11:21:28</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>237681240793</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2026-02-13 05:52:32</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>237682117915</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>141759</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:13:51</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>237682154553</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:28:03</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>237682803277</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>NGUEMASSOM RENE MARTIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:00:43</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>237683323481</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT TSAZE DONFOUET FLORETTE ROSINE</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>497030</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:32:30</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>237683368985</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>MFS BELL HENRIE BERNARD</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>48564</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:15:20</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>237683432110</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ERODINE TOUMENI</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>563003</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:22:07</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>237683743490</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT NGAH MARIE</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>16195</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:51:00</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>237651346686</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DOUANLA ARMEL VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>146542</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:49:25</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>237654508603</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NINA MORELLE KUEDONG NGUETSA</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>728568</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:30:09</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>237672731004</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>DIALLO OUSMANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:23:06</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>237674884831</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>VOUMO MESSALEMO ESTHER TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1252339</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:15:03</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>237675986754</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>VIVIANE MANTO DZOUA</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>12766</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2026-02-03 04:19:08</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>237678384388</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>DJOUMESSI KEUMOU FLAUBERT COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>10226</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:46:35</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>237678559161</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:23:47</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>237678872943</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ZANKIA RAISSA DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2026-02-13 18:11:39</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>237679244994</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>3763439</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:53:38</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>237679508295</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Valentine Kum Kang World T Plus</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>124508</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2026-02-13 18:01:32</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>237679808809</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>TONLEPEU NGALAGNI CHANCELINE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>146919</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:05:58</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>237679909537</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>14877</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:23:44</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>237681114370</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:59:07</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>237681490029</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>62090</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:07:09</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>237681655237</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:47:50</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>237681662606</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>157855</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:04:33</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>237681662680</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>51463</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:08:53</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>237681679214</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>TIENTCHEU ROSINE CHRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>46173</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:27:58</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>237651927707</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>MARIE CHANTAL EDWIGE NDZIE ONANA</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>144483</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:43:43</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>237654270800</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>712669</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:03:30</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>237674069453</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>240243</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:23:03</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>237674895078</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>roch anelson nguedjeu yamadjeu</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:05:36</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>237674895309</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>BORIS LIONEL FOTSING WENCI</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>371647</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3935,6 +3935,146 @@
         <v>371647</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:48:39</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>237675826419</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Sara Gaetane Njouma epse Ntoma</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>27986</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2026-02-11 14:09:57</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>237676286294</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>TECLAIRE KAMENI TCHOKOTHE KEMAYOU EPSE TCHANI</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>236900</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:54:49</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>237677313421</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>N A PATEM CLOVIS LAHVET</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>2129010</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:23:22</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>237677880357</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>19657</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2026-02-13 18:58:20</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>237678201584</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>2866981</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:00:14</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>237678239927</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MADAGAL MOHAMED</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:46:00</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>237678623874</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>180462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4075,6 +4075,826 @@
         <v>180462</v>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2026-02-13 18:58:04</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>237650651854</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>67307</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:14:55</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>237650988697</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>FABASSOU GASPARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>324536</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:02:17</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>237651809692</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>AUREL KAMTA TEUMEN</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>224523</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:05:48</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>237652579681</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>AGRIPINE LAURE NOUMUNA</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>74577</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:00:11</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>237652724076</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>78924</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2026-02-12 05:02:51</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>237652958984</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>324514</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:47:35</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>237653239050</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>ARMAND KAMTA KUITSA</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>157987</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:52:14</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>237653423810</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>TEFFO ALAIN NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>46342</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:41:36</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>237653472620</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>314642</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:50:30</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>237654117741</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>78187</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:31:33</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>237654134124</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>HERVE ANTOINE EDZILI TCHAMDA</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>10490</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:34:58</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>237670358585</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>203366</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:49:39</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>237670806337</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:03:36</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>237670809743</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>103009</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:56:29</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>237670984670</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>7154</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:56:13</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>237671364668</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ODETTE PELANTITCHOUWE</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>93543</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:53:47</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>237671369692</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>EDITH MELI TEMZENETCHOU</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>23751</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:08:25</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>237674272162</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>296526</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:23:12</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>237674431977</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1088389</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2026-02-13 08:57:47</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>237674913584</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>MBAKOP DJOUMOU DARC TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>155195</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:15:07</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>237675432472</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2026-02-13 11:12:21</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>237675450046</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>137029</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:21:04</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>237675641522</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>223390</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:10:50</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>237676270842</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>29264</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:14:45</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>237677525770</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>37658</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:22:58</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>237679071551</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>214488</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:24:59</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>237680472978</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>NICOLAS BIKECK</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>204326</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:27:56</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>237681102046</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>FRANCOISE NKENFACK NKENGMO</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>379934</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:29:58</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>237682368679</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>193111</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:36:56</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>237683360459</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:19:03</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>237652899422</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>CATHERINE CHAMBERLINE NZEPANG</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>235473</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:59:13</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>237670904526</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:59:38</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>237671105116</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2026-02-13 19:14:11</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>237672916354</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2026-02-13 04:18:15</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>237672920086</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:59:19</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>237674000053</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>172010</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:25:27</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>237674841555</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>202341</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:45:48</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>237674899678</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>117534</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:43:51</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>237676439452</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>95871</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:29:54</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>237676695935</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>MFS MAKEPE MATURITE</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>326493</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:29:59</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>237677745809</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>JOSEPHINE CLAIRE NGUENKAM KADJI</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>297533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4895,6 +4895,666 @@
         <v>297533</v>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:14:35</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>237674959564</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:36:44</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>237675208505</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>HAPSATOU N A MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>32746</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:50:10</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>237675555508</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>17849</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:04:22</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>237675557616</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>KAMILAH CONNECTION LTDLA CBOX R1 KEUBOU CHANCELINE</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>249059</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:25:15</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>237678225987</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>FINGO FOTO SOPHIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>30888</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:12:58</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>237679553674</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>DESIRE MAGINZANG MBOUEZKO</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>42637</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:45:06</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>237679654555</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>PAULINE NGUELEMO</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>24335</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2026-02-13 02:55:19</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>237679789713</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 68</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:10:34</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>237681589841</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>LEINTENG ROSE MARY</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>98610</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:58:21</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>237681676445</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>MELANIE NGAFFO</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>192142</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:11:44</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>237681678622</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>455365</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:53:09</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>237683815311</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>35261</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:06:26</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>237651533411</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>TETHA FRANCLIN GEORGES ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>535755</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:25:05</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>237651843112</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>NLOGA NGO SIPORAH FELICITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>219489</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:47:07</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>237652297747</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>37355</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:37:08</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>237653316656</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>CHRISTELLE KANOUO TANYO</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>66726</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:53:30</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>237671290825</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>LONGMENE FLORIDE NINA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>11614</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:05:45</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>237672276931</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>MIREILLE MAGOLACK FOMEKONG</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:26:08</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>237674580187</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ROSETTE SIGHOM</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>21739</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:55:18</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>237674673359</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>220321</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:01:01</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>237674769580</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>SANDIE KAMGUE BELVA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>16583</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2026-02-13 19:30:52</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>237674926472</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>NGO SAMNICK ELISABETH JOSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>41150</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2026-02-12 12:24:01</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>237675831509</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>7407</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2026-02-13 18:21:10</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>237676770192</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>MBOUOMBO PEHUIE JOSEPHINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>111421</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:46:20</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>237680857383</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>MOUNIKIEL TECLAIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>621644</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:55:39</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>237681180496</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ALEX NGOUO YOUNDA</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:07:05</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>237681299829</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>SAMIRA ZOFERNUI FAITH</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>12155</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:50:36</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>237681657939</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>23493</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2026-02-13 19:14:12</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>237675944533</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>LONGA ELDRINE ELYSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>130649</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:49:12</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>237678319711</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>MIGUEL MATULA MOUCHO SIETCHEPIN</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>547374</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:37:26</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>237654261990</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>AUDOUCE AIMEE NANA KOUADIP</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>353654</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:35:55</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>237670148911</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>FRANKLIN NGONGFARH</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>30838</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:59:35</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>237671517964</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 214</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>1399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:D337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-02-12 16:14:57</t>
+          <t>2026-02-13 16:07:37</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40772</v>
+        <v>171347</v>
       </c>
     </row>
     <row r="17">
@@ -5553,6 +5553,1626 @@
       </c>
       <c r="D256" t="n">
         <v>1399</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:49:40</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>237671823371</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>MFS MARCHE BEEDI</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:08:08</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>237671838460</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>108764</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:18:30</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>237674248126</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NKWAKETP ANNIE ARISTIDE</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>211493</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:59:26</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>237674629681</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ROSINE SOCBOU KENNE</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>253256</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:11:34</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>237674929391</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>BILI TATIANE METSADJIO</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>42236</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:10:37</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>237680670799</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>DJOMOU BETCHOWA PRESLEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:43:59</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>237681679880</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>TSAKEM AGNES LAIDY ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:11:21</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>237682827350</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>ETS KASSAV ENGINEERING</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>789440</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:21:05</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>237683400719</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>CHANCELINE LAGMAGO</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>54238</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:58:50</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>237652356041</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>JULES ROSTAND DJALEU</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>800681</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:53:27</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>237652817931</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>JOSE MERVEILLE ABONG A MMAN</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>111391</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:15:41</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>237653816480</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>BERYL NAKOMA TOUFOIN TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>967069</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:34:49</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>237654020285</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>BRIGITTE ANNISSE YAMBOCK</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>144633</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2026-02-12 17:15:55</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>237670809154</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>TCHUISSANG BETTOU CHARLINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>99705</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:18:02</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>237672695037</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DOMCHE GAPIMSI N A</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>335034</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:03:57</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>237674679432</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Sekou Kevine Chanelle ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>132141</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:44:56</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>237674928987</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>MFS TSAFACK KEMENE VIVIEN CEDRIC</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>148784</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:24:15</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>237676664056</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>DJAMBOU SIEWE LOUIS MFS</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>265518</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:35:31</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>237676974240</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>YAMBA KEMAJOU DANIELLE MERCY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>429626</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2026-02-13 09:34:21</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>237679422176</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 28</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:34:26</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>237679607838</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>MARIE CLAIRE MIREILLE EKOUNDA EPSE KWEMO FOZE</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>217686</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:01:26</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>237680887643</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>DEMONSTER FERDINAND KOUEKAM</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>128217</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:29:07</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>237680950910</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>LIBYA OIL CAMEROUN UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:10:16</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>237652194293</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>MABEKOU TALLA MARIELLE SANDRA _MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>896086</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:06:29</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>237652386684</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>MARTIALE IDA NGAKAM</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>571955</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:14:39</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>237652927180</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>NDUMBE ROLINE JANONG ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>348890</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:53:12</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>237653650087</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>TCHOUALA THIERRY LTDLA_POLAS_BTQ_NDOGBONG ECOLE LAIC</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>1103413</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2026-02-13 10:44:15</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>237675621967</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>NGO NTAMACK CECILE CECIC</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:33:16</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>237679548340</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>APPOLINE CLAUDE ANGOTCHOU</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>492035</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:31:31</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>237680144977</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>NDZEMBATEH NDZENAPU N ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2026-02-13 19:08:37</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>237681679310</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DIALLO AMADOU OURY</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>8153</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:19:04</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>237682238745</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>herver christ bessong</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>1223742</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:35:13</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>237682316602</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>DANGA ZAMPA PATRICE VICKY TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>221579</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:07:50</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>237682430965</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>MADELEINE ETONNA</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>96344</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:15:17</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>237683366333</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DJIAGUE JEANNETTE</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:58:26</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>237683379155</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>NGUEUGANG ALLIANCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>755561</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2026-02-13 11:43:26</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>237683379207</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>NANFACK EPSE SOKENG SOLANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>40424</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:34:54</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>237652049507</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>DONGMO GUESSOP ROVIELLE LAURA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>116964</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:48:55</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>237671105715</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>DJOUMEGNI HORIELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>282243</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:52:23</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>237674435926</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>DEVIS NANFACK PATELSON</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>85195</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:50:04</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>237674892352</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Nguimdo Diane</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>338188</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:03:03</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>237674895389</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_MABAH DASSI FANNY BLANCHE</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>12692</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:15:53</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>237674908416</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>GNITEDEMO MEDJOUTSA CHARLOTTE SYLVIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:17:23</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>237675207106</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>NEEH MANFOUO VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>705523</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:36:55</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>237675443028</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>LYSETTE LEONELLE  S NGUENA</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:23:06</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>237676036869</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>KENFACK VIRGINIE GIODELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>1029923</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2026-02-13 11:26:22</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>237677178575</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>GISELE CLAIRE ZAGBOUE DJIALA</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>20929</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:12:15</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>237678183211</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>KAMTO NANGOP STEVE GAETAN ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>13529</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:00:30</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>237679038720</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>MUEINGNIEU MBIAWANG EPSE TCHATCHOUA ROSE ANNETTE Ets KENTO  Co</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>146746</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:44:37</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>237679087694</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>VALERIE MADJUIKOUO</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>58407</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:31:39</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>237679869809</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>XAVIEE ROSINE MEZAMO</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>83413</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:20:14</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>237680435802</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>derice mboumela</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>1128106</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:23:39</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>237681114247</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>MINDEM SARL ymele voufoYMELE VOUFO VANESSA</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>47390</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:40:12</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>237681602244</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>TSOMEJIO KENFACK NICAISE NESLIE ETS TCHATCHOUANG PAUL  ETP</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>118731</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:10:39</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>237681606646</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DONFACK PAULINE PELAGIE</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>100311</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:06:56</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>237681655241</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>65607</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:56:45</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>237681658403</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>80798</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:10:17</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>237681862876</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>TIDO GARLINE NOGRA-POLAS-BTQ-MAKEPE MISSOKE</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:53:41</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>237683555873</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>6388</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:42:30</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>237654037914</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL YONGA RUSSEL DONALD</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>28022</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:49:58</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>237674243367</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:37:38</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>237681656314</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>SWIRRI AZINWI NGANG LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>718467</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:23:26</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>237682511457</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>DIENECLAIR SEN KWA</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>324770</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:19:27</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>237650934256</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>DIDIER ROMUALD MBAKOP NYA</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>39596</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2026-02-13 06:13:06</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>237652275301</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>NDAMI EPSE NONGA ROSALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2026-02-13 11:51:19</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>237652427111</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>CHARLOTTE PAULINE PATIENCE NJOLE MANJOLE</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>78947</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2026-02-13 10:54:24</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>237671645947</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>CLOVIS TAMKOU SOCTOUO</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>31052</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:47:17</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>237672064755</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>KENFACK FRANC DUVIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>1113523</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:42:29</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>237672956746</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>ALAIN MOISE NDJONG ITALEN</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>126820</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:41:39</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>237673718583</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Soppi Verole ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>712310</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:05:41</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>237674933048</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NINZEGA EMILIENNE CLAIRE</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>152306</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:48:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>237675950748</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>ATANGANA HENRI EITEL ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>456804</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2026-02-11 12:48:59</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>237682520113</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>KEUYAP NGATCHEU JUDITH JOSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>205235</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:36:11</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>237683395123</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>141082</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:19:44</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>237670174030</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_FOHOM STEPHANE THIERRY</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>18478</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:19:08</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>237679111075</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>TCHAMABE YOSSA JEAN JOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>932302</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:42:58</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>237681611433</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>ANTHONY AMAH IHIMBRU</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>287534</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2026-02-13 12:57:40</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>237652194260</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>CRISTELLE DIANE TCHAHANE</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>661970</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:02:35</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>237652667691</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>MAPI TAKIAN LIVINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:29:55</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>237670473852</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 MAGNE TALLA EMILIE</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>147638</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2026-02-13 16:39:20</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>237673018936</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>EJUH AKEP EUGENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>162936</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,6 +2135,306 @@
         <v>393115</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:28:29</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>237671823369</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>157448</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:08:46</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>237672128028</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CAROLINE WAKO DJAMNOU</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>65097</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:56:53</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>237672277367</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:47:59</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>237674853971</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:33:03</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>237674884705</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>9333</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:10:24</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>237675779272</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>30585</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-13 15:13:34</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>237677304210</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CARINE OROCK</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>235659</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-06 09:50:11</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>237678267353</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:35:06</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>237678370615</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>510310</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-14 10:53:33</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>237678836319</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>137271</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:39:03</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>237678922502</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>730908</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-14 08:39:32</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>237679884264</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>GABRIEL MONKAM TCHOUPE</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>365895</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:35:46</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>237681019523</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>245762</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:09:47</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>237681125655</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>EMENGUE PICHOU ROMEO KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>33916</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-02-14 09:46:40</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>237681240793</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2067</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-14 17:36:00</t>
+          <t>2026-02-14 17:57:26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24989</v>
+        <v>22375</v>
       </c>
     </row>
     <row r="7">
@@ -2433,6 +2433,1246 @@
       </c>
       <c r="D100" t="n">
         <v>2067</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:40:44</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>237683743490</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT NGAH MARIE</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>10951</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:05:06</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>237651346686</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>DOUANLA ARMEL VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>33194</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:25:11</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>237654508603</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NINA MORELLE KUEDONG NGUETSA</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1037853</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:55:33</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>237672731004</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>N A NTOHMBU NKWIAMBOH FOUGUMA</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:55:43</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>237674884831</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>VOUMO MESSALEMO ESTHER TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1177119</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:34:05</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>237675986754</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>VIVIANE MANTO DZOUA</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>9512</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:35:22</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>237678384388</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SONIA STEVE TCHOKOTE MBOUBDA</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>39726</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-02-13 17:46:35</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>237678559161</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:40:30</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>237678872943</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>STELLA YVIE DLEUDJEU KWEMO</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>99183</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-14 18:33:00</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>237679244994</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>5086883</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:44:30</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>237679508295</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Valentine Kum Kang World T Plus</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>25360</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:25:27</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>237679808809</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>TONLEPEU NGALAGNI CHANCELINE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>204561</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-02-14 09:01:00</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>237679909537</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>11493</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:05:42</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>237681114370</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:58:37</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>237681490029</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:07:09</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>237681655237</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:35:59</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>237681662606</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>56099</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:34:17</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>237681662680</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>54115</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:52:19</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>237681679214</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>TIENTCHEU ROSINE CHRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:51:57</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>237651927707</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>LEONARD TATSINKOU DZONDA</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>169725</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:58:56</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>237654270800</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>680899</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:09:07</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>237674069453</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>212893</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:34:46</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>237674895078</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>13947</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:22:42</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>237674895309</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>BORIS LIONEL FOTSING WENCI</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>464939</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:41:07</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>237675826419</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>N A OKAYAH HANNAH BOWEH</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>189878</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-02-14 02:11:52</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>237676286294</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NGOUNOU EPSE KEMAYOU VIRGINIE FLORE _PAN-AFRICAN SAVINGS AND LOANS SA</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>199900</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:25:38</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>237677313421</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>HERMAN EWUNGWA AJANG</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>79527</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:22:50</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>237677880357</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>438746</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-02-14 18:23:09</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>237678201584</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1937809</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:34:58</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>237678239927</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MADAGAL MOHAMED</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>10107</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:53:40</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>237678623874</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>311824</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:35:35</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>237678637179</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ODILE FONING PATRICIA DONO</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1194581</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:25:35</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>237679567513</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PASCALINE DJUIGNI KUE</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:40:44</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>237680119435</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Beni Donnatien Mpeck</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>626205</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:35:05</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>237683386020</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>6643</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:07:15</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>237683408221</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>KOMI GISELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>36132</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:38:17</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>237650651854</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>125863</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:07:48</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>237650988697</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>N A NDAPE SAKANG</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>254496</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:39:24</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>237651809692</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>AUREL KAMTA TEUMEN</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:45:20</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>237652579681</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ROMUALD GHISLAIN CHEUDJOU TCHOUPE</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>392089</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:17:10</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>237652724076</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>90314</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-02-12 05:02:51</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>237652958984</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>324514</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:34:46</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>237653239050</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ARMAND KAMTA KUITSA</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>61087</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:06:08</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>237653472620</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>136684</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:00:55</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>237654117741</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>320846</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:12:16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>237654134124</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Atangoh Hustencia ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>50996</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:58:46</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>237670358585</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>44996</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2026-02-14 09:20:39</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>237670806337</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2026-02-14 18:08:00</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>237670809743</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>170903</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:12:06</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>237670984670</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>59853</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-02-14 06:44:35</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>237671364668</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ODETTE PELANTITCHOUWE</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>91581</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:47:29</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>237671369692</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>EDITH MELI TEMZENETCHOU</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>10645</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:48:50</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>237674272162</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>140626</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:14:01</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>237674431977</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>937471</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2026-02-14 05:57:55</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>237674913584</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>CECILE SIAWE</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>159695</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:01:32</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>237675432472</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>21158</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:24:30</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>237675450046</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>57584</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:07:00</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>237675641522</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>217590</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:45:35</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>237676270842</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>63070</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:39:15</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>237677525770</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:35:03</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>237679071551</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:59:36</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>237680472978</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>NICOLAS BIKECK</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>78330</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3675,6 +3675,486 @@
         <v>78330</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:36:42</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>237681102046</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>FRANCOISE NKENFACK NKENGMO</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>397988</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:16:37</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>237682368679</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>322045</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-02-14 05:26:00</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>237683360459</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:53:18</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>237652899422</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>NOUMOU epouse SAGNON MARCELINE LA NEGRESSE</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>155671</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:49:46</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>237670904526</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:22:51</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>237671105116</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2026-02-14 18:02:31</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>237672916354</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>68564</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2026-02-14 03:29:45</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>237672920086</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:54:28</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>237674000053</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>FRED JUNIOR ZOK EDOU</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>138362</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:39:27</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>237674841555</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>192473</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:18:06</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>237674899678</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>82338</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2026-02-14 10:00:49</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>237676439452</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:08:00</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>237676695935</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>SIMON PIERRE AKOA</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>132533</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:40:20</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>237677745809</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>FRANKLIN MUA ZUO</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>228443</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:04:40</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>237679127464</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>33636</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:30:08</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>237679422291</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 32</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>100022</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:08:43</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>237651433330</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>83422</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:29:04</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>237654168696</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:46:11</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>237670799877</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MENANDJIO HORTENSE BIENVENUE</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>642657</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:05:50</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>237671351291</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>MFS LTDLA CBOX R3 MOUTHIEU JOSETTE CHANCELINE</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>324495</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:28:09</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>237671378136</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:36:17</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>237671605749</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>436933</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:17:58</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>237671615641</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>BEGO FOGUE CHRISTELLE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>21212</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:07:42</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>237673739931</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>MOFFO GERMAIN SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>45501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-14 17:27:14</t>
+          <t>2026-02-14 17:41:05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>67954</v>
+        <v>64008</v>
       </c>
     </row>
     <row r="3">
@@ -638,7 +638,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-14 15:58:51</t>
+          <t>2026-02-14 18:37:28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10816</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="12">
@@ -718,7 +718,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-14 17:39:04</t>
+          <t>2026-02-15 01:01:15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19460</v>
+        <v>39498</v>
       </c>
     </row>
     <row r="16">
@@ -778,7 +778,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-14 17:34:09</t>
+          <t>2026-02-14 17:46:20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CLARISSE MAKOLO</t>
+          <t>BIENVENU NGUIMBOM</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>30758</v>
+        <v>32758</v>
       </c>
     </row>
     <row r="19">
@@ -818,7 +818,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-02-14 11:10:19</t>
+          <t>2026-02-15 00:43:18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MARIE LAREINE KENGNE MANGOH</t>
+          <t>TEWA TCHIFFO LANDRY MERVEIL ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>614779</v>
+        <v>613833</v>
       </c>
     </row>
     <row r="21">
@@ -1118,7 +1118,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-02-14 17:17:40</t>
+          <t>2026-02-15 00:43:05</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MOUSTAFA DJIKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>PRISCILLE CLAUDE EDIMO SAPPI</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7178</v>
+        <v>12178</v>
       </c>
     </row>
     <row r="36">
@@ -1198,7 +1198,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-02-14 12:24:09</t>
+          <t>2026-02-15 01:10:37</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>177247</v>
+        <v>176783</v>
       </c>
     </row>
     <row r="40">
@@ -1278,7 +1278,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-02-14 15:46:53</t>
+          <t>2026-02-15 01:09:41</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>139391</v>
+        <v>138927</v>
       </c>
     </row>
     <row r="44">
@@ -1378,7 +1378,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-02-14 16:42:56</t>
+          <t>2026-02-14 18:05:16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>248110</v>
+        <v>247910</v>
       </c>
     </row>
     <row r="49">
@@ -4153,6 +4153,26 @@
       </c>
       <c r="D186" t="n">
         <v>45501</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:41:50</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>237652807179</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>YOGOUE TOUGOUE TATIANE_POS_652807179 ETS TCHATCHOUANG PAUL</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>78010</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -758,7 +758,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-02-14 16:26:28</t>
+          <t>2026-02-15 01:31:50</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VICKY MILENA VALORA FOTSO PIEKAM</t>
+          <t>JULIETTE SOB KEMDJOU</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3951</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="18">
@@ -1678,7 +1678,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-02-14 12:50:01</t>
+          <t>2026-02-15 01:13:14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>446341</v>
+        <v>425877</v>
       </c>
     </row>
     <row r="64">
@@ -1858,7 +1858,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-02-14 16:25:08</t>
+          <t>2026-02-14 20:16:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>243436</v>
+        <v>223436</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-02-14 15:32:54</t>
+          <t>2026-02-15 01:38:51</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1888,17 +1888,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SAMUEL ERIC IBOBA</t>
+          <t>BLANDINE PEYEMBOUO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>51750</v>
+        <v>50822</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-02-14 09:57:10</t>
+          <t>2026-02-15 01:30:06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GILBERING BRUNO NGUAMENE</t>
+          <t>ETS CAMPUS III ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5904</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75">
@@ -1938,7 +1938,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-02-14 15:50:19</t>
+          <t>2026-02-15 01:40:35</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2026</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="77">
@@ -1978,7 +1978,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-02-14 06:52:42</t>
+          <t>2026-02-14 19:29:43</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DJENE ETONGUE GERMAINE ROYAL LOGISTICS</t>
+          <t>LAZARRE BIKEK</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>24496</v>
+        <v>104496</v>
       </c>
     </row>
     <row r="79">
@@ -2118,7 +2118,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2026-02-14 15:02:38</t>
+          <t>2026-02-15 01:09:36</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>393115</v>
+        <v>391865</v>
       </c>
     </row>
     <row r="86">
@@ -2158,7 +2158,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2026-02-14 12:08:46</t>
+          <t>2026-02-15 01:47:52</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>65097</v>
+        <v>64097</v>
       </c>
     </row>
     <row r="88">
@@ -2198,7 +2198,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2026-02-14 16:47:59</t>
+          <t>2026-02-15 01:40:24</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4306</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="90">
@@ -2298,7 +2298,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2026-02-14 14:35:06</t>
+          <t>2026-02-15 01:32:29</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,6 +4175,866 @@
         <v>78010</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:18:28</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>237674450580</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>TCHIYADJE VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>106527</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:56:33</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>237674929417</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>HORTANCE MANTHO</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>78223</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2026-02-15 04:28:32</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>237677316351</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>QUELIE LOVE KAGE LEUYOUM</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>105456</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2026-02-15 04:41:49</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>237677831340</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>YEPCHE NGANSOP DORINELLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:33:37</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>237678843959</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NGO NDJAYICK THERESE</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:42:48</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>237679068456</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>BILY LUCIE DJIOFACK</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>123655</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:40:25</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>237679793647</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SOCRATES KAMTAN KWINJE</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>183576</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:04:16</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>237682323406</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT LAS VEGAS</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:03:41</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>237682764368</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LIEDJI GINETTE</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>430812</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:13:51</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>237682814055</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DIALL BOUCARI KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>119560</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:32:32</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>237683079541</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>THIERRY MELINGUI AYINA</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>431608</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2026-02-15 04:19:44</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>237683379070</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>MELI DOUANLA ORNELA LINDA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>862703</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:21:42</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>237683730580</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA_CBOX_R1_TSAFO NICOLE</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>83955</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:22:30</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>237651213730</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>JEAN ROBERT EBEKOMI MBE</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>459442</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2026-02-14 18:07:41</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>237652071114</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL TALLA BOYOM JEAN ERNEST</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>87211</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:30:03</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>237652285489</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>joseline kenne</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>293908</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2026-02-14 02:54:05</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>237652940152</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>GISAWO AIME LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:24:10</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>237654137136</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>NGANGUE NDOUMBE CHARLOTTE MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>208698</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:25:36</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>237671694408</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>singtoing ngriswe</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>456926</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:44:34</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>237672279571</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>VINCENT DE PAUL ARNOLD ESSAMA NGONO</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>690946</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:23:43</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>237672777139</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>CHOURUPOUO MBAKOP ABDEL MFS</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>416522</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:59:56</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>237673220938</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>KAMGANG TOMDJIO SIMEONE BABETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>17327</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2026-02-15 02:06:46</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>237674437082</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>MODESTE NGOUKOUA</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>59763</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2026-02-15 04:44:49</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>237674895877</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>NZOUNDI NGUEDJO EDITH TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>661161</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:46:28</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>237674956331</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>MARCELINE YEPTIEU</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>990125</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:23:22</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>237674979451</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>EMPIRE COMPANY   LIMITED SWKBA CBOX R4 TCHOUALA GLADIS NADEGE</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>586167</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:14:35</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>237675329176</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>CYNTHIA AKWA TIBUH</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>281201</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2026-02-15 01:35:22</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>237675889982</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>LAIC YDRAN LIEDJI DAYA</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>182245</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:26:08</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>237676076193</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>AMADOU ROBERT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>613510</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:11:34</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>237677567788</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>CARINE DEVILLIERS ESSOH</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>448951</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2026-02-14 10:49:21</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>237678722616</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>KWEDI BELLE GEORGES GAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2026-02-15 04:31:05</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>237679580678</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Ngo Ndjeng Marie Pauline</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2026-02-15 04:23:10</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>237680116452</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>MOUSTAPHA TAHEROU</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>92197</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2026-02-14 15:18:09</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>237680415220</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>RICHARD FRANCK ELGARD ESSONO</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>9662</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:55:46</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>237681603496</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>MAGNI YANSI DORIS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>130572</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2026-02-15 03:10:31</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>237681657461</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MOKAM KOUAM VIVIANE</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>70835</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2026-02-15 04:43:18</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>237681662596</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>BRODIANE RAISSA TCHUEMSSEU KOM</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>201266</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:31:36</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>237681677617</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MANFOUO TCHOUALA HUGUETTE</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>18136</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:22:43</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>237681679096</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>TAMNOU NGANGO ULRICH BERNARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>347384</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:33:05</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>237683279255</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Deuffi Yvonne laurette LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>6769</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:04:50</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>237683353137</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>VOUGMO NGUEMO MERLIN WILLIAM ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:04:27</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>237683396173</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>221967</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:46:25</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>237683557193</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>CORINE MIMBANDE ABANDA</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>11446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4058,7 +4058,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-02-14 15:05:50</t>
+          <t>2026-02-15 05:51:59</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4068,11 +4068,11 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>MFS LTDLA CBOX R3 MOUTHIEU JOSETTE CHANCELINE</t>
+          <t>N A DAMA ADAMA</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>324495</v>
+        <v>354745</v>
       </c>
     </row>
     <row r="183">
@@ -5033,6 +5033,706 @@
       </c>
       <c r="D230" t="n">
         <v>11446</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:49:21</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>237671646117</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>FLORENCE MEDONGUE</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>623824</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:12:38</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>237674440808</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>HOUMI EPSE MVEINGUE GUINDOP TATIANA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>6322</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:53:56</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>237675788721</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS TCHAWE MBOUGA JUDITH FLORE</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>569488</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:19:20</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>237676036914</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>NDENGUE ELOKO SAMUEL HERVE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>92721</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:31:12</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>237679550294</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>N A FONATIA</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>35722</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2026-02-14 10:55:51</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>237679604574</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>KINGUE KOMBI VICTORINE SIDONIE VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>25643</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:38:23</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>237682370358</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>JEANNE PRISCA NGO DJON EPSE EBANA ZOE</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>328505</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:56:21</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>237682639044</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>JOSEPH KAMGA</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>46373</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2026-02-15 04:58:37</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>237683023087</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>FAGHUIE ABIBA</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>373215</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:49:11</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>237650874464</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ASSONFACK VANESSA ATB POINT COM</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>536391</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:54:56</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>237653854849</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>TITTI GASTON CLEMENT TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>98719</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:45:07</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>237654164073</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>NGUIDJOL SIMONE ASTRIDE SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>54178</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:47:25</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>237671357520</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>CALICE WOTI EPSE DJOMO</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>15906</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:41:17</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>237672587687</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Kamaha Tomy Nadine LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>247714</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:50:59</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>237674240552</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>AUGUSTINE NGO BAYOI</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>56178</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2026-02-15 03:52:03</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>237675239360</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>ERIC MBAH AKEN</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>107033</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:55:37</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>237675396752</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>BENEDICTE CHANTAL MANTSANG</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>121999</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:23:39</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>237675626141</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>FLORENCE NGUEFACK</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>148545</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2026-02-15 02:12:28</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>237676840777</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ETP109 ETP</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:43:40</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>237677833877</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>ISSA ISSYAKOU</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>561227</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:25:47</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>237678854978</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>NSAMO NDJOUOHOU MICRANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>258563</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:00:13</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>237679422591</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 42</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>401400</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2026-02-15 06:04:06</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>237650353920</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>980204</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:20:06</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>237651927448</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>charity aben awalah</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>71305</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:20:24</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>237653294562</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>271672</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:53:49</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>237678046498</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>MFS SOCAVER</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:41:18</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>237679428698</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 29</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:33:53</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>237679551262</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 MEGNE JUDITH</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>17349</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:43:01</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>237680574202</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>TOUMEWO SAMUEL</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>297874</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:13:29</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>237681118330</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>SAHA NDESA JONAS LTDLA_POLAS_OTH_NDOGBONG SERIE</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>303554</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2026-02-15 06:04:31</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>237674446293</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>SYDONIE MAFOMA MESSINE</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>10536</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2026-02-15 04:29:58</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>237679085953</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>MADELEINE NKOUADJIO</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>24018</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:47:17</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>237681662761</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>EMMANUEL EKOLLE ELUMBA</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>32326</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2026-02-15 04:43:22</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>237682975726</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>SYLVIE-ISABELLE DGANHOU EPSE KOUAHOU</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>76155</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2026-02-15 01:45:11</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>237683075075</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>ESSOM YOUASSI FRANCK LIONEL STYLE. COM</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>4943</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -618,7 +618,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-14 13:04:28</t>
+          <t>2026-02-15 03:55:50</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -628,17 +628,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TOP MOBILE LTDLA CBOX R2 NGO DIBE HERMINE</t>
+          <t>LOUISE DAJEU</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6018</v>
+        <v>7518</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-14 18:37:28</t>
+          <t>2026-02-15 03:00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MFS KOAGNE STALINE BRUNELLE</t>
+          <t>ROSE DEUMENI</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9870</v>
+        <v>14870</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-14 16:03:06</t>
+          <t>2026-02-15 06:12:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LA NEGRESSE LTDLA CBOX R2 ALPHA OUMAR</t>
+          <t>Clarisse Ngenue Wankah</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3144</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="14">
@@ -718,7 +718,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-15 01:01:15</t>
+          <t>2026-02-15 02:07:22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>39498</v>
+        <v>35306</v>
       </c>
     </row>
     <row r="16">
@@ -758,7 +758,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-02-15 01:31:50</t>
+          <t>2026-02-15 06:04:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JULIETTE SOB KEMDJOU</t>
+          <t>ETIENNE JUSTIN JIOFACK</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4595</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-14 17:46:20</t>
+          <t>2026-02-15 05:17:39</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BIENVENU NGUIMBOM</t>
+          <t>CLARISSE MAKOLO</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>32758</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-02-14 16:44:52</t>
+          <t>2026-02-15 06:08:06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>YVES LIMBENI SEMETE</t>
+          <t>LANDRY MANFOUO</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>214883</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="20">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,6 +2135,1086 @@
         <v>630571</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-15 02:55:40</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>237671823369</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>7448</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:40:12</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>237672128028</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CAROLINE WAKO DJAMNOU</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>34383</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-15 07:31:45</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>237672277367</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>28296</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:02:15</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>237674853971</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>216629</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:24:40</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>237674884705</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>13867</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:04:40</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>237675779272</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>19223</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:35:02</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>237677304210</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CARINE OROCK</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>227157</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-06 09:50:11</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>237678267353</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:41:54</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>237678370615</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>364192</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:39:21</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>237678836319</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>139993</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:28:30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>237678922502</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>803074</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:16:41</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>237679884264</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MFS CICAM</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>365895</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:10:35</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>237681019523</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>401212</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:45:50</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>237681125655</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ANTOINETTE CLAUDE YOMBA</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>95888</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-02-14 09:46:40</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>237681240793</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:02:15</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>237682117915</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>287967</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-02-15 03:40:29</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>237682154553</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:09:15</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>237682803277</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NGUEMASSOM RENE MARTIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>67657</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:54:22</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>237683323481</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT TSAZE DONFOUET FLORETTE ROSINE</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>284338</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:40:50</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>237683368985</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>RAISSA GOUEMKUM KENGNE</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>39540</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-02-15 07:12:29</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>237683432110</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ERODINE TOUMENI</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>552165</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:24:43</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>237683743490</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT NGAH MARIE</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:10:49</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>237651346686</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DOUANLA ARMEL VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>13378</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:40:06</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>237654508603</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NINA MORELLE KUEDONG NGUETSA</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>363989</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:12:27</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>237672731004</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>DIALLO OUSMANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-15 07:40:33</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>237674884831</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>THOMAS NANFACK</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>911655</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:46:35</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>237675986754</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>VIVIANE MANTO DZOUA</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>16304</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-02-15 06:11:00</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>237678384388</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>DJOUMESSI KEUMOU FLAUBERT COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>32976</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:25:07</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>237678559161</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>52443</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:47:14</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>237678872943</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ZANKIA RAISSA DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>91313</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:49:22</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>237679244994</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3019690</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:34:03</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>237679508295</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Valentine Kum Kang World T Plus</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>123036</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:58:23</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>237679808809</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>TONLEPEU NGALAGNI CHANCELINE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>232441</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:27:27</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>237679909537</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>14867</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:11:04</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>237681114370</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:52:05</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>237681490029</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>91696</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-02-12 15:07:09</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>237681655237</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:53:40</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>237681662606</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>108743</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:20:39</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>237681662680</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>208573</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:49:04</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>237681679214</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>N A NTOHMBU NKWIAMBOH FOUGUMA</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>99703</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:42:24</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>237651927707</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>JERRY MAFFO YPOLLI</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>237591</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:43:00</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>237654270800</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>630199</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:09:07</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>237674069453</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>212893</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:21:35</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>237674895078</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>50851</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:22:42</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>237674895309</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>BORIS LIONEL FOTSING WENCI</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>464939</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:33:20</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>237675826419</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Sara Gaetane Njouma epse Ntoma</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>120628</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:24:23</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>237676286294</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NESTEN BOULANDI</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>237800</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:26:30</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>237677313421</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>NADEGE OMONINGO EPOUSE NEBA</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>264809</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:55:16</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>237677880357</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1209722</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:24:04</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>237678201584</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1162981</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-02-15 08:12:07</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>237678239927</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MADAGAL MOHAMED</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>12423</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:32:58</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>237678623874</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>328324</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:21:24</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>237678637179</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ALAIN GEORGES MOUDIO</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>904324</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-02-15 06:45:11</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>237679567513</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DJOUTCHOU TCHANA MERVEILLE ESPERANCE</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>17932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-15 16:48:40</t>
+          <t>2026-02-15 17:43:05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>293</v>
+        <v>829</v>
       </c>
     </row>
     <row r="7">
@@ -3213,6 +3213,506 @@
       </c>
       <c r="D139" t="n">
         <v>17932</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:43:12</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>237650988697</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>TAPITA DAGUE</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>627058</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:46:23</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>237651809692</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>AUREL KAMTA TEUMEN</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>391229</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:22:04</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>237652579681</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>NGOUBE NGOUPAYOU ARAMI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>222501</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:36:29</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>237652724076</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>150414</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2026-02-12 05:02:51</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>237652958984</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>324514</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:39:24</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>237653239050</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ARMAND KAMTA KUITSA</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>285337</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:37:06</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>237653472620</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>121220</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:00:43</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>237654117741</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1775909</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:25:53</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>237654134124</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Atangoh Hustencia ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>224634</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:32:12</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>237670358585</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>101332</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2026-02-14 09:20:39</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>237670806337</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-02-14 18:08:00</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>237670809743</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>170903</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:40:19</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>237670984670</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>16847</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-02-15 07:19:03</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>237671364668</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ODETTE PELANTITCHOUWE</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>79831</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:59:35</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>237671369692</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>EDITH MELI TEMZENETCHOU</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2026-02-14 14:48:50</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>237674272162</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>140626</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:03:06</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>237674431977</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>3348151</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2026-02-15 18:19:23</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>237674913584</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>MBAKOP DJOUMOU DARC TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>78693</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:38:07</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>237675432472</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>24460</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:11:12</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>237675450046</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>58430</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:24:00</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>237675641522</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>374714</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:35:16</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>237676270842</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>33127</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:16:20</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>237677525770</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:10:12</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>237679071551</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>35536</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:04:04</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>237680472978</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>NICOLAS BIKECK</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>132664</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,6 +3715,1106 @@
         <v>132664</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:36:42</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>237681102046</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>FRANCOISE NKENFACK NKENGMO</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>397988</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:54:57</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>237682368679</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2026-02-15 18:13:33</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>237683360459</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:30:55</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>237652899422</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>NOUMOU epouse SAGNON MARCELINE LA NEGRESSE</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>549111</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:29:08</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>237670904526</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:21:19</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>237671105116</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2026-02-15 18:06:17</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>237672916354</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>32250</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:55:44</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>237672920086</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>11730</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2026-02-15 08:10:25</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>237674000053</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:32:51</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>237674841555</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>90817</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:43:18</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>237674899678</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>175766</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:20:03</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>237676439452</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>RONIS BRAVO DONGMO TSAGUE</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>219279</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:35:45</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>237676695935</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Mathieu Djitouo</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>51303</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:56:28</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>237677745809</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>JOSEPHINE CLAIRE NGUENKAM KADJI</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>150103</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:00:03</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>237679127464</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>26352</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:31:06</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>237679422291</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 32</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:47:57</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>237651433330</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>59822</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:11:16</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>237654168696</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2026-02-15 03:21:15</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>237670799877</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MENANDJIO HORTENSE BIENVENUE</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>681193</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:42:37</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>237671351291</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>MFS LTDLA CBOX R3 MOUTHIEU JOSETTE CHANCELINE</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>126983</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:32:08</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>237671378136</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>210112</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:08:40</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>237671605749</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>542405</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:32:13</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>237671615641</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>BEGO FOGUE CHRISTELLE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:55:51</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>237673739931</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>MOFFO GERMAIN SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>105981</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:45:41</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>237674466307</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>MFS MEYIMDOUNG MARIE LOUISE</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>561158</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:36:03</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>237674959564</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:21:14</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>237675208505</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>N A SAIDOU INOUSSA</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>53324</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:11:48</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>237675555508</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:45:42</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>237675557616</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>LUCIENNE FOTSING TSINGOUM</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>568707</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2026-02-15 01:37:05</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>237676301061</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>NGO TONYE ELISE AUDREY STYLE.COM</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>75897</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2026-02-15 02:00:25</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>237677939039</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ROMARIC TRESOR TCHOUNKEU MBAKOP ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:43:32</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>237678225987</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>FINGO FOTO SOPHIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>19174</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:34:12</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>237679553674</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DESIRE MAGINZANG MBOUEZKO</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>202671</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:08:24</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>237679654555</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>PAULINE NGUELEMO</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>11435</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2026-02-13 02:55:19</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>237679789713</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 68</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:54:22</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>237681589841</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>LEINTENG ROSE MARY</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>166469</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:31:27</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>237681676445</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>MELANIE NGAFFO</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>232346</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:23:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>237681678622</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>90015</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:44:27</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>237683815311</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>32404</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:26:37</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>237651533411</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>CLAUDE LANDRY DJOUMSI NZUSSING</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>35554</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:52:17</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>237651843112</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>NLOGA NGO SIPORAH FELICITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:37:52</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>237652297747</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>159435</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:06:07</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>237653316656</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>deschance zambou dontsop</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>454540</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:46:28</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>237671290825</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>LONGMENE FLORIDE NINA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>83290</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2026-02-14 19:34:23</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>237672276931</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>MIREILLE MAGOLACK FOMEKONG</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:40:30</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>237674580187</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ROSETTE SIGHOM</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>21475</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:01:43</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>237674673359</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>857779</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2026-02-15 18:01:11</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>237674769580</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>VAKSA BELLO</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>19533</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2026-02-15 18:24:11</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>237674926472</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>DYLAN LECANAL MOLUH</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>102388</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2026-02-15 03:43:12</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>237675831509</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>7307</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:05:06</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>237680857383</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>MOUNIKIEL TECLAIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>570230</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:45:26</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>237681180496</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>ALEX NGOUO YOUNDA</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:09:39</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>237681299829</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>NDEBI MEDARD DESIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>28395</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:10:11</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>237681657939</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>100903</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:33:09</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>237675944533</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>LONGA ELDRINE ELYSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>189399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4815,6 +4815,526 @@
         <v>189399</v>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2026-02-14 09:08:00</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>237671823371</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>MFS MARCHE BEEDI</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2026-02-15 07:17:26</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>237671838460</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:08:21</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>237674248126</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NKWAKETP ANNIE ARISTIDE</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>200693</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:21:15</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>237674629681</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ROSINE SOCBOU KENNE</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>214454</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:44:13</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>237674929391</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>BILI TATIANE METSADJIO</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>447244</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:55:17</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>237680670799</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>DJOMOU BETCHOWA PRESLEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>70415</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:08:30</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>237681679880</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>TSAKEM AGNES LAIDY ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:32:48</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>237682827350</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>PRISCILLE PRISCA BIEN</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>439290</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:32:39</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>237683400719</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>CHANCELINE LAGMAGO</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2026-02-15 08:27:06</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>237652356041</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>N A BUA MAXWELL AMIH</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>770513</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:18:39</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>237652817931</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>SENGUE RUTH NICAISE YOLANDE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>56599</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:08:19</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>237653816480</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>BERTIN DUVAL GNAKWA FANGWA</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>1715843</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:46:18</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>237654020285</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>BRIGITTE ANNISSE YAMBOCK</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>341373</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:12:48</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>237670809154</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>CHARLINE TCHUISSANG BETTOU</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>162155</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2026-02-15 03:36:44</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>237672695037</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>EVELINE TCHEZE NZEKO</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>293734</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:09:38</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>237674679432</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>JEAN JACQUES KAMGANG</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>637501</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:35:35</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>237674928987</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>MFS TSAFACK KEMENE VIVIEN CEDRIC</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>259830</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:03:54</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>237676664056</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>DJAMBOU SIEWE LOUIS MFS</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>239928</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2026-02-13 14:35:31</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>237676974240</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>YAMBA KEMAJOU DANIELLE MERCY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>429626</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:41:24</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>237679422176</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 28</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:50:50</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>237679607838</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>MARIE CLAIRE MIREILLE EKOUNDA EPSE KWEMO FOZE</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>342686</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2026-02-15 08:01:53</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>237680887643</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>BEUTCHOM VIVIANE MELANIE TOP MOBILE TELECOM</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>46017</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:32:56</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>237680950910</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>JULIENNE AIMEE NGO MAYI</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>135275</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:36:54</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>237652194293</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>MABEKOU TALLA MARIELLE SANDRA _MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>383102</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:54:55</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>237652386684</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>GERTRUDE ELEONOR NZOGNOU MALE EPOUSE NKOAKAP</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>304169</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:32:04</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>237652927180</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>NDUMBE ROLINE JANONG ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>215998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5335,6 +5335,1646 @@
         <v>215998</v>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:21:12</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>237653650087</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>TCHOUALA THIERRY LTDLA_POLAS_BTQ_NDOGBONG ECOLE LAIC</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>633613</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:58:26</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>237675396752</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>BENEDICTE CHANTAL MANTSANG</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>364913</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:10:32</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>237675621967</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>NGO NTAMACK CECILE CECIC</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>108898</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:24:23</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>237679548340</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>APPOLINE CLAUDE ANGOTCHOU</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>1790121</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:57:03</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>237680144977</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>NDZEMBATEH NDZENAPU N ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>59634</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:14:18</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>237681679310</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DIALLO AMADOU OURY</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>132161</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:55:01</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>237682238745</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>RACHEL PRUDENCE JIKE KETCHA</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>2197390</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2026-02-15 03:33:52</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>237682316602</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>DANGA ZAMPA PATRICE VICKY TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>249392</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:53:07</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>237682430965</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>MARGUERITE CLARISSE NGO NGAMBI</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:51:45</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>237683366333</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DJIAGUE JEANNETTE</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>37172</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:18:22</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>237683379155</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>JEAN ERIC YOUMBA</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>537833</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2026-02-15 06:54:19</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>237683379207</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>NANFACK EPSE SOKENG SOLANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>47876</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:19:16</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>237652049507</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>DONGMO GUESSOP ROVIELLE LAURA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>118777</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:06:56</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>237671105715</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>DJOUMEGNI HORIELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>53767</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:56:00</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>237674435926</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>YASMINE DARELLE MADJE</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>119667</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:41:37</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>237674892352</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>CARINE LEKEUFACK YMELE</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>671776</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:19:20</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>237674895389</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_MABAH DASSI FANNY BLANCHE</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>340862</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:02:08</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>237674908416</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>GNITEDEMO MEDJOUTSA CHARLOTTE SYLVIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>12420</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:24:04</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>237675207106</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>NEEH MANFOUO VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>919269</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:05:30</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>237675443028</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>LYSETTE LEONELLE  S NGUENA</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:40:18</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>237676036869</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>KENFACK VIRGINIE GIODELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>997267</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:38:34</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>237677178575</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>GISELE CLAIRE ZAGBOUE DJIALA</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>29103</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:55:55</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>237678183211</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>KAMTO NANGOP STEVE GAETAN ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>16161</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:00:35</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>237679038720</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>MUEINGNIEU MBIAWANG EPSE TCHATCHOUA ROSE ANNETTE Ets KENTO  Co</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20014</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2026-02-15 08:41:09</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>237679087694</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>VALERIE MADJUIKOUO</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>30071</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:52:19</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>237679869809</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>XAVIEE ROSINE MEZAMO</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>168745</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:54:51</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>237680435802</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>derice mboumela</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>1463300</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2026-02-14 10:04:24</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>237681114247</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>MINDEM SARL ymele voufoYMELE VOUFO VANESSA</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>46444</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2026-02-15 05:58:18</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>237681602244</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>TSOMEJIO KENFACK NICAISE NESLIE ETS TCHATCHOUANG PAUL  ETP</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>82587</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:31:48</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>237681606646</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>NADINE MAFONKOU FONGANG</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>248647</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:37:42</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>237681655241</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:11:58</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>237681658403</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>28491</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:43:50</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>237681862876</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>TIDO GARLINE NOGRA-POLAS-BTQ-MAKEPE MISSOKE</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>30429</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2026-02-15 06:54:57</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>237683555873</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>802164</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:26:10</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>237654037914</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL YONGA RUSSEL DONALD</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>82110</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2026-02-10 10:49:58</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>237674243367</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:32:06</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>237681656314</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>SWIRRI AZINWI NGANG LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>533693</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:58:40</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>237682511457</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>FRANFORETTE NWOGUEP KODJOUO</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:21:49</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>237650934256</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>DIDIER ROMUALD MBAKOP NYA</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>69786</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:22:17</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>237652275301</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>NDAMI EPSE NONGA ROSALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>16828</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2026-02-14 09:49:29</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>237652427111</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>CELESTINE CHANTAL MENDJOBOU EPSE NZIAKOU NJANJO</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>82582</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:43:49</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>237671645947</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>CLOVIS TAMKOU SOCTOUO</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>40612</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:50:18</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>237672064755</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>FREDERIC STEPHANE PARFAIT MAKEME</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>1286471</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2026-02-15 06:15:06</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>237672956746</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>ALAIN MOISE NDJONG ITALEN</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>115406</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:34:37</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>237673718583</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Soppi Verole ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>134035</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2026-02-15 19:07:28</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>237674933048</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NINZEGA EMILIENNE CLAIRE</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>110298</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:45:29</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>237675950748</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>ATANGANA HENRI EITEL ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>1814059</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:59:20</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>237682520113</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>KEUYAP NGATCHEU JUDITH JOSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>353479</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:27:45</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>237683356603</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>MFS MATCHINDA SENDRINE</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>141607</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:00:45</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>237683394976</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>DIALLO MAMADOU OURY</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:20:46</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>237683395123</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>205117</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:50:17</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>237670174030</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_FOHOM STEPHANE THIERRY</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>8327</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:52:55</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>237679111075</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>TCHAMABE YOSSA JEAN JOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>1275608</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:03:02</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>237681611433</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Barry Diakariaou World T Plus</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>275273</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:04:16</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>237652194260</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>CRISTELLE DIANE TCHAHANE</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>384960</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:50:17</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>237652667691</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>MAPI TAKIAN LIVINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>233811</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:59:53</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>237670473852</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 MAGNE TALLA EMILIE</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>31662</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:23:41</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>237673018936</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>EJUH AKEP EUGENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>51042</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:14:27</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>237673560726</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>MAGUELON NADERGE -CHIC MOBILE</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>979755</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:18:28</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>237674450580</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>TCHIYADJE VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>106527</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:28:31</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>237674929417</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>HORTANCE MANTHO</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>136229</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:31:29</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>237677316351</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>QUELIE LOVE KAGE LEUYOUM</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>190896</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:15:52</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>237677831340</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>FRANCA VANESSA SEUGUEP</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:43:04</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>237678843959</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NGO NDJAYICK THERESE</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>24766</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:48:28</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>237679068456</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>MICHEL PLATINI BALOUA</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>110655</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:54:22</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>237679793647</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 71</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:30:09</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>237682323406</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT LAS VEGAS</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:10:36</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>237682764368</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LIEDJI GINETTE</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>434356</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:44:42</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>237682814055</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>DIALL BOUCARI KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>129810</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:32:32</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>237683079541</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>THIERRY MELINGUI AYINA</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>431608</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:49:36</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>237683379070</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>MELI DOUANLA ORNELA LINDA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>540757</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2026-02-15 08:52:17</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>237683730580</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA_CBOX_R1_TSAFO NICOLE</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>127005</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:48:37</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>237651213730</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>NZONDE GABRIEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>331342</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:46:37</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>237652071114</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL TALLA BOYOM JEAN ERNEST</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>85647</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:54:23</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>237652285489</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>GAETAN HONORE TSONYEM YEMELI</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>275632</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2026-02-15 19:49:45</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>237652940152</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>GISAWO AIME LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>373314</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:51:42</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>237654137136</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>NGANGUE NDOUMBE CHARLOTTE MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>208198</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:25:36</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>237671694408</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>singtoing ngriswe</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>456926</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:24:04</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>237672279571</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>MOTCHUENG MADO LIONNELLE_ TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>471922</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:49:28</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>237672777139</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>CHOURUPOUO MBAKOP ABDEL MFS</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>732658</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2026-02-14 11:59:56</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>237673220938</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>KAMGANG TOMDJIO SIMEONE BABETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>17327</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2026-02-15 08:03:52</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>237674437082</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>MODESTE NGOUKOUA</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>42799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D327"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6975,6 +6975,946 @@
         <v>42799</v>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:32:43</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>237674895877</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>NZOUNDI NGUEDJO EDITH TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>1326911</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:07:02</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>237674956331</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>PAULIN POUALEU</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>168225</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:18:47</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>237674979451</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>EMPIRE COMPANY   LIMITED SWKBA CBOX R4 TCHOUALA GLADIS NADEGE</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>377429</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:29:08</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>237675329176</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>NGHOMBOMBONG ALPHONSE NKWANUI LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>204877</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2026-02-15 01:35:22</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>237675889982</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>LAIC YDRAN LIEDJI DAYA</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>182245</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:52:48</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>237676076193</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>AMADOU ROBERT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>602610</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2026-02-12 14:11:34</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>237677567788</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>CARINE DEVILLIERS ESSOH</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>448951</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2026-02-14 10:49:21</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>237678722616</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>KWEDI BELLE GEORGES GAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:03:35</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>237679580678</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Ngo Ndjeng Marie Pauline</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:41:35</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>237680116452</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL NDE HENRI</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>97795</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:06:37</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>237680415220</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>TIPA CHRISTELLE NADIA LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>10262</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:55:46</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>237681603496</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>MAGNI YANSI DORIS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>130572</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:57:21</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>237681657461</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MOKAM KOUAM VIVIANE</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>70335</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:45:49</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>237681662596</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 TIOKENG SANDRINE</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>194688</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:38:38</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>237681677617</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MANFOUO TCHOUALA HUGUETTE</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>27208</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:44:32</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>237681679096</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>TAMNOU NGANGO ULRICH BERNARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>97384</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:43:25</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>237683279255</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Deuffi Yvonne laurette LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>34169</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2026-02-14 16:04:50</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>237683353137</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>VOUGMO NGUEMO MERLIN WILLIAM ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:35:46</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>237683396173</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>223792</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:49:14</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>237683557193</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>KOUYEKE MONIQUE LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:23:31</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>237671646117</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>FLORENCE MEDONGUE</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>516490</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:10:52</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>237674440808</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>HOUMI EPSE MVEINGUE GUINDOP TATIANA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>22158</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:37:06</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>237675788721</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS TCHAWE MBOUGA JUDITH FLORE</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>513322</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:22:44</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>237676036914</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>NDENGUE ELOKO SAMUEL HERVE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>201711</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2026-02-15 12:08:24</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>237679550294</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>NGOUNOU JOSIANE GAELLE CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:21:13</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>237679604574</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>KINGUE KOMBI VICTORINE SIDONIE VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>16343</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:43:46</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>237682370358</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>TATALONG NDAH DARYL</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>270541</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2026-02-15 11:40:17</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>237682639044</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>NJIMEGNIE LINDA NANA</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>568123</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2026-02-15 13:56:24</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>237683023087</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>FAGHUIE ABIBA</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>342523</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:31:34</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>237650874464</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>ASSONFACK VANESSA ATB POINT COM</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>471335</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2026-02-15 09:41:32</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>237653854849</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Jean Boreau Holl</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>51705</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:45:52</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>237654164073</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>NGUIDJOL SIMONE ASTRIDE SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>52578</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2026-02-15 16:31:02</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>237671357520</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>CALICE WOTI EPSE DJOMO</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>22850</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2026-02-13 13:41:17</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>237672587687</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Kamaha Tomy Nadine LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>247714</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:40:50</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>237674240552</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>AUGUSTINE NGO BAYOI</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>60758</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:11:21</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>237675239360</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>NGO NKOT MARIE LOUISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>118239</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2026-02-15 15:17:14</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>237675626141</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>FLORENCE NGUEFACK</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>52169</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2026-02-15 19:24:24</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>237676840777</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>ETP109 ETP</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>994075</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2026-02-15 17:11:12</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>237677833877</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>MEDJOM TAGNE MICHELLE GUILENE LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>144763</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:02:37</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>237678854978</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>rostel kenzoh gignole</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>250763</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:55:22</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>237679422591</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 42</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>403900</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:13:01</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>237650353920</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>1305524</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2026-02-15 10:59:08</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>237651927448</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>charity aben awalah</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>28091</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2026-02-14 12:20:24</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>237653294562</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>271672</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:53:49</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>237678046498</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>MFS SOCAVER</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2026-02-15 14:55:21</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>237679428698</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 29</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2026-02-14 17:33:53</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>237679551262</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 MEGNE JUDITH</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>17349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="303">
   <si>
     <t>Date</t>
   </si>
@@ -277,6 +277,54 @@
     <t>2026-02-16 15:58:48</t>
   </si>
   <si>
+    <t>2026-02-16 11:44:54</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:22:30</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:58:35</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:20:18</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:06:21</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:21:25</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:23:53</t>
+  </si>
+  <si>
+    <t>2026-02-06 09:50:11</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:32:56</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:21:38</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:41:10</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:24:23</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:52:54</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:55:47</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:07:41</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:18:11</t>
+  </si>
+  <si>
     <t>237653626798</t>
   </si>
   <si>
@@ -529,6 +577,54 @@
     <t>237671664239</t>
   </si>
   <si>
+    <t>237671823369</t>
+  </si>
+  <si>
+    <t>237672128028</t>
+  </si>
+  <si>
+    <t>237672277367</t>
+  </si>
+  <si>
+    <t>237674853971</t>
+  </si>
+  <si>
+    <t>237674884705</t>
+  </si>
+  <si>
+    <t>237675779272</t>
+  </si>
+  <si>
+    <t>237677304210</t>
+  </si>
+  <si>
+    <t>237678267353</t>
+  </si>
+  <si>
+    <t>237678370615</t>
+  </si>
+  <si>
+    <t>237678836319</t>
+  </si>
+  <si>
+    <t>237678922502</t>
+  </si>
+  <si>
+    <t>237679884264</t>
+  </si>
+  <si>
+    <t>237681019523</t>
+  </si>
+  <si>
+    <t>237681125655</t>
+  </si>
+  <si>
+    <t>237681240793</t>
+  </si>
+  <si>
+    <t>237682117915</t>
+  </si>
+  <si>
     <t>PAGLAN BIKOND SIMONE ETS MOBILE FINANCIAL SERVICES MFS</t>
   </si>
   <si>
@@ -779,6 +875,54 @@
   </si>
   <si>
     <t>ANEBEP ZEPHERINE MFS</t>
+  </si>
+  <si>
+    <t>MFS ENTREE COLLEGE MALANGUE</t>
+  </si>
+  <si>
+    <t>CAROLINE WAKO DJAMNOU</t>
+  </si>
+  <si>
+    <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+  </si>
+  <si>
+    <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+  </si>
+  <si>
+    <t>manuela verna yetna baaga</t>
+  </si>
+  <si>
+    <t>RODES NGWEM KEMAYOU</t>
+  </si>
+  <si>
+    <t>FERDINAND NKWELLE NGOME</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+  </si>
+  <si>
+    <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>MFS CICAM</t>
+  </si>
+  <si>
+    <t>ETS MOULAY RIPERT AND COMPANY</t>
+  </si>
+  <si>
+    <t>EMENGUE PICHOU ROMEO KAMILAH CONNECTION GROUP</t>
+  </si>
+  <si>
+    <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1161,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="D2">
         <v>27112</v>
@@ -1175,10 +1319,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="D3">
         <v>15364</v>
@@ -1189,10 +1333,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="D4">
         <v>9230</v>
@@ -1203,10 +1347,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D5">
         <v>700565</v>
@@ -1217,10 +1361,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D6">
         <v>34711</v>
@@ -1231,10 +1375,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D7">
         <v>661486</v>
@@ -1245,10 +1389,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="D8">
         <v>22120</v>
@@ -1259,10 +1403,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="D9">
         <v>87217</v>
@@ -1273,10 +1417,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="D10">
         <v>8418</v>
@@ -1287,10 +1431,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="D11">
         <v>14032</v>
@@ -1301,10 +1445,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="D12">
         <v>360497</v>
@@ -1315,10 +1459,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D13">
         <v>11663</v>
@@ -1329,10 +1473,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D14">
         <v>41918</v>
@@ -1343,10 +1487,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="D15">
         <v>22158</v>
@@ -1357,10 +1501,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="D16">
         <v>72096</v>
@@ -1371,10 +1515,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="D17">
         <v>3800</v>
@@ -1385,10 +1529,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="D18">
         <v>25526</v>
@@ -1399,10 +1543,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="D19">
         <v>242</v>
@@ -1413,10 +1557,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="D20">
         <v>313381</v>
@@ -1427,10 +1571,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="D21">
         <v>285329</v>
@@ -1441,10 +1585,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="D22">
         <v>253276</v>
@@ -1455,10 +1599,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1469,10 +1613,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="D24">
         <v>79779</v>
@@ -1483,10 +1627,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="D25">
         <v>159936</v>
@@ -1497,10 +1641,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="D26">
         <v>15045</v>
@@ -1511,10 +1655,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="D27">
         <v>28886</v>
@@ -1525,10 +1669,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="D28">
         <v>126015</v>
@@ -1539,10 +1683,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="D29">
         <v>21885</v>
@@ -1553,10 +1697,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D30">
         <v>325152</v>
@@ -1567,10 +1711,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="D31">
         <v>292094</v>
@@ -1581,10 +1725,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1595,10 +1739,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="D33">
         <v>1547</v>
@@ -1609,10 +1753,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="D34">
         <v>25674</v>
@@ -1623,10 +1767,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="D35">
         <v>30657</v>
@@ -1637,10 +1781,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="D36">
         <v>332790</v>
@@ -1651,10 +1795,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="D37">
         <v>194582</v>
@@ -1665,10 +1809,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D38">
         <v>78748</v>
@@ -1679,10 +1823,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="D39">
         <v>589699</v>
@@ -1693,10 +1837,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="D40">
         <v>11232</v>
@@ -1707,10 +1851,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="D41">
         <v>137118</v>
@@ -1721,10 +1865,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="D42">
         <v>37842</v>
@@ -1735,10 +1879,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="D43">
         <v>105185</v>
@@ -1749,10 +1893,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="D44">
         <v>648154</v>
@@ -1763,10 +1907,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="D45">
         <v>152317</v>
@@ -1777,10 +1921,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="D46">
         <v>156018</v>
@@ -1791,10 +1935,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="D47">
         <v>80603</v>
@@ -1805,10 +1949,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="D48">
         <v>51582</v>
@@ -1819,10 +1963,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="D49">
         <v>375383</v>
@@ -1833,10 +1977,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="D50">
         <v>278038</v>
@@ -1847,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="D51">
         <v>409096</v>
@@ -1861,10 +2005,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="D52">
         <v>190497</v>
@@ -1875,10 +2019,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="D53">
         <v>33904</v>
@@ -1889,10 +2033,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="D54">
         <v>571</v>
@@ -1903,10 +2047,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="D55">
         <v>3716</v>
@@ -1917,10 +2061,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1931,10 +2075,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="D57">
         <v>441489</v>
@@ -1945,10 +2089,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="D58">
         <v>585452</v>
@@ -1959,10 +2103,10 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D59">
         <v>325005</v>
@@ -1973,10 +2117,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="D60">
         <v>3192</v>
@@ -1987,10 +2131,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="D61">
         <v>124833</v>
@@ -2001,10 +2145,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="D62">
         <v>378746</v>
@@ -2015,10 +2159,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="D63">
         <v>688726</v>
@@ -2029,10 +2173,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D64">
         <v>749249</v>
@@ -2043,10 +2187,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D65">
         <v>143218</v>
@@ -2057,10 +2201,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D66">
         <v>464078</v>
@@ -2071,10 +2215,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="D67">
         <v>45666</v>
@@ -2085,10 +2229,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="D68">
         <v>63462</v>
@@ -2099,10 +2243,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="D69">
         <v>193002</v>
@@ -2113,10 +2257,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="D70">
         <v>429</v>
@@ -2127,10 +2271,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="D71">
         <v>233547</v>
@@ -2141,10 +2285,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="D72">
         <v>115718</v>
@@ -2155,10 +2299,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="D73">
         <v>3646</v>
@@ -2169,10 +2313,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -2183,10 +2327,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="D75">
         <v>108590</v>
@@ -2197,10 +2341,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D76">
         <v>138313</v>
@@ -2211,10 +2355,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="D77">
         <v>61189</v>
@@ -2225,10 +2369,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="D78">
         <v>25524</v>
@@ -2239,10 +2383,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="D79">
         <v>398189</v>
@@ -2253,10 +2397,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="D80">
         <v>5138</v>
@@ -2267,10 +2411,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="D81">
         <v>412738</v>
@@ -2281,10 +2425,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="D82">
         <v>210691</v>
@@ -2295,10 +2439,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="D83">
         <v>686657</v>
@@ -2309,10 +2453,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C84" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="D84">
         <v>34960</v>
@@ -2323,13 +2467,237 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="D85">
         <v>204029</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>287</v>
+      </c>
+      <c r="D86">
+        <v>110633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" t="s">
+        <v>288</v>
+      </c>
+      <c r="D87">
+        <v>22483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" t="s">
+        <v>289</v>
+      </c>
+      <c r="D88">
+        <v>726946</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89">
+        <v>129189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" t="s">
+        <v>291</v>
+      </c>
+      <c r="D90">
+        <v>15105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" t="s">
+        <v>292</v>
+      </c>
+      <c r="D91">
+        <v>28759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" t="s">
+        <v>293</v>
+      </c>
+      <c r="D92">
+        <v>137078</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>294</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94">
+        <v>239366</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" t="s">
+        <v>296</v>
+      </c>
+      <c r="D95">
+        <v>94879</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" t="s">
+        <v>297</v>
+      </c>
+      <c r="D96">
+        <v>1196062</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97">
+        <v>66267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98">
+        <v>132723</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99">
+        <v>498608</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100">
+        <v>15143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101">
+        <v>272599</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="487">
   <si>
     <t>Date</t>
   </si>
@@ -325,6 +325,186 @@
     <t>2026-02-16 13:18:11</t>
   </si>
   <si>
+    <t>2026-02-16 16:37:04</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:50:41</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:02:26</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:14:52</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:36:03</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:57:31</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:26:13</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:23:30</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:24:29</t>
+  </si>
+  <si>
+    <t>2026-02-16 21:16:16</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:10:20</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:38:56</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:25:14</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:41:57</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:17:26</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:13:26</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:45:59</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:27:49</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:36:32</t>
+  </si>
+  <si>
+    <t>2026-02-16 19:09:16</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:31:43</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:48:47</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:23:58</t>
+  </si>
+  <si>
+    <t>2026-02-15 06:45:11</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:11:10</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:33:08</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:18:36</t>
+  </si>
+  <si>
+    <t>2026-02-16 18:12:39</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:09:46</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:26:59</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:50:49</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:52:10</t>
+  </si>
+  <si>
+    <t>2026-02-16 00:53:17</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:16:34</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:10:42</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:55:46</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:35:57</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:47:03</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:30:52</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:19:47</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:23:14</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:01:55</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:58:00</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:29:24</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:49:33</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:54:42</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:18:54</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:32:24</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:19:35</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:56:11</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:52:45</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:46:18</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:36:22</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:06:11</t>
+  </si>
+  <si>
+    <t>2026-02-16 19:40:58</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:17:28</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:10:28</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:15:57</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:53:57</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:51:11</t>
+  </si>
+  <si>
     <t>237653626798</t>
   </si>
   <si>
@@ -625,6 +805,192 @@
     <t>237682117915</t>
   </si>
   <si>
+    <t>237683743490</t>
+  </si>
+  <si>
+    <t>237651346686</t>
+  </si>
+  <si>
+    <t>237654508603</t>
+  </si>
+  <si>
+    <t>237672731004</t>
+  </si>
+  <si>
+    <t>237674884831</t>
+  </si>
+  <si>
+    <t>237675986754</t>
+  </si>
+  <si>
+    <t>237678384388</t>
+  </si>
+  <si>
+    <t>237678559161</t>
+  </si>
+  <si>
+    <t>237678872943</t>
+  </si>
+  <si>
+    <t>237679244994</t>
+  </si>
+  <si>
+    <t>237679508295</t>
+  </si>
+  <si>
+    <t>237679808809</t>
+  </si>
+  <si>
+    <t>237679909537</t>
+  </si>
+  <si>
+    <t>237681114370</t>
+  </si>
+  <si>
+    <t>237681490029</t>
+  </si>
+  <si>
+    <t>237681655237</t>
+  </si>
+  <si>
+    <t>237676286294</t>
+  </si>
+  <si>
+    <t>237677313421</t>
+  </si>
+  <si>
+    <t>237677880357</t>
+  </si>
+  <si>
+    <t>237678201584</t>
+  </si>
+  <si>
+    <t>237678239927</t>
+  </si>
+  <si>
+    <t>237678623874</t>
+  </si>
+  <si>
+    <t>237678637179</t>
+  </si>
+  <si>
+    <t>237679567513</t>
+  </si>
+  <si>
+    <t>237680119435</t>
+  </si>
+  <si>
+    <t>237683386020</t>
+  </si>
+  <si>
+    <t>237683408221</t>
+  </si>
+  <si>
+    <t>237650651854</t>
+  </si>
+  <si>
+    <t>237650988697</t>
+  </si>
+  <si>
+    <t>237651809692</t>
+  </si>
+  <si>
+    <t>237652579681</t>
+  </si>
+  <si>
+    <t>237652724076</t>
+  </si>
+  <si>
+    <t>237652958984</t>
+  </si>
+  <si>
+    <t>237653239050</t>
+  </si>
+  <si>
+    <t>237653472620</t>
+  </si>
+  <si>
+    <t>237654117741</t>
+  </si>
+  <si>
+    <t>237654134124</t>
+  </si>
+  <si>
+    <t>237670358585</t>
+  </si>
+  <si>
+    <t>237670806337</t>
+  </si>
+  <si>
+    <t>237670809743</t>
+  </si>
+  <si>
+    <t>237670984670</t>
+  </si>
+  <si>
+    <t>237671364668</t>
+  </si>
+  <si>
+    <t>237671369692</t>
+  </si>
+  <si>
+    <t>237674272162</t>
+  </si>
+  <si>
+    <t>237674431977</t>
+  </si>
+  <si>
+    <t>237674913584</t>
+  </si>
+  <si>
+    <t>237675432472</t>
+  </si>
+  <si>
+    <t>237675450046</t>
+  </si>
+  <si>
+    <t>237675641522</t>
+  </si>
+  <si>
+    <t>237676270842</t>
+  </si>
+  <si>
+    <t>237677525770</t>
+  </si>
+  <si>
+    <t>237679071551</t>
+  </si>
+  <si>
+    <t>237680472978</t>
+  </si>
+  <si>
+    <t>237681102046</t>
+  </si>
+  <si>
+    <t>237682368679</t>
+  </si>
+  <si>
+    <t>237683360459</t>
+  </si>
+  <si>
+    <t>237652899422</t>
+  </si>
+  <si>
+    <t>237670904526</t>
+  </si>
+  <si>
+    <t>237671105116</t>
+  </si>
+  <si>
+    <t>237672916354</t>
+  </si>
+  <si>
+    <t>237672920086</t>
+  </si>
+  <si>
+    <t>237674000053</t>
+  </si>
+  <si>
     <t>PAGLAN BIKOND SIMONE ETS MOBILE FINANCIAL SERVICES MFS</t>
   </si>
   <si>
@@ -923,6 +1289,192 @@
   </si>
   <si>
     <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT NGAH MARIE</t>
+  </si>
+  <si>
+    <t>PRISCILLIA YOUATCHUS SONCHIFUA</t>
+  </si>
+  <si>
+    <t>NINA MORELLE KUEDONG NGUETSA</t>
+  </si>
+  <si>
+    <t>DIALLO OUSMANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>CHRISTINE METSEGOUM</t>
+  </si>
+  <si>
+    <t>VIVIANE MANTO DZOUA</t>
+  </si>
+  <si>
+    <t>LEOCADIE SEN BANG ESSOME</t>
+  </si>
+  <si>
+    <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ZANKIA RAISSA DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+  </si>
+  <si>
+    <t>MERCY AKON ABIA</t>
+  </si>
+  <si>
+    <t>TONLEPEU NGALAGNI CHANCELINE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LAURE GISELE TADOUMFO NOUOJI</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+  </si>
+  <si>
+    <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+  </si>
+  <si>
+    <t>NGOUNOU EPSE KEMAYOU VIRGINIE FLORE _PAN-AFRICAN SAVINGS AND LOANS SA</t>
+  </si>
+  <si>
+    <t>SOFT DEAL TRADING LIMITED ESG CAMPUS A</t>
+  </si>
+  <si>
+    <t>vanissa sandjouon</t>
+  </si>
+  <si>
+    <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL MADAGAL MOHAMED</t>
+  </si>
+  <si>
+    <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+  </si>
+  <si>
+    <t>LANDRY KWENDJE DJEUKUI</t>
+  </si>
+  <si>
+    <t>DJOUTCHOU TCHANA MERVEILLE ESPERANCE</t>
+  </si>
+  <si>
+    <t>Beni Donnatien Mpeck</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+  </si>
+  <si>
+    <t>KOMI GISELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>DENIS VOTIO NOBOUODEM</t>
+  </si>
+  <si>
+    <t>AUREL KAMTA TEUMEN</t>
+  </si>
+  <si>
+    <t>NGOUBE NGOUPAYOU ARAMI ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>GABRELLA BERINYUY NSAWIR</t>
+  </si>
+  <si>
+    <t>MESMINE AURELIE MAADE TAGNE</t>
+  </si>
+  <si>
+    <t>ROSINE BONGWEH LA VERDZEYUF</t>
+  </si>
+  <si>
+    <t>RAPHAEL WAZECK YABONG</t>
+  </si>
+  <si>
+    <t>EVAGLE EMMANUEL -MFS</t>
+  </si>
+  <si>
+    <t>MFS AM ANGE RAPHAËL</t>
+  </si>
+  <si>
+    <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LIONELFONE MEDJEUFEUSSI</t>
+  </si>
+  <si>
+    <t>NADI FATIMATOU</t>
+  </si>
+  <si>
+    <t>EDITH MELI TEMZENETCHOU</t>
+  </si>
+  <si>
+    <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+  </si>
+  <si>
+    <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+  </si>
+  <si>
+    <t>MBAKOP DJOUMOU DARC TOP MOBIL</t>
+  </si>
+  <si>
+    <t>JUDITH LAURE LIENOU</t>
+  </si>
+  <si>
+    <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LOUISE ODILE DJOUALA</t>
+  </si>
+  <si>
+    <t>KAOU POINT SARL SODISERV</t>
+  </si>
+  <si>
+    <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+  </si>
+  <si>
+    <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NICOLAS BIKECK</t>
+  </si>
+  <si>
+    <t>ZOULIATOU NTOUPENDI</t>
+  </si>
+  <si>
+    <t>MFS SIM AA 2</t>
+  </si>
+  <si>
+    <t>JOSEPH TRESOR NGABU</t>
+  </si>
+  <si>
+    <t>NOUMOU epouse SAGNON MARCELINE LA NEGRESSE</t>
+  </si>
+  <si>
+    <t>MFS SIM PROVISOIRE 20</t>
+  </si>
+  <si>
+    <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+  </si>
+  <si>
+    <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+  </si>
+  <si>
+    <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1305,10 +1857,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="D2">
         <v>27112</v>
@@ -1319,10 +1871,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="D3">
         <v>15364</v>
@@ -1333,10 +1885,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="D4">
         <v>9230</v>
@@ -1347,10 +1899,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="D5">
         <v>700565</v>
@@ -1361,10 +1913,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="D6">
         <v>34711</v>
@@ -1375,10 +1927,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>330</v>
       </c>
       <c r="D7">
         <v>661486</v>
@@ -1389,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="D8">
         <v>22120</v>
@@ -1403,10 +1955,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>332</v>
       </c>
       <c r="D9">
         <v>87217</v>
@@ -1417,10 +1969,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="D10">
         <v>8418</v>
@@ -1431,10 +1983,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>334</v>
       </c>
       <c r="D11">
         <v>14032</v>
@@ -1445,10 +1997,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>335</v>
       </c>
       <c r="D12">
         <v>360497</v>
@@ -1459,10 +2011,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>336</v>
       </c>
       <c r="D13">
         <v>11663</v>
@@ -1473,10 +2025,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="D14">
         <v>41918</v>
@@ -1487,10 +2039,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>338</v>
       </c>
       <c r="D15">
         <v>22158</v>
@@ -1501,10 +2053,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c r="D16">
         <v>72096</v>
@@ -1515,10 +2067,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="D17">
         <v>3800</v>
@@ -1529,10 +2081,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="D18">
         <v>25526</v>
@@ -1543,10 +2095,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
       <c r="D19">
         <v>242</v>
@@ -1557,10 +2109,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="D20">
         <v>313381</v>
@@ -1571,10 +2123,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="D21">
         <v>285329</v>
@@ -1585,10 +2137,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="D22">
         <v>253276</v>
@@ -1599,10 +2151,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1613,10 +2165,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="D24">
         <v>79779</v>
@@ -1627,10 +2179,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>348</v>
       </c>
       <c r="D25">
         <v>159936</v>
@@ -1641,10 +2193,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="D26">
         <v>15045</v>
@@ -1655,10 +2207,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>228</v>
+        <v>350</v>
       </c>
       <c r="D27">
         <v>28886</v>
@@ -1669,10 +2221,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>351</v>
       </c>
       <c r="D28">
         <v>126015</v>
@@ -1683,10 +2235,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
       <c r="D29">
         <v>21885</v>
@@ -1697,10 +2249,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="D30">
         <v>325152</v>
@@ -1711,10 +2263,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>354</v>
       </c>
       <c r="D31">
         <v>292094</v>
@@ -1725,10 +2277,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1739,10 +2291,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>356</v>
       </c>
       <c r="D33">
         <v>1547</v>
@@ -1753,10 +2305,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>357</v>
       </c>
       <c r="D34">
         <v>25674</v>
@@ -1767,10 +2319,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>358</v>
       </c>
       <c r="D35">
         <v>30657</v>
@@ -1781,10 +2333,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="D36">
         <v>332790</v>
@@ -1795,10 +2347,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>360</v>
       </c>
       <c r="D37">
         <v>194582</v>
@@ -1809,10 +2361,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
+        <v>361</v>
       </c>
       <c r="D38">
         <v>78748</v>
@@ -1823,10 +2375,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="D39">
         <v>589699</v>
@@ -1837,10 +2389,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>363</v>
       </c>
       <c r="D40">
         <v>11232</v>
@@ -1851,10 +2403,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="D41">
         <v>137118</v>
@@ -1865,10 +2417,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="D42">
         <v>37842</v>
@@ -1879,10 +2431,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="D43">
         <v>105185</v>
@@ -1893,10 +2445,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="D44">
         <v>648154</v>
@@ -1907,10 +2459,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="D45">
         <v>152317</v>
@@ -1921,10 +2473,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>369</v>
       </c>
       <c r="D46">
         <v>156018</v>
@@ -1935,10 +2487,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="D47">
         <v>80603</v>
@@ -1949,10 +2501,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>249</v>
+        <v>371</v>
       </c>
       <c r="D48">
         <v>51582</v>
@@ -1963,10 +2515,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="D49">
         <v>375383</v>
@@ -1977,10 +2529,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
+        <v>373</v>
       </c>
       <c r="D50">
         <v>278038</v>
@@ -1991,10 +2543,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>252</v>
+        <v>374</v>
       </c>
       <c r="D51">
         <v>409096</v>
@@ -2005,10 +2557,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="D52">
         <v>190497</v>
@@ -2019,10 +2571,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>254</v>
+        <v>376</v>
       </c>
       <c r="D53">
         <v>33904</v>
@@ -2033,10 +2585,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="D54">
         <v>571</v>
@@ -2047,10 +2599,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="D55">
         <v>3716</v>
@@ -2061,10 +2613,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>257</v>
+        <v>379</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2075,10 +2627,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="D57">
         <v>441489</v>
@@ -2089,10 +2641,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="D58">
         <v>585452</v>
@@ -2103,10 +2655,10 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="D59">
         <v>325005</v>
@@ -2117,10 +2669,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>383</v>
       </c>
       <c r="D60">
         <v>3192</v>
@@ -2131,10 +2683,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="D61">
         <v>124833</v>
@@ -2145,10 +2697,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="C62" t="s">
-        <v>263</v>
+        <v>385</v>
       </c>
       <c r="D62">
         <v>378746</v>
@@ -2159,10 +2711,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="D63">
         <v>688726</v>
@@ -2173,10 +2725,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>265</v>
+        <v>387</v>
       </c>
       <c r="D64">
         <v>749249</v>
@@ -2187,10 +2739,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="C65" t="s">
-        <v>266</v>
+        <v>388</v>
       </c>
       <c r="D65">
         <v>143218</v>
@@ -2201,10 +2753,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="C66" t="s">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="D66">
         <v>464078</v>
@@ -2215,10 +2767,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="C67" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="D67">
         <v>45666</v>
@@ -2229,10 +2781,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="C68" t="s">
-        <v>269</v>
+        <v>391</v>
       </c>
       <c r="D68">
         <v>63462</v>
@@ -2243,10 +2795,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="D69">
         <v>193002</v>
@@ -2257,10 +2809,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
       <c r="D70">
         <v>429</v>
@@ -2271,10 +2823,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="D71">
         <v>233547</v>
@@ -2285,10 +2837,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>395</v>
       </c>
       <c r="D72">
         <v>115718</v>
@@ -2299,10 +2851,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="D73">
         <v>3646</v>
@@ -2313,10 +2865,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
-        <v>275</v>
+        <v>397</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -2327,10 +2879,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
-        <v>276</v>
+        <v>398</v>
       </c>
       <c r="D75">
         <v>108590</v>
@@ -2341,10 +2893,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>277</v>
+        <v>399</v>
       </c>
       <c r="D76">
         <v>138313</v>
@@ -2355,10 +2907,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="D77">
         <v>61189</v>
@@ -2369,10 +2921,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="C78" t="s">
-        <v>279</v>
+        <v>401</v>
       </c>
       <c r="D78">
         <v>25524</v>
@@ -2383,10 +2935,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>280</v>
+        <v>402</v>
       </c>
       <c r="D79">
         <v>398189</v>
@@ -2397,10 +2949,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>281</v>
+        <v>403</v>
       </c>
       <c r="D80">
         <v>5138</v>
@@ -2411,10 +2963,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="C81" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="D81">
         <v>412738</v>
@@ -2425,10 +2977,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D82">
         <v>210691</v>
@@ -2439,10 +2991,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
-        <v>284</v>
+        <v>406</v>
       </c>
       <c r="D83">
         <v>686657</v>
@@ -2453,10 +3005,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
-        <v>285</v>
+        <v>407</v>
       </c>
       <c r="D84">
         <v>34960</v>
@@ -2467,10 +3019,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
-        <v>286</v>
+        <v>408</v>
       </c>
       <c r="D85">
         <v>204029</v>
@@ -2481,10 +3033,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="C86" t="s">
-        <v>287</v>
+        <v>409</v>
       </c>
       <c r="D86">
         <v>110633</v>
@@ -2495,10 +3047,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C87" t="s">
-        <v>288</v>
+        <v>410</v>
       </c>
       <c r="D87">
         <v>22483</v>
@@ -2509,10 +3061,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C88" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
       <c r="D88">
         <v>726946</v>
@@ -2523,10 +3075,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C89" t="s">
-        <v>290</v>
+        <v>412</v>
       </c>
       <c r="D89">
         <v>129189</v>
@@ -2537,10 +3089,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="C90" t="s">
-        <v>291</v>
+        <v>413</v>
       </c>
       <c r="D90">
         <v>15105</v>
@@ -2551,10 +3103,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="C91" t="s">
-        <v>292</v>
+        <v>414</v>
       </c>
       <c r="D91">
         <v>28759</v>
@@ -2565,10 +3117,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="C92" t="s">
-        <v>293</v>
+        <v>415</v>
       </c>
       <c r="D92">
         <v>137078</v>
@@ -2579,10 +3131,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="C93" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2593,10 +3145,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="C94" t="s">
-        <v>295</v>
+        <v>417</v>
       </c>
       <c r="D94">
         <v>239366</v>
@@ -2607,10 +3159,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="D95">
         <v>94879</v>
@@ -2621,10 +3173,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="C96" t="s">
-        <v>297</v>
+        <v>419</v>
       </c>
       <c r="D96">
         <v>1196062</v>
@@ -2635,10 +3187,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C97" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="D97">
         <v>66267</v>
@@ -2649,10 +3201,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="C98" t="s">
-        <v>299</v>
+        <v>421</v>
       </c>
       <c r="D98">
         <v>132723</v>
@@ -2663,10 +3215,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="C99" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="D99">
         <v>498608</v>
@@ -2677,10 +3229,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="D100">
         <v>15143</v>
@@ -2691,13 +3243,881 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="C101" t="s">
-        <v>302</v>
+        <v>424</v>
       </c>
       <c r="D101">
         <v>272599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" t="s">
+        <v>425</v>
+      </c>
+      <c r="D102">
+        <v>39244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" t="s">
+        <v>426</v>
+      </c>
+      <c r="D103">
+        <v>309794</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" t="s">
+        <v>427</v>
+      </c>
+      <c r="D104">
+        <v>592377</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" t="s">
+        <v>428</v>
+      </c>
+      <c r="D105">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" t="s">
+        <v>429</v>
+      </c>
+      <c r="D106">
+        <v>1274455</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" t="s">
+        <v>430</v>
+      </c>
+      <c r="D107">
+        <v>34795</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" t="s">
+        <v>431</v>
+      </c>
+      <c r="D108">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" t="s">
+        <v>432</v>
+      </c>
+      <c r="D109">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110" t="s">
+        <v>433</v>
+      </c>
+      <c r="D110">
+        <v>547970</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" t="s">
+        <v>434</v>
+      </c>
+      <c r="D111">
+        <v>3889365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>273</v>
+      </c>
+      <c r="C112" t="s">
+        <v>435</v>
+      </c>
+      <c r="D112">
+        <v>55114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" t="s">
+        <v>436</v>
+      </c>
+      <c r="D113">
+        <v>179628</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" t="s">
+        <v>437</v>
+      </c>
+      <c r="D114">
+        <v>20429</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" t="s">
+        <v>438</v>
+      </c>
+      <c r="D115">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" t="s">
+        <v>439</v>
+      </c>
+      <c r="D116">
+        <v>23090</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" t="s">
+        <v>440</v>
+      </c>
+      <c r="D117">
+        <v>20301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>279</v>
+      </c>
+      <c r="C118" t="s">
+        <v>441</v>
+      </c>
+      <c r="D118">
+        <v>89100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" t="s">
+        <v>442</v>
+      </c>
+      <c r="D119">
+        <v>346590</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>281</v>
+      </c>
+      <c r="C120" t="s">
+        <v>443</v>
+      </c>
+      <c r="D120">
+        <v>985422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" t="s">
+        <v>444</v>
+      </c>
+      <c r="D121">
+        <v>2761983</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>283</v>
+      </c>
+      <c r="C122" t="s">
+        <v>445</v>
+      </c>
+      <c r="D122">
+        <v>52693</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" t="s">
+        <v>446</v>
+      </c>
+      <c r="D123">
+        <v>493290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" t="s">
+        <v>447</v>
+      </c>
+      <c r="D124">
+        <v>1770235</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>286</v>
+      </c>
+      <c r="C125" t="s">
+        <v>448</v>
+      </c>
+      <c r="D125">
+        <v>17932</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>287</v>
+      </c>
+      <c r="C126" t="s">
+        <v>449</v>
+      </c>
+      <c r="D126">
+        <v>997393</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>288</v>
+      </c>
+      <c r="C127" t="s">
+        <v>450</v>
+      </c>
+      <c r="D127">
+        <v>32182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" t="s">
+        <v>451</v>
+      </c>
+      <c r="D128">
+        <v>158614</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>290</v>
+      </c>
+      <c r="C129" t="s">
+        <v>452</v>
+      </c>
+      <c r="D129">
+        <v>189550</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" t="s">
+        <v>453</v>
+      </c>
+      <c r="D130">
+        <v>24132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>292</v>
+      </c>
+      <c r="C131" t="s">
+        <v>454</v>
+      </c>
+      <c r="D131">
+        <v>346865</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132" t="s">
+        <v>455</v>
+      </c>
+      <c r="D132">
+        <v>31675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>294</v>
+      </c>
+      <c r="C133" t="s">
+        <v>456</v>
+      </c>
+      <c r="D133">
+        <v>90908</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" t="s">
+        <v>457</v>
+      </c>
+      <c r="D134">
+        <v>323514</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>296</v>
+      </c>
+      <c r="C135" t="s">
+        <v>458</v>
+      </c>
+      <c r="D135">
+        <v>134245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>297</v>
+      </c>
+      <c r="C136" t="s">
+        <v>459</v>
+      </c>
+      <c r="D136">
+        <v>113746</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>298</v>
+      </c>
+      <c r="C137" t="s">
+        <v>460</v>
+      </c>
+      <c r="D137">
+        <v>447505</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>299</v>
+      </c>
+      <c r="C138" t="s">
+        <v>461</v>
+      </c>
+      <c r="D138">
+        <v>128017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" t="s">
+        <v>462</v>
+      </c>
+      <c r="D139">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>301</v>
+      </c>
+      <c r="C140" t="s">
+        <v>463</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>302</v>
+      </c>
+      <c r="C141" t="s">
+        <v>464</v>
+      </c>
+      <c r="D141">
+        <v>196945</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>303</v>
+      </c>
+      <c r="C142" t="s">
+        <v>465</v>
+      </c>
+      <c r="D142">
+        <v>53719</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>304</v>
+      </c>
+      <c r="C143" t="s">
+        <v>466</v>
+      </c>
+      <c r="D143">
+        <v>53719</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" t="s">
+        <v>467</v>
+      </c>
+      <c r="D144">
+        <v>29637</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" t="s">
+        <v>468</v>
+      </c>
+      <c r="D145">
+        <v>36076</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>307</v>
+      </c>
+      <c r="C146" t="s">
+        <v>469</v>
+      </c>
+      <c r="D146">
+        <v>197292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>308</v>
+      </c>
+      <c r="C147" t="s">
+        <v>470</v>
+      </c>
+      <c r="D147">
+        <v>54939</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" t="s">
+        <v>471</v>
+      </c>
+      <c r="D148">
+        <v>72960</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>310</v>
+      </c>
+      <c r="C149" t="s">
+        <v>472</v>
+      </c>
+      <c r="D149">
+        <v>196306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>311</v>
+      </c>
+      <c r="C150" t="s">
+        <v>473</v>
+      </c>
+      <c r="D150">
+        <v>200345</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>312</v>
+      </c>
+      <c r="C151" t="s">
+        <v>474</v>
+      </c>
+      <c r="D151">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>313</v>
+      </c>
+      <c r="C152" t="s">
+        <v>475</v>
+      </c>
+      <c r="D152">
+        <v>32834</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>314</v>
+      </c>
+      <c r="C153" t="s">
+        <v>476</v>
+      </c>
+      <c r="D153">
+        <v>94572</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154" t="s">
+        <v>477</v>
+      </c>
+      <c r="D154">
+        <v>208608</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>316</v>
+      </c>
+      <c r="C155" t="s">
+        <v>478</v>
+      </c>
+      <c r="D155">
+        <v>239792</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>317</v>
+      </c>
+      <c r="C156" t="s">
+        <v>479</v>
+      </c>
+      <c r="D156">
+        <v>46429</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>318</v>
+      </c>
+      <c r="C157" t="s">
+        <v>480</v>
+      </c>
+      <c r="D157">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>319</v>
+      </c>
+      <c r="C158" t="s">
+        <v>481</v>
+      </c>
+      <c r="D158">
+        <v>465194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" t="s">
+        <v>482</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" t="s">
+        <v>483</v>
+      </c>
+      <c r="D160">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>71</v>
+      </c>
+      <c r="B161" t="s">
+        <v>322</v>
+      </c>
+      <c r="C161" t="s">
+        <v>484</v>
+      </c>
+      <c r="D161">
+        <v>194587</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+      <c r="C162" t="s">
+        <v>485</v>
+      </c>
+      <c r="D162">
+        <v>251718</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" t="s">
+        <v>486</v>
+      </c>
+      <c r="D163">
+        <v>290575</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="499">
   <si>
     <t>Date</t>
   </si>
@@ -505,6 +505,18 @@
     <t>2026-02-16 13:51:11</t>
   </si>
   <si>
+    <t>2026-02-16 15:26:11</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:31:58</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:56:30</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:12:42</t>
+  </si>
+  <si>
     <t>237653626798</t>
   </si>
   <si>
@@ -991,6 +1003,18 @@
     <t>237674000053</t>
   </si>
   <si>
+    <t>237674841555</t>
+  </si>
+  <si>
+    <t>237674899678</t>
+  </si>
+  <si>
+    <t>237676439452</t>
+  </si>
+  <si>
+    <t>237676695935</t>
+  </si>
+  <si>
     <t>PAGLAN BIKOND SIMONE ETS MOBILE FINANCIAL SERVICES MFS</t>
   </si>
   <si>
@@ -1475,6 +1499,18 @@
   </si>
   <si>
     <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+  </si>
+  <si>
+    <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+  </si>
+  <si>
+    <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+  </si>
+  <si>
+    <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+  </si>
+  <si>
+    <t>MFS MAKEPE MATURITE</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1857,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D2">
         <v>27112</v>
@@ -1871,10 +1907,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D3">
         <v>15364</v>
@@ -1885,10 +1921,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D4">
         <v>9230</v>
@@ -1899,10 +1935,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D5">
         <v>700565</v>
@@ -1913,10 +1949,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D6">
         <v>34711</v>
@@ -1927,10 +1963,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D7">
         <v>661486</v>
@@ -1941,10 +1977,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D8">
         <v>22120</v>
@@ -1955,10 +1991,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D9">
         <v>87217</v>
@@ -1969,10 +2005,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D10">
         <v>8418</v>
@@ -1983,10 +2019,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D11">
         <v>14032</v>
@@ -1997,10 +2033,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D12">
         <v>360497</v>
@@ -2011,10 +2047,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D13">
         <v>11663</v>
@@ -2025,10 +2061,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D14">
         <v>41918</v>
@@ -2039,10 +2075,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D15">
         <v>22158</v>
@@ -2053,10 +2089,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D16">
         <v>72096</v>
@@ -2067,10 +2103,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D17">
         <v>3800</v>
@@ -2081,10 +2117,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D18">
         <v>25526</v>
@@ -2095,10 +2131,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D19">
         <v>242</v>
@@ -2109,10 +2145,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D20">
         <v>313381</v>
@@ -2123,10 +2159,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D21">
         <v>285329</v>
@@ -2137,10 +2173,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D22">
         <v>253276</v>
@@ -2151,10 +2187,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2165,10 +2201,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D24">
         <v>79779</v>
@@ -2179,10 +2215,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D25">
         <v>159936</v>
@@ -2193,10 +2229,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D26">
         <v>15045</v>
@@ -2207,10 +2243,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D27">
         <v>28886</v>
@@ -2221,10 +2257,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D28">
         <v>126015</v>
@@ -2235,10 +2271,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D29">
         <v>21885</v>
@@ -2249,10 +2285,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D30">
         <v>325152</v>
@@ -2263,10 +2299,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C31" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D31">
         <v>292094</v>
@@ -2277,10 +2313,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C32" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2291,10 +2327,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D33">
         <v>1547</v>
@@ -2305,10 +2341,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D34">
         <v>25674</v>
@@ -2319,10 +2355,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D35">
         <v>30657</v>
@@ -2333,10 +2369,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D36">
         <v>332790</v>
@@ -2347,10 +2383,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D37">
         <v>194582</v>
@@ -2361,10 +2397,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D38">
         <v>78748</v>
@@ -2375,10 +2411,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D39">
         <v>589699</v>
@@ -2389,10 +2425,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D40">
         <v>11232</v>
@@ -2403,10 +2439,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D41">
         <v>137118</v>
@@ -2417,10 +2453,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D42">
         <v>37842</v>
@@ -2431,10 +2467,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D43">
         <v>105185</v>
@@ -2445,10 +2481,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D44">
         <v>648154</v>
@@ -2459,10 +2495,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D45">
         <v>152317</v>
@@ -2473,10 +2509,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D46">
         <v>156018</v>
@@ -2487,10 +2523,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D47">
         <v>80603</v>
@@ -2501,10 +2537,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D48">
         <v>51582</v>
@@ -2515,10 +2551,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D49">
         <v>375383</v>
@@ -2529,10 +2565,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D50">
         <v>278038</v>
@@ -2543,10 +2579,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C51" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D51">
         <v>409096</v>
@@ -2557,10 +2593,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D52">
         <v>190497</v>
@@ -2571,10 +2607,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D53">
         <v>33904</v>
@@ -2585,10 +2621,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D54">
         <v>571</v>
@@ -2599,10 +2635,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D55">
         <v>3716</v>
@@ -2613,10 +2649,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2627,10 +2663,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D57">
         <v>441489</v>
@@ -2641,10 +2677,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C58" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D58">
         <v>585452</v>
@@ -2655,10 +2691,10 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D59">
         <v>325005</v>
@@ -2669,10 +2705,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D60">
         <v>3192</v>
@@ -2683,10 +2719,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C61" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D61">
         <v>124833</v>
@@ -2697,10 +2733,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C62" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D62">
         <v>378746</v>
@@ -2711,10 +2747,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C63" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D63">
         <v>688726</v>
@@ -2725,10 +2761,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C64" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D64">
         <v>749249</v>
@@ -2739,10 +2775,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C65" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D65">
         <v>143218</v>
@@ -2753,10 +2789,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C66" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D66">
         <v>464078</v>
@@ -2767,10 +2803,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C67" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D67">
         <v>45666</v>
@@ -2781,10 +2817,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C68" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D68">
         <v>63462</v>
@@ -2795,10 +2831,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C69" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D69">
         <v>193002</v>
@@ -2809,10 +2845,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D70">
         <v>429</v>
@@ -2823,10 +2859,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D71">
         <v>233547</v>
@@ -2837,10 +2873,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C72" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D72">
         <v>115718</v>
@@ -2851,10 +2887,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C73" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D73">
         <v>3646</v>
@@ -2865,10 +2901,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C74" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -2879,10 +2915,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C75" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D75">
         <v>108590</v>
@@ -2893,10 +2929,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D76">
         <v>138313</v>
@@ -2907,10 +2943,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C77" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D77">
         <v>61189</v>
@@ -2921,10 +2957,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C78" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D78">
         <v>25524</v>
@@ -2935,10 +2971,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D79">
         <v>398189</v>
@@ -2949,10 +2985,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C80" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D80">
         <v>5138</v>
@@ -2963,10 +2999,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C81" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D81">
         <v>412738</v>
@@ -2977,10 +3013,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C82" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D82">
         <v>210691</v>
@@ -2991,10 +3027,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C83" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D83">
         <v>686657</v>
@@ -3005,10 +3041,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C84" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D84">
         <v>34960</v>
@@ -3019,10 +3055,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C85" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D85">
         <v>204029</v>
@@ -3033,10 +3069,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C86" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D86">
         <v>110633</v>
@@ -3047,10 +3083,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C87" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D87">
         <v>22483</v>
@@ -3061,10 +3097,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C88" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D88">
         <v>726946</v>
@@ -3075,10 +3111,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C89" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D89">
         <v>129189</v>
@@ -3089,10 +3125,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C90" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D90">
         <v>15105</v>
@@ -3103,10 +3139,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C91" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D91">
         <v>28759</v>
@@ -3117,10 +3153,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C92" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D92">
         <v>137078</v>
@@ -3131,10 +3167,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C93" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3145,10 +3181,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C94" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D94">
         <v>239366</v>
@@ -3159,10 +3195,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C95" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D95">
         <v>94879</v>
@@ -3173,10 +3209,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C96" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D96">
         <v>1196062</v>
@@ -3187,10 +3223,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C97" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D97">
         <v>66267</v>
@@ -3201,10 +3237,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C98" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D98">
         <v>132723</v>
@@ -3215,10 +3251,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C99" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D99">
         <v>498608</v>
@@ -3229,10 +3265,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="D100">
         <v>15143</v>
@@ -3243,10 +3279,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C101" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="D101">
         <v>272599</v>
@@ -3257,10 +3293,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C102" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D102">
         <v>39244</v>
@@ -3271,10 +3307,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C103" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D103">
         <v>309794</v>
@@ -3285,10 +3321,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C104" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D104">
         <v>592377</v>
@@ -3299,10 +3335,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C105" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D105">
         <v>3399</v>
@@ -3313,10 +3349,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C106" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D106">
         <v>1274455</v>
@@ -3327,10 +3363,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="D107">
         <v>34795</v>
@@ -3341,10 +3377,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C108" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D108">
         <v>5448</v>
@@ -3355,10 +3391,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C109" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D109">
         <v>1979</v>
@@ -3369,10 +3405,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C110" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D110">
         <v>547970</v>
@@ -3383,10 +3419,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C111" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D111">
         <v>3889365</v>
@@ -3397,10 +3433,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C112" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D112">
         <v>55114</v>
@@ -3411,10 +3447,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C113" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D113">
         <v>179628</v>
@@ -3425,10 +3461,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C114" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D114">
         <v>20429</v>
@@ -3439,10 +3475,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C115" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D115">
         <v>45255</v>
@@ -3453,10 +3489,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C116" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D116">
         <v>23090</v>
@@ -3467,10 +3503,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C117" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D117">
         <v>20301</v>
@@ -3481,10 +3517,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C118" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D118">
         <v>89100</v>
@@ -3495,10 +3531,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C119" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D119">
         <v>346590</v>
@@ -3509,10 +3545,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C120" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D120">
         <v>985422</v>
@@ -3523,10 +3559,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C121" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D121">
         <v>2761983</v>
@@ -3537,10 +3573,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C122" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D122">
         <v>52693</v>
@@ -3551,10 +3587,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C123" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D123">
         <v>493290</v>
@@ -3565,10 +3601,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C124" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D124">
         <v>1770235</v>
@@ -3579,10 +3615,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C125" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D125">
         <v>17932</v>
@@ -3593,10 +3629,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C126" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D126">
         <v>997393</v>
@@ -3607,10 +3643,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C127" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D127">
         <v>32182</v>
@@ -3621,10 +3657,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C128" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D128">
         <v>158614</v>
@@ -3635,10 +3671,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C129" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D129">
         <v>189550</v>
@@ -3649,10 +3685,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C130" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D130">
         <v>24132</v>
@@ -3663,10 +3699,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C131" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D131">
         <v>346865</v>
@@ -3677,10 +3713,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C132" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D132">
         <v>31675</v>
@@ -3691,10 +3727,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C133" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D133">
         <v>90908</v>
@@ -3705,10 +3741,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C134" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D134">
         <v>323514</v>
@@ -3719,10 +3755,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C135" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D135">
         <v>134245</v>
@@ -3733,10 +3769,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C136" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D136">
         <v>113746</v>
@@ -3747,10 +3783,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C137" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D137">
         <v>447505</v>
@@ -3761,10 +3797,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C138" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D138">
         <v>128017</v>
@@ -3775,10 +3811,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C139" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D139">
         <v>43728</v>
@@ -3789,10 +3825,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C140" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -3803,10 +3839,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C141" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D141">
         <v>196945</v>
@@ -3817,10 +3853,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C142" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D142">
         <v>53719</v>
@@ -3831,10 +3867,10 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C143" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D143">
         <v>53719</v>
@@ -3845,10 +3881,10 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C144" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D144">
         <v>29637</v>
@@ -3859,10 +3895,10 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C145" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D145">
         <v>36076</v>
@@ -3873,10 +3909,10 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C146" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D146">
         <v>197292</v>
@@ -3887,10 +3923,10 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C147" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D147">
         <v>54939</v>
@@ -3901,10 +3937,10 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C148" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D148">
         <v>72960</v>
@@ -3915,10 +3951,10 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C149" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D149">
         <v>196306</v>
@@ -3929,10 +3965,10 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C150" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D150">
         <v>200345</v>
@@ -3943,10 +3979,10 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C151" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D151">
         <v>42664</v>
@@ -3957,10 +3993,10 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C152" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D152">
         <v>32834</v>
@@ -3971,10 +4007,10 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C153" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D153">
         <v>94572</v>
@@ -3985,10 +4021,10 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C154" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D154">
         <v>208608</v>
@@ -3999,10 +4035,10 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C155" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D155">
         <v>239792</v>
@@ -4013,10 +4049,10 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C156" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D156">
         <v>46429</v>
@@ -4027,10 +4063,10 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C157" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D157">
         <v>4570</v>
@@ -4041,10 +4077,10 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C158" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D158">
         <v>465194</v>
@@ -4055,10 +4091,10 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C159" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -4069,10 +4105,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C160" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D160">
         <v>49</v>
@@ -4083,10 +4119,10 @@
         <v>71</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C161" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D161">
         <v>194587</v>
@@ -4097,10 +4133,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C162" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D162">
         <v>251718</v>
@@ -4111,13 +4147,69 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C163" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D163">
         <v>290575</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" t="s">
+        <v>495</v>
+      </c>
+      <c r="D164">
+        <v>790555</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>330</v>
+      </c>
+      <c r="C165" t="s">
+        <v>496</v>
+      </c>
+      <c r="D165">
+        <v>507599</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+      <c r="C166" t="s">
+        <v>497</v>
+      </c>
+      <c r="D166">
+        <v>9597</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" t="s">
+        <v>498</v>
+      </c>
+      <c r="D167">
+        <v>312534</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="730">
   <si>
     <t>Date</t>
   </si>
@@ -517,6 +517,237 @@
     <t>2026-02-16 16:12:42</t>
   </si>
   <si>
+    <t>2026-02-16 16:03:30</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:02:52</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:48:09</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:12:00</t>
+  </si>
+  <si>
+    <t>2026-02-16 09:10:07</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:51:32</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:31:29</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:55:49</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:11:43</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:06:57</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:26:53</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:36:38</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:54:54</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:22:29</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:35:33</t>
+  </si>
+  <si>
+    <t>2026-02-16 10:14:24</t>
+  </si>
+  <si>
+    <t>2026-02-16 01:29:34</t>
+  </si>
+  <si>
+    <t>2026-02-16 06:30:13</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:30:22</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:34:47</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:08:09</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:04:50</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:38:26</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:59:11</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:00:38</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:30:42</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:00:52</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:18:38</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:40:53</t>
+  </si>
+  <si>
+    <t>2026-02-16 08:12:50</t>
+  </si>
+  <si>
+    <t>2026-02-16 10:27:27</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:10:06</t>
+  </si>
+  <si>
+    <t>2026-02-15 09:40:30</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:14:01</t>
+  </si>
+  <si>
+    <t>2026-02-16 22:10:41</t>
+  </si>
+  <si>
+    <t>2026-02-16 18:20:36</t>
+  </si>
+  <si>
+    <t>2026-02-15 03:43:12</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:40:26</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:42:44</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:53:43</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:36:15</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:31:47</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:41:32</t>
+  </si>
+  <si>
+    <t>2026-02-16 08:14:29</t>
+  </si>
+  <si>
+    <t>2026-02-16 10:25:51</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:52:55</t>
+  </si>
+  <si>
+    <t>2026-02-17 00:07:01</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:32:09</t>
+  </si>
+  <si>
+    <t>2026-02-12 14:11:34</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:18:18</t>
+  </si>
+  <si>
+    <t>2026-02-16 18:45:46</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:46:19</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:18:30</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:58:27</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:23:30</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:48:42</t>
+  </si>
+  <si>
+    <t>2026-02-15 09:38:38</t>
+  </si>
+  <si>
+    <t>2026-02-17 00:05:36</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:32:07</t>
+  </si>
+  <si>
+    <t>2026-02-14 16:04:50</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:52:07</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:26:18</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:48:54</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:51:48</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:01:23</t>
+  </si>
+  <si>
+    <t>2026-02-15 12:22:44</t>
+  </si>
+  <si>
+    <t>2026-02-15 12:08:24</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:37:46</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:48:53</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:17:38</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:14:03</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:03:20</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:36:23</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:19:01</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:04:27</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:50:55</t>
+  </si>
+  <si>
+    <t>2026-02-16 10:10:25</t>
+  </si>
+  <si>
     <t>237653626798</t>
   </si>
   <si>
@@ -1015,6 +1246,237 @@
     <t>237676695935</t>
   </si>
   <si>
+    <t>237677745809</t>
+  </si>
+  <si>
+    <t>237679127464</t>
+  </si>
+  <si>
+    <t>237679422291</t>
+  </si>
+  <si>
+    <t>237651433330</t>
+  </si>
+  <si>
+    <t>237654168696</t>
+  </si>
+  <si>
+    <t>237670799877</t>
+  </si>
+  <si>
+    <t>237671351291</t>
+  </si>
+  <si>
+    <t>237671378136</t>
+  </si>
+  <si>
+    <t>237671605749</t>
+  </si>
+  <si>
+    <t>237671615641</t>
+  </si>
+  <si>
+    <t>237673739931</t>
+  </si>
+  <si>
+    <t>237674466307</t>
+  </si>
+  <si>
+    <t>237674959564</t>
+  </si>
+  <si>
+    <t>237675208505</t>
+  </si>
+  <si>
+    <t>237675555508</t>
+  </si>
+  <si>
+    <t>237675557616</t>
+  </si>
+  <si>
+    <t>237676301061</t>
+  </si>
+  <si>
+    <t>237677939039</t>
+  </si>
+  <si>
+    <t>237678225987</t>
+  </si>
+  <si>
+    <t>237679553674</t>
+  </si>
+  <si>
+    <t>237679654555</t>
+  </si>
+  <si>
+    <t>237679789713</t>
+  </si>
+  <si>
+    <t>237681589841</t>
+  </si>
+  <si>
+    <t>237681676445</t>
+  </si>
+  <si>
+    <t>237681678622</t>
+  </si>
+  <si>
+    <t>237683815311</t>
+  </si>
+  <si>
+    <t>237651533411</t>
+  </si>
+  <si>
+    <t>237651843112</t>
+  </si>
+  <si>
+    <t>237652297747</t>
+  </si>
+  <si>
+    <t>237653316656</t>
+  </si>
+  <si>
+    <t>237671290825</t>
+  </si>
+  <si>
+    <t>237672276931</t>
+  </si>
+  <si>
+    <t>237674580187</t>
+  </si>
+  <si>
+    <t>237674673359</t>
+  </si>
+  <si>
+    <t>237674769580</t>
+  </si>
+  <si>
+    <t>237674926472</t>
+  </si>
+  <si>
+    <t>237675831509</t>
+  </si>
+  <si>
+    <t>237676770192</t>
+  </si>
+  <si>
+    <t>237672279571</t>
+  </si>
+  <si>
+    <t>237672777139</t>
+  </si>
+  <si>
+    <t>237673220938</t>
+  </si>
+  <si>
+    <t>237674437082</t>
+  </si>
+  <si>
+    <t>237674895877</t>
+  </si>
+  <si>
+    <t>237674956331</t>
+  </si>
+  <si>
+    <t>237674979451</t>
+  </si>
+  <si>
+    <t>237675329176</t>
+  </si>
+  <si>
+    <t>237675889982</t>
+  </si>
+  <si>
+    <t>237676076193</t>
+  </si>
+  <si>
+    <t>237677567788</t>
+  </si>
+  <si>
+    <t>237678722616</t>
+  </si>
+  <si>
+    <t>237679580678</t>
+  </si>
+  <si>
+    <t>237680116452</t>
+  </si>
+  <si>
+    <t>237680415220</t>
+  </si>
+  <si>
+    <t>237681603496</t>
+  </si>
+  <si>
+    <t>237681657461</t>
+  </si>
+  <si>
+    <t>237681662596</t>
+  </si>
+  <si>
+    <t>237681677617</t>
+  </si>
+  <si>
+    <t>237681679096</t>
+  </si>
+  <si>
+    <t>237683279255</t>
+  </si>
+  <si>
+    <t>237683353137</t>
+  </si>
+  <si>
+    <t>237683396173</t>
+  </si>
+  <si>
+    <t>237683557193</t>
+  </si>
+  <si>
+    <t>237671646117</t>
+  </si>
+  <si>
+    <t>237674440808</t>
+  </si>
+  <si>
+    <t>237675788721</t>
+  </si>
+  <si>
+    <t>237676036914</t>
+  </si>
+  <si>
+    <t>237679550294</t>
+  </si>
+  <si>
+    <t>237679604574</t>
+  </si>
+  <si>
+    <t>237682370358</t>
+  </si>
+  <si>
+    <t>237682639044</t>
+  </si>
+  <si>
+    <t>237683023087</t>
+  </si>
+  <si>
+    <t>237650874464</t>
+  </si>
+  <si>
+    <t>237653854849</t>
+  </si>
+  <si>
+    <t>237654164073</t>
+  </si>
+  <si>
+    <t>237671357520</t>
+  </si>
+  <si>
+    <t>237672587687</t>
+  </si>
+  <si>
+    <t>237674240552</t>
+  </si>
+  <si>
     <t>PAGLAN BIKOND SIMONE ETS MOBILE FINANCIAL SERVICES MFS</t>
   </si>
   <si>
@@ -1511,6 +1973,237 @@
   </si>
   <si>
     <t>MFS MAKEPE MATURITE</t>
+  </si>
+  <si>
+    <t>JOSEPHINE CLAIRE NGUENKAM KADJI</t>
+  </si>
+  <si>
+    <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 32</t>
+  </si>
+  <si>
+    <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
+  </si>
+  <si>
+    <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS MENANDJIO HORTENSE BIENVENUE</t>
+  </si>
+  <si>
+    <t>CHRISTINE METCHU BEMMO EPSE NONO</t>
+  </si>
+  <si>
+    <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+  </si>
+  <si>
+    <t>BEGO FOGUE CHRISTELLE KAMILAH CONNECTION GROUP</t>
+  </si>
+  <si>
+    <t>mireille emcheu</t>
+  </si>
+  <si>
+    <t>MFS MEYIMDOUNG MARIE LOUISE</t>
+  </si>
+  <si>
+    <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+  </si>
+  <si>
+    <t>HAPSATOU N A MINDEM SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+  </si>
+  <si>
+    <t>KAMILAH CONNECTION LTDLA CBOX R1 KEUBOU CHANCELINE</t>
+  </si>
+  <si>
+    <t>NGO TONYE ELISE AUDREY STYLE.COM</t>
+  </si>
+  <si>
+    <t>ROMARIC TRESOR TCHOUNKEU MBAKOP ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>FINGO FOTO SOPHIE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>DESIRE MAGINZANG MBOUEZKO</t>
+  </si>
+  <si>
+    <t>FABRICE VALEX MOKENG</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 68</t>
+  </si>
+  <si>
+    <t>LEINTENG ROSE MARY</t>
+  </si>
+  <si>
+    <t>MELANIE NGAFFO</t>
+  </si>
+  <si>
+    <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+  </si>
+  <si>
+    <t>TETHA FRANCLIN GEORGES ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NLOGA NGO SIPORAH FELICITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TAMOKOUE HUGUES PASCAL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LONGMENE FLORIDE NINA ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MIREILLE MAGOLACK FOMEKONG</t>
+  </si>
+  <si>
+    <t>ROSETTE SIGHOM</t>
+  </si>
+  <si>
+    <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>HADJARA ADAMOU</t>
+  </si>
+  <si>
+    <t>NGO SAMNICK ELISABETH JOSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MBOUOMBO PEHUIE JOSEPHINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MOTCHUENG MADO LIONNELLE_ TOP MOBIL</t>
+  </si>
+  <si>
+    <t>CHOURUPOUO MBAKOP ABDEL MFS</t>
+  </si>
+  <si>
+    <t>DONGMO FELIX</t>
+  </si>
+  <si>
+    <t>MODESTE NGOUKOUA</t>
+  </si>
+  <si>
+    <t>NZOUNDI NGUEDJO EDITH TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>MELANIE NONO TONKAM</t>
+  </si>
+  <si>
+    <t>EMPIRE COMPANY   LIMITED SWKBA CBOX R4 TCHOUALA GLADIS NADEGE</t>
+  </si>
+  <si>
+    <t>NGHOMBOMBONG ALPHONSE NKWANUI LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL JOSEPH MBANG</t>
+  </si>
+  <si>
+    <t>SUZIE ISABELLE MAGNE CHIEFFO</t>
+  </si>
+  <si>
+    <t>CARINE DEVILLIERS ESSOH</t>
+  </si>
+  <si>
+    <t>KWEDI BELLE GEORGES GAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>Ngo Ndjeng Marie Pauline</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL NDE HENRI</t>
+  </si>
+  <si>
+    <t>TIPA CHRISTELLE NADIA LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>MAGNI YANSI DORIS ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL MOKAM KOUAM VIVIANE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 TIOKENG SANDRINE</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS MANFOUO TCHOUALA HUGUETTE</t>
+  </si>
+  <si>
+    <t>TAMNOU NGANGO ULRICH BERNARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>Deuffi Yvonne laurette LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>VOUGMO NGUEMO MERLIN WILLIAM ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>KOUYEKE MONIQUE LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>FLORENCE MEDONGUE</t>
+  </si>
+  <si>
+    <t>HOUMI EPSE MVEINGUE GUINDOP TATIANA ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS TCHAWE MBOUGA JUDITH FLORE</t>
+  </si>
+  <si>
+    <t>NDENGUE ELOKO SAMUEL HERVE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NGOUNOU JOSIANE GAELLE CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>KINGUE KOMBI VICTORINE SIDONIE VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+  </si>
+  <si>
+    <t>TAKU FORTUNE TSECBUM ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>JOSEPH KAMGA</t>
+  </si>
+  <si>
+    <t>FAGHUIE ABIBA</t>
+  </si>
+  <si>
+    <t>ASSONFACK VANESSA ATB POINT COM</t>
+  </si>
+  <si>
+    <t>TITTI GASTON CLEMENT TOP MOBIL</t>
+  </si>
+  <si>
+    <t>NGUIDJOL SIMONE ASTRIDE SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>CALICE WOTI EPSE DJOMO</t>
+  </si>
+  <si>
+    <t>Kamaha Tomy Nadine LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>AUGUSTINE NGO BAYOI</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +2561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1893,10 +2586,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>487</v>
       </c>
       <c r="D2">
         <v>27112</v>
@@ -1907,10 +2600,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>488</v>
       </c>
       <c r="D3">
         <v>15364</v>
@@ -1921,10 +2614,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>489</v>
       </c>
       <c r="D4">
         <v>9230</v>
@@ -1935,10 +2628,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
+        <v>490</v>
       </c>
       <c r="D5">
         <v>700565</v>
@@ -1949,10 +2642,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="D6">
         <v>34711</v>
@@ -1963,10 +2656,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="D7">
         <v>661486</v>
@@ -1977,10 +2670,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>493</v>
       </c>
       <c r="D8">
         <v>22120</v>
@@ -1991,10 +2684,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>494</v>
       </c>
       <c r="D9">
         <v>87217</v>
@@ -2005,10 +2698,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>495</v>
       </c>
       <c r="D10">
         <v>8418</v>
@@ -2019,10 +2712,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>496</v>
       </c>
       <c r="D11">
         <v>14032</v>
@@ -2033,10 +2726,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
+        <v>497</v>
       </c>
       <c r="D12">
         <v>360497</v>
@@ -2047,10 +2740,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>344</v>
+        <v>498</v>
       </c>
       <c r="D13">
         <v>11663</v>
@@ -2061,10 +2754,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>499</v>
       </c>
       <c r="D14">
         <v>41918</v>
@@ -2075,10 +2768,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>500</v>
       </c>
       <c r="D15">
         <v>22158</v>
@@ -2089,10 +2782,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>501</v>
       </c>
       <c r="D16">
         <v>72096</v>
@@ -2103,10 +2796,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
+        <v>502</v>
       </c>
       <c r="D17">
         <v>3800</v>
@@ -2117,10 +2810,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>503</v>
       </c>
       <c r="D18">
         <v>25526</v>
@@ -2131,10 +2824,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>350</v>
+        <v>504</v>
       </c>
       <c r="D19">
         <v>242</v>
@@ -2145,10 +2838,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>351</v>
+        <v>505</v>
       </c>
       <c r="D20">
         <v>313381</v>
@@ -2159,10 +2852,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
-        <v>352</v>
+        <v>506</v>
       </c>
       <c r="D21">
         <v>285329</v>
@@ -2173,10 +2866,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>507</v>
       </c>
       <c r="D22">
         <v>253276</v>
@@ -2187,10 +2880,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="C23" t="s">
-        <v>354</v>
+        <v>508</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2201,10 +2894,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>355</v>
+        <v>509</v>
       </c>
       <c r="D24">
         <v>79779</v>
@@ -2215,10 +2908,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>356</v>
+        <v>510</v>
       </c>
       <c r="D25">
         <v>159936</v>
@@ -2229,10 +2922,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>357</v>
+        <v>511</v>
       </c>
       <c r="D26">
         <v>15045</v>
@@ -2243,10 +2936,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="C27" t="s">
-        <v>358</v>
+        <v>512</v>
       </c>
       <c r="D27">
         <v>28886</v>
@@ -2257,10 +2950,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>513</v>
       </c>
       <c r="D28">
         <v>126015</v>
@@ -2271,10 +2964,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="C29" t="s">
-        <v>360</v>
+        <v>514</v>
       </c>
       <c r="D29">
         <v>21885</v>
@@ -2285,10 +2978,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>361</v>
+        <v>515</v>
       </c>
       <c r="D30">
         <v>325152</v>
@@ -2299,10 +2992,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="C31" t="s">
-        <v>362</v>
+        <v>516</v>
       </c>
       <c r="D31">
         <v>292094</v>
@@ -2313,10 +3006,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s">
-        <v>363</v>
+        <v>517</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2327,10 +3020,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="C33" t="s">
-        <v>364</v>
+        <v>518</v>
       </c>
       <c r="D33">
         <v>1547</v>
@@ -2341,10 +3034,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>365</v>
+        <v>519</v>
       </c>
       <c r="D34">
         <v>25674</v>
@@ -2355,10 +3048,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s">
-        <v>366</v>
+        <v>520</v>
       </c>
       <c r="D35">
         <v>30657</v>
@@ -2369,10 +3062,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="C36" t="s">
-        <v>367</v>
+        <v>521</v>
       </c>
       <c r="D36">
         <v>332790</v>
@@ -2383,10 +3076,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="C37" t="s">
-        <v>368</v>
+        <v>522</v>
       </c>
       <c r="D37">
         <v>194582</v>
@@ -2397,10 +3090,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="C38" t="s">
-        <v>369</v>
+        <v>523</v>
       </c>
       <c r="D38">
         <v>78748</v>
@@ -2411,10 +3104,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>370</v>
+        <v>524</v>
       </c>
       <c r="D39">
         <v>589699</v>
@@ -2425,10 +3118,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="C40" t="s">
-        <v>371</v>
+        <v>525</v>
       </c>
       <c r="D40">
         <v>11232</v>
@@ -2439,10 +3132,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s">
-        <v>372</v>
+        <v>526</v>
       </c>
       <c r="D41">
         <v>137118</v>
@@ -2453,10 +3146,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>527</v>
       </c>
       <c r="D42">
         <v>37842</v>
@@ -2467,10 +3160,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="C43" t="s">
-        <v>374</v>
+        <v>528</v>
       </c>
       <c r="D43">
         <v>105185</v>
@@ -2481,10 +3174,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>375</v>
+        <v>529</v>
       </c>
       <c r="D44">
         <v>648154</v>
@@ -2495,10 +3188,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="C45" t="s">
-        <v>376</v>
+        <v>530</v>
       </c>
       <c r="D45">
         <v>152317</v>
@@ -2509,10 +3202,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
-        <v>377</v>
+        <v>531</v>
       </c>
       <c r="D46">
         <v>156018</v>
@@ -2523,10 +3216,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C47" t="s">
-        <v>378</v>
+        <v>532</v>
       </c>
       <c r="D47">
         <v>80603</v>
@@ -2537,10 +3230,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="C48" t="s">
-        <v>379</v>
+        <v>533</v>
       </c>
       <c r="D48">
         <v>51582</v>
@@ -2551,10 +3244,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="C49" t="s">
-        <v>380</v>
+        <v>534</v>
       </c>
       <c r="D49">
         <v>375383</v>
@@ -2565,10 +3258,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="C50" t="s">
-        <v>381</v>
+        <v>535</v>
       </c>
       <c r="D50">
         <v>278038</v>
@@ -2579,10 +3272,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="C51" t="s">
-        <v>382</v>
+        <v>536</v>
       </c>
       <c r="D51">
         <v>409096</v>
@@ -2593,10 +3286,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="C52" t="s">
-        <v>383</v>
+        <v>537</v>
       </c>
       <c r="D52">
         <v>190497</v>
@@ -2607,10 +3300,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="C53" t="s">
-        <v>384</v>
+        <v>538</v>
       </c>
       <c r="D53">
         <v>33904</v>
@@ -2621,10 +3314,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="C54" t="s">
-        <v>385</v>
+        <v>539</v>
       </c>
       <c r="D54">
         <v>571</v>
@@ -2635,10 +3328,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="C55" t="s">
-        <v>386</v>
+        <v>540</v>
       </c>
       <c r="D55">
         <v>3716</v>
@@ -2649,10 +3342,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="C56" t="s">
-        <v>387</v>
+        <v>541</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2663,10 +3356,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
-        <v>388</v>
+        <v>542</v>
       </c>
       <c r="D57">
         <v>441489</v>
@@ -2677,10 +3370,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s">
-        <v>389</v>
+        <v>543</v>
       </c>
       <c r="D58">
         <v>585452</v>
@@ -2691,10 +3384,10 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="C59" t="s">
-        <v>390</v>
+        <v>544</v>
       </c>
       <c r="D59">
         <v>325005</v>
@@ -2705,10 +3398,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="C60" t="s">
-        <v>391</v>
+        <v>545</v>
       </c>
       <c r="D60">
         <v>3192</v>
@@ -2719,10 +3412,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="C61" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
       <c r="D61">
         <v>124833</v>
@@ -2733,10 +3426,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="C62" t="s">
-        <v>393</v>
+        <v>547</v>
       </c>
       <c r="D62">
         <v>378746</v>
@@ -2747,10 +3440,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="C63" t="s">
-        <v>394</v>
+        <v>548</v>
       </c>
       <c r="D63">
         <v>688726</v>
@@ -2761,10 +3454,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="C64" t="s">
-        <v>395</v>
+        <v>549</v>
       </c>
       <c r="D64">
         <v>749249</v>
@@ -2775,10 +3468,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="C65" t="s">
-        <v>396</v>
+        <v>550</v>
       </c>
       <c r="D65">
         <v>143218</v>
@@ -2789,10 +3482,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="C66" t="s">
-        <v>397</v>
+        <v>551</v>
       </c>
       <c r="D66">
         <v>464078</v>
@@ -2803,10 +3496,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="C67" t="s">
-        <v>398</v>
+        <v>552</v>
       </c>
       <c r="D67">
         <v>45666</v>
@@ -2817,10 +3510,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="C68" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="D68">
         <v>63462</v>
@@ -2831,10 +3524,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="C69" t="s">
-        <v>400</v>
+        <v>554</v>
       </c>
       <c r="D69">
         <v>193002</v>
@@ -2845,10 +3538,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="C70" t="s">
-        <v>401</v>
+        <v>555</v>
       </c>
       <c r="D70">
         <v>429</v>
@@ -2859,10 +3552,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="C71" t="s">
-        <v>402</v>
+        <v>556</v>
       </c>
       <c r="D71">
         <v>233547</v>
@@ -2873,10 +3566,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="C72" t="s">
-        <v>403</v>
+        <v>557</v>
       </c>
       <c r="D72">
         <v>115718</v>
@@ -2887,10 +3580,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="C73" t="s">
-        <v>404</v>
+        <v>558</v>
       </c>
       <c r="D73">
         <v>3646</v>
@@ -2901,10 +3594,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="C74" t="s">
-        <v>405</v>
+        <v>559</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -2915,10 +3608,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="C75" t="s">
-        <v>406</v>
+        <v>560</v>
       </c>
       <c r="D75">
         <v>108590</v>
@@ -2929,10 +3622,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="C76" t="s">
-        <v>407</v>
+        <v>561</v>
       </c>
       <c r="D76">
         <v>138313</v>
@@ -2943,10 +3636,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="C77" t="s">
-        <v>408</v>
+        <v>562</v>
       </c>
       <c r="D77">
         <v>61189</v>
@@ -2957,10 +3650,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="C78" t="s">
-        <v>409</v>
+        <v>563</v>
       </c>
       <c r="D78">
         <v>25524</v>
@@ -2971,10 +3664,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="C79" t="s">
-        <v>410</v>
+        <v>564</v>
       </c>
       <c r="D79">
         <v>398189</v>
@@ -2985,10 +3678,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="C80" t="s">
-        <v>411</v>
+        <v>565</v>
       </c>
       <c r="D80">
         <v>5138</v>
@@ -2999,10 +3692,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="C81" t="s">
-        <v>412</v>
+        <v>566</v>
       </c>
       <c r="D81">
         <v>412738</v>
@@ -3013,10 +3706,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="C82" t="s">
-        <v>413</v>
+        <v>567</v>
       </c>
       <c r="D82">
         <v>210691</v>
@@ -3027,10 +3720,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="C83" t="s">
-        <v>414</v>
+        <v>568</v>
       </c>
       <c r="D83">
         <v>686657</v>
@@ -3041,10 +3734,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s">
-        <v>415</v>
+        <v>569</v>
       </c>
       <c r="D84">
         <v>34960</v>
@@ -3055,10 +3748,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="C85" t="s">
-        <v>416</v>
+        <v>570</v>
       </c>
       <c r="D85">
         <v>204029</v>
@@ -3069,10 +3762,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="C86" t="s">
-        <v>417</v>
+        <v>571</v>
       </c>
       <c r="D86">
         <v>110633</v>
@@ -3083,10 +3776,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="C87" t="s">
-        <v>418</v>
+        <v>572</v>
       </c>
       <c r="D87">
         <v>22483</v>
@@ -3097,10 +3790,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="C88" t="s">
-        <v>419</v>
+        <v>573</v>
       </c>
       <c r="D88">
         <v>726946</v>
@@ -3111,10 +3804,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="C89" t="s">
-        <v>420</v>
+        <v>574</v>
       </c>
       <c r="D89">
         <v>129189</v>
@@ -3125,10 +3818,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="C90" t="s">
-        <v>421</v>
+        <v>575</v>
       </c>
       <c r="D90">
         <v>15105</v>
@@ -3139,10 +3832,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="C91" t="s">
-        <v>422</v>
+        <v>576</v>
       </c>
       <c r="D91">
         <v>28759</v>
@@ -3153,10 +3846,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="C92" t="s">
-        <v>423</v>
+        <v>577</v>
       </c>
       <c r="D92">
         <v>137078</v>
@@ -3167,10 +3860,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="C93" t="s">
-        <v>424</v>
+        <v>578</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3181,10 +3874,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="C94" t="s">
-        <v>425</v>
+        <v>579</v>
       </c>
       <c r="D94">
         <v>239366</v>
@@ -3195,10 +3888,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="C95" t="s">
-        <v>426</v>
+        <v>580</v>
       </c>
       <c r="D95">
         <v>94879</v>
@@ -3209,10 +3902,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="C96" t="s">
-        <v>427</v>
+        <v>581</v>
       </c>
       <c r="D96">
         <v>1196062</v>
@@ -3223,10 +3916,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="C97" t="s">
-        <v>428</v>
+        <v>582</v>
       </c>
       <c r="D97">
         <v>66267</v>
@@ -3237,10 +3930,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="C98" t="s">
-        <v>429</v>
+        <v>583</v>
       </c>
       <c r="D98">
         <v>132723</v>
@@ -3251,10 +3944,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="C99" t="s">
-        <v>430</v>
+        <v>584</v>
       </c>
       <c r="D99">
         <v>498608</v>
@@ -3265,10 +3958,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="C100" t="s">
-        <v>431</v>
+        <v>585</v>
       </c>
       <c r="D100">
         <v>15143</v>
@@ -3279,10 +3972,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="C101" t="s">
-        <v>432</v>
+        <v>586</v>
       </c>
       <c r="D101">
         <v>272599</v>
@@ -3293,10 +3986,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="C102" t="s">
-        <v>433</v>
+        <v>587</v>
       </c>
       <c r="D102">
         <v>39244</v>
@@ -3307,10 +4000,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="C103" t="s">
-        <v>434</v>
+        <v>588</v>
       </c>
       <c r="D103">
         <v>309794</v>
@@ -3321,10 +4014,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="C104" t="s">
-        <v>435</v>
+        <v>589</v>
       </c>
       <c r="D104">
         <v>592377</v>
@@ -3335,10 +4028,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="C105" t="s">
-        <v>436</v>
+        <v>590</v>
       </c>
       <c r="D105">
         <v>3399</v>
@@ -3349,10 +4042,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="C106" t="s">
-        <v>437</v>
+        <v>591</v>
       </c>
       <c r="D106">
         <v>1274455</v>
@@ -3363,10 +4056,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="C107" t="s">
-        <v>438</v>
+        <v>592</v>
       </c>
       <c r="D107">
         <v>34795</v>
@@ -3377,10 +4070,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="C108" t="s">
-        <v>439</v>
+        <v>593</v>
       </c>
       <c r="D108">
         <v>5448</v>
@@ -3391,10 +4084,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="C109" t="s">
-        <v>440</v>
+        <v>594</v>
       </c>
       <c r="D109">
         <v>1979</v>
@@ -3405,10 +4098,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="C110" t="s">
-        <v>441</v>
+        <v>595</v>
       </c>
       <c r="D110">
         <v>547970</v>
@@ -3419,10 +4112,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="C111" t="s">
-        <v>442</v>
+        <v>596</v>
       </c>
       <c r="D111">
         <v>3889365</v>
@@ -3433,10 +4126,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="C112" t="s">
-        <v>443</v>
+        <v>597</v>
       </c>
       <c r="D112">
         <v>55114</v>
@@ -3447,10 +4140,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="C113" t="s">
-        <v>444</v>
+        <v>598</v>
       </c>
       <c r="D113">
         <v>179628</v>
@@ -3461,10 +4154,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="C114" t="s">
-        <v>445</v>
+        <v>599</v>
       </c>
       <c r="D114">
         <v>20429</v>
@@ -3475,10 +4168,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>280</v>
+        <v>357</v>
       </c>
       <c r="C115" t="s">
-        <v>446</v>
+        <v>600</v>
       </c>
       <c r="D115">
         <v>45255</v>
@@ -3489,10 +4182,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="C116" t="s">
-        <v>447</v>
+        <v>601</v>
       </c>
       <c r="D116">
         <v>23090</v>
@@ -3503,10 +4196,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="C117" t="s">
-        <v>448</v>
+        <v>602</v>
       </c>
       <c r="D117">
         <v>20301</v>
@@ -3517,10 +4210,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="C118" t="s">
-        <v>449</v>
+        <v>603</v>
       </c>
       <c r="D118">
         <v>89100</v>
@@ -3531,10 +4224,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="C119" t="s">
-        <v>450</v>
+        <v>604</v>
       </c>
       <c r="D119">
         <v>346590</v>
@@ -3545,10 +4238,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="C120" t="s">
-        <v>451</v>
+        <v>605</v>
       </c>
       <c r="D120">
         <v>985422</v>
@@ -3559,10 +4252,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="C121" t="s">
-        <v>452</v>
+        <v>606</v>
       </c>
       <c r="D121">
         <v>2761983</v>
@@ -3573,10 +4266,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="C122" t="s">
-        <v>453</v>
+        <v>607</v>
       </c>
       <c r="D122">
         <v>52693</v>
@@ -3587,10 +4280,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="C123" t="s">
-        <v>454</v>
+        <v>608</v>
       </c>
       <c r="D123">
         <v>493290</v>
@@ -3601,10 +4294,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
-        <v>455</v>
+        <v>609</v>
       </c>
       <c r="D124">
         <v>1770235</v>
@@ -3615,10 +4308,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="C125" t="s">
-        <v>456</v>
+        <v>610</v>
       </c>
       <c r="D125">
         <v>17932</v>
@@ -3629,10 +4322,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="C126" t="s">
-        <v>457</v>
+        <v>611</v>
       </c>
       <c r="D126">
         <v>997393</v>
@@ -3643,10 +4336,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="C127" t="s">
-        <v>458</v>
+        <v>612</v>
       </c>
       <c r="D127">
         <v>32182</v>
@@ -3657,10 +4350,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="C128" t="s">
-        <v>459</v>
+        <v>613</v>
       </c>
       <c r="D128">
         <v>158614</v>
@@ -3671,10 +4364,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="C129" t="s">
-        <v>460</v>
+        <v>614</v>
       </c>
       <c r="D129">
         <v>189550</v>
@@ -3685,10 +4378,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="C130" t="s">
-        <v>461</v>
+        <v>615</v>
       </c>
       <c r="D130">
         <v>24132</v>
@@ -3699,10 +4392,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="C131" t="s">
-        <v>462</v>
+        <v>616</v>
       </c>
       <c r="D131">
         <v>346865</v>
@@ -3713,10 +4406,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="C132" t="s">
-        <v>463</v>
+        <v>617</v>
       </c>
       <c r="D132">
         <v>31675</v>
@@ -3727,10 +4420,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="C133" t="s">
-        <v>464</v>
+        <v>618</v>
       </c>
       <c r="D133">
         <v>90908</v>
@@ -3741,10 +4434,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>299</v>
+        <v>376</v>
       </c>
       <c r="C134" t="s">
-        <v>465</v>
+        <v>619</v>
       </c>
       <c r="D134">
         <v>323514</v>
@@ -3755,10 +4448,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>300</v>
+        <v>377</v>
       </c>
       <c r="C135" t="s">
-        <v>466</v>
+        <v>620</v>
       </c>
       <c r="D135">
         <v>134245</v>
@@ -3769,10 +4462,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>301</v>
+        <v>378</v>
       </c>
       <c r="C136" t="s">
-        <v>467</v>
+        <v>621</v>
       </c>
       <c r="D136">
         <v>113746</v>
@@ -3783,10 +4476,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="C137" t="s">
-        <v>468</v>
+        <v>622</v>
       </c>
       <c r="D137">
         <v>447505</v>
@@ -3797,10 +4490,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="C138" t="s">
-        <v>469</v>
+        <v>623</v>
       </c>
       <c r="D138">
         <v>128017</v>
@@ -3811,10 +4504,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="C139" t="s">
-        <v>470</v>
+        <v>624</v>
       </c>
       <c r="D139">
         <v>43728</v>
@@ -3825,10 +4518,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="C140" t="s">
-        <v>471</v>
+        <v>625</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -3839,10 +4532,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>306</v>
+        <v>383</v>
       </c>
       <c r="C141" t="s">
-        <v>472</v>
+        <v>626</v>
       </c>
       <c r="D141">
         <v>196945</v>
@@ -3853,10 +4546,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="C142" t="s">
-        <v>473</v>
+        <v>627</v>
       </c>
       <c r="D142">
         <v>53719</v>
@@ -3867,10 +4560,10 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>308</v>
+        <v>385</v>
       </c>
       <c r="C143" t="s">
-        <v>474</v>
+        <v>628</v>
       </c>
       <c r="D143">
         <v>53719</v>
@@ -3881,10 +4574,10 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="C144" t="s">
-        <v>475</v>
+        <v>629</v>
       </c>
       <c r="D144">
         <v>29637</v>
@@ -3895,10 +4588,10 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="C145" t="s">
-        <v>476</v>
+        <v>630</v>
       </c>
       <c r="D145">
         <v>36076</v>
@@ -3909,10 +4602,10 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>311</v>
+        <v>388</v>
       </c>
       <c r="C146" t="s">
-        <v>477</v>
+        <v>631</v>
       </c>
       <c r="D146">
         <v>197292</v>
@@ -3923,10 +4616,10 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="C147" t="s">
-        <v>478</v>
+        <v>632</v>
       </c>
       <c r="D147">
         <v>54939</v>
@@ -3937,10 +4630,10 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>313</v>
+        <v>390</v>
       </c>
       <c r="C148" t="s">
-        <v>479</v>
+        <v>633</v>
       </c>
       <c r="D148">
         <v>72960</v>
@@ -3951,10 +4644,10 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>314</v>
+        <v>391</v>
       </c>
       <c r="C149" t="s">
-        <v>480</v>
+        <v>634</v>
       </c>
       <c r="D149">
         <v>196306</v>
@@ -3965,10 +4658,10 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>315</v>
+        <v>392</v>
       </c>
       <c r="C150" t="s">
-        <v>481</v>
+        <v>635</v>
       </c>
       <c r="D150">
         <v>200345</v>
@@ -3979,10 +4672,10 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="C151" t="s">
-        <v>482</v>
+        <v>636</v>
       </c>
       <c r="D151">
         <v>42664</v>
@@ -3993,10 +4686,10 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="C152" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="D152">
         <v>32834</v>
@@ -4007,10 +4700,10 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="C153" t="s">
-        <v>484</v>
+        <v>638</v>
       </c>
       <c r="D153">
         <v>94572</v>
@@ -4021,10 +4714,10 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>319</v>
+        <v>396</v>
       </c>
       <c r="C154" t="s">
-        <v>485</v>
+        <v>639</v>
       </c>
       <c r="D154">
         <v>208608</v>
@@ -4035,10 +4728,10 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="C155" t="s">
-        <v>486</v>
+        <v>640</v>
       </c>
       <c r="D155">
         <v>239792</v>
@@ -4049,10 +4742,10 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="C156" t="s">
-        <v>487</v>
+        <v>641</v>
       </c>
       <c r="D156">
         <v>46429</v>
@@ -4063,10 +4756,10 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="C157" t="s">
-        <v>488</v>
+        <v>642</v>
       </c>
       <c r="D157">
         <v>4570</v>
@@ -4077,10 +4770,10 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>323</v>
+        <v>400</v>
       </c>
       <c r="C158" t="s">
-        <v>489</v>
+        <v>643</v>
       </c>
       <c r="D158">
         <v>465194</v>
@@ -4091,10 +4784,10 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>324</v>
+        <v>401</v>
       </c>
       <c r="C159" t="s">
-        <v>490</v>
+        <v>644</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -4105,10 +4798,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="C160" t="s">
-        <v>491</v>
+        <v>645</v>
       </c>
       <c r="D160">
         <v>49</v>
@@ -4119,10 +4812,10 @@
         <v>71</v>
       </c>
       <c r="B161" t="s">
-        <v>326</v>
+        <v>403</v>
       </c>
       <c r="C161" t="s">
-        <v>492</v>
+        <v>646</v>
       </c>
       <c r="D161">
         <v>194587</v>
@@ -4133,10 +4826,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="C162" t="s">
-        <v>493</v>
+        <v>647</v>
       </c>
       <c r="D162">
         <v>251718</v>
@@ -4147,10 +4840,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>328</v>
+        <v>405</v>
       </c>
       <c r="C163" t="s">
-        <v>494</v>
+        <v>648</v>
       </c>
       <c r="D163">
         <v>290575</v>
@@ -4161,10 +4854,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="C164" t="s">
-        <v>495</v>
+        <v>649</v>
       </c>
       <c r="D164">
         <v>790555</v>
@@ -4175,10 +4868,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="C165" t="s">
-        <v>496</v>
+        <v>650</v>
       </c>
       <c r="D165">
         <v>507599</v>
@@ -4189,10 +4882,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="C166" t="s">
-        <v>497</v>
+        <v>651</v>
       </c>
       <c r="D166">
         <v>9597</v>
@@ -4203,13 +4896,1091 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>409</v>
       </c>
       <c r="C167" t="s">
-        <v>498</v>
+        <v>652</v>
       </c>
       <c r="D167">
         <v>312534</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>410</v>
+      </c>
+      <c r="C168" t="s">
+        <v>653</v>
+      </c>
+      <c r="D168">
+        <v>91883</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>411</v>
+      </c>
+      <c r="C169" t="s">
+        <v>654</v>
+      </c>
+      <c r="D169">
+        <v>14346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>412</v>
+      </c>
+      <c r="C170" t="s">
+        <v>655</v>
+      </c>
+      <c r="D170">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>413</v>
+      </c>
+      <c r="C171" t="s">
+        <v>656</v>
+      </c>
+      <c r="D171">
+        <v>359683</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>414</v>
+      </c>
+      <c r="C172" t="s">
+        <v>657</v>
+      </c>
+      <c r="D172">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>415</v>
+      </c>
+      <c r="C173" t="s">
+        <v>658</v>
+      </c>
+      <c r="D173">
+        <v>698780</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>416</v>
+      </c>
+      <c r="C174" t="s">
+        <v>659</v>
+      </c>
+      <c r="D174">
+        <v>195144</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>417</v>
+      </c>
+      <c r="C175" t="s">
+        <v>660</v>
+      </c>
+      <c r="D175">
+        <v>33253</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>418</v>
+      </c>
+      <c r="C176" t="s">
+        <v>661</v>
+      </c>
+      <c r="D176">
+        <v>1276578</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>419</v>
+      </c>
+      <c r="C177" t="s">
+        <v>662</v>
+      </c>
+      <c r="D177">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>420</v>
+      </c>
+      <c r="C178" t="s">
+        <v>663</v>
+      </c>
+      <c r="D178">
+        <v>149893</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>421</v>
+      </c>
+      <c r="C179" t="s">
+        <v>664</v>
+      </c>
+      <c r="D179">
+        <v>444224</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>422</v>
+      </c>
+      <c r="C180" t="s">
+        <v>665</v>
+      </c>
+      <c r="D180">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>423</v>
+      </c>
+      <c r="C181" t="s">
+        <v>666</v>
+      </c>
+      <c r="D181">
+        <v>76236</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>424</v>
+      </c>
+      <c r="C182" t="s">
+        <v>667</v>
+      </c>
+      <c r="D182">
+        <v>16417</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>425</v>
+      </c>
+      <c r="C183" t="s">
+        <v>668</v>
+      </c>
+      <c r="D183">
+        <v>565817</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>426</v>
+      </c>
+      <c r="C184" t="s">
+        <v>669</v>
+      </c>
+      <c r="D184">
+        <v>75397</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>427</v>
+      </c>
+      <c r="C185" t="s">
+        <v>670</v>
+      </c>
+      <c r="D185">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>428</v>
+      </c>
+      <c r="C186" t="s">
+        <v>671</v>
+      </c>
+      <c r="D186">
+        <v>13020</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>429</v>
+      </c>
+      <c r="C187" t="s">
+        <v>672</v>
+      </c>
+      <c r="D187">
+        <v>270760</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>430</v>
+      </c>
+      <c r="C188" t="s">
+        <v>673</v>
+      </c>
+      <c r="D188">
+        <v>35452</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>431</v>
+      </c>
+      <c r="C189" t="s">
+        <v>674</v>
+      </c>
+      <c r="D189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>432</v>
+      </c>
+      <c r="C190" t="s">
+        <v>675</v>
+      </c>
+      <c r="D190">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>433</v>
+      </c>
+      <c r="C191" t="s">
+        <v>676</v>
+      </c>
+      <c r="D191">
+        <v>196234</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>434</v>
+      </c>
+      <c r="C192" t="s">
+        <v>677</v>
+      </c>
+      <c r="D192">
+        <v>192387</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>435</v>
+      </c>
+      <c r="C193" t="s">
+        <v>678</v>
+      </c>
+      <c r="D193">
+        <v>49970</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>436</v>
+      </c>
+      <c r="C194" t="s">
+        <v>679</v>
+      </c>
+      <c r="D194">
+        <v>87946</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>437</v>
+      </c>
+      <c r="C195" t="s">
+        <v>680</v>
+      </c>
+      <c r="D195">
+        <v>79124</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>438</v>
+      </c>
+      <c r="C196" t="s">
+        <v>681</v>
+      </c>
+      <c r="D196">
+        <v>59435</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>439</v>
+      </c>
+      <c r="C197" t="s">
+        <v>682</v>
+      </c>
+      <c r="D197">
+        <v>453130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>440</v>
+      </c>
+      <c r="C198" t="s">
+        <v>683</v>
+      </c>
+      <c r="D198">
+        <v>56290</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>441</v>
+      </c>
+      <c r="C199" t="s">
+        <v>684</v>
+      </c>
+      <c r="D199">
+        <v>21050</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>442</v>
+      </c>
+      <c r="C200" t="s">
+        <v>685</v>
+      </c>
+      <c r="D200">
+        <v>21475</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>443</v>
+      </c>
+      <c r="C201" t="s">
+        <v>686</v>
+      </c>
+      <c r="D201">
+        <v>115845</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>444</v>
+      </c>
+      <c r="C202" t="s">
+        <v>687</v>
+      </c>
+      <c r="D202">
+        <v>15733</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>445</v>
+      </c>
+      <c r="C203" t="s">
+        <v>688</v>
+      </c>
+      <c r="D203">
+        <v>103897</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>446</v>
+      </c>
+      <c r="C204" t="s">
+        <v>689</v>
+      </c>
+      <c r="D204">
+        <v>7307</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>447</v>
+      </c>
+      <c r="C205" t="s">
+        <v>690</v>
+      </c>
+      <c r="D205">
+        <v>236579</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>448</v>
+      </c>
+      <c r="C206" t="s">
+        <v>691</v>
+      </c>
+      <c r="D206">
+        <v>705179</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>449</v>
+      </c>
+      <c r="C207" t="s">
+        <v>692</v>
+      </c>
+      <c r="D207">
+        <v>60058</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>450</v>
+      </c>
+      <c r="C208" t="s">
+        <v>693</v>
+      </c>
+      <c r="D208">
+        <v>502275</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>451</v>
+      </c>
+      <c r="C209" t="s">
+        <v>694</v>
+      </c>
+      <c r="D209">
+        <v>30089</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>452</v>
+      </c>
+      <c r="C210" t="s">
+        <v>695</v>
+      </c>
+      <c r="D210">
+        <v>13165</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>453</v>
+      </c>
+      <c r="C211" t="s">
+        <v>696</v>
+      </c>
+      <c r="D211">
+        <v>348375</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>454</v>
+      </c>
+      <c r="C212" t="s">
+        <v>697</v>
+      </c>
+      <c r="D212">
+        <v>138843</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>455</v>
+      </c>
+      <c r="C213" t="s">
+        <v>698</v>
+      </c>
+      <c r="D213">
+        <v>176025</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>456</v>
+      </c>
+      <c r="C214" t="s">
+        <v>699</v>
+      </c>
+      <c r="D214">
+        <v>137303</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>457</v>
+      </c>
+      <c r="C215" t="s">
+        <v>700</v>
+      </c>
+      <c r="D215">
+        <v>354982</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>458</v>
+      </c>
+      <c r="C216" t="s">
+        <v>701</v>
+      </c>
+      <c r="D216">
+        <v>448951</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>459</v>
+      </c>
+      <c r="C217" t="s">
+        <v>702</v>
+      </c>
+      <c r="D217">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>460</v>
+      </c>
+      <c r="C218" t="s">
+        <v>703</v>
+      </c>
+      <c r="D218">
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>461</v>
+      </c>
+      <c r="C219" t="s">
+        <v>704</v>
+      </c>
+      <c r="D219">
+        <v>10771</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>462</v>
+      </c>
+      <c r="C220" t="s">
+        <v>705</v>
+      </c>
+      <c r="D220">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>463</v>
+      </c>
+      <c r="C221" t="s">
+        <v>706</v>
+      </c>
+      <c r="D221">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>464</v>
+      </c>
+      <c r="C222" t="s">
+        <v>707</v>
+      </c>
+      <c r="D222">
+        <v>31562</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>465</v>
+      </c>
+      <c r="C223" t="s">
+        <v>708</v>
+      </c>
+      <c r="D223">
+        <v>72179</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>466</v>
+      </c>
+      <c r="C224" t="s">
+        <v>709</v>
+      </c>
+      <c r="D224">
+        <v>27208</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>467</v>
+      </c>
+      <c r="C225" t="s">
+        <v>710</v>
+      </c>
+      <c r="D225">
+        <v>71861</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>468</v>
+      </c>
+      <c r="C226" t="s">
+        <v>711</v>
+      </c>
+      <c r="D226">
+        <v>207969</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>469</v>
+      </c>
+      <c r="C227" t="s">
+        <v>712</v>
+      </c>
+      <c r="D227">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>470</v>
+      </c>
+      <c r="C228" t="s">
+        <v>713</v>
+      </c>
+      <c r="D228">
+        <v>120364</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>471</v>
+      </c>
+      <c r="C229" t="s">
+        <v>714</v>
+      </c>
+      <c r="D229">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>472</v>
+      </c>
+      <c r="C230" t="s">
+        <v>715</v>
+      </c>
+      <c r="D230">
+        <v>459096</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>473</v>
+      </c>
+      <c r="C231" t="s">
+        <v>716</v>
+      </c>
+      <c r="D231">
+        <v>21299</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>474</v>
+      </c>
+      <c r="C232" t="s">
+        <v>717</v>
+      </c>
+      <c r="D232">
+        <v>591097</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>475</v>
+      </c>
+      <c r="C233" t="s">
+        <v>718</v>
+      </c>
+      <c r="D233">
+        <v>201711</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>476</v>
+      </c>
+      <c r="C234" t="s">
+        <v>719</v>
+      </c>
+      <c r="D234">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>477</v>
+      </c>
+      <c r="C235" t="s">
+        <v>720</v>
+      </c>
+      <c r="D235">
+        <v>11797</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>478</v>
+      </c>
+      <c r="C236" t="s">
+        <v>721</v>
+      </c>
+      <c r="D236">
+        <v>57191</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>479</v>
+      </c>
+      <c r="C237" t="s">
+        <v>722</v>
+      </c>
+      <c r="D237">
+        <v>690070</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>480</v>
+      </c>
+      <c r="C238" t="s">
+        <v>723</v>
+      </c>
+      <c r="D238">
+        <v>34970</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>481</v>
+      </c>
+      <c r="C239" t="s">
+        <v>724</v>
+      </c>
+      <c r="D239">
+        <v>142764</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>482</v>
+      </c>
+      <c r="C240" t="s">
+        <v>725</v>
+      </c>
+      <c r="D240">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>483</v>
+      </c>
+      <c r="C241" t="s">
+        <v>726</v>
+      </c>
+      <c r="D241">
+        <v>29530</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>484</v>
+      </c>
+      <c r="C242" t="s">
+        <v>727</v>
+      </c>
+      <c r="D242">
+        <v>28083</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>485</v>
+      </c>
+      <c r="C243" t="s">
+        <v>728</v>
+      </c>
+      <c r="D243">
+        <v>196218</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>486</v>
+      </c>
+      <c r="C244" t="s">
+        <v>729</v>
+      </c>
+      <c r="D244">
+        <v>160642</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="790">
   <si>
     <t>Date</t>
   </si>
@@ -748,6 +748,66 @@
     <t>2026-02-16 10:10:25</t>
   </si>
   <si>
+    <t>2026-02-16 14:26:40</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:55:11</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:18:36</t>
+  </si>
+  <si>
+    <t>2026-02-17 00:14:35</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:01:29</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:48:07</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:57:14</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:11:15</t>
+  </si>
+  <si>
+    <t>2026-02-16 22:48:51</t>
+  </si>
+  <si>
+    <t>2026-02-16 12:11:27</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:46:57</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:57:54</t>
+  </si>
+  <si>
+    <t>2026-02-16 15:10:13</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:15:26</t>
+  </si>
+  <si>
+    <t>2026-02-16 13:33:54</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:05:13</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:56:55</t>
+  </si>
+  <si>
+    <t>2026-02-16 16:39:04</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:06:47</t>
+  </si>
+  <si>
+    <t>2026-02-16 10:41:59</t>
+  </si>
+  <si>
     <t>237653626798</t>
   </si>
   <si>
@@ -1477,6 +1537,66 @@
     <t>237674240552</t>
   </si>
   <si>
+    <t>237675239360</t>
+  </si>
+  <si>
+    <t>237675396752</t>
+  </si>
+  <si>
+    <t>237675626141</t>
+  </si>
+  <si>
+    <t>237676840777</t>
+  </si>
+  <si>
+    <t>237677833877</t>
+  </si>
+  <si>
+    <t>237678854978</t>
+  </si>
+  <si>
+    <t>237679422591</t>
+  </si>
+  <si>
+    <t>237650353920</t>
+  </si>
+  <si>
+    <t>237651927448</t>
+  </si>
+  <si>
+    <t>237653294562</t>
+  </si>
+  <si>
+    <t>237678046498</t>
+  </si>
+  <si>
+    <t>237679428698</t>
+  </si>
+  <si>
+    <t>237679551262</t>
+  </si>
+  <si>
+    <t>237680574202</t>
+  </si>
+  <si>
+    <t>237681118330</t>
+  </si>
+  <si>
+    <t>237674446293</t>
+  </si>
+  <si>
+    <t>237679085953</t>
+  </si>
+  <si>
+    <t>237681662761</t>
+  </si>
+  <si>
+    <t>237682975726</t>
+  </si>
+  <si>
+    <t>237683075075</t>
+  </si>
+  <si>
     <t>PAGLAN BIKOND SIMONE ETS MOBILE FINANCIAL SERVICES MFS</t>
   </si>
   <si>
@@ -2204,6 +2324,66 @@
   </si>
   <si>
     <t>AUGUSTINE NGO BAYOI</t>
+  </si>
+  <si>
+    <t>EDITH LAURE MATCHINDA NGUEMETA</t>
+  </si>
+  <si>
+    <t>BENEDICTE CHANTAL MANTSANG</t>
+  </si>
+  <si>
+    <t>FLORENCE NGUEFACK</t>
+  </si>
+  <si>
+    <t>ETP109 ETP</t>
+  </si>
+  <si>
+    <t>MEDJOM TAGNE MICHELLE GUILENE LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>ELVIS FEUDJIO</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 42</t>
+  </si>
+  <si>
+    <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>charity aben awalah</t>
+  </si>
+  <si>
+    <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MFS SOCAVER</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 29</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CBOX R1 MEGNE JUDITH</t>
+  </si>
+  <si>
+    <t>TOUMEWO SAMUEL</t>
+  </si>
+  <si>
+    <t>SAHA NDESA JONAS LTDLA_POLAS_OTH_NDOGBONG SERIE</t>
+  </si>
+  <si>
+    <t>jean michel mba</t>
+  </si>
+  <si>
+    <t>MADELEINE NKOUADJIO</t>
+  </si>
+  <si>
+    <t>LUC BAYOMOCK</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL NYOUNG JOSEPH CLOTAIRE</t>
+  </si>
+  <si>
+    <t>GORBATCHEV NGUETSA KOUAKAM</t>
   </si>
 </sst>
 </file>
@@ -2561,7 +2741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2586,10 +2766,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="D2">
         <v>27112</v>
@@ -2600,10 +2780,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="D3">
         <v>15364</v>
@@ -2614,10 +2794,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="D4">
         <v>9230</v>
@@ -2628,10 +2808,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="D5">
         <v>700565</v>
@@ -2642,10 +2822,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="D6">
         <v>34711</v>
@@ -2656,10 +2836,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="D7">
         <v>661486</v>
@@ -2670,10 +2850,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="D8">
         <v>22120</v>
@@ -2684,10 +2864,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="D9">
         <v>87217</v>
@@ -2698,10 +2878,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="D10">
         <v>8418</v>
@@ -2712,10 +2892,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="D11">
         <v>14032</v>
@@ -2726,10 +2906,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="D12">
         <v>360497</v>
@@ -2740,10 +2920,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="D13">
         <v>11663</v>
@@ -2754,10 +2934,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="D14">
         <v>41918</v>
@@ -2768,10 +2948,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="D15">
         <v>22158</v>
@@ -2782,10 +2962,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="D16">
         <v>72096</v>
@@ -2796,10 +2976,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C17" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="D17">
         <v>3800</v>
@@ -2810,10 +2990,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="D18">
         <v>25526</v>
@@ -2824,10 +3004,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C19" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="D19">
         <v>242</v>
@@ -2838,10 +3018,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="D20">
         <v>313381</v>
@@ -2852,10 +3032,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C21" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="D21">
         <v>285329</v>
@@ -2866,10 +3046,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C22" t="s">
-        <v>507</v>
+        <v>547</v>
       </c>
       <c r="D22">
         <v>253276</v>
@@ -2880,10 +3060,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2894,10 +3074,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="D24">
         <v>79779</v>
@@ -2908,10 +3088,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C25" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="D25">
         <v>159936</v>
@@ -2922,10 +3102,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C26" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="D26">
         <v>15045</v>
@@ -2936,10 +3116,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="D27">
         <v>28886</v>
@@ -2950,10 +3130,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C28" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="D28">
         <v>126015</v>
@@ -2964,10 +3144,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C29" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
       <c r="D29">
         <v>21885</v>
@@ -2978,10 +3158,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="D30">
         <v>325152</v>
@@ -2992,10 +3172,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C31" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
       <c r="D31">
         <v>292094</v>
@@ -3006,10 +3186,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C32" t="s">
-        <v>517</v>
+        <v>557</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3020,10 +3200,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C33" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="D33">
         <v>1547</v>
@@ -3034,10 +3214,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C34" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="D34">
         <v>25674</v>
@@ -3048,10 +3228,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C35" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="D35">
         <v>30657</v>
@@ -3062,10 +3242,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C36" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="D36">
         <v>332790</v>
@@ -3076,10 +3256,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C37" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="D37">
         <v>194582</v>
@@ -3090,10 +3270,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s">
-        <v>523</v>
+        <v>563</v>
       </c>
       <c r="D38">
         <v>78748</v>
@@ -3104,10 +3284,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C39" t="s">
-        <v>524</v>
+        <v>564</v>
       </c>
       <c r="D39">
         <v>589699</v>
@@ -3118,10 +3298,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C40" t="s">
-        <v>525</v>
+        <v>565</v>
       </c>
       <c r="D40">
         <v>11232</v>
@@ -3132,10 +3312,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C41" t="s">
-        <v>526</v>
+        <v>566</v>
       </c>
       <c r="D41">
         <v>137118</v>
@@ -3146,10 +3326,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C42" t="s">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="D42">
         <v>37842</v>
@@ -3160,10 +3340,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="C43" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="D43">
         <v>105185</v>
@@ -3174,10 +3354,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C44" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="D44">
         <v>648154</v>
@@ -3188,10 +3368,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C45" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="D45">
         <v>152317</v>
@@ -3202,10 +3382,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C46" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="D46">
         <v>156018</v>
@@ -3216,10 +3396,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C47" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="D47">
         <v>80603</v>
@@ -3230,10 +3410,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C48" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="D48">
         <v>51582</v>
@@ -3244,10 +3424,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="C49" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="D49">
         <v>375383</v>
@@ -3258,10 +3438,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C50" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="D50">
         <v>278038</v>
@@ -3272,10 +3452,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="C51" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="D51">
         <v>409096</v>
@@ -3286,10 +3466,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C52" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="D52">
         <v>190497</v>
@@ -3300,10 +3480,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C53" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="D53">
         <v>33904</v>
@@ -3314,10 +3494,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C54" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="D54">
         <v>571</v>
@@ -3328,10 +3508,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C55" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="D55">
         <v>3716</v>
@@ -3342,10 +3522,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C56" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3356,10 +3536,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C57" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="D57">
         <v>441489</v>
@@ -3370,10 +3550,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C58" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
       <c r="D58">
         <v>585452</v>
@@ -3384,10 +3564,10 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C59" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="D59">
         <v>325005</v>
@@ -3398,10 +3578,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C60" t="s">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="D60">
         <v>3192</v>
@@ -3412,10 +3592,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="C61" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="D61">
         <v>124833</v>
@@ -3426,10 +3606,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C62" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="D62">
         <v>378746</v>
@@ -3440,10 +3620,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C63" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="D63">
         <v>688726</v>
@@ -3454,10 +3634,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="C64" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="D64">
         <v>749249</v>
@@ -3468,10 +3648,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C65" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="D65">
         <v>143218</v>
@@ -3482,10 +3662,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C66" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="D66">
         <v>464078</v>
@@ -3496,10 +3676,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="C67" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="D67">
         <v>45666</v>
@@ -3510,10 +3690,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C68" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="D68">
         <v>63462</v>
@@ -3524,10 +3704,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C69" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="D69">
         <v>193002</v>
@@ -3538,10 +3718,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C70" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="D70">
         <v>429</v>
@@ -3552,10 +3732,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="C71" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="D71">
         <v>233547</v>
@@ -3566,10 +3746,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C72" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="D72">
         <v>115718</v>
@@ -3580,10 +3760,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="C73" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="D73">
         <v>3646</v>
@@ -3594,10 +3774,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="C74" t="s">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -3608,10 +3788,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C75" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="D75">
         <v>108590</v>
@@ -3622,10 +3802,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C76" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D76">
         <v>138313</v>
@@ -3636,10 +3816,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C77" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="D77">
         <v>61189</v>
@@ -3650,10 +3830,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C78" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="D78">
         <v>25524</v>
@@ -3664,10 +3844,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="C79" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="D79">
         <v>398189</v>
@@ -3678,10 +3858,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="C80" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="D80">
         <v>5138</v>
@@ -3692,10 +3872,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C81" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="D81">
         <v>412738</v>
@@ -3706,10 +3886,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C82" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="D82">
         <v>210691</v>
@@ -3720,10 +3900,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="C83" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="D83">
         <v>686657</v>
@@ -3734,10 +3914,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C84" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="D84">
         <v>34960</v>
@@ -3748,10 +3928,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="C85" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="D85">
         <v>204029</v>
@@ -3762,10 +3942,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="C86" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="D86">
         <v>110633</v>
@@ -3776,10 +3956,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C87" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="D87">
         <v>22483</v>
@@ -3790,10 +3970,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C88" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="D88">
         <v>726946</v>
@@ -3804,10 +3984,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="C89" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="D89">
         <v>129189</v>
@@ -3818,10 +3998,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C90" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="D90">
         <v>15105</v>
@@ -3832,10 +4012,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="C91" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="D91">
         <v>28759</v>
@@ -3846,10 +4026,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C92" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="D92">
         <v>137078</v>
@@ -3860,10 +4040,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="C93" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3874,10 +4054,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C94" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="D94">
         <v>239366</v>
@@ -3888,10 +4068,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C95" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="D95">
         <v>94879</v>
@@ -3902,10 +4082,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="C96" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="D96">
         <v>1196062</v>
@@ -3916,10 +4096,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="C97" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="D97">
         <v>66267</v>
@@ -3930,10 +4110,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C98" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="D98">
         <v>132723</v>
@@ -3944,10 +4124,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="C99" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="D99">
         <v>498608</v>
@@ -3958,10 +4138,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C100" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D100">
         <v>15143</v>
@@ -3972,10 +4152,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="C101" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="D101">
         <v>272599</v>
@@ -3986,10 +4166,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C102" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="D102">
         <v>39244</v>
@@ -4000,10 +4180,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="C103" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="D103">
         <v>309794</v>
@@ -4014,10 +4194,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C104" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="D104">
         <v>592377</v>
@@ -4028,10 +4208,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C105" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="D105">
         <v>3399</v>
@@ -4042,10 +4222,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C106" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="D106">
         <v>1274455</v>
@@ -4056,10 +4236,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="C107" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="D107">
         <v>34795</v>
@@ -4070,10 +4250,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C108" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="D108">
         <v>5448</v>
@@ -4084,10 +4264,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C109" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="D109">
         <v>1979</v>
@@ -4098,10 +4278,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="C110" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="D110">
         <v>547970</v>
@@ -4112,10 +4292,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C111" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="D111">
         <v>3889365</v>
@@ -4126,10 +4306,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C112" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="D112">
         <v>55114</v>
@@ -4140,10 +4320,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C113" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="D113">
         <v>179628</v>
@@ -4154,10 +4334,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C114" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="D114">
         <v>20429</v>
@@ -4168,10 +4348,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C115" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="D115">
         <v>45255</v>
@@ -4182,10 +4362,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C116" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="D116">
         <v>23090</v>
@@ -4196,10 +4376,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C117" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="D117">
         <v>20301</v>
@@ -4210,10 +4390,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C118" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="D118">
         <v>89100</v>
@@ -4224,10 +4404,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C119" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="D119">
         <v>346590</v>
@@ -4238,10 +4418,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C120" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="D120">
         <v>985422</v>
@@ -4252,10 +4432,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C121" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="D121">
         <v>2761983</v>
@@ -4266,10 +4446,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C122" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
       <c r="D122">
         <v>52693</v>
@@ -4280,10 +4460,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C123" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="D123">
         <v>493290</v>
@@ -4294,10 +4474,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="C124" t="s">
-        <v>609</v>
+        <v>649</v>
       </c>
       <c r="D124">
         <v>1770235</v>
@@ -4308,10 +4488,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="C125" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="D125">
         <v>17932</v>
@@ -4322,10 +4502,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C126" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="D126">
         <v>997393</v>
@@ -4336,10 +4516,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="C127" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="D127">
         <v>32182</v>
@@ -4350,10 +4530,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C128" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="D128">
         <v>158614</v>
@@ -4364,10 +4544,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="C129" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="D129">
         <v>189550</v>
@@ -4378,10 +4558,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C130" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="D130">
         <v>24132</v>
@@ -4392,10 +4572,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C131" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="D131">
         <v>346865</v>
@@ -4406,10 +4586,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="C132" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="D132">
         <v>31675</v>
@@ -4420,10 +4600,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C133" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="D133">
         <v>90908</v>
@@ -4434,10 +4614,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C134" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="D134">
         <v>323514</v>
@@ -4448,10 +4628,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C135" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="D135">
         <v>134245</v>
@@ -4462,10 +4642,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C136" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="D136">
         <v>113746</v>
@@ -4476,10 +4656,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C137" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="D137">
         <v>447505</v>
@@ -4490,10 +4670,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C138" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="D138">
         <v>128017</v>
@@ -4504,10 +4684,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C139" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="D139">
         <v>43728</v>
@@ -4518,10 +4698,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C140" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -4532,10 +4712,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C141" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="D141">
         <v>196945</v>
@@ -4546,10 +4726,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C142" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="D142">
         <v>53719</v>
@@ -4560,10 +4740,10 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="C143" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="D143">
         <v>53719</v>
@@ -4574,10 +4754,10 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C144" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="D144">
         <v>29637</v>
@@ -4588,10 +4768,10 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C145" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="D145">
         <v>36076</v>
@@ -4602,10 +4782,10 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="C146" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="D146">
         <v>197292</v>
@@ -4616,10 +4796,10 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C147" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="D147">
         <v>54939</v>
@@ -4630,10 +4810,10 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="C148" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="D148">
         <v>72960</v>
@@ -4644,10 +4824,10 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C149" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="D149">
         <v>196306</v>
@@ -4658,10 +4838,10 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="C150" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="D150">
         <v>200345</v>
@@ -4672,10 +4852,10 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C151" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="D151">
         <v>42664</v>
@@ -4686,10 +4866,10 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C152" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="D152">
         <v>32834</v>
@@ -4700,10 +4880,10 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C153" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="D153">
         <v>94572</v>
@@ -4714,10 +4894,10 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="C154" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="D154">
         <v>208608</v>
@@ -4728,10 +4908,10 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="C155" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="D155">
         <v>239792</v>
@@ -4742,10 +4922,10 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C156" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="D156">
         <v>46429</v>
@@ -4756,10 +4936,10 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="C157" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="D157">
         <v>4570</v>
@@ -4770,10 +4950,10 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C158" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="D158">
         <v>465194</v>
@@ -4784,10 +4964,10 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C159" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -4798,10 +4978,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="C160" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="D160">
         <v>49</v>
@@ -4812,10 +4992,10 @@
         <v>71</v>
       </c>
       <c r="B161" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="C161" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="D161">
         <v>194587</v>
@@ -4826,10 +5006,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C162" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="D162">
         <v>251718</v>
@@ -4840,10 +5020,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C163" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
       <c r="D163">
         <v>290575</v>
@@ -4854,10 +5034,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="C164" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="D164">
         <v>790555</v>
@@ -4868,10 +5048,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="C165" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="D165">
         <v>507599</v>
@@ -4882,10 +5062,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C166" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="D166">
         <v>9597</v>
@@ -4896,10 +5076,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C167" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="D167">
         <v>312534</v>
@@ -4910,10 +5090,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="C168" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="D168">
         <v>91883</v>
@@ -4924,10 +5104,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C169" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="D169">
         <v>14346</v>
@@ -4938,10 +5118,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C170" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="D170">
         <v>100000</v>
@@ -4952,10 +5132,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C171" t="s">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="D171">
         <v>359683</v>
@@ -4966,10 +5146,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C172" t="s">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="D172">
         <v>283</v>
@@ -4980,10 +5160,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C173" t="s">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="D173">
         <v>698780</v>
@@ -4994,10 +5174,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="C174" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
       <c r="D174">
         <v>195144</v>
@@ -5008,10 +5188,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="C175" t="s">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="D175">
         <v>33253</v>
@@ -5022,10 +5202,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="C176" t="s">
-        <v>661</v>
+        <v>701</v>
       </c>
       <c r="D176">
         <v>1276578</v>
@@ -5036,10 +5216,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="C177" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="D177">
         <v>4840</v>
@@ -5050,10 +5230,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C178" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="D178">
         <v>149893</v>
@@ -5064,10 +5244,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="C179" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="D179">
         <v>444224</v>
@@ -5078,10 +5258,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="C180" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="D180">
         <v>4469</v>
@@ -5092,10 +5272,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="C181" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="D181">
         <v>76236</v>
@@ -5106,10 +5286,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="C182" t="s">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="D182">
         <v>16417</v>
@@ -5120,10 +5300,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C183" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="D183">
         <v>565817</v>
@@ -5134,10 +5314,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="C184" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
       <c r="D184">
         <v>75397</v>
@@ -5148,10 +5328,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C185" t="s">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="D185">
         <v>242</v>
@@ -5162,10 +5342,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="C186" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="D186">
         <v>13020</v>
@@ -5176,10 +5356,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="C187" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="D187">
         <v>270760</v>
@@ -5190,10 +5370,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="C188" t="s">
-        <v>673</v>
+        <v>713</v>
       </c>
       <c r="D188">
         <v>35452</v>
@@ -5204,10 +5384,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C189" t="s">
-        <v>674</v>
+        <v>714</v>
       </c>
       <c r="D189">
         <v>20</v>
@@ -5218,10 +5398,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="C190" t="s">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="D190">
         <v>1577</v>
@@ -5232,10 +5412,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="C191" t="s">
-        <v>676</v>
+        <v>716</v>
       </c>
       <c r="D191">
         <v>196234</v>
@@ -5246,10 +5426,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="C192" t="s">
-        <v>677</v>
+        <v>717</v>
       </c>
       <c r="D192">
         <v>192387</v>
@@ -5260,10 +5440,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="C193" t="s">
-        <v>678</v>
+        <v>718</v>
       </c>
       <c r="D193">
         <v>49970</v>
@@ -5274,10 +5454,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="C194" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="D194">
         <v>87946</v>
@@ -5288,10 +5468,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="C195" t="s">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="D195">
         <v>79124</v>
@@ -5302,10 +5482,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="C196" t="s">
-        <v>681</v>
+        <v>721</v>
       </c>
       <c r="D196">
         <v>59435</v>
@@ -5316,10 +5496,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="C197" t="s">
-        <v>682</v>
+        <v>722</v>
       </c>
       <c r="D197">
         <v>453130</v>
@@ -5330,10 +5510,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="C198" t="s">
-        <v>683</v>
+        <v>723</v>
       </c>
       <c r="D198">
         <v>56290</v>
@@ -5344,10 +5524,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="C199" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="D199">
         <v>21050</v>
@@ -5358,10 +5538,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="C200" t="s">
-        <v>685</v>
+        <v>725</v>
       </c>
       <c r="D200">
         <v>21475</v>
@@ -5372,10 +5552,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C201" t="s">
-        <v>686</v>
+        <v>726</v>
       </c>
       <c r="D201">
         <v>115845</v>
@@ -5386,10 +5566,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C202" t="s">
-        <v>687</v>
+        <v>727</v>
       </c>
       <c r="D202">
         <v>15733</v>
@@ -5400,10 +5580,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="C203" t="s">
-        <v>688</v>
+        <v>728</v>
       </c>
       <c r="D203">
         <v>103897</v>
@@ -5414,10 +5594,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="C204" t="s">
-        <v>689</v>
+        <v>729</v>
       </c>
       <c r="D204">
         <v>7307</v>
@@ -5428,10 +5608,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="C205" t="s">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="D205">
         <v>236579</v>
@@ -5442,10 +5622,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C206" t="s">
-        <v>691</v>
+        <v>731</v>
       </c>
       <c r="D206">
         <v>705179</v>
@@ -5456,10 +5636,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C207" t="s">
-        <v>692</v>
+        <v>732</v>
       </c>
       <c r="D207">
         <v>60058</v>
@@ -5470,10 +5650,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="C208" t="s">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="D208">
         <v>502275</v>
@@ -5484,10 +5664,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C209" t="s">
-        <v>694</v>
+        <v>734</v>
       </c>
       <c r="D209">
         <v>30089</v>
@@ -5498,10 +5678,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="C210" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="D210">
         <v>13165</v>
@@ -5512,10 +5692,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C211" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="D211">
         <v>348375</v>
@@ -5526,10 +5706,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="C212" t="s">
-        <v>697</v>
+        <v>737</v>
       </c>
       <c r="D212">
         <v>138843</v>
@@ -5540,10 +5720,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C213" t="s">
-        <v>698</v>
+        <v>738</v>
       </c>
       <c r="D213">
         <v>176025</v>
@@ -5554,10 +5734,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="C214" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="D214">
         <v>137303</v>
@@ -5568,10 +5748,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="C215" t="s">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="D215">
         <v>354982</v>
@@ -5582,10 +5762,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="C216" t="s">
-        <v>701</v>
+        <v>741</v>
       </c>
       <c r="D216">
         <v>448951</v>
@@ -5596,10 +5776,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C217" t="s">
-        <v>702</v>
+        <v>742</v>
       </c>
       <c r="D217">
         <v>2323</v>
@@ -5610,10 +5790,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="C218" t="s">
-        <v>703</v>
+        <v>743</v>
       </c>
       <c r="D218">
         <v>10028</v>
@@ -5624,10 +5804,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="C219" t="s">
-        <v>704</v>
+        <v>744</v>
       </c>
       <c r="D219">
         <v>10771</v>
@@ -5638,10 +5818,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="C220" t="s">
-        <v>705</v>
+        <v>745</v>
       </c>
       <c r="D220">
         <v>1227</v>
@@ -5652,10 +5832,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="C221" t="s">
-        <v>706</v>
+        <v>746</v>
       </c>
       <c r="D221">
         <v>5844</v>
@@ -5666,10 +5846,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="C222" t="s">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="D222">
         <v>31562</v>
@@ -5680,10 +5860,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="C223" t="s">
-        <v>708</v>
+        <v>748</v>
       </c>
       <c r="D223">
         <v>72179</v>
@@ -5694,10 +5874,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="C224" t="s">
-        <v>709</v>
+        <v>749</v>
       </c>
       <c r="D224">
         <v>27208</v>
@@ -5708,10 +5888,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C225" t="s">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="D225">
         <v>71861</v>
@@ -5722,10 +5902,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="C226" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="D226">
         <v>207969</v>
@@ -5736,10 +5916,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="C227" t="s">
-        <v>712</v>
+        <v>752</v>
       </c>
       <c r="D227">
         <v>318</v>
@@ -5750,10 +5930,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="C228" t="s">
-        <v>713</v>
+        <v>753</v>
       </c>
       <c r="D228">
         <v>120364</v>
@@ -5764,10 +5944,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C229" t="s">
-        <v>714</v>
+        <v>754</v>
       </c>
       <c r="D229">
         <v>281</v>
@@ -5778,10 +5958,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="C230" t="s">
-        <v>715</v>
+        <v>755</v>
       </c>
       <c r="D230">
         <v>459096</v>
@@ -5792,10 +5972,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="C231" t="s">
-        <v>716</v>
+        <v>756</v>
       </c>
       <c r="D231">
         <v>21299</v>
@@ -5806,10 +5986,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="C232" t="s">
-        <v>717</v>
+        <v>757</v>
       </c>
       <c r="D232">
         <v>591097</v>
@@ -5820,10 +6000,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="C233" t="s">
-        <v>718</v>
+        <v>758</v>
       </c>
       <c r="D233">
         <v>201711</v>
@@ -5834,10 +6014,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="C234" t="s">
-        <v>719</v>
+        <v>759</v>
       </c>
       <c r="D234">
         <v>8438</v>
@@ -5848,10 +6028,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="C235" t="s">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="D235">
         <v>11797</v>
@@ -5862,10 +6042,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C236" t="s">
-        <v>721</v>
+        <v>761</v>
       </c>
       <c r="D236">
         <v>57191</v>
@@ -5876,10 +6056,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="C237" t="s">
-        <v>722</v>
+        <v>762</v>
       </c>
       <c r="D237">
         <v>690070</v>
@@ -5890,10 +6070,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C238" t="s">
-        <v>723</v>
+        <v>763</v>
       </c>
       <c r="D238">
         <v>34970</v>
@@ -5904,10 +6084,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="C239" t="s">
-        <v>724</v>
+        <v>764</v>
       </c>
       <c r="D239">
         <v>142764</v>
@@ -5918,10 +6098,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="C240" t="s">
-        <v>725</v>
+        <v>765</v>
       </c>
       <c r="D240">
         <v>1974</v>
@@ -5932,10 +6112,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="C241" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
       <c r="D241">
         <v>29530</v>
@@ -5946,10 +6126,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="C242" t="s">
-        <v>727</v>
+        <v>767</v>
       </c>
       <c r="D242">
         <v>28083</v>
@@ -5960,10 +6140,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="C243" t="s">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="D243">
         <v>196218</v>
@@ -5974,13 +6154,293 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="C244" t="s">
-        <v>729</v>
+        <v>769</v>
       </c>
       <c r="D244">
         <v>160642</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>507</v>
+      </c>
+      <c r="C245" t="s">
+        <v>770</v>
+      </c>
+      <c r="D245">
+        <v>201577</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>508</v>
+      </c>
+      <c r="C246" t="s">
+        <v>771</v>
+      </c>
+      <c r="D246">
+        <v>69826</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>509</v>
+      </c>
+      <c r="C247" t="s">
+        <v>772</v>
+      </c>
+      <c r="D247">
+        <v>15874</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>510</v>
+      </c>
+      <c r="C248" t="s">
+        <v>773</v>
+      </c>
+      <c r="D248">
+        <v>1216408</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>511</v>
+      </c>
+      <c r="C249" t="s">
+        <v>774</v>
+      </c>
+      <c r="D249">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>512</v>
+      </c>
+      <c r="C250" t="s">
+        <v>775</v>
+      </c>
+      <c r="D250">
+        <v>399496</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>513</v>
+      </c>
+      <c r="C251" t="s">
+        <v>776</v>
+      </c>
+      <c r="D251">
+        <v>403900</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>514</v>
+      </c>
+      <c r="C252" t="s">
+        <v>777</v>
+      </c>
+      <c r="D252">
+        <v>1201274</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>515</v>
+      </c>
+      <c r="C253" t="s">
+        <v>778</v>
+      </c>
+      <c r="D253">
+        <v>306869</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>516</v>
+      </c>
+      <c r="C254" t="s">
+        <v>779</v>
+      </c>
+      <c r="D254">
+        <v>1000736</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>517</v>
+      </c>
+      <c r="C255" t="s">
+        <v>780</v>
+      </c>
+      <c r="D255">
+        <v>50134</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>518</v>
+      </c>
+      <c r="C256" t="s">
+        <v>781</v>
+      </c>
+      <c r="D256">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>519</v>
+      </c>
+      <c r="C257" t="s">
+        <v>782</v>
+      </c>
+      <c r="D257">
+        <v>67562</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>520</v>
+      </c>
+      <c r="C258" t="s">
+        <v>783</v>
+      </c>
+      <c r="D258">
+        <v>308260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>521</v>
+      </c>
+      <c r="C259" t="s">
+        <v>784</v>
+      </c>
+      <c r="D259">
+        <v>157629</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>522</v>
+      </c>
+      <c r="C260" t="s">
+        <v>785</v>
+      </c>
+      <c r="D260">
+        <v>31986</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>523</v>
+      </c>
+      <c r="C261" t="s">
+        <v>786</v>
+      </c>
+      <c r="D261">
+        <v>24046</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>524</v>
+      </c>
+      <c r="C262" t="s">
+        <v>787</v>
+      </c>
+      <c r="D262">
+        <v>67626</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>525</v>
+      </c>
+      <c r="C263" t="s">
+        <v>788</v>
+      </c>
+      <c r="D263">
+        <v>17785</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>526</v>
+      </c>
+      <c r="C264" t="s">
+        <v>789</v>
+      </c>
+      <c r="D264">
+        <v>13193</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <si>
     <t>Date</t>
   </si>
@@ -286,6 +286,276 @@
     <t>2026-02-17 03:31:40</t>
   </si>
   <si>
+    <t>2026-02-06 02:22:16</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:42:27</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:37:05</t>
+  </si>
+  <si>
+    <t>2026-02-17 05:27:33</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:54:44</t>
+  </si>
+  <si>
+    <t>2026-02-17 10:40:48</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:38:52</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:29:35</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:15:51</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:24:08</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:51:09</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:09:46</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:43:38</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:16:58</t>
+  </si>
+  <si>
+    <t>2026-02-09 06:51:49</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:07:26</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:00:25</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:10:04</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:27:26</t>
+  </si>
+  <si>
+    <t>2026-02-17 12:41:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:08:19</t>
+  </si>
+  <si>
+    <t>2026-02-17 13:37:44</t>
+  </si>
+  <si>
+    <t>2026-02-18 05:55:44</t>
+  </si>
+  <si>
+    <t>2026-02-16 09:37:31</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:40:48</t>
+  </si>
+  <si>
+    <t>2026-02-04 11:13:24</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:56:26</t>
+  </si>
+  <si>
+    <t>2026-02-17 15:48:56</t>
+  </si>
+  <si>
+    <t>2026-02-09 00:40:08</t>
+  </si>
+  <si>
+    <t>2026-02-16 08:11:49</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:06:35</t>
+  </si>
+  <si>
+    <t>2026-02-15 05:42:26</t>
+  </si>
+  <si>
+    <t>2026-02-05 06:26:36</t>
+  </si>
+  <si>
+    <t>2026-02-13 07:01:39</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:10:21</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:12:26</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:24:22</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:00:05</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:37:32</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:58:00</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:05:04</t>
+  </si>
+  <si>
+    <t>2026-02-16 14:45:09</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:14:55</t>
+  </si>
+  <si>
+    <t>2026-02-10 11:26:44</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:23:03</t>
+  </si>
+  <si>
+    <t>2026-02-10 00:39:28</t>
+  </si>
+  <si>
+    <t>2026-02-18 05:04:56</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:40:06</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:41:33</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:15:20</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:04:39</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:17:15</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:40:18</t>
+  </si>
+  <si>
+    <t>2026-02-17 13:09:13</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:22:51</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:36:54</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:45:28</t>
+  </si>
+  <si>
+    <t>2026-02-18 09:59:09</t>
+  </si>
+  <si>
+    <t>2026-02-15 08:12:26</t>
+  </si>
+  <si>
+    <t>2026-02-10 12:19:41</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:44:23</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:06:32</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:46:11</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:13:51</t>
+  </si>
+  <si>
+    <t>2026-02-17 08:08:14</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:44:17</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:08:17</t>
+  </si>
+  <si>
+    <t>2026-02-18 07:50:33</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:23:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:18:57</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:32:57</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:47:24</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:20:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 09:41:21</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:36:39</t>
+  </si>
+  <si>
+    <t>2026-02-17 20:44:42</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:24:39</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:02:10</t>
+  </si>
+  <si>
+    <t>2026-02-13 07:04:27</t>
+  </si>
+  <si>
+    <t>2026-02-02 14:25:25</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:16:58</t>
+  </si>
+  <si>
+    <t>2026-02-18 19:27:19</t>
+  </si>
+  <si>
+    <t>2026-02-13 06:12:58</t>
+  </si>
+  <si>
+    <t>2026-02-17 06:39:58</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:12:31</t>
+  </si>
+  <si>
+    <t>2026-02-18 19:39:09</t>
+  </si>
+  <si>
+    <t>2026-02-16 11:09:32</t>
+  </si>
+  <si>
+    <t>2026-02-18 06:02:56</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:09:55</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:59:28</t>
+  </si>
+  <si>
     <t>237671823369</t>
   </si>
   <si>
@@ -544,6 +814,276 @@
     <t>237683225856</t>
   </si>
   <si>
+    <t>237681677865</t>
+  </si>
+  <si>
+    <t>237675380474</t>
+  </si>
+  <si>
+    <t>237652491926</t>
+  </si>
+  <si>
+    <t>237683424410</t>
+  </si>
+  <si>
+    <t>237680518982</t>
+  </si>
+  <si>
+    <t>237681892943</t>
+  </si>
+  <si>
+    <t>237675208505</t>
+  </si>
+  <si>
+    <t>237653201663</t>
+  </si>
+  <si>
+    <t>237679397180</t>
+  </si>
+  <si>
+    <t>237678836319</t>
+  </si>
+  <si>
+    <t>237653947806</t>
+  </si>
+  <si>
+    <t>237679384220</t>
+  </si>
+  <si>
+    <t>237682395491</t>
+  </si>
+  <si>
+    <t>237671563443</t>
+  </si>
+  <si>
+    <t>237674890585</t>
+  </si>
+  <si>
+    <t>237653294562</t>
+  </si>
+  <si>
+    <t>237681659043</t>
+  </si>
+  <si>
+    <t>237679086144</t>
+  </si>
+  <si>
+    <t>237683998069</t>
+  </si>
+  <si>
+    <t>237679252522</t>
+  </si>
+  <si>
+    <t>237679428660</t>
+  </si>
+  <si>
+    <t>237674456872</t>
+  </si>
+  <si>
+    <t>237680145093</t>
+  </si>
+  <si>
+    <t>237677188989</t>
+  </si>
+  <si>
+    <t>237672773570</t>
+  </si>
+  <si>
+    <t>237675678961</t>
+  </si>
+  <si>
+    <t>237681678622</t>
+  </si>
+  <si>
+    <t>237654041671</t>
+  </si>
+  <si>
+    <t>237675629624</t>
+  </si>
+  <si>
+    <t>237683232376</t>
+  </si>
+  <si>
+    <t>237674895389</t>
+  </si>
+  <si>
+    <t>237682846850</t>
+  </si>
+  <si>
+    <t>237671823397</t>
+  </si>
+  <si>
+    <t>237678391510</t>
+  </si>
+  <si>
+    <t>237679423897</t>
+  </si>
+  <si>
+    <t>237679097685</t>
+  </si>
+  <si>
+    <t>237683386020</t>
+  </si>
+  <si>
+    <t>237652294497</t>
+  </si>
+  <si>
+    <t>237670705006</t>
+  </si>
+  <si>
+    <t>237683314104</t>
+  </si>
+  <si>
+    <t>237673185867</t>
+  </si>
+  <si>
+    <t>237683729310</t>
+  </si>
+  <si>
+    <t>237679948645</t>
+  </si>
+  <si>
+    <t>237674183250</t>
+  </si>
+  <si>
+    <t>237676439452</t>
+  </si>
+  <si>
+    <t>237672797234</t>
+  </si>
+  <si>
+    <t>237675454130</t>
+  </si>
+  <si>
+    <t>237676036914</t>
+  </si>
+  <si>
+    <t>237680472978</t>
+  </si>
+  <si>
+    <t>237679791269</t>
+  </si>
+  <si>
+    <t>237651244832</t>
+  </si>
+  <si>
+    <t>237674736501</t>
+  </si>
+  <si>
+    <t>237681114247</t>
+  </si>
+  <si>
+    <t>237674458246</t>
+  </si>
+  <si>
+    <t>237679882190</t>
+  </si>
+  <si>
+    <t>237682370358</t>
+  </si>
+  <si>
+    <t>237681345006</t>
+  </si>
+  <si>
+    <t>237683395108</t>
+  </si>
+  <si>
+    <t>237672081940</t>
+  </si>
+  <si>
+    <t>237681468132</t>
+  </si>
+  <si>
+    <t>237681679310</t>
+  </si>
+  <si>
+    <t>237683730106</t>
+  </si>
+  <si>
+    <t>237680415220</t>
+  </si>
+  <si>
+    <t>237683405593</t>
+  </si>
+  <si>
+    <t>237654117826</t>
+  </si>
+  <si>
+    <t>237683023087</t>
+  </si>
+  <si>
+    <t>237670709824</t>
+  </si>
+  <si>
+    <t>237654437449</t>
+  </si>
+  <si>
+    <t>237653430377</t>
+  </si>
+  <si>
+    <t>237671563291</t>
+  </si>
+  <si>
+    <t>237650352979</t>
+  </si>
+  <si>
+    <t>237681657562</t>
+  </si>
+  <si>
+    <t>237678336720</t>
+  </si>
+  <si>
+    <t>237672795112</t>
+  </si>
+  <si>
+    <t>237674936735</t>
+  </si>
+  <si>
+    <t>237670996430</t>
+  </si>
+  <si>
+    <t>237678636838</t>
+  </si>
+  <si>
+    <t>237678586922</t>
+  </si>
+  <si>
+    <t>237681408162</t>
+  </si>
+  <si>
+    <t>237672760396</t>
+  </si>
+  <si>
+    <t>237651533411</t>
+  </si>
+  <si>
+    <t>237675779272</t>
+  </si>
+  <si>
+    <t>237673749692</t>
+  </si>
+  <si>
+    <t>237651648280</t>
+  </si>
+  <si>
+    <t>237681666568</t>
+  </si>
+  <si>
+    <t>237675889982</t>
+  </si>
+  <si>
+    <t>237671563342</t>
+  </si>
+  <si>
+    <t>237681656233</t>
+  </si>
+  <si>
+    <t>237683784011</t>
+  </si>
+  <si>
+    <t>237679059594</t>
+  </si>
+  <si>
     <t>MFS ENTREE COLLEGE MALANGUE</t>
   </si>
   <si>
@@ -800,6 +1340,276 @@
   </si>
   <si>
     <t>LA NEGRESSE LTDLA CBOX R1 MEGNA ABDEL MOUTTALIB</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 GWET BAYIHA GILBERTE PAULINE</t>
+  </si>
+  <si>
+    <t>ONGOLA NGAH leontine CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>FOTSO RIGOBERT TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>RTS_Sarl Cite_Sic_Marche ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>KEUMATIO DJUFFO LOVELYNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>JEAN JACQUES NDAMDE KAMGA</t>
+  </si>
+  <si>
+    <t>HAPSATOU N A MINDEM SARL</t>
+  </si>
+  <si>
+    <t>ORINE LIRETTE TAJEUMI</t>
+  </si>
+  <si>
+    <t>MONGO JACQUES NEO STYLE. COM</t>
+  </si>
+  <si>
+    <t>DIEUDONNE BERNARD TENANTSOP</t>
+  </si>
+  <si>
+    <t>Adoum Ahmat Adoum ROYAL LOGISTICS</t>
+  </si>
+  <si>
+    <t>KEMAJOU ERNESTINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL FANBEU NGANGUEU IDELETTE LORE</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 216</t>
+  </si>
+  <si>
+    <t>ANDRE MAMBOU</t>
+  </si>
+  <si>
+    <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>SYLVIE DJIDJOU TEGUIA EPSE TOUKOU</t>
+  </si>
+  <si>
+    <t>ALAIN CHETEU KAMDEM</t>
+  </si>
+  <si>
+    <t>NADIENNE NTENNOU</t>
+  </si>
+  <si>
+    <t>WARAMMA NICOLAS</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 11</t>
+  </si>
+  <si>
+    <t>ERNESTINE DZOUDA LACMAGO</t>
+  </si>
+  <si>
+    <t>PAMBOUNDOM RABIATOU STYLE. COM</t>
+  </si>
+  <si>
+    <t>KUNPAN OLIVIER LE ROI ETS TIN-GLOBALCOMM _</t>
+  </si>
+  <si>
+    <t>TCHOTOU FANGANG MELYSA ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>NOUPA KAMGAING AGNES CHIC MOBILE</t>
+  </si>
+  <si>
+    <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL FOKAM KOM DANICE KEVIN</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CBOX R0 MALLA TALLA JACQUELINE</t>
+  </si>
+  <si>
+    <t>VAKENA SYLVIE YOK PASL (Pan African Saving and Loan)</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA_CBOX_R1_MABAH DASSI FANNY BLANCHE</t>
+  </si>
+  <si>
+    <t>TCHEPGOUM NJIKE GAELLE MERLINE PLASTICO EXPRESS GROUP LTD</t>
+  </si>
+  <si>
+    <t>MFS TRIBUNAL NDOKOTI</t>
+  </si>
+  <si>
+    <t>JOSEPH DJIENTCHEU MOUNGOUE</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 26</t>
+  </si>
+  <si>
+    <t>JOSEPH SOREL MEKONDANE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+  </si>
+  <si>
+    <t>MATAFOUO SILVANIE FLORE LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>LEA STEPHANE KAMGA DJEUMBOU</t>
+  </si>
+  <si>
+    <t>DJUINE KANA ROPHINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>BAH BOUBACAR LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 MOUAFON MELA CHRISTELLE BERANGERE</t>
+  </si>
+  <si>
+    <t>HORTENSE ENDALE EKWELE</t>
+  </si>
+  <si>
+    <t>CHIMI CASTIEN HUGUES STYLE. COM</t>
+  </si>
+  <si>
+    <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+  </si>
+  <si>
+    <t>TOP DISTRIBUTION NWBDA-BRAND-MBERIFANG FABRICE NDANJI</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS MBOUYA CAROLINE THERESE</t>
+  </si>
+  <si>
+    <t>NDENGUE ELOKO SAMUEL HERVE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NICOLAS BIKECK</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 67</t>
+  </si>
+  <si>
+    <t>FABRICE TCHACOUNA</t>
+  </si>
+  <si>
+    <t>nadege pifo</t>
+  </si>
+  <si>
+    <t>MINDEM SARL ymele voufoYMELE VOUFO VANESSA</t>
+  </si>
+  <si>
+    <t>PRINCESS ESINO HERMIA MOKANYA BERRITZ CAMEROUN SAS</t>
+  </si>
+  <si>
+    <t>MARTHUS ZONWU NKADNEWU</t>
+  </si>
+  <si>
+    <t>TAKU FORTUNE TSECBUM ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>YOUBISSI FONGUEM NAGUIN EMILIE TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL YOUDOM NGOUNOU EPSE KAYOU MAMA CHRISTELLE</t>
+  </si>
+  <si>
+    <t>BLUSH COMMUNICATIONS CHA GENESIS TACHA</t>
+  </si>
+  <si>
+    <t>ATANSI CHIDOZIE SYLVAIN TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL DIALLO AMADOU OURY</t>
+  </si>
+  <si>
+    <t>SAMUEL TIOGANG NAYANG</t>
+  </si>
+  <si>
+    <t>TIPA CHRISTELLE NADIA LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL MEKEUNG ANGELE FLORE</t>
+  </si>
+  <si>
+    <t>AXE KAP SARL</t>
+  </si>
+  <si>
+    <t>FAGHUIE ABIBA</t>
+  </si>
+  <si>
+    <t>NAABI FINANCE PIERRE</t>
+  </si>
+  <si>
+    <t>ALVINE CINDY DJOUM</t>
+  </si>
+  <si>
+    <t>KENGNE KUATE AUBIN ULRICH ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>JEROME ATANGANA ZIBI</t>
+  </si>
+  <si>
+    <t>KONNO FOSSO WILLY FRANLIN NWBDA_POLAS_BTQ_BAMBILI</t>
+  </si>
+  <si>
+    <t>BLANDINE PEYEMBOUO</t>
+  </si>
+  <si>
+    <t>NFONGANG NICHOLINE NUMBESI VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+  </si>
+  <si>
+    <t>GWETIKWE YANICK BEMBEH BERRITZ CAMEROUN SAS</t>
+  </si>
+  <si>
+    <t>BILI SAMUEL TCHATAT KEZETA</t>
+  </si>
+  <si>
+    <t>WANDA MATANDELA</t>
+  </si>
+  <si>
+    <t>DONGMO RACHEL CHANTAL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TAGNE FOM FRANCK ARNOLD ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NDZEMBARE CLINTON FUEREFUM N JAKASS DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>ROOSEVELT CHEKAM TITCHEU ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TETHA FRANCLIN GEORGES ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>RODES NGWEM KEMAYOU</t>
+  </si>
+  <si>
+    <t>NGUELAHA DIFFO THEODERE ETS REINE PHONE</t>
+  </si>
+  <si>
+    <t>KOUEMO MENOU CLOTILDE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>MARTHE KAPCHE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL JOSEPH MBANG</t>
+  </si>
+  <si>
+    <t>LE CONTENT 308</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL WAMENI CATHERINE</t>
+  </si>
+  <si>
+    <t>NFORMI ERNESTINE NGINJE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MANFO ROSINE BERLINE LA NEGRESSE</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1182,10 +1992,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="D2">
         <v>30095</v>
@@ -1196,10 +2006,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="D3">
         <v>36595</v>
@@ -1210,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>358</v>
       </c>
       <c r="D4">
         <v>1042551</v>
@@ -1224,10 +2034,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>359</v>
       </c>
       <c r="D5">
         <v>12973</v>
@@ -1238,10 +2048,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="D6">
         <v>878</v>
@@ -1252,10 +2062,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -1266,10 +2076,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="D8">
         <v>215254</v>
@@ -1280,10 +2090,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>363</v>
       </c>
       <c r="D9">
         <v>190023</v>
@@ -1294,10 +2104,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="D10">
         <v>6498</v>
@@ -1308,10 +2118,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="D11">
         <v>98844</v>
@@ -1322,10 +2132,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="D12">
         <v>86556</v>
@@ -1336,10 +2146,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1350,10 +2160,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="D14">
         <v>9594</v>
@@ -1364,10 +2174,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>369</v>
       </c>
       <c r="D15">
         <v>262</v>
@@ -1378,10 +2188,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="D16">
         <v>517168</v>
@@ -1392,10 +2202,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>371</v>
       </c>
       <c r="D17">
         <v>96868</v>
@@ -1406,10 +2216,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>372</v>
       </c>
       <c r="D18">
         <v>109492</v>
@@ -1420,10 +2230,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>373</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -1434,10 +2244,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>374</v>
       </c>
       <c r="D20">
         <v>44076</v>
@@ -1448,10 +2258,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>375</v>
       </c>
       <c r="D21">
         <v>21000</v>
@@ -1462,10 +2272,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>376</v>
       </c>
       <c r="D22">
         <v>94556</v>
@@ -1476,10 +2286,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>377</v>
       </c>
       <c r="D23">
         <v>5345</v>
@@ -1490,10 +2300,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>198</v>
+        <v>378</v>
       </c>
       <c r="D24">
         <v>8858</v>
@@ -1504,10 +2314,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>379</v>
       </c>
       <c r="D25">
         <v>264112</v>
@@ -1518,10 +2328,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="D26">
         <v>55699</v>
@@ -1532,10 +2342,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>381</v>
       </c>
       <c r="D27">
         <v>56245</v>
@@ -1546,10 +2356,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="D28">
         <v>4751</v>
@@ -1560,10 +2370,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>383</v>
       </c>
       <c r="D29">
         <v>1873</v>
@@ -1574,10 +2384,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>384</v>
       </c>
       <c r="D30">
         <v>333218</v>
@@ -1588,10 +2398,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="D31">
         <v>6385129</v>
@@ -1602,10 +2412,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="D32">
         <v>13377</v>
@@ -1616,10 +2426,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>387</v>
       </c>
       <c r="D33">
         <v>6729</v>
@@ -1630,10 +2440,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>388</v>
       </c>
       <c r="D34">
         <v>864</v>
@@ -1644,10 +2454,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>389</v>
       </c>
       <c r="D35">
         <v>472353</v>
@@ -1658,10 +2468,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>390</v>
       </c>
       <c r="D36">
         <v>23</v>
@@ -1672,10 +2482,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>391</v>
       </c>
       <c r="D37">
         <v>24386</v>
@@ -1686,10 +2496,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>392</v>
       </c>
       <c r="D38">
         <v>44600</v>
@@ -1700,10 +2510,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>393</v>
       </c>
       <c r="D39">
         <v>2042</v>
@@ -1714,10 +2524,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>394</v>
       </c>
       <c r="D40">
         <v>109659</v>
@@ -1728,10 +2538,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>395</v>
       </c>
       <c r="D41">
         <v>2977</v>
@@ -1742,10 +2552,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>396</v>
       </c>
       <c r="D42">
         <v>843587</v>
@@ -1756,10 +2566,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>397</v>
       </c>
       <c r="D43">
         <v>206473</v>
@@ -1770,10 +2580,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>398</v>
       </c>
       <c r="D44">
         <v>13531</v>
@@ -1784,10 +2594,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>399</v>
       </c>
       <c r="D45">
         <v>79737</v>
@@ -1798,10 +2608,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="D46">
         <v>11434</v>
@@ -1812,10 +2622,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>401</v>
       </c>
       <c r="D47">
         <v>501</v>
@@ -1826,10 +2636,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>402</v>
       </c>
       <c r="D48">
         <v>380</v>
@@ -1840,10 +2650,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>403</v>
       </c>
       <c r="D49">
         <v>43362</v>
@@ -1854,10 +2664,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>404</v>
       </c>
       <c r="D50">
         <v>708340</v>
@@ -1868,10 +2678,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>405</v>
       </c>
       <c r="D51">
         <v>3593</v>
@@ -1882,10 +2692,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>406</v>
       </c>
       <c r="D52">
         <v>1879475</v>
@@ -1896,10 +2706,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>407</v>
       </c>
       <c r="D53">
         <v>3784</v>
@@ -1910,10 +2720,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>408</v>
       </c>
       <c r="D54">
         <v>70172</v>
@@ -1924,10 +2734,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="D55">
         <v>148</v>
@@ -1938,10 +2748,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1952,10 +2762,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>411</v>
       </c>
       <c r="D57">
         <v>97484</v>
@@ -1966,10 +2776,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>412</v>
       </c>
       <c r="D58">
         <v>7927</v>
@@ -1980,10 +2790,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="D59">
         <v>61762</v>
@@ -1994,10 +2804,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>414</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -2008,10 +2818,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s">
-        <v>235</v>
+        <v>415</v>
       </c>
       <c r="D61">
         <v>12292</v>
@@ -2022,10 +2832,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>416</v>
       </c>
       <c r="D62">
         <v>366231</v>
@@ -2036,10 +2846,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>417</v>
       </c>
       <c r="D63">
         <v>20358</v>
@@ -2050,10 +2860,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>418</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -2064,10 +2874,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>419</v>
       </c>
       <c r="D65">
         <v>29507</v>
@@ -2078,10 +2888,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="D66">
         <v>71538</v>
@@ -2092,10 +2902,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>421</v>
       </c>
       <c r="D67">
         <v>438901</v>
@@ -2106,10 +2916,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="D68">
         <v>15525</v>
@@ -2120,10 +2930,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>423</v>
       </c>
       <c r="D69">
         <v>792132</v>
@@ -2134,10 +2944,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>424</v>
       </c>
       <c r="D70">
         <v>524523</v>
@@ -2148,10 +2958,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>425</v>
       </c>
       <c r="D71">
         <v>866</v>
@@ -2162,10 +2972,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>426</v>
       </c>
       <c r="D72">
         <v>101711</v>
@@ -2176,10 +2986,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>427</v>
       </c>
       <c r="D73">
         <v>6178</v>
@@ -2190,10 +3000,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>428</v>
       </c>
       <c r="D74">
         <v>1269273</v>
@@ -2204,10 +3014,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>429</v>
       </c>
       <c r="D75">
         <v>20668</v>
@@ -2218,10 +3028,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="D76">
         <v>40652</v>
@@ -2232,10 +3042,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="C77" t="s">
-        <v>251</v>
+        <v>431</v>
       </c>
       <c r="D77">
         <v>21475</v>
@@ -2246,10 +3056,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="D78">
         <v>5015499</v>
@@ -2260,10 +3070,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>433</v>
       </c>
       <c r="D79">
         <v>4249</v>
@@ -2274,10 +3084,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>434</v>
       </c>
       <c r="D80">
         <v>462</v>
@@ -2288,10 +3098,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="C81" t="s">
-        <v>255</v>
+        <v>435</v>
       </c>
       <c r="D81">
         <v>3510</v>
@@ -2302,10 +3112,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="C82" t="s">
-        <v>256</v>
+        <v>436</v>
       </c>
       <c r="D82">
         <v>3076</v>
@@ -2316,10 +3126,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="C83" t="s">
-        <v>257</v>
+        <v>437</v>
       </c>
       <c r="D83">
         <v>5861</v>
@@ -2330,10 +3140,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>258</v>
+        <v>438</v>
       </c>
       <c r="D84">
         <v>221</v>
@@ -2344,10 +3154,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="C85" t="s">
-        <v>259</v>
+        <v>439</v>
       </c>
       <c r="D85">
         <v>63743</v>
@@ -2358,10 +3168,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2372,13 +3182,1273 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>441</v>
       </c>
       <c r="D87">
         <v>36813</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" t="s">
+        <v>442</v>
+      </c>
+      <c r="D88">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>443</v>
+      </c>
+      <c r="D89">
+        <v>80118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>444</v>
+      </c>
+      <c r="D90">
+        <v>2940201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" t="s">
+        <v>445</v>
+      </c>
+      <c r="D91">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" t="s">
+        <v>446</v>
+      </c>
+      <c r="D92">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" t="s">
+        <v>447</v>
+      </c>
+      <c r="D93">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" t="s">
+        <v>448</v>
+      </c>
+      <c r="D94">
+        <v>68166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" t="s">
+        <v>449</v>
+      </c>
+      <c r="D95">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" t="s">
+        <v>450</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" t="s">
+        <v>451</v>
+      </c>
+      <c r="D97">
+        <v>59398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" t="s">
+        <v>452</v>
+      </c>
+      <c r="D98">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" t="s">
+        <v>453</v>
+      </c>
+      <c r="D99">
+        <v>38799</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" t="s">
+        <v>454</v>
+      </c>
+      <c r="D100">
+        <v>446015</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" t="s">
+        <v>455</v>
+      </c>
+      <c r="D101">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" t="s">
+        <v>456</v>
+      </c>
+      <c r="D102">
+        <v>70556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>281</v>
+      </c>
+      <c r="C103" t="s">
+        <v>457</v>
+      </c>
+      <c r="D103">
+        <v>290990</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" t="s">
+        <v>458</v>
+      </c>
+      <c r="D104">
+        <v>24133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" t="s">
+        <v>459</v>
+      </c>
+      <c r="D105">
+        <v>7991</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>284</v>
+      </c>
+      <c r="C106" t="s">
+        <v>460</v>
+      </c>
+      <c r="D106">
+        <v>54595</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" t="s">
+        <v>461</v>
+      </c>
+      <c r="D107">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>286</v>
+      </c>
+      <c r="C108" t="s">
+        <v>462</v>
+      </c>
+      <c r="D108">
+        <v>6025929</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>287</v>
+      </c>
+      <c r="C109" t="s">
+        <v>463</v>
+      </c>
+      <c r="D109">
+        <v>17416</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>288</v>
+      </c>
+      <c r="C110" t="s">
+        <v>464</v>
+      </c>
+      <c r="D110">
+        <v>59923</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>289</v>
+      </c>
+      <c r="C111" t="s">
+        <v>465</v>
+      </c>
+      <c r="D111">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>290</v>
+      </c>
+      <c r="C112" t="s">
+        <v>466</v>
+      </c>
+      <c r="D112">
+        <v>668234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>291</v>
+      </c>
+      <c r="C113" t="s">
+        <v>467</v>
+      </c>
+      <c r="D113">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>292</v>
+      </c>
+      <c r="C114" t="s">
+        <v>468</v>
+      </c>
+      <c r="D114">
+        <v>134935</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>293</v>
+      </c>
+      <c r="C115" t="s">
+        <v>469</v>
+      </c>
+      <c r="D115">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>294</v>
+      </c>
+      <c r="C116" t="s">
+        <v>470</v>
+      </c>
+      <c r="D116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>295</v>
+      </c>
+      <c r="C117" t="s">
+        <v>471</v>
+      </c>
+      <c r="D117">
+        <v>500214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" t="s">
+        <v>472</v>
+      </c>
+      <c r="D118">
+        <v>179255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>297</v>
+      </c>
+      <c r="C119" t="s">
+        <v>473</v>
+      </c>
+      <c r="D119">
+        <v>616178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" t="s">
+        <v>474</v>
+      </c>
+      <c r="D120">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>299</v>
+      </c>
+      <c r="C121" t="s">
+        <v>475</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" t="s">
+        <v>476</v>
+      </c>
+      <c r="D122">
+        <v>948473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>301</v>
+      </c>
+      <c r="C123" t="s">
+        <v>477</v>
+      </c>
+      <c r="D123">
+        <v>141336</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>302</v>
+      </c>
+      <c r="C124" t="s">
+        <v>478</v>
+      </c>
+      <c r="D124">
+        <v>31942</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>303</v>
+      </c>
+      <c r="C125" t="s">
+        <v>479</v>
+      </c>
+      <c r="D125">
+        <v>126700</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" t="s">
+        <v>480</v>
+      </c>
+      <c r="D126">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>305</v>
+      </c>
+      <c r="C127" t="s">
+        <v>481</v>
+      </c>
+      <c r="D127">
+        <v>62509</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>306</v>
+      </c>
+      <c r="C128" t="s">
+        <v>482</v>
+      </c>
+      <c r="D128">
+        <v>10441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" t="s">
+        <v>483</v>
+      </c>
+      <c r="D129">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>308</v>
+      </c>
+      <c r="C130" t="s">
+        <v>484</v>
+      </c>
+      <c r="D130">
+        <v>108036</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" t="s">
+        <v>485</v>
+      </c>
+      <c r="D131">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132" t="s">
+        <v>486</v>
+      </c>
+      <c r="D132">
+        <v>271853</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>311</v>
+      </c>
+      <c r="C133" t="s">
+        <v>487</v>
+      </c>
+      <c r="D133">
+        <v>900184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>312</v>
+      </c>
+      <c r="C134" t="s">
+        <v>488</v>
+      </c>
+      <c r="D134">
+        <v>6534</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135" t="s">
+        <v>489</v>
+      </c>
+      <c r="D135">
+        <v>212127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>314</v>
+      </c>
+      <c r="C136" t="s">
+        <v>490</v>
+      </c>
+      <c r="D136">
+        <v>20562</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>315</v>
+      </c>
+      <c r="C137" t="s">
+        <v>491</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>316</v>
+      </c>
+      <c r="C138" t="s">
+        <v>492</v>
+      </c>
+      <c r="D138">
+        <v>66242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>317</v>
+      </c>
+      <c r="C139" t="s">
+        <v>493</v>
+      </c>
+      <c r="D139">
+        <v>237616</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>318</v>
+      </c>
+      <c r="C140" t="s">
+        <v>494</v>
+      </c>
+      <c r="D140">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>319</v>
+      </c>
+      <c r="C141" t="s">
+        <v>495</v>
+      </c>
+      <c r="D141">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>320</v>
+      </c>
+      <c r="C142" t="s">
+        <v>496</v>
+      </c>
+      <c r="D142">
+        <v>192476</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>321</v>
+      </c>
+      <c r="C143" t="s">
+        <v>497</v>
+      </c>
+      <c r="D143">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>322</v>
+      </c>
+      <c r="C144" t="s">
+        <v>498</v>
+      </c>
+      <c r="D144">
+        <v>23601</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" t="s">
+        <v>499</v>
+      </c>
+      <c r="D145">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>324</v>
+      </c>
+      <c r="C146" t="s">
+        <v>500</v>
+      </c>
+      <c r="D146">
+        <v>35332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>325</v>
+      </c>
+      <c r="C147" t="s">
+        <v>501</v>
+      </c>
+      <c r="D147">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>326</v>
+      </c>
+      <c r="C148" t="s">
+        <v>502</v>
+      </c>
+      <c r="D148">
+        <v>135162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>327</v>
+      </c>
+      <c r="C149" t="s">
+        <v>503</v>
+      </c>
+      <c r="D149">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>328</v>
+      </c>
+      <c r="C150" t="s">
+        <v>504</v>
+      </c>
+      <c r="D150">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>329</v>
+      </c>
+      <c r="C151" t="s">
+        <v>505</v>
+      </c>
+      <c r="D151">
+        <v>23538</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>330</v>
+      </c>
+      <c r="C152" t="s">
+        <v>506</v>
+      </c>
+      <c r="D152">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153" t="s">
+        <v>507</v>
+      </c>
+      <c r="D153">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>332</v>
+      </c>
+      <c r="C154" t="s">
+        <v>508</v>
+      </c>
+      <c r="D154">
+        <v>85937</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" t="s">
+        <v>509</v>
+      </c>
+      <c r="D155">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>334</v>
+      </c>
+      <c r="C156" t="s">
+        <v>510</v>
+      </c>
+      <c r="D156">
+        <v>288689</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>335</v>
+      </c>
+      <c r="C157" t="s">
+        <v>511</v>
+      </c>
+      <c r="D157">
+        <v>23936</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>336</v>
+      </c>
+      <c r="C158" t="s">
+        <v>512</v>
+      </c>
+      <c r="D158">
+        <v>7901748</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>337</v>
+      </c>
+      <c r="C159" t="s">
+        <v>513</v>
+      </c>
+      <c r="D159">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>338</v>
+      </c>
+      <c r="C160" t="s">
+        <v>514</v>
+      </c>
+      <c r="D160">
+        <v>63814</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>339</v>
+      </c>
+      <c r="C161" t="s">
+        <v>515</v>
+      </c>
+      <c r="D161">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>340</v>
+      </c>
+      <c r="C162" t="s">
+        <v>516</v>
+      </c>
+      <c r="D162">
+        <v>335842</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>341</v>
+      </c>
+      <c r="C163" t="s">
+        <v>517</v>
+      </c>
+      <c r="D163">
+        <v>14511</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>342</v>
+      </c>
+      <c r="C164" t="s">
+        <v>518</v>
+      </c>
+      <c r="D164">
+        <v>29941</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>343</v>
+      </c>
+      <c r="C165" t="s">
+        <v>519</v>
+      </c>
+      <c r="D165">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" t="s">
+        <v>344</v>
+      </c>
+      <c r="C166" t="s">
+        <v>520</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>345</v>
+      </c>
+      <c r="C167" t="s">
+        <v>521</v>
+      </c>
+      <c r="D167">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>346</v>
+      </c>
+      <c r="C168" t="s">
+        <v>522</v>
+      </c>
+      <c r="D168">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>347</v>
+      </c>
+      <c r="C169" t="s">
+        <v>523</v>
+      </c>
+      <c r="D169">
+        <v>105101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" t="s">
+        <v>524</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>349</v>
+      </c>
+      <c r="C171" t="s">
+        <v>525</v>
+      </c>
+      <c r="D171">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" t="s">
+        <v>526</v>
+      </c>
+      <c r="D172">
+        <v>84819</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>351</v>
+      </c>
+      <c r="C173" t="s">
+        <v>527</v>
+      </c>
+      <c r="D173">
+        <v>186101</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>352</v>
+      </c>
+      <c r="C174" t="s">
+        <v>528</v>
+      </c>
+      <c r="D174">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>353</v>
+      </c>
+      <c r="C175" t="s">
+        <v>529</v>
+      </c>
+      <c r="D175">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176" t="s">
+        <v>530</v>
+      </c>
+      <c r="D176">
+        <v>14176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" t="s">
+        <v>531</v>
+      </c>
+      <c r="D177">
+        <v>317960</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="565">
   <si>
     <t>Date</t>
   </si>
@@ -556,6 +556,39 @@
     <t>2026-02-18 12:59:28</t>
   </si>
   <si>
+    <t>2026-02-18 14:45:07</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:17:29</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:03:18</t>
+  </si>
+  <si>
+    <t>2026-02-18 18:15:30</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:47:28</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:49:45</t>
+  </si>
+  <si>
+    <t>2026-02-17 09:06:24</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:14:02</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:04:26</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:47:22</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:48:06</t>
+  </si>
+  <si>
     <t>237671823369</t>
   </si>
   <si>
@@ -1084,6 +1117,39 @@
     <t>237679059594</t>
   </si>
   <si>
+    <t>237679041654</t>
+  </si>
+  <si>
+    <t>237673671238</t>
+  </si>
+  <si>
+    <t>237652275301</t>
+  </si>
+  <si>
+    <t>237681662701</t>
+  </si>
+  <si>
+    <t>237654349065</t>
+  </si>
+  <si>
+    <t>237675637054</t>
+  </si>
+  <si>
+    <t>237671262234</t>
+  </si>
+  <si>
+    <t>237674890488</t>
+  </si>
+  <si>
+    <t>237654079053</t>
+  </si>
+  <si>
+    <t>237652643069</t>
+  </si>
+  <si>
+    <t>237673041651</t>
+  </si>
+  <si>
     <t>MFS ENTREE COLLEGE MALANGUE</t>
   </si>
   <si>
@@ -1610,6 +1676,39 @@
   </si>
   <si>
     <t>MANFO ROSINE BERLINE LA NEGRESSE</t>
+  </si>
+  <si>
+    <t>PIERRE MARIVOT TEMEZEU</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL MBONE NDEMOU EPSE KAMSU ROSINE</t>
+  </si>
+  <si>
+    <t>NDAMI EPSE NONGA ROSALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TOUGOUA PAYOU JULIO OMER ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>YASSI A BAA BELMOND CHIC MOBILE</t>
+  </si>
+  <si>
+    <t>N A SOKOUDJOU DZOKOU</t>
+  </si>
+  <si>
+    <t>DEUGOUE TOKO EPSE DIBANGUE LOISE LAURE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>Sandrine Nkendji</t>
+  </si>
+  <si>
+    <t>JUDITH AIMEE JOELEFACK JAZET EPSE NGUMATIO</t>
+  </si>
+  <si>
+    <t>CHIREL DELRICH TCHAPDA</t>
+  </si>
+  <si>
+    <t>DYLAN KEPSEU SIME</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +2066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1992,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="D2">
         <v>30095</v>
@@ -2006,10 +2105,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="D3">
         <v>36595</v>
@@ -2020,10 +2119,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="D4">
         <v>1042551</v>
@@ -2034,10 +2133,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="D5">
         <v>12973</v>
@@ -2048,10 +2147,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D6">
         <v>878</v>
@@ -2062,10 +2161,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -2076,10 +2175,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="D8">
         <v>215254</v>
@@ -2090,10 +2189,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="D9">
         <v>190023</v>
@@ -2104,10 +2203,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="D10">
         <v>6498</v>
@@ -2118,10 +2217,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="D11">
         <v>98844</v>
@@ -2132,10 +2231,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="D12">
         <v>86556</v>
@@ -2146,10 +2245,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -2160,10 +2259,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="D14">
         <v>9594</v>
@@ -2174,10 +2273,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="D15">
         <v>262</v>
@@ -2188,10 +2287,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="D16">
         <v>517168</v>
@@ -2202,10 +2301,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="D17">
         <v>96868</v>
@@ -2216,10 +2315,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="D18">
         <v>109492</v>
@@ -2230,10 +2329,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -2244,10 +2343,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="D20">
         <v>44076</v>
@@ -2258,10 +2357,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="D21">
         <v>21000</v>
@@ -2272,10 +2371,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="D22">
         <v>94556</v>
@@ -2286,10 +2385,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="D23">
         <v>5345</v>
@@ -2300,10 +2399,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="D24">
         <v>8858</v>
@@ -2314,10 +2413,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="D25">
         <v>264112</v>
@@ -2328,10 +2427,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="D26">
         <v>55699</v>
@@ -2342,10 +2441,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="D27">
         <v>56245</v>
@@ -2356,10 +2455,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D28">
         <v>4751</v>
@@ -2370,10 +2469,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="D29">
         <v>1873</v>
@@ -2384,10 +2483,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D30">
         <v>333218</v>
@@ -2398,10 +2497,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C31" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="D31">
         <v>6385129</v>
@@ -2412,10 +2511,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="D32">
         <v>13377</v>
@@ -2426,10 +2525,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="D33">
         <v>6729</v>
@@ -2440,10 +2539,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="D34">
         <v>864</v>
@@ -2454,10 +2553,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="D35">
         <v>472353</v>
@@ -2468,10 +2567,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="D36">
         <v>23</v>
@@ -2482,10 +2581,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="D37">
         <v>24386</v>
@@ -2496,10 +2595,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="D38">
         <v>44600</v>
@@ -2510,10 +2609,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C39" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="D39">
         <v>2042</v>
@@ -2524,10 +2623,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C40" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="D40">
         <v>109659</v>
@@ -2538,10 +2637,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="D41">
         <v>2977</v>
@@ -2552,10 +2651,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C42" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="D42">
         <v>843587</v>
@@ -2566,10 +2665,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C43" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="D43">
         <v>206473</v>
@@ -2580,10 +2679,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="D44">
         <v>13531</v>
@@ -2594,10 +2693,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C45" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="D45">
         <v>79737</v>
@@ -2608,10 +2707,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C46" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="D46">
         <v>11434</v>
@@ -2622,10 +2721,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="D47">
         <v>501</v>
@@ -2636,10 +2735,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C48" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="D48">
         <v>380</v>
@@ -2650,10 +2749,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C49" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="D49">
         <v>43362</v>
@@ -2664,10 +2763,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C50" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="D50">
         <v>708340</v>
@@ -2678,10 +2777,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C51" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="D51">
         <v>3593</v>
@@ -2692,10 +2791,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C52" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="D52">
         <v>1879475</v>
@@ -2706,10 +2805,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D53">
         <v>3784</v>
@@ -2720,10 +2819,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="D54">
         <v>70172</v>
@@ -2734,10 +2833,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C55" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="D55">
         <v>148</v>
@@ -2748,10 +2847,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C56" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2762,10 +2861,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C57" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="D57">
         <v>97484</v>
@@ -2776,10 +2875,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C58" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="D58">
         <v>7927</v>
@@ -2790,10 +2889,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C59" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="D59">
         <v>61762</v>
@@ -2804,10 +2903,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C60" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -2818,10 +2917,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C61" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="D61">
         <v>12292</v>
@@ -2832,10 +2931,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="D62">
         <v>366231</v>
@@ -2846,10 +2945,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C63" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="D63">
         <v>20358</v>
@@ -2860,10 +2959,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -2874,10 +2973,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C65" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="D65">
         <v>29507</v>
@@ -2888,10 +2987,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C66" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="D66">
         <v>71538</v>
@@ -2902,10 +3001,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C67" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="D67">
         <v>438901</v>
@@ -2916,10 +3015,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C68" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="D68">
         <v>15525</v>
@@ -2930,10 +3029,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C69" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="D69">
         <v>792132</v>
@@ -2944,10 +3043,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="D70">
         <v>524523</v>
@@ -2958,10 +3057,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D71">
         <v>866</v>
@@ -2972,10 +3071,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C72" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="D72">
         <v>101711</v>
@@ -2986,10 +3085,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C73" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="D73">
         <v>6178</v>
@@ -3000,10 +3099,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="D74">
         <v>1269273</v>
@@ -3014,10 +3113,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C75" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="D75">
         <v>20668</v>
@@ -3028,10 +3127,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C76" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="D76">
         <v>40652</v>
@@ -3042,10 +3141,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="D77">
         <v>21475</v>
@@ -3056,10 +3155,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="D78">
         <v>5015499</v>
@@ -3070,10 +3169,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C79" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="D79">
         <v>4249</v>
@@ -3084,10 +3183,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C80" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D80">
         <v>462</v>
@@ -3098,10 +3197,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C81" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="D81">
         <v>3510</v>
@@ -3112,10 +3211,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C82" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="D82">
         <v>3076</v>
@@ -3126,10 +3225,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="D83">
         <v>5861</v>
@@ -3140,10 +3239,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C84" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D84">
         <v>221</v>
@@ -3154,10 +3253,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="D85">
         <v>63743</v>
@@ -3168,10 +3267,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C86" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3182,10 +3281,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C87" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="D87">
         <v>36813</v>
@@ -3196,10 +3295,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C88" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="D88">
         <v>513</v>
@@ -3210,10 +3309,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C89" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="D89">
         <v>80118</v>
@@ -3224,10 +3323,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C90" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="D90">
         <v>2940201</v>
@@ -3238,10 +3337,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C91" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D91">
         <v>2339</v>
@@ -3252,10 +3351,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C92" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="D92">
         <v>4075</v>
@@ -3266,10 +3365,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C93" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="D93">
         <v>1013</v>
@@ -3280,10 +3379,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C94" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="D94">
         <v>68166</v>
@@ -3294,10 +3393,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C95" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="D95">
         <v>1288</v>
@@ -3308,10 +3407,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C96" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3322,10 +3421,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C97" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="D97">
         <v>59398</v>
@@ -3336,10 +3435,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C98" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="D98">
         <v>7418</v>
@@ -3350,10 +3449,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C99" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="D99">
         <v>38799</v>
@@ -3364,10 +3463,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C100" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="D100">
         <v>446015</v>
@@ -3378,10 +3477,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C101" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="D101">
         <v>32</v>
@@ -3392,10 +3491,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C102" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="D102">
         <v>70556</v>
@@ -3406,10 +3505,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C103" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="D103">
         <v>290990</v>
@@ -3420,10 +3519,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C104" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="D104">
         <v>24133</v>
@@ -3434,10 +3533,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C105" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="D105">
         <v>7991</v>
@@ -3448,10 +3547,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C106" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="D106">
         <v>54595</v>
@@ -3462,10 +3561,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C107" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="D107">
         <v>23</v>
@@ -3476,10 +3575,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C108" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="D108">
         <v>6025929</v>
@@ -3490,10 +3589,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C109" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="D109">
         <v>17416</v>
@@ -3504,10 +3603,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C110" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="D110">
         <v>59923</v>
@@ -3518,10 +3617,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C111" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="D111">
         <v>9700</v>
@@ -3532,10 +3631,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C112" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="D112">
         <v>668234</v>
@@ -3546,10 +3645,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C113" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="D113">
         <v>141</v>
@@ -3560,10 +3659,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C114" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="D114">
         <v>134935</v>
@@ -3574,10 +3673,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C115" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="D115">
         <v>11600</v>
@@ -3588,10 +3687,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C116" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -3602,10 +3701,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C117" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="D117">
         <v>500214</v>
@@ -3616,10 +3715,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C118" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="D118">
         <v>179255</v>
@@ -3630,10 +3729,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="D119">
         <v>616178</v>
@@ -3644,10 +3743,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C120" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -3658,10 +3757,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C121" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -3672,10 +3771,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C122" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="D122">
         <v>948473</v>
@@ -3686,10 +3785,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C123" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="D123">
         <v>141336</v>
@@ -3700,10 +3799,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="D124">
         <v>31942</v>
@@ -3714,10 +3813,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C125" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="D125">
         <v>126700</v>
@@ -3728,10 +3827,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C126" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="D126">
         <v>7184</v>
@@ -3742,10 +3841,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C127" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="D127">
         <v>62509</v>
@@ -3756,10 +3855,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C128" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="D128">
         <v>10441</v>
@@ -3770,10 +3869,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C129" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="D129">
         <v>2922</v>
@@ -3784,10 +3883,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C130" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="D130">
         <v>108036</v>
@@ -3798,10 +3897,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C131" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="D131">
         <v>14</v>
@@ -3812,10 +3911,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C132" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="D132">
         <v>271853</v>
@@ -3826,10 +3925,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C133" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="D133">
         <v>900184</v>
@@ -3840,10 +3939,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C134" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="D134">
         <v>6534</v>
@@ -3854,10 +3953,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C135" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="D135">
         <v>212127</v>
@@ -3868,10 +3967,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C136" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="D136">
         <v>20562</v>
@@ -3882,10 +3981,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C137" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -3896,10 +3995,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C138" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="D138">
         <v>66242</v>
@@ -3910,10 +4009,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C139" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="D139">
         <v>237616</v>
@@ -3924,10 +4023,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C140" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="D140">
         <v>986</v>
@@ -3938,10 +4037,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C141" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D141">
         <v>525</v>
@@ -3952,10 +4051,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C142" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="D142">
         <v>192476</v>
@@ -3966,10 +4065,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C143" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="D143">
         <v>2179</v>
@@ -3980,10 +4079,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C144" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="D144">
         <v>23601</v>
@@ -3994,10 +4093,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C145" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="D145">
         <v>2279</v>
@@ -4008,10 +4107,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C146" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="D146">
         <v>35332</v>
@@ -4022,10 +4121,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C147" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="D147">
         <v>224</v>
@@ -4036,10 +4135,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C148" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="D148">
         <v>135162</v>
@@ -4050,10 +4149,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C149" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="D149">
         <v>2818</v>
@@ -4064,10 +4163,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C150" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="D150">
         <v>6792</v>
@@ -4078,10 +4177,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C151" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="D151">
         <v>23538</v>
@@ -4092,10 +4191,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C152" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="D152">
         <v>2635</v>
@@ -4106,10 +4205,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C153" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="D153">
         <v>3020</v>
@@ -4120,10 +4219,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C154" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="D154">
         <v>85937</v>
@@ -4134,10 +4233,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C155" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="D155">
         <v>1106</v>
@@ -4148,10 +4247,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C156" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="D156">
         <v>288689</v>
@@ -4162,10 +4261,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C157" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="D157">
         <v>23936</v>
@@ -4176,10 +4275,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C158" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D158">
         <v>7901748</v>
@@ -4190,10 +4289,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C159" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="D159">
         <v>4701</v>
@@ -4204,10 +4303,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C160" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="D160">
         <v>63814</v>
@@ -4218,10 +4317,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C161" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="D161">
         <v>432</v>
@@ -4232,10 +4331,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C162" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="D162">
         <v>335842</v>
@@ -4246,10 +4345,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C163" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="D163">
         <v>14511</v>
@@ -4260,10 +4359,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C164" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="D164">
         <v>29941</v>
@@ -4274,10 +4373,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="C165" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="D165">
         <v>4082</v>
@@ -4288,10 +4387,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C166" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -4302,10 +4401,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C167" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="D167">
         <v>540</v>
@@ -4316,10 +4415,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C168" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="D168">
         <v>43657</v>
@@ -4330,10 +4429,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C169" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="D169">
         <v>105101</v>
@@ -4344,10 +4443,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C170" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -4358,10 +4457,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C171" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="D171">
         <v>808</v>
@@ -4372,10 +4471,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C172" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="D172">
         <v>84819</v>
@@ -4386,10 +4485,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C173" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="D173">
         <v>186101</v>
@@ -4400,10 +4499,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="C174" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="D174">
         <v>87</v>
@@ -4414,10 +4513,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C175" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="D175">
         <v>45444</v>
@@ -4428,10 +4527,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C176" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="D176">
         <v>14176</v>
@@ -4442,13 +4541,167 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C177" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="D177">
         <v>317960</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>367</v>
+      </c>
+      <c r="C178" t="s">
+        <v>554</v>
+      </c>
+      <c r="D178">
+        <v>6876</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>368</v>
+      </c>
+      <c r="C179" t="s">
+        <v>555</v>
+      </c>
+      <c r="D179">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" t="s">
+        <v>556</v>
+      </c>
+      <c r="D180">
+        <v>7688</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>370</v>
+      </c>
+      <c r="C181" t="s">
+        <v>557</v>
+      </c>
+      <c r="D181">
+        <v>17160</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>371</v>
+      </c>
+      <c r="C182" t="s">
+        <v>558</v>
+      </c>
+      <c r="D182">
+        <v>360662</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>372</v>
+      </c>
+      <c r="C183" t="s">
+        <v>559</v>
+      </c>
+      <c r="D183">
+        <v>6316</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" t="s">
+        <v>373</v>
+      </c>
+      <c r="C184" t="s">
+        <v>560</v>
+      </c>
+      <c r="D184">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>374</v>
+      </c>
+      <c r="C185" t="s">
+        <v>561</v>
+      </c>
+      <c r="D185">
+        <v>253822</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" t="s">
+        <v>375</v>
+      </c>
+      <c r="C186" t="s">
+        <v>562</v>
+      </c>
+      <c r="D186">
+        <v>216137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187" t="s">
+        <v>563</v>
+      </c>
+      <c r="D187">
+        <v>6503</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" t="s">
+        <v>564</v>
+      </c>
+      <c r="D188">
+        <v>817810</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="802">
   <si>
     <t>Date</t>
   </si>
@@ -589,6 +589,243 @@
     <t>2026-02-18 10:48:06</t>
   </si>
   <si>
+    <t>2026-02-18 11:29:27</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:21:58</t>
+  </si>
+  <si>
+    <t>2026-02-10 05:25:51</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:03:53</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:54:46</t>
+  </si>
+  <si>
+    <t>2026-02-18 05:55:55</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:47:58</t>
+  </si>
+  <si>
+    <t>2026-02-17 14:49:19</t>
+  </si>
+  <si>
+    <t>2026-02-17 17:10:02</t>
+  </si>
+  <si>
+    <t>2026-02-18 04:01:03</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:00:11</t>
+  </si>
+  <si>
+    <t>2026-02-12 07:02:54</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:52:10</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:37:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:43:54</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:01:03</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:00:56</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:03:33</t>
+  </si>
+  <si>
+    <t>2026-02-18 06:36:34</t>
+  </si>
+  <si>
+    <t>2026-02-11 10:24:09</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:27:29</t>
+  </si>
+  <si>
+    <t>2026-02-06 07:19:11</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:36:18</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:41:41</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:35:41</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:56:50</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:43:18</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:21:12</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:31:51</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:58:14</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:58:20</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:32:12</t>
+  </si>
+  <si>
+    <t>2026-02-18 06:18:11</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:35:46</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:50:13</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:22:57</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:44:26</t>
+  </si>
+  <si>
+    <t>2026-02-18 06:47:05</t>
+  </si>
+  <si>
+    <t>2026-02-17 08:17:58</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:39:51</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:03:35</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:06:35</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:06:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:07:03</t>
+  </si>
+  <si>
+    <t>2026-02-16 10:23:25</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:39:28</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:52:41</t>
+  </si>
+  <si>
+    <t>2026-02-18 06:39:04</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:34:18</t>
+  </si>
+  <si>
+    <t>2026-02-18 08:42:51</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:53:45</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:55:03</t>
+  </si>
+  <si>
+    <t>2026-02-10 12:49:25</t>
+  </si>
+  <si>
+    <t>2026-02-14 17:53:25</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:23:43</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:28:07</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:13:20</t>
+  </si>
+  <si>
+    <t>2026-02-16 07:58:40</t>
+  </si>
+  <si>
+    <t>2026-02-07 09:49:25</t>
+  </si>
+  <si>
+    <t>2026-02-13 11:46:45</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:44:39</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:14:45</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:29:50</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:20:29</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:41:07</t>
+  </si>
+  <si>
+    <t>2026-02-18 07:14:07</t>
+  </si>
+  <si>
+    <t>2026-02-18 04:48:59</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:16:03</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:24:19</t>
+  </si>
+  <si>
+    <t>2026-02-14 11:12:45</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:32:23</t>
+  </si>
+  <si>
+    <t>2026-02-08 04:21:59</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:16:25</t>
+  </si>
+  <si>
+    <t>2026-02-17 02:56:01</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:39:14</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:26:10</t>
+  </si>
+  <si>
+    <t>2026-02-13 09:56:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 08:18:14</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:10:11</t>
+  </si>
+  <si>
     <t>237671823369</t>
   </si>
   <si>
@@ -1150,6 +1387,243 @@
     <t>237673041651</t>
   </si>
   <si>
+    <t>237674240552</t>
+  </si>
+  <si>
+    <t>237650210884</t>
+  </si>
+  <si>
+    <t>237682370334</t>
+  </si>
+  <si>
+    <t>237679071633</t>
+  </si>
+  <si>
+    <t>237674944950</t>
+  </si>
+  <si>
+    <t>237681659476</t>
+  </si>
+  <si>
+    <t>237675453240</t>
+  </si>
+  <si>
+    <t>237681437226</t>
+  </si>
+  <si>
+    <t>237671103862</t>
+  </si>
+  <si>
+    <t>237682737446</t>
+  </si>
+  <si>
+    <t>237672518238</t>
+  </si>
+  <si>
+    <t>237683747233</t>
+  </si>
+  <si>
+    <t>237652356041</t>
+  </si>
+  <si>
+    <t>237651269441</t>
+  </si>
+  <si>
+    <t>237675443028</t>
+  </si>
+  <si>
+    <t>237682830237</t>
+  </si>
+  <si>
+    <t>237673492083</t>
+  </si>
+  <si>
+    <t>237675736065</t>
+  </si>
+  <si>
+    <t>237681628885</t>
+  </si>
+  <si>
+    <t>237652397401</t>
+  </si>
+  <si>
+    <t>237674851616</t>
+  </si>
+  <si>
+    <t>237651489749</t>
+  </si>
+  <si>
+    <t>237652450669</t>
+  </si>
+  <si>
+    <t>237681592880</t>
+  </si>
+  <si>
+    <t>237679193123</t>
+  </si>
+  <si>
+    <t>237652495206</t>
+  </si>
+  <si>
+    <t>237670523666</t>
+  </si>
+  <si>
+    <t>237681655980</t>
+  </si>
+  <si>
+    <t>237672154549</t>
+  </si>
+  <si>
+    <t>237679376263</t>
+  </si>
+  <si>
+    <t>237679957215</t>
+  </si>
+  <si>
+    <t>237654467825</t>
+  </si>
+  <si>
+    <t>237672258067</t>
+  </si>
+  <si>
+    <t>237670078170</t>
+  </si>
+  <si>
+    <t>237652667691</t>
+  </si>
+  <si>
+    <t>237650353920</t>
+  </si>
+  <si>
+    <t>237675278104</t>
+  </si>
+  <si>
+    <t>237680341979</t>
+  </si>
+  <si>
+    <t>237681808285</t>
+  </si>
+  <si>
+    <t>237674929348</t>
+  </si>
+  <si>
+    <t>237676573677</t>
+  </si>
+  <si>
+    <t>237681180496</t>
+  </si>
+  <si>
+    <t>237675616506</t>
+  </si>
+  <si>
+    <t>237675052218</t>
+  </si>
+  <si>
+    <t>237670424074</t>
+  </si>
+  <si>
+    <t>237671105116</t>
+  </si>
+  <si>
+    <t>237671823950</t>
+  </si>
+  <si>
+    <t>237652893775</t>
+  </si>
+  <si>
+    <t>237677159997</t>
+  </si>
+  <si>
+    <t>237680292688</t>
+  </si>
+  <si>
+    <t>237673920651</t>
+  </si>
+  <si>
+    <t>237651647866</t>
+  </si>
+  <si>
+    <t>237681248820</t>
+  </si>
+  <si>
+    <t>237670390729</t>
+  </si>
+  <si>
+    <t>237679548340</t>
+  </si>
+  <si>
+    <t>237672897022</t>
+  </si>
+  <si>
+    <t>237681682019</t>
+  </si>
+  <si>
+    <t>237676147964</t>
+  </si>
+  <si>
+    <t>237683786641</t>
+  </si>
+  <si>
+    <t>237679062282</t>
+  </si>
+  <si>
+    <t>237683680185</t>
+  </si>
+  <si>
+    <t>237675843380</t>
+  </si>
+  <si>
+    <t>237674910909</t>
+  </si>
+  <si>
+    <t>237679097714</t>
+  </si>
+  <si>
+    <t>237676575053</t>
+  </si>
+  <si>
+    <t>237683397656</t>
+  </si>
+  <si>
+    <t>237675876514</t>
+  </si>
+  <si>
+    <t>237650515845</t>
+  </si>
+  <si>
+    <t>237675962616</t>
+  </si>
+  <si>
+    <t>237653881573</t>
+  </si>
+  <si>
+    <t>237683254058</t>
+  </si>
+  <si>
+    <t>237651707508</t>
+  </si>
+  <si>
+    <t>237676081704</t>
+  </si>
+  <si>
+    <t>237682433367</t>
+  </si>
+  <si>
+    <t>237673144978</t>
+  </si>
+  <si>
+    <t>237674957154</t>
+  </si>
+  <si>
+    <t>237679098483</t>
+  </si>
+  <si>
+    <t>237675319525</t>
+  </si>
+  <si>
+    <t>237678530662</t>
+  </si>
+  <si>
     <t>MFS ENTREE COLLEGE MALANGUE</t>
   </si>
   <si>
@@ -1709,6 +2183,243 @@
   </si>
   <si>
     <t>DYLAN KEPSEU SIME</t>
+  </si>
+  <si>
+    <t>AUGUSTINE NGO BAYOI</t>
+  </si>
+  <si>
+    <t>YOUNGESTGEXCHANGE LTD 2</t>
+  </si>
+  <si>
+    <t>SALES BIADI</t>
+  </si>
+  <si>
+    <t>BIANCA YONGYEH WIRMVEM</t>
+  </si>
+  <si>
+    <t>LOVELINE BENUE</t>
+  </si>
+  <si>
+    <t>NGASSA EPSE TAYO MAJOLIE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 NDOUNG GUY PATRICK</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL ESSOMBA ESSOMBA ANATOLE</t>
+  </si>
+  <si>
+    <t>MFS SIM PROVISOIRE 42</t>
+  </si>
+  <si>
+    <t>SOCIETE SYSTEME DES TECHNOLOGIES AVANCEES SARL</t>
+  </si>
+  <si>
+    <t>YEMELI FOPA UBREL SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>MEZADIE MEDONGUEU TENANDJIO EPSE NGUEDIA DIANE FLORE CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>SIMON PIERRE SAMINGUE MABVAA</t>
+  </si>
+  <si>
+    <t>ZACK DANIEL HOUNDJA NOUNDOU</t>
+  </si>
+  <si>
+    <t>LYSETTE LEONELLE  S NGUENA</t>
+  </si>
+  <si>
+    <t>CHAKOUNTE JUNIE CARELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MALAMA SIMON ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NJANPO FONE EPS YIMCHE EULALIE ETS REINE PHONE</t>
+  </si>
+  <si>
+    <t>maga josephine therese ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL TCHATCHOUANG BRICE DUPLEX</t>
+  </si>
+  <si>
+    <t>SPECTRUM LTDLA_CBOX_R9_TCHITGNIA CLARISSE</t>
+  </si>
+  <si>
+    <t>NONGMEGNI EPSE JONGO DOROTHEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ENONGENE MBULLE TRINEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TOP MOBIL TELECOM DIALLO MAMADOU CHERIF</t>
+  </si>
+  <si>
+    <t>AROLD TAFAM TCHINDA</t>
+  </si>
+  <si>
+    <t>CLINTON CHO</t>
+  </si>
+  <si>
+    <t>THERESE GERALDINE BALOUEK</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS SIMO NUEME</t>
+  </si>
+  <si>
+    <t>FOUEJIO GOUFAK EPOUSE KENNE ABIGAIL SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>SOCIETE 2CKA SARL</t>
+  </si>
+  <si>
+    <t>JEAN MARIUS NGOUEM</t>
+  </si>
+  <si>
+    <t>MFS AGENCE NDOGBONG 2</t>
+  </si>
+  <si>
+    <t>TEGUEM KENMEUGNE LACAINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MARIA NGO KAMEN</t>
+  </si>
+  <si>
+    <t>MAPI TAKIAN LIVINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE PK8 LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>BLANCHE HELENE SIEWEN TCHUITCHEU EPSE TCHIEUMENI</t>
+  </si>
+  <si>
+    <t>AUGUSTIN FOGANG NEGOU</t>
+  </si>
+  <si>
+    <t>GLORY SHIMINYI</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 NGNIPAHO MARIE CHANTAL</t>
+  </si>
+  <si>
+    <t>MALON DILLAH TINODJIEL</t>
+  </si>
+  <si>
+    <t>MARIE MICHELLE KOUNDEM</t>
+  </si>
+  <si>
+    <t>YVELINE DJIATSA EPSE NANFAH</t>
+  </si>
+  <si>
+    <t>TEM MABEL NNAM SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+  </si>
+  <si>
+    <t>FOTOU TAFADJI FRANCOIS ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MATHURIN TCHUMTCHOUA</t>
+  </si>
+  <si>
+    <t>MFS KENFACK HOSTANTINE</t>
+  </si>
+  <si>
+    <t>DIVINE VENYURES FOMONYUY LTD</t>
+  </si>
+  <si>
+    <t>ROSE CARINE MISSOUA EPSE DOUMBE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL YOUMOUNPAYI FADILETOU</t>
+  </si>
+  <si>
+    <t>Tchotchedjo Talla Mathieu Clovis LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>SUZANNE NGO MANDENG</t>
+  </si>
+  <si>
+    <t>APPOLINE CLAUDE ANGOTCHOU</t>
+  </si>
+  <si>
+    <t>BIYOKONG NGOLLONG ALEXANDRE STYLE. COM</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 DJUIDJE JUDITH</t>
+  </si>
+  <si>
+    <t>SINTIA MARQUISE TCHIEGOM TCHIAPI</t>
+  </si>
+  <si>
+    <t>SEARCH NCHUMENU TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>EDITH FLORE TCHOUGUEU SEUGA EPSE KAMTCHOUM</t>
+  </si>
+  <si>
+    <t>EMMACULATE EZINWANNE AGWUNEDU SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>NEGRESSE DAKAR 1</t>
+  </si>
+  <si>
+    <t>elodie tchinda douanla</t>
+  </si>
+  <si>
+    <t>LESLINE SELATSA GOUEMETA</t>
+  </si>
+  <si>
+    <t>MARIE MADELEINE YANKOUA</t>
+  </si>
+  <si>
+    <t>ENOW BRIAN ESSIME ALBARKA GN SARL</t>
+  </si>
+  <si>
+    <t>MFS LTDLA-BRAND-NDAH NDEKOU IDE</t>
+  </si>
+  <si>
+    <t>KWAMEGNE LANGO ANNE MARIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>SORELLE DOUANLA KENNE</t>
+  </si>
+  <si>
+    <t>TCHOUMI PELAGIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 NOUMBISSI MARINA CAROLE</t>
+  </si>
+  <si>
+    <t>MFS TONNANG DONFACK SYLVIE MIMIE</t>
+  </si>
+  <si>
+    <t>YATTARA BOUCARY ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NOUMEDEM NGUELEFACK CARINE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL DIALLO MAMADOU LAMARANA</t>
+  </si>
+  <si>
+    <t>VICTORINE KAGMENI</t>
+  </si>
+  <si>
+    <t>CAROLINE TSOPOU KOUCHE</t>
+  </si>
+  <si>
+    <t>KAMILAH CONNECTION COMPANY 2616</t>
+  </si>
+  <si>
+    <t>GIRESSE THIBAUT MASSONG</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2091,10 +2802,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>536</v>
       </c>
       <c r="D2">
         <v>30095</v>
@@ -2105,10 +2816,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>379</v>
+        <v>537</v>
       </c>
       <c r="D3">
         <v>36595</v>
@@ -2119,10 +2830,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>538</v>
       </c>
       <c r="D4">
         <v>1042551</v>
@@ -2133,10 +2844,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>381</v>
+        <v>539</v>
       </c>
       <c r="D5">
         <v>12973</v>
@@ -2147,10 +2858,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>382</v>
+        <v>540</v>
       </c>
       <c r="D6">
         <v>878</v>
@@ -2161,10 +2872,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>541</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -2175,10 +2886,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>542</v>
       </c>
       <c r="D8">
         <v>215254</v>
@@ -2189,10 +2900,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>543</v>
       </c>
       <c r="D9">
         <v>190023</v>
@@ -2203,10 +2914,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>544</v>
       </c>
       <c r="D10">
         <v>6498</v>
@@ -2217,10 +2928,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>545</v>
       </c>
       <c r="D11">
         <v>98844</v>
@@ -2231,10 +2942,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>546</v>
       </c>
       <c r="D12">
         <v>86556</v>
@@ -2245,10 +2956,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>547</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -2259,10 +2970,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>548</v>
       </c>
       <c r="D14">
         <v>9594</v>
@@ -2273,10 +2984,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>391</v>
+        <v>549</v>
       </c>
       <c r="D15">
         <v>262</v>
@@ -2287,10 +2998,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>550</v>
       </c>
       <c r="D16">
         <v>517168</v>
@@ -2301,10 +3012,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>393</v>
+        <v>551</v>
       </c>
       <c r="D17">
         <v>96868</v>
@@ -2315,10 +3026,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
       <c r="D18">
         <v>109492</v>
@@ -2329,10 +3040,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="C19" t="s">
-        <v>395</v>
+        <v>553</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -2343,10 +3054,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="C20" t="s">
-        <v>396</v>
+        <v>554</v>
       </c>
       <c r="D20">
         <v>44076</v>
@@ -2357,10 +3068,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="C21" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="D21">
         <v>21000</v>
@@ -2371,10 +3082,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>556</v>
       </c>
       <c r="D22">
         <v>94556</v>
@@ -2385,10 +3096,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="C23" t="s">
-        <v>399</v>
+        <v>557</v>
       </c>
       <c r="D23">
         <v>5345</v>
@@ -2399,10 +3110,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="C24" t="s">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="D24">
         <v>8858</v>
@@ -2413,10 +3124,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>559</v>
       </c>
       <c r="D25">
         <v>264112</v>
@@ -2427,10 +3138,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
+        <v>560</v>
       </c>
       <c r="D26">
         <v>55699</v>
@@ -2441,10 +3152,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="C27" t="s">
-        <v>403</v>
+        <v>561</v>
       </c>
       <c r="D27">
         <v>56245</v>
@@ -2455,10 +3166,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="C28" t="s">
-        <v>404</v>
+        <v>562</v>
       </c>
       <c r="D28">
         <v>4751</v>
@@ -2469,10 +3180,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="C29" t="s">
-        <v>405</v>
+        <v>563</v>
       </c>
       <c r="D29">
         <v>1873</v>
@@ -2483,10 +3194,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="C30" t="s">
-        <v>406</v>
+        <v>564</v>
       </c>
       <c r="D30">
         <v>333218</v>
@@ -2497,10 +3208,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="C31" t="s">
-        <v>407</v>
+        <v>565</v>
       </c>
       <c r="D31">
         <v>6385129</v>
@@ -2511,10 +3222,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="C32" t="s">
-        <v>408</v>
+        <v>566</v>
       </c>
       <c r="D32">
         <v>13377</v>
@@ -2525,10 +3236,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="C33" t="s">
-        <v>409</v>
+        <v>567</v>
       </c>
       <c r="D33">
         <v>6729</v>
@@ -2539,10 +3250,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="C34" t="s">
-        <v>410</v>
+        <v>568</v>
       </c>
       <c r="D34">
         <v>864</v>
@@ -2553,10 +3264,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="C35" t="s">
-        <v>411</v>
+        <v>569</v>
       </c>
       <c r="D35">
         <v>472353</v>
@@ -2567,10 +3278,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>570</v>
       </c>
       <c r="D36">
         <v>23</v>
@@ -2581,10 +3292,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>571</v>
       </c>
       <c r="D37">
         <v>24386</v>
@@ -2595,10 +3306,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="C38" t="s">
-        <v>414</v>
+        <v>572</v>
       </c>
       <c r="D38">
         <v>44600</v>
@@ -2609,10 +3320,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
       <c r="C39" t="s">
-        <v>415</v>
+        <v>573</v>
       </c>
       <c r="D39">
         <v>2042</v>
@@ -2623,10 +3334,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s">
-        <v>416</v>
+        <v>574</v>
       </c>
       <c r="D40">
         <v>109659</v>
@@ -2637,10 +3348,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="C41" t="s">
-        <v>417</v>
+        <v>575</v>
       </c>
       <c r="D41">
         <v>2977</v>
@@ -2651,10 +3362,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="C42" t="s">
-        <v>418</v>
+        <v>576</v>
       </c>
       <c r="D42">
         <v>843587</v>
@@ -2665,10 +3376,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="C43" t="s">
-        <v>419</v>
+        <v>577</v>
       </c>
       <c r="D43">
         <v>206473</v>
@@ -2679,10 +3390,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
+        <v>578</v>
       </c>
       <c r="D44">
         <v>13531</v>
@@ -2693,10 +3404,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="C45" t="s">
-        <v>421</v>
+        <v>579</v>
       </c>
       <c r="D45">
         <v>79737</v>
@@ -2707,10 +3418,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
+        <v>580</v>
       </c>
       <c r="D46">
         <v>11434</v>
@@ -2721,10 +3432,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="C47" t="s">
-        <v>423</v>
+        <v>581</v>
       </c>
       <c r="D47">
         <v>501</v>
@@ -2735,10 +3446,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="C48" t="s">
-        <v>424</v>
+        <v>582</v>
       </c>
       <c r="D48">
         <v>380</v>
@@ -2749,10 +3460,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="C49" t="s">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="D49">
         <v>43362</v>
@@ -2763,10 +3474,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="C50" t="s">
-        <v>426</v>
+        <v>584</v>
       </c>
       <c r="D50">
         <v>708340</v>
@@ -2777,10 +3488,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
       <c r="C51" t="s">
-        <v>427</v>
+        <v>585</v>
       </c>
       <c r="D51">
         <v>3593</v>
@@ -2791,10 +3502,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="C52" t="s">
-        <v>428</v>
+        <v>586</v>
       </c>
       <c r="D52">
         <v>1879475</v>
@@ -2805,10 +3516,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="C53" t="s">
-        <v>429</v>
+        <v>587</v>
       </c>
       <c r="D53">
         <v>3784</v>
@@ -2819,10 +3530,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="C54" t="s">
-        <v>430</v>
+        <v>588</v>
       </c>
       <c r="D54">
         <v>70172</v>
@@ -2833,10 +3544,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="C55" t="s">
-        <v>431</v>
+        <v>589</v>
       </c>
       <c r="D55">
         <v>148</v>
@@ -2847,10 +3558,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="C56" t="s">
-        <v>432</v>
+        <v>590</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2861,10 +3572,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="C57" t="s">
-        <v>433</v>
+        <v>591</v>
       </c>
       <c r="D57">
         <v>97484</v>
@@ -2875,10 +3586,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="C58" t="s">
-        <v>434</v>
+        <v>592</v>
       </c>
       <c r="D58">
         <v>7927</v>
@@ -2889,10 +3600,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C59" t="s">
-        <v>435</v>
+        <v>593</v>
       </c>
       <c r="D59">
         <v>61762</v>
@@ -2903,10 +3614,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="C60" t="s">
-        <v>436</v>
+        <v>594</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -2917,10 +3628,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="C61" t="s">
-        <v>437</v>
+        <v>595</v>
       </c>
       <c r="D61">
         <v>12292</v>
@@ -2931,10 +3642,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
       <c r="C62" t="s">
-        <v>438</v>
+        <v>596</v>
       </c>
       <c r="D62">
         <v>366231</v>
@@ -2945,10 +3656,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="C63" t="s">
-        <v>439</v>
+        <v>597</v>
       </c>
       <c r="D63">
         <v>20358</v>
@@ -2959,10 +3670,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="C64" t="s">
-        <v>440</v>
+        <v>598</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -2973,10 +3684,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>254</v>
+        <v>333</v>
       </c>
       <c r="C65" t="s">
-        <v>441</v>
+        <v>599</v>
       </c>
       <c r="D65">
         <v>29507</v>
@@ -2987,10 +3698,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="C66" t="s">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="D66">
         <v>71538</v>
@@ -3001,10 +3712,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="C67" t="s">
-        <v>443</v>
+        <v>601</v>
       </c>
       <c r="D67">
         <v>438901</v>
@@ -3015,10 +3726,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C68" t="s">
-        <v>444</v>
+        <v>602</v>
       </c>
       <c r="D68">
         <v>15525</v>
@@ -3029,10 +3740,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="C69" t="s">
-        <v>445</v>
+        <v>603</v>
       </c>
       <c r="D69">
         <v>792132</v>
@@ -3043,10 +3754,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="C70" t="s">
-        <v>446</v>
+        <v>604</v>
       </c>
       <c r="D70">
         <v>524523</v>
@@ -3057,10 +3768,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
       <c r="C71" t="s">
-        <v>447</v>
+        <v>605</v>
       </c>
       <c r="D71">
         <v>866</v>
@@ -3071,10 +3782,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="C72" t="s">
-        <v>448</v>
+        <v>606</v>
       </c>
       <c r="D72">
         <v>101711</v>
@@ -3085,10 +3796,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="C73" t="s">
-        <v>449</v>
+        <v>607</v>
       </c>
       <c r="D73">
         <v>6178</v>
@@ -3099,10 +3810,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="C74" t="s">
-        <v>450</v>
+        <v>608</v>
       </c>
       <c r="D74">
         <v>1269273</v>
@@ -3113,10 +3824,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="C75" t="s">
-        <v>451</v>
+        <v>609</v>
       </c>
       <c r="D75">
         <v>20668</v>
@@ -3127,10 +3838,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="C76" t="s">
-        <v>452</v>
+        <v>610</v>
       </c>
       <c r="D76">
         <v>40652</v>
@@ -3141,10 +3852,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="C77" t="s">
-        <v>453</v>
+        <v>611</v>
       </c>
       <c r="D77">
         <v>21475</v>
@@ -3155,10 +3866,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="C78" t="s">
-        <v>454</v>
+        <v>612</v>
       </c>
       <c r="D78">
         <v>5015499</v>
@@ -3169,10 +3880,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
       <c r="C79" t="s">
-        <v>455</v>
+        <v>613</v>
       </c>
       <c r="D79">
         <v>4249</v>
@@ -3183,10 +3894,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="C80" t="s">
-        <v>456</v>
+        <v>614</v>
       </c>
       <c r="D80">
         <v>462</v>
@@ -3197,10 +3908,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="C81" t="s">
-        <v>457</v>
+        <v>615</v>
       </c>
       <c r="D81">
         <v>3510</v>
@@ -3211,10 +3922,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="C82" t="s">
-        <v>458</v>
+        <v>616</v>
       </c>
       <c r="D82">
         <v>3076</v>
@@ -3225,10 +3936,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="C83" t="s">
-        <v>459</v>
+        <v>617</v>
       </c>
       <c r="D83">
         <v>5861</v>
@@ -3239,10 +3950,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="C84" t="s">
-        <v>460</v>
+        <v>618</v>
       </c>
       <c r="D84">
         <v>221</v>
@@ -3253,10 +3964,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="C85" t="s">
-        <v>461</v>
+        <v>619</v>
       </c>
       <c r="D85">
         <v>63743</v>
@@ -3267,10 +3978,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="C86" t="s">
-        <v>462</v>
+        <v>620</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3281,10 +3992,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="C87" t="s">
-        <v>463</v>
+        <v>621</v>
       </c>
       <c r="D87">
         <v>36813</v>
@@ -3295,10 +4006,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="C88" t="s">
-        <v>464</v>
+        <v>622</v>
       </c>
       <c r="D88">
         <v>513</v>
@@ -3309,10 +4020,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="C89" t="s">
-        <v>465</v>
+        <v>623</v>
       </c>
       <c r="D89">
         <v>80118</v>
@@ -3323,10 +4034,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="C90" t="s">
-        <v>466</v>
+        <v>624</v>
       </c>
       <c r="D90">
         <v>2940201</v>
@@ -3337,10 +4048,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="C91" t="s">
-        <v>467</v>
+        <v>625</v>
       </c>
       <c r="D91">
         <v>2339</v>
@@ -3351,10 +4062,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="C92" t="s">
-        <v>468</v>
+        <v>626</v>
       </c>
       <c r="D92">
         <v>4075</v>
@@ -3365,10 +4076,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="C93" t="s">
-        <v>469</v>
+        <v>627</v>
       </c>
       <c r="D93">
         <v>1013</v>
@@ -3379,10 +4090,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
       <c r="C94" t="s">
-        <v>470</v>
+        <v>628</v>
       </c>
       <c r="D94">
         <v>68166</v>
@@ -3393,10 +4104,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="C95" t="s">
-        <v>471</v>
+        <v>629</v>
       </c>
       <c r="D95">
         <v>1288</v>
@@ -3407,10 +4118,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="C96" t="s">
-        <v>472</v>
+        <v>630</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3421,10 +4132,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="C97" t="s">
-        <v>473</v>
+        <v>631</v>
       </c>
       <c r="D97">
         <v>59398</v>
@@ -3435,10 +4146,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="C98" t="s">
-        <v>474</v>
+        <v>632</v>
       </c>
       <c r="D98">
         <v>7418</v>
@@ -3449,10 +4160,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="C99" t="s">
-        <v>475</v>
+        <v>633</v>
       </c>
       <c r="D99">
         <v>38799</v>
@@ -3463,10 +4174,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="C100" t="s">
-        <v>476</v>
+        <v>634</v>
       </c>
       <c r="D100">
         <v>446015</v>
@@ -3477,10 +4188,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="C101" t="s">
-        <v>477</v>
+        <v>635</v>
       </c>
       <c r="D101">
         <v>32</v>
@@ -3491,10 +4202,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="C102" t="s">
-        <v>478</v>
+        <v>636</v>
       </c>
       <c r="D102">
         <v>70556</v>
@@ -3505,10 +4216,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="C103" t="s">
-        <v>479</v>
+        <v>637</v>
       </c>
       <c r="D103">
         <v>290990</v>
@@ -3519,10 +4230,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="C104" t="s">
-        <v>480</v>
+        <v>638</v>
       </c>
       <c r="D104">
         <v>24133</v>
@@ -3533,10 +4244,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="C105" t="s">
-        <v>481</v>
+        <v>639</v>
       </c>
       <c r="D105">
         <v>7991</v>
@@ -3547,10 +4258,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="C106" t="s">
-        <v>482</v>
+        <v>640</v>
       </c>
       <c r="D106">
         <v>54595</v>
@@ -3561,10 +4272,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="C107" t="s">
-        <v>483</v>
+        <v>641</v>
       </c>
       <c r="D107">
         <v>23</v>
@@ -3575,10 +4286,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="C108" t="s">
-        <v>484</v>
+        <v>642</v>
       </c>
       <c r="D108">
         <v>6025929</v>
@@ -3589,10 +4300,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="C109" t="s">
-        <v>485</v>
+        <v>643</v>
       </c>
       <c r="D109">
         <v>17416</v>
@@ -3603,10 +4314,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="C110" t="s">
-        <v>486</v>
+        <v>644</v>
       </c>
       <c r="D110">
         <v>59923</v>
@@ -3617,10 +4328,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="C111" t="s">
-        <v>487</v>
+        <v>645</v>
       </c>
       <c r="D111">
         <v>9700</v>
@@ -3631,10 +4342,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="C112" t="s">
-        <v>488</v>
+        <v>646</v>
       </c>
       <c r="D112">
         <v>668234</v>
@@ -3645,10 +4356,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
       <c r="C113" t="s">
-        <v>489</v>
+        <v>647</v>
       </c>
       <c r="D113">
         <v>141</v>
@@ -3659,10 +4370,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="C114" t="s">
-        <v>490</v>
+        <v>648</v>
       </c>
       <c r="D114">
         <v>134935</v>
@@ -3673,10 +4384,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="C115" t="s">
-        <v>491</v>
+        <v>649</v>
       </c>
       <c r="D115">
         <v>11600</v>
@@ -3687,10 +4398,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="C116" t="s">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -3701,10 +4412,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="C117" t="s">
-        <v>493</v>
+        <v>651</v>
       </c>
       <c r="D117">
         <v>500214</v>
@@ -3715,10 +4426,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="C118" t="s">
-        <v>494</v>
+        <v>652</v>
       </c>
       <c r="D118">
         <v>179255</v>
@@ -3729,10 +4440,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="C119" t="s">
-        <v>495</v>
+        <v>653</v>
       </c>
       <c r="D119">
         <v>616178</v>
@@ -3743,10 +4454,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="C120" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -3757,10 +4468,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="C121" t="s">
-        <v>497</v>
+        <v>655</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -3771,10 +4482,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="C122" t="s">
-        <v>498</v>
+        <v>656</v>
       </c>
       <c r="D122">
         <v>948473</v>
@@ -3785,10 +4496,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="C123" t="s">
-        <v>499</v>
+        <v>657</v>
       </c>
       <c r="D123">
         <v>141336</v>
@@ -3799,10 +4510,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="C124" t="s">
-        <v>500</v>
+        <v>658</v>
       </c>
       <c r="D124">
         <v>31942</v>
@@ -3813,10 +4524,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="C125" t="s">
-        <v>501</v>
+        <v>659</v>
       </c>
       <c r="D125">
         <v>126700</v>
@@ -3827,10 +4538,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="C126" t="s">
-        <v>502</v>
+        <v>660</v>
       </c>
       <c r="D126">
         <v>7184</v>
@@ -3841,10 +4552,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
       <c r="C127" t="s">
-        <v>503</v>
+        <v>661</v>
       </c>
       <c r="D127">
         <v>62509</v>
@@ -3855,10 +4566,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="C128" t="s">
-        <v>504</v>
+        <v>662</v>
       </c>
       <c r="D128">
         <v>10441</v>
@@ -3869,10 +4580,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="C129" t="s">
-        <v>505</v>
+        <v>663</v>
       </c>
       <c r="D129">
         <v>2922</v>
@@ -3883,10 +4594,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="C130" t="s">
-        <v>506</v>
+        <v>664</v>
       </c>
       <c r="D130">
         <v>108036</v>
@@ -3897,10 +4608,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="C131" t="s">
-        <v>507</v>
+        <v>665</v>
       </c>
       <c r="D131">
         <v>14</v>
@@ -3911,10 +4622,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="C132" t="s">
-        <v>508</v>
+        <v>666</v>
       </c>
       <c r="D132">
         <v>271853</v>
@@ -3925,10 +4636,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="C133" t="s">
-        <v>509</v>
+        <v>667</v>
       </c>
       <c r="D133">
         <v>900184</v>
@@ -3939,10 +4650,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="C134" t="s">
-        <v>510</v>
+        <v>668</v>
       </c>
       <c r="D134">
         <v>6534</v>
@@ -3953,10 +4664,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="C135" t="s">
-        <v>511</v>
+        <v>669</v>
       </c>
       <c r="D135">
         <v>212127</v>
@@ -3967,10 +4678,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="C136" t="s">
-        <v>512</v>
+        <v>670</v>
       </c>
       <c r="D136">
         <v>20562</v>
@@ -3981,10 +4692,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="C137" t="s">
-        <v>513</v>
+        <v>671</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -3995,10 +4706,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
       <c r="C138" t="s">
-        <v>514</v>
+        <v>672</v>
       </c>
       <c r="D138">
         <v>66242</v>
@@ -4009,10 +4720,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="C139" t="s">
-        <v>515</v>
+        <v>673</v>
       </c>
       <c r="D139">
         <v>237616</v>
@@ -4023,10 +4734,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="C140" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="D140">
         <v>986</v>
@@ -4037,10 +4748,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="C141" t="s">
-        <v>517</v>
+        <v>675</v>
       </c>
       <c r="D141">
         <v>525</v>
@@ -4051,10 +4762,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="C142" t="s">
-        <v>518</v>
+        <v>676</v>
       </c>
       <c r="D142">
         <v>192476</v>
@@ -4065,10 +4776,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="C143" t="s">
-        <v>519</v>
+        <v>677</v>
       </c>
       <c r="D143">
         <v>2179</v>
@@ -4079,10 +4790,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="C144" t="s">
-        <v>520</v>
+        <v>678</v>
       </c>
       <c r="D144">
         <v>23601</v>
@@ -4093,10 +4804,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="C145" t="s">
-        <v>521</v>
+        <v>679</v>
       </c>
       <c r="D145">
         <v>2279</v>
@@ -4107,10 +4818,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="C146" t="s">
-        <v>522</v>
+        <v>680</v>
       </c>
       <c r="D146">
         <v>35332</v>
@@ -4121,10 +4832,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="C147" t="s">
-        <v>523</v>
+        <v>681</v>
       </c>
       <c r="D147">
         <v>224</v>
@@ -4135,10 +4846,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="C148" t="s">
-        <v>524</v>
+        <v>682</v>
       </c>
       <c r="D148">
         <v>135162</v>
@@ -4149,10 +4860,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="C149" t="s">
-        <v>525</v>
+        <v>683</v>
       </c>
       <c r="D149">
         <v>2818</v>
@@ -4163,10 +4874,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="C150" t="s">
-        <v>526</v>
+        <v>684</v>
       </c>
       <c r="D150">
         <v>6792</v>
@@ -4177,10 +4888,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="C151" t="s">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="D151">
         <v>23538</v>
@@ -4191,10 +4902,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="C152" t="s">
-        <v>528</v>
+        <v>686</v>
       </c>
       <c r="D152">
         <v>2635</v>
@@ -4205,10 +4916,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="C153" t="s">
-        <v>529</v>
+        <v>687</v>
       </c>
       <c r="D153">
         <v>3020</v>
@@ -4219,10 +4930,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="C154" t="s">
-        <v>530</v>
+        <v>688</v>
       </c>
       <c r="D154">
         <v>85937</v>
@@ -4233,10 +4944,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="C155" t="s">
-        <v>531</v>
+        <v>689</v>
       </c>
       <c r="D155">
         <v>1106</v>
@@ -4247,10 +4958,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="C156" t="s">
-        <v>532</v>
+        <v>690</v>
       </c>
       <c r="D156">
         <v>288689</v>
@@ -4261,10 +4972,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="C157" t="s">
-        <v>533</v>
+        <v>691</v>
       </c>
       <c r="D157">
         <v>23936</v>
@@ -4275,10 +4986,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="C158" t="s">
-        <v>534</v>
+        <v>692</v>
       </c>
       <c r="D158">
         <v>7901748</v>
@@ -4289,10 +5000,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="C159" t="s">
-        <v>535</v>
+        <v>693</v>
       </c>
       <c r="D159">
         <v>4701</v>
@@ -4303,10 +5014,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="C160" t="s">
-        <v>536</v>
+        <v>694</v>
       </c>
       <c r="D160">
         <v>63814</v>
@@ -4317,10 +5028,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="C161" t="s">
-        <v>537</v>
+        <v>695</v>
       </c>
       <c r="D161">
         <v>432</v>
@@ -4331,10 +5042,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
       <c r="C162" t="s">
-        <v>538</v>
+        <v>696</v>
       </c>
       <c r="D162">
         <v>335842</v>
@@ -4345,10 +5056,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="C163" t="s">
-        <v>539</v>
+        <v>697</v>
       </c>
       <c r="D163">
         <v>14511</v>
@@ -4359,10 +5070,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="C164" t="s">
-        <v>540</v>
+        <v>698</v>
       </c>
       <c r="D164">
         <v>29941</v>
@@ -4373,10 +5084,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="C165" t="s">
-        <v>541</v>
+        <v>699</v>
       </c>
       <c r="D165">
         <v>4082</v>
@@ -4387,10 +5098,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="C166" t="s">
-        <v>542</v>
+        <v>700</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -4401,10 +5112,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="C167" t="s">
-        <v>543</v>
+        <v>701</v>
       </c>
       <c r="D167">
         <v>540</v>
@@ -4415,10 +5126,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="C168" t="s">
-        <v>544</v>
+        <v>702</v>
       </c>
       <c r="D168">
         <v>43657</v>
@@ -4429,10 +5140,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="C169" t="s">
-        <v>545</v>
+        <v>703</v>
       </c>
       <c r="D169">
         <v>105101</v>
@@ -4443,10 +5154,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="C170" t="s">
-        <v>546</v>
+        <v>704</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -4457,10 +5168,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="C171" t="s">
-        <v>547</v>
+        <v>705</v>
       </c>
       <c r="D171">
         <v>808</v>
@@ -4471,10 +5182,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="C172" t="s">
-        <v>548</v>
+        <v>706</v>
       </c>
       <c r="D172">
         <v>84819</v>
@@ -4485,10 +5196,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="C173" t="s">
-        <v>549</v>
+        <v>707</v>
       </c>
       <c r="D173">
         <v>186101</v>
@@ -4499,10 +5210,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="C174" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="D174">
         <v>87</v>
@@ -4513,10 +5224,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="C175" t="s">
-        <v>551</v>
+        <v>709</v>
       </c>
       <c r="D175">
         <v>45444</v>
@@ -4527,10 +5238,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="C176" t="s">
-        <v>552</v>
+        <v>710</v>
       </c>
       <c r="D176">
         <v>14176</v>
@@ -4541,10 +5252,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>366</v>
+        <v>445</v>
       </c>
       <c r="C177" t="s">
-        <v>553</v>
+        <v>711</v>
       </c>
       <c r="D177">
         <v>317960</v>
@@ -4555,10 +5266,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="C178" t="s">
-        <v>554</v>
+        <v>712</v>
       </c>
       <c r="D178">
         <v>6876</v>
@@ -4569,10 +5280,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="C179" t="s">
-        <v>555</v>
+        <v>713</v>
       </c>
       <c r="D179">
         <v>4750</v>
@@ -4583,10 +5294,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="C180" t="s">
-        <v>556</v>
+        <v>714</v>
       </c>
       <c r="D180">
         <v>7688</v>
@@ -4597,10 +5308,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="C181" t="s">
-        <v>557</v>
+        <v>715</v>
       </c>
       <c r="D181">
         <v>17160</v>
@@ -4611,10 +5322,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="C182" t="s">
-        <v>558</v>
+        <v>716</v>
       </c>
       <c r="D182">
         <v>360662</v>
@@ -4625,10 +5336,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="C183" t="s">
-        <v>559</v>
+        <v>717</v>
       </c>
       <c r="D183">
         <v>6316</v>
@@ -4639,10 +5350,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>373</v>
+        <v>452</v>
       </c>
       <c r="C184" t="s">
-        <v>560</v>
+        <v>718</v>
       </c>
       <c r="D184">
         <v>70</v>
@@ -4653,10 +5364,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="C185" t="s">
-        <v>561</v>
+        <v>719</v>
       </c>
       <c r="D185">
         <v>253822</v>
@@ -4667,10 +5378,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>375</v>
+        <v>454</v>
       </c>
       <c r="C186" t="s">
-        <v>562</v>
+        <v>720</v>
       </c>
       <c r="D186">
         <v>216137</v>
@@ -4681,10 +5392,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="C187" t="s">
-        <v>563</v>
+        <v>721</v>
       </c>
       <c r="D187">
         <v>6503</v>
@@ -4695,13 +5406,1119 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="C188" t="s">
-        <v>564</v>
+        <v>722</v>
       </c>
       <c r="D188">
         <v>817810</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>457</v>
+      </c>
+      <c r="C189" t="s">
+        <v>723</v>
+      </c>
+      <c r="D189">
+        <v>195618</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" t="s">
+        <v>458</v>
+      </c>
+      <c r="C190" t="s">
+        <v>724</v>
+      </c>
+      <c r="D190">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>459</v>
+      </c>
+      <c r="C191" t="s">
+        <v>725</v>
+      </c>
+      <c r="D191">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" t="s">
+        <v>460</v>
+      </c>
+      <c r="C192" t="s">
+        <v>726</v>
+      </c>
+      <c r="D192">
+        <v>86494</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>461</v>
+      </c>
+      <c r="C193" t="s">
+        <v>727</v>
+      </c>
+      <c r="D193">
+        <v>436320</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194" t="s">
+        <v>462</v>
+      </c>
+      <c r="C194" t="s">
+        <v>728</v>
+      </c>
+      <c r="D194">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>463</v>
+      </c>
+      <c r="C195" t="s">
+        <v>729</v>
+      </c>
+      <c r="D195">
+        <v>13179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" t="s">
+        <v>464</v>
+      </c>
+      <c r="C196" t="s">
+        <v>730</v>
+      </c>
+      <c r="D196">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>465</v>
+      </c>
+      <c r="C197" t="s">
+        <v>731</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" t="s">
+        <v>466</v>
+      </c>
+      <c r="C198" t="s">
+        <v>732</v>
+      </c>
+      <c r="D198">
+        <v>153051</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>467</v>
+      </c>
+      <c r="C199" t="s">
+        <v>733</v>
+      </c>
+      <c r="D199">
+        <v>531404</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" t="s">
+        <v>468</v>
+      </c>
+      <c r="C200" t="s">
+        <v>734</v>
+      </c>
+      <c r="D200">
+        <v>325532</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>469</v>
+      </c>
+      <c r="C201" t="s">
+        <v>735</v>
+      </c>
+      <c r="D201">
+        <v>449538</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" t="s">
+        <v>470</v>
+      </c>
+      <c r="C202" t="s">
+        <v>736</v>
+      </c>
+      <c r="D202">
+        <v>153083</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>471</v>
+      </c>
+      <c r="C203" t="s">
+        <v>737</v>
+      </c>
+      <c r="D203">
+        <v>20839</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" t="s">
+        <v>472</v>
+      </c>
+      <c r="C204" t="s">
+        <v>738</v>
+      </c>
+      <c r="D204">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>473</v>
+      </c>
+      <c r="C205" t="s">
+        <v>739</v>
+      </c>
+      <c r="D205">
+        <v>19506</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" t="s">
+        <v>474</v>
+      </c>
+      <c r="C206" t="s">
+        <v>740</v>
+      </c>
+      <c r="D206">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>475</v>
+      </c>
+      <c r="C207" t="s">
+        <v>741</v>
+      </c>
+      <c r="D207">
+        <v>69288</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" t="s">
+        <v>476</v>
+      </c>
+      <c r="C208" t="s">
+        <v>742</v>
+      </c>
+      <c r="D208">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>477</v>
+      </c>
+      <c r="C209" t="s">
+        <v>743</v>
+      </c>
+      <c r="D209">
+        <v>540607</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" t="s">
+        <v>478</v>
+      </c>
+      <c r="C210" t="s">
+        <v>744</v>
+      </c>
+      <c r="D210">
+        <v>559350</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>479</v>
+      </c>
+      <c r="C211" t="s">
+        <v>745</v>
+      </c>
+      <c r="D211">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212" t="s">
+        <v>480</v>
+      </c>
+      <c r="C212" t="s">
+        <v>746</v>
+      </c>
+      <c r="D212">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>481</v>
+      </c>
+      <c r="C213" t="s">
+        <v>747</v>
+      </c>
+      <c r="D213">
+        <v>25565</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214" t="s">
+        <v>482</v>
+      </c>
+      <c r="C214" t="s">
+        <v>748</v>
+      </c>
+      <c r="D214">
+        <v>12225</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>483</v>
+      </c>
+      <c r="C215" t="s">
+        <v>749</v>
+      </c>
+      <c r="D215">
+        <v>125425</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" t="s">
+        <v>484</v>
+      </c>
+      <c r="C216" t="s">
+        <v>750</v>
+      </c>
+      <c r="D216">
+        <v>10723</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>485</v>
+      </c>
+      <c r="C217" t="s">
+        <v>751</v>
+      </c>
+      <c r="D217">
+        <v>19453</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" t="s">
+        <v>486</v>
+      </c>
+      <c r="C218" t="s">
+        <v>752</v>
+      </c>
+      <c r="D218">
+        <v>692700</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>487</v>
+      </c>
+      <c r="C219" t="s">
+        <v>753</v>
+      </c>
+      <c r="D219">
+        <v>11814</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" t="s">
+        <v>488</v>
+      </c>
+      <c r="C220" t="s">
+        <v>754</v>
+      </c>
+      <c r="D220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>489</v>
+      </c>
+      <c r="C221" t="s">
+        <v>755</v>
+      </c>
+      <c r="D221">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222" t="s">
+        <v>490</v>
+      </c>
+      <c r="C222" t="s">
+        <v>756</v>
+      </c>
+      <c r="D222">
+        <v>10536</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>491</v>
+      </c>
+      <c r="C223" t="s">
+        <v>757</v>
+      </c>
+      <c r="D223">
+        <v>215252</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224" t="s">
+        <v>492</v>
+      </c>
+      <c r="C224" t="s">
+        <v>758</v>
+      </c>
+      <c r="D224">
+        <v>914871</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>493</v>
+      </c>
+      <c r="C225" t="s">
+        <v>759</v>
+      </c>
+      <c r="D225">
+        <v>595286</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" t="s">
+        <v>494</v>
+      </c>
+      <c r="C226" t="s">
+        <v>760</v>
+      </c>
+      <c r="D226">
+        <v>13136</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" t="s">
+        <v>495</v>
+      </c>
+      <c r="C227" t="s">
+        <v>761</v>
+      </c>
+      <c r="D227">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" t="s">
+        <v>496</v>
+      </c>
+      <c r="C228" t="s">
+        <v>762</v>
+      </c>
+      <c r="D228">
+        <v>143010</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" t="s">
+        <v>497</v>
+      </c>
+      <c r="C229" t="s">
+        <v>763</v>
+      </c>
+      <c r="D229">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" t="s">
+        <v>498</v>
+      </c>
+      <c r="C230" t="s">
+        <v>764</v>
+      </c>
+      <c r="D230">
+        <v>11176</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231" t="s">
+        <v>499</v>
+      </c>
+      <c r="C231" t="s">
+        <v>765</v>
+      </c>
+      <c r="D231">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" t="s">
+        <v>500</v>
+      </c>
+      <c r="C232" t="s">
+        <v>766</v>
+      </c>
+      <c r="D232">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" t="s">
+        <v>501</v>
+      </c>
+      <c r="C233" t="s">
+        <v>767</v>
+      </c>
+      <c r="D233">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" t="s">
+        <v>502</v>
+      </c>
+      <c r="C234" t="s">
+        <v>768</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" t="s">
+        <v>503</v>
+      </c>
+      <c r="C235" t="s">
+        <v>769</v>
+      </c>
+      <c r="D235">
+        <v>24589</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236" t="s">
+        <v>504</v>
+      </c>
+      <c r="C236" t="s">
+        <v>770</v>
+      </c>
+      <c r="D236">
+        <v>1212800</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237" t="s">
+        <v>505</v>
+      </c>
+      <c r="C237" t="s">
+        <v>771</v>
+      </c>
+      <c r="D237">
+        <v>264166</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238" t="s">
+        <v>506</v>
+      </c>
+      <c r="C238" t="s">
+        <v>772</v>
+      </c>
+      <c r="D238">
+        <v>4895863</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239" t="s">
+        <v>507</v>
+      </c>
+      <c r="C239" t="s">
+        <v>773</v>
+      </c>
+      <c r="D239">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" t="s">
+        <v>508</v>
+      </c>
+      <c r="C240" t="s">
+        <v>774</v>
+      </c>
+      <c r="D240">
+        <v>8963</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" t="s">
+        <v>509</v>
+      </c>
+      <c r="C241" t="s">
+        <v>775</v>
+      </c>
+      <c r="D241">
+        <v>763103</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242" t="s">
+        <v>510</v>
+      </c>
+      <c r="C242" t="s">
+        <v>776</v>
+      </c>
+      <c r="D242">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243" t="s">
+        <v>511</v>
+      </c>
+      <c r="C243" t="s">
+        <v>777</v>
+      </c>
+      <c r="D243">
+        <v>680405</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244" t="s">
+        <v>512</v>
+      </c>
+      <c r="C244" t="s">
+        <v>778</v>
+      </c>
+      <c r="D244">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>247</v>
+      </c>
+      <c r="B245" t="s">
+        <v>513</v>
+      </c>
+      <c r="C245" t="s">
+        <v>779</v>
+      </c>
+      <c r="D245">
+        <v>179802</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246" t="s">
+        <v>514</v>
+      </c>
+      <c r="C246" t="s">
+        <v>780</v>
+      </c>
+      <c r="D246">
+        <v>50393</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247" t="s">
+        <v>515</v>
+      </c>
+      <c r="C247" t="s">
+        <v>781</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248" t="s">
+        <v>516</v>
+      </c>
+      <c r="C248" t="s">
+        <v>782</v>
+      </c>
+      <c r="D248">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249" t="s">
+        <v>517</v>
+      </c>
+      <c r="C249" t="s">
+        <v>783</v>
+      </c>
+      <c r="D249">
+        <v>2573153</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250" t="s">
+        <v>518</v>
+      </c>
+      <c r="C250" t="s">
+        <v>784</v>
+      </c>
+      <c r="D250">
+        <v>173495</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251" t="s">
+        <v>519</v>
+      </c>
+      <c r="C251" t="s">
+        <v>785</v>
+      </c>
+      <c r="D251">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" t="s">
+        <v>520</v>
+      </c>
+      <c r="C252" t="s">
+        <v>786</v>
+      </c>
+      <c r="D252">
+        <v>485379</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253" t="s">
+        <v>521</v>
+      </c>
+      <c r="C253" t="s">
+        <v>787</v>
+      </c>
+      <c r="D253">
+        <v>331919</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254" t="s">
+        <v>522</v>
+      </c>
+      <c r="C254" t="s">
+        <v>788</v>
+      </c>
+      <c r="D254">
+        <v>1865848</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255" t="s">
+        <v>523</v>
+      </c>
+      <c r="C255" t="s">
+        <v>789</v>
+      </c>
+      <c r="D255">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256" t="s">
+        <v>524</v>
+      </c>
+      <c r="C256" t="s">
+        <v>790</v>
+      </c>
+      <c r="D256">
+        <v>32122</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257" t="s">
+        <v>525</v>
+      </c>
+      <c r="C257" t="s">
+        <v>791</v>
+      </c>
+      <c r="D257">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258" t="s">
+        <v>526</v>
+      </c>
+      <c r="C258" t="s">
+        <v>792</v>
+      </c>
+      <c r="D258">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259" t="s">
+        <v>527</v>
+      </c>
+      <c r="C259" t="s">
+        <v>793</v>
+      </c>
+      <c r="D259">
+        <v>670927</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" t="s">
+        <v>528</v>
+      </c>
+      <c r="C260" t="s">
+        <v>794</v>
+      </c>
+      <c r="D260">
+        <v>13137</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261" t="s">
+        <v>529</v>
+      </c>
+      <c r="C261" t="s">
+        <v>795</v>
+      </c>
+      <c r="D261">
+        <v>14209</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262" t="s">
+        <v>530</v>
+      </c>
+      <c r="C262" t="s">
+        <v>796</v>
+      </c>
+      <c r="D262">
+        <v>28342</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263" t="s">
+        <v>531</v>
+      </c>
+      <c r="C263" t="s">
+        <v>797</v>
+      </c>
+      <c r="D263">
+        <v>696637</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264" t="s">
+        <v>532</v>
+      </c>
+      <c r="C264" t="s">
+        <v>798</v>
+      </c>
+      <c r="D264">
+        <v>11723</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265" t="s">
+        <v>533</v>
+      </c>
+      <c r="C265" t="s">
+        <v>799</v>
+      </c>
+      <c r="D265">
+        <v>23642</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266" t="s">
+        <v>534</v>
+      </c>
+      <c r="C266" t="s">
+        <v>800</v>
+      </c>
+      <c r="D266">
+        <v>23034</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267" t="s">
+        <v>535</v>
+      </c>
+      <c r="C267" t="s">
+        <v>801</v>
+      </c>
+      <c r="D267">
+        <v>285699</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="1062">
   <si>
     <t>Date</t>
   </si>
@@ -826,6 +826,264 @@
     <t>2026-02-18 14:10:11</t>
   </si>
   <si>
+    <t>2026-02-16 11:12:23</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:38:22</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:42:20</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:32:36</t>
+  </si>
+  <si>
+    <t>2026-02-18 18:34:52</t>
+  </si>
+  <si>
+    <t>2026-02-15 23:50:42</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:32:13</t>
+  </si>
+  <si>
+    <t>2026-02-17 09:18:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:26:24</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:38:29</t>
+  </si>
+  <si>
+    <t>2026-02-18 03:41:19</t>
+  </si>
+  <si>
+    <t>2026-02-18 05:51:01</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:28:25</t>
+  </si>
+  <si>
+    <t>2026-02-18 18:01:24</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:57:10</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:24:26</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:09:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 20:25:26</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:17:14</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:37:13</t>
+  </si>
+  <si>
+    <t>2026-02-18 18:13:40</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:43:48</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:40:25</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:11:26</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:05:16</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:38:27</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:29:32</t>
+  </si>
+  <si>
+    <t>2026-02-18 09:52:13</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:01:21</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:56:41</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:43:04</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:12:02</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:18:48</t>
+  </si>
+  <si>
+    <t>2026-02-06 02:31:07</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:25:48</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:29:20</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:30:13</t>
+  </si>
+  <si>
+    <t>2026-02-07 15:11:27</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:24:10</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:42:04</t>
+  </si>
+  <si>
+    <t>2026-02-15 13:29:48</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:09:40</t>
+  </si>
+  <si>
+    <t>2026-02-18 08:24:44</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:27:35</t>
+  </si>
+  <si>
+    <t>2026-02-15 04:05:33</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:18:08</t>
+  </si>
+  <si>
+    <t>2026-02-17 03:50:19</t>
+  </si>
+  <si>
+    <t>2026-02-18 04:22:35</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:58:59</t>
+  </si>
+  <si>
+    <t>2026-02-18 07:32:04</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:13:43</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:58:15</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:43:03</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:50:42</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:57:07</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:19:07</t>
+  </si>
+  <si>
+    <t>2026-02-03 09:43:22</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:21:00</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:16:59</t>
+  </si>
+  <si>
+    <t>2026-02-11 08:25:49</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:06:28</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:33:24</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:34:43</t>
+  </si>
+  <si>
+    <t>2026-02-17 08:39:19</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:13:28</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:01:09</t>
+  </si>
+  <si>
+    <t>2026-02-11 05:23:43</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:49:10</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:05:49</t>
+  </si>
+  <si>
+    <t>2026-02-18 04:21:54</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:11:03</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:45:27</t>
+  </si>
+  <si>
+    <t>2026-02-17 06:16:12</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:16:03</t>
+  </si>
+  <si>
+    <t>2026-02-13 02:26:21</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:31:11</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:47:23</t>
+  </si>
+  <si>
+    <t>2026-02-17 17:06:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:31:41</t>
+  </si>
+  <si>
+    <t>2026-02-18 09:30:52</t>
+  </si>
+  <si>
+    <t>2026-02-17 16:21:19</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:28:49</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:14:13</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:24:01</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:27:36</t>
+  </si>
+  <si>
+    <t>2026-02-18 07:07:08</t>
+  </si>
+  <si>
     <t>237671823369</t>
   </si>
   <si>
@@ -1624,6 +1882,267 @@
     <t>237678530662</t>
   </si>
   <si>
+    <t>237676626715</t>
+  </si>
+  <si>
+    <t>237670731114</t>
+  </si>
+  <si>
+    <t>237670065829</t>
+  </si>
+  <si>
+    <t>237653475210</t>
+  </si>
+  <si>
+    <t>237675912206</t>
+  </si>
+  <si>
+    <t>237682909371</t>
+  </si>
+  <si>
+    <t>237682975726</t>
+  </si>
+  <si>
+    <t>237681679316</t>
+  </si>
+  <si>
+    <t>237681658403</t>
+  </si>
+  <si>
+    <t>237671811665</t>
+  </si>
+  <si>
+    <t>237683726650</t>
+  </si>
+  <si>
+    <t>237683356066</t>
+  </si>
+  <si>
+    <t>237679565856</t>
+  </si>
+  <si>
+    <t>237671646117</t>
+  </si>
+  <si>
+    <t>237674938852</t>
+  </si>
+  <si>
+    <t>237672029564</t>
+  </si>
+  <si>
+    <t>237652657497</t>
+  </si>
+  <si>
+    <t>237653434966</t>
+  </si>
+  <si>
+    <t>237679384209</t>
+  </si>
+  <si>
+    <t>237675129145</t>
+  </si>
+  <si>
+    <t>237679706083</t>
+  </si>
+  <si>
+    <t>237672094085</t>
+  </si>
+  <si>
+    <t>237678559161</t>
+  </si>
+  <si>
+    <t>237679856269</t>
+  </si>
+  <si>
+    <t>237677510245</t>
+  </si>
+  <si>
+    <t>237670589935</t>
+  </si>
+  <si>
+    <t>237672064033</t>
+  </si>
+  <si>
+    <t>237650005364</t>
+  </si>
+  <si>
+    <t>237679909537</t>
+  </si>
+  <si>
+    <t>237683815311</t>
+  </si>
+  <si>
+    <t>237674956733</t>
+  </si>
+  <si>
+    <t>237683367205</t>
+  </si>
+  <si>
+    <t>237673430871</t>
+  </si>
+  <si>
+    <t>237650840080</t>
+  </si>
+  <si>
+    <t>237653959075</t>
+  </si>
+  <si>
+    <t>237670503037</t>
+  </si>
+  <si>
+    <t>237674928960</t>
+  </si>
+  <si>
+    <t>237682418773</t>
+  </si>
+  <si>
+    <t>237650874464</t>
+  </si>
+  <si>
+    <t>237674890628</t>
+  </si>
+  <si>
+    <t>237681666567</t>
+  </si>
+  <si>
+    <t>237674787684</t>
+  </si>
+  <si>
+    <t>237680478176</t>
+  </si>
+  <si>
+    <t>237679381281</t>
+  </si>
+  <si>
+    <t>237651768037</t>
+  </si>
+  <si>
+    <t>237670180035</t>
+  </si>
+  <si>
+    <t>237679902184</t>
+  </si>
+  <si>
+    <t>237671807487</t>
+  </si>
+  <si>
+    <t>237674895877</t>
+  </si>
+  <si>
+    <t>237650149599</t>
+  </si>
+  <si>
+    <t>237682090110</t>
+  </si>
+  <si>
+    <t>237678796497</t>
+  </si>
+  <si>
+    <t>237677110547</t>
+  </si>
+  <si>
+    <t>237679551262</t>
+  </si>
+  <si>
+    <t>237653316656</t>
+  </si>
+  <si>
+    <t>237682634729</t>
+  </si>
+  <si>
+    <t>237679289442</t>
+  </si>
+  <si>
+    <t>237681657939</t>
+  </si>
+  <si>
+    <t>237674919260</t>
+  </si>
+  <si>
+    <t>237681575311</t>
+  </si>
+  <si>
+    <t>237679806284</t>
+  </si>
+  <si>
+    <t>237672845480</t>
+  </si>
+  <si>
+    <t>237670616205</t>
+  </si>
+  <si>
+    <t>237671379954</t>
+  </si>
+  <si>
+    <t>237674278424</t>
+  </si>
+  <si>
+    <t>237672071373</t>
+  </si>
+  <si>
+    <t>237652693331</t>
+  </si>
+  <si>
+    <t>237651347875</t>
+  </si>
+  <si>
+    <t>237670358585</t>
+  </si>
+  <si>
+    <t>237674435926</t>
+  </si>
+  <si>
+    <t>237653603575</t>
+  </si>
+  <si>
+    <t>237678864371</t>
+  </si>
+  <si>
+    <t>237679107414</t>
+  </si>
+  <si>
+    <t>237671734324</t>
+  </si>
+  <si>
+    <t>237679422591</t>
+  </si>
+  <si>
+    <t>237675609101</t>
+  </si>
+  <si>
+    <t>237678267432</t>
+  </si>
+  <si>
+    <t>237683020732</t>
+  </si>
+  <si>
+    <t>237651697897</t>
+  </si>
+  <si>
+    <t>237651927448</t>
+  </si>
+  <si>
+    <t>237671729593</t>
+  </si>
+  <si>
+    <t>237674543743</t>
+  </si>
+  <si>
+    <t>237673597323</t>
+  </si>
+  <si>
+    <t>237675621967</t>
+  </si>
+  <si>
+    <t>237679580678</t>
+  </si>
+  <si>
+    <t>237653598400</t>
+  </si>
+  <si>
+    <t>237650522297</t>
+  </si>
+  <si>
     <t>MFS ENTREE COLLEGE MALANGUE</t>
   </si>
   <si>
@@ -2420,6 +2939,267 @@
   </si>
   <si>
     <t>GIRESSE THIBAUT MASSONG</t>
+  </si>
+  <si>
+    <t>NGUETSA TSOMO JEAN-JACQUES STYLE. COM</t>
+  </si>
+  <si>
+    <t>NKONDZOU BARBARA MELAINE TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>CONSTANCE ENGE ANJOABEI</t>
+  </si>
+  <si>
+    <t>KAMEGNI ANGELE CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA_CB05292_NOTCHAO ALINE</t>
+  </si>
+  <si>
+    <t>NGALA DIVINE TIMNTAH CHIC MOBILE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL NYOUNG JOSEPH CLOTAIRE</t>
+  </si>
+  <si>
+    <t>VANESSA DELOMEE NYASSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+  </si>
+  <si>
+    <t>MASSO MARIE LOUISETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>PRESCILLA KI EPOUSE EMVO LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>GRACE GROUP OF COMPAGNIE SARL</t>
+  </si>
+  <si>
+    <t>MFS CES DE LA CITE</t>
+  </si>
+  <si>
+    <t>FLORENCE MEDONGUE</t>
+  </si>
+  <si>
+    <t>rose tewoual</t>
+  </si>
+  <si>
+    <t>miguel foka fossouo</t>
+  </si>
+  <si>
+    <t>MARIE THERESE AKADJIO</t>
+  </si>
+  <si>
+    <t>EWANE ELISABETH ARIANNE INASCO MOUNGO</t>
+  </si>
+  <si>
+    <t>YATOU BERLINE JOSIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>SUZANNE FLORE TAGOP DEKONG</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CB0X R0 NGUEUKOUE SUZANNE</t>
+  </si>
+  <si>
+    <t>MAFO WAMBA JOLIMENE TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>ISSIAKOU IBRAHIM</t>
+  </si>
+  <si>
+    <t>CATHERINE MALABO BIKAY</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LA NEGRESSE PK8</t>
+  </si>
+  <si>
+    <t>NJIMBAM MFONGOU ADAMOU NOURDI TOP MOBIL</t>
+  </si>
+  <si>
+    <t>NOOR MBONJOH AHMAD</t>
+  </si>
+  <si>
+    <t>VERA TIFUH TITA</t>
+  </si>
+  <si>
+    <t>LAURE GISELE TADOUMFO NOUOJI</t>
+  </si>
+  <si>
+    <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+  </si>
+  <si>
+    <t>PRISCA DIPOKO MPESSA</t>
+  </si>
+  <si>
+    <t>DOUANLA IDE VIRGINIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ISMAEL JERRY FONTSA DOUMTSOP CHIC MOBILE</t>
+  </si>
+  <si>
+    <t>ULRICH PIERRE BRANDON NOG</t>
+  </si>
+  <si>
+    <t>JOSEPH DJIENTCHIEU</t>
+  </si>
+  <si>
+    <t>PHILOMENE LACTIO</t>
+  </si>
+  <si>
+    <t>ESTHER NJOMFANG</t>
+  </si>
+  <si>
+    <t>Yaze Ndambi Josias CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>ASSONFACK VANESSA ATB POINT COM</t>
+  </si>
+  <si>
+    <t>ROSELINE OUMALIK</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 AGISE ATEMBA GODWIN</t>
+  </si>
+  <si>
+    <t>MACHOUELA CARELLE KEVINNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ESSOMBE ESSOH BRICE MICHELET SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>DONGMO NGUETIO VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MILINE MOMO</t>
+  </si>
+  <si>
+    <t>NANTSOP MIREILLE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>CHATUE WAFFO GUY ROSTAND TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>MAFOGANG ELISA SABINE LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>NZOUNDI NGUEDJO EDITH TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>FOMONYUY LTD DIANGHA HILARION ANDUE</t>
+  </si>
+  <si>
+    <t>ONGBAHETEN YVETTE LAURE VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+  </si>
+  <si>
+    <t>MANIGANG NDALLOKA MARIE JOSIANE ALBARKA GN SARL</t>
+  </si>
+  <si>
+    <t>ANDIABELONG LEKE ANDIABELONG LEKE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CBOX R1 MEGNE JUDITH</t>
+  </si>
+  <si>
+    <t>TAMOKOUE HUGUES PASCAL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TCHOUKUI NYAWA KEVIN ECRA ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>FEUHOUO JULES COLBERT BERRITZ CAMEROUN SAS</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+  </si>
+  <si>
+    <t>JEAN MARIE BODIONG</t>
+  </si>
+  <si>
+    <t>MAGAKOU FOPPA BERLINE MICHELLE_ LTDLA_POLAS_BTQ_MARCHE CENTRAL FACE PRISON CENTRALE</t>
+  </si>
+  <si>
+    <t>BOGNE RITA NOEL</t>
+  </si>
+  <si>
+    <t>NUNWEH MBANGYA MABEL CONTACT PLUS Sarl</t>
+  </si>
+  <si>
+    <t>JUDITH ELISABETH KENFACK</t>
+  </si>
+  <si>
+    <t>TIOFFE KENMENE AUBIN US ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>NTAMACK FIDELE TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>TCHANA ARNOLD KEVEEN CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>MATSA NGOUFFO CAROLE CHRISTELLLE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>NGUEDIA DONGMO TEOWAMBA STEPHANIE LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>EVAGLE EMMANUEL -MFS</t>
+  </si>
+  <si>
+    <t>HONORINE MAMEKEM</t>
+  </si>
+  <si>
+    <t>ALEX BLERIOT FOTSING</t>
+  </si>
+  <si>
+    <t>NGATCHOUA MARGUERITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>-CLEDELAND UNIVERSAL CONSULTING ASSISTING SERVICE _CUCAS LTD MABOH JOYCELINE</t>
+  </si>
+  <si>
+    <t>DONGMO TEMGOUA VANESSA LADOUCE STYLE.COM</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 42</t>
+  </si>
+  <si>
+    <t>NJIOMO SIDOINE FLORE PASCAL SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL NGUETI BRICE AYMAR</t>
+  </si>
+  <si>
+    <t>NKOUNGA LUCAS ETS REINE PHONE</t>
+  </si>
+  <si>
+    <t>SOCIADAM SARL_ POS 275</t>
+  </si>
+  <si>
+    <t>charity aben awalah</t>
+  </si>
+  <si>
+    <t>LOKO ANNE MARIE PRUDENCE TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>CORINE VIVIE MBATCHOUE</t>
+  </si>
+  <si>
+    <t>YEWOU YAMGUEU BIBICHE JOLIVETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NGO NTAMACK CECILE CECIC</t>
+  </si>
+  <si>
+    <t>Ngo Ndjeng Marie Pauline</t>
+  </si>
+  <si>
+    <t>HERVIS KAGHO DONGMO</t>
+  </si>
+  <si>
+    <t>SIMON SIE NKO</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +3557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:D354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2802,10 +3582,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>536</v>
+        <v>709</v>
       </c>
       <c r="D2">
         <v>30095</v>
@@ -2816,10 +3596,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>537</v>
+        <v>710</v>
       </c>
       <c r="D3">
         <v>36595</v>
@@ -2830,10 +3610,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>538</v>
+        <v>711</v>
       </c>
       <c r="D4">
         <v>1042551</v>
@@ -2844,10 +3624,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
-        <v>539</v>
+        <v>712</v>
       </c>
       <c r="D5">
         <v>12973</v>
@@ -2858,10 +3638,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="C6" t="s">
-        <v>540</v>
+        <v>713</v>
       </c>
       <c r="D6">
         <v>878</v>
@@ -2872,10 +3652,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>714</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -2886,10 +3666,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>542</v>
+        <v>715</v>
       </c>
       <c r="D8">
         <v>215254</v>
@@ -2900,10 +3680,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>543</v>
+        <v>716</v>
       </c>
       <c r="D9">
         <v>190023</v>
@@ -2914,10 +3694,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="C10" t="s">
-        <v>544</v>
+        <v>717</v>
       </c>
       <c r="D10">
         <v>6498</v>
@@ -2928,10 +3708,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="C11" t="s">
-        <v>545</v>
+        <v>718</v>
       </c>
       <c r="D11">
         <v>98844</v>
@@ -2942,10 +3722,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
-        <v>546</v>
+        <v>719</v>
       </c>
       <c r="D12">
         <v>86556</v>
@@ -2956,10 +3736,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>547</v>
+        <v>720</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -2970,10 +3750,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
-        <v>548</v>
+        <v>721</v>
       </c>
       <c r="D14">
         <v>9594</v>
@@ -2984,10 +3764,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>549</v>
+        <v>722</v>
       </c>
       <c r="D15">
         <v>262</v>
@@ -2998,10 +3778,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="C16" t="s">
-        <v>550</v>
+        <v>723</v>
       </c>
       <c r="D16">
         <v>517168</v>
@@ -3012,10 +3792,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="C17" t="s">
-        <v>551</v>
+        <v>724</v>
       </c>
       <c r="D17">
         <v>96868</v>
@@ -3026,10 +3806,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="C18" t="s">
-        <v>552</v>
+        <v>725</v>
       </c>
       <c r="D18">
         <v>109492</v>
@@ -3040,10 +3820,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="C19" t="s">
-        <v>553</v>
+        <v>726</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -3054,10 +3834,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="C20" t="s">
-        <v>554</v>
+        <v>727</v>
       </c>
       <c r="D20">
         <v>44076</v>
@@ -3068,10 +3848,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="C21" t="s">
-        <v>555</v>
+        <v>728</v>
       </c>
       <c r="D21">
         <v>21000</v>
@@ -3082,10 +3862,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="C22" t="s">
-        <v>556</v>
+        <v>729</v>
       </c>
       <c r="D22">
         <v>94556</v>
@@ -3096,10 +3876,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="C23" t="s">
-        <v>557</v>
+        <v>730</v>
       </c>
       <c r="D23">
         <v>5345</v>
@@ -3110,10 +3890,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="C24" t="s">
-        <v>558</v>
+        <v>731</v>
       </c>
       <c r="D24">
         <v>8858</v>
@@ -3124,10 +3904,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="C25" t="s">
-        <v>559</v>
+        <v>732</v>
       </c>
       <c r="D25">
         <v>264112</v>
@@ -3138,10 +3918,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="C26" t="s">
-        <v>560</v>
+        <v>733</v>
       </c>
       <c r="D26">
         <v>55699</v>
@@ -3152,10 +3932,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="C27" t="s">
-        <v>561</v>
+        <v>734</v>
       </c>
       <c r="D27">
         <v>56245</v>
@@ -3166,10 +3946,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="C28" t="s">
-        <v>562</v>
+        <v>735</v>
       </c>
       <c r="D28">
         <v>4751</v>
@@ -3180,10 +3960,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="C29" t="s">
-        <v>563</v>
+        <v>736</v>
       </c>
       <c r="D29">
         <v>1873</v>
@@ -3194,10 +3974,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="C30" t="s">
-        <v>564</v>
+        <v>737</v>
       </c>
       <c r="D30">
         <v>333218</v>
@@ -3208,10 +3988,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="C31" t="s">
-        <v>565</v>
+        <v>738</v>
       </c>
       <c r="D31">
         <v>6385129</v>
@@ -3222,10 +4002,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="C32" t="s">
-        <v>566</v>
+        <v>739</v>
       </c>
       <c r="D32">
         <v>13377</v>
@@ -3236,10 +4016,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="C33" t="s">
-        <v>567</v>
+        <v>740</v>
       </c>
       <c r="D33">
         <v>6729</v>
@@ -3250,10 +4030,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="C34" t="s">
-        <v>568</v>
+        <v>741</v>
       </c>
       <c r="D34">
         <v>864</v>
@@ -3264,10 +4044,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="C35" t="s">
-        <v>569</v>
+        <v>742</v>
       </c>
       <c r="D35">
         <v>472353</v>
@@ -3278,10 +4058,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="C36" t="s">
-        <v>570</v>
+        <v>743</v>
       </c>
       <c r="D36">
         <v>23</v>
@@ -3292,10 +4072,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="C37" t="s">
-        <v>571</v>
+        <v>744</v>
       </c>
       <c r="D37">
         <v>24386</v>
@@ -3306,10 +4086,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="C38" t="s">
-        <v>572</v>
+        <v>745</v>
       </c>
       <c r="D38">
         <v>44600</v>
@@ -3320,10 +4100,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s">
-        <v>573</v>
+        <v>746</v>
       </c>
       <c r="D39">
         <v>2042</v>
@@ -3334,10 +4114,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="C40" t="s">
-        <v>574</v>
+        <v>747</v>
       </c>
       <c r="D40">
         <v>109659</v>
@@ -3348,10 +4128,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="C41" t="s">
-        <v>575</v>
+        <v>748</v>
       </c>
       <c r="D41">
         <v>2977</v>
@@ -3362,10 +4142,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="C42" t="s">
-        <v>576</v>
+        <v>749</v>
       </c>
       <c r="D42">
         <v>843587</v>
@@ -3376,10 +4156,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="C43" t="s">
-        <v>577</v>
+        <v>750</v>
       </c>
       <c r="D43">
         <v>206473</v>
@@ -3390,10 +4170,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="C44" t="s">
-        <v>578</v>
+        <v>751</v>
       </c>
       <c r="D44">
         <v>13531</v>
@@ -3404,10 +4184,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="C45" t="s">
-        <v>579</v>
+        <v>752</v>
       </c>
       <c r="D45">
         <v>79737</v>
@@ -3418,10 +4198,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="C46" t="s">
-        <v>580</v>
+        <v>753</v>
       </c>
       <c r="D46">
         <v>11434</v>
@@ -3432,10 +4212,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="C47" t="s">
-        <v>581</v>
+        <v>754</v>
       </c>
       <c r="D47">
         <v>501</v>
@@ -3446,10 +4226,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="C48" t="s">
-        <v>582</v>
+        <v>755</v>
       </c>
       <c r="D48">
         <v>380</v>
@@ -3460,10 +4240,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="C49" t="s">
-        <v>583</v>
+        <v>756</v>
       </c>
       <c r="D49">
         <v>43362</v>
@@ -3474,10 +4254,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="C50" t="s">
-        <v>584</v>
+        <v>757</v>
       </c>
       <c r="D50">
         <v>708340</v>
@@ -3488,10 +4268,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="C51" t="s">
-        <v>585</v>
+        <v>758</v>
       </c>
       <c r="D51">
         <v>3593</v>
@@ -3502,10 +4282,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="C52" t="s">
-        <v>586</v>
+        <v>759</v>
       </c>
       <c r="D52">
         <v>1879475</v>
@@ -3516,10 +4296,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="C53" t="s">
-        <v>587</v>
+        <v>760</v>
       </c>
       <c r="D53">
         <v>3784</v>
@@ -3530,10 +4310,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>322</v>
+        <v>408</v>
       </c>
       <c r="C54" t="s">
-        <v>588</v>
+        <v>761</v>
       </c>
       <c r="D54">
         <v>70172</v>
@@ -3544,10 +4324,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="C55" t="s">
-        <v>589</v>
+        <v>762</v>
       </c>
       <c r="D55">
         <v>148</v>
@@ -3558,10 +4338,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="C56" t="s">
-        <v>590</v>
+        <v>763</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3572,10 +4352,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="C57" t="s">
-        <v>591</v>
+        <v>764</v>
       </c>
       <c r="D57">
         <v>97484</v>
@@ -3586,10 +4366,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="C58" t="s">
-        <v>592</v>
+        <v>765</v>
       </c>
       <c r="D58">
         <v>7927</v>
@@ -3600,10 +4380,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="C59" t="s">
-        <v>593</v>
+        <v>766</v>
       </c>
       <c r="D59">
         <v>61762</v>
@@ -3614,10 +4394,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
       <c r="C60" t="s">
-        <v>594</v>
+        <v>767</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -3628,10 +4408,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="C61" t="s">
-        <v>595</v>
+        <v>768</v>
       </c>
       <c r="D61">
         <v>12292</v>
@@ -3642,10 +4422,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="C62" t="s">
-        <v>596</v>
+        <v>769</v>
       </c>
       <c r="D62">
         <v>366231</v>
@@ -3656,10 +4436,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="C63" t="s">
-        <v>597</v>
+        <v>770</v>
       </c>
       <c r="D63">
         <v>20358</v>
@@ -3670,10 +4450,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="C64" t="s">
-        <v>598</v>
+        <v>771</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -3684,10 +4464,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="C65" t="s">
-        <v>599</v>
+        <v>772</v>
       </c>
       <c r="D65">
         <v>29507</v>
@@ -3698,10 +4478,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>334</v>
+        <v>420</v>
       </c>
       <c r="C66" t="s">
-        <v>600</v>
+        <v>773</v>
       </c>
       <c r="D66">
         <v>71538</v>
@@ -3712,10 +4492,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="C67" t="s">
-        <v>601</v>
+        <v>774</v>
       </c>
       <c r="D67">
         <v>438901</v>
@@ -3726,10 +4506,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>336</v>
+        <v>422</v>
       </c>
       <c r="C68" t="s">
-        <v>602</v>
+        <v>775</v>
       </c>
       <c r="D68">
         <v>15525</v>
@@ -3740,10 +4520,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="C69" t="s">
-        <v>603</v>
+        <v>776</v>
       </c>
       <c r="D69">
         <v>792132</v>
@@ -3754,10 +4534,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="C70" t="s">
-        <v>604</v>
+        <v>777</v>
       </c>
       <c r="D70">
         <v>524523</v>
@@ -3768,10 +4548,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="C71" t="s">
-        <v>605</v>
+        <v>778</v>
       </c>
       <c r="D71">
         <v>866</v>
@@ -3782,10 +4562,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="C72" t="s">
-        <v>606</v>
+        <v>779</v>
       </c>
       <c r="D72">
         <v>101711</v>
@@ -3796,10 +4576,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="C73" t="s">
-        <v>607</v>
+        <v>780</v>
       </c>
       <c r="D73">
         <v>6178</v>
@@ -3810,10 +4590,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="C74" t="s">
-        <v>608</v>
+        <v>781</v>
       </c>
       <c r="D74">
         <v>1269273</v>
@@ -3824,10 +4604,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="C75" t="s">
-        <v>609</v>
+        <v>782</v>
       </c>
       <c r="D75">
         <v>20668</v>
@@ -3838,10 +4618,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="C76" t="s">
-        <v>610</v>
+        <v>783</v>
       </c>
       <c r="D76">
         <v>40652</v>
@@ -3852,10 +4632,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="C77" t="s">
-        <v>611</v>
+        <v>784</v>
       </c>
       <c r="D77">
         <v>21475</v>
@@ -3866,10 +4646,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="C78" t="s">
-        <v>612</v>
+        <v>785</v>
       </c>
       <c r="D78">
         <v>5015499</v>
@@ -3880,10 +4660,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="C79" t="s">
-        <v>613</v>
+        <v>786</v>
       </c>
       <c r="D79">
         <v>4249</v>
@@ -3894,10 +4674,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="C80" t="s">
-        <v>614</v>
+        <v>787</v>
       </c>
       <c r="D80">
         <v>462</v>
@@ -3908,10 +4688,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="C81" t="s">
-        <v>615</v>
+        <v>788</v>
       </c>
       <c r="D81">
         <v>3510</v>
@@ -3922,10 +4702,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="C82" t="s">
-        <v>616</v>
+        <v>789</v>
       </c>
       <c r="D82">
         <v>3076</v>
@@ -3936,10 +4716,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="C83" t="s">
-        <v>617</v>
+        <v>790</v>
       </c>
       <c r="D83">
         <v>5861</v>
@@ -3950,10 +4730,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="C84" t="s">
-        <v>618</v>
+        <v>791</v>
       </c>
       <c r="D84">
         <v>221</v>
@@ -3964,10 +4744,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="C85" t="s">
-        <v>619</v>
+        <v>792</v>
       </c>
       <c r="D85">
         <v>63743</v>
@@ -3978,10 +4758,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="C86" t="s">
-        <v>620</v>
+        <v>793</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3992,10 +4772,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="C87" t="s">
-        <v>621</v>
+        <v>794</v>
       </c>
       <c r="D87">
         <v>36813</v>
@@ -4006,10 +4786,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="C88" t="s">
-        <v>622</v>
+        <v>795</v>
       </c>
       <c r="D88">
         <v>513</v>
@@ -4020,10 +4800,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
       <c r="C89" t="s">
-        <v>623</v>
+        <v>796</v>
       </c>
       <c r="D89">
         <v>80118</v>
@@ -4034,10 +4814,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="C90" t="s">
-        <v>624</v>
+        <v>797</v>
       </c>
       <c r="D90">
         <v>2940201</v>
@@ -4048,10 +4828,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="C91" t="s">
-        <v>625</v>
+        <v>798</v>
       </c>
       <c r="D91">
         <v>2339</v>
@@ -4062,10 +4842,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="C92" t="s">
-        <v>626</v>
+        <v>799</v>
       </c>
       <c r="D92">
         <v>4075</v>
@@ -4076,10 +4856,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="C93" t="s">
-        <v>627</v>
+        <v>800</v>
       </c>
       <c r="D93">
         <v>1013</v>
@@ -4090,10 +4870,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="C94" t="s">
-        <v>628</v>
+        <v>801</v>
       </c>
       <c r="D94">
         <v>68166</v>
@@ -4104,10 +4884,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>363</v>
+        <v>449</v>
       </c>
       <c r="C95" t="s">
-        <v>629</v>
+        <v>802</v>
       </c>
       <c r="D95">
         <v>1288</v>
@@ -4118,10 +4898,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>364</v>
+        <v>450</v>
       </c>
       <c r="C96" t="s">
-        <v>630</v>
+        <v>803</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4132,10 +4912,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="C97" t="s">
-        <v>631</v>
+        <v>804</v>
       </c>
       <c r="D97">
         <v>59398</v>
@@ -4146,10 +4926,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>366</v>
+        <v>452</v>
       </c>
       <c r="C98" t="s">
-        <v>632</v>
+        <v>805</v>
       </c>
       <c r="D98">
         <v>7418</v>
@@ -4160,10 +4940,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="C99" t="s">
-        <v>633</v>
+        <v>806</v>
       </c>
       <c r="D99">
         <v>38799</v>
@@ -4174,10 +4954,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>368</v>
+        <v>454</v>
       </c>
       <c r="C100" t="s">
-        <v>634</v>
+        <v>807</v>
       </c>
       <c r="D100">
         <v>446015</v>
@@ -4188,10 +4968,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="C101" t="s">
-        <v>635</v>
+        <v>808</v>
       </c>
       <c r="D101">
         <v>32</v>
@@ -4202,10 +4982,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>370</v>
+        <v>456</v>
       </c>
       <c r="C102" t="s">
-        <v>636</v>
+        <v>809</v>
       </c>
       <c r="D102">
         <v>70556</v>
@@ -4216,10 +4996,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>371</v>
+        <v>457</v>
       </c>
       <c r="C103" t="s">
-        <v>637</v>
+        <v>810</v>
       </c>
       <c r="D103">
         <v>290990</v>
@@ -4230,10 +5010,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
       <c r="C104" t="s">
-        <v>638</v>
+        <v>811</v>
       </c>
       <c r="D104">
         <v>24133</v>
@@ -4244,10 +5024,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>373</v>
+        <v>459</v>
       </c>
       <c r="C105" t="s">
-        <v>639</v>
+        <v>812</v>
       </c>
       <c r="D105">
         <v>7991</v>
@@ -4258,10 +5038,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>374</v>
+        <v>460</v>
       </c>
       <c r="C106" t="s">
-        <v>640</v>
+        <v>813</v>
       </c>
       <c r="D106">
         <v>54595</v>
@@ -4272,10 +5052,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>375</v>
+        <v>461</v>
       </c>
       <c r="C107" t="s">
-        <v>641</v>
+        <v>814</v>
       </c>
       <c r="D107">
         <v>23</v>
@@ -4286,10 +5066,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
       <c r="C108" t="s">
-        <v>642</v>
+        <v>815</v>
       </c>
       <c r="D108">
         <v>6025929</v>
@@ -4300,10 +5080,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>377</v>
+        <v>463</v>
       </c>
       <c r="C109" t="s">
-        <v>643</v>
+        <v>816</v>
       </c>
       <c r="D109">
         <v>17416</v>
@@ -4314,10 +5094,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>378</v>
+        <v>464</v>
       </c>
       <c r="C110" t="s">
-        <v>644</v>
+        <v>817</v>
       </c>
       <c r="D110">
         <v>59923</v>
@@ -4328,10 +5108,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>379</v>
+        <v>465</v>
       </c>
       <c r="C111" t="s">
-        <v>645</v>
+        <v>818</v>
       </c>
       <c r="D111">
         <v>9700</v>
@@ -4342,10 +5122,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="C112" t="s">
-        <v>646</v>
+        <v>819</v>
       </c>
       <c r="D112">
         <v>668234</v>
@@ -4356,10 +5136,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>381</v>
+        <v>467</v>
       </c>
       <c r="C113" t="s">
-        <v>647</v>
+        <v>820</v>
       </c>
       <c r="D113">
         <v>141</v>
@@ -4370,10 +5150,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>382</v>
+        <v>468</v>
       </c>
       <c r="C114" t="s">
-        <v>648</v>
+        <v>821</v>
       </c>
       <c r="D114">
         <v>134935</v>
@@ -4384,10 +5164,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="C115" t="s">
-        <v>649</v>
+        <v>822</v>
       </c>
       <c r="D115">
         <v>11600</v>
@@ -4398,10 +5178,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>384</v>
+        <v>470</v>
       </c>
       <c r="C116" t="s">
-        <v>650</v>
+        <v>823</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -4412,10 +5192,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>385</v>
+        <v>471</v>
       </c>
       <c r="C117" t="s">
-        <v>651</v>
+        <v>824</v>
       </c>
       <c r="D117">
         <v>500214</v>
@@ -4426,10 +5206,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>386</v>
+        <v>472</v>
       </c>
       <c r="C118" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
       <c r="D118">
         <v>179255</v>
@@ -4440,10 +5220,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>387</v>
+        <v>473</v>
       </c>
       <c r="C119" t="s">
-        <v>653</v>
+        <v>826</v>
       </c>
       <c r="D119">
         <v>616178</v>
@@ -4454,10 +5234,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="C120" t="s">
-        <v>654</v>
+        <v>827</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -4468,10 +5248,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="C121" t="s">
-        <v>655</v>
+        <v>828</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -4482,10 +5262,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="C122" t="s">
-        <v>656</v>
+        <v>829</v>
       </c>
       <c r="D122">
         <v>948473</v>
@@ -4496,10 +5276,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>391</v>
+        <v>477</v>
       </c>
       <c r="C123" t="s">
-        <v>657</v>
+        <v>830</v>
       </c>
       <c r="D123">
         <v>141336</v>
@@ -4510,10 +5290,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="C124" t="s">
-        <v>658</v>
+        <v>831</v>
       </c>
       <c r="D124">
         <v>31942</v>
@@ -4524,10 +5304,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>393</v>
+        <v>479</v>
       </c>
       <c r="C125" t="s">
-        <v>659</v>
+        <v>832</v>
       </c>
       <c r="D125">
         <v>126700</v>
@@ -4538,10 +5318,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>394</v>
+        <v>480</v>
       </c>
       <c r="C126" t="s">
-        <v>660</v>
+        <v>833</v>
       </c>
       <c r="D126">
         <v>7184</v>
@@ -4552,10 +5332,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>395</v>
+        <v>481</v>
       </c>
       <c r="C127" t="s">
-        <v>661</v>
+        <v>834</v>
       </c>
       <c r="D127">
         <v>62509</v>
@@ -4566,10 +5346,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="C128" t="s">
-        <v>662</v>
+        <v>835</v>
       </c>
       <c r="D128">
         <v>10441</v>
@@ -4580,10 +5360,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>397</v>
+        <v>483</v>
       </c>
       <c r="C129" t="s">
-        <v>663</v>
+        <v>836</v>
       </c>
       <c r="D129">
         <v>2922</v>
@@ -4594,10 +5374,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="C130" t="s">
-        <v>664</v>
+        <v>837</v>
       </c>
       <c r="D130">
         <v>108036</v>
@@ -4608,10 +5388,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
       <c r="C131" t="s">
-        <v>665</v>
+        <v>838</v>
       </c>
       <c r="D131">
         <v>14</v>
@@ -4622,10 +5402,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="C132" t="s">
-        <v>666</v>
+        <v>839</v>
       </c>
       <c r="D132">
         <v>271853</v>
@@ -4636,10 +5416,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>401</v>
+        <v>487</v>
       </c>
       <c r="C133" t="s">
-        <v>667</v>
+        <v>840</v>
       </c>
       <c r="D133">
         <v>900184</v>
@@ -4650,10 +5430,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>402</v>
+        <v>488</v>
       </c>
       <c r="C134" t="s">
-        <v>668</v>
+        <v>841</v>
       </c>
       <c r="D134">
         <v>6534</v>
@@ -4664,10 +5444,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="C135" t="s">
-        <v>669</v>
+        <v>842</v>
       </c>
       <c r="D135">
         <v>212127</v>
@@ -4678,10 +5458,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>404</v>
+        <v>490</v>
       </c>
       <c r="C136" t="s">
-        <v>670</v>
+        <v>843</v>
       </c>
       <c r="D136">
         <v>20562</v>
@@ -4692,10 +5472,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>405</v>
+        <v>491</v>
       </c>
       <c r="C137" t="s">
-        <v>671</v>
+        <v>844</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -4706,10 +5486,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>406</v>
+        <v>492</v>
       </c>
       <c r="C138" t="s">
-        <v>672</v>
+        <v>845</v>
       </c>
       <c r="D138">
         <v>66242</v>
@@ -4720,10 +5500,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>407</v>
+        <v>493</v>
       </c>
       <c r="C139" t="s">
-        <v>673</v>
+        <v>846</v>
       </c>
       <c r="D139">
         <v>237616</v>
@@ -4734,10 +5514,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>408</v>
+        <v>494</v>
       </c>
       <c r="C140" t="s">
-        <v>674</v>
+        <v>847</v>
       </c>
       <c r="D140">
         <v>986</v>
@@ -4748,10 +5528,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
       <c r="C141" t="s">
-        <v>675</v>
+        <v>848</v>
       </c>
       <c r="D141">
         <v>525</v>
@@ -4762,10 +5542,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>410</v>
+        <v>496</v>
       </c>
       <c r="C142" t="s">
-        <v>676</v>
+        <v>849</v>
       </c>
       <c r="D142">
         <v>192476</v>
@@ -4776,10 +5556,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>411</v>
+        <v>497</v>
       </c>
       <c r="C143" t="s">
-        <v>677</v>
+        <v>850</v>
       </c>
       <c r="D143">
         <v>2179</v>
@@ -4790,10 +5570,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>412</v>
+        <v>498</v>
       </c>
       <c r="C144" t="s">
-        <v>678</v>
+        <v>851</v>
       </c>
       <c r="D144">
         <v>23601</v>
@@ -4804,10 +5584,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>413</v>
+        <v>499</v>
       </c>
       <c r="C145" t="s">
-        <v>679</v>
+        <v>852</v>
       </c>
       <c r="D145">
         <v>2279</v>
@@ -4818,10 +5598,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="C146" t="s">
-        <v>680</v>
+        <v>853</v>
       </c>
       <c r="D146">
         <v>35332</v>
@@ -4832,10 +5612,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="C147" t="s">
-        <v>681</v>
+        <v>854</v>
       </c>
       <c r="D147">
         <v>224</v>
@@ -4846,10 +5626,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
       <c r="C148" t="s">
-        <v>682</v>
+        <v>855</v>
       </c>
       <c r="D148">
         <v>135162</v>
@@ -4860,10 +5640,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
       <c r="C149" t="s">
-        <v>683</v>
+        <v>856</v>
       </c>
       <c r="D149">
         <v>2818</v>
@@ -4874,10 +5654,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="C150" t="s">
-        <v>684</v>
+        <v>857</v>
       </c>
       <c r="D150">
         <v>6792</v>
@@ -4888,10 +5668,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="C151" t="s">
-        <v>685</v>
+        <v>858</v>
       </c>
       <c r="D151">
         <v>23538</v>
@@ -4902,10 +5682,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="C152" t="s">
-        <v>686</v>
+        <v>859</v>
       </c>
       <c r="D152">
         <v>2635</v>
@@ -4916,10 +5696,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="C153" t="s">
-        <v>687</v>
+        <v>860</v>
       </c>
       <c r="D153">
         <v>3020</v>
@@ -4930,10 +5710,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="C154" t="s">
-        <v>688</v>
+        <v>861</v>
       </c>
       <c r="D154">
         <v>85937</v>
@@ -4944,10 +5724,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="C155" t="s">
-        <v>689</v>
+        <v>862</v>
       </c>
       <c r="D155">
         <v>1106</v>
@@ -4958,10 +5738,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>424</v>
+        <v>510</v>
       </c>
       <c r="C156" t="s">
-        <v>690</v>
+        <v>863</v>
       </c>
       <c r="D156">
         <v>288689</v>
@@ -4972,10 +5752,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="C157" t="s">
-        <v>691</v>
+        <v>864</v>
       </c>
       <c r="D157">
         <v>23936</v>
@@ -4986,10 +5766,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>426</v>
+        <v>512</v>
       </c>
       <c r="C158" t="s">
-        <v>692</v>
+        <v>865</v>
       </c>
       <c r="D158">
         <v>7901748</v>
@@ -5000,10 +5780,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>427</v>
+        <v>513</v>
       </c>
       <c r="C159" t="s">
-        <v>693</v>
+        <v>866</v>
       </c>
       <c r="D159">
         <v>4701</v>
@@ -5014,10 +5794,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>428</v>
+        <v>514</v>
       </c>
       <c r="C160" t="s">
-        <v>694</v>
+        <v>867</v>
       </c>
       <c r="D160">
         <v>63814</v>
@@ -5028,10 +5808,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>429</v>
+        <v>515</v>
       </c>
       <c r="C161" t="s">
-        <v>695</v>
+        <v>868</v>
       </c>
       <c r="D161">
         <v>432</v>
@@ -5042,10 +5822,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="C162" t="s">
-        <v>696</v>
+        <v>869</v>
       </c>
       <c r="D162">
         <v>335842</v>
@@ -5056,10 +5836,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>431</v>
+        <v>517</v>
       </c>
       <c r="C163" t="s">
-        <v>697</v>
+        <v>870</v>
       </c>
       <c r="D163">
         <v>14511</v>
@@ -5070,10 +5850,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="C164" t="s">
-        <v>698</v>
+        <v>871</v>
       </c>
       <c r="D164">
         <v>29941</v>
@@ -5084,10 +5864,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>433</v>
+        <v>519</v>
       </c>
       <c r="C165" t="s">
-        <v>699</v>
+        <v>872</v>
       </c>
       <c r="D165">
         <v>4082</v>
@@ -5098,10 +5878,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="C166" t="s">
-        <v>700</v>
+        <v>873</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -5112,10 +5892,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>435</v>
+        <v>521</v>
       </c>
       <c r="C167" t="s">
-        <v>701</v>
+        <v>874</v>
       </c>
       <c r="D167">
         <v>540</v>
@@ -5126,10 +5906,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>436</v>
+        <v>522</v>
       </c>
       <c r="C168" t="s">
-        <v>702</v>
+        <v>875</v>
       </c>
       <c r="D168">
         <v>43657</v>
@@ -5140,10 +5920,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
       <c r="C169" t="s">
-        <v>703</v>
+        <v>876</v>
       </c>
       <c r="D169">
         <v>105101</v>
@@ -5154,10 +5934,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>438</v>
+        <v>524</v>
       </c>
       <c r="C170" t="s">
-        <v>704</v>
+        <v>877</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -5168,10 +5948,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>439</v>
+        <v>525</v>
       </c>
       <c r="C171" t="s">
-        <v>705</v>
+        <v>878</v>
       </c>
       <c r="D171">
         <v>808</v>
@@ -5182,10 +5962,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>440</v>
+        <v>526</v>
       </c>
       <c r="C172" t="s">
-        <v>706</v>
+        <v>879</v>
       </c>
       <c r="D172">
         <v>84819</v>
@@ -5196,10 +5976,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="C173" t="s">
-        <v>707</v>
+        <v>880</v>
       </c>
       <c r="D173">
         <v>186101</v>
@@ -5210,10 +5990,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>442</v>
+        <v>528</v>
       </c>
       <c r="C174" t="s">
-        <v>708</v>
+        <v>881</v>
       </c>
       <c r="D174">
         <v>87</v>
@@ -5224,10 +6004,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>443</v>
+        <v>529</v>
       </c>
       <c r="C175" t="s">
-        <v>709</v>
+        <v>882</v>
       </c>
       <c r="D175">
         <v>45444</v>
@@ -5238,10 +6018,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>444</v>
+        <v>530</v>
       </c>
       <c r="C176" t="s">
-        <v>710</v>
+        <v>883</v>
       </c>
       <c r="D176">
         <v>14176</v>
@@ -5252,10 +6032,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>445</v>
+        <v>531</v>
       </c>
       <c r="C177" t="s">
-        <v>711</v>
+        <v>884</v>
       </c>
       <c r="D177">
         <v>317960</v>
@@ -5266,10 +6046,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>446</v>
+        <v>532</v>
       </c>
       <c r="C178" t="s">
-        <v>712</v>
+        <v>885</v>
       </c>
       <c r="D178">
         <v>6876</v>
@@ -5280,10 +6060,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>447</v>
+        <v>533</v>
       </c>
       <c r="C179" t="s">
-        <v>713</v>
+        <v>886</v>
       </c>
       <c r="D179">
         <v>4750</v>
@@ -5294,10 +6074,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>448</v>
+        <v>534</v>
       </c>
       <c r="C180" t="s">
-        <v>714</v>
+        <v>887</v>
       </c>
       <c r="D180">
         <v>7688</v>
@@ -5308,10 +6088,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>449</v>
+        <v>535</v>
       </c>
       <c r="C181" t="s">
-        <v>715</v>
+        <v>888</v>
       </c>
       <c r="D181">
         <v>17160</v>
@@ -5322,10 +6102,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>450</v>
+        <v>536</v>
       </c>
       <c r="C182" t="s">
-        <v>716</v>
+        <v>889</v>
       </c>
       <c r="D182">
         <v>360662</v>
@@ -5336,10 +6116,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>451</v>
+        <v>537</v>
       </c>
       <c r="C183" t="s">
-        <v>717</v>
+        <v>890</v>
       </c>
       <c r="D183">
         <v>6316</v>
@@ -5350,10 +6130,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>452</v>
+        <v>538</v>
       </c>
       <c r="C184" t="s">
-        <v>718</v>
+        <v>891</v>
       </c>
       <c r="D184">
         <v>70</v>
@@ -5364,10 +6144,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>453</v>
+        <v>539</v>
       </c>
       <c r="C185" t="s">
-        <v>719</v>
+        <v>892</v>
       </c>
       <c r="D185">
         <v>253822</v>
@@ -5378,10 +6158,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>454</v>
+        <v>540</v>
       </c>
       <c r="C186" t="s">
-        <v>720</v>
+        <v>893</v>
       </c>
       <c r="D186">
         <v>216137</v>
@@ -5392,10 +6172,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>455</v>
+        <v>541</v>
       </c>
       <c r="C187" t="s">
-        <v>721</v>
+        <v>894</v>
       </c>
       <c r="D187">
         <v>6503</v>
@@ -5406,10 +6186,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>456</v>
+        <v>542</v>
       </c>
       <c r="C188" t="s">
-        <v>722</v>
+        <v>895</v>
       </c>
       <c r="D188">
         <v>817810</v>
@@ -5420,10 +6200,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>457</v>
+        <v>543</v>
       </c>
       <c r="C189" t="s">
-        <v>723</v>
+        <v>896</v>
       </c>
       <c r="D189">
         <v>195618</v>
@@ -5434,10 +6214,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>458</v>
+        <v>544</v>
       </c>
       <c r="C190" t="s">
-        <v>724</v>
+        <v>897</v>
       </c>
       <c r="D190">
         <v>349</v>
@@ -5448,10 +6228,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>459</v>
+        <v>545</v>
       </c>
       <c r="C191" t="s">
-        <v>725</v>
+        <v>898</v>
       </c>
       <c r="D191">
         <v>449</v>
@@ -5462,10 +6242,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>460</v>
+        <v>546</v>
       </c>
       <c r="C192" t="s">
-        <v>726</v>
+        <v>899</v>
       </c>
       <c r="D192">
         <v>86494</v>
@@ -5476,10 +6256,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>461</v>
+        <v>547</v>
       </c>
       <c r="C193" t="s">
-        <v>727</v>
+        <v>900</v>
       </c>
       <c r="D193">
         <v>436320</v>
@@ -5490,10 +6270,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="C194" t="s">
-        <v>728</v>
+        <v>901</v>
       </c>
       <c r="D194">
         <v>916</v>
@@ -5504,10 +6284,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>463</v>
+        <v>549</v>
       </c>
       <c r="C195" t="s">
-        <v>729</v>
+        <v>902</v>
       </c>
       <c r="D195">
         <v>13179</v>
@@ -5518,10 +6298,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>464</v>
+        <v>550</v>
       </c>
       <c r="C196" t="s">
-        <v>730</v>
+        <v>903</v>
       </c>
       <c r="D196">
         <v>3475</v>
@@ -5532,10 +6312,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="C197" t="s">
-        <v>731</v>
+        <v>904</v>
       </c>
       <c r="D197">
         <v>8</v>
@@ -5546,10 +6326,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="C198" t="s">
-        <v>732</v>
+        <v>905</v>
       </c>
       <c r="D198">
         <v>153051</v>
@@ -5560,10 +6340,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>467</v>
+        <v>553</v>
       </c>
       <c r="C199" t="s">
-        <v>733</v>
+        <v>906</v>
       </c>
       <c r="D199">
         <v>531404</v>
@@ -5574,10 +6354,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>468</v>
+        <v>554</v>
       </c>
       <c r="C200" t="s">
-        <v>734</v>
+        <v>907</v>
       </c>
       <c r="D200">
         <v>325532</v>
@@ -5588,10 +6368,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>469</v>
+        <v>555</v>
       </c>
       <c r="C201" t="s">
-        <v>735</v>
+        <v>908</v>
       </c>
       <c r="D201">
         <v>449538</v>
@@ -5602,10 +6382,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>470</v>
+        <v>556</v>
       </c>
       <c r="C202" t="s">
-        <v>736</v>
+        <v>909</v>
       </c>
       <c r="D202">
         <v>153083</v>
@@ -5616,10 +6396,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>471</v>
+        <v>557</v>
       </c>
       <c r="C203" t="s">
-        <v>737</v>
+        <v>910</v>
       </c>
       <c r="D203">
         <v>20839</v>
@@ -5630,10 +6410,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>472</v>
+        <v>558</v>
       </c>
       <c r="C204" t="s">
-        <v>738</v>
+        <v>911</v>
       </c>
       <c r="D204">
         <v>4920</v>
@@ -5644,10 +6424,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>473</v>
+        <v>559</v>
       </c>
       <c r="C205" t="s">
-        <v>739</v>
+        <v>912</v>
       </c>
       <c r="D205">
         <v>19506</v>
@@ -5658,10 +6438,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>474</v>
+        <v>560</v>
       </c>
       <c r="C206" t="s">
-        <v>740</v>
+        <v>913</v>
       </c>
       <c r="D206">
         <v>463</v>
@@ -5672,10 +6452,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>475</v>
+        <v>561</v>
       </c>
       <c r="C207" t="s">
-        <v>741</v>
+        <v>914</v>
       </c>
       <c r="D207">
         <v>69288</v>
@@ -5686,10 +6466,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>476</v>
+        <v>562</v>
       </c>
       <c r="C208" t="s">
-        <v>742</v>
+        <v>915</v>
       </c>
       <c r="D208">
         <v>206</v>
@@ -5700,10 +6480,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>477</v>
+        <v>563</v>
       </c>
       <c r="C209" t="s">
-        <v>743</v>
+        <v>916</v>
       </c>
       <c r="D209">
         <v>540607</v>
@@ -5714,10 +6494,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
       <c r="C210" t="s">
-        <v>744</v>
+        <v>917</v>
       </c>
       <c r="D210">
         <v>559350</v>
@@ -5728,10 +6508,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>479</v>
+        <v>565</v>
       </c>
       <c r="C211" t="s">
-        <v>745</v>
+        <v>918</v>
       </c>
       <c r="D211">
         <v>283</v>
@@ -5742,10 +6522,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>480</v>
+        <v>566</v>
       </c>
       <c r="C212" t="s">
-        <v>746</v>
+        <v>919</v>
       </c>
       <c r="D212">
         <v>662</v>
@@ -5756,10 +6536,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>481</v>
+        <v>567</v>
       </c>
       <c r="C213" t="s">
-        <v>747</v>
+        <v>920</v>
       </c>
       <c r="D213">
         <v>25565</v>
@@ -5770,10 +6550,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>482</v>
+        <v>568</v>
       </c>
       <c r="C214" t="s">
-        <v>748</v>
+        <v>921</v>
       </c>
       <c r="D214">
         <v>12225</v>
@@ -5784,10 +6564,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>483</v>
+        <v>569</v>
       </c>
       <c r="C215" t="s">
-        <v>749</v>
+        <v>922</v>
       </c>
       <c r="D215">
         <v>125425</v>
@@ -5798,10 +6578,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>484</v>
+        <v>570</v>
       </c>
       <c r="C216" t="s">
-        <v>750</v>
+        <v>923</v>
       </c>
       <c r="D216">
         <v>10723</v>
@@ -5812,10 +6592,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>485</v>
+        <v>571</v>
       </c>
       <c r="C217" t="s">
-        <v>751</v>
+        <v>924</v>
       </c>
       <c r="D217">
         <v>19453</v>
@@ -5826,10 +6606,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>486</v>
+        <v>572</v>
       </c>
       <c r="C218" t="s">
-        <v>752</v>
+        <v>925</v>
       </c>
       <c r="D218">
         <v>692700</v>
@@ -5840,10 +6620,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>487</v>
+        <v>573</v>
       </c>
       <c r="C219" t="s">
-        <v>753</v>
+        <v>926</v>
       </c>
       <c r="D219">
         <v>11814</v>
@@ -5854,10 +6634,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>488</v>
+        <v>574</v>
       </c>
       <c r="C220" t="s">
-        <v>754</v>
+        <v>927</v>
       </c>
       <c r="D220">
         <v>8</v>
@@ -5868,10 +6648,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>489</v>
+        <v>575</v>
       </c>
       <c r="C221" t="s">
-        <v>755</v>
+        <v>928</v>
       </c>
       <c r="D221">
         <v>2448</v>
@@ -5882,10 +6662,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="C222" t="s">
-        <v>756</v>
+        <v>929</v>
       </c>
       <c r="D222">
         <v>10536</v>
@@ -5896,10 +6676,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>491</v>
+        <v>577</v>
       </c>
       <c r="C223" t="s">
-        <v>757</v>
+        <v>930</v>
       </c>
       <c r="D223">
         <v>215252</v>
@@ -5910,10 +6690,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>492</v>
+        <v>578</v>
       </c>
       <c r="C224" t="s">
-        <v>758</v>
+        <v>931</v>
       </c>
       <c r="D224">
         <v>914871</v>
@@ -5924,10 +6704,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="C225" t="s">
-        <v>759</v>
+        <v>932</v>
       </c>
       <c r="D225">
         <v>595286</v>
@@ -5938,10 +6718,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>494</v>
+        <v>580</v>
       </c>
       <c r="C226" t="s">
-        <v>760</v>
+        <v>933</v>
       </c>
       <c r="D226">
         <v>13136</v>
@@ -5952,10 +6732,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>495</v>
+        <v>581</v>
       </c>
       <c r="C227" t="s">
-        <v>761</v>
+        <v>934</v>
       </c>
       <c r="D227">
         <v>420000</v>
@@ -5966,10 +6746,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>496</v>
+        <v>582</v>
       </c>
       <c r="C228" t="s">
-        <v>762</v>
+        <v>935</v>
       </c>
       <c r="D228">
         <v>143010</v>
@@ -5980,10 +6760,10 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>497</v>
+        <v>583</v>
       </c>
       <c r="C229" t="s">
-        <v>763</v>
+        <v>936</v>
       </c>
       <c r="D229">
         <v>3086</v>
@@ -5994,10 +6774,10 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>498</v>
+        <v>584</v>
       </c>
       <c r="C230" t="s">
-        <v>764</v>
+        <v>937</v>
       </c>
       <c r="D230">
         <v>11176</v>
@@ -6008,10 +6788,10 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>499</v>
+        <v>585</v>
       </c>
       <c r="C231" t="s">
-        <v>765</v>
+        <v>938</v>
       </c>
       <c r="D231">
         <v>4382</v>
@@ -6022,10 +6802,10 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>500</v>
+        <v>586</v>
       </c>
       <c r="C232" t="s">
-        <v>766</v>
+        <v>939</v>
       </c>
       <c r="D232">
         <v>1685</v>
@@ -6036,10 +6816,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>501</v>
+        <v>587</v>
       </c>
       <c r="C233" t="s">
-        <v>767</v>
+        <v>940</v>
       </c>
       <c r="D233">
         <v>398</v>
@@ -6050,10 +6830,10 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>502</v>
+        <v>588</v>
       </c>
       <c r="C234" t="s">
-        <v>768</v>
+        <v>941</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -6064,10 +6844,10 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>503</v>
+        <v>589</v>
       </c>
       <c r="C235" t="s">
-        <v>769</v>
+        <v>942</v>
       </c>
       <c r="D235">
         <v>24589</v>
@@ -6078,10 +6858,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>504</v>
+        <v>590</v>
       </c>
       <c r="C236" t="s">
-        <v>770</v>
+        <v>943</v>
       </c>
       <c r="D236">
         <v>1212800</v>
@@ -6092,10 +6872,10 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>505</v>
+        <v>591</v>
       </c>
       <c r="C237" t="s">
-        <v>771</v>
+        <v>944</v>
       </c>
       <c r="D237">
         <v>264166</v>
@@ -6106,10 +6886,10 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>506</v>
+        <v>592</v>
       </c>
       <c r="C238" t="s">
-        <v>772</v>
+        <v>945</v>
       </c>
       <c r="D238">
         <v>4895863</v>
@@ -6120,10 +6900,10 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>507</v>
+        <v>593</v>
       </c>
       <c r="C239" t="s">
-        <v>773</v>
+        <v>946</v>
       </c>
       <c r="D239">
         <v>3591</v>
@@ -6134,10 +6914,10 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="C240" t="s">
-        <v>774</v>
+        <v>947</v>
       </c>
       <c r="D240">
         <v>8963</v>
@@ -6148,10 +6928,10 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="C241" t="s">
-        <v>775</v>
+        <v>948</v>
       </c>
       <c r="D241">
         <v>763103</v>
@@ -6162,10 +6942,10 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="C242" t="s">
-        <v>776</v>
+        <v>949</v>
       </c>
       <c r="D242">
         <v>400</v>
@@ -6176,10 +6956,10 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>511</v>
+        <v>597</v>
       </c>
       <c r="C243" t="s">
-        <v>777</v>
+        <v>950</v>
       </c>
       <c r="D243">
         <v>680405</v>
@@ -6190,10 +6970,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="C244" t="s">
-        <v>778</v>
+        <v>951</v>
       </c>
       <c r="D244">
         <v>5165</v>
@@ -6204,10 +6984,10 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="C245" t="s">
-        <v>779</v>
+        <v>952</v>
       </c>
       <c r="D245">
         <v>179802</v>
@@ -6218,10 +6998,10 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="C246" t="s">
-        <v>780</v>
+        <v>953</v>
       </c>
       <c r="D246">
         <v>50393</v>
@@ -6232,10 +7012,10 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="C247" t="s">
-        <v>781</v>
+        <v>954</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -6246,10 +7026,10 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>516</v>
+        <v>602</v>
       </c>
       <c r="C248" t="s">
-        <v>782</v>
+        <v>955</v>
       </c>
       <c r="D248">
         <v>81</v>
@@ -6260,10 +7040,10 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>517</v>
+        <v>603</v>
       </c>
       <c r="C249" t="s">
-        <v>783</v>
+        <v>956</v>
       </c>
       <c r="D249">
         <v>2573153</v>
@@ -6274,10 +7054,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>518</v>
+        <v>604</v>
       </c>
       <c r="C250" t="s">
-        <v>784</v>
+        <v>957</v>
       </c>
       <c r="D250">
         <v>173495</v>
@@ -6288,10 +7068,10 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>519</v>
+        <v>605</v>
       </c>
       <c r="C251" t="s">
-        <v>785</v>
+        <v>958</v>
       </c>
       <c r="D251">
         <v>27600</v>
@@ -6302,10 +7082,10 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>520</v>
+        <v>606</v>
       </c>
       <c r="C252" t="s">
-        <v>786</v>
+        <v>959</v>
       </c>
       <c r="D252">
         <v>485379</v>
@@ -6316,10 +7096,10 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>521</v>
+        <v>607</v>
       </c>
       <c r="C253" t="s">
-        <v>787</v>
+        <v>960</v>
       </c>
       <c r="D253">
         <v>331919</v>
@@ -6330,10 +7110,10 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="C254" t="s">
-        <v>788</v>
+        <v>961</v>
       </c>
       <c r="D254">
         <v>1865848</v>
@@ -6344,10 +7124,10 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>523</v>
+        <v>609</v>
       </c>
       <c r="C255" t="s">
-        <v>789</v>
+        <v>962</v>
       </c>
       <c r="D255">
         <v>24</v>
@@ -6358,10 +7138,10 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>524</v>
+        <v>610</v>
       </c>
       <c r="C256" t="s">
-        <v>790</v>
+        <v>963</v>
       </c>
       <c r="D256">
         <v>32122</v>
@@ -6372,10 +7152,10 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>525</v>
+        <v>611</v>
       </c>
       <c r="C257" t="s">
-        <v>791</v>
+        <v>964</v>
       </c>
       <c r="D257">
         <v>7108</v>
@@ -6386,10 +7166,10 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>526</v>
+        <v>612</v>
       </c>
       <c r="C258" t="s">
-        <v>792</v>
+        <v>965</v>
       </c>
       <c r="D258">
         <v>71</v>
@@ -6400,10 +7180,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>527</v>
+        <v>613</v>
       </c>
       <c r="C259" t="s">
-        <v>793</v>
+        <v>966</v>
       </c>
       <c r="D259">
         <v>670927</v>
@@ -6414,10 +7194,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>528</v>
+        <v>614</v>
       </c>
       <c r="C260" t="s">
-        <v>794</v>
+        <v>967</v>
       </c>
       <c r="D260">
         <v>13137</v>
@@ -6428,10 +7208,10 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="C261" t="s">
-        <v>795</v>
+        <v>968</v>
       </c>
       <c r="D261">
         <v>14209</v>
@@ -6442,10 +7222,10 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>530</v>
+        <v>616</v>
       </c>
       <c r="C262" t="s">
-        <v>796</v>
+        <v>969</v>
       </c>
       <c r="D262">
         <v>28342</v>
@@ -6456,10 +7236,10 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>531</v>
+        <v>617</v>
       </c>
       <c r="C263" t="s">
-        <v>797</v>
+        <v>970</v>
       </c>
       <c r="D263">
         <v>696637</v>
@@ -6470,10 +7250,10 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>532</v>
+        <v>618</v>
       </c>
       <c r="C264" t="s">
-        <v>798</v>
+        <v>971</v>
       </c>
       <c r="D264">
         <v>11723</v>
@@ -6484,10 +7264,10 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>533</v>
+        <v>619</v>
       </c>
       <c r="C265" t="s">
-        <v>799</v>
+        <v>972</v>
       </c>
       <c r="D265">
         <v>23642</v>
@@ -6498,10 +7278,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>534</v>
+        <v>620</v>
       </c>
       <c r="C266" t="s">
-        <v>800</v>
+        <v>973</v>
       </c>
       <c r="D266">
         <v>23034</v>
@@ -6512,13 +7292,1231 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>535</v>
+        <v>621</v>
       </c>
       <c r="C267" t="s">
-        <v>801</v>
+        <v>974</v>
       </c>
       <c r="D267">
         <v>285699</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268" t="s">
+        <v>622</v>
+      </c>
+      <c r="C268" t="s">
+        <v>975</v>
+      </c>
+      <c r="D268">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269" t="s">
+        <v>623</v>
+      </c>
+      <c r="C269" t="s">
+        <v>976</v>
+      </c>
+      <c r="D269">
+        <v>99454</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270" t="s">
+        <v>624</v>
+      </c>
+      <c r="C270" t="s">
+        <v>977</v>
+      </c>
+      <c r="D270">
+        <v>11357</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271" t="s">
+        <v>625</v>
+      </c>
+      <c r="C271" t="s">
+        <v>978</v>
+      </c>
+      <c r="D271">
+        <v>15345</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272" t="s">
+        <v>626</v>
+      </c>
+      <c r="C272" t="s">
+        <v>979</v>
+      </c>
+      <c r="D272">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273" t="s">
+        <v>627</v>
+      </c>
+      <c r="C273" t="s">
+        <v>980</v>
+      </c>
+      <c r="D273">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274" t="s">
+        <v>628</v>
+      </c>
+      <c r="C274" t="s">
+        <v>981</v>
+      </c>
+      <c r="D274">
+        <v>220839</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275" t="s">
+        <v>629</v>
+      </c>
+      <c r="C275" t="s">
+        <v>982</v>
+      </c>
+      <c r="D275">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276" t="s">
+        <v>630</v>
+      </c>
+      <c r="C276" t="s">
+        <v>983</v>
+      </c>
+      <c r="D276">
+        <v>17088</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277" t="s">
+        <v>631</v>
+      </c>
+      <c r="C277" t="s">
+        <v>984</v>
+      </c>
+      <c r="D277">
+        <v>156486</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278" t="s">
+        <v>632</v>
+      </c>
+      <c r="C278" t="s">
+        <v>985</v>
+      </c>
+      <c r="D278">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279" t="s">
+        <v>633</v>
+      </c>
+      <c r="C279" t="s">
+        <v>986</v>
+      </c>
+      <c r="D279">
+        <v>148708</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280" t="s">
+        <v>634</v>
+      </c>
+      <c r="C280" t="s">
+        <v>987</v>
+      </c>
+      <c r="D280">
+        <v>212410</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281" t="s">
+        <v>635</v>
+      </c>
+      <c r="C281" t="s">
+        <v>988</v>
+      </c>
+      <c r="D281">
+        <v>565473</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282" t="s">
+        <v>636</v>
+      </c>
+      <c r="C282" t="s">
+        <v>989</v>
+      </c>
+      <c r="D282">
+        <v>1008453</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283" t="s">
+        <v>637</v>
+      </c>
+      <c r="C283" t="s">
+        <v>990</v>
+      </c>
+      <c r="D283">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284" t="s">
+        <v>638</v>
+      </c>
+      <c r="C284" t="s">
+        <v>991</v>
+      </c>
+      <c r="D284">
+        <v>2716106</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285" t="s">
+        <v>639</v>
+      </c>
+      <c r="C285" t="s">
+        <v>992</v>
+      </c>
+      <c r="D285">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286" t="s">
+        <v>640</v>
+      </c>
+      <c r="C286" t="s">
+        <v>993</v>
+      </c>
+      <c r="D286">
+        <v>76330</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287" t="s">
+        <v>641</v>
+      </c>
+      <c r="C287" t="s">
+        <v>994</v>
+      </c>
+      <c r="D287">
+        <v>6944</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288" t="s">
+        <v>642</v>
+      </c>
+      <c r="C288" t="s">
+        <v>995</v>
+      </c>
+      <c r="D288">
+        <v>7466</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289" t="s">
+        <v>643</v>
+      </c>
+      <c r="C289" t="s">
+        <v>996</v>
+      </c>
+      <c r="D289">
+        <v>112830</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290" t="s">
+        <v>644</v>
+      </c>
+      <c r="C290" t="s">
+        <v>997</v>
+      </c>
+      <c r="D290">
+        <v>69657</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291" t="s">
+        <v>645</v>
+      </c>
+      <c r="C291" t="s">
+        <v>998</v>
+      </c>
+      <c r="D291">
+        <v>265728</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292" t="s">
+        <v>646</v>
+      </c>
+      <c r="C292" t="s">
+        <v>999</v>
+      </c>
+      <c r="D292">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293" t="s">
+        <v>647</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D293">
+        <v>1504714</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294" t="s">
+        <v>648</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D294">
+        <v>25624</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295" t="s">
+        <v>649</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D295">
+        <v>212898</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296" t="s">
+        <v>650</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D296">
+        <v>7077</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297" t="s">
+        <v>651</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D297">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298" t="s">
+        <v>652</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D298">
+        <v>7788</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299" t="s">
+        <v>653</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D299">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300" t="s">
+        <v>654</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D300">
+        <v>73023</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301" t="s">
+        <v>655</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302" t="s">
+        <v>656</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D302">
+        <v>407080</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303" t="s">
+        <v>657</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D303">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304" t="s">
+        <v>658</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D304">
+        <v>10274</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305" t="s">
+        <v>659</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D305">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306" t="s">
+        <v>660</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D306">
+        <v>147820</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307" t="s">
+        <v>661</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D307">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308" t="s">
+        <v>662</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D308">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309" t="s">
+        <v>663</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D309">
+        <v>70029</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310" t="s">
+        <v>664</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D310">
+        <v>448814</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311" t="s">
+        <v>665</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D311">
+        <v>37249</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312" t="s">
+        <v>666</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D312">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313" t="s">
+        <v>667</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D313">
+        <v>125460</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314" t="s">
+        <v>668</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D314">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315" t="s">
+        <v>669</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D315">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316" t="s">
+        <v>670</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D316">
+        <v>432701</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317" t="s">
+        <v>671</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D317">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318" t="s">
+        <v>672</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D318">
+        <v>33588</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319" t="s">
+        <v>673</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D319">
+        <v>127375</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320" t="s">
+        <v>674</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D320">
+        <v>26892</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321" t="s">
+        <v>675</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D321">
+        <v>16536</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322" t="s">
+        <v>676</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D322">
+        <v>196859</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323" t="s">
+        <v>677</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D323">
+        <v>66540</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324" t="s">
+        <v>678</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325" t="s">
+        <v>679</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D325">
+        <v>5719</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326" t="s">
+        <v>680</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D326">
+        <v>30404</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>329</v>
+      </c>
+      <c r="B327" t="s">
+        <v>681</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D327">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>330</v>
+      </c>
+      <c r="B328" t="s">
+        <v>682</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D328">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329" t="s">
+        <v>683</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D329">
+        <v>54131</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>332</v>
+      </c>
+      <c r="B330" t="s">
+        <v>684</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D330">
+        <v>145499</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>333</v>
+      </c>
+      <c r="B331" t="s">
+        <v>685</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D331">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>334</v>
+      </c>
+      <c r="B332" t="s">
+        <v>686</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D332">
+        <v>81899</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>335</v>
+      </c>
+      <c r="B333" t="s">
+        <v>687</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D333">
+        <v>85403</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>336</v>
+      </c>
+      <c r="B334" t="s">
+        <v>688</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>337</v>
+      </c>
+      <c r="B335" t="s">
+        <v>689</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D335">
+        <v>120904</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>338</v>
+      </c>
+      <c r="B336" t="s">
+        <v>690</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D336">
+        <v>259553</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>339</v>
+      </c>
+      <c r="B337" t="s">
+        <v>691</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D337">
+        <v>192103</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>340</v>
+      </c>
+      <c r="B338" t="s">
+        <v>692</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D338">
+        <v>74199</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>341</v>
+      </c>
+      <c r="B339" t="s">
+        <v>693</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D339">
+        <v>11866</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340" t="s">
+        <v>694</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D340">
+        <v>452357</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341" t="s">
+        <v>695</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D341">
+        <v>274776</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>110</v>
+      </c>
+      <c r="B342" t="s">
+        <v>696</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D342">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" t="s">
+        <v>697</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D343">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344" t="s">
+        <v>698</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D344">
+        <v>7386</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345" t="s">
+        <v>699</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D345">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346" t="s">
+        <v>700</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D346">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347" t="s">
+        <v>701</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D347">
+        <v>146332</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348" t="s">
+        <v>702</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D348">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349" t="s">
+        <v>703</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D349">
+        <v>1002801</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350" t="s">
+        <v>704</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D350">
+        <v>204562</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351" t="s">
+        <v>705</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D351">
+        <v>99175</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352" t="s">
+        <v>706</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D352">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353" t="s">
+        <v>707</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D353">
+        <v>670224</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354" t="s">
+        <v>708</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D354">
+        <v>1415</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="1074">
   <si>
     <t>Date</t>
   </si>
@@ -1084,6 +1084,18 @@
     <t>2026-02-18 07:07:08</t>
   </si>
   <si>
+    <t>2026-02-18 16:43:43</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:01:57</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:21:23</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:35:56</t>
+  </si>
+  <si>
     <t>237671823369</t>
   </si>
   <si>
@@ -2143,6 +2155,18 @@
     <t>237650522297</t>
   </si>
   <si>
+    <t>237674895525</t>
+  </si>
+  <si>
+    <t>237683454307</t>
+  </si>
+  <si>
+    <t>237671104974</t>
+  </si>
+  <si>
+    <t>237671694408</t>
+  </si>
+  <si>
     <t>MFS ENTREE COLLEGE MALANGUE</t>
   </si>
   <si>
@@ -3200,6 +3224,18 @@
   </si>
   <si>
     <t>SIMON SIE NKO</t>
+  </si>
+  <si>
+    <t>NFOR EPSE FOMUNGUM ASSUMPTA MUMBEB</t>
+  </si>
+  <si>
+    <t>NGO MBOMNDA JULIENNE ELVA CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>MFS AM MARCHÉ BEEDI</t>
+  </si>
+  <si>
+    <t>VARELLE NKENGUE BILLE</t>
   </si>
 </sst>
 </file>
@@ -3557,7 +3593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D354"/>
+  <dimension ref="A1:D358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3582,10 +3618,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="D2">
         <v>30095</v>
@@ -3596,10 +3632,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="D3">
         <v>36595</v>
@@ -3610,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D4">
         <v>1042551</v>
@@ -3624,10 +3660,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="D5">
         <v>12973</v>
@@ -3638,10 +3674,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="D6">
         <v>878</v>
@@ -3652,10 +3688,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -3666,10 +3702,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="D8">
         <v>215254</v>
@@ -3680,10 +3716,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="D9">
         <v>190023</v>
@@ -3694,10 +3730,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="D10">
         <v>6498</v>
@@ -3708,10 +3744,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="D11">
         <v>98844</v>
@@ -3722,10 +3758,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="D12">
         <v>86556</v>
@@ -3736,10 +3772,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -3750,10 +3786,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C14" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="D14">
         <v>9594</v>
@@ -3764,10 +3800,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="D15">
         <v>262</v>
@@ -3778,10 +3814,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D16">
         <v>517168</v>
@@ -3792,10 +3828,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="D17">
         <v>96868</v>
@@ -3806,10 +3842,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C18" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="D18">
         <v>109492</v>
@@ -3820,10 +3856,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C19" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -3834,10 +3870,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="D20">
         <v>44076</v>
@@ -3848,10 +3884,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C21" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="D21">
         <v>21000</v>
@@ -3862,10 +3898,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C22" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="D22">
         <v>94556</v>
@@ -3876,10 +3912,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C23" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="D23">
         <v>5345</v>
@@ -3890,10 +3926,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C24" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="D24">
         <v>8858</v>
@@ -3904,10 +3940,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C25" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="D25">
         <v>264112</v>
@@ -3918,10 +3954,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C26" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="D26">
         <v>55699</v>
@@ -3932,10 +3968,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C27" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="D27">
         <v>56245</v>
@@ -3946,10 +3982,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C28" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="D28">
         <v>4751</v>
@@ -3960,10 +3996,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C29" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="D29">
         <v>1873</v>
@@ -3974,10 +4010,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="D30">
         <v>333218</v>
@@ -3988,10 +4024,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="D31">
         <v>6385129</v>
@@ -4002,10 +4038,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C32" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="D32">
         <v>13377</v>
@@ -4016,10 +4052,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C33" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="D33">
         <v>6729</v>
@@ -4030,10 +4066,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C34" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="D34">
         <v>864</v>
@@ -4044,10 +4080,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C35" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="D35">
         <v>472353</v>
@@ -4058,10 +4094,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C36" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="D36">
         <v>23</v>
@@ -4072,10 +4108,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C37" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="D37">
         <v>24386</v>
@@ -4086,10 +4122,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C38" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="D38">
         <v>44600</v>
@@ -4100,10 +4136,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C39" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="D39">
         <v>2042</v>
@@ -4114,10 +4150,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C40" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="D40">
         <v>109659</v>
@@ -4128,10 +4164,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C41" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="D41">
         <v>2977</v>
@@ -4142,10 +4178,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C42" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="D42">
         <v>843587</v>
@@ -4156,10 +4192,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C43" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="D43">
         <v>206473</v>
@@ -4170,10 +4206,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C44" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="D44">
         <v>13531</v>
@@ -4184,10 +4220,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C45" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="D45">
         <v>79737</v>
@@ -4198,10 +4234,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C46" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="D46">
         <v>11434</v>
@@ -4212,10 +4248,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C47" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="D47">
         <v>501</v>
@@ -4226,10 +4262,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C48" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="D48">
         <v>380</v>
@@ -4240,10 +4276,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C49" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="D49">
         <v>43362</v>
@@ -4254,10 +4290,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C50" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="D50">
         <v>708340</v>
@@ -4268,10 +4304,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C51" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="D51">
         <v>3593</v>
@@ -4282,10 +4318,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C52" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="D52">
         <v>1879475</v>
@@ -4296,10 +4332,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C53" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="D53">
         <v>3784</v>
@@ -4310,10 +4346,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C54" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="D54">
         <v>70172</v>
@@ -4324,10 +4360,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C55" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="D55">
         <v>148</v>
@@ -4338,10 +4374,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C56" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4352,10 +4388,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C57" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="D57">
         <v>97484</v>
@@ -4366,10 +4402,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C58" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="D58">
         <v>7927</v>
@@ -4380,10 +4416,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C59" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="D59">
         <v>61762</v>
@@ -4394,10 +4430,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C60" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -4408,10 +4444,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C61" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="D61">
         <v>12292</v>
@@ -4422,10 +4458,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C62" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="D62">
         <v>366231</v>
@@ -4436,10 +4472,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C63" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="D63">
         <v>20358</v>
@@ -4450,10 +4486,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C64" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -4464,10 +4500,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C65" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="D65">
         <v>29507</v>
@@ -4478,10 +4514,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C66" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="D66">
         <v>71538</v>
@@ -4492,10 +4528,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C67" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="D67">
         <v>438901</v>
@@ -4506,10 +4542,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C68" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="D68">
         <v>15525</v>
@@ -4520,10 +4556,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C69" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D69">
         <v>792132</v>
@@ -4534,10 +4570,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C70" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="D70">
         <v>524523</v>
@@ -4548,10 +4584,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C71" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="D71">
         <v>866</v>
@@ -4562,10 +4598,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C72" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="D72">
         <v>101711</v>
@@ -4576,10 +4612,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C73" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="D73">
         <v>6178</v>
@@ -4590,10 +4626,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C74" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="D74">
         <v>1269273</v>
@@ -4604,10 +4640,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C75" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="D75">
         <v>20668</v>
@@ -4618,10 +4654,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C76" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="D76">
         <v>40652</v>
@@ -4632,10 +4668,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C77" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="D77">
         <v>21475</v>
@@ -4646,10 +4682,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C78" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="D78">
         <v>5015499</v>
@@ -4660,10 +4696,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C79" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="D79">
         <v>4249</v>
@@ -4674,10 +4710,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C80" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="D80">
         <v>462</v>
@@ -4688,10 +4724,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C81" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="D81">
         <v>3510</v>
@@ -4702,10 +4738,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C82" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="D82">
         <v>3076</v>
@@ -4716,10 +4752,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C83" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="D83">
         <v>5861</v>
@@ -4730,10 +4766,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C84" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="D84">
         <v>221</v>
@@ -4744,10 +4780,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C85" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="D85">
         <v>63743</v>
@@ -4758,10 +4794,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C86" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4772,10 +4808,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C87" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D87">
         <v>36813</v>
@@ -4786,10 +4822,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C88" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="D88">
         <v>513</v>
@@ -4800,10 +4836,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C89" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="D89">
         <v>80118</v>
@@ -4814,10 +4850,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C90" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="D90">
         <v>2940201</v>
@@ -4828,10 +4864,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C91" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="D91">
         <v>2339</v>
@@ -4842,10 +4878,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C92" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="D92">
         <v>4075</v>
@@ -4856,10 +4892,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C93" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="D93">
         <v>1013</v>
@@ -4870,10 +4906,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C94" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="D94">
         <v>68166</v>
@@ -4884,10 +4920,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C95" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="D95">
         <v>1288</v>
@@ -4898,10 +4934,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C96" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4912,10 +4948,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C97" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="D97">
         <v>59398</v>
@@ -4926,10 +4962,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C98" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="D98">
         <v>7418</v>
@@ -4940,10 +4976,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C99" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="D99">
         <v>38799</v>
@@ -4954,10 +4990,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C100" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D100">
         <v>446015</v>
@@ -4968,10 +5004,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C101" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="D101">
         <v>32</v>
@@ -4982,10 +5018,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C102" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="D102">
         <v>70556</v>
@@ -4996,10 +5032,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C103" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="D103">
         <v>290990</v>
@@ -5010,10 +5046,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C104" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="D104">
         <v>24133</v>
@@ -5024,10 +5060,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C105" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="D105">
         <v>7991</v>
@@ -5038,10 +5074,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C106" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="D106">
         <v>54595</v>
@@ -5052,10 +5088,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C107" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="D107">
         <v>23</v>
@@ -5066,10 +5102,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C108" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="D108">
         <v>6025929</v>
@@ -5080,10 +5116,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C109" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="D109">
         <v>17416</v>
@@ -5094,10 +5130,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C110" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="D110">
         <v>59923</v>
@@ -5108,10 +5144,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C111" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="D111">
         <v>9700</v>
@@ -5122,10 +5158,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C112" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="D112">
         <v>668234</v>
@@ -5136,10 +5172,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C113" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="D113">
         <v>141</v>
@@ -5150,10 +5186,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C114" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="D114">
         <v>134935</v>
@@ -5164,10 +5200,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C115" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="D115">
         <v>11600</v>
@@ -5178,10 +5214,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C116" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -5192,10 +5228,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C117" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="D117">
         <v>500214</v>
@@ -5206,10 +5242,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C118" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="D118">
         <v>179255</v>
@@ -5220,10 +5256,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C119" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D119">
         <v>616178</v>
@@ -5234,10 +5270,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C120" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -5248,10 +5284,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C121" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5262,10 +5298,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C122" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="D122">
         <v>948473</v>
@@ -5276,10 +5312,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C123" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="D123">
         <v>141336</v>
@@ -5290,10 +5326,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C124" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="D124">
         <v>31942</v>
@@ -5304,10 +5340,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C125" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="D125">
         <v>126700</v>
@@ -5318,10 +5354,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C126" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="D126">
         <v>7184</v>
@@ -5332,10 +5368,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C127" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="D127">
         <v>62509</v>
@@ -5346,10 +5382,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C128" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="D128">
         <v>10441</v>
@@ -5360,10 +5396,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C129" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="D129">
         <v>2922</v>
@@ -5374,10 +5410,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C130" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="D130">
         <v>108036</v>
@@ -5388,10 +5424,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C131" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="D131">
         <v>14</v>
@@ -5402,10 +5438,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C132" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="D132">
         <v>271853</v>
@@ -5416,10 +5452,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C133" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D133">
         <v>900184</v>
@@ -5430,10 +5466,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C134" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="D134">
         <v>6534</v>
@@ -5444,10 +5480,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C135" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="D135">
         <v>212127</v>
@@ -5458,10 +5494,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C136" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="D136">
         <v>20562</v>
@@ -5472,10 +5508,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C137" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5486,10 +5522,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C138" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="D138">
         <v>66242</v>
@@ -5500,10 +5536,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C139" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="D139">
         <v>237616</v>
@@ -5514,10 +5550,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C140" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="D140">
         <v>986</v>
@@ -5528,10 +5564,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C141" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="D141">
         <v>525</v>
@@ -5542,10 +5578,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C142" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="D142">
         <v>192476</v>
@@ -5556,10 +5592,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C143" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="D143">
         <v>2179</v>
@@ -5570,10 +5606,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C144" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="D144">
         <v>23601</v>
@@ -5584,10 +5620,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C145" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="D145">
         <v>2279</v>
@@ -5598,10 +5634,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C146" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="D146">
         <v>35332</v>
@@ -5612,10 +5648,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C147" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="D147">
         <v>224</v>
@@ -5626,10 +5662,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C148" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="D148">
         <v>135162</v>
@@ -5640,10 +5676,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C149" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="D149">
         <v>2818</v>
@@ -5654,10 +5690,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C150" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="D150">
         <v>6792</v>
@@ -5668,10 +5704,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C151" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="D151">
         <v>23538</v>
@@ -5682,10 +5718,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C152" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="D152">
         <v>2635</v>
@@ -5696,10 +5732,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C153" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="D153">
         <v>3020</v>
@@ -5710,10 +5746,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C154" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="D154">
         <v>85937</v>
@@ -5724,10 +5760,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C155" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="D155">
         <v>1106</v>
@@ -5738,10 +5774,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C156" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="D156">
         <v>288689</v>
@@ -5752,10 +5788,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C157" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="D157">
         <v>23936</v>
@@ -5766,10 +5802,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C158" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="D158">
         <v>7901748</v>
@@ -5780,10 +5816,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C159" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="D159">
         <v>4701</v>
@@ -5794,10 +5830,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C160" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="D160">
         <v>63814</v>
@@ -5808,10 +5844,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C161" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="D161">
         <v>432</v>
@@ -5822,10 +5858,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C162" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="D162">
         <v>335842</v>
@@ -5836,10 +5872,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C163" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="D163">
         <v>14511</v>
@@ -5850,10 +5886,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C164" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="D164">
         <v>29941</v>
@@ -5864,10 +5900,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C165" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="D165">
         <v>4082</v>
@@ -5878,10 +5914,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C166" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -5892,10 +5928,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C167" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="D167">
         <v>540</v>
@@ -5906,10 +5942,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C168" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="D168">
         <v>43657</v>
@@ -5920,10 +5956,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C169" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="D169">
         <v>105101</v>
@@ -5934,10 +5970,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C170" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -5948,10 +5984,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C171" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="D171">
         <v>808</v>
@@ -5962,10 +5998,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C172" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="D172">
         <v>84819</v>
@@ -5976,10 +6012,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C173" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="D173">
         <v>186101</v>
@@ -5990,10 +6026,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C174" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="D174">
         <v>87</v>
@@ -6004,10 +6040,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C175" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="D175">
         <v>45444</v>
@@ -6018,10 +6054,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C176" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="D176">
         <v>14176</v>
@@ -6032,10 +6068,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C177" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="D177">
         <v>317960</v>
@@ -6046,10 +6082,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C178" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="D178">
         <v>6876</v>
@@ -6060,10 +6096,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C179" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="D179">
         <v>4750</v>
@@ -6074,10 +6110,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C180" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="D180">
         <v>7688</v>
@@ -6088,10 +6124,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C181" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="D181">
         <v>17160</v>
@@ -6102,10 +6138,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C182" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="D182">
         <v>360662</v>
@@ -6116,10 +6152,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C183" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="D183">
         <v>6316</v>
@@ -6130,10 +6166,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C184" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="D184">
         <v>70</v>
@@ -6144,10 +6180,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C185" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="D185">
         <v>253822</v>
@@ -6158,10 +6194,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C186" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="D186">
         <v>216137</v>
@@ -6172,10 +6208,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C187" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="D187">
         <v>6503</v>
@@ -6186,10 +6222,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C188" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="D188">
         <v>817810</v>
@@ -6200,10 +6236,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C189" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="D189">
         <v>195618</v>
@@ -6214,10 +6250,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C190" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="D190">
         <v>349</v>
@@ -6228,10 +6264,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C191" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="D191">
         <v>449</v>
@@ -6242,10 +6278,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C192" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="D192">
         <v>86494</v>
@@ -6256,10 +6292,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C193" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="D193">
         <v>436320</v>
@@ -6270,10 +6306,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C194" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="D194">
         <v>916</v>
@@ -6284,10 +6320,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C195" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="D195">
         <v>13179</v>
@@ -6298,10 +6334,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C196" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D196">
         <v>3475</v>
@@ -6312,10 +6348,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C197" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="D197">
         <v>8</v>
@@ -6326,10 +6362,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C198" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="D198">
         <v>153051</v>
@@ -6340,10 +6376,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C199" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="D199">
         <v>531404</v>
@@ -6354,10 +6390,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C200" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="D200">
         <v>325532</v>
@@ -6368,10 +6404,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C201" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="D201">
         <v>449538</v>
@@ -6382,10 +6418,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C202" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="D202">
         <v>153083</v>
@@ -6396,10 +6432,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C203" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="D203">
         <v>20839</v>
@@ -6410,10 +6446,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C204" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="D204">
         <v>4920</v>
@@ -6424,10 +6460,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C205" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="D205">
         <v>19506</v>
@@ -6438,10 +6474,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C206" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="D206">
         <v>463</v>
@@ -6452,10 +6488,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C207" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="D207">
         <v>69288</v>
@@ -6466,10 +6502,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C208" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="D208">
         <v>206</v>
@@ -6480,10 +6516,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C209" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="D209">
         <v>540607</v>
@@ -6494,10 +6530,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C210" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="D210">
         <v>559350</v>
@@ -6508,10 +6544,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C211" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="D211">
         <v>283</v>
@@ -6522,10 +6558,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C212" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="D212">
         <v>662</v>
@@ -6536,10 +6572,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C213" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="D213">
         <v>25565</v>
@@ -6550,10 +6586,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C214" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="D214">
         <v>12225</v>
@@ -6564,10 +6600,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C215" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="D215">
         <v>125425</v>
@@ -6578,10 +6614,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C216" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="D216">
         <v>10723</v>
@@ -6592,10 +6628,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C217" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="D217">
         <v>19453</v>
@@ -6606,10 +6642,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C218" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="D218">
         <v>692700</v>
@@ -6620,10 +6656,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C219" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="D219">
         <v>11814</v>
@@ -6634,10 +6670,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C220" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="D220">
         <v>8</v>
@@ -6648,10 +6684,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C221" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="D221">
         <v>2448</v>
@@ -6662,10 +6698,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C222" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="D222">
         <v>10536</v>
@@ -6676,10 +6712,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C223" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="D223">
         <v>215252</v>
@@ -6690,10 +6726,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C224" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="D224">
         <v>914871</v>
@@ -6704,10 +6740,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C225" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="D225">
         <v>595286</v>
@@ -6718,10 +6754,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C226" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="D226">
         <v>13136</v>
@@ -6732,10 +6768,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C227" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="D227">
         <v>420000</v>
@@ -6746,10 +6782,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C228" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="D228">
         <v>143010</v>
@@ -6760,10 +6796,10 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C229" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="D229">
         <v>3086</v>
@@ -6774,10 +6810,10 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C230" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D230">
         <v>11176</v>
@@ -6788,10 +6824,10 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C231" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="D231">
         <v>4382</v>
@@ -6802,10 +6838,10 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C232" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="D232">
         <v>1685</v>
@@ -6816,10 +6852,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C233" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="D233">
         <v>398</v>
@@ -6830,10 +6866,10 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C234" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -6844,10 +6880,10 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C235" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="D235">
         <v>24589</v>
@@ -6858,10 +6894,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C236" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="D236">
         <v>1212800</v>
@@ -6872,10 +6908,10 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C237" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D237">
         <v>264166</v>
@@ -6886,10 +6922,10 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C238" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="D238">
         <v>4895863</v>
@@ -6900,10 +6936,10 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C239" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="D239">
         <v>3591</v>
@@ -6914,10 +6950,10 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C240" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="D240">
         <v>8963</v>
@@ -6928,10 +6964,10 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C241" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="D241">
         <v>763103</v>
@@ -6942,10 +6978,10 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C242" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="D242">
         <v>400</v>
@@ -6956,10 +6992,10 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C243" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="D243">
         <v>680405</v>
@@ -6970,10 +7006,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C244" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="D244">
         <v>5165</v>
@@ -6984,10 +7020,10 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C245" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D245">
         <v>179802</v>
@@ -6998,10 +7034,10 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C246" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="D246">
         <v>50393</v>
@@ -7012,10 +7048,10 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C247" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -7026,10 +7062,10 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C248" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="D248">
         <v>81</v>
@@ -7040,10 +7076,10 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C249" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="D249">
         <v>2573153</v>
@@ -7054,10 +7090,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C250" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="D250">
         <v>173495</v>
@@ -7068,10 +7104,10 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C251" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="D251">
         <v>27600</v>
@@ -7082,10 +7118,10 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C252" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="D252">
         <v>485379</v>
@@ -7096,10 +7132,10 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C253" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="D253">
         <v>331919</v>
@@ -7110,10 +7146,10 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C254" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="D254">
         <v>1865848</v>
@@ -7124,10 +7160,10 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C255" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="D255">
         <v>24</v>
@@ -7138,10 +7174,10 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C256" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="D256">
         <v>32122</v>
@@ -7152,10 +7188,10 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C257" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="D257">
         <v>7108</v>
@@ -7166,10 +7202,10 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C258" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="D258">
         <v>71</v>
@@ -7180,10 +7216,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C259" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="D259">
         <v>670927</v>
@@ -7194,10 +7230,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C260" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="D260">
         <v>13137</v>
@@ -7208,10 +7244,10 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C261" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="D261">
         <v>14209</v>
@@ -7222,10 +7258,10 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C262" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="D262">
         <v>28342</v>
@@ -7236,10 +7272,10 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C263" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="D263">
         <v>696637</v>
@@ -7250,10 +7286,10 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C264" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="D264">
         <v>11723</v>
@@ -7264,10 +7300,10 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C265" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="D265">
         <v>23642</v>
@@ -7278,10 +7314,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C266" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="D266">
         <v>23034</v>
@@ -7292,10 +7328,10 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C267" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="D267">
         <v>285699</v>
@@ -7306,10 +7342,10 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C268" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="D268">
         <v>1553</v>
@@ -7320,10 +7356,10 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C269" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="D269">
         <v>99454</v>
@@ -7334,10 +7370,10 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C270" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="D270">
         <v>11357</v>
@@ -7348,10 +7384,10 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C271" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="D271">
         <v>15345</v>
@@ -7362,10 +7398,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C272" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="D272">
         <v>3132</v>
@@ -7376,10 +7412,10 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C273" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="D273">
         <v>40</v>
@@ -7390,10 +7426,10 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C274" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="D274">
         <v>220839</v>
@@ -7404,10 +7440,10 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C275" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="D275">
         <v>1342</v>
@@ -7418,10 +7454,10 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C276" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="D276">
         <v>17088</v>
@@ -7432,10 +7468,10 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C277" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="D277">
         <v>156486</v>
@@ -7446,10 +7482,10 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C278" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="D278">
         <v>372</v>
@@ -7460,10 +7496,10 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C279" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="D279">
         <v>148708</v>
@@ -7474,10 +7510,10 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C280" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="D280">
         <v>212410</v>
@@ -7488,10 +7524,10 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C281" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="D281">
         <v>565473</v>
@@ -7502,10 +7538,10 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C282" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="D282">
         <v>1008453</v>
@@ -7516,10 +7552,10 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C283" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="D283">
         <v>9457</v>
@@ -7530,10 +7566,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C284" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="D284">
         <v>2716106</v>
@@ -7544,10 +7580,10 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C285" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="D285">
         <v>1064</v>
@@ -7558,10 +7594,10 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C286" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="D286">
         <v>76330</v>
@@ -7572,10 +7608,10 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C287" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="D287">
         <v>6944</v>
@@ -7586,10 +7622,10 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C288" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="D288">
         <v>7466</v>
@@ -7600,10 +7636,10 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C289" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="D289">
         <v>112830</v>
@@ -7614,10 +7650,10 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C290" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="D290">
         <v>69657</v>
@@ -7628,10 +7664,10 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C291" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="D291">
         <v>265728</v>
@@ -7642,10 +7678,10 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C292" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="D292">
         <v>4800</v>
@@ -7656,10 +7692,10 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C293" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="D293">
         <v>1504714</v>
@@ -7670,10 +7706,10 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C294" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="D294">
         <v>25624</v>
@@ -7684,10 +7720,10 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C295" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="D295">
         <v>212898</v>
@@ -7698,10 +7734,10 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C296" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="D296">
         <v>7077</v>
@@ -7712,10 +7748,10 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C297" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="D297">
         <v>450</v>
@@ -7726,10 +7762,10 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C298" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="D298">
         <v>7788</v>
@@ -7740,10 +7776,10 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C299" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="D299">
         <v>5642</v>
@@ -7754,10 +7790,10 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C300" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="D300">
         <v>73023</v>
@@ -7768,10 +7804,10 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C301" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -7782,10 +7818,10 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C302" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="D302">
         <v>407080</v>
@@ -7796,10 +7832,10 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C303" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="D303">
         <v>6576</v>
@@ -7810,10 +7846,10 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C304" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="D304">
         <v>10274</v>
@@ -7824,10 +7860,10 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C305" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="D305">
         <v>196</v>
@@ -7838,10 +7874,10 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C306" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="D306">
         <v>147820</v>
@@ -7852,10 +7888,10 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C307" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="D307">
         <v>293</v>
@@ -7866,10 +7902,10 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C308" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="D308">
         <v>318</v>
@@ -7880,10 +7916,10 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C309" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="D309">
         <v>70029</v>
@@ -7894,10 +7930,10 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C310" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="D310">
         <v>448814</v>
@@ -7908,10 +7944,10 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C311" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="D311">
         <v>37249</v>
@@ -7922,10 +7958,10 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C312" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="D312">
         <v>19</v>
@@ -7936,10 +7972,10 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C313" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="D313">
         <v>125460</v>
@@ -7950,10 +7986,10 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C314" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="D314">
         <v>358</v>
@@ -7964,10 +8000,10 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C315" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="D315">
         <v>4938</v>
@@ -7978,10 +8014,10 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C316" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="D316">
         <v>432701</v>
@@ -7992,10 +8028,10 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C317" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="D317">
         <v>1212</v>
@@ -8006,10 +8042,10 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C318" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="D318">
         <v>33588</v>
@@ -8020,10 +8056,10 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C319" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="D319">
         <v>127375</v>
@@ -8034,10 +8070,10 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C320" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="D320">
         <v>26892</v>
@@ -8048,10 +8084,10 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C321" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="D321">
         <v>16536</v>
@@ -8062,10 +8098,10 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C322" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="D322">
         <v>196859</v>
@@ -8076,10 +8112,10 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C323" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="D323">
         <v>66540</v>
@@ -8090,10 +8126,10 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C324" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -8104,10 +8140,10 @@
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C325" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="D325">
         <v>5719</v>
@@ -8118,10 +8154,10 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C326" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="D326">
         <v>30404</v>
@@ -8132,10 +8168,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C327" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="D327">
         <v>243</v>
@@ -8146,10 +8182,10 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C328" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="D328">
         <v>5075</v>
@@ -8160,10 +8196,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C329" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="D329">
         <v>54131</v>
@@ -8174,10 +8210,10 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C330" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="D330">
         <v>145499</v>
@@ -8188,10 +8224,10 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C331" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="D331">
         <v>73</v>
@@ -8202,10 +8238,10 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C332" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="D332">
         <v>81899</v>
@@ -8216,10 +8252,10 @@
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C333" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="D333">
         <v>85403</v>
@@ -8230,10 +8266,10 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C334" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -8244,10 +8280,10 @@
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C335" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="D335">
         <v>120904</v>
@@ -8258,10 +8294,10 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C336" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="D336">
         <v>259553</v>
@@ -8272,10 +8308,10 @@
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C337" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="D337">
         <v>192103</v>
@@ -8286,10 +8322,10 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C338" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="D338">
         <v>74199</v>
@@ -8300,10 +8336,10 @@
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C339" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="D339">
         <v>11866</v>
@@ -8314,10 +8350,10 @@
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C340" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="D340">
         <v>452357</v>
@@ -8328,10 +8364,10 @@
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C341" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="D341">
         <v>274776</v>
@@ -8342,10 +8378,10 @@
         <v>110</v>
       </c>
       <c r="B342" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C342" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="D342">
         <v>3900</v>
@@ -8356,10 +8392,10 @@
         <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C343" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="D343">
         <v>5947</v>
@@ -8370,10 +8406,10 @@
         <v>345</v>
       </c>
       <c r="B344" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C344" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="D344">
         <v>7386</v>
@@ -8384,10 +8420,10 @@
         <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C345" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="D345">
         <v>4330</v>
@@ -8398,10 +8434,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C346" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="D346">
         <v>58</v>
@@ -8412,10 +8448,10 @@
         <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C347" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="D347">
         <v>146332</v>
@@ -8426,10 +8462,10 @@
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C348" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="D348">
         <v>2869</v>
@@ -8440,10 +8476,10 @@
         <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C349" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="D349">
         <v>1002801</v>
@@ -8454,10 +8490,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C350" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="D350">
         <v>204562</v>
@@ -8468,10 +8504,10 @@
         <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C351" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="D351">
         <v>99175</v>
@@ -8482,10 +8518,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C352" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="D352">
         <v>3674</v>
@@ -8496,10 +8532,10 @@
         <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C353" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="D353">
         <v>670224</v>
@@ -8510,13 +8546,69 @@
         <v>355</v>
       </c>
       <c r="B354" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C354" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="D354">
         <v>1415</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355" t="s">
+        <v>713</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D355">
+        <v>9524</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356" t="s">
+        <v>714</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D356">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357" t="s">
+        <v>715</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358" t="s">
+        <v>716</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D358">
+        <v>128405</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="1166">
   <si>
     <t>Date</t>
   </si>
@@ -1096,6 +1096,96 @@
     <t>2026-02-18 12:35:56</t>
   </si>
   <si>
+    <t>2026-02-18 13:53:31</t>
+  </si>
+  <si>
+    <t>2026-02-17 10:17:07</t>
+  </si>
+  <si>
+    <t>2026-02-13 11:00:38</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:28:25</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:29:57</t>
+  </si>
+  <si>
+    <t>2026-02-18 07:34:57</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:02:39</t>
+  </si>
+  <si>
+    <t>2026-02-10 04:46:38</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:50:00</t>
+  </si>
+  <si>
+    <t>2026-02-10 10:14:03</t>
+  </si>
+  <si>
+    <t>2026-02-15 12:44:19</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:06:04</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:56:31</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:17:51</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:09:57</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:14:31</t>
+  </si>
+  <si>
+    <t>2026-02-07 10:56:02</t>
+  </si>
+  <si>
+    <t>2026-02-18 06:11:13</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:54:21</t>
+  </si>
+  <si>
+    <t>2026-02-12 14:10:56</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:28:39</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:33:13</t>
+  </si>
+  <si>
+    <t>2026-02-08 08:18:40</t>
+  </si>
+  <si>
+    <t>2026-02-18 21:26:19</t>
+  </si>
+  <si>
+    <t>2026-02-18 04:59:30</t>
+  </si>
+  <si>
+    <t>2026-02-16 09:04:23</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:18:47</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:42:11</t>
+  </si>
+  <si>
+    <t>2026-02-18 07:39:21</t>
+  </si>
+  <si>
+    <t>2026-02-18 18:33:49</t>
+  </si>
+  <si>
     <t>237671823369</t>
   </si>
   <si>
@@ -2167,6 +2257,99 @@
     <t>237671694408</t>
   </si>
   <si>
+    <t>237681107196</t>
+  </si>
+  <si>
+    <t>237671178912</t>
+  </si>
+  <si>
+    <t>237671641261</t>
+  </si>
+  <si>
+    <t>237675450046</t>
+  </si>
+  <si>
+    <t>237679958107</t>
+  </si>
+  <si>
+    <t>237683349210</t>
+  </si>
+  <si>
+    <t>237679098632</t>
+  </si>
+  <si>
+    <t>237680485203</t>
+  </si>
+  <si>
+    <t>237683612202</t>
+  </si>
+  <si>
+    <t>237673631696</t>
+  </si>
+  <si>
+    <t>237673591127</t>
+  </si>
+  <si>
+    <t>237678046498</t>
+  </si>
+  <si>
+    <t>237671432158</t>
+  </si>
+  <si>
+    <t>237681681977</t>
+  </si>
+  <si>
+    <t>237679884264</t>
+  </si>
+  <si>
+    <t>237651988929</t>
+  </si>
+  <si>
+    <t>237674895078</t>
+  </si>
+  <si>
+    <t>237671100780</t>
+  </si>
+  <si>
+    <t>237652117639</t>
+  </si>
+  <si>
+    <t>237651530496</t>
+  </si>
+  <si>
+    <t>237650670499</t>
+  </si>
+  <si>
+    <t>237683710533</t>
+  </si>
+  <si>
+    <t>237670097580</t>
+  </si>
+  <si>
+    <t>237683612203</t>
+  </si>
+  <si>
+    <t>237674908364</t>
+  </si>
+  <si>
+    <t>237683359447</t>
+  </si>
+  <si>
+    <t>237654288399</t>
+  </si>
+  <si>
+    <t>237681342516</t>
+  </si>
+  <si>
+    <t>237670832587</t>
+  </si>
+  <si>
+    <t>237670476269</t>
+  </si>
+  <si>
+    <t>237651732074</t>
+  </si>
+  <si>
     <t>MFS ENTREE COLLEGE MALANGUE</t>
   </si>
   <si>
@@ -3236,6 +3419,99 @@
   </si>
   <si>
     <t>VARELLE NKENGUE BILLE</t>
+  </si>
+  <si>
+    <t>NGAGNIGNI NAFISSETOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NDI YVETTE NKFUNJI VICTORY LTD</t>
+  </si>
+  <si>
+    <t>SOLINE REINELDE AYEBDE MBEGA</t>
+  </si>
+  <si>
+    <t>JACQUELINE WENDJIE</t>
+  </si>
+  <si>
+    <t>STEPHANE FORES MBETGA</t>
+  </si>
+  <si>
+    <t>YELLO SHOP NEW TOWN MAN NA MAN JUNTION FARGANG PRISCA</t>
+  </si>
+  <si>
+    <t>GABRIEL LEDOUX HOMSI</t>
+  </si>
+  <si>
+    <t>CARLES HECTOR NGALEU DJIAHA</t>
+  </si>
+  <si>
+    <t>ETS CAMPUS III ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>UMUNNA ADOLPHUS CHIGOZIE LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>DJIMO TCHEUTCHOUA ISMAEL JONATHAN ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MFS SOCAVER</t>
+  </si>
+  <si>
+    <t>GERTRUDE megou epouse DJIADIO N JAKASS DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>ALIX ANGUENE NSOO</t>
+  </si>
+  <si>
+    <t>MFS CICAM</t>
+  </si>
+  <si>
+    <t>ETIENNE IYOG NGOM</t>
+  </si>
+  <si>
+    <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+  </si>
+  <si>
+    <t>Agbor Bronhilda Ayuk Ets Tchitos</t>
+  </si>
+  <si>
+    <t>THOMAS FINAL YETNA NLONDOCK</t>
+  </si>
+  <si>
+    <t>DONGMEZA ALVYNE PASL (Pan African Saving and Loan)</t>
+  </si>
+  <si>
+    <t>BEMENE JACQUES CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>ETS TCHITOS SWLBE_CBOX_R1_NANA WANDJI FELICITE ALIDA</t>
+  </si>
+  <si>
+    <t>ALBERT FILS NYEMECK</t>
+  </si>
+  <si>
+    <t>KAMMENI NGAGOUM EPSE FANKAM NINA FLORETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL ZAGBA PIERRE</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS BAVOUA MOMO CHRISTELLE</t>
+  </si>
+  <si>
+    <t>NGANSOP DIDEROT ROMULUS TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>DONA MALVINA WONDJA</t>
+  </si>
+  <si>
+    <t>KEUBOU AIMERANCE LAURE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>SONIA TAMGNO TCHUITCHOU</t>
+  </si>
+  <si>
+    <t>TCP BOIS WAFO EMMANUEL</t>
   </si>
 </sst>
 </file>
@@ -3593,7 +3869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D358"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3618,10 +3894,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C2" t="s">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="D2">
         <v>30095</v>
@@ -3632,10 +3908,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>718</v>
+        <v>779</v>
       </c>
       <c r="D3">
         <v>36595</v>
@@ -3646,10 +3922,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
-        <v>719</v>
+        <v>780</v>
       </c>
       <c r="D4">
         <v>1042551</v>
@@ -3660,10 +3936,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
-        <v>720</v>
+        <v>781</v>
       </c>
       <c r="D5">
         <v>12973</v>
@@ -3674,10 +3950,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>721</v>
+        <v>782</v>
       </c>
       <c r="D6">
         <v>878</v>
@@ -3688,10 +3964,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
-        <v>722</v>
+        <v>783</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -3702,10 +3978,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="C8" t="s">
-        <v>723</v>
+        <v>784</v>
       </c>
       <c r="D8">
         <v>215254</v>
@@ -3716,10 +3992,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="C9" t="s">
-        <v>724</v>
+        <v>785</v>
       </c>
       <c r="D9">
         <v>190023</v>
@@ -3730,10 +4006,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>725</v>
+        <v>786</v>
       </c>
       <c r="D10">
         <v>6498</v>
@@ -3744,10 +4020,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>726</v>
+        <v>787</v>
       </c>
       <c r="D11">
         <v>98844</v>
@@ -3758,10 +4034,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="C12" t="s">
-        <v>727</v>
+        <v>788</v>
       </c>
       <c r="D12">
         <v>86556</v>
@@ -3772,10 +4048,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
-        <v>728</v>
+        <v>789</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -3786,10 +4062,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="C14" t="s">
-        <v>729</v>
+        <v>790</v>
       </c>
       <c r="D14">
         <v>9594</v>
@@ -3800,10 +4076,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="C15" t="s">
-        <v>730</v>
+        <v>791</v>
       </c>
       <c r="D15">
         <v>262</v>
@@ -3814,10 +4090,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
-        <v>731</v>
+        <v>792</v>
       </c>
       <c r="D16">
         <v>517168</v>
@@ -3828,10 +4104,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="C17" t="s">
-        <v>732</v>
+        <v>793</v>
       </c>
       <c r="D17">
         <v>96868</v>
@@ -3842,10 +4118,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="C18" t="s">
-        <v>733</v>
+        <v>794</v>
       </c>
       <c r="D18">
         <v>109492</v>
@@ -3856,10 +4132,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="C19" t="s">
-        <v>734</v>
+        <v>795</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -3870,10 +4146,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="C20" t="s">
-        <v>735</v>
+        <v>796</v>
       </c>
       <c r="D20">
         <v>44076</v>
@@ -3884,10 +4160,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
-        <v>736</v>
+        <v>797</v>
       </c>
       <c r="D21">
         <v>21000</v>
@@ -3898,10 +4174,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="C22" t="s">
-        <v>737</v>
+        <v>798</v>
       </c>
       <c r="D22">
         <v>94556</v>
@@ -3912,10 +4188,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="C23" t="s">
-        <v>738</v>
+        <v>799</v>
       </c>
       <c r="D23">
         <v>5345</v>
@@ -3926,10 +4202,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="C24" t="s">
-        <v>739</v>
+        <v>800</v>
       </c>
       <c r="D24">
         <v>8858</v>
@@ -3940,10 +4216,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="D25">
         <v>264112</v>
@@ -3954,10 +4230,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="C26" t="s">
-        <v>741</v>
+        <v>802</v>
       </c>
       <c r="D26">
         <v>55699</v>
@@ -3968,10 +4244,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
-        <v>742</v>
+        <v>803</v>
       </c>
       <c r="D27">
         <v>56245</v>
@@ -3982,10 +4258,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>743</v>
+        <v>804</v>
       </c>
       <c r="D28">
         <v>4751</v>
@@ -3996,10 +4272,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="C29" t="s">
-        <v>744</v>
+        <v>805</v>
       </c>
       <c r="D29">
         <v>1873</v>
@@ -4010,10 +4286,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="C30" t="s">
-        <v>745</v>
+        <v>806</v>
       </c>
       <c r="D30">
         <v>333218</v>
@@ -4024,10 +4300,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="C31" t="s">
-        <v>746</v>
+        <v>807</v>
       </c>
       <c r="D31">
         <v>6385129</v>
@@ -4038,10 +4314,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="C32" t="s">
-        <v>747</v>
+        <v>808</v>
       </c>
       <c r="D32">
         <v>13377</v>
@@ -4052,10 +4328,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="C33" t="s">
-        <v>748</v>
+        <v>809</v>
       </c>
       <c r="D33">
         <v>6729</v>
@@ -4066,10 +4342,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="C34" t="s">
-        <v>749</v>
+        <v>810</v>
       </c>
       <c r="D34">
         <v>864</v>
@@ -4080,10 +4356,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="C35" t="s">
-        <v>750</v>
+        <v>811</v>
       </c>
       <c r="D35">
         <v>472353</v>
@@ -4094,10 +4370,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="C36" t="s">
-        <v>751</v>
+        <v>812</v>
       </c>
       <c r="D36">
         <v>23</v>
@@ -4108,10 +4384,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="C37" t="s">
-        <v>752</v>
+        <v>813</v>
       </c>
       <c r="D37">
         <v>24386</v>
@@ -4122,10 +4398,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="C38" t="s">
-        <v>753</v>
+        <v>814</v>
       </c>
       <c r="D38">
         <v>44600</v>
@@ -4136,10 +4412,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="C39" t="s">
-        <v>754</v>
+        <v>815</v>
       </c>
       <c r="D39">
         <v>2042</v>
@@ -4150,10 +4426,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="C40" t="s">
-        <v>755</v>
+        <v>816</v>
       </c>
       <c r="D40">
         <v>109659</v>
@@ -4164,10 +4440,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="C41" t="s">
-        <v>756</v>
+        <v>817</v>
       </c>
       <c r="D41">
         <v>2977</v>
@@ -4178,10 +4454,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="C42" t="s">
-        <v>757</v>
+        <v>818</v>
       </c>
       <c r="D42">
         <v>843587</v>
@@ -4192,10 +4468,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="C43" t="s">
-        <v>758</v>
+        <v>819</v>
       </c>
       <c r="D43">
         <v>206473</v>
@@ -4206,10 +4482,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="C44" t="s">
-        <v>759</v>
+        <v>820</v>
       </c>
       <c r="D44">
         <v>13531</v>
@@ -4220,10 +4496,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="C45" t="s">
-        <v>760</v>
+        <v>821</v>
       </c>
       <c r="D45">
         <v>79737</v>
@@ -4234,10 +4510,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="C46" t="s">
-        <v>761</v>
+        <v>822</v>
       </c>
       <c r="D46">
         <v>11434</v>
@@ -4248,10 +4524,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="C47" t="s">
-        <v>762</v>
+        <v>823</v>
       </c>
       <c r="D47">
         <v>501</v>
@@ -4262,10 +4538,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="C48" t="s">
-        <v>763</v>
+        <v>824</v>
       </c>
       <c r="D48">
         <v>380</v>
@@ -4276,10 +4552,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="C49" t="s">
-        <v>764</v>
+        <v>825</v>
       </c>
       <c r="D49">
         <v>43362</v>
@@ -4290,10 +4566,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="C50" t="s">
-        <v>765</v>
+        <v>826</v>
       </c>
       <c r="D50">
         <v>708340</v>
@@ -4304,10 +4580,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="C51" t="s">
-        <v>766</v>
+        <v>827</v>
       </c>
       <c r="D51">
         <v>3593</v>
@@ -4318,10 +4594,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>767</v>
+        <v>828</v>
       </c>
       <c r="D52">
         <v>1879475</v>
@@ -4332,10 +4608,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="C53" t="s">
-        <v>768</v>
+        <v>829</v>
       </c>
       <c r="D53">
         <v>3784</v>
@@ -4346,10 +4622,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="C54" t="s">
-        <v>769</v>
+        <v>830</v>
       </c>
       <c r="D54">
         <v>70172</v>
@@ -4360,10 +4636,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="C55" t="s">
-        <v>770</v>
+        <v>831</v>
       </c>
       <c r="D55">
         <v>148</v>
@@ -4374,10 +4650,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="C56" t="s">
-        <v>771</v>
+        <v>832</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4388,10 +4664,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="C57" t="s">
-        <v>772</v>
+        <v>833</v>
       </c>
       <c r="D57">
         <v>97484</v>
@@ -4402,10 +4678,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="C58" t="s">
-        <v>773</v>
+        <v>834</v>
       </c>
       <c r="D58">
         <v>7927</v>
@@ -4416,10 +4692,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="C59" t="s">
-        <v>774</v>
+        <v>835</v>
       </c>
       <c r="D59">
         <v>61762</v>
@@ -4430,10 +4706,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="C60" t="s">
-        <v>775</v>
+        <v>836</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -4444,10 +4720,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="C61" t="s">
-        <v>776</v>
+        <v>837</v>
       </c>
       <c r="D61">
         <v>12292</v>
@@ -4458,10 +4734,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="C62" t="s">
-        <v>777</v>
+        <v>838</v>
       </c>
       <c r="D62">
         <v>366231</v>
@@ -4472,10 +4748,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="C63" t="s">
-        <v>778</v>
+        <v>839</v>
       </c>
       <c r="D63">
         <v>20358</v>
@@ -4486,10 +4762,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="C64" t="s">
-        <v>779</v>
+        <v>840</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -4500,10 +4776,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="C65" t="s">
-        <v>780</v>
+        <v>841</v>
       </c>
       <c r="D65">
         <v>29507</v>
@@ -4514,10 +4790,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="C66" t="s">
-        <v>781</v>
+        <v>842</v>
       </c>
       <c r="D66">
         <v>71538</v>
@@ -4528,10 +4804,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="C67" t="s">
-        <v>782</v>
+        <v>843</v>
       </c>
       <c r="D67">
         <v>438901</v>
@@ -4542,10 +4818,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="C68" t="s">
-        <v>783</v>
+        <v>844</v>
       </c>
       <c r="D68">
         <v>15525</v>
@@ -4556,10 +4832,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="C69" t="s">
-        <v>784</v>
+        <v>845</v>
       </c>
       <c r="D69">
         <v>792132</v>
@@ -4570,10 +4846,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="C70" t="s">
-        <v>785</v>
+        <v>846</v>
       </c>
       <c r="D70">
         <v>524523</v>
@@ -4584,10 +4860,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="C71" t="s">
-        <v>786</v>
+        <v>847</v>
       </c>
       <c r="D71">
         <v>866</v>
@@ -4598,10 +4874,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="C72" t="s">
-        <v>787</v>
+        <v>848</v>
       </c>
       <c r="D72">
         <v>101711</v>
@@ -4612,10 +4888,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="C73" t="s">
-        <v>788</v>
+        <v>849</v>
       </c>
       <c r="D73">
         <v>6178</v>
@@ -4626,10 +4902,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="C74" t="s">
-        <v>789</v>
+        <v>850</v>
       </c>
       <c r="D74">
         <v>1269273</v>
@@ -4640,10 +4916,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="C75" t="s">
-        <v>790</v>
+        <v>851</v>
       </c>
       <c r="D75">
         <v>20668</v>
@@ -4654,10 +4930,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="C76" t="s">
-        <v>791</v>
+        <v>852</v>
       </c>
       <c r="D76">
         <v>40652</v>
@@ -4668,10 +4944,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="C77" t="s">
-        <v>792</v>
+        <v>853</v>
       </c>
       <c r="D77">
         <v>21475</v>
@@ -4682,10 +4958,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="C78" t="s">
-        <v>793</v>
+        <v>854</v>
       </c>
       <c r="D78">
         <v>5015499</v>
@@ -4696,10 +4972,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="C79" t="s">
-        <v>794</v>
+        <v>855</v>
       </c>
       <c r="D79">
         <v>4249</v>
@@ -4710,10 +4986,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="C80" t="s">
-        <v>795</v>
+        <v>856</v>
       </c>
       <c r="D80">
         <v>462</v>
@@ -4724,10 +5000,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="C81" t="s">
-        <v>796</v>
+        <v>857</v>
       </c>
       <c r="D81">
         <v>3510</v>
@@ -4738,10 +5014,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="C82" t="s">
-        <v>797</v>
+        <v>858</v>
       </c>
       <c r="D82">
         <v>3076</v>
@@ -4752,10 +5028,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="C83" t="s">
-        <v>798</v>
+        <v>859</v>
       </c>
       <c r="D83">
         <v>5861</v>
@@ -4766,10 +5042,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="C84" t="s">
-        <v>799</v>
+        <v>860</v>
       </c>
       <c r="D84">
         <v>221</v>
@@ -4780,10 +5056,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="C85" t="s">
-        <v>800</v>
+        <v>861</v>
       </c>
       <c r="D85">
         <v>63743</v>
@@ -4794,10 +5070,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="C86" t="s">
-        <v>801</v>
+        <v>862</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4808,10 +5084,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="C87" t="s">
-        <v>802</v>
+        <v>863</v>
       </c>
       <c r="D87">
         <v>36813</v>
@@ -4822,10 +5098,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="C88" t="s">
-        <v>803</v>
+        <v>864</v>
       </c>
       <c r="D88">
         <v>513</v>
@@ -4836,10 +5112,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="C89" t="s">
-        <v>804</v>
+        <v>865</v>
       </c>
       <c r="D89">
         <v>80118</v>
@@ -4850,10 +5126,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C90" t="s">
-        <v>805</v>
+        <v>866</v>
       </c>
       <c r="D90">
         <v>2940201</v>
@@ -4864,10 +5140,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="C91" t="s">
-        <v>806</v>
+        <v>867</v>
       </c>
       <c r="D91">
         <v>2339</v>
@@ -4878,10 +5154,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="C92" t="s">
-        <v>807</v>
+        <v>868</v>
       </c>
       <c r="D92">
         <v>4075</v>
@@ -4892,10 +5168,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="C93" t="s">
-        <v>808</v>
+        <v>869</v>
       </c>
       <c r="D93">
         <v>1013</v>
@@ -4906,10 +5182,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="C94" t="s">
-        <v>809</v>
+        <v>870</v>
       </c>
       <c r="D94">
         <v>68166</v>
@@ -4920,10 +5196,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="C95" t="s">
-        <v>810</v>
+        <v>871</v>
       </c>
       <c r="D95">
         <v>1288</v>
@@ -4934,10 +5210,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="C96" t="s">
-        <v>811</v>
+        <v>872</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4948,10 +5224,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="C97" t="s">
-        <v>812</v>
+        <v>873</v>
       </c>
       <c r="D97">
         <v>59398</v>
@@ -4962,10 +5238,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="C98" t="s">
-        <v>813</v>
+        <v>874</v>
       </c>
       <c r="D98">
         <v>7418</v>
@@ -4976,10 +5252,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="C99" t="s">
-        <v>814</v>
+        <v>875</v>
       </c>
       <c r="D99">
         <v>38799</v>
@@ -4990,10 +5266,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="C100" t="s">
-        <v>815</v>
+        <v>876</v>
       </c>
       <c r="D100">
         <v>446015</v>
@@ -5004,10 +5280,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="C101" t="s">
-        <v>816</v>
+        <v>877</v>
       </c>
       <c r="D101">
         <v>32</v>
@@ -5018,10 +5294,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="C102" t="s">
-        <v>817</v>
+        <v>878</v>
       </c>
       <c r="D102">
         <v>70556</v>
@@ -5032,10 +5308,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="C103" t="s">
-        <v>818</v>
+        <v>879</v>
       </c>
       <c r="D103">
         <v>290990</v>
@@ -5046,10 +5322,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="C104" t="s">
-        <v>819</v>
+        <v>880</v>
       </c>
       <c r="D104">
         <v>24133</v>
@@ -5060,10 +5336,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="C105" t="s">
-        <v>820</v>
+        <v>881</v>
       </c>
       <c r="D105">
         <v>7991</v>
@@ -5074,10 +5350,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="C106" t="s">
-        <v>821</v>
+        <v>882</v>
       </c>
       <c r="D106">
         <v>54595</v>
@@ -5088,10 +5364,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="C107" t="s">
-        <v>822</v>
+        <v>883</v>
       </c>
       <c r="D107">
         <v>23</v>
@@ -5102,10 +5378,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="C108" t="s">
-        <v>823</v>
+        <v>884</v>
       </c>
       <c r="D108">
         <v>6025929</v>
@@ -5116,10 +5392,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="C109" t="s">
-        <v>824</v>
+        <v>885</v>
       </c>
       <c r="D109">
         <v>17416</v>
@@ -5130,10 +5406,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="C110" t="s">
-        <v>825</v>
+        <v>886</v>
       </c>
       <c r="D110">
         <v>59923</v>
@@ -5144,10 +5420,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="C111" t="s">
-        <v>826</v>
+        <v>887</v>
       </c>
       <c r="D111">
         <v>9700</v>
@@ -5158,10 +5434,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="C112" t="s">
-        <v>827</v>
+        <v>888</v>
       </c>
       <c r="D112">
         <v>668234</v>
@@ -5172,10 +5448,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="C113" t="s">
-        <v>828</v>
+        <v>889</v>
       </c>
       <c r="D113">
         <v>141</v>
@@ -5186,10 +5462,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="C114" t="s">
-        <v>829</v>
+        <v>890</v>
       </c>
       <c r="D114">
         <v>134935</v>
@@ -5200,10 +5476,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="C115" t="s">
-        <v>830</v>
+        <v>891</v>
       </c>
       <c r="D115">
         <v>11600</v>
@@ -5214,10 +5490,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="C116" t="s">
-        <v>831</v>
+        <v>892</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -5228,10 +5504,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="C117" t="s">
-        <v>832</v>
+        <v>893</v>
       </c>
       <c r="D117">
         <v>500214</v>
@@ -5242,10 +5518,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="C118" t="s">
-        <v>833</v>
+        <v>894</v>
       </c>
       <c r="D118">
         <v>179255</v>
@@ -5256,10 +5532,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="C119" t="s">
-        <v>834</v>
+        <v>895</v>
       </c>
       <c r="D119">
         <v>616178</v>
@@ -5270,10 +5546,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="C120" t="s">
-        <v>835</v>
+        <v>896</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -5284,10 +5560,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="C121" t="s">
-        <v>836</v>
+        <v>897</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5298,10 +5574,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="C122" t="s">
-        <v>837</v>
+        <v>898</v>
       </c>
       <c r="D122">
         <v>948473</v>
@@ -5312,10 +5588,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="C123" t="s">
-        <v>838</v>
+        <v>899</v>
       </c>
       <c r="D123">
         <v>141336</v>
@@ -5326,10 +5602,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="C124" t="s">
-        <v>839</v>
+        <v>900</v>
       </c>
       <c r="D124">
         <v>31942</v>
@@ -5340,10 +5616,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="C125" t="s">
-        <v>840</v>
+        <v>901</v>
       </c>
       <c r="D125">
         <v>126700</v>
@@ -5354,10 +5630,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="C126" t="s">
-        <v>841</v>
+        <v>902</v>
       </c>
       <c r="D126">
         <v>7184</v>
@@ -5368,10 +5644,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="C127" t="s">
-        <v>842</v>
+        <v>903</v>
       </c>
       <c r="D127">
         <v>62509</v>
@@ -5382,10 +5658,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="C128" t="s">
-        <v>843</v>
+        <v>904</v>
       </c>
       <c r="D128">
         <v>10441</v>
@@ -5396,10 +5672,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="C129" t="s">
-        <v>844</v>
+        <v>905</v>
       </c>
       <c r="D129">
         <v>2922</v>
@@ -5410,10 +5686,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="C130" t="s">
-        <v>845</v>
+        <v>906</v>
       </c>
       <c r="D130">
         <v>108036</v>
@@ -5424,10 +5700,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="C131" t="s">
-        <v>846</v>
+        <v>907</v>
       </c>
       <c r="D131">
         <v>14</v>
@@ -5438,10 +5714,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="C132" t="s">
-        <v>847</v>
+        <v>908</v>
       </c>
       <c r="D132">
         <v>271853</v>
@@ -5452,10 +5728,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="C133" t="s">
-        <v>848</v>
+        <v>909</v>
       </c>
       <c r="D133">
         <v>900184</v>
@@ -5466,10 +5742,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="C134" t="s">
-        <v>849</v>
+        <v>910</v>
       </c>
       <c r="D134">
         <v>6534</v>
@@ -5480,10 +5756,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="C135" t="s">
-        <v>850</v>
+        <v>911</v>
       </c>
       <c r="D135">
         <v>212127</v>
@@ -5494,10 +5770,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="C136" t="s">
-        <v>851</v>
+        <v>912</v>
       </c>
       <c r="D136">
         <v>20562</v>
@@ -5508,10 +5784,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="C137" t="s">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5522,10 +5798,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="C138" t="s">
-        <v>853</v>
+        <v>914</v>
       </c>
       <c r="D138">
         <v>66242</v>
@@ -5536,10 +5812,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="C139" t="s">
-        <v>854</v>
+        <v>915</v>
       </c>
       <c r="D139">
         <v>237616</v>
@@ -5550,10 +5826,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="C140" t="s">
-        <v>855</v>
+        <v>916</v>
       </c>
       <c r="D140">
         <v>986</v>
@@ -5564,10 +5840,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="C141" t="s">
-        <v>856</v>
+        <v>917</v>
       </c>
       <c r="D141">
         <v>525</v>
@@ -5578,10 +5854,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="C142" t="s">
-        <v>857</v>
+        <v>918</v>
       </c>
       <c r="D142">
         <v>192476</v>
@@ -5592,10 +5868,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="C143" t="s">
-        <v>858</v>
+        <v>919</v>
       </c>
       <c r="D143">
         <v>2179</v>
@@ -5606,10 +5882,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="C144" t="s">
-        <v>859</v>
+        <v>920</v>
       </c>
       <c r="D144">
         <v>23601</v>
@@ -5620,10 +5896,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="C145" t="s">
-        <v>860</v>
+        <v>921</v>
       </c>
       <c r="D145">
         <v>2279</v>
@@ -5634,10 +5910,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="C146" t="s">
-        <v>861</v>
+        <v>922</v>
       </c>
       <c r="D146">
         <v>35332</v>
@@ -5648,10 +5924,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="C147" t="s">
-        <v>862</v>
+        <v>923</v>
       </c>
       <c r="D147">
         <v>224</v>
@@ -5662,10 +5938,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="C148" t="s">
-        <v>863</v>
+        <v>924</v>
       </c>
       <c r="D148">
         <v>135162</v>
@@ -5676,10 +5952,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="C149" t="s">
-        <v>864</v>
+        <v>925</v>
       </c>
       <c r="D149">
         <v>2818</v>
@@ -5690,10 +5966,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="C150" t="s">
-        <v>865</v>
+        <v>926</v>
       </c>
       <c r="D150">
         <v>6792</v>
@@ -5704,10 +5980,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="C151" t="s">
-        <v>866</v>
+        <v>927</v>
       </c>
       <c r="D151">
         <v>23538</v>
@@ -5718,10 +5994,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C152" t="s">
-        <v>867</v>
+        <v>928</v>
       </c>
       <c r="D152">
         <v>2635</v>
@@ -5732,10 +6008,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="C153" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
       <c r="D153">
         <v>3020</v>
@@ -5746,10 +6022,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="C154" t="s">
-        <v>869</v>
+        <v>930</v>
       </c>
       <c r="D154">
         <v>85937</v>
@@ -5760,10 +6036,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="C155" t="s">
-        <v>870</v>
+        <v>931</v>
       </c>
       <c r="D155">
         <v>1106</v>
@@ -5774,10 +6050,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="C156" t="s">
-        <v>871</v>
+        <v>932</v>
       </c>
       <c r="D156">
         <v>288689</v>
@@ -5788,10 +6064,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="C157" t="s">
-        <v>872</v>
+        <v>933</v>
       </c>
       <c r="D157">
         <v>23936</v>
@@ -5802,10 +6078,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="C158" t="s">
-        <v>873</v>
+        <v>934</v>
       </c>
       <c r="D158">
         <v>7901748</v>
@@ -5816,10 +6092,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="C159" t="s">
-        <v>874</v>
+        <v>935</v>
       </c>
       <c r="D159">
         <v>4701</v>
@@ -5830,10 +6106,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="C160" t="s">
-        <v>875</v>
+        <v>936</v>
       </c>
       <c r="D160">
         <v>63814</v>
@@ -5844,10 +6120,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="C161" t="s">
-        <v>876</v>
+        <v>937</v>
       </c>
       <c r="D161">
         <v>432</v>
@@ -5858,10 +6134,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="C162" t="s">
-        <v>877</v>
+        <v>938</v>
       </c>
       <c r="D162">
         <v>335842</v>
@@ -5872,10 +6148,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="C163" t="s">
-        <v>878</v>
+        <v>939</v>
       </c>
       <c r="D163">
         <v>14511</v>
@@ -5886,10 +6162,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="C164" t="s">
-        <v>879</v>
+        <v>940</v>
       </c>
       <c r="D164">
         <v>29941</v>
@@ -5900,10 +6176,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="C165" t="s">
-        <v>880</v>
+        <v>941</v>
       </c>
       <c r="D165">
         <v>4082</v>
@@ -5914,10 +6190,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="C166" t="s">
-        <v>881</v>
+        <v>942</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -5928,10 +6204,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="C167" t="s">
-        <v>882</v>
+        <v>943</v>
       </c>
       <c r="D167">
         <v>540</v>
@@ -5942,10 +6218,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="C168" t="s">
-        <v>883</v>
+        <v>944</v>
       </c>
       <c r="D168">
         <v>43657</v>
@@ -5956,10 +6232,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="C169" t="s">
-        <v>884</v>
+        <v>945</v>
       </c>
       <c r="D169">
         <v>105101</v>
@@ -5970,10 +6246,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="C170" t="s">
-        <v>885</v>
+        <v>946</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -5984,10 +6260,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="C171" t="s">
-        <v>886</v>
+        <v>947</v>
       </c>
       <c r="D171">
         <v>808</v>
@@ -5998,10 +6274,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="C172" t="s">
-        <v>887</v>
+        <v>948</v>
       </c>
       <c r="D172">
         <v>84819</v>
@@ -6012,10 +6288,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="C173" t="s">
-        <v>888</v>
+        <v>949</v>
       </c>
       <c r="D173">
         <v>186101</v>
@@ -6026,10 +6302,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="C174" t="s">
-        <v>889</v>
+        <v>950</v>
       </c>
       <c r="D174">
         <v>87</v>
@@ -6040,10 +6316,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="C175" t="s">
-        <v>890</v>
+        <v>951</v>
       </c>
       <c r="D175">
         <v>45444</v>
@@ -6054,10 +6330,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="C176" t="s">
-        <v>891</v>
+        <v>952</v>
       </c>
       <c r="D176">
         <v>14176</v>
@@ -6068,10 +6344,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="C177" t="s">
-        <v>892</v>
+        <v>953</v>
       </c>
       <c r="D177">
         <v>317960</v>
@@ -6082,10 +6358,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="C178" t="s">
-        <v>893</v>
+        <v>954</v>
       </c>
       <c r="D178">
         <v>6876</v>
@@ -6096,10 +6372,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="C179" t="s">
-        <v>894</v>
+        <v>955</v>
       </c>
       <c r="D179">
         <v>4750</v>
@@ -6110,10 +6386,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="C180" t="s">
-        <v>895</v>
+        <v>956</v>
       </c>
       <c r="D180">
         <v>7688</v>
@@ -6124,10 +6400,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="C181" t="s">
-        <v>896</v>
+        <v>957</v>
       </c>
       <c r="D181">
         <v>17160</v>
@@ -6138,10 +6414,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="C182" t="s">
-        <v>897</v>
+        <v>958</v>
       </c>
       <c r="D182">
         <v>360662</v>
@@ -6152,10 +6428,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
       <c r="C183" t="s">
-        <v>898</v>
+        <v>959</v>
       </c>
       <c r="D183">
         <v>6316</v>
@@ -6166,10 +6442,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="C184" t="s">
-        <v>899</v>
+        <v>960</v>
       </c>
       <c r="D184">
         <v>70</v>
@@ -6180,10 +6456,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="C185" t="s">
-        <v>900</v>
+        <v>961</v>
       </c>
       <c r="D185">
         <v>253822</v>
@@ -6194,10 +6470,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="C186" t="s">
-        <v>901</v>
+        <v>962</v>
       </c>
       <c r="D186">
         <v>216137</v>
@@ -6208,10 +6484,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="C187" t="s">
-        <v>902</v>
+        <v>963</v>
       </c>
       <c r="D187">
         <v>6503</v>
@@ -6222,10 +6498,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="C188" t="s">
-        <v>903</v>
+        <v>964</v>
       </c>
       <c r="D188">
         <v>817810</v>
@@ -6236,10 +6512,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="C189" t="s">
-        <v>904</v>
+        <v>965</v>
       </c>
       <c r="D189">
         <v>195618</v>
@@ -6250,10 +6526,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="C190" t="s">
-        <v>905</v>
+        <v>966</v>
       </c>
       <c r="D190">
         <v>349</v>
@@ -6264,10 +6540,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="C191" t="s">
-        <v>906</v>
+        <v>967</v>
       </c>
       <c r="D191">
         <v>449</v>
@@ -6278,10 +6554,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="C192" t="s">
-        <v>907</v>
+        <v>968</v>
       </c>
       <c r="D192">
         <v>86494</v>
@@ -6292,10 +6568,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="C193" t="s">
-        <v>908</v>
+        <v>969</v>
       </c>
       <c r="D193">
         <v>436320</v>
@@ -6306,10 +6582,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="C194" t="s">
-        <v>909</v>
+        <v>970</v>
       </c>
       <c r="D194">
         <v>916</v>
@@ -6320,10 +6596,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="C195" t="s">
-        <v>910</v>
+        <v>971</v>
       </c>
       <c r="D195">
         <v>13179</v>
@@ -6334,10 +6610,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="C196" t="s">
-        <v>911</v>
+        <v>972</v>
       </c>
       <c r="D196">
         <v>3475</v>
@@ -6348,10 +6624,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="C197" t="s">
-        <v>912</v>
+        <v>973</v>
       </c>
       <c r="D197">
         <v>8</v>
@@ -6362,10 +6638,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="C198" t="s">
-        <v>913</v>
+        <v>974</v>
       </c>
       <c r="D198">
         <v>153051</v>
@@ -6376,10 +6652,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="C199" t="s">
-        <v>914</v>
+        <v>975</v>
       </c>
       <c r="D199">
         <v>531404</v>
@@ -6390,10 +6666,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="C200" t="s">
-        <v>915</v>
+        <v>976</v>
       </c>
       <c r="D200">
         <v>325532</v>
@@ -6404,10 +6680,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="C201" t="s">
-        <v>916</v>
+        <v>977</v>
       </c>
       <c r="D201">
         <v>449538</v>
@@ -6418,10 +6694,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="C202" t="s">
-        <v>917</v>
+        <v>978</v>
       </c>
       <c r="D202">
         <v>153083</v>
@@ -6432,10 +6708,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="C203" t="s">
-        <v>918</v>
+        <v>979</v>
       </c>
       <c r="D203">
         <v>20839</v>
@@ -6446,10 +6722,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="C204" t="s">
-        <v>919</v>
+        <v>980</v>
       </c>
       <c r="D204">
         <v>4920</v>
@@ -6460,10 +6736,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="C205" t="s">
-        <v>920</v>
+        <v>981</v>
       </c>
       <c r="D205">
         <v>19506</v>
@@ -6474,10 +6750,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="C206" t="s">
-        <v>921</v>
+        <v>982</v>
       </c>
       <c r="D206">
         <v>463</v>
@@ -6488,10 +6764,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="C207" t="s">
-        <v>922</v>
+        <v>983</v>
       </c>
       <c r="D207">
         <v>69288</v>
@@ -6502,10 +6778,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="C208" t="s">
-        <v>923</v>
+        <v>984</v>
       </c>
       <c r="D208">
         <v>206</v>
@@ -6516,10 +6792,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="C209" t="s">
-        <v>924</v>
+        <v>985</v>
       </c>
       <c r="D209">
         <v>540607</v>
@@ -6530,10 +6806,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="C210" t="s">
-        <v>925</v>
+        <v>986</v>
       </c>
       <c r="D210">
         <v>559350</v>
@@ -6544,10 +6820,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="C211" t="s">
-        <v>926</v>
+        <v>987</v>
       </c>
       <c r="D211">
         <v>283</v>
@@ -6558,10 +6834,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="C212" t="s">
-        <v>927</v>
+        <v>988</v>
       </c>
       <c r="D212">
         <v>662</v>
@@ -6572,10 +6848,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="C213" t="s">
-        <v>928</v>
+        <v>989</v>
       </c>
       <c r="D213">
         <v>25565</v>
@@ -6586,10 +6862,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="C214" t="s">
-        <v>929</v>
+        <v>990</v>
       </c>
       <c r="D214">
         <v>12225</v>
@@ -6600,10 +6876,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="C215" t="s">
-        <v>930</v>
+        <v>991</v>
       </c>
       <c r="D215">
         <v>125425</v>
@@ -6614,10 +6890,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="C216" t="s">
-        <v>931</v>
+        <v>992</v>
       </c>
       <c r="D216">
         <v>10723</v>
@@ -6628,10 +6904,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="C217" t="s">
-        <v>932</v>
+        <v>993</v>
       </c>
       <c r="D217">
         <v>19453</v>
@@ -6642,10 +6918,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="C218" t="s">
-        <v>933</v>
+        <v>994</v>
       </c>
       <c r="D218">
         <v>692700</v>
@@ -6656,10 +6932,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="C219" t="s">
-        <v>934</v>
+        <v>995</v>
       </c>
       <c r="D219">
         <v>11814</v>
@@ -6670,10 +6946,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="C220" t="s">
-        <v>935</v>
+        <v>996</v>
       </c>
       <c r="D220">
         <v>8</v>
@@ -6684,10 +6960,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="C221" t="s">
-        <v>936</v>
+        <v>997</v>
       </c>
       <c r="D221">
         <v>2448</v>
@@ -6698,10 +6974,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="C222" t="s">
-        <v>937</v>
+        <v>998</v>
       </c>
       <c r="D222">
         <v>10536</v>
@@ -6712,10 +6988,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="C223" t="s">
-        <v>938</v>
+        <v>999</v>
       </c>
       <c r="D223">
         <v>215252</v>
@@ -6726,10 +7002,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="C224" t="s">
-        <v>939</v>
+        <v>1000</v>
       </c>
       <c r="D224">
         <v>914871</v>
@@ -6740,10 +7016,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="C225" t="s">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="D225">
         <v>595286</v>
@@ -6754,10 +7030,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="C226" t="s">
-        <v>941</v>
+        <v>1002</v>
       </c>
       <c r="D226">
         <v>13136</v>
@@ -6768,10 +7044,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="C227" t="s">
-        <v>942</v>
+        <v>1003</v>
       </c>
       <c r="D227">
         <v>420000</v>
@@ -6782,10 +7058,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="C228" t="s">
-        <v>943</v>
+        <v>1004</v>
       </c>
       <c r="D228">
         <v>143010</v>
@@ -6796,10 +7072,10 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="C229" t="s">
-        <v>944</v>
+        <v>1005</v>
       </c>
       <c r="D229">
         <v>3086</v>
@@ -6810,10 +7086,10 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="C230" t="s">
-        <v>945</v>
+        <v>1006</v>
       </c>
       <c r="D230">
         <v>11176</v>
@@ -6824,10 +7100,10 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="C231" t="s">
-        <v>946</v>
+        <v>1007</v>
       </c>
       <c r="D231">
         <v>4382</v>
@@ -6838,10 +7114,10 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="C232" t="s">
-        <v>947</v>
+        <v>1008</v>
       </c>
       <c r="D232">
         <v>1685</v>
@@ -6852,10 +7128,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="C233" t="s">
-        <v>948</v>
+        <v>1009</v>
       </c>
       <c r="D233">
         <v>398</v>
@@ -6866,10 +7142,10 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="C234" t="s">
-        <v>949</v>
+        <v>1010</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -6880,10 +7156,10 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="C235" t="s">
-        <v>950</v>
+        <v>1011</v>
       </c>
       <c r="D235">
         <v>24589</v>
@@ -6894,10 +7170,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="C236" t="s">
-        <v>951</v>
+        <v>1012</v>
       </c>
       <c r="D236">
         <v>1212800</v>
@@ -6908,10 +7184,10 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="C237" t="s">
-        <v>952</v>
+        <v>1013</v>
       </c>
       <c r="D237">
         <v>264166</v>
@@ -6922,10 +7198,10 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="C238" t="s">
-        <v>953</v>
+        <v>1014</v>
       </c>
       <c r="D238">
         <v>4895863</v>
@@ -6936,10 +7212,10 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="C239" t="s">
-        <v>954</v>
+        <v>1015</v>
       </c>
       <c r="D239">
         <v>3591</v>
@@ -6950,10 +7226,10 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="C240" t="s">
-        <v>955</v>
+        <v>1016</v>
       </c>
       <c r="D240">
         <v>8963</v>
@@ -6964,10 +7240,10 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="C241" t="s">
-        <v>956</v>
+        <v>1017</v>
       </c>
       <c r="D241">
         <v>763103</v>
@@ -6978,10 +7254,10 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="C242" t="s">
-        <v>957</v>
+        <v>1018</v>
       </c>
       <c r="D242">
         <v>400</v>
@@ -6992,10 +7268,10 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="C243" t="s">
-        <v>958</v>
+        <v>1019</v>
       </c>
       <c r="D243">
         <v>680405</v>
@@ -7006,10 +7282,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="C244" t="s">
-        <v>959</v>
+        <v>1020</v>
       </c>
       <c r="D244">
         <v>5165</v>
@@ -7020,10 +7296,10 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="C245" t="s">
-        <v>960</v>
+        <v>1021</v>
       </c>
       <c r="D245">
         <v>179802</v>
@@ -7034,10 +7310,10 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="C246" t="s">
-        <v>961</v>
+        <v>1022</v>
       </c>
       <c r="D246">
         <v>50393</v>
@@ -7048,10 +7324,10 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="C247" t="s">
-        <v>962</v>
+        <v>1023</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -7062,10 +7338,10 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="C248" t="s">
-        <v>963</v>
+        <v>1024</v>
       </c>
       <c r="D248">
         <v>81</v>
@@ -7076,10 +7352,10 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="C249" t="s">
-        <v>964</v>
+        <v>1025</v>
       </c>
       <c r="D249">
         <v>2573153</v>
@@ -7090,10 +7366,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="C250" t="s">
-        <v>965</v>
+        <v>1026</v>
       </c>
       <c r="D250">
         <v>173495</v>
@@ -7104,10 +7380,10 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
       <c r="C251" t="s">
-        <v>966</v>
+        <v>1027</v>
       </c>
       <c r="D251">
         <v>27600</v>
@@ -7118,10 +7394,10 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="C252" t="s">
-        <v>967</v>
+        <v>1028</v>
       </c>
       <c r="D252">
         <v>485379</v>
@@ -7132,10 +7408,10 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>611</v>
+        <v>641</v>
       </c>
       <c r="C253" t="s">
-        <v>968</v>
+        <v>1029</v>
       </c>
       <c r="D253">
         <v>331919</v>
@@ -7146,10 +7422,10 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="C254" t="s">
-        <v>969</v>
+        <v>1030</v>
       </c>
       <c r="D254">
         <v>1865848</v>
@@ -7160,10 +7436,10 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="C255" t="s">
-        <v>970</v>
+        <v>1031</v>
       </c>
       <c r="D255">
         <v>24</v>
@@ -7174,10 +7450,10 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="C256" t="s">
-        <v>971</v>
+        <v>1032</v>
       </c>
       <c r="D256">
         <v>32122</v>
@@ -7188,10 +7464,10 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="C257" t="s">
-        <v>972</v>
+        <v>1033</v>
       </c>
       <c r="D257">
         <v>7108</v>
@@ -7202,10 +7478,10 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="C258" t="s">
-        <v>973</v>
+        <v>1034</v>
       </c>
       <c r="D258">
         <v>71</v>
@@ -7216,10 +7492,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="C259" t="s">
-        <v>974</v>
+        <v>1035</v>
       </c>
       <c r="D259">
         <v>670927</v>
@@ -7230,10 +7506,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="C260" t="s">
-        <v>975</v>
+        <v>1036</v>
       </c>
       <c r="D260">
         <v>13137</v>
@@ -7244,10 +7520,10 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="C261" t="s">
-        <v>976</v>
+        <v>1037</v>
       </c>
       <c r="D261">
         <v>14209</v>
@@ -7258,10 +7534,10 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="C262" t="s">
-        <v>977</v>
+        <v>1038</v>
       </c>
       <c r="D262">
         <v>28342</v>
@@ -7272,10 +7548,10 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="C263" t="s">
-        <v>978</v>
+        <v>1039</v>
       </c>
       <c r="D263">
         <v>696637</v>
@@ -7286,10 +7562,10 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="C264" t="s">
-        <v>979</v>
+        <v>1040</v>
       </c>
       <c r="D264">
         <v>11723</v>
@@ -7300,10 +7576,10 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="C265" t="s">
-        <v>980</v>
+        <v>1041</v>
       </c>
       <c r="D265">
         <v>23642</v>
@@ -7314,10 +7590,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="C266" t="s">
-        <v>981</v>
+        <v>1042</v>
       </c>
       <c r="D266">
         <v>23034</v>
@@ -7328,10 +7604,10 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="C267" t="s">
-        <v>982</v>
+        <v>1043</v>
       </c>
       <c r="D267">
         <v>285699</v>
@@ -7342,10 +7618,10 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="C268" t="s">
-        <v>983</v>
+        <v>1044</v>
       </c>
       <c r="D268">
         <v>1553</v>
@@ -7356,10 +7632,10 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="C269" t="s">
-        <v>984</v>
+        <v>1045</v>
       </c>
       <c r="D269">
         <v>99454</v>
@@ -7370,10 +7646,10 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
       <c r="C270" t="s">
-        <v>985</v>
+        <v>1046</v>
       </c>
       <c r="D270">
         <v>11357</v>
@@ -7384,10 +7660,10 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="C271" t="s">
-        <v>986</v>
+        <v>1047</v>
       </c>
       <c r="D271">
         <v>15345</v>
@@ -7398,10 +7674,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="C272" t="s">
-        <v>987</v>
+        <v>1048</v>
       </c>
       <c r="D272">
         <v>3132</v>
@@ -7412,10 +7688,10 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
       <c r="C273" t="s">
-        <v>988</v>
+        <v>1049</v>
       </c>
       <c r="D273">
         <v>40</v>
@@ -7426,10 +7702,10 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="C274" t="s">
-        <v>989</v>
+        <v>1050</v>
       </c>
       <c r="D274">
         <v>220839</v>
@@ -7440,10 +7716,10 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="C275" t="s">
-        <v>990</v>
+        <v>1051</v>
       </c>
       <c r="D275">
         <v>1342</v>
@@ -7454,10 +7730,10 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="C276" t="s">
-        <v>991</v>
+        <v>1052</v>
       </c>
       <c r="D276">
         <v>17088</v>
@@ -7468,10 +7744,10 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="C277" t="s">
-        <v>992</v>
+        <v>1053</v>
       </c>
       <c r="D277">
         <v>156486</v>
@@ -7482,10 +7758,10 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="C278" t="s">
-        <v>993</v>
+        <v>1054</v>
       </c>
       <c r="D278">
         <v>372</v>
@@ -7496,10 +7772,10 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="C279" t="s">
-        <v>994</v>
+        <v>1055</v>
       </c>
       <c r="D279">
         <v>148708</v>
@@ -7510,10 +7786,10 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="C280" t="s">
-        <v>995</v>
+        <v>1056</v>
       </c>
       <c r="D280">
         <v>212410</v>
@@ -7524,10 +7800,10 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="C281" t="s">
-        <v>996</v>
+        <v>1057</v>
       </c>
       <c r="D281">
         <v>565473</v>
@@ -7538,10 +7814,10 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="C282" t="s">
-        <v>997</v>
+        <v>1058</v>
       </c>
       <c r="D282">
         <v>1008453</v>
@@ -7552,10 +7828,10 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="C283" t="s">
-        <v>998</v>
+        <v>1059</v>
       </c>
       <c r="D283">
         <v>9457</v>
@@ -7566,10 +7842,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="C284" t="s">
-        <v>999</v>
+        <v>1060</v>
       </c>
       <c r="D284">
         <v>2716106</v>
@@ -7580,10 +7856,10 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="C285" t="s">
-        <v>1000</v>
+        <v>1061</v>
       </c>
       <c r="D285">
         <v>1064</v>
@@ -7594,10 +7870,10 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="C286" t="s">
-        <v>1001</v>
+        <v>1062</v>
       </c>
       <c r="D286">
         <v>76330</v>
@@ -7608,10 +7884,10 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="C287" t="s">
-        <v>1002</v>
+        <v>1063</v>
       </c>
       <c r="D287">
         <v>6944</v>
@@ -7622,10 +7898,10 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
       <c r="C288" t="s">
-        <v>1003</v>
+        <v>1064</v>
       </c>
       <c r="D288">
         <v>7466</v>
@@ -7636,10 +7912,10 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="C289" t="s">
-        <v>1004</v>
+        <v>1065</v>
       </c>
       <c r="D289">
         <v>112830</v>
@@ -7650,10 +7926,10 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="C290" t="s">
-        <v>1005</v>
+        <v>1066</v>
       </c>
       <c r="D290">
         <v>69657</v>
@@ -7664,10 +7940,10 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C291" t="s">
-        <v>1006</v>
+        <v>1067</v>
       </c>
       <c r="D291">
         <v>265728</v>
@@ -7678,10 +7954,10 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="C292" t="s">
-        <v>1007</v>
+        <v>1068</v>
       </c>
       <c r="D292">
         <v>4800</v>
@@ -7692,10 +7968,10 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="C293" t="s">
-        <v>1008</v>
+        <v>1069</v>
       </c>
       <c r="D293">
         <v>1504714</v>
@@ -7706,10 +7982,10 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="C294" t="s">
-        <v>1009</v>
+        <v>1070</v>
       </c>
       <c r="D294">
         <v>25624</v>
@@ -7720,10 +7996,10 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>653</v>
+        <v>683</v>
       </c>
       <c r="C295" t="s">
-        <v>1010</v>
+        <v>1071</v>
       </c>
       <c r="D295">
         <v>212898</v>
@@ -7734,10 +8010,10 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="C296" t="s">
-        <v>1011</v>
+        <v>1072</v>
       </c>
       <c r="D296">
         <v>7077</v>
@@ -7748,10 +8024,10 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="C297" t="s">
-        <v>1012</v>
+        <v>1073</v>
       </c>
       <c r="D297">
         <v>450</v>
@@ -7762,10 +8038,10 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="C298" t="s">
-        <v>1013</v>
+        <v>1074</v>
       </c>
       <c r="D298">
         <v>7788</v>
@@ -7776,10 +8052,10 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
       <c r="C299" t="s">
-        <v>1014</v>
+        <v>1075</v>
       </c>
       <c r="D299">
         <v>5642</v>
@@ -7790,10 +8066,10 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>658</v>
+        <v>688</v>
       </c>
       <c r="C300" t="s">
-        <v>1015</v>
+        <v>1076</v>
       </c>
       <c r="D300">
         <v>73023</v>
@@ -7804,10 +8080,10 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
       <c r="C301" t="s">
-        <v>1016</v>
+        <v>1077</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -7818,10 +8094,10 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="C302" t="s">
-        <v>1017</v>
+        <v>1078</v>
       </c>
       <c r="D302">
         <v>407080</v>
@@ -7832,10 +8108,10 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="C303" t="s">
-        <v>1018</v>
+        <v>1079</v>
       </c>
       <c r="D303">
         <v>6576</v>
@@ -7846,10 +8122,10 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="C304" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="D304">
         <v>10274</v>
@@ -7860,10 +8136,10 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="C305" t="s">
-        <v>1020</v>
+        <v>1081</v>
       </c>
       <c r="D305">
         <v>196</v>
@@ -7874,10 +8150,10 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="C306" t="s">
-        <v>1021</v>
+        <v>1082</v>
       </c>
       <c r="D306">
         <v>147820</v>
@@ -7888,10 +8164,10 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="C307" t="s">
-        <v>1022</v>
+        <v>1083</v>
       </c>
       <c r="D307">
         <v>293</v>
@@ -7902,10 +8178,10 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="C308" t="s">
-        <v>1023</v>
+        <v>1084</v>
       </c>
       <c r="D308">
         <v>318</v>
@@ -7916,10 +8192,10 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="C309" t="s">
-        <v>1024</v>
+        <v>1085</v>
       </c>
       <c r="D309">
         <v>70029</v>
@@ -7930,10 +8206,10 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="C310" t="s">
-        <v>1025</v>
+        <v>1086</v>
       </c>
       <c r="D310">
         <v>448814</v>
@@ -7944,10 +8220,10 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
       <c r="C311" t="s">
-        <v>1026</v>
+        <v>1087</v>
       </c>
       <c r="D311">
         <v>37249</v>
@@ -7958,10 +8234,10 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="C312" t="s">
-        <v>1027</v>
+        <v>1088</v>
       </c>
       <c r="D312">
         <v>19</v>
@@ -7972,10 +8248,10 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C313" t="s">
-        <v>1028</v>
+        <v>1089</v>
       </c>
       <c r="D313">
         <v>125460</v>
@@ -7986,10 +8262,10 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="C314" t="s">
-        <v>1029</v>
+        <v>1090</v>
       </c>
       <c r="D314">
         <v>358</v>
@@ -8000,10 +8276,10 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>673</v>
+        <v>703</v>
       </c>
       <c r="C315" t="s">
-        <v>1030</v>
+        <v>1091</v>
       </c>
       <c r="D315">
         <v>4938</v>
@@ -8014,10 +8290,10 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="C316" t="s">
-        <v>1031</v>
+        <v>1092</v>
       </c>
       <c r="D316">
         <v>432701</v>
@@ -8028,10 +8304,10 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="C317" t="s">
-        <v>1032</v>
+        <v>1093</v>
       </c>
       <c r="D317">
         <v>1212</v>
@@ -8042,10 +8318,10 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="C318" t="s">
-        <v>1033</v>
+        <v>1094</v>
       </c>
       <c r="D318">
         <v>33588</v>
@@ -8056,10 +8332,10 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="C319" t="s">
-        <v>1034</v>
+        <v>1095</v>
       </c>
       <c r="D319">
         <v>127375</v>
@@ -8070,10 +8346,10 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="C320" t="s">
-        <v>1035</v>
+        <v>1096</v>
       </c>
       <c r="D320">
         <v>26892</v>
@@ -8084,10 +8360,10 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="C321" t="s">
-        <v>1036</v>
+        <v>1097</v>
       </c>
       <c r="D321">
         <v>16536</v>
@@ -8098,10 +8374,10 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="C322" t="s">
-        <v>1037</v>
+        <v>1098</v>
       </c>
       <c r="D322">
         <v>196859</v>
@@ -8112,10 +8388,10 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="C323" t="s">
-        <v>1038</v>
+        <v>1099</v>
       </c>
       <c r="D323">
         <v>66540</v>
@@ -8126,10 +8402,10 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>682</v>
+        <v>712</v>
       </c>
       <c r="C324" t="s">
-        <v>1039</v>
+        <v>1100</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -8140,10 +8416,10 @@
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="C325" t="s">
-        <v>1040</v>
+        <v>1101</v>
       </c>
       <c r="D325">
         <v>5719</v>
@@ -8154,10 +8430,10 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="C326" t="s">
-        <v>1041</v>
+        <v>1102</v>
       </c>
       <c r="D326">
         <v>30404</v>
@@ -8168,10 +8444,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="C327" t="s">
-        <v>1042</v>
+        <v>1103</v>
       </c>
       <c r="D327">
         <v>243</v>
@@ -8182,10 +8458,10 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="C328" t="s">
-        <v>1043</v>
+        <v>1104</v>
       </c>
       <c r="D328">
         <v>5075</v>
@@ -8196,10 +8472,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="C329" t="s">
-        <v>1044</v>
+        <v>1105</v>
       </c>
       <c r="D329">
         <v>54131</v>
@@ -8210,10 +8486,10 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="C330" t="s">
-        <v>1045</v>
+        <v>1106</v>
       </c>
       <c r="D330">
         <v>145499</v>
@@ -8224,10 +8500,10 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="C331" t="s">
-        <v>1046</v>
+        <v>1107</v>
       </c>
       <c r="D331">
         <v>73</v>
@@ -8238,10 +8514,10 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="C332" t="s">
-        <v>1047</v>
+        <v>1108</v>
       </c>
       <c r="D332">
         <v>81899</v>
@@ -8252,10 +8528,10 @@
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="C333" t="s">
-        <v>1048</v>
+        <v>1109</v>
       </c>
       <c r="D333">
         <v>85403</v>
@@ -8266,10 +8542,10 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
       <c r="C334" t="s">
-        <v>1049</v>
+        <v>1110</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -8280,10 +8556,10 @@
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="C335" t="s">
-        <v>1050</v>
+        <v>1111</v>
       </c>
       <c r="D335">
         <v>120904</v>
@@ -8294,10 +8570,10 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="C336" t="s">
-        <v>1051</v>
+        <v>1112</v>
       </c>
       <c r="D336">
         <v>259553</v>
@@ -8308,10 +8584,10 @@
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="C337" t="s">
-        <v>1052</v>
+        <v>1113</v>
       </c>
       <c r="D337">
         <v>192103</v>
@@ -8322,10 +8598,10 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="C338" t="s">
-        <v>1053</v>
+        <v>1114</v>
       </c>
       <c r="D338">
         <v>74199</v>
@@ -8336,10 +8612,10 @@
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="C339" t="s">
-        <v>1054</v>
+        <v>1115</v>
       </c>
       <c r="D339">
         <v>11866</v>
@@ -8350,10 +8626,10 @@
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="C340" t="s">
-        <v>1055</v>
+        <v>1116</v>
       </c>
       <c r="D340">
         <v>452357</v>
@@ -8364,10 +8640,10 @@
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="C341" t="s">
-        <v>1056</v>
+        <v>1117</v>
       </c>
       <c r="D341">
         <v>274776</v>
@@ -8378,10 +8654,10 @@
         <v>110</v>
       </c>
       <c r="B342" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="C342" t="s">
-        <v>1057</v>
+        <v>1118</v>
       </c>
       <c r="D342">
         <v>3900</v>
@@ -8392,10 +8668,10 @@
         <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="C343" t="s">
-        <v>1058</v>
+        <v>1119</v>
       </c>
       <c r="D343">
         <v>5947</v>
@@ -8406,10 +8682,10 @@
         <v>345</v>
       </c>
       <c r="B344" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="C344" t="s">
-        <v>1059</v>
+        <v>1120</v>
       </c>
       <c r="D344">
         <v>7386</v>
@@ -8420,10 +8696,10 @@
         <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
       <c r="C345" t="s">
-        <v>1060</v>
+        <v>1121</v>
       </c>
       <c r="D345">
         <v>4330</v>
@@ -8434,10 +8710,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="C346" t="s">
-        <v>1061</v>
+        <v>1122</v>
       </c>
       <c r="D346">
         <v>58</v>
@@ -8448,10 +8724,10 @@
         <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="C347" t="s">
-        <v>1062</v>
+        <v>1123</v>
       </c>
       <c r="D347">
         <v>146332</v>
@@ -8462,10 +8738,10 @@
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="C348" t="s">
-        <v>1063</v>
+        <v>1124</v>
       </c>
       <c r="D348">
         <v>2869</v>
@@ -8476,10 +8752,10 @@
         <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="C349" t="s">
-        <v>1064</v>
+        <v>1125</v>
       </c>
       <c r="D349">
         <v>1002801</v>
@@ -8490,10 +8766,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="C350" t="s">
-        <v>1065</v>
+        <v>1126</v>
       </c>
       <c r="D350">
         <v>204562</v>
@@ -8504,10 +8780,10 @@
         <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="C351" t="s">
-        <v>1066</v>
+        <v>1127</v>
       </c>
       <c r="D351">
         <v>99175</v>
@@ -8518,10 +8794,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="C352" t="s">
-        <v>1067</v>
+        <v>1128</v>
       </c>
       <c r="D352">
         <v>3674</v>
@@ -8532,10 +8808,10 @@
         <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
       <c r="C353" t="s">
-        <v>1068</v>
+        <v>1129</v>
       </c>
       <c r="D353">
         <v>670224</v>
@@ -8546,10 +8822,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="C354" t="s">
-        <v>1069</v>
+        <v>1130</v>
       </c>
       <c r="D354">
         <v>1415</v>
@@ -8560,10 +8836,10 @@
         <v>356</v>
       </c>
       <c r="B355" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
       <c r="C355" t="s">
-        <v>1070</v>
+        <v>1131</v>
       </c>
       <c r="D355">
         <v>9524</v>
@@ -8574,10 +8850,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="C356" t="s">
-        <v>1071</v>
+        <v>1132</v>
       </c>
       <c r="D356">
         <v>4717</v>
@@ -8588,10 +8864,10 @@
         <v>358</v>
       </c>
       <c r="B357" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="C357" t="s">
-        <v>1072</v>
+        <v>1133</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -8602,13 +8878,447 @@
         <v>359</v>
       </c>
       <c r="B358" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C358" t="s">
-        <v>1073</v>
+        <v>1134</v>
       </c>
       <c r="D358">
         <v>128405</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359" t="s">
+        <v>747</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D359">
+        <v>111060</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360" t="s">
+        <v>748</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>362</v>
+      </c>
+      <c r="B361" t="s">
+        <v>749</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D361">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>363</v>
+      </c>
+      <c r="B362" t="s">
+        <v>750</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D362">
+        <v>153818</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363" t="s">
+        <v>751</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D363">
+        <v>8765</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>365</v>
+      </c>
+      <c r="B364" t="s">
+        <v>752</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D364">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365" t="s">
+        <v>753</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D365">
+        <v>16875</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>367</v>
+      </c>
+      <c r="B366" t="s">
+        <v>754</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D366">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367" t="s">
+        <v>755</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>369</v>
+      </c>
+      <c r="B368" t="s">
+        <v>756</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D368">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>370</v>
+      </c>
+      <c r="B369" t="s">
+        <v>757</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D369">
+        <v>46163</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>300</v>
+      </c>
+      <c r="B370" t="s">
+        <v>758</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D370">
+        <v>12431</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" t="s">
+        <v>759</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D371">
+        <v>21309</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" t="s">
+        <v>760</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D372">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" t="s">
+        <v>761</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D373">
+        <v>167286</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" t="s">
+        <v>762</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D374">
+        <v>43714</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" t="s">
+        <v>763</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D375">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" t="s">
+        <v>764</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" t="s">
+        <v>765</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D377">
+        <v>243434</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" t="s">
+        <v>766</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D378">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" t="s">
+        <v>767</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D379">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" t="s">
+        <v>768</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D380">
+        <v>8659</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" t="s">
+        <v>769</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D381">
+        <v>73820</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" t="s">
+        <v>770</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D382">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" t="s">
+        <v>771</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D383">
+        <v>13498</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" t="s">
+        <v>772</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D384">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" t="s">
+        <v>773</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D385">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" t="s">
+        <v>774</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D386">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="s">
+        <v>775</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D387">
+        <v>28954</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" t="s">
+        <v>776</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D388">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" t="s">
+        <v>777</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D389">
+        <v>91335</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1327">
   <si>
     <t>Date</t>
   </si>
@@ -1186,6 +1186,165 @@
     <t>2026-02-18 18:33:49</t>
   </si>
   <si>
+    <t>2026-02-18 14:09:00</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:07:45</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:26:13</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:21:48</t>
+  </si>
+  <si>
+    <t>2026-02-18 18:16:14</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:05:37</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:13:37</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:24:20</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:29:23</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:41:38</t>
+  </si>
+  <si>
+    <t>2026-02-19 00:44:27</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:48:19</t>
+  </si>
+  <si>
+    <t>2026-02-15 18:30:57</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:34:06</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:04:55</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:30:48</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:00:00</t>
+  </si>
+  <si>
+    <t>2026-02-18 23:17:16</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:47:18</t>
+  </si>
+  <si>
+    <t>2026-02-13 14:54:46</t>
+  </si>
+  <si>
+    <t>2026-02-18 18:11:59</t>
+  </si>
+  <si>
+    <t>2026-02-14 08:35:53</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:05:01</t>
+  </si>
+  <si>
+    <t>2026-02-18 23:29:16</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:44:43</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:59:07</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:44:57</t>
+  </si>
+  <si>
+    <t>2026-02-17 06:54:21</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:15:02</t>
+  </si>
+  <si>
+    <t>2026-02-16 03:41:00</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:32:50</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:16:50</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:35:32</t>
+  </si>
+  <si>
+    <t>2026-02-13 01:38:37</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:02:43</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:24:30</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:01:47</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:01:52</t>
+  </si>
+  <si>
+    <t>2026-02-18 07:18:24</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:41:07</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:51:04</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:15:14</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:22:42</t>
+  </si>
+  <si>
+    <t>2026-02-14 05:57:52</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:40:15</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:45:46</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:27:54</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:53:32</t>
+  </si>
+  <si>
+    <t>2026-02-17 09:29:44</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:30:19</t>
+  </si>
+  <si>
+    <t>2026-02-17 07:50:23</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:01:39</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:32:03</t>
+  </si>
+  <si>
     <t>237671823369</t>
   </si>
   <si>
@@ -2350,6 +2509,168 @@
     <t>237651732074</t>
   </si>
   <si>
+    <t>237652285489</t>
+  </si>
+  <si>
+    <t>237681112215</t>
+  </si>
+  <si>
+    <t>237674933048</t>
+  </si>
+  <si>
+    <t>237674772736</t>
+  </si>
+  <si>
+    <t>237652817931</t>
+  </si>
+  <si>
+    <t>237681655358</t>
+  </si>
+  <si>
+    <t>237682154553</t>
+  </si>
+  <si>
+    <t>237679795158</t>
+  </si>
+  <si>
+    <t>237651155175</t>
+  </si>
+  <si>
+    <t>237681299829</t>
+  </si>
+  <si>
+    <t>237675788721</t>
+  </si>
+  <si>
+    <t>237680946402</t>
+  </si>
+  <si>
+    <t>237674678849</t>
+  </si>
+  <si>
+    <t>237681120658</t>
+  </si>
+  <si>
+    <t>237652154573</t>
+  </si>
+  <si>
+    <t>237653808202</t>
+  </si>
+  <si>
+    <t>237682748761</t>
+  </si>
+  <si>
+    <t>237673442665</t>
+  </si>
+  <si>
+    <t>237674884730</t>
+  </si>
+  <si>
+    <t>237675882622</t>
+  </si>
+  <si>
+    <t>237654064144</t>
+  </si>
+  <si>
+    <t>237674450898</t>
+  </si>
+  <si>
+    <t>237676327773</t>
+  </si>
+  <si>
+    <t>237681785030</t>
+  </si>
+  <si>
+    <t>237682453578</t>
+  </si>
+  <si>
+    <t>237671812935</t>
+  </si>
+  <si>
+    <t>237683079541</t>
+  </si>
+  <si>
+    <t>237679383988</t>
+  </si>
+  <si>
+    <t>237671110366</t>
+  </si>
+  <si>
+    <t>237652431019</t>
+  </si>
+  <si>
+    <t>237678792179</t>
+  </si>
+  <si>
+    <t>237683399162</t>
+  </si>
+  <si>
+    <t>237651299589</t>
+  </si>
+  <si>
+    <t>237670984670</t>
+  </si>
+  <si>
+    <t>237679075566</t>
+  </si>
+  <si>
+    <t>237650638141</t>
+  </si>
+  <si>
+    <t>237681118330</t>
+  </si>
+  <si>
+    <t>237674929417</t>
+  </si>
+  <si>
+    <t>237683279255</t>
+  </si>
+  <si>
+    <t>237678273815</t>
+  </si>
+  <si>
+    <t>237653188150</t>
+  </si>
+  <si>
+    <t>237681611433</t>
+  </si>
+  <si>
+    <t>237683620401</t>
+  </si>
+  <si>
+    <t>237681656019</t>
+  </si>
+  <si>
+    <t>237680947181</t>
+  </si>
+  <si>
+    <t>237653552470</t>
+  </si>
+  <si>
+    <t>237654355100</t>
+  </si>
+  <si>
+    <t>237676652273</t>
+  </si>
+  <si>
+    <t>237674929441</t>
+  </si>
+  <si>
+    <t>237671076803</t>
+  </si>
+  <si>
+    <t>237674463774</t>
+  </si>
+  <si>
+    <t>237671100223</t>
+  </si>
+  <si>
+    <t>237679744106</t>
+  </si>
+  <si>
+    <t>237683217288</t>
+  </si>
+  <si>
     <t>MFS ENTREE COLLEGE MALANGUE</t>
   </si>
   <si>
@@ -3512,6 +3833,168 @@
   </si>
   <si>
     <t>TCP BOIS WAFO EMMANUEL</t>
+  </si>
+  <si>
+    <t>joseline kenne</t>
+  </si>
+  <si>
+    <t>ETS TIN-GLOBALCOMM NSANGNEH HINDA</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CBOX R1 NINZEGA EMILIENNE CLAIRE</t>
+  </si>
+  <si>
+    <t>TEJIOBOU STEPHANE OLIVE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>SENGUE RUTH NICAISE YOLANDE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ulrich roosvelt notoum</t>
+  </si>
+  <si>
+    <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 81</t>
+  </si>
+  <si>
+    <t>MARTHE SYLVIANIE NDJOLOM</t>
+  </si>
+  <si>
+    <t>NDEBI MEDARD DESIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS TCHAWE MBOUGA JUDITH FLORE</t>
+  </si>
+  <si>
+    <t>eugine fon fonghe</t>
+  </si>
+  <si>
+    <t>MBOUMA MARIE YACHALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ANDRE GIBRIL FONO</t>
+  </si>
+  <si>
+    <t>MASSONBA ROSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NGOUET MOLUH ABIBA STYLE. COM</t>
+  </si>
+  <si>
+    <t>TCHINDA HELENE LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>ANICETTE PRUDENCE TAGUEU MATIO</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE_ LTDLA_CBOX_R0_EMAGUEU JOSIANE AIMEE</t>
+  </si>
+  <si>
+    <t>FRANCK DIVANE KOUAM KAMDEM</t>
+  </si>
+  <si>
+    <t>FOYET JUDE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TOP MOBILE LTDLA CBOX R2 NGO DIBE HERMINE</t>
+  </si>
+  <si>
+    <t>KAMDEM VIGNY AUGUSTIN ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>GEORGES TALOM</t>
+  </si>
+  <si>
+    <t>ETONG MEBOMA JOSEPHINE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>KOUKEO OLIVIER SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>THIERRY MELINGUI AYINA</t>
+  </si>
+  <si>
+    <t>TIMBONG ELIAS</t>
+  </si>
+  <si>
+    <t>FREDERICK GWEJI TUMENTA</t>
+  </si>
+  <si>
+    <t>MICELINE TOUOKONG FOMA ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 TCHAGME TCHIENGNANG DANIE MARTIALE</t>
+  </si>
+  <si>
+    <t>germaine tchigheu</t>
+  </si>
+  <si>
+    <t>DIALLO ABDOUL AZIZ ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>LIONELFONE MEDJEUFEUSSI</t>
+  </si>
+  <si>
+    <t>LAMBERT NJEBU GWEI</t>
+  </si>
+  <si>
+    <t>JULIE ROSE DONFACK LEKANE</t>
+  </si>
+  <si>
+    <t>SAHA NDESA JONAS LTDLA_POLAS_OTH_NDOGBONG SERIE</t>
+  </si>
+  <si>
+    <t>MARTHE NGUENGNANG KINGUE</t>
+  </si>
+  <si>
+    <t>Deuffi Yvonne laurette LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>EB ACCION_ CITE DES PALMIERS BACKUP</t>
+  </si>
+  <si>
+    <t>NJONKOU LOIC BIENVENU ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>Barry Diakariaou World T Plus</t>
+  </si>
+  <si>
+    <t>BK BUSINESS 3</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS KAMGA CHEUTOUA SERGE OLIVIER</t>
+  </si>
+  <si>
+    <t>ETS MFS LTDLA-KIOSK-Ndogbond commissariat</t>
+  </si>
+  <si>
+    <t>ETS MFS ESSEC FACE EGLISE SAINT THOMAS</t>
+  </si>
+  <si>
+    <t>abdou arahime sundzeh</t>
+  </si>
+  <si>
+    <t>MBESSA GISAWO GRACIELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ALVINE EPIPHANIE NGUETSOP CHITIEU</t>
+  </si>
+  <si>
+    <t>WANDJI NKOUE SOLLICITEE LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>NDJIMOU CATHERINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>DAYO TSAKOU ARSENE STYLE. COM</t>
+  </si>
+  <si>
+    <t>NGO NONGA TECLAIRE NATHALIE KAMILAH CONNECTION</t>
+  </si>
+  <si>
+    <t>MERLIN WILLIAMS VOUGMO NGUEMO</t>
   </si>
 </sst>
 </file>
@@ -3869,7 +4352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D389"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3894,10 +4377,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
-        <v>778</v>
+        <v>885</v>
       </c>
       <c r="D2">
         <v>30095</v>
@@ -3908,10 +4391,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="C3" t="s">
-        <v>779</v>
+        <v>886</v>
       </c>
       <c r="D3">
         <v>36595</v>
@@ -3922,10 +4405,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="C4" t="s">
-        <v>780</v>
+        <v>887</v>
       </c>
       <c r="D4">
         <v>1042551</v>
@@ -3936,10 +4419,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
-        <v>781</v>
+        <v>888</v>
       </c>
       <c r="D5">
         <v>12973</v>
@@ -3950,10 +4433,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="C6" t="s">
-        <v>782</v>
+        <v>889</v>
       </c>
       <c r="D6">
         <v>878</v>
@@ -3964,10 +4447,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
-        <v>783</v>
+        <v>890</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -3978,10 +4461,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
-        <v>784</v>
+        <v>891</v>
       </c>
       <c r="D8">
         <v>215254</v>
@@ -3992,10 +4475,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>785</v>
+        <v>892</v>
       </c>
       <c r="D9">
         <v>190023</v>
@@ -4006,10 +4489,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C10" t="s">
-        <v>786</v>
+        <v>893</v>
       </c>
       <c r="D10">
         <v>6498</v>
@@ -4020,10 +4503,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="C11" t="s">
-        <v>787</v>
+        <v>894</v>
       </c>
       <c r="D11">
         <v>98844</v>
@@ -4034,10 +4517,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
-        <v>788</v>
+        <v>895</v>
       </c>
       <c r="D12">
         <v>86556</v>
@@ -4048,10 +4531,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="C13" t="s">
-        <v>789</v>
+        <v>896</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -4062,10 +4545,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="C14" t="s">
-        <v>790</v>
+        <v>897</v>
       </c>
       <c r="D14">
         <v>9594</v>
@@ -4076,10 +4559,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="C15" t="s">
-        <v>791</v>
+        <v>898</v>
       </c>
       <c r="D15">
         <v>262</v>
@@ -4090,10 +4573,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="C16" t="s">
-        <v>792</v>
+        <v>899</v>
       </c>
       <c r="D16">
         <v>517168</v>
@@ -4104,10 +4587,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="C17" t="s">
-        <v>793</v>
+        <v>900</v>
       </c>
       <c r="D17">
         <v>96868</v>
@@ -4118,10 +4601,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="C18" t="s">
-        <v>794</v>
+        <v>901</v>
       </c>
       <c r="D18">
         <v>109492</v>
@@ -4132,10 +4615,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="C19" t="s">
-        <v>795</v>
+        <v>902</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -4146,10 +4629,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="C20" t="s">
-        <v>796</v>
+        <v>903</v>
       </c>
       <c r="D20">
         <v>44076</v>
@@ -4160,10 +4643,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="C21" t="s">
-        <v>797</v>
+        <v>904</v>
       </c>
       <c r="D21">
         <v>21000</v>
@@ -4174,10 +4657,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="C22" t="s">
-        <v>798</v>
+        <v>905</v>
       </c>
       <c r="D22">
         <v>94556</v>
@@ -4188,10 +4671,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="C23" t="s">
-        <v>799</v>
+        <v>906</v>
       </c>
       <c r="D23">
         <v>5345</v>
@@ -4202,10 +4685,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="C24" t="s">
-        <v>800</v>
+        <v>907</v>
       </c>
       <c r="D24">
         <v>8858</v>
@@ -4216,10 +4699,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="C25" t="s">
-        <v>801</v>
+        <v>908</v>
       </c>
       <c r="D25">
         <v>264112</v>
@@ -4230,10 +4713,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="C26" t="s">
-        <v>802</v>
+        <v>909</v>
       </c>
       <c r="D26">
         <v>55699</v>
@@ -4244,10 +4727,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="C27" t="s">
-        <v>803</v>
+        <v>910</v>
       </c>
       <c r="D27">
         <v>56245</v>
@@ -4258,10 +4741,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="C28" t="s">
-        <v>804</v>
+        <v>911</v>
       </c>
       <c r="D28">
         <v>4751</v>
@@ -4272,10 +4755,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="C29" t="s">
-        <v>805</v>
+        <v>912</v>
       </c>
       <c r="D29">
         <v>1873</v>
@@ -4286,10 +4769,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="C30" t="s">
-        <v>806</v>
+        <v>913</v>
       </c>
       <c r="D30">
         <v>333218</v>
@@ -4300,10 +4783,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="C31" t="s">
-        <v>807</v>
+        <v>914</v>
       </c>
       <c r="D31">
         <v>6385129</v>
@@ -4314,10 +4797,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="C32" t="s">
-        <v>808</v>
+        <v>915</v>
       </c>
       <c r="D32">
         <v>13377</v>
@@ -4328,10 +4811,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="C33" t="s">
-        <v>809</v>
+        <v>916</v>
       </c>
       <c r="D33">
         <v>6729</v>
@@ -4342,10 +4825,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="C34" t="s">
-        <v>810</v>
+        <v>917</v>
       </c>
       <c r="D34">
         <v>864</v>
@@ -4356,10 +4839,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="C35" t="s">
-        <v>811</v>
+        <v>918</v>
       </c>
       <c r="D35">
         <v>472353</v>
@@ -4370,10 +4853,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="C36" t="s">
-        <v>812</v>
+        <v>919</v>
       </c>
       <c r="D36">
         <v>23</v>
@@ -4384,10 +4867,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="C37" t="s">
-        <v>813</v>
+        <v>920</v>
       </c>
       <c r="D37">
         <v>24386</v>
@@ -4398,10 +4881,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="C38" t="s">
-        <v>814</v>
+        <v>921</v>
       </c>
       <c r="D38">
         <v>44600</v>
@@ -4412,10 +4895,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="C39" t="s">
-        <v>815</v>
+        <v>922</v>
       </c>
       <c r="D39">
         <v>2042</v>
@@ -4426,10 +4909,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="C40" t="s">
-        <v>816</v>
+        <v>923</v>
       </c>
       <c r="D40">
         <v>109659</v>
@@ -4440,10 +4923,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="C41" t="s">
-        <v>817</v>
+        <v>924</v>
       </c>
       <c r="D41">
         <v>2977</v>
@@ -4454,10 +4937,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="C42" t="s">
-        <v>818</v>
+        <v>925</v>
       </c>
       <c r="D42">
         <v>843587</v>
@@ -4468,10 +4951,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="C43" t="s">
-        <v>819</v>
+        <v>926</v>
       </c>
       <c r="D43">
         <v>206473</v>
@@ -4482,10 +4965,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="C44" t="s">
-        <v>820</v>
+        <v>927</v>
       </c>
       <c r="D44">
         <v>13531</v>
@@ -4496,10 +4979,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="C45" t="s">
-        <v>821</v>
+        <v>928</v>
       </c>
       <c r="D45">
         <v>79737</v>
@@ -4510,10 +4993,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="C46" t="s">
-        <v>822</v>
+        <v>929</v>
       </c>
       <c r="D46">
         <v>11434</v>
@@ -4524,10 +5007,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="C47" t="s">
-        <v>823</v>
+        <v>930</v>
       </c>
       <c r="D47">
         <v>501</v>
@@ -4538,10 +5021,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="C48" t="s">
-        <v>824</v>
+        <v>931</v>
       </c>
       <c r="D48">
         <v>380</v>
@@ -4552,10 +5035,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="C49" t="s">
-        <v>825</v>
+        <v>932</v>
       </c>
       <c r="D49">
         <v>43362</v>
@@ -4566,10 +5049,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="C50" t="s">
-        <v>826</v>
+        <v>933</v>
       </c>
       <c r="D50">
         <v>708340</v>
@@ -4580,10 +5063,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="C51" t="s">
-        <v>827</v>
+        <v>934</v>
       </c>
       <c r="D51">
         <v>3593</v>
@@ -4594,10 +5077,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="C52" t="s">
-        <v>828</v>
+        <v>935</v>
       </c>
       <c r="D52">
         <v>1879475</v>
@@ -4608,10 +5091,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="C53" t="s">
-        <v>829</v>
+        <v>936</v>
       </c>
       <c r="D53">
         <v>3784</v>
@@ -4622,10 +5105,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="C54" t="s">
-        <v>830</v>
+        <v>937</v>
       </c>
       <c r="D54">
         <v>70172</v>
@@ -4636,10 +5119,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="C55" t="s">
-        <v>831</v>
+        <v>938</v>
       </c>
       <c r="D55">
         <v>148</v>
@@ -4650,10 +5133,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="C56" t="s">
-        <v>832</v>
+        <v>939</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4664,10 +5147,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="C57" t="s">
-        <v>833</v>
+        <v>940</v>
       </c>
       <c r="D57">
         <v>97484</v>
@@ -4678,10 +5161,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="C58" t="s">
-        <v>834</v>
+        <v>941</v>
       </c>
       <c r="D58">
         <v>7927</v>
@@ -4692,10 +5175,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="C59" t="s">
-        <v>835</v>
+        <v>942</v>
       </c>
       <c r="D59">
         <v>61762</v>
@@ -4706,10 +5189,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="C60" t="s">
-        <v>836</v>
+        <v>943</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -4720,10 +5203,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="C61" t="s">
-        <v>837</v>
+        <v>944</v>
       </c>
       <c r="D61">
         <v>12292</v>
@@ -4734,10 +5217,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="C62" t="s">
-        <v>838</v>
+        <v>945</v>
       </c>
       <c r="D62">
         <v>366231</v>
@@ -4748,10 +5231,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="C63" t="s">
-        <v>839</v>
+        <v>946</v>
       </c>
       <c r="D63">
         <v>20358</v>
@@ -4762,10 +5245,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="C64" t="s">
-        <v>840</v>
+        <v>947</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -4776,10 +5259,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="C65" t="s">
-        <v>841</v>
+        <v>948</v>
       </c>
       <c r="D65">
         <v>29507</v>
@@ -4790,10 +5273,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="C66" t="s">
-        <v>842</v>
+        <v>949</v>
       </c>
       <c r="D66">
         <v>71538</v>
@@ -4804,10 +5287,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="C67" t="s">
-        <v>843</v>
+        <v>950</v>
       </c>
       <c r="D67">
         <v>438901</v>
@@ -4818,10 +5301,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="C68" t="s">
-        <v>844</v>
+        <v>951</v>
       </c>
       <c r="D68">
         <v>15525</v>
@@ -4832,10 +5315,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="C69" t="s">
-        <v>845</v>
+        <v>952</v>
       </c>
       <c r="D69">
         <v>792132</v>
@@ -4846,10 +5329,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="C70" t="s">
-        <v>846</v>
+        <v>953</v>
       </c>
       <c r="D70">
         <v>524523</v>
@@ -4860,10 +5343,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="C71" t="s">
-        <v>847</v>
+        <v>954</v>
       </c>
       <c r="D71">
         <v>866</v>
@@ -4874,10 +5357,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="C72" t="s">
-        <v>848</v>
+        <v>955</v>
       </c>
       <c r="D72">
         <v>101711</v>
@@ -4888,10 +5371,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="C73" t="s">
-        <v>849</v>
+        <v>956</v>
       </c>
       <c r="D73">
         <v>6178</v>
@@ -4902,10 +5385,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="C74" t="s">
-        <v>850</v>
+        <v>957</v>
       </c>
       <c r="D74">
         <v>1269273</v>
@@ -4916,10 +5399,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="C75" t="s">
-        <v>851</v>
+        <v>958</v>
       </c>
       <c r="D75">
         <v>20668</v>
@@ -4930,10 +5413,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="C76" t="s">
-        <v>852</v>
+        <v>959</v>
       </c>
       <c r="D76">
         <v>40652</v>
@@ -4944,10 +5427,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="C77" t="s">
-        <v>853</v>
+        <v>960</v>
       </c>
       <c r="D77">
         <v>21475</v>
@@ -4958,10 +5441,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="C78" t="s">
-        <v>854</v>
+        <v>961</v>
       </c>
       <c r="D78">
         <v>5015499</v>
@@ -4972,10 +5455,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="C79" t="s">
-        <v>855</v>
+        <v>962</v>
       </c>
       <c r="D79">
         <v>4249</v>
@@ -4986,10 +5469,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="C80" t="s">
-        <v>856</v>
+        <v>963</v>
       </c>
       <c r="D80">
         <v>462</v>
@@ -5000,10 +5483,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="C81" t="s">
-        <v>857</v>
+        <v>964</v>
       </c>
       <c r="D81">
         <v>3510</v>
@@ -5014,10 +5497,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="C82" t="s">
-        <v>858</v>
+        <v>965</v>
       </c>
       <c r="D82">
         <v>3076</v>
@@ -5028,10 +5511,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="C83" t="s">
-        <v>859</v>
+        <v>966</v>
       </c>
       <c r="D83">
         <v>5861</v>
@@ -5042,10 +5525,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="C84" t="s">
-        <v>860</v>
+        <v>967</v>
       </c>
       <c r="D84">
         <v>221</v>
@@ -5056,10 +5539,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="C85" t="s">
-        <v>861</v>
+        <v>968</v>
       </c>
       <c r="D85">
         <v>63743</v>
@@ -5070,10 +5553,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="C86" t="s">
-        <v>862</v>
+        <v>969</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5084,10 +5567,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="C87" t="s">
-        <v>863</v>
+        <v>970</v>
       </c>
       <c r="D87">
         <v>36813</v>
@@ -5098,10 +5581,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="C88" t="s">
-        <v>864</v>
+        <v>971</v>
       </c>
       <c r="D88">
         <v>513</v>
@@ -5112,10 +5595,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="C89" t="s">
-        <v>865</v>
+        <v>972</v>
       </c>
       <c r="D89">
         <v>80118</v>
@@ -5126,10 +5609,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="C90" t="s">
-        <v>866</v>
+        <v>973</v>
       </c>
       <c r="D90">
         <v>2940201</v>
@@ -5140,10 +5623,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="C91" t="s">
-        <v>867</v>
+        <v>974</v>
       </c>
       <c r="D91">
         <v>2339</v>
@@ -5154,10 +5637,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="C92" t="s">
-        <v>868</v>
+        <v>975</v>
       </c>
       <c r="D92">
         <v>4075</v>
@@ -5168,10 +5651,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="C93" t="s">
-        <v>869</v>
+        <v>976</v>
       </c>
       <c r="D93">
         <v>1013</v>
@@ -5182,10 +5665,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="C94" t="s">
-        <v>870</v>
+        <v>977</v>
       </c>
       <c r="D94">
         <v>68166</v>
@@ -5196,10 +5679,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="C95" t="s">
-        <v>871</v>
+        <v>978</v>
       </c>
       <c r="D95">
         <v>1288</v>
@@ -5210,10 +5693,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="C96" t="s">
-        <v>872</v>
+        <v>979</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5224,10 +5707,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="C97" t="s">
-        <v>873</v>
+        <v>980</v>
       </c>
       <c r="D97">
         <v>59398</v>
@@ -5238,10 +5721,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="C98" t="s">
-        <v>874</v>
+        <v>981</v>
       </c>
       <c r="D98">
         <v>7418</v>
@@ -5252,10 +5735,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="C99" t="s">
-        <v>875</v>
+        <v>982</v>
       </c>
       <c r="D99">
         <v>38799</v>
@@ -5266,10 +5749,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="C100" t="s">
-        <v>876</v>
+        <v>983</v>
       </c>
       <c r="D100">
         <v>446015</v>
@@ -5280,10 +5763,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="C101" t="s">
-        <v>877</v>
+        <v>984</v>
       </c>
       <c r="D101">
         <v>32</v>
@@ -5294,10 +5777,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="C102" t="s">
-        <v>878</v>
+        <v>985</v>
       </c>
       <c r="D102">
         <v>70556</v>
@@ -5308,10 +5791,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="C103" t="s">
-        <v>879</v>
+        <v>986</v>
       </c>
       <c r="D103">
         <v>290990</v>
@@ -5322,10 +5805,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="C104" t="s">
-        <v>880</v>
+        <v>987</v>
       </c>
       <c r="D104">
         <v>24133</v>
@@ -5336,10 +5819,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="C105" t="s">
-        <v>881</v>
+        <v>988</v>
       </c>
       <c r="D105">
         <v>7991</v>
@@ -5350,10 +5833,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="C106" t="s">
-        <v>882</v>
+        <v>989</v>
       </c>
       <c r="D106">
         <v>54595</v>
@@ -5364,10 +5847,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="C107" t="s">
-        <v>883</v>
+        <v>990</v>
       </c>
       <c r="D107">
         <v>23</v>
@@ -5378,10 +5861,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="C108" t="s">
-        <v>884</v>
+        <v>991</v>
       </c>
       <c r="D108">
         <v>6025929</v>
@@ -5392,10 +5875,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="C109" t="s">
-        <v>885</v>
+        <v>992</v>
       </c>
       <c r="D109">
         <v>17416</v>
@@ -5406,10 +5889,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="C110" t="s">
-        <v>886</v>
+        <v>993</v>
       </c>
       <c r="D110">
         <v>59923</v>
@@ -5420,10 +5903,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="C111" t="s">
-        <v>887</v>
+        <v>994</v>
       </c>
       <c r="D111">
         <v>9700</v>
@@ -5434,10 +5917,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="C112" t="s">
-        <v>888</v>
+        <v>995</v>
       </c>
       <c r="D112">
         <v>668234</v>
@@ -5448,10 +5931,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="C113" t="s">
-        <v>889</v>
+        <v>996</v>
       </c>
       <c r="D113">
         <v>141</v>
@@ -5462,10 +5945,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="C114" t="s">
-        <v>890</v>
+        <v>997</v>
       </c>
       <c r="D114">
         <v>134935</v>
@@ -5476,10 +5959,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="C115" t="s">
-        <v>891</v>
+        <v>998</v>
       </c>
       <c r="D115">
         <v>11600</v>
@@ -5490,10 +5973,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="C116" t="s">
-        <v>892</v>
+        <v>999</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -5504,10 +5987,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="C117" t="s">
-        <v>893</v>
+        <v>1000</v>
       </c>
       <c r="D117">
         <v>500214</v>
@@ -5518,10 +6001,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
       <c r="C118" t="s">
-        <v>894</v>
+        <v>1001</v>
       </c>
       <c r="D118">
         <v>179255</v>
@@ -5532,10 +6015,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>507</v>
+        <v>560</v>
       </c>
       <c r="C119" t="s">
-        <v>895</v>
+        <v>1002</v>
       </c>
       <c r="D119">
         <v>616178</v>
@@ -5546,10 +6029,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c r="C120" t="s">
-        <v>896</v>
+        <v>1003</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -5560,10 +6043,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>509</v>
+        <v>562</v>
       </c>
       <c r="C121" t="s">
-        <v>897</v>
+        <v>1004</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5574,10 +6057,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>510</v>
+        <v>563</v>
       </c>
       <c r="C122" t="s">
-        <v>898</v>
+        <v>1005</v>
       </c>
       <c r="D122">
         <v>948473</v>
@@ -5588,10 +6071,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="C123" t="s">
-        <v>899</v>
+        <v>1006</v>
       </c>
       <c r="D123">
         <v>141336</v>
@@ -5602,10 +6085,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>512</v>
+        <v>565</v>
       </c>
       <c r="C124" t="s">
-        <v>900</v>
+        <v>1007</v>
       </c>
       <c r="D124">
         <v>31942</v>
@@ -5616,10 +6099,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>513</v>
+        <v>566</v>
       </c>
       <c r="C125" t="s">
-        <v>901</v>
+        <v>1008</v>
       </c>
       <c r="D125">
         <v>126700</v>
@@ -5630,10 +6113,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="C126" t="s">
-        <v>902</v>
+        <v>1009</v>
       </c>
       <c r="D126">
         <v>7184</v>
@@ -5644,10 +6127,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>515</v>
+        <v>568</v>
       </c>
       <c r="C127" t="s">
-        <v>903</v>
+        <v>1010</v>
       </c>
       <c r="D127">
         <v>62509</v>
@@ -5658,10 +6141,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>516</v>
+        <v>569</v>
       </c>
       <c r="C128" t="s">
-        <v>904</v>
+        <v>1011</v>
       </c>
       <c r="D128">
         <v>10441</v>
@@ -5672,10 +6155,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>517</v>
+        <v>570</v>
       </c>
       <c r="C129" t="s">
-        <v>905</v>
+        <v>1012</v>
       </c>
       <c r="D129">
         <v>2922</v>
@@ -5686,10 +6169,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>518</v>
+        <v>571</v>
       </c>
       <c r="C130" t="s">
-        <v>906</v>
+        <v>1013</v>
       </c>
       <c r="D130">
         <v>108036</v>
@@ -5700,10 +6183,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>519</v>
+        <v>572</v>
       </c>
       <c r="C131" t="s">
-        <v>907</v>
+        <v>1014</v>
       </c>
       <c r="D131">
         <v>14</v>
@@ -5714,10 +6197,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>520</v>
+        <v>573</v>
       </c>
       <c r="C132" t="s">
-        <v>908</v>
+        <v>1015</v>
       </c>
       <c r="D132">
         <v>271853</v>
@@ -5728,10 +6211,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>521</v>
+        <v>574</v>
       </c>
       <c r="C133" t="s">
-        <v>909</v>
+        <v>1016</v>
       </c>
       <c r="D133">
         <v>900184</v>
@@ -5742,10 +6225,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>522</v>
+        <v>575</v>
       </c>
       <c r="C134" t="s">
-        <v>910</v>
+        <v>1017</v>
       </c>
       <c r="D134">
         <v>6534</v>
@@ -5756,10 +6239,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>523</v>
+        <v>576</v>
       </c>
       <c r="C135" t="s">
-        <v>911</v>
+        <v>1018</v>
       </c>
       <c r="D135">
         <v>212127</v>
@@ -5770,10 +6253,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="C136" t="s">
-        <v>912</v>
+        <v>1019</v>
       </c>
       <c r="D136">
         <v>20562</v>
@@ -5784,10 +6267,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>525</v>
+        <v>578</v>
       </c>
       <c r="C137" t="s">
-        <v>913</v>
+        <v>1020</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5798,10 +6281,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>526</v>
+        <v>579</v>
       </c>
       <c r="C138" t="s">
-        <v>914</v>
+        <v>1021</v>
       </c>
       <c r="D138">
         <v>66242</v>
@@ -5812,10 +6295,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>527</v>
+        <v>580</v>
       </c>
       <c r="C139" t="s">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="D139">
         <v>237616</v>
@@ -5826,10 +6309,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>528</v>
+        <v>581</v>
       </c>
       <c r="C140" t="s">
-        <v>916</v>
+        <v>1023</v>
       </c>
       <c r="D140">
         <v>986</v>
@@ -5840,10 +6323,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>529</v>
+        <v>582</v>
       </c>
       <c r="C141" t="s">
-        <v>917</v>
+        <v>1024</v>
       </c>
       <c r="D141">
         <v>525</v>
@@ -5854,10 +6337,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>530</v>
+        <v>583</v>
       </c>
       <c r="C142" t="s">
-        <v>918</v>
+        <v>1025</v>
       </c>
       <c r="D142">
         <v>192476</v>
@@ -5868,10 +6351,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c r="C143" t="s">
-        <v>919</v>
+        <v>1026</v>
       </c>
       <c r="D143">
         <v>2179</v>
@@ -5882,10 +6365,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>532</v>
+        <v>585</v>
       </c>
       <c r="C144" t="s">
-        <v>920</v>
+        <v>1027</v>
       </c>
       <c r="D144">
         <v>23601</v>
@@ -5896,10 +6379,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c r="C145" t="s">
-        <v>921</v>
+        <v>1028</v>
       </c>
       <c r="D145">
         <v>2279</v>
@@ -5910,10 +6393,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
       <c r="C146" t="s">
-        <v>922</v>
+        <v>1029</v>
       </c>
       <c r="D146">
         <v>35332</v>
@@ -5924,10 +6407,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>535</v>
+        <v>588</v>
       </c>
       <c r="C147" t="s">
-        <v>923</v>
+        <v>1030</v>
       </c>
       <c r="D147">
         <v>224</v>
@@ -5938,10 +6421,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>536</v>
+        <v>589</v>
       </c>
       <c r="C148" t="s">
-        <v>924</v>
+        <v>1031</v>
       </c>
       <c r="D148">
         <v>135162</v>
@@ -5952,10 +6435,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>537</v>
+        <v>590</v>
       </c>
       <c r="C149" t="s">
-        <v>925</v>
+        <v>1032</v>
       </c>
       <c r="D149">
         <v>2818</v>
@@ -5966,10 +6449,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>538</v>
+        <v>591</v>
       </c>
       <c r="C150" t="s">
-        <v>926</v>
+        <v>1033</v>
       </c>
       <c r="D150">
         <v>6792</v>
@@ -5980,10 +6463,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>539</v>
+        <v>592</v>
       </c>
       <c r="C151" t="s">
-        <v>927</v>
+        <v>1034</v>
       </c>
       <c r="D151">
         <v>23538</v>
@@ -5994,10 +6477,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>540</v>
+        <v>593</v>
       </c>
       <c r="C152" t="s">
-        <v>928</v>
+        <v>1035</v>
       </c>
       <c r="D152">
         <v>2635</v>
@@ -6008,10 +6491,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>541</v>
+        <v>594</v>
       </c>
       <c r="C153" t="s">
-        <v>929</v>
+        <v>1036</v>
       </c>
       <c r="D153">
         <v>3020</v>
@@ -6022,10 +6505,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>542</v>
+        <v>595</v>
       </c>
       <c r="C154" t="s">
-        <v>930</v>
+        <v>1037</v>
       </c>
       <c r="D154">
         <v>85937</v>
@@ -6036,10 +6519,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>543</v>
+        <v>596</v>
       </c>
       <c r="C155" t="s">
-        <v>931</v>
+        <v>1038</v>
       </c>
       <c r="D155">
         <v>1106</v>
@@ -6050,10 +6533,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>544</v>
+        <v>597</v>
       </c>
       <c r="C156" t="s">
-        <v>932</v>
+        <v>1039</v>
       </c>
       <c r="D156">
         <v>288689</v>
@@ -6064,10 +6547,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
       <c r="C157" t="s">
-        <v>933</v>
+        <v>1040</v>
       </c>
       <c r="D157">
         <v>23936</v>
@@ -6078,10 +6561,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="C158" t="s">
-        <v>934</v>
+        <v>1041</v>
       </c>
       <c r="D158">
         <v>7901748</v>
@@ -6092,10 +6575,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="C159" t="s">
-        <v>935</v>
+        <v>1042</v>
       </c>
       <c r="D159">
         <v>4701</v>
@@ -6106,10 +6589,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
       <c r="C160" t="s">
-        <v>936</v>
+        <v>1043</v>
       </c>
       <c r="D160">
         <v>63814</v>
@@ -6120,10 +6603,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>549</v>
+        <v>602</v>
       </c>
       <c r="C161" t="s">
-        <v>937</v>
+        <v>1044</v>
       </c>
       <c r="D161">
         <v>432</v>
@@ -6134,10 +6617,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c r="C162" t="s">
-        <v>938</v>
+        <v>1045</v>
       </c>
       <c r="D162">
         <v>335842</v>
@@ -6148,10 +6631,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>551</v>
+        <v>604</v>
       </c>
       <c r="C163" t="s">
-        <v>939</v>
+        <v>1046</v>
       </c>
       <c r="D163">
         <v>14511</v>
@@ -6162,10 +6645,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
       <c r="C164" t="s">
-        <v>940</v>
+        <v>1047</v>
       </c>
       <c r="D164">
         <v>29941</v>
@@ -6176,10 +6659,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>553</v>
+        <v>606</v>
       </c>
       <c r="C165" t="s">
-        <v>941</v>
+        <v>1048</v>
       </c>
       <c r="D165">
         <v>4082</v>
@@ -6190,10 +6673,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>554</v>
+        <v>607</v>
       </c>
       <c r="C166" t="s">
-        <v>942</v>
+        <v>1049</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6204,10 +6687,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>555</v>
+        <v>608</v>
       </c>
       <c r="C167" t="s">
-        <v>943</v>
+        <v>1050</v>
       </c>
       <c r="D167">
         <v>540</v>
@@ -6218,10 +6701,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="C168" t="s">
-        <v>944</v>
+        <v>1051</v>
       </c>
       <c r="D168">
         <v>43657</v>
@@ -6232,10 +6715,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>557</v>
+        <v>610</v>
       </c>
       <c r="C169" t="s">
-        <v>945</v>
+        <v>1052</v>
       </c>
       <c r="D169">
         <v>105101</v>
@@ -6246,10 +6729,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="C170" t="s">
-        <v>946</v>
+        <v>1053</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -6260,10 +6743,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>559</v>
+        <v>612</v>
       </c>
       <c r="C171" t="s">
-        <v>947</v>
+        <v>1054</v>
       </c>
       <c r="D171">
         <v>808</v>
@@ -6274,10 +6757,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>560</v>
+        <v>613</v>
       </c>
       <c r="C172" t="s">
-        <v>948</v>
+        <v>1055</v>
       </c>
       <c r="D172">
         <v>84819</v>
@@ -6288,10 +6771,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>561</v>
+        <v>614</v>
       </c>
       <c r="C173" t="s">
-        <v>949</v>
+        <v>1056</v>
       </c>
       <c r="D173">
         <v>186101</v>
@@ -6302,10 +6785,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>562</v>
+        <v>615</v>
       </c>
       <c r="C174" t="s">
-        <v>950</v>
+        <v>1057</v>
       </c>
       <c r="D174">
         <v>87</v>
@@ -6316,10 +6799,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>563</v>
+        <v>616</v>
       </c>
       <c r="C175" t="s">
-        <v>951</v>
+        <v>1058</v>
       </c>
       <c r="D175">
         <v>45444</v>
@@ -6330,10 +6813,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>564</v>
+        <v>617</v>
       </c>
       <c r="C176" t="s">
-        <v>952</v>
+        <v>1059</v>
       </c>
       <c r="D176">
         <v>14176</v>
@@ -6344,10 +6827,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="C177" t="s">
-        <v>953</v>
+        <v>1060</v>
       </c>
       <c r="D177">
         <v>317960</v>
@@ -6358,10 +6841,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
       <c r="C178" t="s">
-        <v>954</v>
+        <v>1061</v>
       </c>
       <c r="D178">
         <v>6876</v>
@@ -6372,10 +6855,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>567</v>
+        <v>620</v>
       </c>
       <c r="C179" t="s">
-        <v>955</v>
+        <v>1062</v>
       </c>
       <c r="D179">
         <v>4750</v>
@@ -6386,10 +6869,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>568</v>
+        <v>621</v>
       </c>
       <c r="C180" t="s">
-        <v>956</v>
+        <v>1063</v>
       </c>
       <c r="D180">
         <v>7688</v>
@@ -6400,10 +6883,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>569</v>
+        <v>622</v>
       </c>
       <c r="C181" t="s">
-        <v>957</v>
+        <v>1064</v>
       </c>
       <c r="D181">
         <v>17160</v>
@@ -6414,10 +6897,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>570</v>
+        <v>623</v>
       </c>
       <c r="C182" t="s">
-        <v>958</v>
+        <v>1065</v>
       </c>
       <c r="D182">
         <v>360662</v>
@@ -6428,10 +6911,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
       <c r="C183" t="s">
-        <v>959</v>
+        <v>1066</v>
       </c>
       <c r="D183">
         <v>6316</v>
@@ -6442,10 +6925,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>572</v>
+        <v>625</v>
       </c>
       <c r="C184" t="s">
-        <v>960</v>
+        <v>1067</v>
       </c>
       <c r="D184">
         <v>70</v>
@@ -6456,10 +6939,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>573</v>
+        <v>626</v>
       </c>
       <c r="C185" t="s">
-        <v>961</v>
+        <v>1068</v>
       </c>
       <c r="D185">
         <v>253822</v>
@@ -6470,10 +6953,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="C186" t="s">
-        <v>962</v>
+        <v>1069</v>
       </c>
       <c r="D186">
         <v>216137</v>
@@ -6484,10 +6967,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="C187" t="s">
-        <v>963</v>
+        <v>1070</v>
       </c>
       <c r="D187">
         <v>6503</v>
@@ -6498,10 +6981,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>576</v>
+        <v>629</v>
       </c>
       <c r="C188" t="s">
-        <v>964</v>
+        <v>1071</v>
       </c>
       <c r="D188">
         <v>817810</v>
@@ -6512,10 +6995,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>577</v>
+        <v>630</v>
       </c>
       <c r="C189" t="s">
-        <v>965</v>
+        <v>1072</v>
       </c>
       <c r="D189">
         <v>195618</v>
@@ -6526,10 +7009,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="C190" t="s">
-        <v>966</v>
+        <v>1073</v>
       </c>
       <c r="D190">
         <v>349</v>
@@ -6540,10 +7023,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="C191" t="s">
-        <v>967</v>
+        <v>1074</v>
       </c>
       <c r="D191">
         <v>449</v>
@@ -6554,10 +7037,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>580</v>
+        <v>633</v>
       </c>
       <c r="C192" t="s">
-        <v>968</v>
+        <v>1075</v>
       </c>
       <c r="D192">
         <v>86494</v>
@@ -6568,10 +7051,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>581</v>
+        <v>634</v>
       </c>
       <c r="C193" t="s">
-        <v>969</v>
+        <v>1076</v>
       </c>
       <c r="D193">
         <v>436320</v>
@@ -6582,10 +7065,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>582</v>
+        <v>635</v>
       </c>
       <c r="C194" t="s">
-        <v>970</v>
+        <v>1077</v>
       </c>
       <c r="D194">
         <v>916</v>
@@ -6596,10 +7079,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>583</v>
+        <v>636</v>
       </c>
       <c r="C195" t="s">
-        <v>971</v>
+        <v>1078</v>
       </c>
       <c r="D195">
         <v>13179</v>
@@ -6610,10 +7093,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>584</v>
+        <v>637</v>
       </c>
       <c r="C196" t="s">
-        <v>972</v>
+        <v>1079</v>
       </c>
       <c r="D196">
         <v>3475</v>
@@ -6624,10 +7107,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>585</v>
+        <v>638</v>
       </c>
       <c r="C197" t="s">
-        <v>973</v>
+        <v>1080</v>
       </c>
       <c r="D197">
         <v>8</v>
@@ -6638,10 +7121,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>586</v>
+        <v>639</v>
       </c>
       <c r="C198" t="s">
-        <v>974</v>
+        <v>1081</v>
       </c>
       <c r="D198">
         <v>153051</v>
@@ -6652,10 +7135,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>587</v>
+        <v>640</v>
       </c>
       <c r="C199" t="s">
-        <v>975</v>
+        <v>1082</v>
       </c>
       <c r="D199">
         <v>531404</v>
@@ -6666,10 +7149,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>588</v>
+        <v>641</v>
       </c>
       <c r="C200" t="s">
-        <v>976</v>
+        <v>1083</v>
       </c>
       <c r="D200">
         <v>325532</v>
@@ -6680,10 +7163,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>589</v>
+        <v>642</v>
       </c>
       <c r="C201" t="s">
-        <v>977</v>
+        <v>1084</v>
       </c>
       <c r="D201">
         <v>449538</v>
@@ -6694,10 +7177,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>590</v>
+        <v>643</v>
       </c>
       <c r="C202" t="s">
-        <v>978</v>
+        <v>1085</v>
       </c>
       <c r="D202">
         <v>153083</v>
@@ -6708,10 +7191,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>591</v>
+        <v>644</v>
       </c>
       <c r="C203" t="s">
-        <v>979</v>
+        <v>1086</v>
       </c>
       <c r="D203">
         <v>20839</v>
@@ -6722,10 +7205,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>592</v>
+        <v>645</v>
       </c>
       <c r="C204" t="s">
-        <v>980</v>
+        <v>1087</v>
       </c>
       <c r="D204">
         <v>4920</v>
@@ -6736,10 +7219,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>593</v>
+        <v>646</v>
       </c>
       <c r="C205" t="s">
-        <v>981</v>
+        <v>1088</v>
       </c>
       <c r="D205">
         <v>19506</v>
@@ -6750,10 +7233,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>594</v>
+        <v>647</v>
       </c>
       <c r="C206" t="s">
-        <v>982</v>
+        <v>1089</v>
       </c>
       <c r="D206">
         <v>463</v>
@@ -6764,10 +7247,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>595</v>
+        <v>648</v>
       </c>
       <c r="C207" t="s">
-        <v>983</v>
+        <v>1090</v>
       </c>
       <c r="D207">
         <v>69288</v>
@@ -6778,10 +7261,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="C208" t="s">
-        <v>984</v>
+        <v>1091</v>
       </c>
       <c r="D208">
         <v>206</v>
@@ -6792,10 +7275,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>597</v>
+        <v>650</v>
       </c>
       <c r="C209" t="s">
-        <v>985</v>
+        <v>1092</v>
       </c>
       <c r="D209">
         <v>540607</v>
@@ -6806,10 +7289,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>598</v>
+        <v>651</v>
       </c>
       <c r="C210" t="s">
-        <v>986</v>
+        <v>1093</v>
       </c>
       <c r="D210">
         <v>559350</v>
@@ -6820,10 +7303,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>599</v>
+        <v>652</v>
       </c>
       <c r="C211" t="s">
-        <v>987</v>
+        <v>1094</v>
       </c>
       <c r="D211">
         <v>283</v>
@@ -6834,10 +7317,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>600</v>
+        <v>653</v>
       </c>
       <c r="C212" t="s">
-        <v>988</v>
+        <v>1095</v>
       </c>
       <c r="D212">
         <v>662</v>
@@ -6848,10 +7331,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>601</v>
+        <v>654</v>
       </c>
       <c r="C213" t="s">
-        <v>989</v>
+        <v>1096</v>
       </c>
       <c r="D213">
         <v>25565</v>
@@ -6862,10 +7345,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>602</v>
+        <v>655</v>
       </c>
       <c r="C214" t="s">
-        <v>990</v>
+        <v>1097</v>
       </c>
       <c r="D214">
         <v>12225</v>
@@ -6876,10 +7359,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>603</v>
+        <v>656</v>
       </c>
       <c r="C215" t="s">
-        <v>991</v>
+        <v>1098</v>
       </c>
       <c r="D215">
         <v>125425</v>
@@ -6890,10 +7373,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>604</v>
+        <v>657</v>
       </c>
       <c r="C216" t="s">
-        <v>992</v>
+        <v>1099</v>
       </c>
       <c r="D216">
         <v>10723</v>
@@ -6904,10 +7387,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>605</v>
+        <v>658</v>
       </c>
       <c r="C217" t="s">
-        <v>993</v>
+        <v>1100</v>
       </c>
       <c r="D217">
         <v>19453</v>
@@ -6918,10 +7401,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>606</v>
+        <v>659</v>
       </c>
       <c r="C218" t="s">
-        <v>994</v>
+        <v>1101</v>
       </c>
       <c r="D218">
         <v>692700</v>
@@ -6932,10 +7415,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="C219" t="s">
-        <v>995</v>
+        <v>1102</v>
       </c>
       <c r="D219">
         <v>11814</v>
@@ -6946,10 +7429,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>608</v>
+        <v>661</v>
       </c>
       <c r="C220" t="s">
-        <v>996</v>
+        <v>1103</v>
       </c>
       <c r="D220">
         <v>8</v>
@@ -6960,10 +7443,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>609</v>
+        <v>662</v>
       </c>
       <c r="C221" t="s">
-        <v>997</v>
+        <v>1104</v>
       </c>
       <c r="D221">
         <v>2448</v>
@@ -6974,10 +7457,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="C222" t="s">
-        <v>998</v>
+        <v>1105</v>
       </c>
       <c r="D222">
         <v>10536</v>
@@ -6988,10 +7471,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="C223" t="s">
-        <v>999</v>
+        <v>1106</v>
       </c>
       <c r="D223">
         <v>215252</v>
@@ -7002,10 +7485,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>612</v>
+        <v>665</v>
       </c>
       <c r="C224" t="s">
-        <v>1000</v>
+        <v>1107</v>
       </c>
       <c r="D224">
         <v>914871</v>
@@ -7016,10 +7499,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>613</v>
+        <v>666</v>
       </c>
       <c r="C225" t="s">
-        <v>1001</v>
+        <v>1108</v>
       </c>
       <c r="D225">
         <v>595286</v>
@@ -7030,10 +7513,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>614</v>
+        <v>667</v>
       </c>
       <c r="C226" t="s">
-        <v>1002</v>
+        <v>1109</v>
       </c>
       <c r="D226">
         <v>13136</v>
@@ -7044,10 +7527,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>615</v>
+        <v>668</v>
       </c>
       <c r="C227" t="s">
-        <v>1003</v>
+        <v>1110</v>
       </c>
       <c r="D227">
         <v>420000</v>
@@ -7058,10 +7541,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="C228" t="s">
-        <v>1004</v>
+        <v>1111</v>
       </c>
       <c r="D228">
         <v>143010</v>
@@ -7072,10 +7555,10 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="C229" t="s">
-        <v>1005</v>
+        <v>1112</v>
       </c>
       <c r="D229">
         <v>3086</v>
@@ -7086,10 +7569,10 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>618</v>
+        <v>671</v>
       </c>
       <c r="C230" t="s">
-        <v>1006</v>
+        <v>1113</v>
       </c>
       <c r="D230">
         <v>11176</v>
@@ -7100,10 +7583,10 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="C231" t="s">
-        <v>1007</v>
+        <v>1114</v>
       </c>
       <c r="D231">
         <v>4382</v>
@@ -7114,10 +7597,10 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
       <c r="C232" t="s">
-        <v>1008</v>
+        <v>1115</v>
       </c>
       <c r="D232">
         <v>1685</v>
@@ -7128,10 +7611,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="C233" t="s">
-        <v>1009</v>
+        <v>1116</v>
       </c>
       <c r="D233">
         <v>398</v>
@@ -7142,10 +7625,10 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>622</v>
+        <v>675</v>
       </c>
       <c r="C234" t="s">
-        <v>1010</v>
+        <v>1117</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -7156,10 +7639,10 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>623</v>
+        <v>676</v>
       </c>
       <c r="C235" t="s">
-        <v>1011</v>
+        <v>1118</v>
       </c>
       <c r="D235">
         <v>24589</v>
@@ -7170,10 +7653,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>624</v>
+        <v>677</v>
       </c>
       <c r="C236" t="s">
-        <v>1012</v>
+        <v>1119</v>
       </c>
       <c r="D236">
         <v>1212800</v>
@@ -7184,10 +7667,10 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c r="C237" t="s">
-        <v>1013</v>
+        <v>1120</v>
       </c>
       <c r="D237">
         <v>264166</v>
@@ -7198,10 +7681,10 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="C238" t="s">
-        <v>1014</v>
+        <v>1121</v>
       </c>
       <c r="D238">
         <v>4895863</v>
@@ -7212,10 +7695,10 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>627</v>
+        <v>680</v>
       </c>
       <c r="C239" t="s">
-        <v>1015</v>
+        <v>1122</v>
       </c>
       <c r="D239">
         <v>3591</v>
@@ -7226,10 +7709,10 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="C240" t="s">
-        <v>1016</v>
+        <v>1123</v>
       </c>
       <c r="D240">
         <v>8963</v>
@@ -7240,10 +7723,10 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>629</v>
+        <v>682</v>
       </c>
       <c r="C241" t="s">
-        <v>1017</v>
+        <v>1124</v>
       </c>
       <c r="D241">
         <v>763103</v>
@@ -7254,10 +7737,10 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="C242" t="s">
-        <v>1018</v>
+        <v>1125</v>
       </c>
       <c r="D242">
         <v>400</v>
@@ -7268,10 +7751,10 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>631</v>
+        <v>684</v>
       </c>
       <c r="C243" t="s">
-        <v>1019</v>
+        <v>1126</v>
       </c>
       <c r="D243">
         <v>680405</v>
@@ -7282,10 +7765,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>632</v>
+        <v>685</v>
       </c>
       <c r="C244" t="s">
-        <v>1020</v>
+        <v>1127</v>
       </c>
       <c r="D244">
         <v>5165</v>
@@ -7296,10 +7779,10 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>633</v>
+        <v>686</v>
       </c>
       <c r="C245" t="s">
-        <v>1021</v>
+        <v>1128</v>
       </c>
       <c r="D245">
         <v>179802</v>
@@ -7310,10 +7793,10 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="C246" t="s">
-        <v>1022</v>
+        <v>1129</v>
       </c>
       <c r="D246">
         <v>50393</v>
@@ -7324,10 +7807,10 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>635</v>
+        <v>688</v>
       </c>
       <c r="C247" t="s">
-        <v>1023</v>
+        <v>1130</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -7338,10 +7821,10 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>636</v>
+        <v>689</v>
       </c>
       <c r="C248" t="s">
-        <v>1024</v>
+        <v>1131</v>
       </c>
       <c r="D248">
         <v>81</v>
@@ -7352,10 +7835,10 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>637</v>
+        <v>690</v>
       </c>
       <c r="C249" t="s">
-        <v>1025</v>
+        <v>1132</v>
       </c>
       <c r="D249">
         <v>2573153</v>
@@ -7366,10 +7849,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>638</v>
+        <v>691</v>
       </c>
       <c r="C250" t="s">
-        <v>1026</v>
+        <v>1133</v>
       </c>
       <c r="D250">
         <v>173495</v>
@@ -7380,10 +7863,10 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>639</v>
+        <v>692</v>
       </c>
       <c r="C251" t="s">
-        <v>1027</v>
+        <v>1134</v>
       </c>
       <c r="D251">
         <v>27600</v>
@@ -7394,10 +7877,10 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>640</v>
+        <v>693</v>
       </c>
       <c r="C252" t="s">
-        <v>1028</v>
+        <v>1135</v>
       </c>
       <c r="D252">
         <v>485379</v>
@@ -7408,10 +7891,10 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>641</v>
+        <v>694</v>
       </c>
       <c r="C253" t="s">
-        <v>1029</v>
+        <v>1136</v>
       </c>
       <c r="D253">
         <v>331919</v>
@@ -7422,10 +7905,10 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>642</v>
+        <v>695</v>
       </c>
       <c r="C254" t="s">
-        <v>1030</v>
+        <v>1137</v>
       </c>
       <c r="D254">
         <v>1865848</v>
@@ -7436,10 +7919,10 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>643</v>
+        <v>696</v>
       </c>
       <c r="C255" t="s">
-        <v>1031</v>
+        <v>1138</v>
       </c>
       <c r="D255">
         <v>24</v>
@@ -7450,10 +7933,10 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>644</v>
+        <v>697</v>
       </c>
       <c r="C256" t="s">
-        <v>1032</v>
+        <v>1139</v>
       </c>
       <c r="D256">
         <v>32122</v>
@@ -7464,10 +7947,10 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
       <c r="C257" t="s">
-        <v>1033</v>
+        <v>1140</v>
       </c>
       <c r="D257">
         <v>7108</v>
@@ -7478,10 +7961,10 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>646</v>
+        <v>699</v>
       </c>
       <c r="C258" t="s">
-        <v>1034</v>
+        <v>1141</v>
       </c>
       <c r="D258">
         <v>71</v>
@@ -7492,10 +7975,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>647</v>
+        <v>700</v>
       </c>
       <c r="C259" t="s">
-        <v>1035</v>
+        <v>1142</v>
       </c>
       <c r="D259">
         <v>670927</v>
@@ -7506,10 +7989,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>648</v>
+        <v>701</v>
       </c>
       <c r="C260" t="s">
-        <v>1036</v>
+        <v>1143</v>
       </c>
       <c r="D260">
         <v>13137</v>
@@ -7520,10 +8003,10 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c r="C261" t="s">
-        <v>1037</v>
+        <v>1144</v>
       </c>
       <c r="D261">
         <v>14209</v>
@@ -7534,10 +8017,10 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>650</v>
+        <v>703</v>
       </c>
       <c r="C262" t="s">
-        <v>1038</v>
+        <v>1145</v>
       </c>
       <c r="D262">
         <v>28342</v>
@@ -7548,10 +8031,10 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>651</v>
+        <v>704</v>
       </c>
       <c r="C263" t="s">
-        <v>1039</v>
+        <v>1146</v>
       </c>
       <c r="D263">
         <v>696637</v>
@@ -7562,10 +8045,10 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
       <c r="C264" t="s">
-        <v>1040</v>
+        <v>1147</v>
       </c>
       <c r="D264">
         <v>11723</v>
@@ -7576,10 +8059,10 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="C265" t="s">
-        <v>1041</v>
+        <v>1148</v>
       </c>
       <c r="D265">
         <v>23642</v>
@@ -7590,10 +8073,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="C266" t="s">
-        <v>1042</v>
+        <v>1149</v>
       </c>
       <c r="D266">
         <v>23034</v>
@@ -7604,10 +8087,10 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>655</v>
+        <v>708</v>
       </c>
       <c r="C267" t="s">
-        <v>1043</v>
+        <v>1150</v>
       </c>
       <c r="D267">
         <v>285699</v>
@@ -7618,10 +8101,10 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>656</v>
+        <v>709</v>
       </c>
       <c r="C268" t="s">
-        <v>1044</v>
+        <v>1151</v>
       </c>
       <c r="D268">
         <v>1553</v>
@@ -7632,10 +8115,10 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>657</v>
+        <v>710</v>
       </c>
       <c r="C269" t="s">
-        <v>1045</v>
+        <v>1152</v>
       </c>
       <c r="D269">
         <v>99454</v>
@@ -7646,10 +8129,10 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
       <c r="C270" t="s">
-        <v>1046</v>
+        <v>1153</v>
       </c>
       <c r="D270">
         <v>11357</v>
@@ -7660,10 +8143,10 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>659</v>
+        <v>712</v>
       </c>
       <c r="C271" t="s">
-        <v>1047</v>
+        <v>1154</v>
       </c>
       <c r="D271">
         <v>15345</v>
@@ -7674,10 +8157,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>660</v>
+        <v>713</v>
       </c>
       <c r="C272" t="s">
-        <v>1048</v>
+        <v>1155</v>
       </c>
       <c r="D272">
         <v>3132</v>
@@ -7688,10 +8171,10 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>661</v>
+        <v>714</v>
       </c>
       <c r="C273" t="s">
-        <v>1049</v>
+        <v>1156</v>
       </c>
       <c r="D273">
         <v>40</v>
@@ -7702,10 +8185,10 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>662</v>
+        <v>715</v>
       </c>
       <c r="C274" t="s">
-        <v>1050</v>
+        <v>1157</v>
       </c>
       <c r="D274">
         <v>220839</v>
@@ -7716,10 +8199,10 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>663</v>
+        <v>716</v>
       </c>
       <c r="C275" t="s">
-        <v>1051</v>
+        <v>1158</v>
       </c>
       <c r="D275">
         <v>1342</v>
@@ -7730,10 +8213,10 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
       <c r="C276" t="s">
-        <v>1052</v>
+        <v>1159</v>
       </c>
       <c r="D276">
         <v>17088</v>
@@ -7744,10 +8227,10 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>665</v>
+        <v>718</v>
       </c>
       <c r="C277" t="s">
-        <v>1053</v>
+        <v>1160</v>
       </c>
       <c r="D277">
         <v>156486</v>
@@ -7758,10 +8241,10 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>666</v>
+        <v>719</v>
       </c>
       <c r="C278" t="s">
-        <v>1054</v>
+        <v>1161</v>
       </c>
       <c r="D278">
         <v>372</v>
@@ -7772,10 +8255,10 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>667</v>
+        <v>720</v>
       </c>
       <c r="C279" t="s">
-        <v>1055</v>
+        <v>1162</v>
       </c>
       <c r="D279">
         <v>148708</v>
@@ -7786,10 +8269,10 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>668</v>
+        <v>721</v>
       </c>
       <c r="C280" t="s">
-        <v>1056</v>
+        <v>1163</v>
       </c>
       <c r="D280">
         <v>212410</v>
@@ -7800,10 +8283,10 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>669</v>
+        <v>722</v>
       </c>
       <c r="C281" t="s">
-        <v>1057</v>
+        <v>1164</v>
       </c>
       <c r="D281">
         <v>565473</v>
@@ -7814,10 +8297,10 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>670</v>
+        <v>723</v>
       </c>
       <c r="C282" t="s">
-        <v>1058</v>
+        <v>1165</v>
       </c>
       <c r="D282">
         <v>1008453</v>
@@ -7828,10 +8311,10 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>671</v>
+        <v>724</v>
       </c>
       <c r="C283" t="s">
-        <v>1059</v>
+        <v>1166</v>
       </c>
       <c r="D283">
         <v>9457</v>
@@ -7842,10 +8325,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>672</v>
+        <v>725</v>
       </c>
       <c r="C284" t="s">
-        <v>1060</v>
+        <v>1167</v>
       </c>
       <c r="D284">
         <v>2716106</v>
@@ -7856,10 +8339,10 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>673</v>
+        <v>726</v>
       </c>
       <c r="C285" t="s">
-        <v>1061</v>
+        <v>1168</v>
       </c>
       <c r="D285">
         <v>1064</v>
@@ -7870,10 +8353,10 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>674</v>
+        <v>727</v>
       </c>
       <c r="C286" t="s">
-        <v>1062</v>
+        <v>1169</v>
       </c>
       <c r="D286">
         <v>76330</v>
@@ -7884,10 +8367,10 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>675</v>
+        <v>728</v>
       </c>
       <c r="C287" t="s">
-        <v>1063</v>
+        <v>1170</v>
       </c>
       <c r="D287">
         <v>6944</v>
@@ -7898,10 +8381,10 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>676</v>
+        <v>729</v>
       </c>
       <c r="C288" t="s">
-        <v>1064</v>
+        <v>1171</v>
       </c>
       <c r="D288">
         <v>7466</v>
@@ -7912,10 +8395,10 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>677</v>
+        <v>730</v>
       </c>
       <c r="C289" t="s">
-        <v>1065</v>
+        <v>1172</v>
       </c>
       <c r="D289">
         <v>112830</v>
@@ -7926,10 +8409,10 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>678</v>
+        <v>731</v>
       </c>
       <c r="C290" t="s">
-        <v>1066</v>
+        <v>1173</v>
       </c>
       <c r="D290">
         <v>69657</v>
@@ -7940,10 +8423,10 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>679</v>
+        <v>732</v>
       </c>
       <c r="C291" t="s">
-        <v>1067</v>
+        <v>1174</v>
       </c>
       <c r="D291">
         <v>265728</v>
@@ -7954,10 +8437,10 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>680</v>
+        <v>733</v>
       </c>
       <c r="C292" t="s">
-        <v>1068</v>
+        <v>1175</v>
       </c>
       <c r="D292">
         <v>4800</v>
@@ -7968,10 +8451,10 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>681</v>
+        <v>734</v>
       </c>
       <c r="C293" t="s">
-        <v>1069</v>
+        <v>1176</v>
       </c>
       <c r="D293">
         <v>1504714</v>
@@ -7982,10 +8465,10 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>682</v>
+        <v>735</v>
       </c>
       <c r="C294" t="s">
-        <v>1070</v>
+        <v>1177</v>
       </c>
       <c r="D294">
         <v>25624</v>
@@ -7996,10 +8479,10 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>683</v>
+        <v>736</v>
       </c>
       <c r="C295" t="s">
-        <v>1071</v>
+        <v>1178</v>
       </c>
       <c r="D295">
         <v>212898</v>
@@ -8010,10 +8493,10 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>684</v>
+        <v>737</v>
       </c>
       <c r="C296" t="s">
-        <v>1072</v>
+        <v>1179</v>
       </c>
       <c r="D296">
         <v>7077</v>
@@ -8024,10 +8507,10 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>685</v>
+        <v>738</v>
       </c>
       <c r="C297" t="s">
-        <v>1073</v>
+        <v>1180</v>
       </c>
       <c r="D297">
         <v>450</v>
@@ -8038,10 +8521,10 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>686</v>
+        <v>739</v>
       </c>
       <c r="C298" t="s">
-        <v>1074</v>
+        <v>1181</v>
       </c>
       <c r="D298">
         <v>7788</v>
@@ -8052,10 +8535,10 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>687</v>
+        <v>740</v>
       </c>
       <c r="C299" t="s">
-        <v>1075</v>
+        <v>1182</v>
       </c>
       <c r="D299">
         <v>5642</v>
@@ -8066,10 +8549,10 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>688</v>
+        <v>741</v>
       </c>
       <c r="C300" t="s">
-        <v>1076</v>
+        <v>1183</v>
       </c>
       <c r="D300">
         <v>73023</v>
@@ -8080,10 +8563,10 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>689</v>
+        <v>742</v>
       </c>
       <c r="C301" t="s">
-        <v>1077</v>
+        <v>1184</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -8094,10 +8577,10 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>690</v>
+        <v>743</v>
       </c>
       <c r="C302" t="s">
-        <v>1078</v>
+        <v>1185</v>
       </c>
       <c r="D302">
         <v>407080</v>
@@ -8108,10 +8591,10 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>691</v>
+        <v>744</v>
       </c>
       <c r="C303" t="s">
-        <v>1079</v>
+        <v>1186</v>
       </c>
       <c r="D303">
         <v>6576</v>
@@ -8122,10 +8605,10 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>692</v>
+        <v>745</v>
       </c>
       <c r="C304" t="s">
-        <v>1080</v>
+        <v>1187</v>
       </c>
       <c r="D304">
         <v>10274</v>
@@ -8136,10 +8619,10 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>693</v>
+        <v>746</v>
       </c>
       <c r="C305" t="s">
-        <v>1081</v>
+        <v>1188</v>
       </c>
       <c r="D305">
         <v>196</v>
@@ -8150,10 +8633,10 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>694</v>
+        <v>747</v>
       </c>
       <c r="C306" t="s">
-        <v>1082</v>
+        <v>1189</v>
       </c>
       <c r="D306">
         <v>147820</v>
@@ -8164,10 +8647,10 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>695</v>
+        <v>748</v>
       </c>
       <c r="C307" t="s">
-        <v>1083</v>
+        <v>1190</v>
       </c>
       <c r="D307">
         <v>293</v>
@@ -8178,10 +8661,10 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>696</v>
+        <v>749</v>
       </c>
       <c r="C308" t="s">
-        <v>1084</v>
+        <v>1191</v>
       </c>
       <c r="D308">
         <v>318</v>
@@ -8192,10 +8675,10 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>697</v>
+        <v>750</v>
       </c>
       <c r="C309" t="s">
-        <v>1085</v>
+        <v>1192</v>
       </c>
       <c r="D309">
         <v>70029</v>
@@ -8206,10 +8689,10 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>698</v>
+        <v>751</v>
       </c>
       <c r="C310" t="s">
-        <v>1086</v>
+        <v>1193</v>
       </c>
       <c r="D310">
         <v>448814</v>
@@ -8220,10 +8703,10 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>699</v>
+        <v>752</v>
       </c>
       <c r="C311" t="s">
-        <v>1087</v>
+        <v>1194</v>
       </c>
       <c r="D311">
         <v>37249</v>
@@ -8234,10 +8717,10 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="C312" t="s">
-        <v>1088</v>
+        <v>1195</v>
       </c>
       <c r="D312">
         <v>19</v>
@@ -8248,10 +8731,10 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>701</v>
+        <v>754</v>
       </c>
       <c r="C313" t="s">
-        <v>1089</v>
+        <v>1196</v>
       </c>
       <c r="D313">
         <v>125460</v>
@@ -8262,10 +8745,10 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>702</v>
+        <v>755</v>
       </c>
       <c r="C314" t="s">
-        <v>1090</v>
+        <v>1197</v>
       </c>
       <c r="D314">
         <v>358</v>
@@ -8276,10 +8759,10 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>703</v>
+        <v>756</v>
       </c>
       <c r="C315" t="s">
-        <v>1091</v>
+        <v>1198</v>
       </c>
       <c r="D315">
         <v>4938</v>
@@ -8290,10 +8773,10 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>704</v>
+        <v>757</v>
       </c>
       <c r="C316" t="s">
-        <v>1092</v>
+        <v>1199</v>
       </c>
       <c r="D316">
         <v>432701</v>
@@ -8304,10 +8787,10 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>705</v>
+        <v>758</v>
       </c>
       <c r="C317" t="s">
-        <v>1093</v>
+        <v>1200</v>
       </c>
       <c r="D317">
         <v>1212</v>
@@ -8318,10 +8801,10 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>706</v>
+        <v>759</v>
       </c>
       <c r="C318" t="s">
-        <v>1094</v>
+        <v>1201</v>
       </c>
       <c r="D318">
         <v>33588</v>
@@ -8332,10 +8815,10 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>707</v>
+        <v>760</v>
       </c>
       <c r="C319" t="s">
-        <v>1095</v>
+        <v>1202</v>
       </c>
       <c r="D319">
         <v>127375</v>
@@ -8346,10 +8829,10 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>708</v>
+        <v>761</v>
       </c>
       <c r="C320" t="s">
-        <v>1096</v>
+        <v>1203</v>
       </c>
       <c r="D320">
         <v>26892</v>
@@ -8360,10 +8843,10 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>709</v>
+        <v>762</v>
       </c>
       <c r="C321" t="s">
-        <v>1097</v>
+        <v>1204</v>
       </c>
       <c r="D321">
         <v>16536</v>
@@ -8374,10 +8857,10 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>710</v>
+        <v>763</v>
       </c>
       <c r="C322" t="s">
-        <v>1098</v>
+        <v>1205</v>
       </c>
       <c r="D322">
         <v>196859</v>
@@ -8388,10 +8871,10 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>711</v>
+        <v>764</v>
       </c>
       <c r="C323" t="s">
-        <v>1099</v>
+        <v>1206</v>
       </c>
       <c r="D323">
         <v>66540</v>
@@ -8402,10 +8885,10 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>712</v>
+        <v>765</v>
       </c>
       <c r="C324" t="s">
-        <v>1100</v>
+        <v>1207</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -8416,10 +8899,10 @@
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
       <c r="C325" t="s">
-        <v>1101</v>
+        <v>1208</v>
       </c>
       <c r="D325">
         <v>5719</v>
@@ -8430,10 +8913,10 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>714</v>
+        <v>767</v>
       </c>
       <c r="C326" t="s">
-        <v>1102</v>
+        <v>1209</v>
       </c>
       <c r="D326">
         <v>30404</v>
@@ -8444,10 +8927,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>715</v>
+        <v>768</v>
       </c>
       <c r="C327" t="s">
-        <v>1103</v>
+        <v>1210</v>
       </c>
       <c r="D327">
         <v>243</v>
@@ -8458,10 +8941,10 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>716</v>
+        <v>769</v>
       </c>
       <c r="C328" t="s">
-        <v>1104</v>
+        <v>1211</v>
       </c>
       <c r="D328">
         <v>5075</v>
@@ -8472,10 +8955,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>717</v>
+        <v>770</v>
       </c>
       <c r="C329" t="s">
-        <v>1105</v>
+        <v>1212</v>
       </c>
       <c r="D329">
         <v>54131</v>
@@ -8486,10 +8969,10 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>718</v>
+        <v>771</v>
       </c>
       <c r="C330" t="s">
-        <v>1106</v>
+        <v>1213</v>
       </c>
       <c r="D330">
         <v>145499</v>
@@ -8500,10 +8983,10 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>719</v>
+        <v>772</v>
       </c>
       <c r="C331" t="s">
-        <v>1107</v>
+        <v>1214</v>
       </c>
       <c r="D331">
         <v>73</v>
@@ -8514,10 +8997,10 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>720</v>
+        <v>773</v>
       </c>
       <c r="C332" t="s">
-        <v>1108</v>
+        <v>1215</v>
       </c>
       <c r="D332">
         <v>81899</v>
@@ -8528,10 +9011,10 @@
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>721</v>
+        <v>774</v>
       </c>
       <c r="C333" t="s">
-        <v>1109</v>
+        <v>1216</v>
       </c>
       <c r="D333">
         <v>85403</v>
@@ -8542,10 +9025,10 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>722</v>
+        <v>775</v>
       </c>
       <c r="C334" t="s">
-        <v>1110</v>
+        <v>1217</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -8556,10 +9039,10 @@
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>723</v>
+        <v>776</v>
       </c>
       <c r="C335" t="s">
-        <v>1111</v>
+        <v>1218</v>
       </c>
       <c r="D335">
         <v>120904</v>
@@ -8570,10 +9053,10 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>724</v>
+        <v>777</v>
       </c>
       <c r="C336" t="s">
-        <v>1112</v>
+        <v>1219</v>
       </c>
       <c r="D336">
         <v>259553</v>
@@ -8584,10 +9067,10 @@
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>725</v>
+        <v>778</v>
       </c>
       <c r="C337" t="s">
-        <v>1113</v>
+        <v>1220</v>
       </c>
       <c r="D337">
         <v>192103</v>
@@ -8598,10 +9081,10 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>726</v>
+        <v>779</v>
       </c>
       <c r="C338" t="s">
-        <v>1114</v>
+        <v>1221</v>
       </c>
       <c r="D338">
         <v>74199</v>
@@ -8612,10 +9095,10 @@
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>727</v>
+        <v>780</v>
       </c>
       <c r="C339" t="s">
-        <v>1115</v>
+        <v>1222</v>
       </c>
       <c r="D339">
         <v>11866</v>
@@ -8626,10 +9109,10 @@
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>728</v>
+        <v>781</v>
       </c>
       <c r="C340" t="s">
-        <v>1116</v>
+        <v>1223</v>
       </c>
       <c r="D340">
         <v>452357</v>
@@ -8640,10 +9123,10 @@
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>729</v>
+        <v>782</v>
       </c>
       <c r="C341" t="s">
-        <v>1117</v>
+        <v>1224</v>
       </c>
       <c r="D341">
         <v>274776</v>
@@ -8654,10 +9137,10 @@
         <v>110</v>
       </c>
       <c r="B342" t="s">
-        <v>730</v>
+        <v>783</v>
       </c>
       <c r="C342" t="s">
-        <v>1118</v>
+        <v>1225</v>
       </c>
       <c r="D342">
         <v>3900</v>
@@ -8668,10 +9151,10 @@
         <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>731</v>
+        <v>784</v>
       </c>
       <c r="C343" t="s">
-        <v>1119</v>
+        <v>1226</v>
       </c>
       <c r="D343">
         <v>5947</v>
@@ -8682,10 +9165,10 @@
         <v>345</v>
       </c>
       <c r="B344" t="s">
-        <v>732</v>
+        <v>785</v>
       </c>
       <c r="C344" t="s">
-        <v>1120</v>
+        <v>1227</v>
       </c>
       <c r="D344">
         <v>7386</v>
@@ -8696,10 +9179,10 @@
         <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>733</v>
+        <v>786</v>
       </c>
       <c r="C345" t="s">
-        <v>1121</v>
+        <v>1228</v>
       </c>
       <c r="D345">
         <v>4330</v>
@@ -8710,10 +9193,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>734</v>
+        <v>787</v>
       </c>
       <c r="C346" t="s">
-        <v>1122</v>
+        <v>1229</v>
       </c>
       <c r="D346">
         <v>58</v>
@@ -8724,10 +9207,10 @@
         <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>735</v>
+        <v>788</v>
       </c>
       <c r="C347" t="s">
-        <v>1123</v>
+        <v>1230</v>
       </c>
       <c r="D347">
         <v>146332</v>
@@ -8738,10 +9221,10 @@
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>736</v>
+        <v>789</v>
       </c>
       <c r="C348" t="s">
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="D348">
         <v>2869</v>
@@ -8752,10 +9235,10 @@
         <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>737</v>
+        <v>790</v>
       </c>
       <c r="C349" t="s">
-        <v>1125</v>
+        <v>1232</v>
       </c>
       <c r="D349">
         <v>1002801</v>
@@ -8766,10 +9249,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>738</v>
+        <v>791</v>
       </c>
       <c r="C350" t="s">
-        <v>1126</v>
+        <v>1233</v>
       </c>
       <c r="D350">
         <v>204562</v>
@@ -8780,10 +9263,10 @@
         <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>739</v>
+        <v>792</v>
       </c>
       <c r="C351" t="s">
-        <v>1127</v>
+        <v>1234</v>
       </c>
       <c r="D351">
         <v>99175</v>
@@ -8794,10 +9277,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>740</v>
+        <v>793</v>
       </c>
       <c r="C352" t="s">
-        <v>1128</v>
+        <v>1235</v>
       </c>
       <c r="D352">
         <v>3674</v>
@@ -8808,10 +9291,10 @@
         <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>741</v>
+        <v>794</v>
       </c>
       <c r="C353" t="s">
-        <v>1129</v>
+        <v>1236</v>
       </c>
       <c r="D353">
         <v>670224</v>
@@ -8822,10 +9305,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="s">
-        <v>742</v>
+        <v>795</v>
       </c>
       <c r="C354" t="s">
-        <v>1130</v>
+        <v>1237</v>
       </c>
       <c r="D354">
         <v>1415</v>
@@ -8836,10 +9319,10 @@
         <v>356</v>
       </c>
       <c r="B355" t="s">
-        <v>743</v>
+        <v>796</v>
       </c>
       <c r="C355" t="s">
-        <v>1131</v>
+        <v>1238</v>
       </c>
       <c r="D355">
         <v>9524</v>
@@ -8850,10 +9333,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="s">
-        <v>744</v>
+        <v>797</v>
       </c>
       <c r="C356" t="s">
-        <v>1132</v>
+        <v>1239</v>
       </c>
       <c r="D356">
         <v>4717</v>
@@ -8864,10 +9347,10 @@
         <v>358</v>
       </c>
       <c r="B357" t="s">
-        <v>745</v>
+        <v>798</v>
       </c>
       <c r="C357" t="s">
-        <v>1133</v>
+        <v>1240</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -8878,10 +9361,10 @@
         <v>359</v>
       </c>
       <c r="B358" t="s">
-        <v>746</v>
+        <v>799</v>
       </c>
       <c r="C358" t="s">
-        <v>1134</v>
+        <v>1241</v>
       </c>
       <c r="D358">
         <v>128405</v>
@@ -8892,10 +9375,10 @@
         <v>360</v>
       </c>
       <c r="B359" t="s">
-        <v>747</v>
+        <v>800</v>
       </c>
       <c r="C359" t="s">
-        <v>1135</v>
+        <v>1242</v>
       </c>
       <c r="D359">
         <v>111060</v>
@@ -8906,10 +9389,10 @@
         <v>361</v>
       </c>
       <c r="B360" t="s">
-        <v>748</v>
+        <v>801</v>
       </c>
       <c r="C360" t="s">
-        <v>1136</v>
+        <v>1243</v>
       </c>
       <c r="D360">
         <v>2</v>
@@ -8920,10 +9403,10 @@
         <v>362</v>
       </c>
       <c r="B361" t="s">
-        <v>749</v>
+        <v>802</v>
       </c>
       <c r="C361" t="s">
-        <v>1137</v>
+        <v>1244</v>
       </c>
       <c r="D361">
         <v>50000</v>
@@ -8934,10 +9417,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="s">
-        <v>750</v>
+        <v>803</v>
       </c>
       <c r="C362" t="s">
-        <v>1138</v>
+        <v>1245</v>
       </c>
       <c r="D362">
         <v>153818</v>
@@ -8948,10 +9431,10 @@
         <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="C363" t="s">
-        <v>1139</v>
+        <v>1246</v>
       </c>
       <c r="D363">
         <v>8765</v>
@@ -8962,10 +9445,10 @@
         <v>365</v>
       </c>
       <c r="B364" t="s">
-        <v>752</v>
+        <v>805</v>
       </c>
       <c r="C364" t="s">
-        <v>1140</v>
+        <v>1247</v>
       </c>
       <c r="D364">
         <v>276</v>
@@ -8976,10 +9459,10 @@
         <v>366</v>
       </c>
       <c r="B365" t="s">
-        <v>753</v>
+        <v>806</v>
       </c>
       <c r="C365" t="s">
-        <v>1141</v>
+        <v>1248</v>
       </c>
       <c r="D365">
         <v>16875</v>
@@ -8990,10 +9473,10 @@
         <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>754</v>
+        <v>807</v>
       </c>
       <c r="C366" t="s">
-        <v>1142</v>
+        <v>1249</v>
       </c>
       <c r="D366">
         <v>26</v>
@@ -9004,10 +9487,10 @@
         <v>368</v>
       </c>
       <c r="B367" t="s">
-        <v>755</v>
+        <v>808</v>
       </c>
       <c r="C367" t="s">
-        <v>1143</v>
+        <v>1250</v>
       </c>
       <c r="D367">
         <v>4</v>
@@ -9018,10 +9501,10 @@
         <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>756</v>
+        <v>809</v>
       </c>
       <c r="C368" t="s">
-        <v>1144</v>
+        <v>1251</v>
       </c>
       <c r="D368">
         <v>36</v>
@@ -9032,10 +9515,10 @@
         <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>757</v>
+        <v>810</v>
       </c>
       <c r="C369" t="s">
-        <v>1145</v>
+        <v>1252</v>
       </c>
       <c r="D369">
         <v>46163</v>
@@ -9046,10 +9529,10 @@
         <v>300</v>
       </c>
       <c r="B370" t="s">
-        <v>758</v>
+        <v>811</v>
       </c>
       <c r="C370" t="s">
-        <v>1146</v>
+        <v>1253</v>
       </c>
       <c r="D370">
         <v>12431</v>
@@ -9060,10 +9543,10 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>759</v>
+        <v>812</v>
       </c>
       <c r="C371" t="s">
-        <v>1147</v>
+        <v>1254</v>
       </c>
       <c r="D371">
         <v>21309</v>
@@ -9074,10 +9557,10 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>760</v>
+        <v>813</v>
       </c>
       <c r="C372" t="s">
-        <v>1148</v>
+        <v>1255</v>
       </c>
       <c r="D372">
         <v>25</v>
@@ -9088,10 +9571,10 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>761</v>
+        <v>814</v>
       </c>
       <c r="C373" t="s">
-        <v>1149</v>
+        <v>1256</v>
       </c>
       <c r="D373">
         <v>167286</v>
@@ -9102,10 +9585,10 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>762</v>
+        <v>815</v>
       </c>
       <c r="C374" t="s">
-        <v>1150</v>
+        <v>1257</v>
       </c>
       <c r="D374">
         <v>43714</v>
@@ -9116,10 +9599,10 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>763</v>
+        <v>816</v>
       </c>
       <c r="C375" t="s">
-        <v>1151</v>
+        <v>1258</v>
       </c>
       <c r="D375">
         <v>756</v>
@@ -9130,10 +9613,10 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>764</v>
+        <v>817</v>
       </c>
       <c r="C376" t="s">
-        <v>1152</v>
+        <v>1259</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -9144,10 +9627,10 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>765</v>
+        <v>818</v>
       </c>
       <c r="C377" t="s">
-        <v>1153</v>
+        <v>1260</v>
       </c>
       <c r="D377">
         <v>243434</v>
@@ -9158,10 +9641,10 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>766</v>
+        <v>819</v>
       </c>
       <c r="C378" t="s">
-        <v>1154</v>
+        <v>1261</v>
       </c>
       <c r="D378">
         <v>41</v>
@@ -9172,10 +9655,10 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>767</v>
+        <v>820</v>
       </c>
       <c r="C379" t="s">
-        <v>1155</v>
+        <v>1262</v>
       </c>
       <c r="D379">
         <v>3348</v>
@@ -9186,10 +9669,10 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>768</v>
+        <v>821</v>
       </c>
       <c r="C380" t="s">
-        <v>1156</v>
+        <v>1263</v>
       </c>
       <c r="D380">
         <v>8659</v>
@@ -9200,10 +9683,10 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>769</v>
+        <v>822</v>
       </c>
       <c r="C381" t="s">
-        <v>1157</v>
+        <v>1264</v>
       </c>
       <c r="D381">
         <v>73820</v>
@@ -9214,10 +9697,10 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>770</v>
+        <v>823</v>
       </c>
       <c r="C382" t="s">
-        <v>1158</v>
+        <v>1265</v>
       </c>
       <c r="D382">
         <v>177</v>
@@ -9228,10 +9711,10 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>771</v>
+        <v>824</v>
       </c>
       <c r="C383" t="s">
-        <v>1159</v>
+        <v>1266</v>
       </c>
       <c r="D383">
         <v>13498</v>
@@ -9242,10 +9725,10 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>772</v>
+        <v>825</v>
       </c>
       <c r="C384" t="s">
-        <v>1160</v>
+        <v>1267</v>
       </c>
       <c r="D384">
         <v>10146</v>
@@ -9256,10 +9739,10 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>773</v>
+        <v>826</v>
       </c>
       <c r="C385" t="s">
-        <v>1161</v>
+        <v>1268</v>
       </c>
       <c r="D385">
         <v>7100</v>
@@ -9270,10 +9753,10 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="C386" t="s">
-        <v>1162</v>
+        <v>1269</v>
       </c>
       <c r="D386">
         <v>1747</v>
@@ -9284,10 +9767,10 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>775</v>
+        <v>828</v>
       </c>
       <c r="C387" t="s">
-        <v>1163</v>
+        <v>1270</v>
       </c>
       <c r="D387">
         <v>28954</v>
@@ -9298,10 +9781,10 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>776</v>
+        <v>829</v>
       </c>
       <c r="C388" t="s">
-        <v>1164</v>
+        <v>1271</v>
       </c>
       <c r="D388">
         <v>4180</v>
@@ -9312,13 +9795,769 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>777</v>
+        <v>830</v>
       </c>
       <c r="C389" t="s">
-        <v>1165</v>
+        <v>1272</v>
       </c>
       <c r="D389">
         <v>91335</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" t="s">
+        <v>831</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D390">
+        <v>142936</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" t="s">
+        <v>832</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D391">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" t="s">
+        <v>833</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D392">
+        <v>72844</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" t="s">
+        <v>834</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D393">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" t="s">
+        <v>835</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D394">
+        <v>74991</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" t="s">
+        <v>836</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D395">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" t="s">
+        <v>837</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D396">
+        <v>19810</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" t="s">
+        <v>838</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D397">
+        <v>142992</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" t="s">
+        <v>839</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D398">
+        <v>149152</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" t="s">
+        <v>840</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D399">
+        <v>13812</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" t="s">
+        <v>841</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D400">
+        <v>410941</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>120</v>
+      </c>
+      <c r="B401" t="s">
+        <v>842</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D401">
+        <v>1274913</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>843</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D402">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>844</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D403">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>845</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D404">
+        <v>7667</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>846</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D405">
+        <v>26392</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>847</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D406">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>848</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D407">
+        <v>23149</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>849</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D408">
+        <v>57413</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>850</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D409">
+        <v>145645</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>851</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D410">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>852</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D411">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>853</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D412">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>854</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D413">
+        <v>57258</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>855</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D414">
+        <v>163100</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>856</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D415">
+        <v>543613</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>857</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D416">
+        <v>256625</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>858</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D417">
+        <v>68508</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>859</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D418">
+        <v>101890</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>860</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D419">
+        <v>57666</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>861</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D420">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+      <c r="B421" t="s">
+        <v>862</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D421">
+        <v>16198</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+      <c r="B422" t="s">
+        <v>863</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D422">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+      <c r="B423" t="s">
+        <v>864</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D423">
+        <v>74311</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>865</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
+        <v>866</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D425">
+        <v>100939</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426" t="s">
+        <v>867</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D426">
+        <v>417950</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+      <c r="B427" t="s">
+        <v>868</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D427">
+        <v>64340</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+      <c r="B428" t="s">
+        <v>869</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D428">
+        <v>341235</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+      <c r="B429" t="s">
+        <v>870</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D429">
+        <v>1356899</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+      <c r="B430" t="s">
+        <v>871</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D430">
+        <v>299973</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+      <c r="B431" t="s">
+        <v>872</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D431">
+        <v>10329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+      <c r="B432" t="s">
+        <v>873</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D432">
+        <v>2496698</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+      <c r="B433" t="s">
+        <v>874</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D433">
+        <v>12853</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+      <c r="B434" t="s">
+        <v>875</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D434">
+        <v>1351763</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+      <c r="B435" t="s">
+        <v>876</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D435">
+        <v>87771</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+      <c r="B436" t="s">
+        <v>877</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D436">
+        <v>366527</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+      <c r="B437" t="s">
+        <v>878</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D437">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+      <c r="B438" t="s">
+        <v>879</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D438">
+        <v>10237</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+      <c r="B439" t="s">
+        <v>880</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D439">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+      <c r="B440" t="s">
+        <v>881</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D440">
+        <v>194257</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+      <c r="B441" t="s">
+        <v>882</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D441">
+        <v>16526</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+      <c r="B442" t="s">
+        <v>883</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D442">
+        <v>10453</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+      <c r="B443" t="s">
+        <v>884</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1416">
   <si>
     <t>Date</t>
   </si>
@@ -1345,6 +1345,93 @@
     <t>2026-02-18 13:32:03</t>
   </si>
   <si>
+    <t>2026-02-18 22:48:23</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:19:44</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:57:06</t>
+  </si>
+  <si>
+    <t>2026-02-19 01:13:09</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:10:16</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:44:37</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:06:17</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:52:30</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:10:15</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:51:24</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:29:02</t>
+  </si>
+  <si>
+    <t>2026-02-18 02:48:32</t>
+  </si>
+  <si>
+    <t>2026-02-17 10:16:19</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:14:00</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:43:44</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:10:35</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:53:45</t>
+  </si>
+  <si>
+    <t>2026-02-18 09:00:12</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:40:04</t>
+  </si>
+  <si>
+    <t>2026-02-19 01:19:29</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:22:36</t>
+  </si>
+  <si>
+    <t>2026-02-17 03:02:47</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:19:57</t>
+  </si>
+  <si>
+    <t>2026-02-18 03:41:43</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:13:23</t>
+  </si>
+  <si>
+    <t>2026-02-17 14:50:29</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:37:03</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:43:06</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:01:16</t>
+  </si>
+  <si>
     <t>237671823369</t>
   </si>
   <si>
@@ -2671,6 +2758,96 @@
     <t>237683217288</t>
   </si>
   <si>
+    <t>237683425211</t>
+  </si>
+  <si>
+    <t>237674761442</t>
+  </si>
+  <si>
+    <t>237672980879</t>
+  </si>
+  <si>
+    <t>237681655241</t>
+  </si>
+  <si>
+    <t>237674205242</t>
+  </si>
+  <si>
+    <t>237678746278</t>
+  </si>
+  <si>
+    <t>237670148911</t>
+  </si>
+  <si>
+    <t>237674884916</t>
+  </si>
+  <si>
+    <t>237679111075</t>
+  </si>
+  <si>
+    <t>237653099562</t>
+  </si>
+  <si>
+    <t>237683379060</t>
+  </si>
+  <si>
+    <t>237654914923</t>
+  </si>
+  <si>
+    <t>237678301411</t>
+  </si>
+  <si>
+    <t>237675261779</t>
+  </si>
+  <si>
+    <t>237681679235</t>
+  </si>
+  <si>
+    <t>237675853321</t>
+  </si>
+  <si>
+    <t>237652271532</t>
+  </si>
+  <si>
+    <t>237652417452</t>
+  </si>
+  <si>
+    <t>237672863136</t>
+  </si>
+  <si>
+    <t>237653846094</t>
+  </si>
+  <si>
+    <t>237652579681</t>
+  </si>
+  <si>
+    <t>237676391673</t>
+  </si>
+  <si>
+    <t>237671351419</t>
+  </si>
+  <si>
+    <t>237678223501</t>
+  </si>
+  <si>
+    <t>237679312983</t>
+  </si>
+  <si>
+    <t>237680190526</t>
+  </si>
+  <si>
+    <t>237651025762</t>
+  </si>
+  <si>
+    <t>237683412150</t>
+  </si>
+  <si>
+    <t>237651619024</t>
+  </si>
+  <si>
+    <t>237676293369</t>
+  </si>
+  <si>
     <t>MFS ENTREE COLLEGE MALANGUE</t>
   </si>
   <si>
@@ -3995,6 +4172,96 @@
   </si>
   <si>
     <t>MERLIN WILLIAMS VOUGMO NGUEMO</t>
+  </si>
+  <si>
+    <t>DALTEYE GABRIEL ROYAL LOGISTICS</t>
+  </si>
+  <si>
+    <t>NGO BIKAI MARIE CLARISSE NGO BIKAI MARIE CLARISSE</t>
+  </si>
+  <si>
+    <t>Ningtem Naphtali SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+  </si>
+  <si>
+    <t>ZEBAZE LYDIVINE CLAIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TCHIENNMENI  CHRISTIAN LIONEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>FRANKLIN NGONGFARH</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CBOX R2 ALPHA OUMAR</t>
+  </si>
+  <si>
+    <t>HERMINE MURIELLE NGO NDENGA</t>
+  </si>
+  <si>
+    <t>EMMANUEL SIMO</t>
+  </si>
+  <si>
+    <t>BABENA FRANCOISE AGATINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>Christian Parfait Wakam Noumi</t>
+  </si>
+  <si>
+    <t>PROSPER NCHANJI MUDI</t>
+  </si>
+  <si>
+    <t>KOKO KOLLO ROSETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>RUTH MADELEINE HINACK ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>BOKWA EPOUSE EHAWA JUSTINE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>FOUELEFACK KEUNANG LEONIE CHIC MOBILE</t>
+  </si>
+  <si>
+    <t>JENNY FABIOLA MAFFO KENGNE</t>
+  </si>
+  <si>
+    <t>N A HABIBOU ADAMOU OUMAROU TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>MOUKOUDI ELOMBO ROUDOPHE PIERRE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>NGOUBE NGOUPAYOU ARAMI ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>GUEWADA HERVE MONIQUE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LUCAS MOUAFFO</t>
+  </si>
+  <si>
+    <t>MABELLE CHARLINE JEUKUEG</t>
+  </si>
+  <si>
+    <t>QUERIDA KUEDONG YEMELI</t>
+  </si>
+  <si>
+    <t>TEKAM EPSE SIEWE ELISABETH LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>WABO JOEL MARIE LTDLA_POLAS_BTQ_BEEDI-ENFACE HOPITAL GEENRAL</t>
+  </si>
+  <si>
+    <t>NGO BASSONG MARIE FRANCOISE LTDLA_POLAS_BTQ_NYALLA AUTO ECOLE</t>
+  </si>
+  <si>
+    <t>NSAI KELISHA SULIY SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>SAFEH ASHERI SAFEH SPECTRUM SPECTRUM</t>
   </si>
 </sst>
 </file>
@@ -4352,7 +4619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4377,10 +4644,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="C2" t="s">
-        <v>885</v>
+        <v>944</v>
       </c>
       <c r="D2">
         <v>30095</v>
@@ -4391,10 +4658,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="C3" t="s">
-        <v>886</v>
+        <v>945</v>
       </c>
       <c r="D3">
         <v>36595</v>
@@ -4405,10 +4672,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="C4" t="s">
-        <v>887</v>
+        <v>946</v>
       </c>
       <c r="D4">
         <v>1042551</v>
@@ -4419,10 +4686,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="C5" t="s">
-        <v>888</v>
+        <v>947</v>
       </c>
       <c r="D5">
         <v>12973</v>
@@ -4433,10 +4700,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="C6" t="s">
-        <v>889</v>
+        <v>948</v>
       </c>
       <c r="D6">
         <v>878</v>
@@ -4447,10 +4714,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="C7" t="s">
-        <v>890</v>
+        <v>949</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -4461,10 +4728,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="C8" t="s">
-        <v>891</v>
+        <v>950</v>
       </c>
       <c r="D8">
         <v>215254</v>
@@ -4475,10 +4742,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="C9" t="s">
-        <v>892</v>
+        <v>951</v>
       </c>
       <c r="D9">
         <v>190023</v>
@@ -4489,10 +4756,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="C10" t="s">
-        <v>893</v>
+        <v>952</v>
       </c>
       <c r="D10">
         <v>6498</v>
@@ -4503,10 +4770,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="C11" t="s">
-        <v>894</v>
+        <v>953</v>
       </c>
       <c r="D11">
         <v>98844</v>
@@ -4517,10 +4784,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="C12" t="s">
-        <v>895</v>
+        <v>954</v>
       </c>
       <c r="D12">
         <v>86556</v>
@@ -4531,10 +4798,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="C13" t="s">
-        <v>896</v>
+        <v>955</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -4545,10 +4812,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="C14" t="s">
-        <v>897</v>
+        <v>956</v>
       </c>
       <c r="D14">
         <v>9594</v>
@@ -4559,10 +4826,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="C15" t="s">
-        <v>898</v>
+        <v>957</v>
       </c>
       <c r="D15">
         <v>262</v>
@@ -4573,10 +4840,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="C16" t="s">
-        <v>899</v>
+        <v>958</v>
       </c>
       <c r="D16">
         <v>517168</v>
@@ -4587,10 +4854,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="C17" t="s">
-        <v>900</v>
+        <v>959</v>
       </c>
       <c r="D17">
         <v>96868</v>
@@ -4601,10 +4868,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C18" t="s">
-        <v>901</v>
+        <v>960</v>
       </c>
       <c r="D18">
         <v>109492</v>
@@ -4615,10 +4882,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="C19" t="s">
-        <v>902</v>
+        <v>961</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -4629,10 +4896,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="C20" t="s">
-        <v>903</v>
+        <v>962</v>
       </c>
       <c r="D20">
         <v>44076</v>
@@ -4643,10 +4910,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="C21" t="s">
-        <v>904</v>
+        <v>963</v>
       </c>
       <c r="D21">
         <v>21000</v>
@@ -4657,10 +4924,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="C22" t="s">
-        <v>905</v>
+        <v>964</v>
       </c>
       <c r="D22">
         <v>94556</v>
@@ -4671,10 +4938,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="C23" t="s">
-        <v>906</v>
+        <v>965</v>
       </c>
       <c r="D23">
         <v>5345</v>
@@ -4685,10 +4952,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="C24" t="s">
-        <v>907</v>
+        <v>966</v>
       </c>
       <c r="D24">
         <v>8858</v>
@@ -4699,10 +4966,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="C25" t="s">
-        <v>908</v>
+        <v>967</v>
       </c>
       <c r="D25">
         <v>264112</v>
@@ -4713,10 +4980,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="C26" t="s">
-        <v>909</v>
+        <v>968</v>
       </c>
       <c r="D26">
         <v>55699</v>
@@ -4727,10 +4994,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="C27" t="s">
-        <v>910</v>
+        <v>969</v>
       </c>
       <c r="D27">
         <v>56245</v>
@@ -4741,10 +5008,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="C28" t="s">
-        <v>911</v>
+        <v>970</v>
       </c>
       <c r="D28">
         <v>4751</v>
@@ -4755,10 +5022,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="C29" t="s">
-        <v>912</v>
+        <v>971</v>
       </c>
       <c r="D29">
         <v>1873</v>
@@ -4769,10 +5036,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="C30" t="s">
-        <v>913</v>
+        <v>972</v>
       </c>
       <c r="D30">
         <v>333218</v>
@@ -4783,10 +5050,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="C31" t="s">
-        <v>914</v>
+        <v>973</v>
       </c>
       <c r="D31">
         <v>6385129</v>
@@ -4797,10 +5064,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="C32" t="s">
-        <v>915</v>
+        <v>974</v>
       </c>
       <c r="D32">
         <v>13377</v>
@@ -4811,10 +5078,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="C33" t="s">
-        <v>916</v>
+        <v>975</v>
       </c>
       <c r="D33">
         <v>6729</v>
@@ -4825,10 +5092,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="C34" t="s">
-        <v>917</v>
+        <v>976</v>
       </c>
       <c r="D34">
         <v>864</v>
@@ -4839,10 +5106,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="C35" t="s">
-        <v>918</v>
+        <v>977</v>
       </c>
       <c r="D35">
         <v>472353</v>
@@ -4853,10 +5120,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="C36" t="s">
-        <v>919</v>
+        <v>978</v>
       </c>
       <c r="D36">
         <v>23</v>
@@ -4867,10 +5134,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="C37" t="s">
-        <v>920</v>
+        <v>979</v>
       </c>
       <c r="D37">
         <v>24386</v>
@@ -4881,10 +5148,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="C38" t="s">
-        <v>921</v>
+        <v>980</v>
       </c>
       <c r="D38">
         <v>44600</v>
@@ -4895,10 +5162,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="C39" t="s">
-        <v>922</v>
+        <v>981</v>
       </c>
       <c r="D39">
         <v>2042</v>
@@ -4909,10 +5176,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="C40" t="s">
-        <v>923</v>
+        <v>982</v>
       </c>
       <c r="D40">
         <v>109659</v>
@@ -4923,10 +5190,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="C41" t="s">
-        <v>924</v>
+        <v>983</v>
       </c>
       <c r="D41">
         <v>2977</v>
@@ -4937,10 +5204,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="C42" t="s">
-        <v>925</v>
+        <v>984</v>
       </c>
       <c r="D42">
         <v>843587</v>
@@ -4951,10 +5218,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="C43" t="s">
-        <v>926</v>
+        <v>985</v>
       </c>
       <c r="D43">
         <v>206473</v>
@@ -4965,10 +5232,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="C44" t="s">
-        <v>927</v>
+        <v>986</v>
       </c>
       <c r="D44">
         <v>13531</v>
@@ -4979,10 +5246,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="C45" t="s">
-        <v>928</v>
+        <v>987</v>
       </c>
       <c r="D45">
         <v>79737</v>
@@ -4993,10 +5260,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="C46" t="s">
-        <v>929</v>
+        <v>988</v>
       </c>
       <c r="D46">
         <v>11434</v>
@@ -5007,10 +5274,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="C47" t="s">
-        <v>930</v>
+        <v>989</v>
       </c>
       <c r="D47">
         <v>501</v>
@@ -5021,10 +5288,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="C48" t="s">
-        <v>931</v>
+        <v>990</v>
       </c>
       <c r="D48">
         <v>380</v>
@@ -5035,10 +5302,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="C49" t="s">
-        <v>932</v>
+        <v>991</v>
       </c>
       <c r="D49">
         <v>43362</v>
@@ -5049,10 +5316,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="C50" t="s">
-        <v>933</v>
+        <v>992</v>
       </c>
       <c r="D50">
         <v>708340</v>
@@ -5063,10 +5330,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="C51" t="s">
-        <v>934</v>
+        <v>993</v>
       </c>
       <c r="D51">
         <v>3593</v>
@@ -5077,10 +5344,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="C52" t="s">
-        <v>935</v>
+        <v>994</v>
       </c>
       <c r="D52">
         <v>1879475</v>
@@ -5091,10 +5358,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="C53" t="s">
-        <v>936</v>
+        <v>995</v>
       </c>
       <c r="D53">
         <v>3784</v>
@@ -5105,10 +5372,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="C54" t="s">
-        <v>937</v>
+        <v>996</v>
       </c>
       <c r="D54">
         <v>70172</v>
@@ -5119,10 +5386,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="C55" t="s">
-        <v>938</v>
+        <v>997</v>
       </c>
       <c r="D55">
         <v>148</v>
@@ -5133,10 +5400,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="C56" t="s">
-        <v>939</v>
+        <v>998</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5147,10 +5414,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="C57" t="s">
-        <v>940</v>
+        <v>999</v>
       </c>
       <c r="D57">
         <v>97484</v>
@@ -5161,10 +5428,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="C58" t="s">
-        <v>941</v>
+        <v>1000</v>
       </c>
       <c r="D58">
         <v>7927</v>
@@ -5175,10 +5442,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="C59" t="s">
-        <v>942</v>
+        <v>1001</v>
       </c>
       <c r="D59">
         <v>61762</v>
@@ -5189,10 +5456,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="C60" t="s">
-        <v>943</v>
+        <v>1002</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -5203,10 +5470,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="C61" t="s">
-        <v>944</v>
+        <v>1003</v>
       </c>
       <c r="D61">
         <v>12292</v>
@@ -5217,10 +5484,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="C62" t="s">
-        <v>945</v>
+        <v>1004</v>
       </c>
       <c r="D62">
         <v>366231</v>
@@ -5231,10 +5498,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="C63" t="s">
-        <v>946</v>
+        <v>1005</v>
       </c>
       <c r="D63">
         <v>20358</v>
@@ -5245,10 +5512,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="C64" t="s">
-        <v>947</v>
+        <v>1006</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -5259,10 +5526,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="C65" t="s">
-        <v>948</v>
+        <v>1007</v>
       </c>
       <c r="D65">
         <v>29507</v>
@@ -5273,10 +5540,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="C66" t="s">
-        <v>949</v>
+        <v>1008</v>
       </c>
       <c r="D66">
         <v>71538</v>
@@ -5287,10 +5554,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="C67" t="s">
-        <v>950</v>
+        <v>1009</v>
       </c>
       <c r="D67">
         <v>438901</v>
@@ -5301,10 +5568,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="C68" t="s">
-        <v>951</v>
+        <v>1010</v>
       </c>
       <c r="D68">
         <v>15525</v>
@@ -5315,10 +5582,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="C69" t="s">
-        <v>952</v>
+        <v>1011</v>
       </c>
       <c r="D69">
         <v>792132</v>
@@ -5329,10 +5596,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="C70" t="s">
-        <v>953</v>
+        <v>1012</v>
       </c>
       <c r="D70">
         <v>524523</v>
@@ -5343,10 +5610,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="C71" t="s">
-        <v>954</v>
+        <v>1013</v>
       </c>
       <c r="D71">
         <v>866</v>
@@ -5357,10 +5624,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="C72" t="s">
-        <v>955</v>
+        <v>1014</v>
       </c>
       <c r="D72">
         <v>101711</v>
@@ -5371,10 +5638,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="C73" t="s">
-        <v>956</v>
+        <v>1015</v>
       </c>
       <c r="D73">
         <v>6178</v>
@@ -5385,10 +5652,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="C74" t="s">
-        <v>957</v>
+        <v>1016</v>
       </c>
       <c r="D74">
         <v>1269273</v>
@@ -5399,10 +5666,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="C75" t="s">
-        <v>958</v>
+        <v>1017</v>
       </c>
       <c r="D75">
         <v>20668</v>
@@ -5413,10 +5680,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="C76" t="s">
-        <v>959</v>
+        <v>1018</v>
       </c>
       <c r="D76">
         <v>40652</v>
@@ -5427,10 +5694,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="C77" t="s">
-        <v>960</v>
+        <v>1019</v>
       </c>
       <c r="D77">
         <v>21475</v>
@@ -5441,10 +5708,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="C78" t="s">
-        <v>961</v>
+        <v>1020</v>
       </c>
       <c r="D78">
         <v>5015499</v>
@@ -5455,10 +5722,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="C79" t="s">
-        <v>962</v>
+        <v>1021</v>
       </c>
       <c r="D79">
         <v>4249</v>
@@ -5469,10 +5736,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="C80" t="s">
-        <v>963</v>
+        <v>1022</v>
       </c>
       <c r="D80">
         <v>462</v>
@@ -5483,10 +5750,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="C81" t="s">
-        <v>964</v>
+        <v>1023</v>
       </c>
       <c r="D81">
         <v>3510</v>
@@ -5497,10 +5764,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="C82" t="s">
-        <v>965</v>
+        <v>1024</v>
       </c>
       <c r="D82">
         <v>3076</v>
@@ -5511,10 +5778,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="C83" t="s">
-        <v>966</v>
+        <v>1025</v>
       </c>
       <c r="D83">
         <v>5861</v>
@@ -5525,10 +5792,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="C84" t="s">
-        <v>967</v>
+        <v>1026</v>
       </c>
       <c r="D84">
         <v>221</v>
@@ -5539,10 +5806,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="C85" t="s">
-        <v>968</v>
+        <v>1027</v>
       </c>
       <c r="D85">
         <v>63743</v>
@@ -5553,10 +5820,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="C86" t="s">
-        <v>969</v>
+        <v>1028</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5567,10 +5834,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="C87" t="s">
-        <v>970</v>
+        <v>1029</v>
       </c>
       <c r="D87">
         <v>36813</v>
@@ -5581,10 +5848,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="C88" t="s">
-        <v>971</v>
+        <v>1030</v>
       </c>
       <c r="D88">
         <v>513</v>
@@ -5595,10 +5862,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="C89" t="s">
-        <v>972</v>
+        <v>1031</v>
       </c>
       <c r="D89">
         <v>80118</v>
@@ -5609,10 +5876,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="C90" t="s">
-        <v>973</v>
+        <v>1032</v>
       </c>
       <c r="D90">
         <v>2940201</v>
@@ -5623,10 +5890,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="C91" t="s">
-        <v>974</v>
+        <v>1033</v>
       </c>
       <c r="D91">
         <v>2339</v>
@@ -5637,10 +5904,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="C92" t="s">
-        <v>975</v>
+        <v>1034</v>
       </c>
       <c r="D92">
         <v>4075</v>
@@ -5651,10 +5918,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="C93" t="s">
-        <v>976</v>
+        <v>1035</v>
       </c>
       <c r="D93">
         <v>1013</v>
@@ -5665,10 +5932,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="C94" t="s">
-        <v>977</v>
+        <v>1036</v>
       </c>
       <c r="D94">
         <v>68166</v>
@@ -5679,10 +5946,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="C95" t="s">
-        <v>978</v>
+        <v>1037</v>
       </c>
       <c r="D95">
         <v>1288</v>
@@ -5693,10 +5960,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="C96" t="s">
-        <v>979</v>
+        <v>1038</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5707,10 +5974,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="C97" t="s">
-        <v>980</v>
+        <v>1039</v>
       </c>
       <c r="D97">
         <v>59398</v>
@@ -5721,10 +5988,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="C98" t="s">
-        <v>981</v>
+        <v>1040</v>
       </c>
       <c r="D98">
         <v>7418</v>
@@ -5735,10 +6002,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="C99" t="s">
-        <v>982</v>
+        <v>1041</v>
       </c>
       <c r="D99">
         <v>38799</v>
@@ -5749,10 +6016,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="C100" t="s">
-        <v>983</v>
+        <v>1042</v>
       </c>
       <c r="D100">
         <v>446015</v>
@@ -5763,10 +6030,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="C101" t="s">
-        <v>984</v>
+        <v>1043</v>
       </c>
       <c r="D101">
         <v>32</v>
@@ -5777,10 +6044,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="C102" t="s">
-        <v>985</v>
+        <v>1044</v>
       </c>
       <c r="D102">
         <v>70556</v>
@@ -5791,10 +6058,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="C103" t="s">
-        <v>986</v>
+        <v>1045</v>
       </c>
       <c r="D103">
         <v>290990</v>
@@ -5805,10 +6072,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="C104" t="s">
-        <v>987</v>
+        <v>1046</v>
       </c>
       <c r="D104">
         <v>24133</v>
@@ -5819,10 +6086,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="C105" t="s">
-        <v>988</v>
+        <v>1047</v>
       </c>
       <c r="D105">
         <v>7991</v>
@@ -5833,10 +6100,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="C106" t="s">
-        <v>989</v>
+        <v>1048</v>
       </c>
       <c r="D106">
         <v>54595</v>
@@ -5847,10 +6114,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="C107" t="s">
-        <v>990</v>
+        <v>1049</v>
       </c>
       <c r="D107">
         <v>23</v>
@@ -5861,10 +6128,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="C108" t="s">
-        <v>991</v>
+        <v>1050</v>
       </c>
       <c r="D108">
         <v>6025929</v>
@@ -5875,10 +6142,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="C109" t="s">
-        <v>992</v>
+        <v>1051</v>
       </c>
       <c r="D109">
         <v>17416</v>
@@ -5889,10 +6156,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="C110" t="s">
-        <v>993</v>
+        <v>1052</v>
       </c>
       <c r="D110">
         <v>59923</v>
@@ -5903,10 +6170,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="C111" t="s">
-        <v>994</v>
+        <v>1053</v>
       </c>
       <c r="D111">
         <v>9700</v>
@@ -5917,10 +6184,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="C112" t="s">
-        <v>995</v>
+        <v>1054</v>
       </c>
       <c r="D112">
         <v>668234</v>
@@ -5931,10 +6198,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="C113" t="s">
-        <v>996</v>
+        <v>1055</v>
       </c>
       <c r="D113">
         <v>141</v>
@@ -5945,10 +6212,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="C114" t="s">
-        <v>997</v>
+        <v>1056</v>
       </c>
       <c r="D114">
         <v>134935</v>
@@ -5959,10 +6226,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="C115" t="s">
-        <v>998</v>
+        <v>1057</v>
       </c>
       <c r="D115">
         <v>11600</v>
@@ -5973,10 +6240,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="C116" t="s">
-        <v>999</v>
+        <v>1058</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -5987,10 +6254,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="C117" t="s">
-        <v>1000</v>
+        <v>1059</v>
       </c>
       <c r="D117">
         <v>500214</v>
@@ -6001,10 +6268,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="C118" t="s">
-        <v>1001</v>
+        <v>1060</v>
       </c>
       <c r="D118">
         <v>179255</v>
@@ -6015,10 +6282,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="C119" t="s">
-        <v>1002</v>
+        <v>1061</v>
       </c>
       <c r="D119">
         <v>616178</v>
@@ -6029,10 +6296,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="C120" t="s">
-        <v>1003</v>
+        <v>1062</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -6043,10 +6310,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="C121" t="s">
-        <v>1004</v>
+        <v>1063</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -6057,10 +6324,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="C122" t="s">
-        <v>1005</v>
+        <v>1064</v>
       </c>
       <c r="D122">
         <v>948473</v>
@@ -6071,10 +6338,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>564</v>
+        <v>593</v>
       </c>
       <c r="C123" t="s">
-        <v>1006</v>
+        <v>1065</v>
       </c>
       <c r="D123">
         <v>141336</v>
@@ -6085,10 +6352,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="C124" t="s">
-        <v>1007</v>
+        <v>1066</v>
       </c>
       <c r="D124">
         <v>31942</v>
@@ -6099,10 +6366,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="C125" t="s">
-        <v>1008</v>
+        <v>1067</v>
       </c>
       <c r="D125">
         <v>126700</v>
@@ -6113,10 +6380,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="C126" t="s">
-        <v>1009</v>
+        <v>1068</v>
       </c>
       <c r="D126">
         <v>7184</v>
@@ -6127,10 +6394,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="C127" t="s">
-        <v>1010</v>
+        <v>1069</v>
       </c>
       <c r="D127">
         <v>62509</v>
@@ -6141,10 +6408,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="C128" t="s">
-        <v>1011</v>
+        <v>1070</v>
       </c>
       <c r="D128">
         <v>10441</v>
@@ -6155,10 +6422,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="C129" t="s">
-        <v>1012</v>
+        <v>1071</v>
       </c>
       <c r="D129">
         <v>2922</v>
@@ -6169,10 +6436,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="C130" t="s">
-        <v>1013</v>
+        <v>1072</v>
       </c>
       <c r="D130">
         <v>108036</v>
@@ -6183,10 +6450,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="C131" t="s">
-        <v>1014</v>
+        <v>1073</v>
       </c>
       <c r="D131">
         <v>14</v>
@@ -6197,10 +6464,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="C132" t="s">
-        <v>1015</v>
+        <v>1074</v>
       </c>
       <c r="D132">
         <v>271853</v>
@@ -6211,10 +6478,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="C133" t="s">
-        <v>1016</v>
+        <v>1075</v>
       </c>
       <c r="D133">
         <v>900184</v>
@@ -6225,10 +6492,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="C134" t="s">
-        <v>1017</v>
+        <v>1076</v>
       </c>
       <c r="D134">
         <v>6534</v>
@@ -6239,10 +6506,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="C135" t="s">
-        <v>1018</v>
+        <v>1077</v>
       </c>
       <c r="D135">
         <v>212127</v>
@@ -6253,10 +6520,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="C136" t="s">
-        <v>1019</v>
+        <v>1078</v>
       </c>
       <c r="D136">
         <v>20562</v>
@@ -6267,10 +6534,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="C137" t="s">
-        <v>1020</v>
+        <v>1079</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6281,10 +6548,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
       <c r="C138" t="s">
-        <v>1021</v>
+        <v>1080</v>
       </c>
       <c r="D138">
         <v>66242</v>
@@ -6295,10 +6562,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="C139" t="s">
-        <v>1022</v>
+        <v>1081</v>
       </c>
       <c r="D139">
         <v>237616</v>
@@ -6309,10 +6576,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="C140" t="s">
-        <v>1023</v>
+        <v>1082</v>
       </c>
       <c r="D140">
         <v>986</v>
@@ -6323,10 +6590,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="C141" t="s">
-        <v>1024</v>
+        <v>1083</v>
       </c>
       <c r="D141">
         <v>525</v>
@@ -6337,10 +6604,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="C142" t="s">
-        <v>1025</v>
+        <v>1084</v>
       </c>
       <c r="D142">
         <v>192476</v>
@@ -6351,10 +6618,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="C143" t="s">
-        <v>1026</v>
+        <v>1085</v>
       </c>
       <c r="D143">
         <v>2179</v>
@@ -6365,10 +6632,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="C144" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="D144">
         <v>23601</v>
@@ -6379,10 +6646,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="C145" t="s">
-        <v>1028</v>
+        <v>1087</v>
       </c>
       <c r="D145">
         <v>2279</v>
@@ -6393,10 +6660,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="C146" t="s">
-        <v>1029</v>
+        <v>1088</v>
       </c>
       <c r="D146">
         <v>35332</v>
@@ -6407,10 +6674,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="C147" t="s">
-        <v>1030</v>
+        <v>1089</v>
       </c>
       <c r="D147">
         <v>224</v>
@@ -6421,10 +6688,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="C148" t="s">
-        <v>1031</v>
+        <v>1090</v>
       </c>
       <c r="D148">
         <v>135162</v>
@@ -6435,10 +6702,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="C149" t="s">
-        <v>1032</v>
+        <v>1091</v>
       </c>
       <c r="D149">
         <v>2818</v>
@@ -6449,10 +6716,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="C150" t="s">
-        <v>1033</v>
+        <v>1092</v>
       </c>
       <c r="D150">
         <v>6792</v>
@@ -6463,10 +6730,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="C151" t="s">
-        <v>1034</v>
+        <v>1093</v>
       </c>
       <c r="D151">
         <v>23538</v>
@@ -6477,10 +6744,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="C152" t="s">
-        <v>1035</v>
+        <v>1094</v>
       </c>
       <c r="D152">
         <v>2635</v>
@@ -6491,10 +6758,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="C153" t="s">
-        <v>1036</v>
+        <v>1095</v>
       </c>
       <c r="D153">
         <v>3020</v>
@@ -6505,10 +6772,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="C154" t="s">
-        <v>1037</v>
+        <v>1096</v>
       </c>
       <c r="D154">
         <v>85937</v>
@@ -6519,10 +6786,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="C155" t="s">
-        <v>1038</v>
+        <v>1097</v>
       </c>
       <c r="D155">
         <v>1106</v>
@@ -6533,10 +6800,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>597</v>
+        <v>626</v>
       </c>
       <c r="C156" t="s">
-        <v>1039</v>
+        <v>1098</v>
       </c>
       <c r="D156">
         <v>288689</v>
@@ -6547,10 +6814,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C157" t="s">
-        <v>1040</v>
+        <v>1099</v>
       </c>
       <c r="D157">
         <v>23936</v>
@@ -6561,10 +6828,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>599</v>
+        <v>628</v>
       </c>
       <c r="C158" t="s">
-        <v>1041</v>
+        <v>1100</v>
       </c>
       <c r="D158">
         <v>7901748</v>
@@ -6575,10 +6842,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="C159" t="s">
-        <v>1042</v>
+        <v>1101</v>
       </c>
       <c r="D159">
         <v>4701</v>
@@ -6589,10 +6856,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="C160" t="s">
-        <v>1043</v>
+        <v>1102</v>
       </c>
       <c r="D160">
         <v>63814</v>
@@ -6603,10 +6870,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="C161" t="s">
-        <v>1044</v>
+        <v>1103</v>
       </c>
       <c r="D161">
         <v>432</v>
@@ -6617,10 +6884,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="C162" t="s">
-        <v>1045</v>
+        <v>1104</v>
       </c>
       <c r="D162">
         <v>335842</v>
@@ -6631,10 +6898,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>604</v>
+        <v>633</v>
       </c>
       <c r="C163" t="s">
-        <v>1046</v>
+        <v>1105</v>
       </c>
       <c r="D163">
         <v>14511</v>
@@ -6645,10 +6912,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="C164" t="s">
-        <v>1047</v>
+        <v>1106</v>
       </c>
       <c r="D164">
         <v>29941</v>
@@ -6659,10 +6926,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>606</v>
+        <v>635</v>
       </c>
       <c r="C165" t="s">
-        <v>1048</v>
+        <v>1107</v>
       </c>
       <c r="D165">
         <v>4082</v>
@@ -6673,10 +6940,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="C166" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6687,10 +6954,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="C167" t="s">
-        <v>1050</v>
+        <v>1109</v>
       </c>
       <c r="D167">
         <v>540</v>
@@ -6701,10 +6968,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="C168" t="s">
-        <v>1051</v>
+        <v>1110</v>
       </c>
       <c r="D168">
         <v>43657</v>
@@ -6715,10 +6982,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="C169" t="s">
-        <v>1052</v>
+        <v>1111</v>
       </c>
       <c r="D169">
         <v>105101</v>
@@ -6729,10 +6996,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="C170" t="s">
-        <v>1053</v>
+        <v>1112</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -6743,10 +7010,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="C171" t="s">
-        <v>1054</v>
+        <v>1113</v>
       </c>
       <c r="D171">
         <v>808</v>
@@ -6757,10 +7024,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="C172" t="s">
-        <v>1055</v>
+        <v>1114</v>
       </c>
       <c r="D172">
         <v>84819</v>
@@ -6771,10 +7038,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="C173" t="s">
-        <v>1056</v>
+        <v>1115</v>
       </c>
       <c r="D173">
         <v>186101</v>
@@ -6785,10 +7052,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="C174" t="s">
-        <v>1057</v>
+        <v>1116</v>
       </c>
       <c r="D174">
         <v>87</v>
@@ -6799,10 +7066,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="C175" t="s">
-        <v>1058</v>
+        <v>1117</v>
       </c>
       <c r="D175">
         <v>45444</v>
@@ -6813,10 +7080,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="C176" t="s">
-        <v>1059</v>
+        <v>1118</v>
       </c>
       <c r="D176">
         <v>14176</v>
@@ -6827,10 +7094,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="C177" t="s">
-        <v>1060</v>
+        <v>1119</v>
       </c>
       <c r="D177">
         <v>317960</v>
@@ -6841,10 +7108,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="C178" t="s">
-        <v>1061</v>
+        <v>1120</v>
       </c>
       <c r="D178">
         <v>6876</v>
@@ -6855,10 +7122,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="C179" t="s">
-        <v>1062</v>
+        <v>1121</v>
       </c>
       <c r="D179">
         <v>4750</v>
@@ -6869,10 +7136,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="C180" t="s">
-        <v>1063</v>
+        <v>1122</v>
       </c>
       <c r="D180">
         <v>7688</v>
@@ -6883,10 +7150,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="C181" t="s">
-        <v>1064</v>
+        <v>1123</v>
       </c>
       <c r="D181">
         <v>17160</v>
@@ -6897,10 +7164,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>623</v>
+        <v>652</v>
       </c>
       <c r="C182" t="s">
-        <v>1065</v>
+        <v>1124</v>
       </c>
       <c r="D182">
         <v>360662</v>
@@ -6911,10 +7178,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="C183" t="s">
-        <v>1066</v>
+        <v>1125</v>
       </c>
       <c r="D183">
         <v>6316</v>
@@ -6925,10 +7192,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="C184" t="s">
-        <v>1067</v>
+        <v>1126</v>
       </c>
       <c r="D184">
         <v>70</v>
@@ -6939,10 +7206,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="C185" t="s">
-        <v>1068</v>
+        <v>1127</v>
       </c>
       <c r="D185">
         <v>253822</v>
@@ -6953,10 +7220,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="C186" t="s">
-        <v>1069</v>
+        <v>1128</v>
       </c>
       <c r="D186">
         <v>216137</v>
@@ -6967,10 +7234,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="C187" t="s">
-        <v>1070</v>
+        <v>1129</v>
       </c>
       <c r="D187">
         <v>6503</v>
@@ -6981,10 +7248,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="C188" t="s">
-        <v>1071</v>
+        <v>1130</v>
       </c>
       <c r="D188">
         <v>817810</v>
@@ -6995,10 +7262,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="C189" t="s">
-        <v>1072</v>
+        <v>1131</v>
       </c>
       <c r="D189">
         <v>195618</v>
@@ -7009,10 +7276,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="C190" t="s">
-        <v>1073</v>
+        <v>1132</v>
       </c>
       <c r="D190">
         <v>349</v>
@@ -7023,10 +7290,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="C191" t="s">
-        <v>1074</v>
+        <v>1133</v>
       </c>
       <c r="D191">
         <v>449</v>
@@ -7037,10 +7304,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="C192" t="s">
-        <v>1075</v>
+        <v>1134</v>
       </c>
       <c r="D192">
         <v>86494</v>
@@ -7051,10 +7318,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="C193" t="s">
-        <v>1076</v>
+        <v>1135</v>
       </c>
       <c r="D193">
         <v>436320</v>
@@ -7065,10 +7332,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="C194" t="s">
-        <v>1077</v>
+        <v>1136</v>
       </c>
       <c r="D194">
         <v>916</v>
@@ -7079,10 +7346,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="C195" t="s">
-        <v>1078</v>
+        <v>1137</v>
       </c>
       <c r="D195">
         <v>13179</v>
@@ -7093,10 +7360,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="C196" t="s">
-        <v>1079</v>
+        <v>1138</v>
       </c>
       <c r="D196">
         <v>3475</v>
@@ -7107,10 +7374,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="C197" t="s">
-        <v>1080</v>
+        <v>1139</v>
       </c>
       <c r="D197">
         <v>8</v>
@@ -7121,10 +7388,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="C198" t="s">
-        <v>1081</v>
+        <v>1140</v>
       </c>
       <c r="D198">
         <v>153051</v>
@@ -7135,10 +7402,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="C199" t="s">
-        <v>1082</v>
+        <v>1141</v>
       </c>
       <c r="D199">
         <v>531404</v>
@@ -7149,10 +7416,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="C200" t="s">
-        <v>1083</v>
+        <v>1142</v>
       </c>
       <c r="D200">
         <v>325532</v>
@@ -7163,10 +7430,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="C201" t="s">
-        <v>1084</v>
+        <v>1143</v>
       </c>
       <c r="D201">
         <v>449538</v>
@@ -7177,10 +7444,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="C202" t="s">
-        <v>1085</v>
+        <v>1144</v>
       </c>
       <c r="D202">
         <v>153083</v>
@@ -7191,10 +7458,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>644</v>
+        <v>673</v>
       </c>
       <c r="C203" t="s">
-        <v>1086</v>
+        <v>1145</v>
       </c>
       <c r="D203">
         <v>20839</v>
@@ -7205,10 +7472,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="C204" t="s">
-        <v>1087</v>
+        <v>1146</v>
       </c>
       <c r="D204">
         <v>4920</v>
@@ -7219,10 +7486,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="C205" t="s">
-        <v>1088</v>
+        <v>1147</v>
       </c>
       <c r="D205">
         <v>19506</v>
@@ -7233,10 +7500,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="C206" t="s">
-        <v>1089</v>
+        <v>1148</v>
       </c>
       <c r="D206">
         <v>463</v>
@@ -7247,10 +7514,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>648</v>
+        <v>677</v>
       </c>
       <c r="C207" t="s">
-        <v>1090</v>
+        <v>1149</v>
       </c>
       <c r="D207">
         <v>69288</v>
@@ -7261,10 +7528,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="C208" t="s">
-        <v>1091</v>
+        <v>1150</v>
       </c>
       <c r="D208">
         <v>206</v>
@@ -7275,10 +7542,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="C209" t="s">
-        <v>1092</v>
+        <v>1151</v>
       </c>
       <c r="D209">
         <v>540607</v>
@@ -7289,10 +7556,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>651</v>
+        <v>680</v>
       </c>
       <c r="C210" t="s">
-        <v>1093</v>
+        <v>1152</v>
       </c>
       <c r="D210">
         <v>559350</v>
@@ -7303,10 +7570,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="C211" t="s">
-        <v>1094</v>
+        <v>1153</v>
       </c>
       <c r="D211">
         <v>283</v>
@@ -7317,10 +7584,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>653</v>
+        <v>682</v>
       </c>
       <c r="C212" t="s">
-        <v>1095</v>
+        <v>1154</v>
       </c>
       <c r="D212">
         <v>662</v>
@@ -7331,10 +7598,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>654</v>
+        <v>683</v>
       </c>
       <c r="C213" t="s">
-        <v>1096</v>
+        <v>1155</v>
       </c>
       <c r="D213">
         <v>25565</v>
@@ -7345,10 +7612,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>655</v>
+        <v>684</v>
       </c>
       <c r="C214" t="s">
-        <v>1097</v>
+        <v>1156</v>
       </c>
       <c r="D214">
         <v>12225</v>
@@ -7359,10 +7626,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>656</v>
+        <v>685</v>
       </c>
       <c r="C215" t="s">
-        <v>1098</v>
+        <v>1157</v>
       </c>
       <c r="D215">
         <v>125425</v>
@@ -7373,10 +7640,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>657</v>
+        <v>686</v>
       </c>
       <c r="C216" t="s">
-        <v>1099</v>
+        <v>1158</v>
       </c>
       <c r="D216">
         <v>10723</v>
@@ -7387,10 +7654,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>658</v>
+        <v>687</v>
       </c>
       <c r="C217" t="s">
-        <v>1100</v>
+        <v>1159</v>
       </c>
       <c r="D217">
         <v>19453</v>
@@ -7401,10 +7668,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="C218" t="s">
-        <v>1101</v>
+        <v>1160</v>
       </c>
       <c r="D218">
         <v>692700</v>
@@ -7415,10 +7682,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>660</v>
+        <v>689</v>
       </c>
       <c r="C219" t="s">
-        <v>1102</v>
+        <v>1161</v>
       </c>
       <c r="D219">
         <v>11814</v>
@@ -7429,10 +7696,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>661</v>
+        <v>690</v>
       </c>
       <c r="C220" t="s">
-        <v>1103</v>
+        <v>1162</v>
       </c>
       <c r="D220">
         <v>8</v>
@@ -7443,10 +7710,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>662</v>
+        <v>691</v>
       </c>
       <c r="C221" t="s">
-        <v>1104</v>
+        <v>1163</v>
       </c>
       <c r="D221">
         <v>2448</v>
@@ -7457,10 +7724,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="C222" t="s">
-        <v>1105</v>
+        <v>1164</v>
       </c>
       <c r="D222">
         <v>10536</v>
@@ -7471,10 +7738,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>664</v>
+        <v>693</v>
       </c>
       <c r="C223" t="s">
-        <v>1106</v>
+        <v>1165</v>
       </c>
       <c r="D223">
         <v>215252</v>
@@ -7485,10 +7752,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>665</v>
+        <v>694</v>
       </c>
       <c r="C224" t="s">
-        <v>1107</v>
+        <v>1166</v>
       </c>
       <c r="D224">
         <v>914871</v>
@@ -7499,10 +7766,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>666</v>
+        <v>695</v>
       </c>
       <c r="C225" t="s">
-        <v>1108</v>
+        <v>1167</v>
       </c>
       <c r="D225">
         <v>595286</v>
@@ -7513,10 +7780,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="C226" t="s">
-        <v>1109</v>
+        <v>1168</v>
       </c>
       <c r="D226">
         <v>13136</v>
@@ -7527,10 +7794,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>668</v>
+        <v>697</v>
       </c>
       <c r="C227" t="s">
-        <v>1110</v>
+        <v>1169</v>
       </c>
       <c r="D227">
         <v>420000</v>
@@ -7541,10 +7808,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>669</v>
+        <v>698</v>
       </c>
       <c r="C228" t="s">
-        <v>1111</v>
+        <v>1170</v>
       </c>
       <c r="D228">
         <v>143010</v>
@@ -7555,10 +7822,10 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="C229" t="s">
-        <v>1112</v>
+        <v>1171</v>
       </c>
       <c r="D229">
         <v>3086</v>
@@ -7569,10 +7836,10 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>671</v>
+        <v>700</v>
       </c>
       <c r="C230" t="s">
-        <v>1113</v>
+        <v>1172</v>
       </c>
       <c r="D230">
         <v>11176</v>
@@ -7583,10 +7850,10 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="C231" t="s">
-        <v>1114</v>
+        <v>1173</v>
       </c>
       <c r="D231">
         <v>4382</v>
@@ -7597,10 +7864,10 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="C232" t="s">
-        <v>1115</v>
+        <v>1174</v>
       </c>
       <c r="D232">
         <v>1685</v>
@@ -7611,10 +7878,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>674</v>
+        <v>703</v>
       </c>
       <c r="C233" t="s">
-        <v>1116</v>
+        <v>1175</v>
       </c>
       <c r="D233">
         <v>398</v>
@@ -7625,10 +7892,10 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>675</v>
+        <v>704</v>
       </c>
       <c r="C234" t="s">
-        <v>1117</v>
+        <v>1176</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -7639,10 +7906,10 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="C235" t="s">
-        <v>1118</v>
+        <v>1177</v>
       </c>
       <c r="D235">
         <v>24589</v>
@@ -7653,10 +7920,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="C236" t="s">
-        <v>1119</v>
+        <v>1178</v>
       </c>
       <c r="D236">
         <v>1212800</v>
@@ -7667,10 +7934,10 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="C237" t="s">
-        <v>1120</v>
+        <v>1179</v>
       </c>
       <c r="D237">
         <v>264166</v>
@@ -7681,10 +7948,10 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="C238" t="s">
-        <v>1121</v>
+        <v>1180</v>
       </c>
       <c r="D238">
         <v>4895863</v>
@@ -7695,10 +7962,10 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="C239" t="s">
-        <v>1122</v>
+        <v>1181</v>
       </c>
       <c r="D239">
         <v>3591</v>
@@ -7709,10 +7976,10 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="C240" t="s">
-        <v>1123</v>
+        <v>1182</v>
       </c>
       <c r="D240">
         <v>8963</v>
@@ -7723,10 +7990,10 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="C241" t="s">
-        <v>1124</v>
+        <v>1183</v>
       </c>
       <c r="D241">
         <v>763103</v>
@@ -7737,10 +8004,10 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="C242" t="s">
-        <v>1125</v>
+        <v>1184</v>
       </c>
       <c r="D242">
         <v>400</v>
@@ -7751,10 +8018,10 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>684</v>
+        <v>713</v>
       </c>
       <c r="C243" t="s">
-        <v>1126</v>
+        <v>1185</v>
       </c>
       <c r="D243">
         <v>680405</v>
@@ -7765,10 +8032,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>685</v>
+        <v>714</v>
       </c>
       <c r="C244" t="s">
-        <v>1127</v>
+        <v>1186</v>
       </c>
       <c r="D244">
         <v>5165</v>
@@ -7779,10 +8046,10 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="C245" t="s">
-        <v>1128</v>
+        <v>1187</v>
       </c>
       <c r="D245">
         <v>179802</v>
@@ -7793,10 +8060,10 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>687</v>
+        <v>716</v>
       </c>
       <c r="C246" t="s">
-        <v>1129</v>
+        <v>1188</v>
       </c>
       <c r="D246">
         <v>50393</v>
@@ -7807,10 +8074,10 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="C247" t="s">
-        <v>1130</v>
+        <v>1189</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -7821,10 +8088,10 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>689</v>
+        <v>718</v>
       </c>
       <c r="C248" t="s">
-        <v>1131</v>
+        <v>1190</v>
       </c>
       <c r="D248">
         <v>81</v>
@@ -7835,10 +8102,10 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>690</v>
+        <v>719</v>
       </c>
       <c r="C249" t="s">
-        <v>1132</v>
+        <v>1191</v>
       </c>
       <c r="D249">
         <v>2573153</v>
@@ -7849,10 +8116,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>691</v>
+        <v>720</v>
       </c>
       <c r="C250" t="s">
-        <v>1133</v>
+        <v>1192</v>
       </c>
       <c r="D250">
         <v>173495</v>
@@ -7863,10 +8130,10 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>692</v>
+        <v>721</v>
       </c>
       <c r="C251" t="s">
-        <v>1134</v>
+        <v>1193</v>
       </c>
       <c r="D251">
         <v>27600</v>
@@ -7877,10 +8144,10 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>693</v>
+        <v>722</v>
       </c>
       <c r="C252" t="s">
-        <v>1135</v>
+        <v>1194</v>
       </c>
       <c r="D252">
         <v>485379</v>
@@ -7891,10 +8158,10 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>694</v>
+        <v>723</v>
       </c>
       <c r="C253" t="s">
-        <v>1136</v>
+        <v>1195</v>
       </c>
       <c r="D253">
         <v>331919</v>
@@ -7905,10 +8172,10 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>695</v>
+        <v>724</v>
       </c>
       <c r="C254" t="s">
-        <v>1137</v>
+        <v>1196</v>
       </c>
       <c r="D254">
         <v>1865848</v>
@@ -7919,10 +8186,10 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>696</v>
+        <v>725</v>
       </c>
       <c r="C255" t="s">
-        <v>1138</v>
+        <v>1197</v>
       </c>
       <c r="D255">
         <v>24</v>
@@ -7933,10 +8200,10 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
       <c r="C256" t="s">
-        <v>1139</v>
+        <v>1198</v>
       </c>
       <c r="D256">
         <v>32122</v>
@@ -7947,10 +8214,10 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>698</v>
+        <v>727</v>
       </c>
       <c r="C257" t="s">
-        <v>1140</v>
+        <v>1199</v>
       </c>
       <c r="D257">
         <v>7108</v>
@@ -7961,10 +8228,10 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>699</v>
+        <v>728</v>
       </c>
       <c r="C258" t="s">
-        <v>1141</v>
+        <v>1200</v>
       </c>
       <c r="D258">
         <v>71</v>
@@ -7975,10 +8242,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>700</v>
+        <v>729</v>
       </c>
       <c r="C259" t="s">
-        <v>1142</v>
+        <v>1201</v>
       </c>
       <c r="D259">
         <v>670927</v>
@@ -7989,10 +8256,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>701</v>
+        <v>730</v>
       </c>
       <c r="C260" t="s">
-        <v>1143</v>
+        <v>1202</v>
       </c>
       <c r="D260">
         <v>13137</v>
@@ -8003,10 +8270,10 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>702</v>
+        <v>731</v>
       </c>
       <c r="C261" t="s">
-        <v>1144</v>
+        <v>1203</v>
       </c>
       <c r="D261">
         <v>14209</v>
@@ -8017,10 +8284,10 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>703</v>
+        <v>732</v>
       </c>
       <c r="C262" t="s">
-        <v>1145</v>
+        <v>1204</v>
       </c>
       <c r="D262">
         <v>28342</v>
@@ -8031,10 +8298,10 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>704</v>
+        <v>733</v>
       </c>
       <c r="C263" t="s">
-        <v>1146</v>
+        <v>1205</v>
       </c>
       <c r="D263">
         <v>696637</v>
@@ -8045,10 +8312,10 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>705</v>
+        <v>734</v>
       </c>
       <c r="C264" t="s">
-        <v>1147</v>
+        <v>1206</v>
       </c>
       <c r="D264">
         <v>11723</v>
@@ -8059,10 +8326,10 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>706</v>
+        <v>735</v>
       </c>
       <c r="C265" t="s">
-        <v>1148</v>
+        <v>1207</v>
       </c>
       <c r="D265">
         <v>23642</v>
@@ -8073,10 +8340,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>707</v>
+        <v>736</v>
       </c>
       <c r="C266" t="s">
-        <v>1149</v>
+        <v>1208</v>
       </c>
       <c r="D266">
         <v>23034</v>
@@ -8087,10 +8354,10 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>708</v>
+        <v>737</v>
       </c>
       <c r="C267" t="s">
-        <v>1150</v>
+        <v>1209</v>
       </c>
       <c r="D267">
         <v>285699</v>
@@ -8101,10 +8368,10 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>709</v>
+        <v>738</v>
       </c>
       <c r="C268" t="s">
-        <v>1151</v>
+        <v>1210</v>
       </c>
       <c r="D268">
         <v>1553</v>
@@ -8115,10 +8382,10 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>710</v>
+        <v>739</v>
       </c>
       <c r="C269" t="s">
-        <v>1152</v>
+        <v>1211</v>
       </c>
       <c r="D269">
         <v>99454</v>
@@ -8129,10 +8396,10 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>711</v>
+        <v>740</v>
       </c>
       <c r="C270" t="s">
-        <v>1153</v>
+        <v>1212</v>
       </c>
       <c r="D270">
         <v>11357</v>
@@ -8143,10 +8410,10 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>712</v>
+        <v>741</v>
       </c>
       <c r="C271" t="s">
-        <v>1154</v>
+        <v>1213</v>
       </c>
       <c r="D271">
         <v>15345</v>
@@ -8157,10 +8424,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>713</v>
+        <v>742</v>
       </c>
       <c r="C272" t="s">
-        <v>1155</v>
+        <v>1214</v>
       </c>
       <c r="D272">
         <v>3132</v>
@@ -8171,10 +8438,10 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="C273" t="s">
-        <v>1156</v>
+        <v>1215</v>
       </c>
       <c r="D273">
         <v>40</v>
@@ -8185,10 +8452,10 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>715</v>
+        <v>744</v>
       </c>
       <c r="C274" t="s">
-        <v>1157</v>
+        <v>1216</v>
       </c>
       <c r="D274">
         <v>220839</v>
@@ -8199,10 +8466,10 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="C275" t="s">
-        <v>1158</v>
+        <v>1217</v>
       </c>
       <c r="D275">
         <v>1342</v>
@@ -8213,10 +8480,10 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="C276" t="s">
-        <v>1159</v>
+        <v>1218</v>
       </c>
       <c r="D276">
         <v>17088</v>
@@ -8227,10 +8494,10 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>718</v>
+        <v>747</v>
       </c>
       <c r="C277" t="s">
-        <v>1160</v>
+        <v>1219</v>
       </c>
       <c r="D277">
         <v>156486</v>
@@ -8241,10 +8508,10 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>719</v>
+        <v>748</v>
       </c>
       <c r="C278" t="s">
-        <v>1161</v>
+        <v>1220</v>
       </c>
       <c r="D278">
         <v>372</v>
@@ -8255,10 +8522,10 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>720</v>
+        <v>749</v>
       </c>
       <c r="C279" t="s">
-        <v>1162</v>
+        <v>1221</v>
       </c>
       <c r="D279">
         <v>148708</v>
@@ -8269,10 +8536,10 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>721</v>
+        <v>750</v>
       </c>
       <c r="C280" t="s">
-        <v>1163</v>
+        <v>1222</v>
       </c>
       <c r="D280">
         <v>212410</v>
@@ -8283,10 +8550,10 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>722</v>
+        <v>751</v>
       </c>
       <c r="C281" t="s">
-        <v>1164</v>
+        <v>1223</v>
       </c>
       <c r="D281">
         <v>565473</v>
@@ -8297,10 +8564,10 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="C282" t="s">
-        <v>1165</v>
+        <v>1224</v>
       </c>
       <c r="D282">
         <v>1008453</v>
@@ -8311,10 +8578,10 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="C283" t="s">
-        <v>1166</v>
+        <v>1225</v>
       </c>
       <c r="D283">
         <v>9457</v>
@@ -8325,10 +8592,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>725</v>
+        <v>754</v>
       </c>
       <c r="C284" t="s">
-        <v>1167</v>
+        <v>1226</v>
       </c>
       <c r="D284">
         <v>2716106</v>
@@ -8339,10 +8606,10 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>726</v>
+        <v>755</v>
       </c>
       <c r="C285" t="s">
-        <v>1168</v>
+        <v>1227</v>
       </c>
       <c r="D285">
         <v>1064</v>
@@ -8353,10 +8620,10 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>727</v>
+        <v>756</v>
       </c>
       <c r="C286" t="s">
-        <v>1169</v>
+        <v>1228</v>
       </c>
       <c r="D286">
         <v>76330</v>
@@ -8367,10 +8634,10 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>728</v>
+        <v>757</v>
       </c>
       <c r="C287" t="s">
-        <v>1170</v>
+        <v>1229</v>
       </c>
       <c r="D287">
         <v>6944</v>
@@ -8381,10 +8648,10 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>729</v>
+        <v>758</v>
       </c>
       <c r="C288" t="s">
-        <v>1171</v>
+        <v>1230</v>
       </c>
       <c r="D288">
         <v>7466</v>
@@ -8395,10 +8662,10 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>730</v>
+        <v>759</v>
       </c>
       <c r="C289" t="s">
-        <v>1172</v>
+        <v>1231</v>
       </c>
       <c r="D289">
         <v>112830</v>
@@ -8409,10 +8676,10 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>731</v>
+        <v>760</v>
       </c>
       <c r="C290" t="s">
-        <v>1173</v>
+        <v>1232</v>
       </c>
       <c r="D290">
         <v>69657</v>
@@ -8423,10 +8690,10 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>732</v>
+        <v>761</v>
       </c>
       <c r="C291" t="s">
-        <v>1174</v>
+        <v>1233</v>
       </c>
       <c r="D291">
         <v>265728</v>
@@ -8437,10 +8704,10 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>733</v>
+        <v>762</v>
       </c>
       <c r="C292" t="s">
-        <v>1175</v>
+        <v>1234</v>
       </c>
       <c r="D292">
         <v>4800</v>
@@ -8451,10 +8718,10 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>734</v>
+        <v>763</v>
       </c>
       <c r="C293" t="s">
-        <v>1176</v>
+        <v>1235</v>
       </c>
       <c r="D293">
         <v>1504714</v>
@@ -8465,10 +8732,10 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>735</v>
+        <v>764</v>
       </c>
       <c r="C294" t="s">
-        <v>1177</v>
+        <v>1236</v>
       </c>
       <c r="D294">
         <v>25624</v>
@@ -8479,10 +8746,10 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>736</v>
+        <v>765</v>
       </c>
       <c r="C295" t="s">
-        <v>1178</v>
+        <v>1237</v>
       </c>
       <c r="D295">
         <v>212898</v>
@@ -8493,10 +8760,10 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>737</v>
+        <v>766</v>
       </c>
       <c r="C296" t="s">
-        <v>1179</v>
+        <v>1238</v>
       </c>
       <c r="D296">
         <v>7077</v>
@@ -8507,10 +8774,10 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>738</v>
+        <v>767</v>
       </c>
       <c r="C297" t="s">
-        <v>1180</v>
+        <v>1239</v>
       </c>
       <c r="D297">
         <v>450</v>
@@ -8521,10 +8788,10 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>739</v>
+        <v>768</v>
       </c>
       <c r="C298" t="s">
-        <v>1181</v>
+        <v>1240</v>
       </c>
       <c r="D298">
         <v>7788</v>
@@ -8535,10 +8802,10 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>740</v>
+        <v>769</v>
       </c>
       <c r="C299" t="s">
-        <v>1182</v>
+        <v>1241</v>
       </c>
       <c r="D299">
         <v>5642</v>
@@ -8549,10 +8816,10 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>741</v>
+        <v>770</v>
       </c>
       <c r="C300" t="s">
-        <v>1183</v>
+        <v>1242</v>
       </c>
       <c r="D300">
         <v>73023</v>
@@ -8563,10 +8830,10 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="C301" t="s">
-        <v>1184</v>
+        <v>1243</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -8577,10 +8844,10 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
       <c r="C302" t="s">
-        <v>1185</v>
+        <v>1244</v>
       </c>
       <c r="D302">
         <v>407080</v>
@@ -8591,10 +8858,10 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="C303" t="s">
-        <v>1186</v>
+        <v>1245</v>
       </c>
       <c r="D303">
         <v>6576</v>
@@ -8605,10 +8872,10 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>745</v>
+        <v>774</v>
       </c>
       <c r="C304" t="s">
-        <v>1187</v>
+        <v>1246</v>
       </c>
       <c r="D304">
         <v>10274</v>
@@ -8619,10 +8886,10 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
       <c r="C305" t="s">
-        <v>1188</v>
+        <v>1247</v>
       </c>
       <c r="D305">
         <v>196</v>
@@ -8633,10 +8900,10 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>747</v>
+        <v>776</v>
       </c>
       <c r="C306" t="s">
-        <v>1189</v>
+        <v>1248</v>
       </c>
       <c r="D306">
         <v>147820</v>
@@ -8647,10 +8914,10 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>748</v>
+        <v>777</v>
       </c>
       <c r="C307" t="s">
-        <v>1190</v>
+        <v>1249</v>
       </c>
       <c r="D307">
         <v>293</v>
@@ -8661,10 +8928,10 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>749</v>
+        <v>778</v>
       </c>
       <c r="C308" t="s">
-        <v>1191</v>
+        <v>1250</v>
       </c>
       <c r="D308">
         <v>318</v>
@@ -8675,10 +8942,10 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>750</v>
+        <v>779</v>
       </c>
       <c r="C309" t="s">
-        <v>1192</v>
+        <v>1251</v>
       </c>
       <c r="D309">
         <v>70029</v>
@@ -8689,10 +8956,10 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="C310" t="s">
-        <v>1193</v>
+        <v>1252</v>
       </c>
       <c r="D310">
         <v>448814</v>
@@ -8703,10 +8970,10 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>752</v>
+        <v>781</v>
       </c>
       <c r="C311" t="s">
-        <v>1194</v>
+        <v>1253</v>
       </c>
       <c r="D311">
         <v>37249</v>
@@ -8717,10 +8984,10 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>753</v>
+        <v>782</v>
       </c>
       <c r="C312" t="s">
-        <v>1195</v>
+        <v>1254</v>
       </c>
       <c r="D312">
         <v>19</v>
@@ -8731,10 +8998,10 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
       <c r="C313" t="s">
-        <v>1196</v>
+        <v>1255</v>
       </c>
       <c r="D313">
         <v>125460</v>
@@ -8745,10 +9012,10 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>755</v>
+        <v>784</v>
       </c>
       <c r="C314" t="s">
-        <v>1197</v>
+        <v>1256</v>
       </c>
       <c r="D314">
         <v>358</v>
@@ -8759,10 +9026,10 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
       <c r="C315" t="s">
-        <v>1198</v>
+        <v>1257</v>
       </c>
       <c r="D315">
         <v>4938</v>
@@ -8773,10 +9040,10 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>757</v>
+        <v>786</v>
       </c>
       <c r="C316" t="s">
-        <v>1199</v>
+        <v>1258</v>
       </c>
       <c r="D316">
         <v>432701</v>
@@ -8787,10 +9054,10 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>758</v>
+        <v>787</v>
       </c>
       <c r="C317" t="s">
-        <v>1200</v>
+        <v>1259</v>
       </c>
       <c r="D317">
         <v>1212</v>
@@ -8801,10 +9068,10 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>759</v>
+        <v>788</v>
       </c>
       <c r="C318" t="s">
-        <v>1201</v>
+        <v>1260</v>
       </c>
       <c r="D318">
         <v>33588</v>
@@ -8815,10 +9082,10 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>760</v>
+        <v>789</v>
       </c>
       <c r="C319" t="s">
-        <v>1202</v>
+        <v>1261</v>
       </c>
       <c r="D319">
         <v>127375</v>
@@ -8829,10 +9096,10 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>761</v>
+        <v>790</v>
       </c>
       <c r="C320" t="s">
-        <v>1203</v>
+        <v>1262</v>
       </c>
       <c r="D320">
         <v>26892</v>
@@ -8843,10 +9110,10 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>762</v>
+        <v>791</v>
       </c>
       <c r="C321" t="s">
-        <v>1204</v>
+        <v>1263</v>
       </c>
       <c r="D321">
         <v>16536</v>
@@ -8857,10 +9124,10 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>763</v>
+        <v>792</v>
       </c>
       <c r="C322" t="s">
-        <v>1205</v>
+        <v>1264</v>
       </c>
       <c r="D322">
         <v>196859</v>
@@ -8871,10 +9138,10 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>764</v>
+        <v>793</v>
       </c>
       <c r="C323" t="s">
-        <v>1206</v>
+        <v>1265</v>
       </c>
       <c r="D323">
         <v>66540</v>
@@ -8885,10 +9152,10 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>765</v>
+        <v>794</v>
       </c>
       <c r="C324" t="s">
-        <v>1207</v>
+        <v>1266</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -8899,10 +9166,10 @@
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>766</v>
+        <v>795</v>
       </c>
       <c r="C325" t="s">
-        <v>1208</v>
+        <v>1267</v>
       </c>
       <c r="D325">
         <v>5719</v>
@@ -8913,10 +9180,10 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="C326" t="s">
-        <v>1209</v>
+        <v>1268</v>
       </c>
       <c r="D326">
         <v>30404</v>
@@ -8927,10 +9194,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="C327" t="s">
-        <v>1210</v>
+        <v>1269</v>
       </c>
       <c r="D327">
         <v>243</v>
@@ -8941,10 +9208,10 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="C328" t="s">
-        <v>1211</v>
+        <v>1270</v>
       </c>
       <c r="D328">
         <v>5075</v>
@@ -8955,10 +9222,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
       <c r="C329" t="s">
-        <v>1212</v>
+        <v>1271</v>
       </c>
       <c r="D329">
         <v>54131</v>
@@ -8969,10 +9236,10 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="C330" t="s">
-        <v>1213</v>
+        <v>1272</v>
       </c>
       <c r="D330">
         <v>145499</v>
@@ -8983,10 +9250,10 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
       <c r="C331" t="s">
-        <v>1214</v>
+        <v>1273</v>
       </c>
       <c r="D331">
         <v>73</v>
@@ -8997,10 +9264,10 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
       <c r="C332" t="s">
-        <v>1215</v>
+        <v>1274</v>
       </c>
       <c r="D332">
         <v>81899</v>
@@ -9011,10 +9278,10 @@
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
       <c r="C333" t="s">
-        <v>1216</v>
+        <v>1275</v>
       </c>
       <c r="D333">
         <v>85403</v>
@@ -9025,10 +9292,10 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>775</v>
+        <v>804</v>
       </c>
       <c r="C334" t="s">
-        <v>1217</v>
+        <v>1276</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -9039,10 +9306,10 @@
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>776</v>
+        <v>805</v>
       </c>
       <c r="C335" t="s">
-        <v>1218</v>
+        <v>1277</v>
       </c>
       <c r="D335">
         <v>120904</v>
@@ -9053,10 +9320,10 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
       <c r="C336" t="s">
-        <v>1219</v>
+        <v>1278</v>
       </c>
       <c r="D336">
         <v>259553</v>
@@ -9067,10 +9334,10 @@
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="C337" t="s">
-        <v>1220</v>
+        <v>1279</v>
       </c>
       <c r="D337">
         <v>192103</v>
@@ -9081,10 +9348,10 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
       <c r="C338" t="s">
-        <v>1221</v>
+        <v>1280</v>
       </c>
       <c r="D338">
         <v>74199</v>
@@ -9095,10 +9362,10 @@
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>780</v>
+        <v>809</v>
       </c>
       <c r="C339" t="s">
-        <v>1222</v>
+        <v>1281</v>
       </c>
       <c r="D339">
         <v>11866</v>
@@ -9109,10 +9376,10 @@
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>781</v>
+        <v>810</v>
       </c>
       <c r="C340" t="s">
-        <v>1223</v>
+        <v>1282</v>
       </c>
       <c r="D340">
         <v>452357</v>
@@ -9123,10 +9390,10 @@
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>782</v>
+        <v>811</v>
       </c>
       <c r="C341" t="s">
-        <v>1224</v>
+        <v>1283</v>
       </c>
       <c r="D341">
         <v>274776</v>
@@ -9137,10 +9404,10 @@
         <v>110</v>
       </c>
       <c r="B342" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="C342" t="s">
-        <v>1225</v>
+        <v>1284</v>
       </c>
       <c r="D342">
         <v>3900</v>
@@ -9151,10 +9418,10 @@
         <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>784</v>
+        <v>813</v>
       </c>
       <c r="C343" t="s">
-        <v>1226</v>
+        <v>1285</v>
       </c>
       <c r="D343">
         <v>5947</v>
@@ -9165,10 +9432,10 @@
         <v>345</v>
       </c>
       <c r="B344" t="s">
-        <v>785</v>
+        <v>814</v>
       </c>
       <c r="C344" t="s">
-        <v>1227</v>
+        <v>1286</v>
       </c>
       <c r="D344">
         <v>7386</v>
@@ -9179,10 +9446,10 @@
         <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>786</v>
+        <v>815</v>
       </c>
       <c r="C345" t="s">
-        <v>1228</v>
+        <v>1287</v>
       </c>
       <c r="D345">
         <v>4330</v>
@@ -9193,10 +9460,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>787</v>
+        <v>816</v>
       </c>
       <c r="C346" t="s">
-        <v>1229</v>
+        <v>1288</v>
       </c>
       <c r="D346">
         <v>58</v>
@@ -9207,10 +9474,10 @@
         <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>788</v>
+        <v>817</v>
       </c>
       <c r="C347" t="s">
-        <v>1230</v>
+        <v>1289</v>
       </c>
       <c r="D347">
         <v>146332</v>
@@ -9221,10 +9488,10 @@
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>789</v>
+        <v>818</v>
       </c>
       <c r="C348" t="s">
-        <v>1231</v>
+        <v>1290</v>
       </c>
       <c r="D348">
         <v>2869</v>
@@ -9235,10 +9502,10 @@
         <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>790</v>
+        <v>819</v>
       </c>
       <c r="C349" t="s">
-        <v>1232</v>
+        <v>1291</v>
       </c>
       <c r="D349">
         <v>1002801</v>
@@ -9249,10 +9516,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
       <c r="C350" t="s">
-        <v>1233</v>
+        <v>1292</v>
       </c>
       <c r="D350">
         <v>204562</v>
@@ -9263,10 +9530,10 @@
         <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>792</v>
+        <v>821</v>
       </c>
       <c r="C351" t="s">
-        <v>1234</v>
+        <v>1293</v>
       </c>
       <c r="D351">
         <v>99175</v>
@@ -9277,10 +9544,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="C352" t="s">
-        <v>1235</v>
+        <v>1294</v>
       </c>
       <c r="D352">
         <v>3674</v>
@@ -9291,10 +9558,10 @@
         <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>794</v>
+        <v>823</v>
       </c>
       <c r="C353" t="s">
-        <v>1236</v>
+        <v>1295</v>
       </c>
       <c r="D353">
         <v>670224</v>
@@ -9305,10 +9572,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="s">
-        <v>795</v>
+        <v>824</v>
       </c>
       <c r="C354" t="s">
-        <v>1237</v>
+        <v>1296</v>
       </c>
       <c r="D354">
         <v>1415</v>
@@ -9319,10 +9586,10 @@
         <v>356</v>
       </c>
       <c r="B355" t="s">
-        <v>796</v>
+        <v>825</v>
       </c>
       <c r="C355" t="s">
-        <v>1238</v>
+        <v>1297</v>
       </c>
       <c r="D355">
         <v>9524</v>
@@ -9333,10 +9600,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="s">
-        <v>797</v>
+        <v>826</v>
       </c>
       <c r="C356" t="s">
-        <v>1239</v>
+        <v>1298</v>
       </c>
       <c r="D356">
         <v>4717</v>
@@ -9347,10 +9614,10 @@
         <v>358</v>
       </c>
       <c r="B357" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="C357" t="s">
-        <v>1240</v>
+        <v>1299</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -9361,10 +9628,10 @@
         <v>359</v>
       </c>
       <c r="B358" t="s">
-        <v>799</v>
+        <v>828</v>
       </c>
       <c r="C358" t="s">
-        <v>1241</v>
+        <v>1300</v>
       </c>
       <c r="D358">
         <v>128405</v>
@@ -9375,10 +9642,10 @@
         <v>360</v>
       </c>
       <c r="B359" t="s">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="C359" t="s">
-        <v>1242</v>
+        <v>1301</v>
       </c>
       <c r="D359">
         <v>111060</v>
@@ -9389,10 +9656,10 @@
         <v>361</v>
       </c>
       <c r="B360" t="s">
-        <v>801</v>
+        <v>830</v>
       </c>
       <c r="C360" t="s">
-        <v>1243</v>
+        <v>1302</v>
       </c>
       <c r="D360">
         <v>2</v>
@@ -9403,10 +9670,10 @@
         <v>362</v>
       </c>
       <c r="B361" t="s">
-        <v>802</v>
+        <v>831</v>
       </c>
       <c r="C361" t="s">
-        <v>1244</v>
+        <v>1303</v>
       </c>
       <c r="D361">
         <v>50000</v>
@@ -9417,10 +9684,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="s">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="C362" t="s">
-        <v>1245</v>
+        <v>1304</v>
       </c>
       <c r="D362">
         <v>153818</v>
@@ -9431,10 +9698,10 @@
         <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="C363" t="s">
-        <v>1246</v>
+        <v>1305</v>
       </c>
       <c r="D363">
         <v>8765</v>
@@ -9445,10 +9712,10 @@
         <v>365</v>
       </c>
       <c r="B364" t="s">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="C364" t="s">
-        <v>1247</v>
+        <v>1306</v>
       </c>
       <c r="D364">
         <v>276</v>
@@ -9459,10 +9726,10 @@
         <v>366</v>
       </c>
       <c r="B365" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="C365" t="s">
-        <v>1248</v>
+        <v>1307</v>
       </c>
       <c r="D365">
         <v>16875</v>
@@ -9473,10 +9740,10 @@
         <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>807</v>
+        <v>836</v>
       </c>
       <c r="C366" t="s">
-        <v>1249</v>
+        <v>1308</v>
       </c>
       <c r="D366">
         <v>26</v>
@@ -9487,10 +9754,10 @@
         <v>368</v>
       </c>
       <c r="B367" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
       <c r="C367" t="s">
-        <v>1250</v>
+        <v>1309</v>
       </c>
       <c r="D367">
         <v>4</v>
@@ -9501,10 +9768,10 @@
         <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>809</v>
+        <v>838</v>
       </c>
       <c r="C368" t="s">
-        <v>1251</v>
+        <v>1310</v>
       </c>
       <c r="D368">
         <v>36</v>
@@ -9515,10 +9782,10 @@
         <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="C369" t="s">
-        <v>1252</v>
+        <v>1311</v>
       </c>
       <c r="D369">
         <v>46163</v>
@@ -9529,10 +9796,10 @@
         <v>300</v>
       </c>
       <c r="B370" t="s">
-        <v>811</v>
+        <v>840</v>
       </c>
       <c r="C370" t="s">
-        <v>1253</v>
+        <v>1312</v>
       </c>
       <c r="D370">
         <v>12431</v>
@@ -9543,10 +9810,10 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>812</v>
+        <v>841</v>
       </c>
       <c r="C371" t="s">
-        <v>1254</v>
+        <v>1313</v>
       </c>
       <c r="D371">
         <v>21309</v>
@@ -9557,10 +9824,10 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>813</v>
+        <v>842</v>
       </c>
       <c r="C372" t="s">
-        <v>1255</v>
+        <v>1314</v>
       </c>
       <c r="D372">
         <v>25</v>
@@ -9571,10 +9838,10 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>814</v>
+        <v>843</v>
       </c>
       <c r="C373" t="s">
-        <v>1256</v>
+        <v>1315</v>
       </c>
       <c r="D373">
         <v>167286</v>
@@ -9585,10 +9852,10 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>815</v>
+        <v>844</v>
       </c>
       <c r="C374" t="s">
-        <v>1257</v>
+        <v>1316</v>
       </c>
       <c r="D374">
         <v>43714</v>
@@ -9599,10 +9866,10 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="C375" t="s">
-        <v>1258</v>
+        <v>1317</v>
       </c>
       <c r="D375">
         <v>756</v>
@@ -9613,10 +9880,10 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>817</v>
+        <v>846</v>
       </c>
       <c r="C376" t="s">
-        <v>1259</v>
+        <v>1318</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -9627,10 +9894,10 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>818</v>
+        <v>847</v>
       </c>
       <c r="C377" t="s">
-        <v>1260</v>
+        <v>1319</v>
       </c>
       <c r="D377">
         <v>243434</v>
@@ -9641,10 +9908,10 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>819</v>
+        <v>848</v>
       </c>
       <c r="C378" t="s">
-        <v>1261</v>
+        <v>1320</v>
       </c>
       <c r="D378">
         <v>41</v>
@@ -9655,10 +9922,10 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="C379" t="s">
-        <v>1262</v>
+        <v>1321</v>
       </c>
       <c r="D379">
         <v>3348</v>
@@ -9669,10 +9936,10 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="C380" t="s">
-        <v>1263</v>
+        <v>1322</v>
       </c>
       <c r="D380">
         <v>8659</v>
@@ -9683,10 +9950,10 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="C381" t="s">
-        <v>1264</v>
+        <v>1323</v>
       </c>
       <c r="D381">
         <v>73820</v>
@@ -9697,10 +9964,10 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="C382" t="s">
-        <v>1265</v>
+        <v>1324</v>
       </c>
       <c r="D382">
         <v>177</v>
@@ -9711,10 +9978,10 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>824</v>
+        <v>853</v>
       </c>
       <c r="C383" t="s">
-        <v>1266</v>
+        <v>1325</v>
       </c>
       <c r="D383">
         <v>13498</v>
@@ -9725,10 +9992,10 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>825</v>
+        <v>854</v>
       </c>
       <c r="C384" t="s">
-        <v>1267</v>
+        <v>1326</v>
       </c>
       <c r="D384">
         <v>10146</v>
@@ -9739,10 +10006,10 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>826</v>
+        <v>855</v>
       </c>
       <c r="C385" t="s">
-        <v>1268</v>
+        <v>1327</v>
       </c>
       <c r="D385">
         <v>7100</v>
@@ -9753,10 +10020,10 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
       <c r="C386" t="s">
-        <v>1269</v>
+        <v>1328</v>
       </c>
       <c r="D386">
         <v>1747</v>
@@ -9767,10 +10034,10 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>828</v>
+        <v>857</v>
       </c>
       <c r="C387" t="s">
-        <v>1270</v>
+        <v>1329</v>
       </c>
       <c r="D387">
         <v>28954</v>
@@ -9781,10 +10048,10 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>829</v>
+        <v>858</v>
       </c>
       <c r="C388" t="s">
-        <v>1271</v>
+        <v>1330</v>
       </c>
       <c r="D388">
         <v>4180</v>
@@ -9795,10 +10062,10 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>830</v>
+        <v>859</v>
       </c>
       <c r="C389" t="s">
-        <v>1272</v>
+        <v>1331</v>
       </c>
       <c r="D389">
         <v>91335</v>
@@ -9809,10 +10076,10 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>831</v>
+        <v>860</v>
       </c>
       <c r="C390" t="s">
-        <v>1273</v>
+        <v>1332</v>
       </c>
       <c r="D390">
         <v>142936</v>
@@ -9823,10 +10090,10 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="C391" t="s">
-        <v>1274</v>
+        <v>1333</v>
       </c>
       <c r="D391">
         <v>262</v>
@@ -9837,10 +10104,10 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>833</v>
+        <v>862</v>
       </c>
       <c r="C392" t="s">
-        <v>1275</v>
+        <v>1334</v>
       </c>
       <c r="D392">
         <v>72844</v>
@@ -9851,10 +10118,10 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>834</v>
+        <v>863</v>
       </c>
       <c r="C393" t="s">
-        <v>1276</v>
+        <v>1335</v>
       </c>
       <c r="D393">
         <v>484</v>
@@ -9865,10 +10132,10 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>835</v>
+        <v>864</v>
       </c>
       <c r="C394" t="s">
-        <v>1277</v>
+        <v>1336</v>
       </c>
       <c r="D394">
         <v>74991</v>
@@ -9879,10 +10146,10 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="C395" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="D395">
         <v>35000</v>
@@ -9893,10 +10160,10 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>837</v>
+        <v>866</v>
       </c>
       <c r="C396" t="s">
-        <v>1279</v>
+        <v>1338</v>
       </c>
       <c r="D396">
         <v>19810</v>
@@ -9907,10 +10174,10 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>838</v>
+        <v>867</v>
       </c>
       <c r="C397" t="s">
-        <v>1280</v>
+        <v>1339</v>
       </c>
       <c r="D397">
         <v>142992</v>
@@ -9921,10 +10188,10 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>839</v>
+        <v>868</v>
       </c>
       <c r="C398" t="s">
-        <v>1281</v>
+        <v>1340</v>
       </c>
       <c r="D398">
         <v>149152</v>
@@ -9935,10 +10202,10 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="C399" t="s">
-        <v>1282</v>
+        <v>1341</v>
       </c>
       <c r="D399">
         <v>13812</v>
@@ -9949,10 +10216,10 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>841</v>
+        <v>870</v>
       </c>
       <c r="C400" t="s">
-        <v>1283</v>
+        <v>1342</v>
       </c>
       <c r="D400">
         <v>410941</v>
@@ -9963,10 +10230,10 @@
         <v>120</v>
       </c>
       <c r="B401" t="s">
-        <v>842</v>
+        <v>871</v>
       </c>
       <c r="C401" t="s">
-        <v>1284</v>
+        <v>1343</v>
       </c>
       <c r="D401">
         <v>1274913</v>
@@ -9977,10 +10244,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>843</v>
+        <v>872</v>
       </c>
       <c r="C402" t="s">
-        <v>1285</v>
+        <v>1344</v>
       </c>
       <c r="D402">
         <v>2892</v>
@@ -9991,10 +10258,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>844</v>
+        <v>873</v>
       </c>
       <c r="C403" t="s">
-        <v>1286</v>
+        <v>1345</v>
       </c>
       <c r="D403">
         <v>98</v>
@@ -10005,10 +10272,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>845</v>
+        <v>874</v>
       </c>
       <c r="C404" t="s">
-        <v>1287</v>
+        <v>1346</v>
       </c>
       <c r="D404">
         <v>7667</v>
@@ -10019,10 +10286,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>846</v>
+        <v>875</v>
       </c>
       <c r="C405" t="s">
-        <v>1288</v>
+        <v>1347</v>
       </c>
       <c r="D405">
         <v>26392</v>
@@ -10033,10 +10300,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>847</v>
+        <v>876</v>
       </c>
       <c r="C406" t="s">
-        <v>1289</v>
+        <v>1348</v>
       </c>
       <c r="D406">
         <v>31</v>
@@ -10047,10 +10314,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>848</v>
+        <v>877</v>
       </c>
       <c r="C407" t="s">
-        <v>1290</v>
+        <v>1349</v>
       </c>
       <c r="D407">
         <v>23149</v>
@@ -10061,10 +10328,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="C408" t="s">
-        <v>1291</v>
+        <v>1350</v>
       </c>
       <c r="D408">
         <v>57413</v>
@@ -10075,10 +10342,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>850</v>
+        <v>879</v>
       </c>
       <c r="C409" t="s">
-        <v>1292</v>
+        <v>1351</v>
       </c>
       <c r="D409">
         <v>145645</v>
@@ -10089,10 +10356,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>851</v>
+        <v>880</v>
       </c>
       <c r="C410" t="s">
-        <v>1293</v>
+        <v>1352</v>
       </c>
       <c r="D410">
         <v>173</v>
@@ -10103,10 +10370,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>852</v>
+        <v>881</v>
       </c>
       <c r="C411" t="s">
-        <v>1294</v>
+        <v>1353</v>
       </c>
       <c r="D411">
         <v>7690</v>
@@ -10117,10 +10384,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="C412" t="s">
-        <v>1295</v>
+        <v>1354</v>
       </c>
       <c r="D412">
         <v>95</v>
@@ -10131,10 +10398,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>854</v>
+        <v>883</v>
       </c>
       <c r="C413" t="s">
-        <v>1296</v>
+        <v>1355</v>
       </c>
       <c r="D413">
         <v>57258</v>
@@ -10145,10 +10412,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="C414" t="s">
-        <v>1297</v>
+        <v>1356</v>
       </c>
       <c r="D414">
         <v>163100</v>
@@ -10159,10 +10426,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
       <c r="C415" t="s">
-        <v>1298</v>
+        <v>1357</v>
       </c>
       <c r="D415">
         <v>543613</v>
@@ -10173,10 +10440,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
       <c r="C416" t="s">
-        <v>1299</v>
+        <v>1358</v>
       </c>
       <c r="D416">
         <v>256625</v>
@@ -10187,10 +10454,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
       <c r="C417" t="s">
-        <v>1300</v>
+        <v>1359</v>
       </c>
       <c r="D417">
         <v>68508</v>
@@ -10201,10 +10468,10 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
       <c r="C418" t="s">
-        <v>1301</v>
+        <v>1360</v>
       </c>
       <c r="D418">
         <v>101890</v>
@@ -10215,10 +10482,10 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>860</v>
+        <v>889</v>
       </c>
       <c r="C419" t="s">
-        <v>1302</v>
+        <v>1361</v>
       </c>
       <c r="D419">
         <v>57666</v>
@@ -10229,10 +10496,10 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>861</v>
+        <v>890</v>
       </c>
       <c r="C420" t="s">
-        <v>1303</v>
+        <v>1362</v>
       </c>
       <c r="D420">
         <v>3786</v>
@@ -10243,10 +10510,10 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="C421" t="s">
-        <v>1304</v>
+        <v>1363</v>
       </c>
       <c r="D421">
         <v>16198</v>
@@ -10257,10 +10524,10 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>863</v>
+        <v>892</v>
       </c>
       <c r="C422" t="s">
-        <v>1305</v>
+        <v>1364</v>
       </c>
       <c r="D422">
         <v>1282</v>
@@ -10271,10 +10538,10 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="C423" t="s">
-        <v>1306</v>
+        <v>1365</v>
       </c>
       <c r="D423">
         <v>74311</v>
@@ -10285,10 +10552,10 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>865</v>
+        <v>894</v>
       </c>
       <c r="C424" t="s">
-        <v>1307</v>
+        <v>1366</v>
       </c>
       <c r="D424">
         <v>4</v>
@@ -10299,10 +10566,10 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>866</v>
+        <v>895</v>
       </c>
       <c r="C425" t="s">
-        <v>1308</v>
+        <v>1367</v>
       </c>
       <c r="D425">
         <v>100939</v>
@@ -10313,10 +10580,10 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>867</v>
+        <v>896</v>
       </c>
       <c r="C426" t="s">
-        <v>1309</v>
+        <v>1368</v>
       </c>
       <c r="D426">
         <v>417950</v>
@@ -10327,10 +10594,10 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>868</v>
+        <v>897</v>
       </c>
       <c r="C427" t="s">
-        <v>1310</v>
+        <v>1369</v>
       </c>
       <c r="D427">
         <v>64340</v>
@@ -10341,10 +10608,10 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>869</v>
+        <v>898</v>
       </c>
       <c r="C428" t="s">
-        <v>1311</v>
+        <v>1370</v>
       </c>
       <c r="D428">
         <v>341235</v>
@@ -10355,10 +10622,10 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>870</v>
+        <v>899</v>
       </c>
       <c r="C429" t="s">
-        <v>1312</v>
+        <v>1371</v>
       </c>
       <c r="D429">
         <v>1356899</v>
@@ -10369,10 +10636,10 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>871</v>
+        <v>900</v>
       </c>
       <c r="C430" t="s">
-        <v>1313</v>
+        <v>1372</v>
       </c>
       <c r="D430">
         <v>299973</v>
@@ -10383,10 +10650,10 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>872</v>
+        <v>901</v>
       </c>
       <c r="C431" t="s">
-        <v>1314</v>
+        <v>1373</v>
       </c>
       <c r="D431">
         <v>10329</v>
@@ -10397,10 +10664,10 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>873</v>
+        <v>902</v>
       </c>
       <c r="C432" t="s">
-        <v>1315</v>
+        <v>1374</v>
       </c>
       <c r="D432">
         <v>2496698</v>
@@ -10411,10 +10678,10 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
       <c r="C433" t="s">
-        <v>1316</v>
+        <v>1375</v>
       </c>
       <c r="D433">
         <v>12853</v>
@@ -10425,10 +10692,10 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C434" t="s">
-        <v>1317</v>
+        <v>1376</v>
       </c>
       <c r="D434">
         <v>1351763</v>
@@ -10439,10 +10706,10 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="C435" t="s">
-        <v>1318</v>
+        <v>1377</v>
       </c>
       <c r="D435">
         <v>87771</v>
@@ -10453,10 +10720,10 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>877</v>
+        <v>906</v>
       </c>
       <c r="C436" t="s">
-        <v>1319</v>
+        <v>1378</v>
       </c>
       <c r="D436">
         <v>366527</v>
@@ -10467,10 +10734,10 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>878</v>
+        <v>907</v>
       </c>
       <c r="C437" t="s">
-        <v>1320</v>
+        <v>1379</v>
       </c>
       <c r="D437">
         <v>932</v>
@@ -10481,10 +10748,10 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>879</v>
+        <v>908</v>
       </c>
       <c r="C438" t="s">
-        <v>1321</v>
+        <v>1380</v>
       </c>
       <c r="D438">
         <v>10237</v>
@@ -10495,10 +10762,10 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>880</v>
+        <v>909</v>
       </c>
       <c r="C439" t="s">
-        <v>1322</v>
+        <v>1381</v>
       </c>
       <c r="D439">
         <v>2038</v>
@@ -10509,10 +10776,10 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>881</v>
+        <v>910</v>
       </c>
       <c r="C440" t="s">
-        <v>1323</v>
+        <v>1382</v>
       </c>
       <c r="D440">
         <v>194257</v>
@@ -10523,10 +10790,10 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="C441" t="s">
-        <v>1324</v>
+        <v>1383</v>
       </c>
       <c r="D441">
         <v>16526</v>
@@ -10537,10 +10804,10 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>883</v>
+        <v>912</v>
       </c>
       <c r="C442" t="s">
-        <v>1325</v>
+        <v>1384</v>
       </c>
       <c r="D442">
         <v>10453</v>
@@ -10551,13 +10818,433 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>884</v>
+        <v>913</v>
       </c>
       <c r="C443" t="s">
-        <v>1326</v>
+        <v>1385</v>
       </c>
       <c r="D443">
         <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+      <c r="B444" t="s">
+        <v>914</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D444">
+        <v>13288</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+      <c r="B445" t="s">
+        <v>915</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D445">
+        <v>251701</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446" t="s">
+        <v>916</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D446">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447" t="s">
+        <v>917</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D447">
+        <v>159281</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+      <c r="B448" t="s">
+        <v>918</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D448">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" t="s">
+        <v>318</v>
+      </c>
+      <c r="B449" t="s">
+        <v>919</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D449">
+        <v>130057</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" t="s">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>920</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D450">
+        <v>16187</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" t="s">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>921</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D451">
+        <v>7085</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" t="s">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>922</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D452">
+        <v>852720</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" t="s">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>923</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D453">
+        <v>413636</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" t="s">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>924</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D454">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" t="s">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>925</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D455">
+        <v>185964</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" t="s">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>926</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D456">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" t="s">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>927</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D457">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" t="s">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>928</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D458">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" t="s">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>929</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D459">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" t="s">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>930</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D460">
+        <v>6237</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" t="s">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>931</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D461">
+        <v>20191</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" t="s">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>932</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D462">
+        <v>275860</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" t="s">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>933</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D463">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" t="s">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>934</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D464">
+        <v>154846</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" t="s">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>935</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D465">
+        <v>647315</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" t="s">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>936</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D466">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" t="s">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>937</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D467">
+        <v>347712</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" t="s">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>938</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D468">
+        <v>78965</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" t="s">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>939</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D469">
+        <v>66021</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" t="s">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>940</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D470">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" t="s">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>941</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D471">
+        <v>49175</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" t="s">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>942</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D472">
+        <v>16592</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" t="s">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>943</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D473">
+        <v>14761</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1595">
   <si>
     <t>Date</t>
   </si>
@@ -1432,6 +1432,183 @@
     <t>2026-02-18 12:01:16</t>
   </si>
   <si>
+    <t>2026-02-17 15:40:54</t>
+  </si>
+  <si>
+    <t>2026-02-14 16:17:52</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:04:17</t>
+  </si>
+  <si>
+    <t>2026-02-16 09:20:41</t>
+  </si>
+  <si>
+    <t>2026-02-17 09:34:54</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:27:03</t>
+  </si>
+  <si>
+    <t>2026-02-18 09:11:09</t>
+  </si>
+  <si>
+    <t>2026-02-18 02:53:32</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:00:55</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:59:55</t>
+  </si>
+  <si>
+    <t>2026-02-19 02:05:41</t>
+  </si>
+  <si>
+    <t>2026-02-19 01:05:54</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:52:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:58:29</t>
+  </si>
+  <si>
+    <t>2026-02-19 02:10:05</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:07:54</t>
+  </si>
+  <si>
+    <t>2026-02-19 01:51:41</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:55:18</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:28:25</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:39:10</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:15:40</t>
+  </si>
+  <si>
+    <t>2026-02-19 02:05:50</t>
+  </si>
+  <si>
+    <t>2026-02-17 15:57:07</t>
+  </si>
+  <si>
+    <t>2026-02-02 16:07:52</t>
+  </si>
+  <si>
+    <t>2026-02-19 01:03:55</t>
+  </si>
+  <si>
+    <t>2026-02-14 05:51:37</t>
+  </si>
+  <si>
+    <t>2026-02-18 09:11:23</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:58:39</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:48:40</t>
+  </si>
+  <si>
+    <t>2026-02-18 23:09:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:02:46</t>
+  </si>
+  <si>
+    <t>2026-02-03 14:49:28</t>
+  </si>
+  <si>
+    <t>2026-02-17 12:22:37</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:17:09</t>
+  </si>
+  <si>
+    <t>2026-02-19 02:16:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:22:41</t>
+  </si>
+  <si>
+    <t>2026-02-18 09:44:57</t>
+  </si>
+  <si>
+    <t>2026-02-19 02:04:36</t>
+  </si>
+  <si>
+    <t>2026-02-19 02:17:17</t>
+  </si>
+  <si>
+    <t>2026-02-14 15:10:19</t>
+  </si>
+  <si>
+    <t>2026-02-17 14:21:04</t>
+  </si>
+  <si>
+    <t>2026-02-18 08:14:31</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:25:44</t>
+  </si>
+  <si>
+    <t>2026-02-17 16:13:30</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:42:13</t>
+  </si>
+  <si>
+    <t>2026-02-10 20:32:24</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:30:18</t>
+  </si>
+  <si>
+    <t>2026-02-18 10:36:28</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:38:35</t>
+  </si>
+  <si>
+    <t>2026-02-03 09:17:31</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:58:52</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:21:31</t>
+  </si>
+  <si>
+    <t>2026-02-18 12:58:50</t>
+  </si>
+  <si>
+    <t>2026-02-19 01:29:40</t>
+  </si>
+  <si>
+    <t>2026-02-19 01:17:47</t>
+  </si>
+  <si>
+    <t>2026-02-18 09:59:16</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:27:23</t>
+  </si>
+  <si>
+    <t>2026-02-17 08:20:35</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:35:21</t>
+  </si>
+  <si>
     <t>237671823369</t>
   </si>
   <si>
@@ -2848,6 +3025,186 @@
     <t>237676293369</t>
   </si>
   <si>
+    <t>237653258010</t>
+  </si>
+  <si>
+    <t>237682738404</t>
+  </si>
+  <si>
+    <t>237683396173</t>
+  </si>
+  <si>
+    <t>237674103207</t>
+  </si>
+  <si>
+    <t>237682370328</t>
+  </si>
+  <si>
+    <t>237671838460</t>
+  </si>
+  <si>
+    <t>237654171302</t>
+  </si>
+  <si>
+    <t>237678719959</t>
+  </si>
+  <si>
+    <t>237683555873</t>
+  </si>
+  <si>
+    <t>237674727945</t>
+  </si>
+  <si>
+    <t>237682370356</t>
+  </si>
+  <si>
+    <t>237653375955</t>
+  </si>
+  <si>
+    <t>237675627123</t>
+  </si>
+  <si>
+    <t>237679321715</t>
+  </si>
+  <si>
+    <t>237679732169</t>
+  </si>
+  <si>
+    <t>237681603496</t>
+  </si>
+  <si>
+    <t>237677567788</t>
+  </si>
+  <si>
+    <t>237674214341</t>
+  </si>
+  <si>
+    <t>237671386898</t>
+  </si>
+  <si>
+    <t>237680004960</t>
+  </si>
+  <si>
+    <t>237672582428</t>
+  </si>
+  <si>
+    <t>237679087694</t>
+  </si>
+  <si>
+    <t>237677783799</t>
+  </si>
+  <si>
+    <t>237681179057</t>
+  </si>
+  <si>
+    <t>237675986754</t>
+  </si>
+  <si>
+    <t>237683407543</t>
+  </si>
+  <si>
+    <t>237677311690</t>
+  </si>
+  <si>
+    <t>237671159889</t>
+  </si>
+  <si>
+    <t>237680566998</t>
+  </si>
+  <si>
+    <t>237654316241</t>
+  </si>
+  <si>
+    <t>237676538908</t>
+  </si>
+  <si>
+    <t>237678814634</t>
+  </si>
+  <si>
+    <t>237679590004</t>
+  </si>
+  <si>
+    <t>237672919844</t>
+  </si>
+  <si>
+    <t>237681589841</t>
+  </si>
+  <si>
+    <t>237681560606</t>
+  </si>
+  <si>
+    <t>237683526711</t>
+  </si>
+  <si>
+    <t>237670164761</t>
+  </si>
+  <si>
+    <t>237681665067</t>
+  </si>
+  <si>
+    <t>237681112615</t>
+  </si>
+  <si>
+    <t>237680072038</t>
+  </si>
+  <si>
+    <t>237680719340</t>
+  </si>
+  <si>
+    <t>237674899381</t>
+  </si>
+  <si>
+    <t>237680834896</t>
+  </si>
+  <si>
+    <t>237651927975</t>
+  </si>
+  <si>
+    <t>237651995258</t>
+  </si>
+  <si>
+    <t>237674929391</t>
+  </si>
+  <si>
+    <t>237652712222</t>
+  </si>
+  <si>
+    <t>237682898361</t>
+  </si>
+  <si>
+    <t>237680242979</t>
+  </si>
+  <si>
+    <t>237681180534</t>
+  </si>
+  <si>
+    <t>237681608855</t>
+  </si>
+  <si>
+    <t>237671852818</t>
+  </si>
+  <si>
+    <t>237676840777</t>
+  </si>
+  <si>
+    <t>237651842616</t>
+  </si>
+  <si>
+    <t>237671493334</t>
+  </si>
+  <si>
+    <t>237654204327</t>
+  </si>
+  <si>
+    <t>237683551256</t>
+  </si>
+  <si>
+    <t>237681384820</t>
+  </si>
+  <si>
+    <t>237676696273</t>
+  </si>
+  <si>
     <t>MFS ENTREE COLLEGE MALANGUE</t>
   </si>
   <si>
@@ -4262,6 +4619,186 @@
   </si>
   <si>
     <t>SAFEH ASHERI SAFEH SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>DOUMTCHOUP BERNADETTE GRAPHICS SYSTEM</t>
+  </si>
+  <si>
+    <t>KEKEDI WILFRIED LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>DAME ROBERT BRYAN BUSNESCO BUSNESCO</t>
+  </si>
+  <si>
+    <t>MFS SIM PROVISOIRE 09</t>
+  </si>
+  <si>
+    <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ANGELINA ADA AGWUNEDU_ NEW DREAM COMMUNICATION</t>
+  </si>
+  <si>
+    <t>SIANTCHEU JACQUELINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+  </si>
+  <si>
+    <t>DJUIWO TCHUISSEU FABIOLA ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MFS AM PALAIS NDOKOTTI</t>
+  </si>
+  <si>
+    <t>NICAISE RACHEL BONDTOUM</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE BOKO 4</t>
+  </si>
+  <si>
+    <t>MEFOTSO EDITHE FLORE LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>HILAIRE EBWANGA FOTSO</t>
+  </si>
+  <si>
+    <t>MAGNI YANSI DORIS ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NGOKAP TONKAM EMILLIE NADEGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>GILBERT BENENEGNE</t>
+  </si>
+  <si>
+    <t>LINE STEPHANIE FOSSI DJUAKA</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL ASAH EMEKA EUGENIE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL KOUMTOUNJI JEANNE CHANTAL</t>
+  </si>
+  <si>
+    <t>ABBA MOHAMADOU</t>
+  </si>
+  <si>
+    <t>BELOMP YOAN ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>RODRIGUE MOREL NJIKE</t>
+  </si>
+  <si>
+    <t>VIVIANE MANTO DZOUA</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS DJASSANG SATCHOU YMA LEVIETTE</t>
+  </si>
+  <si>
+    <t>DILANE STEVE NGUETSOP</t>
+  </si>
+  <si>
+    <t>DIALLO MAMADOU MADIOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ONYEKA CONNECTION NWBDA CBOX R0  Mbanjono Bernice</t>
+  </si>
+  <si>
+    <t>MELI SONNANG SANDRINE LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>DIQUINS SAHA TAKUETE</t>
+  </si>
+  <si>
+    <t>MAGHAH GLOBAL DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>BIDIAS MARTHE SYL GOMBITANG A</t>
+  </si>
+  <si>
+    <t>NZEUTOUO TOUNO GWLADYS KAMILAH CONNECTION</t>
+  </si>
+  <si>
+    <t>solange leudahi ngono</t>
+  </si>
+  <si>
+    <t>NGUENE YVETTE ERNESTINE LTDLA_POLAS_BTQ_NEW BELL BASSA</t>
+  </si>
+  <si>
+    <t>ASOBILI BONAR NDONGAKWE ONYEKA CONNECTION</t>
+  </si>
+  <si>
+    <t>MIMI MADELEINE YONKEU TAMEN</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT MAYEMBEU KAMGUIA TATIANA CAROLE</t>
+  </si>
+  <si>
+    <t>SOCOBIB SARL _ CASH MANAGEMENT 31</t>
+  </si>
+  <si>
+    <t>JOSEPHINE NABE ANJIAH</t>
+  </si>
+  <si>
+    <t>ADELAIDE GAMGO BOYOM</t>
+  </si>
+  <si>
+    <t>MARCELLE DIANE MANGOUA NGUISSI</t>
+  </si>
+  <si>
+    <t>-CLEDELAND UNIVERSAL CONSULTING ASSISTING SERVICE _CUCAS LTD NEBA AFUUNWI AMBE</t>
+  </si>
+  <si>
+    <t>KAMGA FRANCK LAUKRICH STYLE. COM</t>
+  </si>
+  <si>
+    <t>MBONWU DIVINE LEKONKENG ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>BILI TATIANE METSADJIO</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R0 MABAH LONKENG CHRISTELLE</t>
+  </si>
+  <si>
+    <t>ngambi esther helene ninaisse LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL MBIAGA FEUMBA ARNAOLD ULRICH</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL KEME MPACKO MARIUS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 BEA PAUL</t>
+  </si>
+  <si>
+    <t>TEUFACK SUZANNE GLADISSE STE ALPHA COMMUNICATION</t>
+  </si>
+  <si>
+    <t>ETP109 ETP</t>
+  </si>
+  <si>
+    <t>ANIKWANG BLESSING MUSI COMMUNICATION WORLD</t>
+  </si>
+  <si>
+    <t>ONGUENE DZOMO SOPHIE SYLVIE STYLE. COM</t>
+  </si>
+  <si>
+    <t>DJIMELI FOFIE ELIE FRANCK ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MEGANG HELENE INASCO MOUNGO</t>
+  </si>
+  <si>
+    <t>KWENYI CLOUVIS ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>MFS SC NDOKOTTI</t>
   </si>
 </sst>
 </file>
@@ -4619,7 +5156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D473"/>
+  <dimension ref="A1:D533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4644,10 +5181,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="C2" t="s">
-        <v>944</v>
+        <v>1063</v>
       </c>
       <c r="D2">
         <v>30095</v>
@@ -4658,10 +5195,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="C3" t="s">
-        <v>945</v>
+        <v>1064</v>
       </c>
       <c r="D3">
         <v>36595</v>
@@ -4672,10 +5209,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="C4" t="s">
-        <v>946</v>
+        <v>1065</v>
       </c>
       <c r="D4">
         <v>1042551</v>
@@ -4686,10 +5223,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="C5" t="s">
-        <v>947</v>
+        <v>1066</v>
       </c>
       <c r="D5">
         <v>12973</v>
@@ -4700,10 +5237,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="C6" t="s">
-        <v>948</v>
+        <v>1067</v>
       </c>
       <c r="D6">
         <v>878</v>
@@ -4714,10 +5251,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="C7" t="s">
-        <v>949</v>
+        <v>1068</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -4728,10 +5265,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="C8" t="s">
-        <v>950</v>
+        <v>1069</v>
       </c>
       <c r="D8">
         <v>215254</v>
@@ -4742,10 +5279,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="C9" t="s">
-        <v>951</v>
+        <v>1070</v>
       </c>
       <c r="D9">
         <v>190023</v>
@@ -4756,10 +5293,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="C10" t="s">
-        <v>952</v>
+        <v>1071</v>
       </c>
       <c r="D10">
         <v>6498</v>
@@ -4770,10 +5307,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="C11" t="s">
-        <v>953</v>
+        <v>1072</v>
       </c>
       <c r="D11">
         <v>98844</v>
@@ -4784,10 +5321,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="C12" t="s">
-        <v>954</v>
+        <v>1073</v>
       </c>
       <c r="D12">
         <v>86556</v>
@@ -4798,10 +5335,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="C13" t="s">
-        <v>955</v>
+        <v>1074</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -4812,10 +5349,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="C14" t="s">
-        <v>956</v>
+        <v>1075</v>
       </c>
       <c r="D14">
         <v>9594</v>
@@ -4826,10 +5363,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="C15" t="s">
-        <v>957</v>
+        <v>1076</v>
       </c>
       <c r="D15">
         <v>262</v>
@@ -4840,10 +5377,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="C16" t="s">
-        <v>958</v>
+        <v>1077</v>
       </c>
       <c r="D16">
         <v>517168</v>
@@ -4854,10 +5391,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="C17" t="s">
-        <v>959</v>
+        <v>1078</v>
       </c>
       <c r="D17">
         <v>96868</v>
@@ -4868,10 +5405,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="C18" t="s">
-        <v>960</v>
+        <v>1079</v>
       </c>
       <c r="D18">
         <v>109492</v>
@@ -4882,10 +5419,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
-        <v>961</v>
+        <v>1080</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -4896,10 +5433,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="C20" t="s">
-        <v>962</v>
+        <v>1081</v>
       </c>
       <c r="D20">
         <v>44076</v>
@@ -4910,10 +5447,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="C21" t="s">
-        <v>963</v>
+        <v>1082</v>
       </c>
       <c r="D21">
         <v>21000</v>
@@ -4924,10 +5461,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="C22" t="s">
-        <v>964</v>
+        <v>1083</v>
       </c>
       <c r="D22">
         <v>94556</v>
@@ -4938,10 +5475,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="C23" t="s">
-        <v>965</v>
+        <v>1084</v>
       </c>
       <c r="D23">
         <v>5345</v>
@@ -4952,10 +5489,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="C24" t="s">
-        <v>966</v>
+        <v>1085</v>
       </c>
       <c r="D24">
         <v>8858</v>
@@ -4966,10 +5503,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="C25" t="s">
-        <v>967</v>
+        <v>1086</v>
       </c>
       <c r="D25">
         <v>264112</v>
@@ -4980,10 +5517,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="C26" t="s">
-        <v>968</v>
+        <v>1087</v>
       </c>
       <c r="D26">
         <v>55699</v>
@@ -4994,10 +5531,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="C27" t="s">
-        <v>969</v>
+        <v>1088</v>
       </c>
       <c r="D27">
         <v>56245</v>
@@ -5008,10 +5545,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="C28" t="s">
-        <v>970</v>
+        <v>1089</v>
       </c>
       <c r="D28">
         <v>4751</v>
@@ -5022,10 +5559,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="C29" t="s">
-        <v>971</v>
+        <v>1090</v>
       </c>
       <c r="D29">
         <v>1873</v>
@@ -5036,10 +5573,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="C30" t="s">
-        <v>972</v>
+        <v>1091</v>
       </c>
       <c r="D30">
         <v>333218</v>
@@ -5050,10 +5587,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="C31" t="s">
-        <v>973</v>
+        <v>1092</v>
       </c>
       <c r="D31">
         <v>6385129</v>
@@ -5064,10 +5601,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="C32" t="s">
-        <v>974</v>
+        <v>1093</v>
       </c>
       <c r="D32">
         <v>13377</v>
@@ -5078,10 +5615,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="C33" t="s">
-        <v>975</v>
+        <v>1094</v>
       </c>
       <c r="D33">
         <v>6729</v>
@@ -5092,10 +5629,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="C34" t="s">
-        <v>976</v>
+        <v>1095</v>
       </c>
       <c r="D34">
         <v>864</v>
@@ -5106,10 +5643,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="C35" t="s">
-        <v>977</v>
+        <v>1096</v>
       </c>
       <c r="D35">
         <v>472353</v>
@@ -5120,10 +5657,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="C36" t="s">
-        <v>978</v>
+        <v>1097</v>
       </c>
       <c r="D36">
         <v>23</v>
@@ -5134,10 +5671,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="C37" t="s">
-        <v>979</v>
+        <v>1098</v>
       </c>
       <c r="D37">
         <v>24386</v>
@@ -5148,10 +5685,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="C38" t="s">
-        <v>980</v>
+        <v>1099</v>
       </c>
       <c r="D38">
         <v>44600</v>
@@ -5162,10 +5699,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="C39" t="s">
-        <v>981</v>
+        <v>1100</v>
       </c>
       <c r="D39">
         <v>2042</v>
@@ -5176,10 +5713,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="C40" t="s">
-        <v>982</v>
+        <v>1101</v>
       </c>
       <c r="D40">
         <v>109659</v>
@@ -5190,10 +5727,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="C41" t="s">
-        <v>983</v>
+        <v>1102</v>
       </c>
       <c r="D41">
         <v>2977</v>
@@ -5204,10 +5741,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="C42" t="s">
-        <v>984</v>
+        <v>1103</v>
       </c>
       <c r="D42">
         <v>843587</v>
@@ -5218,10 +5755,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="C43" t="s">
-        <v>985</v>
+        <v>1104</v>
       </c>
       <c r="D43">
         <v>206473</v>
@@ -5232,10 +5769,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="C44" t="s">
-        <v>986</v>
+        <v>1105</v>
       </c>
       <c r="D44">
         <v>13531</v>
@@ -5246,10 +5783,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="C45" t="s">
-        <v>987</v>
+        <v>1106</v>
       </c>
       <c r="D45">
         <v>79737</v>
@@ -5260,10 +5797,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="C46" t="s">
-        <v>988</v>
+        <v>1107</v>
       </c>
       <c r="D46">
         <v>11434</v>
@@ -5274,10 +5811,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="C47" t="s">
-        <v>989</v>
+        <v>1108</v>
       </c>
       <c r="D47">
         <v>501</v>
@@ -5288,10 +5825,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="C48" t="s">
-        <v>990</v>
+        <v>1109</v>
       </c>
       <c r="D48">
         <v>380</v>
@@ -5302,10 +5839,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="C49" t="s">
-        <v>991</v>
+        <v>1110</v>
       </c>
       <c r="D49">
         <v>43362</v>
@@ -5316,10 +5853,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="C50" t="s">
-        <v>992</v>
+        <v>1111</v>
       </c>
       <c r="D50">
         <v>708340</v>
@@ -5330,10 +5867,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="C51" t="s">
-        <v>993</v>
+        <v>1112</v>
       </c>
       <c r="D51">
         <v>3593</v>
@@ -5344,10 +5881,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="C52" t="s">
-        <v>994</v>
+        <v>1113</v>
       </c>
       <c r="D52">
         <v>1879475</v>
@@ -5358,10 +5895,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="C53" t="s">
-        <v>995</v>
+        <v>1114</v>
       </c>
       <c r="D53">
         <v>3784</v>
@@ -5372,10 +5909,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="C54" t="s">
-        <v>996</v>
+        <v>1115</v>
       </c>
       <c r="D54">
         <v>70172</v>
@@ -5386,10 +5923,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="C55" t="s">
-        <v>997</v>
+        <v>1116</v>
       </c>
       <c r="D55">
         <v>148</v>
@@ -5400,10 +5937,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="C56" t="s">
-        <v>998</v>
+        <v>1117</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5414,10 +5951,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="C57" t="s">
-        <v>999</v>
+        <v>1118</v>
       </c>
       <c r="D57">
         <v>97484</v>
@@ -5428,10 +5965,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="C58" t="s">
-        <v>1000</v>
+        <v>1119</v>
       </c>
       <c r="D58">
         <v>7927</v>
@@ -5442,10 +5979,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="C59" t="s">
-        <v>1001</v>
+        <v>1120</v>
       </c>
       <c r="D59">
         <v>61762</v>
@@ -5456,10 +5993,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="C60" t="s">
-        <v>1002</v>
+        <v>1121</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -5470,10 +6007,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="C61" t="s">
-        <v>1003</v>
+        <v>1122</v>
       </c>
       <c r="D61">
         <v>12292</v>
@@ -5484,10 +6021,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="C62" t="s">
-        <v>1004</v>
+        <v>1123</v>
       </c>
       <c r="D62">
         <v>366231</v>
@@ -5498,10 +6035,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="C63" t="s">
-        <v>1005</v>
+        <v>1124</v>
       </c>
       <c r="D63">
         <v>20358</v>
@@ -5512,10 +6049,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="C64" t="s">
-        <v>1006</v>
+        <v>1125</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -5526,10 +6063,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="C65" t="s">
-        <v>1007</v>
+        <v>1126</v>
       </c>
       <c r="D65">
         <v>29507</v>
@@ -5540,10 +6077,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="C66" t="s">
-        <v>1008</v>
+        <v>1127</v>
       </c>
       <c r="D66">
         <v>71538</v>
@@ -5554,10 +6091,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="C67" t="s">
-        <v>1009</v>
+        <v>1128</v>
       </c>
       <c r="D67">
         <v>438901</v>
@@ -5568,10 +6105,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="C68" t="s">
-        <v>1010</v>
+        <v>1129</v>
       </c>
       <c r="D68">
         <v>15525</v>
@@ -5582,10 +6119,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="C69" t="s">
-        <v>1011</v>
+        <v>1130</v>
       </c>
       <c r="D69">
         <v>792132</v>
@@ -5596,10 +6133,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="C70" t="s">
-        <v>1012</v>
+        <v>1131</v>
       </c>
       <c r="D70">
         <v>524523</v>
@@ -5610,10 +6147,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="C71" t="s">
-        <v>1013</v>
+        <v>1132</v>
       </c>
       <c r="D71">
         <v>866</v>
@@ -5624,10 +6161,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="C72" t="s">
-        <v>1014</v>
+        <v>1133</v>
       </c>
       <c r="D72">
         <v>101711</v>
@@ -5638,10 +6175,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
       <c r="C73" t="s">
-        <v>1015</v>
+        <v>1134</v>
       </c>
       <c r="D73">
         <v>6178</v>
@@ -5652,10 +6189,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="C74" t="s">
-        <v>1016</v>
+        <v>1135</v>
       </c>
       <c r="D74">
         <v>1269273</v>
@@ -5666,10 +6203,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="C75" t="s">
-        <v>1017</v>
+        <v>1136</v>
       </c>
       <c r="D75">
         <v>20668</v>
@@ -5680,10 +6217,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>546</v>
+        <v>605</v>
       </c>
       <c r="C76" t="s">
-        <v>1018</v>
+        <v>1137</v>
       </c>
       <c r="D76">
         <v>40652</v>
@@ -5694,10 +6231,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="C77" t="s">
-        <v>1019</v>
+        <v>1138</v>
       </c>
       <c r="D77">
         <v>21475</v>
@@ -5708,10 +6245,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="C78" t="s">
-        <v>1020</v>
+        <v>1139</v>
       </c>
       <c r="D78">
         <v>5015499</v>
@@ -5722,10 +6259,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="C79" t="s">
-        <v>1021</v>
+        <v>1140</v>
       </c>
       <c r="D79">
         <v>4249</v>
@@ -5736,10 +6273,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
       <c r="C80" t="s">
-        <v>1022</v>
+        <v>1141</v>
       </c>
       <c r="D80">
         <v>462</v>
@@ -5750,10 +6287,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>551</v>
+        <v>610</v>
       </c>
       <c r="C81" t="s">
-        <v>1023</v>
+        <v>1142</v>
       </c>
       <c r="D81">
         <v>3510</v>
@@ -5764,10 +6301,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>552</v>
+        <v>611</v>
       </c>
       <c r="C82" t="s">
-        <v>1024</v>
+        <v>1143</v>
       </c>
       <c r="D82">
         <v>3076</v>
@@ -5778,10 +6315,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>553</v>
+        <v>612</v>
       </c>
       <c r="C83" t="s">
-        <v>1025</v>
+        <v>1144</v>
       </c>
       <c r="D83">
         <v>5861</v>
@@ -5792,10 +6329,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>554</v>
+        <v>613</v>
       </c>
       <c r="C84" t="s">
-        <v>1026</v>
+        <v>1145</v>
       </c>
       <c r="D84">
         <v>221</v>
@@ -5806,10 +6343,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="C85" t="s">
-        <v>1027</v>
+        <v>1146</v>
       </c>
       <c r="D85">
         <v>63743</v>
@@ -5820,10 +6357,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>556</v>
+        <v>615</v>
       </c>
       <c r="C86" t="s">
-        <v>1028</v>
+        <v>1147</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5834,10 +6371,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>557</v>
+        <v>616</v>
       </c>
       <c r="C87" t="s">
-        <v>1029</v>
+        <v>1148</v>
       </c>
       <c r="D87">
         <v>36813</v>
@@ -5848,10 +6385,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="C88" t="s">
-        <v>1030</v>
+        <v>1149</v>
       </c>
       <c r="D88">
         <v>513</v>
@@ -5862,10 +6399,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="C89" t="s">
-        <v>1031</v>
+        <v>1150</v>
       </c>
       <c r="D89">
         <v>80118</v>
@@ -5876,10 +6413,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>560</v>
+        <v>619</v>
       </c>
       <c r="C90" t="s">
-        <v>1032</v>
+        <v>1151</v>
       </c>
       <c r="D90">
         <v>2940201</v>
@@ -5890,10 +6427,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>561</v>
+        <v>620</v>
       </c>
       <c r="C91" t="s">
-        <v>1033</v>
+        <v>1152</v>
       </c>
       <c r="D91">
         <v>2339</v>
@@ -5904,10 +6441,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>562</v>
+        <v>621</v>
       </c>
       <c r="C92" t="s">
-        <v>1034</v>
+        <v>1153</v>
       </c>
       <c r="D92">
         <v>4075</v>
@@ -5918,10 +6455,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
       <c r="C93" t="s">
-        <v>1035</v>
+        <v>1154</v>
       </c>
       <c r="D93">
         <v>1013</v>
@@ -5932,10 +6469,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>564</v>
+        <v>623</v>
       </c>
       <c r="C94" t="s">
-        <v>1036</v>
+        <v>1155</v>
       </c>
       <c r="D94">
         <v>68166</v>
@@ -5946,10 +6483,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>565</v>
+        <v>624</v>
       </c>
       <c r="C95" t="s">
-        <v>1037</v>
+        <v>1156</v>
       </c>
       <c r="D95">
         <v>1288</v>
@@ -5960,10 +6497,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>566</v>
+        <v>625</v>
       </c>
       <c r="C96" t="s">
-        <v>1038</v>
+        <v>1157</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5974,10 +6511,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
       <c r="C97" t="s">
-        <v>1039</v>
+        <v>1158</v>
       </c>
       <c r="D97">
         <v>59398</v>
@@ -5988,10 +6525,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
       <c r="C98" t="s">
-        <v>1040</v>
+        <v>1159</v>
       </c>
       <c r="D98">
         <v>7418</v>
@@ -6002,10 +6539,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>569</v>
+        <v>628</v>
       </c>
       <c r="C99" t="s">
-        <v>1041</v>
+        <v>1160</v>
       </c>
       <c r="D99">
         <v>38799</v>
@@ -6016,10 +6553,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>570</v>
+        <v>629</v>
       </c>
       <c r="C100" t="s">
-        <v>1042</v>
+        <v>1161</v>
       </c>
       <c r="D100">
         <v>446015</v>
@@ -6030,10 +6567,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
       <c r="C101" t="s">
-        <v>1043</v>
+        <v>1162</v>
       </c>
       <c r="D101">
         <v>32</v>
@@ -6044,10 +6581,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>572</v>
+        <v>631</v>
       </c>
       <c r="C102" t="s">
-        <v>1044</v>
+        <v>1163</v>
       </c>
       <c r="D102">
         <v>70556</v>
@@ -6058,10 +6595,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>573</v>
+        <v>632</v>
       </c>
       <c r="C103" t="s">
-        <v>1045</v>
+        <v>1164</v>
       </c>
       <c r="D103">
         <v>290990</v>
@@ -6072,10 +6609,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>574</v>
+        <v>633</v>
       </c>
       <c r="C104" t="s">
-        <v>1046</v>
+        <v>1165</v>
       </c>
       <c r="D104">
         <v>24133</v>
@@ -6086,10 +6623,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>575</v>
+        <v>634</v>
       </c>
       <c r="C105" t="s">
-        <v>1047</v>
+        <v>1166</v>
       </c>
       <c r="D105">
         <v>7991</v>
@@ -6100,10 +6637,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>576</v>
+        <v>635</v>
       </c>
       <c r="C106" t="s">
-        <v>1048</v>
+        <v>1167</v>
       </c>
       <c r="D106">
         <v>54595</v>
@@ -6114,10 +6651,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>577</v>
+        <v>636</v>
       </c>
       <c r="C107" t="s">
-        <v>1049</v>
+        <v>1168</v>
       </c>
       <c r="D107">
         <v>23</v>
@@ -6128,10 +6665,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>578</v>
+        <v>637</v>
       </c>
       <c r="C108" t="s">
-        <v>1050</v>
+        <v>1169</v>
       </c>
       <c r="D108">
         <v>6025929</v>
@@ -6142,10 +6679,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>579</v>
+        <v>638</v>
       </c>
       <c r="C109" t="s">
-        <v>1051</v>
+        <v>1170</v>
       </c>
       <c r="D109">
         <v>17416</v>
@@ -6156,10 +6693,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>580</v>
+        <v>639</v>
       </c>
       <c r="C110" t="s">
-        <v>1052</v>
+        <v>1171</v>
       </c>
       <c r="D110">
         <v>59923</v>
@@ -6170,10 +6707,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>581</v>
+        <v>640</v>
       </c>
       <c r="C111" t="s">
-        <v>1053</v>
+        <v>1172</v>
       </c>
       <c r="D111">
         <v>9700</v>
@@ -6184,10 +6721,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>582</v>
+        <v>641</v>
       </c>
       <c r="C112" t="s">
-        <v>1054</v>
+        <v>1173</v>
       </c>
       <c r="D112">
         <v>668234</v>
@@ -6198,10 +6735,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>583</v>
+        <v>642</v>
       </c>
       <c r="C113" t="s">
-        <v>1055</v>
+        <v>1174</v>
       </c>
       <c r="D113">
         <v>141</v>
@@ -6212,10 +6749,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>584</v>
+        <v>643</v>
       </c>
       <c r="C114" t="s">
-        <v>1056</v>
+        <v>1175</v>
       </c>
       <c r="D114">
         <v>134935</v>
@@ -6226,10 +6763,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>585</v>
+        <v>644</v>
       </c>
       <c r="C115" t="s">
-        <v>1057</v>
+        <v>1176</v>
       </c>
       <c r="D115">
         <v>11600</v>
@@ -6240,10 +6777,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>586</v>
+        <v>645</v>
       </c>
       <c r="C116" t="s">
-        <v>1058</v>
+        <v>1177</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -6254,10 +6791,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>587</v>
+        <v>646</v>
       </c>
       <c r="C117" t="s">
-        <v>1059</v>
+        <v>1178</v>
       </c>
       <c r="D117">
         <v>500214</v>
@@ -6268,10 +6805,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>588</v>
+        <v>647</v>
       </c>
       <c r="C118" t="s">
-        <v>1060</v>
+        <v>1179</v>
       </c>
       <c r="D118">
         <v>179255</v>
@@ -6282,10 +6819,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>589</v>
+        <v>648</v>
       </c>
       <c r="C119" t="s">
-        <v>1061</v>
+        <v>1180</v>
       </c>
       <c r="D119">
         <v>616178</v>
@@ -6296,10 +6833,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>590</v>
+        <v>649</v>
       </c>
       <c r="C120" t="s">
-        <v>1062</v>
+        <v>1181</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -6310,10 +6847,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>591</v>
+        <v>650</v>
       </c>
       <c r="C121" t="s">
-        <v>1063</v>
+        <v>1182</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -6324,10 +6861,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>592</v>
+        <v>651</v>
       </c>
       <c r="C122" t="s">
-        <v>1064</v>
+        <v>1183</v>
       </c>
       <c r="D122">
         <v>948473</v>
@@ -6338,10 +6875,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>593</v>
+        <v>652</v>
       </c>
       <c r="C123" t="s">
-        <v>1065</v>
+        <v>1184</v>
       </c>
       <c r="D123">
         <v>141336</v>
@@ -6352,10 +6889,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>594</v>
+        <v>653</v>
       </c>
       <c r="C124" t="s">
-        <v>1066</v>
+        <v>1185</v>
       </c>
       <c r="D124">
         <v>31942</v>
@@ -6366,10 +6903,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>595</v>
+        <v>654</v>
       </c>
       <c r="C125" t="s">
-        <v>1067</v>
+        <v>1186</v>
       </c>
       <c r="D125">
         <v>126700</v>
@@ -6380,10 +6917,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>596</v>
+        <v>655</v>
       </c>
       <c r="C126" t="s">
-        <v>1068</v>
+        <v>1187</v>
       </c>
       <c r="D126">
         <v>7184</v>
@@ -6394,10 +6931,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>597</v>
+        <v>656</v>
       </c>
       <c r="C127" t="s">
-        <v>1069</v>
+        <v>1188</v>
       </c>
       <c r="D127">
         <v>62509</v>
@@ -6408,10 +6945,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>598</v>
+        <v>657</v>
       </c>
       <c r="C128" t="s">
-        <v>1070</v>
+        <v>1189</v>
       </c>
       <c r="D128">
         <v>10441</v>
@@ -6422,10 +6959,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>599</v>
+        <v>658</v>
       </c>
       <c r="C129" t="s">
-        <v>1071</v>
+        <v>1190</v>
       </c>
       <c r="D129">
         <v>2922</v>
@@ -6436,10 +6973,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>600</v>
+        <v>659</v>
       </c>
       <c r="C130" t="s">
-        <v>1072</v>
+        <v>1191</v>
       </c>
       <c r="D130">
         <v>108036</v>
@@ -6450,10 +6987,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>601</v>
+        <v>660</v>
       </c>
       <c r="C131" t="s">
-        <v>1073</v>
+        <v>1192</v>
       </c>
       <c r="D131">
         <v>14</v>
@@ -6464,10 +7001,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>602</v>
+        <v>661</v>
       </c>
       <c r="C132" t="s">
-        <v>1074</v>
+        <v>1193</v>
       </c>
       <c r="D132">
         <v>271853</v>
@@ -6478,10 +7015,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>603</v>
+        <v>662</v>
       </c>
       <c r="C133" t="s">
-        <v>1075</v>
+        <v>1194</v>
       </c>
       <c r="D133">
         <v>900184</v>
@@ -6492,10 +7029,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>604</v>
+        <v>663</v>
       </c>
       <c r="C134" t="s">
-        <v>1076</v>
+        <v>1195</v>
       </c>
       <c r="D134">
         <v>6534</v>
@@ -6506,10 +7043,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>605</v>
+        <v>664</v>
       </c>
       <c r="C135" t="s">
-        <v>1077</v>
+        <v>1196</v>
       </c>
       <c r="D135">
         <v>212127</v>
@@ -6520,10 +7057,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>606</v>
+        <v>665</v>
       </c>
       <c r="C136" t="s">
-        <v>1078</v>
+        <v>1197</v>
       </c>
       <c r="D136">
         <v>20562</v>
@@ -6534,10 +7071,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>607</v>
+        <v>666</v>
       </c>
       <c r="C137" t="s">
-        <v>1079</v>
+        <v>1198</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6548,10 +7085,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>608</v>
+        <v>667</v>
       </c>
       <c r="C138" t="s">
-        <v>1080</v>
+        <v>1199</v>
       </c>
       <c r="D138">
         <v>66242</v>
@@ -6562,10 +7099,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>609</v>
+        <v>668</v>
       </c>
       <c r="C139" t="s">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="D139">
         <v>237616</v>
@@ -6576,10 +7113,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>610</v>
+        <v>669</v>
       </c>
       <c r="C140" t="s">
-        <v>1082</v>
+        <v>1201</v>
       </c>
       <c r="D140">
         <v>986</v>
@@ -6590,10 +7127,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>611</v>
+        <v>670</v>
       </c>
       <c r="C141" t="s">
-        <v>1083</v>
+        <v>1202</v>
       </c>
       <c r="D141">
         <v>525</v>
@@ -6604,10 +7141,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>612</v>
+        <v>671</v>
       </c>
       <c r="C142" t="s">
-        <v>1084</v>
+        <v>1203</v>
       </c>
       <c r="D142">
         <v>192476</v>
@@ -6618,10 +7155,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>613</v>
+        <v>672</v>
       </c>
       <c r="C143" t="s">
-        <v>1085</v>
+        <v>1204</v>
       </c>
       <c r="D143">
         <v>2179</v>
@@ -6632,10 +7169,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>614</v>
+        <v>673</v>
       </c>
       <c r="C144" t="s">
-        <v>1086</v>
+        <v>1205</v>
       </c>
       <c r="D144">
         <v>23601</v>
@@ -6646,10 +7183,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>615</v>
+        <v>674</v>
       </c>
       <c r="C145" t="s">
-        <v>1087</v>
+        <v>1206</v>
       </c>
       <c r="D145">
         <v>2279</v>
@@ -6660,10 +7197,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>616</v>
+        <v>675</v>
       </c>
       <c r="C146" t="s">
-        <v>1088</v>
+        <v>1207</v>
       </c>
       <c r="D146">
         <v>35332</v>
@@ -6674,10 +7211,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>617</v>
+        <v>676</v>
       </c>
       <c r="C147" t="s">
-        <v>1089</v>
+        <v>1208</v>
       </c>
       <c r="D147">
         <v>224</v>
@@ -6688,10 +7225,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>618</v>
+        <v>677</v>
       </c>
       <c r="C148" t="s">
-        <v>1090</v>
+        <v>1209</v>
       </c>
       <c r="D148">
         <v>135162</v>
@@ -6702,10 +7239,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>619</v>
+        <v>678</v>
       </c>
       <c r="C149" t="s">
-        <v>1091</v>
+        <v>1210</v>
       </c>
       <c r="D149">
         <v>2818</v>
@@ -6716,10 +7253,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>620</v>
+        <v>679</v>
       </c>
       <c r="C150" t="s">
-        <v>1092</v>
+        <v>1211</v>
       </c>
       <c r="D150">
         <v>6792</v>
@@ -6730,10 +7267,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>621</v>
+        <v>680</v>
       </c>
       <c r="C151" t="s">
-        <v>1093</v>
+        <v>1212</v>
       </c>
       <c r="D151">
         <v>23538</v>
@@ -6744,10 +7281,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>622</v>
+        <v>681</v>
       </c>
       <c r="C152" t="s">
-        <v>1094</v>
+        <v>1213</v>
       </c>
       <c r="D152">
         <v>2635</v>
@@ -6758,10 +7295,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>623</v>
+        <v>682</v>
       </c>
       <c r="C153" t="s">
-        <v>1095</v>
+        <v>1214</v>
       </c>
       <c r="D153">
         <v>3020</v>
@@ -6772,10 +7309,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>624</v>
+        <v>683</v>
       </c>
       <c r="C154" t="s">
-        <v>1096</v>
+        <v>1215</v>
       </c>
       <c r="D154">
         <v>85937</v>
@@ -6786,10 +7323,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>625</v>
+        <v>684</v>
       </c>
       <c r="C155" t="s">
-        <v>1097</v>
+        <v>1216</v>
       </c>
       <c r="D155">
         <v>1106</v>
@@ -6800,10 +7337,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>626</v>
+        <v>685</v>
       </c>
       <c r="C156" t="s">
-        <v>1098</v>
+        <v>1217</v>
       </c>
       <c r="D156">
         <v>288689</v>
@@ -6814,10 +7351,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>627</v>
+        <v>686</v>
       </c>
       <c r="C157" t="s">
-        <v>1099</v>
+        <v>1218</v>
       </c>
       <c r="D157">
         <v>23936</v>
@@ -6828,10 +7365,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>628</v>
+        <v>687</v>
       </c>
       <c r="C158" t="s">
-        <v>1100</v>
+        <v>1219</v>
       </c>
       <c r="D158">
         <v>7901748</v>
@@ -6842,10 +7379,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>629</v>
+        <v>688</v>
       </c>
       <c r="C159" t="s">
-        <v>1101</v>
+        <v>1220</v>
       </c>
       <c r="D159">
         <v>4701</v>
@@ -6856,10 +7393,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>630</v>
+        <v>689</v>
       </c>
       <c r="C160" t="s">
-        <v>1102</v>
+        <v>1221</v>
       </c>
       <c r="D160">
         <v>63814</v>
@@ -6870,10 +7407,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>631</v>
+        <v>690</v>
       </c>
       <c r="C161" t="s">
-        <v>1103</v>
+        <v>1222</v>
       </c>
       <c r="D161">
         <v>432</v>
@@ -6884,10 +7421,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>632</v>
+        <v>691</v>
       </c>
       <c r="C162" t="s">
-        <v>1104</v>
+        <v>1223</v>
       </c>
       <c r="D162">
         <v>335842</v>
@@ -6898,10 +7435,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>633</v>
+        <v>692</v>
       </c>
       <c r="C163" t="s">
-        <v>1105</v>
+        <v>1224</v>
       </c>
       <c r="D163">
         <v>14511</v>
@@ -6912,10 +7449,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>634</v>
+        <v>693</v>
       </c>
       <c r="C164" t="s">
-        <v>1106</v>
+        <v>1225</v>
       </c>
       <c r="D164">
         <v>29941</v>
@@ -6926,10 +7463,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>635</v>
+        <v>694</v>
       </c>
       <c r="C165" t="s">
-        <v>1107</v>
+        <v>1226</v>
       </c>
       <c r="D165">
         <v>4082</v>
@@ -6940,10 +7477,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>636</v>
+        <v>695</v>
       </c>
       <c r="C166" t="s">
-        <v>1108</v>
+        <v>1227</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6954,10 +7491,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="C167" t="s">
-        <v>1109</v>
+        <v>1228</v>
       </c>
       <c r="D167">
         <v>540</v>
@@ -6968,10 +7505,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>638</v>
+        <v>697</v>
       </c>
       <c r="C168" t="s">
-        <v>1110</v>
+        <v>1229</v>
       </c>
       <c r="D168">
         <v>43657</v>
@@ -6982,10 +7519,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
       <c r="C169" t="s">
-        <v>1111</v>
+        <v>1230</v>
       </c>
       <c r="D169">
         <v>105101</v>
@@ -6996,10 +7533,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>640</v>
+        <v>699</v>
       </c>
       <c r="C170" t="s">
-        <v>1112</v>
+        <v>1231</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -7010,10 +7547,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>641</v>
+        <v>700</v>
       </c>
       <c r="C171" t="s">
-        <v>1113</v>
+        <v>1232</v>
       </c>
       <c r="D171">
         <v>808</v>
@@ -7024,10 +7561,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>642</v>
+        <v>701</v>
       </c>
       <c r="C172" t="s">
-        <v>1114</v>
+        <v>1233</v>
       </c>
       <c r="D172">
         <v>84819</v>
@@ -7038,10 +7575,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>643</v>
+        <v>702</v>
       </c>
       <c r="C173" t="s">
-        <v>1115</v>
+        <v>1234</v>
       </c>
       <c r="D173">
         <v>186101</v>
@@ -7052,10 +7589,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>644</v>
+        <v>703</v>
       </c>
       <c r="C174" t="s">
-        <v>1116</v>
+        <v>1235</v>
       </c>
       <c r="D174">
         <v>87</v>
@@ -7066,10 +7603,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>645</v>
+        <v>704</v>
       </c>
       <c r="C175" t="s">
-        <v>1117</v>
+        <v>1236</v>
       </c>
       <c r="D175">
         <v>45444</v>
@@ -7080,10 +7617,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>646</v>
+        <v>705</v>
       </c>
       <c r="C176" t="s">
-        <v>1118</v>
+        <v>1237</v>
       </c>
       <c r="D176">
         <v>14176</v>
@@ -7094,10 +7631,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>647</v>
+        <v>706</v>
       </c>
       <c r="C177" t="s">
-        <v>1119</v>
+        <v>1238</v>
       </c>
       <c r="D177">
         <v>317960</v>
@@ -7108,10 +7645,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>648</v>
+        <v>707</v>
       </c>
       <c r="C178" t="s">
-        <v>1120</v>
+        <v>1239</v>
       </c>
       <c r="D178">
         <v>6876</v>
@@ -7122,10 +7659,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>649</v>
+        <v>708</v>
       </c>
       <c r="C179" t="s">
-        <v>1121</v>
+        <v>1240</v>
       </c>
       <c r="D179">
         <v>4750</v>
@@ -7136,10 +7673,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>650</v>
+        <v>709</v>
       </c>
       <c r="C180" t="s">
-        <v>1122</v>
+        <v>1241</v>
       </c>
       <c r="D180">
         <v>7688</v>
@@ -7150,10 +7687,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>651</v>
+        <v>710</v>
       </c>
       <c r="C181" t="s">
-        <v>1123</v>
+        <v>1242</v>
       </c>
       <c r="D181">
         <v>17160</v>
@@ -7164,10 +7701,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>652</v>
+        <v>711</v>
       </c>
       <c r="C182" t="s">
-        <v>1124</v>
+        <v>1243</v>
       </c>
       <c r="D182">
         <v>360662</v>
@@ -7178,10 +7715,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>653</v>
+        <v>712</v>
       </c>
       <c r="C183" t="s">
-        <v>1125</v>
+        <v>1244</v>
       </c>
       <c r="D183">
         <v>6316</v>
@@ -7192,10 +7729,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>654</v>
+        <v>713</v>
       </c>
       <c r="C184" t="s">
-        <v>1126</v>
+        <v>1245</v>
       </c>
       <c r="D184">
         <v>70</v>
@@ -7206,10 +7743,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>655</v>
+        <v>714</v>
       </c>
       <c r="C185" t="s">
-        <v>1127</v>
+        <v>1246</v>
       </c>
       <c r="D185">
         <v>253822</v>
@@ -7220,10 +7757,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>656</v>
+        <v>715</v>
       </c>
       <c r="C186" t="s">
-        <v>1128</v>
+        <v>1247</v>
       </c>
       <c r="D186">
         <v>216137</v>
@@ -7234,10 +7771,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>657</v>
+        <v>716</v>
       </c>
       <c r="C187" t="s">
-        <v>1129</v>
+        <v>1248</v>
       </c>
       <c r="D187">
         <v>6503</v>
@@ -7248,10 +7785,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>658</v>
+        <v>717</v>
       </c>
       <c r="C188" t="s">
-        <v>1130</v>
+        <v>1249</v>
       </c>
       <c r="D188">
         <v>817810</v>
@@ -7262,10 +7799,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>659</v>
+        <v>718</v>
       </c>
       <c r="C189" t="s">
-        <v>1131</v>
+        <v>1250</v>
       </c>
       <c r="D189">
         <v>195618</v>
@@ -7276,10 +7813,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>660</v>
+        <v>719</v>
       </c>
       <c r="C190" t="s">
-        <v>1132</v>
+        <v>1251</v>
       </c>
       <c r="D190">
         <v>349</v>
@@ -7290,10 +7827,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>661</v>
+        <v>720</v>
       </c>
       <c r="C191" t="s">
-        <v>1133</v>
+        <v>1252</v>
       </c>
       <c r="D191">
         <v>449</v>
@@ -7304,10 +7841,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>662</v>
+        <v>721</v>
       </c>
       <c r="C192" t="s">
-        <v>1134</v>
+        <v>1253</v>
       </c>
       <c r="D192">
         <v>86494</v>
@@ -7318,10 +7855,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>663</v>
+        <v>722</v>
       </c>
       <c r="C193" t="s">
-        <v>1135</v>
+        <v>1254</v>
       </c>
       <c r="D193">
         <v>436320</v>
@@ -7332,10 +7869,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>664</v>
+        <v>723</v>
       </c>
       <c r="C194" t="s">
-        <v>1136</v>
+        <v>1255</v>
       </c>
       <c r="D194">
         <v>916</v>
@@ -7346,10 +7883,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>665</v>
+        <v>724</v>
       </c>
       <c r="C195" t="s">
-        <v>1137</v>
+        <v>1256</v>
       </c>
       <c r="D195">
         <v>13179</v>
@@ -7360,10 +7897,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>666</v>
+        <v>725</v>
       </c>
       <c r="C196" t="s">
-        <v>1138</v>
+        <v>1257</v>
       </c>
       <c r="D196">
         <v>3475</v>
@@ -7374,10 +7911,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>667</v>
+        <v>726</v>
       </c>
       <c r="C197" t="s">
-        <v>1139</v>
+        <v>1258</v>
       </c>
       <c r="D197">
         <v>8</v>
@@ -7388,10 +7925,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>668</v>
+        <v>727</v>
       </c>
       <c r="C198" t="s">
-        <v>1140</v>
+        <v>1259</v>
       </c>
       <c r="D198">
         <v>153051</v>
@@ -7402,10 +7939,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>669</v>
+        <v>728</v>
       </c>
       <c r="C199" t="s">
-        <v>1141</v>
+        <v>1260</v>
       </c>
       <c r="D199">
         <v>531404</v>
@@ -7416,10 +7953,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>670</v>
+        <v>729</v>
       </c>
       <c r="C200" t="s">
-        <v>1142</v>
+        <v>1261</v>
       </c>
       <c r="D200">
         <v>325532</v>
@@ -7430,10 +7967,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>671</v>
+        <v>730</v>
       </c>
       <c r="C201" t="s">
-        <v>1143</v>
+        <v>1262</v>
       </c>
       <c r="D201">
         <v>449538</v>
@@ -7444,10 +7981,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>672</v>
+        <v>731</v>
       </c>
       <c r="C202" t="s">
-        <v>1144</v>
+        <v>1263</v>
       </c>
       <c r="D202">
         <v>153083</v>
@@ -7458,10 +7995,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>673</v>
+        <v>732</v>
       </c>
       <c r="C203" t="s">
-        <v>1145</v>
+        <v>1264</v>
       </c>
       <c r="D203">
         <v>20839</v>
@@ -7472,10 +8009,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>674</v>
+        <v>733</v>
       </c>
       <c r="C204" t="s">
-        <v>1146</v>
+        <v>1265</v>
       </c>
       <c r="D204">
         <v>4920</v>
@@ -7486,10 +8023,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>675</v>
+        <v>734</v>
       </c>
       <c r="C205" t="s">
-        <v>1147</v>
+        <v>1266</v>
       </c>
       <c r="D205">
         <v>19506</v>
@@ -7500,10 +8037,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>676</v>
+        <v>735</v>
       </c>
       <c r="C206" t="s">
-        <v>1148</v>
+        <v>1267</v>
       </c>
       <c r="D206">
         <v>463</v>
@@ -7514,10 +8051,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>677</v>
+        <v>736</v>
       </c>
       <c r="C207" t="s">
-        <v>1149</v>
+        <v>1268</v>
       </c>
       <c r="D207">
         <v>69288</v>
@@ -7528,10 +8065,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>678</v>
+        <v>737</v>
       </c>
       <c r="C208" t="s">
-        <v>1150</v>
+        <v>1269</v>
       </c>
       <c r="D208">
         <v>206</v>
@@ -7542,10 +8079,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>679</v>
+        <v>738</v>
       </c>
       <c r="C209" t="s">
-        <v>1151</v>
+        <v>1270</v>
       </c>
       <c r="D209">
         <v>540607</v>
@@ -7556,10 +8093,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>680</v>
+        <v>739</v>
       </c>
       <c r="C210" t="s">
-        <v>1152</v>
+        <v>1271</v>
       </c>
       <c r="D210">
         <v>559350</v>
@@ -7570,10 +8107,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>681</v>
+        <v>740</v>
       </c>
       <c r="C211" t="s">
-        <v>1153</v>
+        <v>1272</v>
       </c>
       <c r="D211">
         <v>283</v>
@@ -7584,10 +8121,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>682</v>
+        <v>741</v>
       </c>
       <c r="C212" t="s">
-        <v>1154</v>
+        <v>1273</v>
       </c>
       <c r="D212">
         <v>662</v>
@@ -7598,10 +8135,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>683</v>
+        <v>742</v>
       </c>
       <c r="C213" t="s">
-        <v>1155</v>
+        <v>1274</v>
       </c>
       <c r="D213">
         <v>25565</v>
@@ -7612,10 +8149,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>684</v>
+        <v>743</v>
       </c>
       <c r="C214" t="s">
-        <v>1156</v>
+        <v>1275</v>
       </c>
       <c r="D214">
         <v>12225</v>
@@ -7626,10 +8163,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>685</v>
+        <v>744</v>
       </c>
       <c r="C215" t="s">
-        <v>1157</v>
+        <v>1276</v>
       </c>
       <c r="D215">
         <v>125425</v>
@@ -7640,10 +8177,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>686</v>
+        <v>745</v>
       </c>
       <c r="C216" t="s">
-        <v>1158</v>
+        <v>1277</v>
       </c>
       <c r="D216">
         <v>10723</v>
@@ -7654,10 +8191,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>687</v>
+        <v>746</v>
       </c>
       <c r="C217" t="s">
-        <v>1159</v>
+        <v>1278</v>
       </c>
       <c r="D217">
         <v>19453</v>
@@ -7668,10 +8205,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>688</v>
+        <v>747</v>
       </c>
       <c r="C218" t="s">
-        <v>1160</v>
+        <v>1279</v>
       </c>
       <c r="D218">
         <v>692700</v>
@@ -7682,10 +8219,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>689</v>
+        <v>748</v>
       </c>
       <c r="C219" t="s">
-        <v>1161</v>
+        <v>1280</v>
       </c>
       <c r="D219">
         <v>11814</v>
@@ -7696,10 +8233,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>690</v>
+        <v>749</v>
       </c>
       <c r="C220" t="s">
-        <v>1162</v>
+        <v>1281</v>
       </c>
       <c r="D220">
         <v>8</v>
@@ -7710,10 +8247,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>691</v>
+        <v>750</v>
       </c>
       <c r="C221" t="s">
-        <v>1163</v>
+        <v>1282</v>
       </c>
       <c r="D221">
         <v>2448</v>
@@ -7724,10 +8261,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>692</v>
+        <v>751</v>
       </c>
       <c r="C222" t="s">
-        <v>1164</v>
+        <v>1283</v>
       </c>
       <c r="D222">
         <v>10536</v>
@@ -7738,10 +8275,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>693</v>
+        <v>752</v>
       </c>
       <c r="C223" t="s">
-        <v>1165</v>
+        <v>1284</v>
       </c>
       <c r="D223">
         <v>215252</v>
@@ -7752,10 +8289,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>694</v>
+        <v>753</v>
       </c>
       <c r="C224" t="s">
-        <v>1166</v>
+        <v>1285</v>
       </c>
       <c r="D224">
         <v>914871</v>
@@ -7766,10 +8303,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>695</v>
+        <v>754</v>
       </c>
       <c r="C225" t="s">
-        <v>1167</v>
+        <v>1286</v>
       </c>
       <c r="D225">
         <v>595286</v>
@@ -7780,10 +8317,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>696</v>
+        <v>755</v>
       </c>
       <c r="C226" t="s">
-        <v>1168</v>
+        <v>1287</v>
       </c>
       <c r="D226">
         <v>13136</v>
@@ -7794,10 +8331,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>697</v>
+        <v>756</v>
       </c>
       <c r="C227" t="s">
-        <v>1169</v>
+        <v>1288</v>
       </c>
       <c r="D227">
         <v>420000</v>
@@ -7808,10 +8345,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>698</v>
+        <v>757</v>
       </c>
       <c r="C228" t="s">
-        <v>1170</v>
+        <v>1289</v>
       </c>
       <c r="D228">
         <v>143010</v>
@@ -7822,10 +8359,10 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>699</v>
+        <v>758</v>
       </c>
       <c r="C229" t="s">
-        <v>1171</v>
+        <v>1290</v>
       </c>
       <c r="D229">
         <v>3086</v>
@@ -7836,10 +8373,10 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>700</v>
+        <v>759</v>
       </c>
       <c r="C230" t="s">
-        <v>1172</v>
+        <v>1291</v>
       </c>
       <c r="D230">
         <v>11176</v>
@@ -7850,10 +8387,10 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>701</v>
+        <v>760</v>
       </c>
       <c r="C231" t="s">
-        <v>1173</v>
+        <v>1292</v>
       </c>
       <c r="D231">
         <v>4382</v>
@@ -7864,10 +8401,10 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>702</v>
+        <v>761</v>
       </c>
       <c r="C232" t="s">
-        <v>1174</v>
+        <v>1293</v>
       </c>
       <c r="D232">
         <v>1685</v>
@@ -7878,10 +8415,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>703</v>
+        <v>762</v>
       </c>
       <c r="C233" t="s">
-        <v>1175</v>
+        <v>1294</v>
       </c>
       <c r="D233">
         <v>398</v>
@@ -7892,10 +8429,10 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>704</v>
+        <v>763</v>
       </c>
       <c r="C234" t="s">
-        <v>1176</v>
+        <v>1295</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -7906,10 +8443,10 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>705</v>
+        <v>764</v>
       </c>
       <c r="C235" t="s">
-        <v>1177</v>
+        <v>1296</v>
       </c>
       <c r="D235">
         <v>24589</v>
@@ -7920,10 +8457,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>706</v>
+        <v>765</v>
       </c>
       <c r="C236" t="s">
-        <v>1178</v>
+        <v>1297</v>
       </c>
       <c r="D236">
         <v>1212800</v>
@@ -7934,10 +8471,10 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>707</v>
+        <v>766</v>
       </c>
       <c r="C237" t="s">
-        <v>1179</v>
+        <v>1298</v>
       </c>
       <c r="D237">
         <v>264166</v>
@@ -7948,10 +8485,10 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>708</v>
+        <v>767</v>
       </c>
       <c r="C238" t="s">
-        <v>1180</v>
+        <v>1299</v>
       </c>
       <c r="D238">
         <v>4895863</v>
@@ -7962,10 +8499,10 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>709</v>
+        <v>768</v>
       </c>
       <c r="C239" t="s">
-        <v>1181</v>
+        <v>1300</v>
       </c>
       <c r="D239">
         <v>3591</v>
@@ -7976,10 +8513,10 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>710</v>
+        <v>769</v>
       </c>
       <c r="C240" t="s">
-        <v>1182</v>
+        <v>1301</v>
       </c>
       <c r="D240">
         <v>8963</v>
@@ -7990,10 +8527,10 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>711</v>
+        <v>770</v>
       </c>
       <c r="C241" t="s">
-        <v>1183</v>
+        <v>1302</v>
       </c>
       <c r="D241">
         <v>763103</v>
@@ -8004,10 +8541,10 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="C242" t="s">
-        <v>1184</v>
+        <v>1303</v>
       </c>
       <c r="D242">
         <v>400</v>
@@ -8018,10 +8555,10 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>713</v>
+        <v>772</v>
       </c>
       <c r="C243" t="s">
-        <v>1185</v>
+        <v>1304</v>
       </c>
       <c r="D243">
         <v>680405</v>
@@ -8032,10 +8569,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>714</v>
+        <v>773</v>
       </c>
       <c r="C244" t="s">
-        <v>1186</v>
+        <v>1305</v>
       </c>
       <c r="D244">
         <v>5165</v>
@@ -8046,10 +8583,10 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>715</v>
+        <v>774</v>
       </c>
       <c r="C245" t="s">
-        <v>1187</v>
+        <v>1306</v>
       </c>
       <c r="D245">
         <v>179802</v>
@@ -8060,10 +8597,10 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>716</v>
+        <v>775</v>
       </c>
       <c r="C246" t="s">
-        <v>1188</v>
+        <v>1307</v>
       </c>
       <c r="D246">
         <v>50393</v>
@@ -8074,10 +8611,10 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>717</v>
+        <v>776</v>
       </c>
       <c r="C247" t="s">
-        <v>1189</v>
+        <v>1308</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8088,10 +8625,10 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>718</v>
+        <v>777</v>
       </c>
       <c r="C248" t="s">
-        <v>1190</v>
+        <v>1309</v>
       </c>
       <c r="D248">
         <v>81</v>
@@ -8102,10 +8639,10 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>719</v>
+        <v>778</v>
       </c>
       <c r="C249" t="s">
-        <v>1191</v>
+        <v>1310</v>
       </c>
       <c r="D249">
         <v>2573153</v>
@@ -8116,10 +8653,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>720</v>
+        <v>779</v>
       </c>
       <c r="C250" t="s">
-        <v>1192</v>
+        <v>1311</v>
       </c>
       <c r="D250">
         <v>173495</v>
@@ -8130,10 +8667,10 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>721</v>
+        <v>780</v>
       </c>
       <c r="C251" t="s">
-        <v>1193</v>
+        <v>1312</v>
       </c>
       <c r="D251">
         <v>27600</v>
@@ -8144,10 +8681,10 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>722</v>
+        <v>781</v>
       </c>
       <c r="C252" t="s">
-        <v>1194</v>
+        <v>1313</v>
       </c>
       <c r="D252">
         <v>485379</v>
@@ -8158,10 +8695,10 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>723</v>
+        <v>782</v>
       </c>
       <c r="C253" t="s">
-        <v>1195</v>
+        <v>1314</v>
       </c>
       <c r="D253">
         <v>331919</v>
@@ -8172,10 +8709,10 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>724</v>
+        <v>783</v>
       </c>
       <c r="C254" t="s">
-        <v>1196</v>
+        <v>1315</v>
       </c>
       <c r="D254">
         <v>1865848</v>
@@ -8186,10 +8723,10 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>725</v>
+        <v>784</v>
       </c>
       <c r="C255" t="s">
-        <v>1197</v>
+        <v>1316</v>
       </c>
       <c r="D255">
         <v>24</v>
@@ -8200,10 +8737,10 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>726</v>
+        <v>785</v>
       </c>
       <c r="C256" t="s">
-        <v>1198</v>
+        <v>1317</v>
       </c>
       <c r="D256">
         <v>32122</v>
@@ -8214,10 +8751,10 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>727</v>
+        <v>786</v>
       </c>
       <c r="C257" t="s">
-        <v>1199</v>
+        <v>1318</v>
       </c>
       <c r="D257">
         <v>7108</v>
@@ -8228,10 +8765,10 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="C258" t="s">
-        <v>1200</v>
+        <v>1319</v>
       </c>
       <c r="D258">
         <v>71</v>
@@ -8242,10 +8779,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>729</v>
+        <v>788</v>
       </c>
       <c r="C259" t="s">
-        <v>1201</v>
+        <v>1320</v>
       </c>
       <c r="D259">
         <v>670927</v>
@@ -8256,10 +8793,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>730</v>
+        <v>789</v>
       </c>
       <c r="C260" t="s">
-        <v>1202</v>
+        <v>1321</v>
       </c>
       <c r="D260">
         <v>13137</v>
@@ -8270,10 +8807,10 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>731</v>
+        <v>790</v>
       </c>
       <c r="C261" t="s">
-        <v>1203</v>
+        <v>1322</v>
       </c>
       <c r="D261">
         <v>14209</v>
@@ -8284,10 +8821,10 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>732</v>
+        <v>791</v>
       </c>
       <c r="C262" t="s">
-        <v>1204</v>
+        <v>1323</v>
       </c>
       <c r="D262">
         <v>28342</v>
@@ -8298,10 +8835,10 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>733</v>
+        <v>792</v>
       </c>
       <c r="C263" t="s">
-        <v>1205</v>
+        <v>1324</v>
       </c>
       <c r="D263">
         <v>696637</v>
@@ -8312,10 +8849,10 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>734</v>
+        <v>793</v>
       </c>
       <c r="C264" t="s">
-        <v>1206</v>
+        <v>1325</v>
       </c>
       <c r="D264">
         <v>11723</v>
@@ -8326,10 +8863,10 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>735</v>
+        <v>794</v>
       </c>
       <c r="C265" t="s">
-        <v>1207</v>
+        <v>1326</v>
       </c>
       <c r="D265">
         <v>23642</v>
@@ -8340,10 +8877,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>736</v>
+        <v>795</v>
       </c>
       <c r="C266" t="s">
-        <v>1208</v>
+        <v>1327</v>
       </c>
       <c r="D266">
         <v>23034</v>
@@ -8354,10 +8891,10 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>737</v>
+        <v>796</v>
       </c>
       <c r="C267" t="s">
-        <v>1209</v>
+        <v>1328</v>
       </c>
       <c r="D267">
         <v>285699</v>
@@ -8368,10 +8905,10 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>738</v>
+        <v>797</v>
       </c>
       <c r="C268" t="s">
-        <v>1210</v>
+        <v>1329</v>
       </c>
       <c r="D268">
         <v>1553</v>
@@ -8382,10 +8919,10 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>739</v>
+        <v>798</v>
       </c>
       <c r="C269" t="s">
-        <v>1211</v>
+        <v>1330</v>
       </c>
       <c r="D269">
         <v>99454</v>
@@ -8396,10 +8933,10 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>740</v>
+        <v>799</v>
       </c>
       <c r="C270" t="s">
-        <v>1212</v>
+        <v>1331</v>
       </c>
       <c r="D270">
         <v>11357</v>
@@ -8410,10 +8947,10 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>741</v>
+        <v>800</v>
       </c>
       <c r="C271" t="s">
-        <v>1213</v>
+        <v>1332</v>
       </c>
       <c r="D271">
         <v>15345</v>
@@ -8424,10 +8961,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>742</v>
+        <v>801</v>
       </c>
       <c r="C272" t="s">
-        <v>1214</v>
+        <v>1333</v>
       </c>
       <c r="D272">
         <v>3132</v>
@@ -8438,10 +8975,10 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>743</v>
+        <v>802</v>
       </c>
       <c r="C273" t="s">
-        <v>1215</v>
+        <v>1334</v>
       </c>
       <c r="D273">
         <v>40</v>
@@ -8452,10 +8989,10 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>744</v>
+        <v>803</v>
       </c>
       <c r="C274" t="s">
-        <v>1216</v>
+        <v>1335</v>
       </c>
       <c r="D274">
         <v>220839</v>
@@ -8466,10 +9003,10 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>745</v>
+        <v>804</v>
       </c>
       <c r="C275" t="s">
-        <v>1217</v>
+        <v>1336</v>
       </c>
       <c r="D275">
         <v>1342</v>
@@ -8480,10 +9017,10 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>746</v>
+        <v>805</v>
       </c>
       <c r="C276" t="s">
-        <v>1218</v>
+        <v>1337</v>
       </c>
       <c r="D276">
         <v>17088</v>
@@ -8494,10 +9031,10 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>747</v>
+        <v>806</v>
       </c>
       <c r="C277" t="s">
-        <v>1219</v>
+        <v>1338</v>
       </c>
       <c r="D277">
         <v>156486</v>
@@ -8508,10 +9045,10 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>748</v>
+        <v>807</v>
       </c>
       <c r="C278" t="s">
-        <v>1220</v>
+        <v>1339</v>
       </c>
       <c r="D278">
         <v>372</v>
@@ -8522,10 +9059,10 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>749</v>
+        <v>808</v>
       </c>
       <c r="C279" t="s">
-        <v>1221</v>
+        <v>1340</v>
       </c>
       <c r="D279">
         <v>148708</v>
@@ -8536,10 +9073,10 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>750</v>
+        <v>809</v>
       </c>
       <c r="C280" t="s">
-        <v>1222</v>
+        <v>1341</v>
       </c>
       <c r="D280">
         <v>212410</v>
@@ -8550,10 +9087,10 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>751</v>
+        <v>810</v>
       </c>
       <c r="C281" t="s">
-        <v>1223</v>
+        <v>1342</v>
       </c>
       <c r="D281">
         <v>565473</v>
@@ -8564,10 +9101,10 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>752</v>
+        <v>811</v>
       </c>
       <c r="C282" t="s">
-        <v>1224</v>
+        <v>1343</v>
       </c>
       <c r="D282">
         <v>1008453</v>
@@ -8578,10 +9115,10 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>753</v>
+        <v>812</v>
       </c>
       <c r="C283" t="s">
-        <v>1225</v>
+        <v>1344</v>
       </c>
       <c r="D283">
         <v>9457</v>
@@ -8592,10 +9129,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>754</v>
+        <v>813</v>
       </c>
       <c r="C284" t="s">
-        <v>1226</v>
+        <v>1345</v>
       </c>
       <c r="D284">
         <v>2716106</v>
@@ -8606,10 +9143,10 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>755</v>
+        <v>814</v>
       </c>
       <c r="C285" t="s">
-        <v>1227</v>
+        <v>1346</v>
       </c>
       <c r="D285">
         <v>1064</v>
@@ -8620,10 +9157,10 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>756</v>
+        <v>815</v>
       </c>
       <c r="C286" t="s">
-        <v>1228</v>
+        <v>1347</v>
       </c>
       <c r="D286">
         <v>76330</v>
@@ -8634,10 +9171,10 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="C287" t="s">
-        <v>1229</v>
+        <v>1348</v>
       </c>
       <c r="D287">
         <v>6944</v>
@@ -8648,10 +9185,10 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>758</v>
+        <v>817</v>
       </c>
       <c r="C288" t="s">
-        <v>1230</v>
+        <v>1349</v>
       </c>
       <c r="D288">
         <v>7466</v>
@@ -8662,10 +9199,10 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>759</v>
+        <v>818</v>
       </c>
       <c r="C289" t="s">
-        <v>1231</v>
+        <v>1350</v>
       </c>
       <c r="D289">
         <v>112830</v>
@@ -8676,10 +9213,10 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>760</v>
+        <v>819</v>
       </c>
       <c r="C290" t="s">
-        <v>1232</v>
+        <v>1351</v>
       </c>
       <c r="D290">
         <v>69657</v>
@@ -8690,10 +9227,10 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>761</v>
+        <v>820</v>
       </c>
       <c r="C291" t="s">
-        <v>1233</v>
+        <v>1352</v>
       </c>
       <c r="D291">
         <v>265728</v>
@@ -8704,10 +9241,10 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>762</v>
+        <v>821</v>
       </c>
       <c r="C292" t="s">
-        <v>1234</v>
+        <v>1353</v>
       </c>
       <c r="D292">
         <v>4800</v>
@@ -8718,10 +9255,10 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>763</v>
+        <v>822</v>
       </c>
       <c r="C293" t="s">
-        <v>1235</v>
+        <v>1354</v>
       </c>
       <c r="D293">
         <v>1504714</v>
@@ -8732,10 +9269,10 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>764</v>
+        <v>823</v>
       </c>
       <c r="C294" t="s">
-        <v>1236</v>
+        <v>1355</v>
       </c>
       <c r="D294">
         <v>25624</v>
@@ -8746,10 +9283,10 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>765</v>
+        <v>824</v>
       </c>
       <c r="C295" t="s">
-        <v>1237</v>
+        <v>1356</v>
       </c>
       <c r="D295">
         <v>212898</v>
@@ -8760,10 +9297,10 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>766</v>
+        <v>825</v>
       </c>
       <c r="C296" t="s">
-        <v>1238</v>
+        <v>1357</v>
       </c>
       <c r="D296">
         <v>7077</v>
@@ -8774,10 +9311,10 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>767</v>
+        <v>826</v>
       </c>
       <c r="C297" t="s">
-        <v>1239</v>
+        <v>1358</v>
       </c>
       <c r="D297">
         <v>450</v>
@@ -8788,10 +9325,10 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>768</v>
+        <v>827</v>
       </c>
       <c r="C298" t="s">
-        <v>1240</v>
+        <v>1359</v>
       </c>
       <c r="D298">
         <v>7788</v>
@@ -8802,10 +9339,10 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>769</v>
+        <v>828</v>
       </c>
       <c r="C299" t="s">
-        <v>1241</v>
+        <v>1360</v>
       </c>
       <c r="D299">
         <v>5642</v>
@@ -8816,10 +9353,10 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>770</v>
+        <v>829</v>
       </c>
       <c r="C300" t="s">
-        <v>1242</v>
+        <v>1361</v>
       </c>
       <c r="D300">
         <v>73023</v>
@@ -8830,10 +9367,10 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>771</v>
+        <v>830</v>
       </c>
       <c r="C301" t="s">
-        <v>1243</v>
+        <v>1362</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -8844,10 +9381,10 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>772</v>
+        <v>831</v>
       </c>
       <c r="C302" t="s">
-        <v>1244</v>
+        <v>1363</v>
       </c>
       <c r="D302">
         <v>407080</v>
@@ -8858,10 +9395,10 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>773</v>
+        <v>832</v>
       </c>
       <c r="C303" t="s">
-        <v>1245</v>
+        <v>1364</v>
       </c>
       <c r="D303">
         <v>6576</v>
@@ -8872,10 +9409,10 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>774</v>
+        <v>833</v>
       </c>
       <c r="C304" t="s">
-        <v>1246</v>
+        <v>1365</v>
       </c>
       <c r="D304">
         <v>10274</v>
@@ -8886,10 +9423,10 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>775</v>
+        <v>834</v>
       </c>
       <c r="C305" t="s">
-        <v>1247</v>
+        <v>1366</v>
       </c>
       <c r="D305">
         <v>196</v>
@@ -8900,10 +9437,10 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>776</v>
+        <v>835</v>
       </c>
       <c r="C306" t="s">
-        <v>1248</v>
+        <v>1367</v>
       </c>
       <c r="D306">
         <v>147820</v>
@@ -8914,10 +9451,10 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>777</v>
+        <v>836</v>
       </c>
       <c r="C307" t="s">
-        <v>1249</v>
+        <v>1368</v>
       </c>
       <c r="D307">
         <v>293</v>
@@ -8928,10 +9465,10 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>778</v>
+        <v>837</v>
       </c>
       <c r="C308" t="s">
-        <v>1250</v>
+        <v>1369</v>
       </c>
       <c r="D308">
         <v>318</v>
@@ -8942,10 +9479,10 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>779</v>
+        <v>838</v>
       </c>
       <c r="C309" t="s">
-        <v>1251</v>
+        <v>1370</v>
       </c>
       <c r="D309">
         <v>70029</v>
@@ -8956,10 +9493,10 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>780</v>
+        <v>839</v>
       </c>
       <c r="C310" t="s">
-        <v>1252</v>
+        <v>1371</v>
       </c>
       <c r="D310">
         <v>448814</v>
@@ -8970,10 +9507,10 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>781</v>
+        <v>840</v>
       </c>
       <c r="C311" t="s">
-        <v>1253</v>
+        <v>1372</v>
       </c>
       <c r="D311">
         <v>37249</v>
@@ -8984,10 +9521,10 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>782</v>
+        <v>841</v>
       </c>
       <c r="C312" t="s">
-        <v>1254</v>
+        <v>1373</v>
       </c>
       <c r="D312">
         <v>19</v>
@@ -8998,10 +9535,10 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>783</v>
+        <v>842</v>
       </c>
       <c r="C313" t="s">
-        <v>1255</v>
+        <v>1374</v>
       </c>
       <c r="D313">
         <v>125460</v>
@@ -9012,10 +9549,10 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>784</v>
+        <v>843</v>
       </c>
       <c r="C314" t="s">
-        <v>1256</v>
+        <v>1375</v>
       </c>
       <c r="D314">
         <v>358</v>
@@ -9026,10 +9563,10 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>785</v>
+        <v>844</v>
       </c>
       <c r="C315" t="s">
-        <v>1257</v>
+        <v>1376</v>
       </c>
       <c r="D315">
         <v>4938</v>
@@ -9040,10 +9577,10 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>786</v>
+        <v>845</v>
       </c>
       <c r="C316" t="s">
-        <v>1258</v>
+        <v>1377</v>
       </c>
       <c r="D316">
         <v>432701</v>
@@ -9054,10 +9591,10 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>787</v>
+        <v>846</v>
       </c>
       <c r="C317" t="s">
-        <v>1259</v>
+        <v>1378</v>
       </c>
       <c r="D317">
         <v>1212</v>
@@ -9068,10 +9605,10 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>788</v>
+        <v>847</v>
       </c>
       <c r="C318" t="s">
-        <v>1260</v>
+        <v>1379</v>
       </c>
       <c r="D318">
         <v>33588</v>
@@ -9082,10 +9619,10 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>789</v>
+        <v>848</v>
       </c>
       <c r="C319" t="s">
-        <v>1261</v>
+        <v>1380</v>
       </c>
       <c r="D319">
         <v>127375</v>
@@ -9096,10 +9633,10 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>790</v>
+        <v>849</v>
       </c>
       <c r="C320" t="s">
-        <v>1262</v>
+        <v>1381</v>
       </c>
       <c r="D320">
         <v>26892</v>
@@ -9110,10 +9647,10 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>791</v>
+        <v>850</v>
       </c>
       <c r="C321" t="s">
-        <v>1263</v>
+        <v>1382</v>
       </c>
       <c r="D321">
         <v>16536</v>
@@ -9124,10 +9661,10 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>792</v>
+        <v>851</v>
       </c>
       <c r="C322" t="s">
-        <v>1264</v>
+        <v>1383</v>
       </c>
       <c r="D322">
         <v>196859</v>
@@ -9138,10 +9675,10 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>793</v>
+        <v>852</v>
       </c>
       <c r="C323" t="s">
-        <v>1265</v>
+        <v>1384</v>
       </c>
       <c r="D323">
         <v>66540</v>
@@ -9152,10 +9689,10 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>794</v>
+        <v>853</v>
       </c>
       <c r="C324" t="s">
-        <v>1266</v>
+        <v>1385</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -9166,10 +9703,10 @@
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>795</v>
+        <v>854</v>
       </c>
       <c r="C325" t="s">
-        <v>1267</v>
+        <v>1386</v>
       </c>
       <c r="D325">
         <v>5719</v>
@@ -9180,10 +9717,10 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>796</v>
+        <v>855</v>
       </c>
       <c r="C326" t="s">
-        <v>1268</v>
+        <v>1387</v>
       </c>
       <c r="D326">
         <v>30404</v>
@@ -9194,10 +9731,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>797</v>
+        <v>856</v>
       </c>
       <c r="C327" t="s">
-        <v>1269</v>
+        <v>1388</v>
       </c>
       <c r="D327">
         <v>243</v>
@@ -9208,10 +9745,10 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>798</v>
+        <v>857</v>
       </c>
       <c r="C328" t="s">
-        <v>1270</v>
+        <v>1389</v>
       </c>
       <c r="D328">
         <v>5075</v>
@@ -9222,10 +9759,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>799</v>
+        <v>858</v>
       </c>
       <c r="C329" t="s">
-        <v>1271</v>
+        <v>1390</v>
       </c>
       <c r="D329">
         <v>54131</v>
@@ -9236,10 +9773,10 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>800</v>
+        <v>859</v>
       </c>
       <c r="C330" t="s">
-        <v>1272</v>
+        <v>1391</v>
       </c>
       <c r="D330">
         <v>145499</v>
@@ -9250,10 +9787,10 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>801</v>
+        <v>860</v>
       </c>
       <c r="C331" t="s">
-        <v>1273</v>
+        <v>1392</v>
       </c>
       <c r="D331">
         <v>73</v>
@@ -9264,10 +9801,10 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
       <c r="C332" t="s">
-        <v>1274</v>
+        <v>1393</v>
       </c>
       <c r="D332">
         <v>81899</v>
@@ -9278,10 +9815,10 @@
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>803</v>
+        <v>862</v>
       </c>
       <c r="C333" t="s">
-        <v>1275</v>
+        <v>1394</v>
       </c>
       <c r="D333">
         <v>85403</v>
@@ -9292,10 +9829,10 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>804</v>
+        <v>863</v>
       </c>
       <c r="C334" t="s">
-        <v>1276</v>
+        <v>1395</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -9306,10 +9843,10 @@
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>805</v>
+        <v>864</v>
       </c>
       <c r="C335" t="s">
-        <v>1277</v>
+        <v>1396</v>
       </c>
       <c r="D335">
         <v>120904</v>
@@ -9320,10 +9857,10 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>806</v>
+        <v>865</v>
       </c>
       <c r="C336" t="s">
-        <v>1278</v>
+        <v>1397</v>
       </c>
       <c r="D336">
         <v>259553</v>
@@ -9334,10 +9871,10 @@
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>807</v>
+        <v>866</v>
       </c>
       <c r="C337" t="s">
-        <v>1279</v>
+        <v>1398</v>
       </c>
       <c r="D337">
         <v>192103</v>
@@ -9348,10 +9885,10 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>808</v>
+        <v>867</v>
       </c>
       <c r="C338" t="s">
-        <v>1280</v>
+        <v>1399</v>
       </c>
       <c r="D338">
         <v>74199</v>
@@ -9362,10 +9899,10 @@
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>809</v>
+        <v>868</v>
       </c>
       <c r="C339" t="s">
-        <v>1281</v>
+        <v>1400</v>
       </c>
       <c r="D339">
         <v>11866</v>
@@ -9376,10 +9913,10 @@
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>810</v>
+        <v>869</v>
       </c>
       <c r="C340" t="s">
-        <v>1282</v>
+        <v>1401</v>
       </c>
       <c r="D340">
         <v>452357</v>
@@ -9390,10 +9927,10 @@
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>811</v>
+        <v>870</v>
       </c>
       <c r="C341" t="s">
-        <v>1283</v>
+        <v>1402</v>
       </c>
       <c r="D341">
         <v>274776</v>
@@ -9404,10 +9941,10 @@
         <v>110</v>
       </c>
       <c r="B342" t="s">
-        <v>812</v>
+        <v>871</v>
       </c>
       <c r="C342" t="s">
-        <v>1284</v>
+        <v>1403</v>
       </c>
       <c r="D342">
         <v>3900</v>
@@ -9418,10 +9955,10 @@
         <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>813</v>
+        <v>872</v>
       </c>
       <c r="C343" t="s">
-        <v>1285</v>
+        <v>1404</v>
       </c>
       <c r="D343">
         <v>5947</v>
@@ -9432,10 +9969,10 @@
         <v>345</v>
       </c>
       <c r="B344" t="s">
-        <v>814</v>
+        <v>873</v>
       </c>
       <c r="C344" t="s">
-        <v>1286</v>
+        <v>1405</v>
       </c>
       <c r="D344">
         <v>7386</v>
@@ -9446,10 +9983,10 @@
         <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>815</v>
+        <v>874</v>
       </c>
       <c r="C345" t="s">
-        <v>1287</v>
+        <v>1406</v>
       </c>
       <c r="D345">
         <v>4330</v>
@@ -9460,10 +9997,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>816</v>
+        <v>875</v>
       </c>
       <c r="C346" t="s">
-        <v>1288</v>
+        <v>1407</v>
       </c>
       <c r="D346">
         <v>58</v>
@@ -9474,10 +10011,10 @@
         <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>817</v>
+        <v>876</v>
       </c>
       <c r="C347" t="s">
-        <v>1289</v>
+        <v>1408</v>
       </c>
       <c r="D347">
         <v>146332</v>
@@ -9488,10 +10025,10 @@
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>818</v>
+        <v>877</v>
       </c>
       <c r="C348" t="s">
-        <v>1290</v>
+        <v>1409</v>
       </c>
       <c r="D348">
         <v>2869</v>
@@ -9502,10 +10039,10 @@
         <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>819</v>
+        <v>878</v>
       </c>
       <c r="C349" t="s">
-        <v>1291</v>
+        <v>1410</v>
       </c>
       <c r="D349">
         <v>1002801</v>
@@ -9516,10 +10053,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>820</v>
+        <v>879</v>
       </c>
       <c r="C350" t="s">
-        <v>1292</v>
+        <v>1411</v>
       </c>
       <c r="D350">
         <v>204562</v>
@@ -9530,10 +10067,10 @@
         <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>821</v>
+        <v>880</v>
       </c>
       <c r="C351" t="s">
-        <v>1293</v>
+        <v>1412</v>
       </c>
       <c r="D351">
         <v>99175</v>
@@ -9544,10 +10081,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>822</v>
+        <v>881</v>
       </c>
       <c r="C352" t="s">
-        <v>1294</v>
+        <v>1413</v>
       </c>
       <c r="D352">
         <v>3674</v>
@@ -9558,10 +10095,10 @@
         <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>823</v>
+        <v>882</v>
       </c>
       <c r="C353" t="s">
-        <v>1295</v>
+        <v>1414</v>
       </c>
       <c r="D353">
         <v>670224</v>
@@ -9572,10 +10109,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="s">
-        <v>824</v>
+        <v>883</v>
       </c>
       <c r="C354" t="s">
-        <v>1296</v>
+        <v>1415</v>
       </c>
       <c r="D354">
         <v>1415</v>
@@ -9586,10 +10123,10 @@
         <v>356</v>
       </c>
       <c r="B355" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
       <c r="C355" t="s">
-        <v>1297</v>
+        <v>1416</v>
       </c>
       <c r="D355">
         <v>9524</v>
@@ -9600,10 +10137,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="s">
-        <v>826</v>
+        <v>885</v>
       </c>
       <c r="C356" t="s">
-        <v>1298</v>
+        <v>1417</v>
       </c>
       <c r="D356">
         <v>4717</v>
@@ -9614,10 +10151,10 @@
         <v>358</v>
       </c>
       <c r="B357" t="s">
-        <v>827</v>
+        <v>886</v>
       </c>
       <c r="C357" t="s">
-        <v>1299</v>
+        <v>1418</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -9628,10 +10165,10 @@
         <v>359</v>
       </c>
       <c r="B358" t="s">
-        <v>828</v>
+        <v>887</v>
       </c>
       <c r="C358" t="s">
-        <v>1300</v>
+        <v>1419</v>
       </c>
       <c r="D358">
         <v>128405</v>
@@ -9642,10 +10179,10 @@
         <v>360</v>
       </c>
       <c r="B359" t="s">
-        <v>829</v>
+        <v>888</v>
       </c>
       <c r="C359" t="s">
-        <v>1301</v>
+        <v>1420</v>
       </c>
       <c r="D359">
         <v>111060</v>
@@ -9656,10 +10193,10 @@
         <v>361</v>
       </c>
       <c r="B360" t="s">
-        <v>830</v>
+        <v>889</v>
       </c>
       <c r="C360" t="s">
-        <v>1302</v>
+        <v>1421</v>
       </c>
       <c r="D360">
         <v>2</v>
@@ -9670,10 +10207,10 @@
         <v>362</v>
       </c>
       <c r="B361" t="s">
-        <v>831</v>
+        <v>890</v>
       </c>
       <c r="C361" t="s">
-        <v>1303</v>
+        <v>1422</v>
       </c>
       <c r="D361">
         <v>50000</v>
@@ -9684,10 +10221,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="s">
-        <v>832</v>
+        <v>891</v>
       </c>
       <c r="C362" t="s">
-        <v>1304</v>
+        <v>1423</v>
       </c>
       <c r="D362">
         <v>153818</v>
@@ -9698,10 +10235,10 @@
         <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>833</v>
+        <v>892</v>
       </c>
       <c r="C363" t="s">
-        <v>1305</v>
+        <v>1424</v>
       </c>
       <c r="D363">
         <v>8765</v>
@@ -9712,10 +10249,10 @@
         <v>365</v>
       </c>
       <c r="B364" t="s">
-        <v>834</v>
+        <v>893</v>
       </c>
       <c r="C364" t="s">
-        <v>1306</v>
+        <v>1425</v>
       </c>
       <c r="D364">
         <v>276</v>
@@ -9726,10 +10263,10 @@
         <v>366</v>
       </c>
       <c r="B365" t="s">
-        <v>835</v>
+        <v>894</v>
       </c>
       <c r="C365" t="s">
-        <v>1307</v>
+        <v>1426</v>
       </c>
       <c r="D365">
         <v>16875</v>
@@ -9740,10 +10277,10 @@
         <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="C366" t="s">
-        <v>1308</v>
+        <v>1427</v>
       </c>
       <c r="D366">
         <v>26</v>
@@ -9754,10 +10291,10 @@
         <v>368</v>
       </c>
       <c r="B367" t="s">
-        <v>837</v>
+        <v>896</v>
       </c>
       <c r="C367" t="s">
-        <v>1309</v>
+        <v>1428</v>
       </c>
       <c r="D367">
         <v>4</v>
@@ -9768,10 +10305,10 @@
         <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>838</v>
+        <v>897</v>
       </c>
       <c r="C368" t="s">
-        <v>1310</v>
+        <v>1429</v>
       </c>
       <c r="D368">
         <v>36</v>
@@ -9782,10 +10319,10 @@
         <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>839</v>
+        <v>898</v>
       </c>
       <c r="C369" t="s">
-        <v>1311</v>
+        <v>1430</v>
       </c>
       <c r="D369">
         <v>46163</v>
@@ -9796,10 +10333,10 @@
         <v>300</v>
       </c>
       <c r="B370" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="C370" t="s">
-        <v>1312</v>
+        <v>1431</v>
       </c>
       <c r="D370">
         <v>12431</v>
@@ -9810,10 +10347,10 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="C371" t="s">
-        <v>1313</v>
+        <v>1432</v>
       </c>
       <c r="D371">
         <v>21309</v>
@@ -9824,10 +10361,10 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>842</v>
+        <v>901</v>
       </c>
       <c r="C372" t="s">
-        <v>1314</v>
+        <v>1433</v>
       </c>
       <c r="D372">
         <v>25</v>
@@ -9838,10 +10375,10 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>843</v>
+        <v>902</v>
       </c>
       <c r="C373" t="s">
-        <v>1315</v>
+        <v>1434</v>
       </c>
       <c r="D373">
         <v>167286</v>
@@ -9852,10 +10389,10 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>844</v>
+        <v>903</v>
       </c>
       <c r="C374" t="s">
-        <v>1316</v>
+        <v>1435</v>
       </c>
       <c r="D374">
         <v>43714</v>
@@ -9866,10 +10403,10 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>845</v>
+        <v>904</v>
       </c>
       <c r="C375" t="s">
-        <v>1317</v>
+        <v>1436</v>
       </c>
       <c r="D375">
         <v>756</v>
@@ -9880,10 +10417,10 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>846</v>
+        <v>905</v>
       </c>
       <c r="C376" t="s">
-        <v>1318</v>
+        <v>1437</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -9894,10 +10431,10 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>847</v>
+        <v>906</v>
       </c>
       <c r="C377" t="s">
-        <v>1319</v>
+        <v>1438</v>
       </c>
       <c r="D377">
         <v>243434</v>
@@ -9908,10 +10445,10 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>848</v>
+        <v>907</v>
       </c>
       <c r="C378" t="s">
-        <v>1320</v>
+        <v>1439</v>
       </c>
       <c r="D378">
         <v>41</v>
@@ -9922,10 +10459,10 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>849</v>
+        <v>908</v>
       </c>
       <c r="C379" t="s">
-        <v>1321</v>
+        <v>1440</v>
       </c>
       <c r="D379">
         <v>3348</v>
@@ -9936,10 +10473,10 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>850</v>
+        <v>909</v>
       </c>
       <c r="C380" t="s">
-        <v>1322</v>
+        <v>1441</v>
       </c>
       <c r="D380">
         <v>8659</v>
@@ -9950,10 +10487,10 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>851</v>
+        <v>910</v>
       </c>
       <c r="C381" t="s">
-        <v>1323</v>
+        <v>1442</v>
       </c>
       <c r="D381">
         <v>73820</v>
@@ -9964,10 +10501,10 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>852</v>
+        <v>911</v>
       </c>
       <c r="C382" t="s">
-        <v>1324</v>
+        <v>1443</v>
       </c>
       <c r="D382">
         <v>177</v>
@@ -9978,10 +10515,10 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>853</v>
+        <v>912</v>
       </c>
       <c r="C383" t="s">
-        <v>1325</v>
+        <v>1444</v>
       </c>
       <c r="D383">
         <v>13498</v>
@@ -9992,10 +10529,10 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>854</v>
+        <v>913</v>
       </c>
       <c r="C384" t="s">
-        <v>1326</v>
+        <v>1445</v>
       </c>
       <c r="D384">
         <v>10146</v>
@@ -10006,10 +10543,10 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>855</v>
+        <v>914</v>
       </c>
       <c r="C385" t="s">
-        <v>1327</v>
+        <v>1446</v>
       </c>
       <c r="D385">
         <v>7100</v>
@@ -10020,10 +10557,10 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>856</v>
+        <v>915</v>
       </c>
       <c r="C386" t="s">
-        <v>1328</v>
+        <v>1447</v>
       </c>
       <c r="D386">
         <v>1747</v>
@@ -10034,10 +10571,10 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>857</v>
+        <v>916</v>
       </c>
       <c r="C387" t="s">
-        <v>1329</v>
+        <v>1448</v>
       </c>
       <c r="D387">
         <v>28954</v>
@@ -10048,10 +10585,10 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>858</v>
+        <v>917</v>
       </c>
       <c r="C388" t="s">
-        <v>1330</v>
+        <v>1449</v>
       </c>
       <c r="D388">
         <v>4180</v>
@@ -10062,10 +10599,10 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>859</v>
+        <v>918</v>
       </c>
       <c r="C389" t="s">
-        <v>1331</v>
+        <v>1450</v>
       </c>
       <c r="D389">
         <v>91335</v>
@@ -10076,10 +10613,10 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="C390" t="s">
-        <v>1332</v>
+        <v>1451</v>
       </c>
       <c r="D390">
         <v>142936</v>
@@ -10090,10 +10627,10 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>861</v>
+        <v>920</v>
       </c>
       <c r="C391" t="s">
-        <v>1333</v>
+        <v>1452</v>
       </c>
       <c r="D391">
         <v>262</v>
@@ -10104,10 +10641,10 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>862</v>
+        <v>921</v>
       </c>
       <c r="C392" t="s">
-        <v>1334</v>
+        <v>1453</v>
       </c>
       <c r="D392">
         <v>72844</v>
@@ -10118,10 +10655,10 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>863</v>
+        <v>922</v>
       </c>
       <c r="C393" t="s">
-        <v>1335</v>
+        <v>1454</v>
       </c>
       <c r="D393">
         <v>484</v>
@@ -10132,10 +10669,10 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>864</v>
+        <v>923</v>
       </c>
       <c r="C394" t="s">
-        <v>1336</v>
+        <v>1455</v>
       </c>
       <c r="D394">
         <v>74991</v>
@@ -10146,10 +10683,10 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>865</v>
+        <v>924</v>
       </c>
       <c r="C395" t="s">
-        <v>1337</v>
+        <v>1456</v>
       </c>
       <c r="D395">
         <v>35000</v>
@@ -10160,10 +10697,10 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>866</v>
+        <v>925</v>
       </c>
       <c r="C396" t="s">
-        <v>1338</v>
+        <v>1457</v>
       </c>
       <c r="D396">
         <v>19810</v>
@@ -10174,10 +10711,10 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>867</v>
+        <v>926</v>
       </c>
       <c r="C397" t="s">
-        <v>1339</v>
+        <v>1458</v>
       </c>
       <c r="D397">
         <v>142992</v>
@@ -10188,10 +10725,10 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>868</v>
+        <v>927</v>
       </c>
       <c r="C398" t="s">
-        <v>1340</v>
+        <v>1459</v>
       </c>
       <c r="D398">
         <v>149152</v>
@@ -10202,10 +10739,10 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>869</v>
+        <v>928</v>
       </c>
       <c r="C399" t="s">
-        <v>1341</v>
+        <v>1460</v>
       </c>
       <c r="D399">
         <v>13812</v>
@@ -10216,10 +10753,10 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>870</v>
+        <v>929</v>
       </c>
       <c r="C400" t="s">
-        <v>1342</v>
+        <v>1461</v>
       </c>
       <c r="D400">
         <v>410941</v>
@@ -10230,10 +10767,10 @@
         <v>120</v>
       </c>
       <c r="B401" t="s">
-        <v>871</v>
+        <v>930</v>
       </c>
       <c r="C401" t="s">
-        <v>1343</v>
+        <v>1462</v>
       </c>
       <c r="D401">
         <v>1274913</v>
@@ -10244,10 +10781,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>872</v>
+        <v>931</v>
       </c>
       <c r="C402" t="s">
-        <v>1344</v>
+        <v>1463</v>
       </c>
       <c r="D402">
         <v>2892</v>
@@ -10258,10 +10795,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>873</v>
+        <v>932</v>
       </c>
       <c r="C403" t="s">
-        <v>1345</v>
+        <v>1464</v>
       </c>
       <c r="D403">
         <v>98</v>
@@ -10272,10 +10809,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>874</v>
+        <v>933</v>
       </c>
       <c r="C404" t="s">
-        <v>1346</v>
+        <v>1465</v>
       </c>
       <c r="D404">
         <v>7667</v>
@@ -10286,10 +10823,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>875</v>
+        <v>934</v>
       </c>
       <c r="C405" t="s">
-        <v>1347</v>
+        <v>1466</v>
       </c>
       <c r="D405">
         <v>26392</v>
@@ -10300,10 +10837,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>876</v>
+        <v>935</v>
       </c>
       <c r="C406" t="s">
-        <v>1348</v>
+        <v>1467</v>
       </c>
       <c r="D406">
         <v>31</v>
@@ -10314,10 +10851,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>877</v>
+        <v>936</v>
       </c>
       <c r="C407" t="s">
-        <v>1349</v>
+        <v>1468</v>
       </c>
       <c r="D407">
         <v>23149</v>
@@ -10328,10 +10865,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>878</v>
+        <v>937</v>
       </c>
       <c r="C408" t="s">
-        <v>1350</v>
+        <v>1469</v>
       </c>
       <c r="D408">
         <v>57413</v>
@@ -10342,10 +10879,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>879</v>
+        <v>938</v>
       </c>
       <c r="C409" t="s">
-        <v>1351</v>
+        <v>1470</v>
       </c>
       <c r="D409">
         <v>145645</v>
@@ -10356,10 +10893,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>880</v>
+        <v>939</v>
       </c>
       <c r="C410" t="s">
-        <v>1352</v>
+        <v>1471</v>
       </c>
       <c r="D410">
         <v>173</v>
@@ -10370,10 +10907,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>881</v>
+        <v>940</v>
       </c>
       <c r="C411" t="s">
-        <v>1353</v>
+        <v>1472</v>
       </c>
       <c r="D411">
         <v>7690</v>
@@ -10384,10 +10921,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>882</v>
+        <v>941</v>
       </c>
       <c r="C412" t="s">
-        <v>1354</v>
+        <v>1473</v>
       </c>
       <c r="D412">
         <v>95</v>
@@ -10398,10 +10935,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>883</v>
+        <v>942</v>
       </c>
       <c r="C413" t="s">
-        <v>1355</v>
+        <v>1474</v>
       </c>
       <c r="D413">
         <v>57258</v>
@@ -10412,10 +10949,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>884</v>
+        <v>943</v>
       </c>
       <c r="C414" t="s">
-        <v>1356</v>
+        <v>1475</v>
       </c>
       <c r="D414">
         <v>163100</v>
@@ -10426,10 +10963,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>885</v>
+        <v>944</v>
       </c>
       <c r="C415" t="s">
-        <v>1357</v>
+        <v>1476</v>
       </c>
       <c r="D415">
         <v>543613</v>
@@ -10440,10 +10977,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>886</v>
+        <v>945</v>
       </c>
       <c r="C416" t="s">
-        <v>1358</v>
+        <v>1477</v>
       </c>
       <c r="D416">
         <v>256625</v>
@@ -10454,10 +10991,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>887</v>
+        <v>946</v>
       </c>
       <c r="C417" t="s">
-        <v>1359</v>
+        <v>1478</v>
       </c>
       <c r="D417">
         <v>68508</v>
@@ -10468,10 +11005,10 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>888</v>
+        <v>947</v>
       </c>
       <c r="C418" t="s">
-        <v>1360</v>
+        <v>1479</v>
       </c>
       <c r="D418">
         <v>101890</v>
@@ -10482,10 +11019,10 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>889</v>
+        <v>948</v>
       </c>
       <c r="C419" t="s">
-        <v>1361</v>
+        <v>1480</v>
       </c>
       <c r="D419">
         <v>57666</v>
@@ -10496,10 +11033,10 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>890</v>
+        <v>949</v>
       </c>
       <c r="C420" t="s">
-        <v>1362</v>
+        <v>1481</v>
       </c>
       <c r="D420">
         <v>3786</v>
@@ -10510,10 +11047,10 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>891</v>
+        <v>950</v>
       </c>
       <c r="C421" t="s">
-        <v>1363</v>
+        <v>1482</v>
       </c>
       <c r="D421">
         <v>16198</v>
@@ -10524,10 +11061,10 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>892</v>
+        <v>951</v>
       </c>
       <c r="C422" t="s">
-        <v>1364</v>
+        <v>1483</v>
       </c>
       <c r="D422">
         <v>1282</v>
@@ -10538,10 +11075,10 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>893</v>
+        <v>952</v>
       </c>
       <c r="C423" t="s">
-        <v>1365</v>
+        <v>1484</v>
       </c>
       <c r="D423">
         <v>74311</v>
@@ -10552,10 +11089,10 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>894</v>
+        <v>953</v>
       </c>
       <c r="C424" t="s">
-        <v>1366</v>
+        <v>1485</v>
       </c>
       <c r="D424">
         <v>4</v>
@@ -10566,10 +11103,10 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>895</v>
+        <v>954</v>
       </c>
       <c r="C425" t="s">
-        <v>1367</v>
+        <v>1486</v>
       </c>
       <c r="D425">
         <v>100939</v>
@@ -10580,10 +11117,10 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>896</v>
+        <v>955</v>
       </c>
       <c r="C426" t="s">
-        <v>1368</v>
+        <v>1487</v>
       </c>
       <c r="D426">
         <v>417950</v>
@@ -10594,10 +11131,10 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>897</v>
+        <v>956</v>
       </c>
       <c r="C427" t="s">
-        <v>1369</v>
+        <v>1488</v>
       </c>
       <c r="D427">
         <v>64340</v>
@@ -10608,10 +11145,10 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>898</v>
+        <v>957</v>
       </c>
       <c r="C428" t="s">
-        <v>1370</v>
+        <v>1489</v>
       </c>
       <c r="D428">
         <v>341235</v>
@@ -10622,10 +11159,10 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>899</v>
+        <v>958</v>
       </c>
       <c r="C429" t="s">
-        <v>1371</v>
+        <v>1490</v>
       </c>
       <c r="D429">
         <v>1356899</v>
@@ -10636,10 +11173,10 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>900</v>
+        <v>959</v>
       </c>
       <c r="C430" t="s">
-        <v>1372</v>
+        <v>1491</v>
       </c>
       <c r="D430">
         <v>299973</v>
@@ -10650,10 +11187,10 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>901</v>
+        <v>960</v>
       </c>
       <c r="C431" t="s">
-        <v>1373</v>
+        <v>1492</v>
       </c>
       <c r="D431">
         <v>10329</v>
@@ -10664,10 +11201,10 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>902</v>
+        <v>961</v>
       </c>
       <c r="C432" t="s">
-        <v>1374</v>
+        <v>1493</v>
       </c>
       <c r="D432">
         <v>2496698</v>
@@ -10678,10 +11215,10 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>903</v>
+        <v>962</v>
       </c>
       <c r="C433" t="s">
-        <v>1375</v>
+        <v>1494</v>
       </c>
       <c r="D433">
         <v>12853</v>
@@ -10692,10 +11229,10 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>904</v>
+        <v>963</v>
       </c>
       <c r="C434" t="s">
-        <v>1376</v>
+        <v>1495</v>
       </c>
       <c r="D434">
         <v>1351763</v>
@@ -10706,10 +11243,10 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>905</v>
+        <v>964</v>
       </c>
       <c r="C435" t="s">
-        <v>1377</v>
+        <v>1496</v>
       </c>
       <c r="D435">
         <v>87771</v>
@@ -10720,10 +11257,10 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>906</v>
+        <v>965</v>
       </c>
       <c r="C436" t="s">
-        <v>1378</v>
+        <v>1497</v>
       </c>
       <c r="D436">
         <v>366527</v>
@@ -10734,10 +11271,10 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>907</v>
+        <v>966</v>
       </c>
       <c r="C437" t="s">
-        <v>1379</v>
+        <v>1498</v>
       </c>
       <c r="D437">
         <v>932</v>
@@ -10748,10 +11285,10 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>908</v>
+        <v>967</v>
       </c>
       <c r="C438" t="s">
-        <v>1380</v>
+        <v>1499</v>
       </c>
       <c r="D438">
         <v>10237</v>
@@ -10762,10 +11299,10 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>909</v>
+        <v>968</v>
       </c>
       <c r="C439" t="s">
-        <v>1381</v>
+        <v>1500</v>
       </c>
       <c r="D439">
         <v>2038</v>
@@ -10776,10 +11313,10 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>910</v>
+        <v>969</v>
       </c>
       <c r="C440" t="s">
-        <v>1382</v>
+        <v>1501</v>
       </c>
       <c r="D440">
         <v>194257</v>
@@ -10790,10 +11327,10 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>911</v>
+        <v>970</v>
       </c>
       <c r="C441" t="s">
-        <v>1383</v>
+        <v>1502</v>
       </c>
       <c r="D441">
         <v>16526</v>
@@ -10804,10 +11341,10 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>912</v>
+        <v>971</v>
       </c>
       <c r="C442" t="s">
-        <v>1384</v>
+        <v>1503</v>
       </c>
       <c r="D442">
         <v>10453</v>
@@ -10818,10 +11355,10 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>913</v>
+        <v>972</v>
       </c>
       <c r="C443" t="s">
-        <v>1385</v>
+        <v>1504</v>
       </c>
       <c r="D443">
         <v>0</v>
@@ -10832,10 +11369,10 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>914</v>
+        <v>973</v>
       </c>
       <c r="C444" t="s">
-        <v>1386</v>
+        <v>1505</v>
       </c>
       <c r="D444">
         <v>13288</v>
@@ -10846,10 +11383,10 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>915</v>
+        <v>974</v>
       </c>
       <c r="C445" t="s">
-        <v>1387</v>
+        <v>1506</v>
       </c>
       <c r="D445">
         <v>251701</v>
@@ -10860,10 +11397,10 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>916</v>
+        <v>975</v>
       </c>
       <c r="C446" t="s">
-        <v>1388</v>
+        <v>1507</v>
       </c>
       <c r="D446">
         <v>66</v>
@@ -10874,10 +11411,10 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>917</v>
+        <v>976</v>
       </c>
       <c r="C447" t="s">
-        <v>1389</v>
+        <v>1508</v>
       </c>
       <c r="D447">
         <v>159281</v>
@@ -10888,10 +11425,10 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>918</v>
+        <v>977</v>
       </c>
       <c r="C448" t="s">
-        <v>1390</v>
+        <v>1509</v>
       </c>
       <c r="D448">
         <v>5456</v>
@@ -10902,10 +11439,10 @@
         <v>318</v>
       </c>
       <c r="B449" t="s">
-        <v>919</v>
+        <v>978</v>
       </c>
       <c r="C449" t="s">
-        <v>1391</v>
+        <v>1510</v>
       </c>
       <c r="D449">
         <v>130057</v>
@@ -10916,10 +11453,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>920</v>
+        <v>979</v>
       </c>
       <c r="C450" t="s">
-        <v>1392</v>
+        <v>1511</v>
       </c>
       <c r="D450">
         <v>16187</v>
@@ -10930,10 +11467,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>921</v>
+        <v>980</v>
       </c>
       <c r="C451" t="s">
-        <v>1393</v>
+        <v>1512</v>
       </c>
       <c r="D451">
         <v>7085</v>
@@ -10944,10 +11481,10 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>922</v>
+        <v>981</v>
       </c>
       <c r="C452" t="s">
-        <v>1394</v>
+        <v>1513</v>
       </c>
       <c r="D452">
         <v>852720</v>
@@ -10958,10 +11495,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>923</v>
+        <v>982</v>
       </c>
       <c r="C453" t="s">
-        <v>1395</v>
+        <v>1514</v>
       </c>
       <c r="D453">
         <v>413636</v>
@@ -10972,10 +11509,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>924</v>
+        <v>983</v>
       </c>
       <c r="C454" t="s">
-        <v>1396</v>
+        <v>1515</v>
       </c>
       <c r="D454">
         <v>321</v>
@@ -10986,10 +11523,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>925</v>
+        <v>984</v>
       </c>
       <c r="C455" t="s">
-        <v>1397</v>
+        <v>1516</v>
       </c>
       <c r="D455">
         <v>185964</v>
@@ -11000,10 +11537,10 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>926</v>
+        <v>985</v>
       </c>
       <c r="C456" t="s">
-        <v>1398</v>
+        <v>1517</v>
       </c>
       <c r="D456">
         <v>206</v>
@@ -11014,10 +11551,10 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>927</v>
+        <v>986</v>
       </c>
       <c r="C457" t="s">
-        <v>1399</v>
+        <v>1518</v>
       </c>
       <c r="D457">
         <v>43333</v>
@@ -11028,10 +11565,10 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>928</v>
+        <v>987</v>
       </c>
       <c r="C458" t="s">
-        <v>1400</v>
+        <v>1519</v>
       </c>
       <c r="D458">
         <v>6753</v>
@@ -11042,10 +11579,10 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>929</v>
+        <v>988</v>
       </c>
       <c r="C459" t="s">
-        <v>1401</v>
+        <v>1520</v>
       </c>
       <c r="D459">
         <v>198</v>
@@ -11056,10 +11593,10 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>930</v>
+        <v>989</v>
       </c>
       <c r="C460" t="s">
-        <v>1402</v>
+        <v>1521</v>
       </c>
       <c r="D460">
         <v>6237</v>
@@ -11070,10 +11607,10 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>931</v>
+        <v>990</v>
       </c>
       <c r="C461" t="s">
-        <v>1403</v>
+        <v>1522</v>
       </c>
       <c r="D461">
         <v>20191</v>
@@ -11084,10 +11621,10 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>932</v>
+        <v>991</v>
       </c>
       <c r="C462" t="s">
-        <v>1404</v>
+        <v>1523</v>
       </c>
       <c r="D462">
         <v>275860</v>
@@ -11098,10 +11635,10 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>933</v>
+        <v>992</v>
       </c>
       <c r="C463" t="s">
-        <v>1405</v>
+        <v>1524</v>
       </c>
       <c r="D463">
         <v>7500</v>
@@ -11112,10 +11649,10 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>934</v>
+        <v>993</v>
       </c>
       <c r="C464" t="s">
-        <v>1406</v>
+        <v>1525</v>
       </c>
       <c r="D464">
         <v>154846</v>
@@ -11126,10 +11663,10 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>935</v>
+        <v>994</v>
       </c>
       <c r="C465" t="s">
-        <v>1407</v>
+        <v>1526</v>
       </c>
       <c r="D465">
         <v>647315</v>
@@ -11140,10 +11677,10 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>936</v>
+        <v>995</v>
       </c>
       <c r="C466" t="s">
-        <v>1408</v>
+        <v>1527</v>
       </c>
       <c r="D466">
         <v>149</v>
@@ -11154,10 +11691,10 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>937</v>
+        <v>996</v>
       </c>
       <c r="C467" t="s">
-        <v>1409</v>
+        <v>1528</v>
       </c>
       <c r="D467">
         <v>347712</v>
@@ -11168,10 +11705,10 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>938</v>
+        <v>997</v>
       </c>
       <c r="C468" t="s">
-        <v>1410</v>
+        <v>1529</v>
       </c>
       <c r="D468">
         <v>78965</v>
@@ -11182,10 +11719,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>939</v>
+        <v>998</v>
       </c>
       <c r="C469" t="s">
-        <v>1411</v>
+        <v>1530</v>
       </c>
       <c r="D469">
         <v>66021</v>
@@ -11196,10 +11733,10 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>940</v>
+        <v>999</v>
       </c>
       <c r="C470" t="s">
-        <v>1412</v>
+        <v>1531</v>
       </c>
       <c r="D470">
         <v>25</v>
@@ -11210,10 +11747,10 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>941</v>
+        <v>1000</v>
       </c>
       <c r="C471" t="s">
-        <v>1413</v>
+        <v>1532</v>
       </c>
       <c r="D471">
         <v>49175</v>
@@ -11224,10 +11761,10 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>942</v>
+        <v>1001</v>
       </c>
       <c r="C472" t="s">
-        <v>1414</v>
+        <v>1533</v>
       </c>
       <c r="D472">
         <v>16592</v>
@@ -11238,13 +11775,853 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>943</v>
+        <v>1002</v>
       </c>
       <c r="C473" t="s">
-        <v>1415</v>
+        <v>1534</v>
       </c>
       <c r="D473">
         <v>14761</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" t="s">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D474">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" t="s">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D475">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" t="s">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D476">
+        <v>88415</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" t="s">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D477">
+        <v>13787</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" t="s">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D478">
+        <v>856954</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" t="s">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D479">
+        <v>10906</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" t="s">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D480">
+        <v>118877</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" t="s">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D481">
+        <v>264302</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" t="s">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D482">
+        <v>1087465</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" t="s">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D483">
+        <v>248544</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" t="s">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D484">
+        <v>277421</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" t="s">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D485">
+        <v>23389</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" t="s">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D486">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" t="s">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D487">
+        <v>53459</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" t="s">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D488">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" t="s">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D489">
+        <v>547199</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" t="s">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D490">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" t="s">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D491">
+        <v>46349</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" t="s">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D492">
+        <v>147414</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" t="s">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D493">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" t="s">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D494">
+        <v>6212</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" t="s">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D495">
+        <v>37276</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" t="s">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D496">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" t="s">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" t="s">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D498">
+        <v>15055</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" t="s">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D499">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" t="s">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D500">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" t="s">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D501">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" t="s">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D502">
+        <v>226278</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" t="s">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D503">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" t="s">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D504">
+        <v>107757</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" t="s">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" t="s">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D506">
+        <v>22174</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" t="s">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" t="s">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D508">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" t="s">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D509">
+        <v>167196</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" t="s">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D510">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" t="s">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D511">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" t="s">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D512">
+        <v>16323</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" t="s">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D513">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" t="s">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D514">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" t="s">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D515">
+        <v>66924</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" t="s">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D516">
+        <v>63993</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" t="s">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D517">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" t="s">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D518">
+        <v>68258</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" t="s">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D519">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" t="s">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D520">
+        <v>202869</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" t="s">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D521">
+        <v>6568</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" t="s">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D522">
+        <v>10447</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" t="s">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D523">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" t="s">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D524">
+        <v>7491</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" t="s">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D525">
+        <v>145347</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" t="s">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D526">
+        <v>210504</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" t="s">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D527">
+        <v>398978</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" t="s">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D528">
+        <v>13926</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" t="s">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D529">
+        <v>262531</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" t="s">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D530">
+        <v>356986</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" t="s">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D531">
+        <v>282109</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" t="s">
+        <v>103</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D532">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" t="s">
+        <v>530</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D533">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="1669">
   <si>
     <t>Date</t>
   </si>
@@ -1609,6 +1609,78 @@
     <t>2026-02-18 11:35:21</t>
   </si>
   <si>
+    <t>2026-02-18 16:52:16</t>
+  </si>
+  <si>
+    <t>2026-02-16 17:53:19</t>
+  </si>
+  <si>
+    <t>2026-02-19 00:25:38</t>
+  </si>
+  <si>
+    <t>2026-02-19 02:21:04</t>
+  </si>
+  <si>
+    <t>2026-02-19 02:27:06</t>
+  </si>
+  <si>
+    <t>2026-02-11 12:46:17</t>
+  </si>
+  <si>
+    <t>2026-02-18 16:36:48</t>
+  </si>
+  <si>
+    <t>2026-02-06 04:58:35</t>
+  </si>
+  <si>
+    <t>2026-02-18 20:22:46</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:28:34</t>
+  </si>
+  <si>
+    <t>2026-02-18 06:39:41</t>
+  </si>
+  <si>
+    <t>2026-02-19 01:48:46</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:46:18</t>
+  </si>
+  <si>
+    <t>2026-02-19 02:30:26</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:09:36</t>
+  </si>
+  <si>
+    <t>2026-02-18 14:51:08</t>
+  </si>
+  <si>
+    <t>2026-02-18 17:46:52</t>
+  </si>
+  <si>
+    <t>2026-02-10 08:25:32</t>
+  </si>
+  <si>
+    <t>2026-02-15 08:47:20</t>
+  </si>
+  <si>
+    <t>2026-02-19 02:26:41</t>
+  </si>
+  <si>
+    <t>2026-02-18 13:29:37</t>
+  </si>
+  <si>
+    <t>2026-02-19 01:54:33</t>
+  </si>
+  <si>
+    <t>2026-02-18 11:44:49</t>
+  </si>
+  <si>
+    <t>2026-02-18 15:06:45</t>
+  </si>
+  <si>
     <t>237671823369</t>
   </si>
   <si>
@@ -3205,6 +3277,81 @@
     <t>237676696273</t>
   </si>
   <si>
+    <t>237682798275</t>
+  </si>
+  <si>
+    <t>237678746317</t>
+  </si>
+  <si>
+    <t>237681656239</t>
+  </si>
+  <si>
+    <t>237674132525</t>
+  </si>
+  <si>
+    <t>237683736213</t>
+  </si>
+  <si>
+    <t>237681158436</t>
+  </si>
+  <si>
+    <t>237682444629</t>
+  </si>
+  <si>
+    <t>237681672481</t>
+  </si>
+  <si>
+    <t>237682959018</t>
+  </si>
+  <si>
+    <t>237681663643</t>
+  </si>
+  <si>
+    <t>237653720876</t>
+  </si>
+  <si>
+    <t>237680322566</t>
+  </si>
+  <si>
+    <t>237674540074</t>
+  </si>
+  <si>
+    <t>237683405551</t>
+  </si>
+  <si>
+    <t>237672956746</t>
+  </si>
+  <si>
+    <t>237674948257</t>
+  </si>
+  <si>
+    <t>237653781676</t>
+  </si>
+  <si>
+    <t>237671007569</t>
+  </si>
+  <si>
+    <t>237670936984</t>
+  </si>
+  <si>
+    <t>237653203177</t>
+  </si>
+  <si>
+    <t>237675594974</t>
+  </si>
+  <si>
+    <t>237671517964</t>
+  </si>
+  <si>
+    <t>237680697973</t>
+  </si>
+  <si>
+    <t>237672646737</t>
+  </si>
+  <si>
+    <t>237674163684</t>
+  </si>
+  <si>
     <t>MFS ENTREE COLLEGE MALANGUE</t>
   </si>
   <si>
@@ -4799,6 +4946,81 @@
   </si>
   <si>
     <t>MFS SC NDOKOTTI</t>
+  </si>
+  <si>
+    <t>NGAFFO YOCADINE BENEDITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LANDRY MANFOUO</t>
+  </si>
+  <si>
+    <t>TCHOUAKO DJEUHA CATHERINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>SENGHOR ASSONGAYI</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL NGOUEMETA JOSEPHINE EPSE KOPPI</t>
+  </si>
+  <si>
+    <t>JOSIANE LAURE FANKAM</t>
+  </si>
+  <si>
+    <t>AMAYENE EKEDI MARTIN SERGE SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>Informatique 2000 HAWAOU OUMMOU SOULEYMAN</t>
+  </si>
+  <si>
+    <t>LEUGOUE ROCKY MAO ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>N A SALIHOU</t>
+  </si>
+  <si>
+    <t>NYEMCKUNA YMELI TITA JOYCELINE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>NJUNGANG ANNA SOB ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ONYEKA CONNECTION ATAH CALEB TENGUH</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL ATSAFACK CLAUDINE</t>
+  </si>
+  <si>
+    <t>ALAIN MOISE NDJONG ITALEN</t>
+  </si>
+  <si>
+    <t>BERLINE NJOKOUA</t>
+  </si>
+  <si>
+    <t>ETS SERVICES TOUKO CARREFOUR LYCEE</t>
+  </si>
+  <si>
+    <t>ABUCHI EMMANUEL OZUME</t>
+  </si>
+  <si>
+    <t>MBAZOAME NTOUME AYMARD SASTRY TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>SIDOINE DOUDOU SILENOU</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL MACHIKOU TCHANGA GHISLAINE</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 214</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL EYILI NDONG BRIGITTE BABETTE</t>
+  </si>
+  <si>
+    <t>TIECHOU MWANKOU CHRISTELLE FLORE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>eric chamdjou</t>
   </si>
 </sst>
 </file>
@@ -5156,7 +5378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D533"/>
+  <dimension ref="A1:D558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5181,10 +5403,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="C2" t="s">
-        <v>1063</v>
+        <v>1112</v>
       </c>
       <c r="D2">
         <v>30095</v>
@@ -5195,10 +5417,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="C3" t="s">
-        <v>1064</v>
+        <v>1113</v>
       </c>
       <c r="D3">
         <v>36595</v>
@@ -5209,10 +5431,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="C4" t="s">
-        <v>1065</v>
+        <v>1114</v>
       </c>
       <c r="D4">
         <v>1042551</v>
@@ -5223,10 +5445,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="C5" t="s">
-        <v>1066</v>
+        <v>1115</v>
       </c>
       <c r="D5">
         <v>12973</v>
@@ -5237,10 +5459,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="C6" t="s">
-        <v>1067</v>
+        <v>1116</v>
       </c>
       <c r="D6">
         <v>878</v>
@@ -5251,10 +5473,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C7" t="s">
-        <v>1068</v>
+        <v>1117</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -5265,10 +5487,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="C8" t="s">
-        <v>1069</v>
+        <v>1118</v>
       </c>
       <c r="D8">
         <v>215254</v>
@@ -5279,10 +5501,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="C9" t="s">
-        <v>1070</v>
+        <v>1119</v>
       </c>
       <c r="D9">
         <v>190023</v>
@@ -5293,10 +5515,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="C10" t="s">
-        <v>1071</v>
+        <v>1120</v>
       </c>
       <c r="D10">
         <v>6498</v>
@@ -5307,10 +5529,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="C11" t="s">
-        <v>1072</v>
+        <v>1121</v>
       </c>
       <c r="D11">
         <v>98844</v>
@@ -5321,10 +5543,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="C12" t="s">
-        <v>1073</v>
+        <v>1122</v>
       </c>
       <c r="D12">
         <v>86556</v>
@@ -5335,10 +5557,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="C13" t="s">
-        <v>1074</v>
+        <v>1123</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -5349,10 +5571,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="C14" t="s">
-        <v>1075</v>
+        <v>1124</v>
       </c>
       <c r="D14">
         <v>9594</v>
@@ -5363,10 +5585,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="C15" t="s">
-        <v>1076</v>
+        <v>1125</v>
       </c>
       <c r="D15">
         <v>262</v>
@@ -5377,10 +5599,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="C16" t="s">
-        <v>1077</v>
+        <v>1126</v>
       </c>
       <c r="D16">
         <v>517168</v>
@@ -5391,10 +5613,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="C17" t="s">
-        <v>1078</v>
+        <v>1127</v>
       </c>
       <c r="D17">
         <v>96868</v>
@@ -5405,10 +5627,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="C18" t="s">
-        <v>1079</v>
+        <v>1128</v>
       </c>
       <c r="D18">
         <v>109492</v>
@@ -5419,10 +5641,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="C19" t="s">
-        <v>1080</v>
+        <v>1129</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -5433,10 +5655,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="C20" t="s">
-        <v>1081</v>
+        <v>1130</v>
       </c>
       <c r="D20">
         <v>44076</v>
@@ -5447,10 +5669,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="C21" t="s">
-        <v>1082</v>
+        <v>1131</v>
       </c>
       <c r="D21">
         <v>21000</v>
@@ -5461,10 +5683,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="C22" t="s">
-        <v>1083</v>
+        <v>1132</v>
       </c>
       <c r="D22">
         <v>94556</v>
@@ -5475,10 +5697,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="C23" t="s">
-        <v>1084</v>
+        <v>1133</v>
       </c>
       <c r="D23">
         <v>5345</v>
@@ -5489,10 +5711,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="C24" t="s">
-        <v>1085</v>
+        <v>1134</v>
       </c>
       <c r="D24">
         <v>8858</v>
@@ -5503,10 +5725,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="C25" t="s">
-        <v>1086</v>
+        <v>1135</v>
       </c>
       <c r="D25">
         <v>264112</v>
@@ -5517,10 +5739,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="C26" t="s">
-        <v>1087</v>
+        <v>1136</v>
       </c>
       <c r="D26">
         <v>55699</v>
@@ -5531,10 +5753,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="C27" t="s">
-        <v>1088</v>
+        <v>1137</v>
       </c>
       <c r="D27">
         <v>56245</v>
@@ -5545,10 +5767,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="C28" t="s">
-        <v>1089</v>
+        <v>1138</v>
       </c>
       <c r="D28">
         <v>4751</v>
@@ -5559,10 +5781,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="C29" t="s">
-        <v>1090</v>
+        <v>1139</v>
       </c>
       <c r="D29">
         <v>1873</v>
@@ -5573,10 +5795,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="C30" t="s">
-        <v>1091</v>
+        <v>1140</v>
       </c>
       <c r="D30">
         <v>333218</v>
@@ -5587,10 +5809,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="C31" t="s">
-        <v>1092</v>
+        <v>1141</v>
       </c>
       <c r="D31">
         <v>6385129</v>
@@ -5601,10 +5823,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="C32" t="s">
-        <v>1093</v>
+        <v>1142</v>
       </c>
       <c r="D32">
         <v>13377</v>
@@ -5615,10 +5837,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="C33" t="s">
-        <v>1094</v>
+        <v>1143</v>
       </c>
       <c r="D33">
         <v>6729</v>
@@ -5629,10 +5851,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="C34" t="s">
-        <v>1095</v>
+        <v>1144</v>
       </c>
       <c r="D34">
         <v>864</v>
@@ -5643,10 +5865,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="C35" t="s">
-        <v>1096</v>
+        <v>1145</v>
       </c>
       <c r="D35">
         <v>472353</v>
@@ -5657,10 +5879,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="C36" t="s">
-        <v>1097</v>
+        <v>1146</v>
       </c>
       <c r="D36">
         <v>23</v>
@@ -5671,10 +5893,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>1098</v>
+        <v>1147</v>
       </c>
       <c r="D37">
         <v>24386</v>
@@ -5685,10 +5907,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="C38" t="s">
-        <v>1099</v>
+        <v>1148</v>
       </c>
       <c r="D38">
         <v>44600</v>
@@ -5699,10 +5921,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="C39" t="s">
-        <v>1100</v>
+        <v>1149</v>
       </c>
       <c r="D39">
         <v>2042</v>
@@ -5713,10 +5935,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="C40" t="s">
-        <v>1101</v>
+        <v>1150</v>
       </c>
       <c r="D40">
         <v>109659</v>
@@ -5727,10 +5949,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="C41" t="s">
-        <v>1102</v>
+        <v>1151</v>
       </c>
       <c r="D41">
         <v>2977</v>
@@ -5741,10 +5963,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="C42" t="s">
-        <v>1103</v>
+        <v>1152</v>
       </c>
       <c r="D42">
         <v>843587</v>
@@ -5755,10 +5977,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="C43" t="s">
-        <v>1104</v>
+        <v>1153</v>
       </c>
       <c r="D43">
         <v>206473</v>
@@ -5769,10 +5991,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="C44" t="s">
-        <v>1105</v>
+        <v>1154</v>
       </c>
       <c r="D44">
         <v>13531</v>
@@ -5783,10 +6005,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="C45" t="s">
-        <v>1106</v>
+        <v>1155</v>
       </c>
       <c r="D45">
         <v>79737</v>
@@ -5797,10 +6019,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="C46" t="s">
-        <v>1107</v>
+        <v>1156</v>
       </c>
       <c r="D46">
         <v>11434</v>
@@ -5811,10 +6033,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="C47" t="s">
-        <v>1108</v>
+        <v>1157</v>
       </c>
       <c r="D47">
         <v>501</v>
@@ -5825,10 +6047,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="C48" t="s">
-        <v>1109</v>
+        <v>1158</v>
       </c>
       <c r="D48">
         <v>380</v>
@@ -5839,10 +6061,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="C49" t="s">
-        <v>1110</v>
+        <v>1159</v>
       </c>
       <c r="D49">
         <v>43362</v>
@@ -5853,10 +6075,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="C50" t="s">
-        <v>1111</v>
+        <v>1160</v>
       </c>
       <c r="D50">
         <v>708340</v>
@@ -5867,10 +6089,10 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="C51" t="s">
-        <v>1112</v>
+        <v>1161</v>
       </c>
       <c r="D51">
         <v>3593</v>
@@ -5881,10 +6103,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="C52" t="s">
-        <v>1113</v>
+        <v>1162</v>
       </c>
       <c r="D52">
         <v>1879475</v>
@@ -5895,10 +6117,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="C53" t="s">
-        <v>1114</v>
+        <v>1163</v>
       </c>
       <c r="D53">
         <v>3784</v>
@@ -5909,10 +6131,10 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="C54" t="s">
-        <v>1115</v>
+        <v>1164</v>
       </c>
       <c r="D54">
         <v>70172</v>
@@ -5923,10 +6145,10 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="C55" t="s">
-        <v>1116</v>
+        <v>1165</v>
       </c>
       <c r="D55">
         <v>148</v>
@@ -5937,10 +6159,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="C56" t="s">
-        <v>1117</v>
+        <v>1166</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5951,10 +6173,10 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="C57" t="s">
-        <v>1118</v>
+        <v>1167</v>
       </c>
       <c r="D57">
         <v>97484</v>
@@ -5965,10 +6187,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="C58" t="s">
-        <v>1119</v>
+        <v>1168</v>
       </c>
       <c r="D58">
         <v>7927</v>
@@ -5979,10 +6201,10 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="C59" t="s">
-        <v>1120</v>
+        <v>1169</v>
       </c>
       <c r="D59">
         <v>61762</v>
@@ -5993,10 +6215,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="C60" t="s">
-        <v>1121</v>
+        <v>1170</v>
       </c>
       <c r="D60">
         <v>250</v>
@@ -6007,10 +6229,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="C61" t="s">
-        <v>1122</v>
+        <v>1171</v>
       </c>
       <c r="D61">
         <v>12292</v>
@@ -6021,10 +6243,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="C62" t="s">
-        <v>1123</v>
+        <v>1172</v>
       </c>
       <c r="D62">
         <v>366231</v>
@@ -6035,10 +6257,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="C63" t="s">
-        <v>1124</v>
+        <v>1173</v>
       </c>
       <c r="D63">
         <v>20358</v>
@@ -6049,10 +6271,10 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="C64" t="s">
-        <v>1125</v>
+        <v>1174</v>
       </c>
       <c r="D64">
         <v>152</v>
@@ -6063,10 +6285,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="C65" t="s">
-        <v>1126</v>
+        <v>1175</v>
       </c>
       <c r="D65">
         <v>29507</v>
@@ -6077,10 +6299,10 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="C66" t="s">
-        <v>1127</v>
+        <v>1176</v>
       </c>
       <c r="D66">
         <v>71538</v>
@@ -6091,10 +6313,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="C67" t="s">
-        <v>1128</v>
+        <v>1177</v>
       </c>
       <c r="D67">
         <v>438901</v>
@@ -6105,10 +6327,10 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="C68" t="s">
-        <v>1129</v>
+        <v>1178</v>
       </c>
       <c r="D68">
         <v>15525</v>
@@ -6119,10 +6341,10 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="C69" t="s">
-        <v>1130</v>
+        <v>1179</v>
       </c>
       <c r="D69">
         <v>792132</v>
@@ -6133,10 +6355,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="C70" t="s">
-        <v>1131</v>
+        <v>1180</v>
       </c>
       <c r="D70">
         <v>524523</v>
@@ -6147,10 +6369,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="C71" t="s">
-        <v>1132</v>
+        <v>1181</v>
       </c>
       <c r="D71">
         <v>866</v>
@@ -6161,10 +6383,10 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="C72" t="s">
-        <v>1133</v>
+        <v>1182</v>
       </c>
       <c r="D72">
         <v>101711</v>
@@ -6175,10 +6397,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="C73" t="s">
-        <v>1134</v>
+        <v>1183</v>
       </c>
       <c r="D73">
         <v>6178</v>
@@ -6189,10 +6411,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="C74" t="s">
-        <v>1135</v>
+        <v>1184</v>
       </c>
       <c r="D74">
         <v>1269273</v>
@@ -6203,10 +6425,10 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C75" t="s">
-        <v>1136</v>
+        <v>1185</v>
       </c>
       <c r="D75">
         <v>20668</v>
@@ -6217,10 +6439,10 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="C76" t="s">
-        <v>1137</v>
+        <v>1186</v>
       </c>
       <c r="D76">
         <v>40652</v>
@@ -6231,10 +6453,10 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="C77" t="s">
-        <v>1138</v>
+        <v>1187</v>
       </c>
       <c r="D77">
         <v>21475</v>
@@ -6245,10 +6467,10 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="C78" t="s">
-        <v>1139</v>
+        <v>1188</v>
       </c>
       <c r="D78">
         <v>5015499</v>
@@ -6259,10 +6481,10 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="C79" t="s">
-        <v>1140</v>
+        <v>1189</v>
       </c>
       <c r="D79">
         <v>4249</v>
@@ -6273,10 +6495,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="C80" t="s">
-        <v>1141</v>
+        <v>1190</v>
       </c>
       <c r="D80">
         <v>462</v>
@@ -6287,10 +6509,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="C81" t="s">
-        <v>1142</v>
+        <v>1191</v>
       </c>
       <c r="D81">
         <v>3510</v>
@@ -6301,10 +6523,10 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="C82" t="s">
-        <v>1143</v>
+        <v>1192</v>
       </c>
       <c r="D82">
         <v>3076</v>
@@ -6315,10 +6537,10 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="C83" t="s">
-        <v>1144</v>
+        <v>1193</v>
       </c>
       <c r="D83">
         <v>5861</v>
@@ -6329,10 +6551,10 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="C84" t="s">
-        <v>1145</v>
+        <v>1194</v>
       </c>
       <c r="D84">
         <v>221</v>
@@ -6343,10 +6565,10 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="C85" t="s">
-        <v>1146</v>
+        <v>1195</v>
       </c>
       <c r="D85">
         <v>63743</v>
@@ -6357,10 +6579,10 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="C86" t="s">
-        <v>1147</v>
+        <v>1196</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -6371,10 +6593,10 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="C87" t="s">
-        <v>1148</v>
+        <v>1197</v>
       </c>
       <c r="D87">
         <v>36813</v>
@@ -6385,10 +6607,10 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="C88" t="s">
-        <v>1149</v>
+        <v>1198</v>
       </c>
       <c r="D88">
         <v>513</v>
@@ -6399,10 +6621,10 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="C89" t="s">
-        <v>1150</v>
+        <v>1199</v>
       </c>
       <c r="D89">
         <v>80118</v>
@@ -6413,10 +6635,10 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="C90" t="s">
-        <v>1151</v>
+        <v>1200</v>
       </c>
       <c r="D90">
         <v>2940201</v>
@@ -6427,10 +6649,10 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="C91" t="s">
-        <v>1152</v>
+        <v>1201</v>
       </c>
       <c r="D91">
         <v>2339</v>
@@ -6441,10 +6663,10 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="C92" t="s">
-        <v>1153</v>
+        <v>1202</v>
       </c>
       <c r="D92">
         <v>4075</v>
@@ -6455,10 +6677,10 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="C93" t="s">
-        <v>1154</v>
+        <v>1203</v>
       </c>
       <c r="D93">
         <v>1013</v>
@@ -6469,10 +6691,10 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="C94" t="s">
-        <v>1155</v>
+        <v>1204</v>
       </c>
       <c r="D94">
         <v>68166</v>
@@ -6483,10 +6705,10 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="C95" t="s">
-        <v>1156</v>
+        <v>1205</v>
       </c>
       <c r="D95">
         <v>1288</v>
@@ -6497,10 +6719,10 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="C96" t="s">
-        <v>1157</v>
+        <v>1206</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -6511,10 +6733,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="C97" t="s">
-        <v>1158</v>
+        <v>1207</v>
       </c>
       <c r="D97">
         <v>59398</v>
@@ -6525,10 +6747,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="C98" t="s">
-        <v>1159</v>
+        <v>1208</v>
       </c>
       <c r="D98">
         <v>7418</v>
@@ -6539,10 +6761,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="C99" t="s">
-        <v>1160</v>
+        <v>1209</v>
       </c>
       <c r="D99">
         <v>38799</v>
@@ -6553,10 +6775,10 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="C100" t="s">
-        <v>1161</v>
+        <v>1210</v>
       </c>
       <c r="D100">
         <v>446015</v>
@@ -6567,10 +6789,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="C101" t="s">
-        <v>1162</v>
+        <v>1211</v>
       </c>
       <c r="D101">
         <v>32</v>
@@ -6581,10 +6803,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C102" t="s">
-        <v>1163</v>
+        <v>1212</v>
       </c>
       <c r="D102">
         <v>70556</v>
@@ -6595,10 +6817,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="C103" t="s">
-        <v>1164</v>
+        <v>1213</v>
       </c>
       <c r="D103">
         <v>290990</v>
@@ -6609,10 +6831,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="C104" t="s">
-        <v>1165</v>
+        <v>1214</v>
       </c>
       <c r="D104">
         <v>24133</v>
@@ -6623,10 +6845,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="C105" t="s">
-        <v>1166</v>
+        <v>1215</v>
       </c>
       <c r="D105">
         <v>7991</v>
@@ -6637,10 +6859,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="C106" t="s">
-        <v>1167</v>
+        <v>1216</v>
       </c>
       <c r="D106">
         <v>54595</v>
@@ -6651,10 +6873,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C107" t="s">
-        <v>1168</v>
+        <v>1217</v>
       </c>
       <c r="D107">
         <v>23</v>
@@ -6665,10 +6887,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="C108" t="s">
-        <v>1169</v>
+        <v>1218</v>
       </c>
       <c r="D108">
         <v>6025929</v>
@@ -6679,10 +6901,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="C109" t="s">
-        <v>1170</v>
+        <v>1219</v>
       </c>
       <c r="D109">
         <v>17416</v>
@@ -6693,10 +6915,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="C110" t="s">
-        <v>1171</v>
+        <v>1220</v>
       </c>
       <c r="D110">
         <v>59923</v>
@@ -6707,10 +6929,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="C111" t="s">
-        <v>1172</v>
+        <v>1221</v>
       </c>
       <c r="D111">
         <v>9700</v>
@@ -6721,10 +6943,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="C112" t="s">
-        <v>1173</v>
+        <v>1222</v>
       </c>
       <c r="D112">
         <v>668234</v>
@@ -6735,10 +6957,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="C113" t="s">
-        <v>1174</v>
+        <v>1223</v>
       </c>
       <c r="D113">
         <v>141</v>
@@ -6749,10 +6971,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="C114" t="s">
-        <v>1175</v>
+        <v>1224</v>
       </c>
       <c r="D114">
         <v>134935</v>
@@ -6763,10 +6985,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="C115" t="s">
-        <v>1176</v>
+        <v>1225</v>
       </c>
       <c r="D115">
         <v>11600</v>
@@ -6777,10 +6999,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="C116" t="s">
-        <v>1177</v>
+        <v>1226</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -6791,10 +7013,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="C117" t="s">
-        <v>1178</v>
+        <v>1227</v>
       </c>
       <c r="D117">
         <v>500214</v>
@@ -6805,10 +7027,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="C118" t="s">
-        <v>1179</v>
+        <v>1228</v>
       </c>
       <c r="D118">
         <v>179255</v>
@@ -6819,10 +7041,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="C119" t="s">
-        <v>1180</v>
+        <v>1229</v>
       </c>
       <c r="D119">
         <v>616178</v>
@@ -6833,10 +7055,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="C120" t="s">
-        <v>1181</v>
+        <v>1230</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -6847,10 +7069,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="C121" t="s">
-        <v>1182</v>
+        <v>1231</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -6861,10 +7083,10 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="C122" t="s">
-        <v>1183</v>
+        <v>1232</v>
       </c>
       <c r="D122">
         <v>948473</v>
@@ -6875,10 +7097,10 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="C123" t="s">
-        <v>1184</v>
+        <v>1233</v>
       </c>
       <c r="D123">
         <v>141336</v>
@@ -6889,10 +7111,10 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="C124" t="s">
-        <v>1185</v>
+        <v>1234</v>
       </c>
       <c r="D124">
         <v>31942</v>
@@ -6903,10 +7125,10 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="C125" t="s">
-        <v>1186</v>
+        <v>1235</v>
       </c>
       <c r="D125">
         <v>126700</v>
@@ -6917,10 +7139,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="C126" t="s">
-        <v>1187</v>
+        <v>1236</v>
       </c>
       <c r="D126">
         <v>7184</v>
@@ -6931,10 +7153,10 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="C127" t="s">
-        <v>1188</v>
+        <v>1237</v>
       </c>
       <c r="D127">
         <v>62509</v>
@@ -6945,10 +7167,10 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="C128" t="s">
-        <v>1189</v>
+        <v>1238</v>
       </c>
       <c r="D128">
         <v>10441</v>
@@ -6959,10 +7181,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="C129" t="s">
-        <v>1190</v>
+        <v>1239</v>
       </c>
       <c r="D129">
         <v>2922</v>
@@ -6973,10 +7195,10 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="C130" t="s">
-        <v>1191</v>
+        <v>1240</v>
       </c>
       <c r="D130">
         <v>108036</v>
@@ -6987,10 +7209,10 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="C131" t="s">
-        <v>1192</v>
+        <v>1241</v>
       </c>
       <c r="D131">
         <v>14</v>
@@ -7001,10 +7223,10 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="C132" t="s">
-        <v>1193</v>
+        <v>1242</v>
       </c>
       <c r="D132">
         <v>271853</v>
@@ -7015,10 +7237,10 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="C133" t="s">
-        <v>1194</v>
+        <v>1243</v>
       </c>
       <c r="D133">
         <v>900184</v>
@@ -7029,10 +7251,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="C134" t="s">
-        <v>1195</v>
+        <v>1244</v>
       </c>
       <c r="D134">
         <v>6534</v>
@@ -7043,10 +7265,10 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="C135" t="s">
-        <v>1196</v>
+        <v>1245</v>
       </c>
       <c r="D135">
         <v>212127</v>
@@ -7057,10 +7279,10 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="C136" t="s">
-        <v>1197</v>
+        <v>1246</v>
       </c>
       <c r="D136">
         <v>20562</v>
@@ -7071,10 +7293,10 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="C137" t="s">
-        <v>1198</v>
+        <v>1247</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -7085,10 +7307,10 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="C138" t="s">
-        <v>1199</v>
+        <v>1248</v>
       </c>
       <c r="D138">
         <v>66242</v>
@@ -7099,10 +7321,10 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="C139" t="s">
-        <v>1200</v>
+        <v>1249</v>
       </c>
       <c r="D139">
         <v>237616</v>
@@ -7113,10 +7335,10 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="C140" t="s">
-        <v>1201</v>
+        <v>1250</v>
       </c>
       <c r="D140">
         <v>986</v>
@@ -7127,10 +7349,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="C141" t="s">
-        <v>1202</v>
+        <v>1251</v>
       </c>
       <c r="D141">
         <v>525</v>
@@ -7141,10 +7363,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="C142" t="s">
-        <v>1203</v>
+        <v>1252</v>
       </c>
       <c r="D142">
         <v>192476</v>
@@ -7155,10 +7377,10 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="C143" t="s">
-        <v>1204</v>
+        <v>1253</v>
       </c>
       <c r="D143">
         <v>2179</v>
@@ -7169,10 +7391,10 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="C144" t="s">
-        <v>1205</v>
+        <v>1254</v>
       </c>
       <c r="D144">
         <v>23601</v>
@@ -7183,10 +7405,10 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="C145" t="s">
-        <v>1206</v>
+        <v>1255</v>
       </c>
       <c r="D145">
         <v>2279</v>
@@ -7197,10 +7419,10 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="C146" t="s">
-        <v>1207</v>
+        <v>1256</v>
       </c>
       <c r="D146">
         <v>35332</v>
@@ -7211,10 +7433,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="C147" t="s">
-        <v>1208</v>
+        <v>1257</v>
       </c>
       <c r="D147">
         <v>224</v>
@@ -7225,10 +7447,10 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="C148" t="s">
-        <v>1209</v>
+        <v>1258</v>
       </c>
       <c r="D148">
         <v>135162</v>
@@ -7239,10 +7461,10 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="C149" t="s">
-        <v>1210</v>
+        <v>1259</v>
       </c>
       <c r="D149">
         <v>2818</v>
@@ -7253,10 +7475,10 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="C150" t="s">
-        <v>1211</v>
+        <v>1260</v>
       </c>
       <c r="D150">
         <v>6792</v>
@@ -7267,10 +7489,10 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="C151" t="s">
-        <v>1212</v>
+        <v>1261</v>
       </c>
       <c r="D151">
         <v>23538</v>
@@ -7281,10 +7503,10 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="C152" t="s">
-        <v>1213</v>
+        <v>1262</v>
       </c>
       <c r="D152">
         <v>2635</v>
@@ -7295,10 +7517,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
       <c r="C153" t="s">
-        <v>1214</v>
+        <v>1263</v>
       </c>
       <c r="D153">
         <v>3020</v>
@@ -7309,10 +7531,10 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="C154" t="s">
-        <v>1215</v>
+        <v>1264</v>
       </c>
       <c r="D154">
         <v>85937</v>
@@ -7323,10 +7545,10 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="C155" t="s">
-        <v>1216</v>
+        <v>1265</v>
       </c>
       <c r="D155">
         <v>1106</v>
@@ -7337,10 +7559,10 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
       <c r="C156" t="s">
-        <v>1217</v>
+        <v>1266</v>
       </c>
       <c r="D156">
         <v>288689</v>
@@ -7351,10 +7573,10 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="C157" t="s">
-        <v>1218</v>
+        <v>1267</v>
       </c>
       <c r="D157">
         <v>23936</v>
@@ -7365,10 +7587,10 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="C158" t="s">
-        <v>1219</v>
+        <v>1268</v>
       </c>
       <c r="D158">
         <v>7901748</v>
@@ -7379,10 +7601,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="C159" t="s">
-        <v>1220</v>
+        <v>1269</v>
       </c>
       <c r="D159">
         <v>4701</v>
@@ -7393,10 +7615,10 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="C160" t="s">
-        <v>1221</v>
+        <v>1270</v>
       </c>
       <c r="D160">
         <v>63814</v>
@@ -7407,10 +7629,10 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="C161" t="s">
-        <v>1222</v>
+        <v>1271</v>
       </c>
       <c r="D161">
         <v>432</v>
@@ -7421,10 +7643,10 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="C162" t="s">
-        <v>1223</v>
+        <v>1272</v>
       </c>
       <c r="D162">
         <v>335842</v>
@@ -7435,10 +7657,10 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="C163" t="s">
-        <v>1224</v>
+        <v>1273</v>
       </c>
       <c r="D163">
         <v>14511</v>
@@ -7449,10 +7671,10 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="C164" t="s">
-        <v>1225</v>
+        <v>1274</v>
       </c>
       <c r="D164">
         <v>29941</v>
@@ -7463,10 +7685,10 @@
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="C165" t="s">
-        <v>1226</v>
+        <v>1275</v>
       </c>
       <c r="D165">
         <v>4082</v>
@@ -7477,10 +7699,10 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="C166" t="s">
-        <v>1227</v>
+        <v>1276</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -7491,10 +7713,10 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="C167" t="s">
-        <v>1228</v>
+        <v>1277</v>
       </c>
       <c r="D167">
         <v>540</v>
@@ -7505,10 +7727,10 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="C168" t="s">
-        <v>1229</v>
+        <v>1278</v>
       </c>
       <c r="D168">
         <v>43657</v>
@@ -7519,10 +7741,10 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="C169" t="s">
-        <v>1230</v>
+        <v>1279</v>
       </c>
       <c r="D169">
         <v>105101</v>
@@ -7533,10 +7755,10 @@
         <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="C170" t="s">
-        <v>1231</v>
+        <v>1280</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -7547,10 +7769,10 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="C171" t="s">
-        <v>1232</v>
+        <v>1281</v>
       </c>
       <c r="D171">
         <v>808</v>
@@ -7561,10 +7783,10 @@
         <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="C172" t="s">
-        <v>1233</v>
+        <v>1282</v>
       </c>
       <c r="D172">
         <v>84819</v>
@@ -7575,10 +7797,10 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="C173" t="s">
-        <v>1234</v>
+        <v>1283</v>
       </c>
       <c r="D173">
         <v>186101</v>
@@ -7589,10 +7811,10 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="C174" t="s">
-        <v>1235</v>
+        <v>1284</v>
       </c>
       <c r="D174">
         <v>87</v>
@@ -7603,10 +7825,10 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="C175" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="D175">
         <v>45444</v>
@@ -7617,10 +7839,10 @@
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="C176" t="s">
-        <v>1237</v>
+        <v>1286</v>
       </c>
       <c r="D176">
         <v>14176</v>
@@ -7631,10 +7853,10 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="C177" t="s">
-        <v>1238</v>
+        <v>1287</v>
       </c>
       <c r="D177">
         <v>317960</v>
@@ -7645,10 +7867,10 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="C178" t="s">
-        <v>1239</v>
+        <v>1288</v>
       </c>
       <c r="D178">
         <v>6876</v>
@@ -7659,10 +7881,10 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="C179" t="s">
-        <v>1240</v>
+        <v>1289</v>
       </c>
       <c r="D179">
         <v>4750</v>
@@ -7673,10 +7895,10 @@
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="C180" t="s">
-        <v>1241</v>
+        <v>1290</v>
       </c>
       <c r="D180">
         <v>7688</v>
@@ -7687,10 +7909,10 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="C181" t="s">
-        <v>1242</v>
+        <v>1291</v>
       </c>
       <c r="D181">
         <v>17160</v>
@@ -7701,10 +7923,10 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="C182" t="s">
-        <v>1243</v>
+        <v>1292</v>
       </c>
       <c r="D182">
         <v>360662</v>
@@ -7715,10 +7937,10 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="C183" t="s">
-        <v>1244</v>
+        <v>1293</v>
       </c>
       <c r="D183">
         <v>6316</v>
@@ -7729,10 +7951,10 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="C184" t="s">
-        <v>1245</v>
+        <v>1294</v>
       </c>
       <c r="D184">
         <v>70</v>
@@ -7743,10 +7965,10 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="C185" t="s">
-        <v>1246</v>
+        <v>1295</v>
       </c>
       <c r="D185">
         <v>253822</v>
@@ -7757,10 +7979,10 @@
         <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="C186" t="s">
-        <v>1247</v>
+        <v>1296</v>
       </c>
       <c r="D186">
         <v>216137</v>
@@ -7771,10 +7993,10 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="C187" t="s">
-        <v>1248</v>
+        <v>1297</v>
       </c>
       <c r="D187">
         <v>6503</v>
@@ -7785,10 +8007,10 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="C188" t="s">
-        <v>1249</v>
+        <v>1298</v>
       </c>
       <c r="D188">
         <v>817810</v>
@@ -7799,10 +8021,10 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="C189" t="s">
-        <v>1250</v>
+        <v>1299</v>
       </c>
       <c r="D189">
         <v>195618</v>
@@ -7813,10 +8035,10 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="C190" t="s">
-        <v>1251</v>
+        <v>1300</v>
       </c>
       <c r="D190">
         <v>349</v>
@@ -7827,10 +8049,10 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="C191" t="s">
-        <v>1252</v>
+        <v>1301</v>
       </c>
       <c r="D191">
         <v>449</v>
@@ -7841,10 +8063,10 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="C192" t="s">
-        <v>1253</v>
+        <v>1302</v>
       </c>
       <c r="D192">
         <v>86494</v>
@@ -7855,10 +8077,10 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="C193" t="s">
-        <v>1254</v>
+        <v>1303</v>
       </c>
       <c r="D193">
         <v>436320</v>
@@ -7869,10 +8091,10 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="C194" t="s">
-        <v>1255</v>
+        <v>1304</v>
       </c>
       <c r="D194">
         <v>916</v>
@@ -7883,10 +8105,10 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="C195" t="s">
-        <v>1256</v>
+        <v>1305</v>
       </c>
       <c r="D195">
         <v>13179</v>
@@ -7897,10 +8119,10 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="C196" t="s">
-        <v>1257</v>
+        <v>1306</v>
       </c>
       <c r="D196">
         <v>3475</v>
@@ -7911,10 +8133,10 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="C197" t="s">
-        <v>1258</v>
+        <v>1307</v>
       </c>
       <c r="D197">
         <v>8</v>
@@ -7925,10 +8147,10 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="C198" t="s">
-        <v>1259</v>
+        <v>1308</v>
       </c>
       <c r="D198">
         <v>153051</v>
@@ -7939,10 +8161,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="C199" t="s">
-        <v>1260</v>
+        <v>1309</v>
       </c>
       <c r="D199">
         <v>531404</v>
@@ -7953,10 +8175,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C200" t="s">
-        <v>1261</v>
+        <v>1310</v>
       </c>
       <c r="D200">
         <v>325532</v>
@@ -7967,10 +8189,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="C201" t="s">
-        <v>1262</v>
+        <v>1311</v>
       </c>
       <c r="D201">
         <v>449538</v>
@@ -7981,10 +8203,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="C202" t="s">
-        <v>1263</v>
+        <v>1312</v>
       </c>
       <c r="D202">
         <v>153083</v>
@@ -7995,10 +8217,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="C203" t="s">
-        <v>1264</v>
+        <v>1313</v>
       </c>
       <c r="D203">
         <v>20839</v>
@@ -8009,10 +8231,10 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="C204" t="s">
-        <v>1265</v>
+        <v>1314</v>
       </c>
       <c r="D204">
         <v>4920</v>
@@ -8023,10 +8245,10 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="C205" t="s">
-        <v>1266</v>
+        <v>1315</v>
       </c>
       <c r="D205">
         <v>19506</v>
@@ -8037,10 +8259,10 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="C206" t="s">
-        <v>1267</v>
+        <v>1316</v>
       </c>
       <c r="D206">
         <v>463</v>
@@ -8051,10 +8273,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="C207" t="s">
-        <v>1268</v>
+        <v>1317</v>
       </c>
       <c r="D207">
         <v>69288</v>
@@ -8065,10 +8287,10 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="C208" t="s">
-        <v>1269</v>
+        <v>1318</v>
       </c>
       <c r="D208">
         <v>206</v>
@@ -8079,10 +8301,10 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="C209" t="s">
-        <v>1270</v>
+        <v>1319</v>
       </c>
       <c r="D209">
         <v>540607</v>
@@ -8093,10 +8315,10 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="C210" t="s">
-        <v>1271</v>
+        <v>1320</v>
       </c>
       <c r="D210">
         <v>559350</v>
@@ -8107,10 +8329,10 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="C211" t="s">
-        <v>1272</v>
+        <v>1321</v>
       </c>
       <c r="D211">
         <v>283</v>
@@ -8121,10 +8343,10 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="C212" t="s">
-        <v>1273</v>
+        <v>1322</v>
       </c>
       <c r="D212">
         <v>662</v>
@@ -8135,10 +8357,10 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="C213" t="s">
-        <v>1274</v>
+        <v>1323</v>
       </c>
       <c r="D213">
         <v>25565</v>
@@ -8149,10 +8371,10 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="C214" t="s">
-        <v>1275</v>
+        <v>1324</v>
       </c>
       <c r="D214">
         <v>12225</v>
@@ -8163,10 +8385,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="C215" t="s">
-        <v>1276</v>
+        <v>1325</v>
       </c>
       <c r="D215">
         <v>125425</v>
@@ -8177,10 +8399,10 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="C216" t="s">
-        <v>1277</v>
+        <v>1326</v>
       </c>
       <c r="D216">
         <v>10723</v>
@@ -8191,10 +8413,10 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="C217" t="s">
-        <v>1278</v>
+        <v>1327</v>
       </c>
       <c r="D217">
         <v>19453</v>
@@ -8205,10 +8427,10 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="C218" t="s">
-        <v>1279</v>
+        <v>1328</v>
       </c>
       <c r="D218">
         <v>692700</v>
@@ -8219,10 +8441,10 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="C219" t="s">
-        <v>1280</v>
+        <v>1329</v>
       </c>
       <c r="D219">
         <v>11814</v>
@@ -8233,10 +8455,10 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="C220" t="s">
-        <v>1281</v>
+        <v>1330</v>
       </c>
       <c r="D220">
         <v>8</v>
@@ -8247,10 +8469,10 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="C221" t="s">
-        <v>1282</v>
+        <v>1331</v>
       </c>
       <c r="D221">
         <v>2448</v>
@@ -8261,10 +8483,10 @@
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="C222" t="s">
-        <v>1283</v>
+        <v>1332</v>
       </c>
       <c r="D222">
         <v>10536</v>
@@ -8275,10 +8497,10 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C223" t="s">
-        <v>1284</v>
+        <v>1333</v>
       </c>
       <c r="D223">
         <v>215252</v>
@@ -8289,10 +8511,10 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="C224" t="s">
-        <v>1285</v>
+        <v>1334</v>
       </c>
       <c r="D224">
         <v>914871</v>
@@ -8303,10 +8525,10 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="C225" t="s">
-        <v>1286</v>
+        <v>1335</v>
       </c>
       <c r="D225">
         <v>595286</v>
@@ -8317,10 +8539,10 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="C226" t="s">
-        <v>1287</v>
+        <v>1336</v>
       </c>
       <c r="D226">
         <v>13136</v>
@@ -8331,10 +8553,10 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>756</v>
+        <v>780</v>
       </c>
       <c r="C227" t="s">
-        <v>1288</v>
+        <v>1337</v>
       </c>
       <c r="D227">
         <v>420000</v>
@@ -8345,10 +8567,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="C228" t="s">
-        <v>1289</v>
+        <v>1338</v>
       </c>
       <c r="D228">
         <v>143010</v>
@@ -8359,10 +8581,10 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="C229" t="s">
-        <v>1290</v>
+        <v>1339</v>
       </c>
       <c r="D229">
         <v>3086</v>
@@ -8373,10 +8595,10 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="C230" t="s">
-        <v>1291</v>
+        <v>1340</v>
       </c>
       <c r="D230">
         <v>11176</v>
@@ -8387,10 +8609,10 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="C231" t="s">
-        <v>1292</v>
+        <v>1341</v>
       </c>
       <c r="D231">
         <v>4382</v>
@@ -8401,10 +8623,10 @@
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="C232" t="s">
-        <v>1293</v>
+        <v>1342</v>
       </c>
       <c r="D232">
         <v>1685</v>
@@ -8415,10 +8637,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="C233" t="s">
-        <v>1294</v>
+        <v>1343</v>
       </c>
       <c r="D233">
         <v>398</v>
@@ -8429,10 +8651,10 @@
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="C234" t="s">
-        <v>1295</v>
+        <v>1344</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -8443,10 +8665,10 @@
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="C235" t="s">
-        <v>1296</v>
+        <v>1345</v>
       </c>
       <c r="D235">
         <v>24589</v>
@@ -8457,10 +8679,10 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="C236" t="s">
-        <v>1297</v>
+        <v>1346</v>
       </c>
       <c r="D236">
         <v>1212800</v>
@@ -8471,10 +8693,10 @@
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="C237" t="s">
-        <v>1298</v>
+        <v>1347</v>
       </c>
       <c r="D237">
         <v>264166</v>
@@ -8485,10 +8707,10 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="C238" t="s">
-        <v>1299</v>
+        <v>1348</v>
       </c>
       <c r="D238">
         <v>4895863</v>
@@ -8499,10 +8721,10 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="C239" t="s">
-        <v>1300</v>
+        <v>1349</v>
       </c>
       <c r="D239">
         <v>3591</v>
@@ -8513,10 +8735,10 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="C240" t="s">
-        <v>1301</v>
+        <v>1350</v>
       </c>
       <c r="D240">
         <v>8963</v>
@@ -8527,10 +8749,10 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>770</v>
+        <v>794</v>
       </c>
       <c r="C241" t="s">
-        <v>1302</v>
+        <v>1351</v>
       </c>
       <c r="D241">
         <v>763103</v>
@@ -8541,10 +8763,10 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
       <c r="C242" t="s">
-        <v>1303</v>
+        <v>1352</v>
       </c>
       <c r="D242">
         <v>400</v>
@@ -8555,10 +8777,10 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="C243" t="s">
-        <v>1304</v>
+        <v>1353</v>
       </c>
       <c r="D243">
         <v>680405</v>
@@ -8569,10 +8791,10 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="C244" t="s">
-        <v>1305</v>
+        <v>1354</v>
       </c>
       <c r="D244">
         <v>5165</v>
@@ -8583,10 +8805,10 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>774</v>
+        <v>798</v>
       </c>
       <c r="C245" t="s">
-        <v>1306</v>
+        <v>1355</v>
       </c>
       <c r="D245">
         <v>179802</v>
@@ -8597,10 +8819,10 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="C246" t="s">
-        <v>1307</v>
+        <v>1356</v>
       </c>
       <c r="D246">
         <v>50393</v>
@@ -8611,10 +8833,10 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="C247" t="s">
-        <v>1308</v>
+        <v>1357</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8625,10 +8847,10 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>777</v>
+        <v>801</v>
       </c>
       <c r="C248" t="s">
-        <v>1309</v>
+        <v>1358</v>
       </c>
       <c r="D248">
         <v>81</v>
@@ -8639,10 +8861,10 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="C249" t="s">
-        <v>1310</v>
+        <v>1359</v>
       </c>
       <c r="D249">
         <v>2573153</v>
@@ -8653,10 +8875,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="C250" t="s">
-        <v>1311</v>
+        <v>1360</v>
       </c>
       <c r="D250">
         <v>173495</v>
@@ -8667,10 +8889,10 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="C251" t="s">
-        <v>1312</v>
+        <v>1361</v>
       </c>
       <c r="D251">
         <v>27600</v>
@@ -8681,10 +8903,10 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="C252" t="s">
-        <v>1313</v>
+        <v>1362</v>
       </c>
       <c r="D252">
         <v>485379</v>
@@ -8695,10 +8917,10 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="C253" t="s">
-        <v>1314</v>
+        <v>1363</v>
       </c>
       <c r="D253">
         <v>331919</v>
@@ -8709,10 +8931,10 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="C254" t="s">
-        <v>1315</v>
+        <v>1364</v>
       </c>
       <c r="D254">
         <v>1865848</v>
@@ -8723,10 +8945,10 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="C255" t="s">
-        <v>1316</v>
+        <v>1365</v>
       </c>
       <c r="D255">
         <v>24</v>
@@ -8737,10 +8959,10 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="C256" t="s">
-        <v>1317</v>
+        <v>1366</v>
       </c>
       <c r="D256">
         <v>32122</v>
@@ -8751,10 +8973,10 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="C257" t="s">
-        <v>1318</v>
+        <v>1367</v>
       </c>
       <c r="D257">
         <v>7108</v>
@@ -8765,10 +8987,10 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="C258" t="s">
-        <v>1319</v>
+        <v>1368</v>
       </c>
       <c r="D258">
         <v>71</v>
@@ -8779,10 +9001,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="C259" t="s">
-        <v>1320</v>
+        <v>1369</v>
       </c>
       <c r="D259">
         <v>670927</v>
@@ -8793,10 +9015,10 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="C260" t="s">
-        <v>1321</v>
+        <v>1370</v>
       </c>
       <c r="D260">
         <v>13137</v>
@@ -8807,10 +9029,10 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="C261" t="s">
-        <v>1322</v>
+        <v>1371</v>
       </c>
       <c r="D261">
         <v>14209</v>
@@ -8821,10 +9043,10 @@
         <v>264</v>
       </c>
       <c r="B262" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="C262" t="s">
-        <v>1323</v>
+        <v>1372</v>
       </c>
       <c r="D262">
         <v>28342</v>
@@ -8835,10 +9057,10 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="C263" t="s">
-        <v>1324</v>
+        <v>1373</v>
       </c>
       <c r="D263">
         <v>696637</v>
@@ -8849,10 +9071,10 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="C264" t="s">
-        <v>1325</v>
+        <v>1374</v>
       </c>
       <c r="D264">
         <v>11723</v>
@@ -8863,10 +9085,10 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="C265" t="s">
-        <v>1326</v>
+        <v>1375</v>
       </c>
       <c r="D265">
         <v>23642</v>
@@ -8877,10 +9099,10 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="C266" t="s">
-        <v>1327</v>
+        <v>1376</v>
       </c>
       <c r="D266">
         <v>23034</v>
@@ -8891,10 +9113,10 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="C267" t="s">
-        <v>1328</v>
+        <v>1377</v>
       </c>
       <c r="D267">
         <v>285699</v>
@@ -8905,10 +9127,10 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="C268" t="s">
-        <v>1329</v>
+        <v>1378</v>
       </c>
       <c r="D268">
         <v>1553</v>
@@ -8919,10 +9141,10 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="C269" t="s">
-        <v>1330</v>
+        <v>1379</v>
       </c>
       <c r="D269">
         <v>99454</v>
@@ -8933,10 +9155,10 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="C270" t="s">
-        <v>1331</v>
+        <v>1380</v>
       </c>
       <c r="D270">
         <v>11357</v>
@@ -8947,10 +9169,10 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="C271" t="s">
-        <v>1332</v>
+        <v>1381</v>
       </c>
       <c r="D271">
         <v>15345</v>
@@ -8961,10 +9183,10 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="C272" t="s">
-        <v>1333</v>
+        <v>1382</v>
       </c>
       <c r="D272">
         <v>3132</v>
@@ -8975,10 +9197,10 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="C273" t="s">
-        <v>1334</v>
+        <v>1383</v>
       </c>
       <c r="D273">
         <v>40</v>
@@ -8989,10 +9211,10 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="C274" t="s">
-        <v>1335</v>
+        <v>1384</v>
       </c>
       <c r="D274">
         <v>220839</v>
@@ -9003,10 +9225,10 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="C275" t="s">
-        <v>1336</v>
+        <v>1385</v>
       </c>
       <c r="D275">
         <v>1342</v>
@@ -9017,10 +9239,10 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="C276" t="s">
-        <v>1337</v>
+        <v>1386</v>
       </c>
       <c r="D276">
         <v>17088</v>
@@ -9031,10 +9253,10 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="C277" t="s">
-        <v>1338</v>
+        <v>1387</v>
       </c>
       <c r="D277">
         <v>156486</v>
@@ -9045,10 +9267,10 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
       <c r="C278" t="s">
-        <v>1339</v>
+        <v>1388</v>
       </c>
       <c r="D278">
         <v>372</v>
@@ -9059,10 +9281,10 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
       <c r="C279" t="s">
-        <v>1340</v>
+        <v>1389</v>
       </c>
       <c r="D279">
         <v>148708</v>
@@ -9073,10 +9295,10 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="C280" t="s">
-        <v>1341</v>
+        <v>1390</v>
       </c>
       <c r="D280">
         <v>212410</v>
@@ -9087,10 +9309,10 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="C281" t="s">
-        <v>1342</v>
+        <v>1391</v>
       </c>
       <c r="D281">
         <v>565473</v>
@@ -9101,10 +9323,10 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="C282" t="s">
-        <v>1343</v>
+        <v>1392</v>
       </c>
       <c r="D282">
         <v>1008453</v>
@@ -9115,10 +9337,10 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="C283" t="s">
-        <v>1344</v>
+        <v>1393</v>
       </c>
       <c r="D283">
         <v>9457</v>
@@ -9129,10 +9351,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="C284" t="s">
-        <v>1345</v>
+        <v>1394</v>
       </c>
       <c r="D284">
         <v>2716106</v>
@@ -9143,10 +9365,10 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>814</v>
+        <v>838</v>
       </c>
       <c r="C285" t="s">
-        <v>1346</v>
+        <v>1395</v>
       </c>
       <c r="D285">
         <v>1064</v>
@@ -9157,10 +9379,10 @@
         <v>288</v>
       </c>
       <c r="B286" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
       <c r="C286" t="s">
-        <v>1347</v>
+        <v>1396</v>
       </c>
       <c r="D286">
         <v>76330</v>
@@ -9171,10 +9393,10 @@
         <v>289</v>
       </c>
       <c r="B287" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="C287" t="s">
-        <v>1348</v>
+        <v>1397</v>
       </c>
       <c r="D287">
         <v>6944</v>
@@ -9185,10 +9407,10 @@
         <v>290</v>
       </c>
       <c r="B288" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="C288" t="s">
-        <v>1349</v>
+        <v>1398</v>
       </c>
       <c r="D288">
         <v>7466</v>
@@ -9199,10 +9421,10 @@
         <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="C289" t="s">
-        <v>1350</v>
+        <v>1399</v>
       </c>
       <c r="D289">
         <v>112830</v>
@@ -9213,10 +9435,10 @@
         <v>292</v>
       </c>
       <c r="B290" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="C290" t="s">
-        <v>1351</v>
+        <v>1400</v>
       </c>
       <c r="D290">
         <v>69657</v>
@@ -9227,10 +9449,10 @@
         <v>293</v>
       </c>
       <c r="B291" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
       <c r="C291" t="s">
-        <v>1352</v>
+        <v>1401</v>
       </c>
       <c r="D291">
         <v>265728</v>
@@ -9241,10 +9463,10 @@
         <v>294</v>
       </c>
       <c r="B292" t="s">
-        <v>821</v>
+        <v>845</v>
       </c>
       <c r="C292" t="s">
-        <v>1353</v>
+        <v>1402</v>
       </c>
       <c r="D292">
         <v>4800</v>
@@ -9255,10 +9477,10 @@
         <v>295</v>
       </c>
       <c r="B293" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="C293" t="s">
-        <v>1354</v>
+        <v>1403</v>
       </c>
       <c r="D293">
         <v>1504714</v>
@@ -9269,10 +9491,10 @@
         <v>296</v>
       </c>
       <c r="B294" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
       <c r="C294" t="s">
-        <v>1355</v>
+        <v>1404</v>
       </c>
       <c r="D294">
         <v>25624</v>
@@ -9283,10 +9505,10 @@
         <v>297</v>
       </c>
       <c r="B295" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
       <c r="C295" t="s">
-        <v>1356</v>
+        <v>1405</v>
       </c>
       <c r="D295">
         <v>212898</v>
@@ -9297,10 +9519,10 @@
         <v>298</v>
       </c>
       <c r="B296" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="C296" t="s">
-        <v>1357</v>
+        <v>1406</v>
       </c>
       <c r="D296">
         <v>7077</v>
@@ -9311,10 +9533,10 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="C297" t="s">
-        <v>1358</v>
+        <v>1407</v>
       </c>
       <c r="D297">
         <v>450</v>
@@ -9325,10 +9547,10 @@
         <v>300</v>
       </c>
       <c r="B298" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="C298" t="s">
-        <v>1359</v>
+        <v>1408</v>
       </c>
       <c r="D298">
         <v>7788</v>
@@ -9339,10 +9561,10 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="C299" t="s">
-        <v>1360</v>
+        <v>1409</v>
       </c>
       <c r="D299">
         <v>5642</v>
@@ -9353,10 +9575,10 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="C300" t="s">
-        <v>1361</v>
+        <v>1410</v>
       </c>
       <c r="D300">
         <v>73023</v>
@@ -9367,10 +9589,10 @@
         <v>303</v>
       </c>
       <c r="B301" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
       <c r="C301" t="s">
-        <v>1362</v>
+        <v>1411</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -9381,10 +9603,10 @@
         <v>304</v>
       </c>
       <c r="B302" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="C302" t="s">
-        <v>1363</v>
+        <v>1412</v>
       </c>
       <c r="D302">
         <v>407080</v>
@@ -9395,10 +9617,10 @@
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
       <c r="C303" t="s">
-        <v>1364</v>
+        <v>1413</v>
       </c>
       <c r="D303">
         <v>6576</v>
@@ -9409,10 +9631,10 @@
         <v>306</v>
       </c>
       <c r="B304" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="C304" t="s">
-        <v>1365</v>
+        <v>1414</v>
       </c>
       <c r="D304">
         <v>10274</v>
@@ -9423,10 +9645,10 @@
         <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="C305" t="s">
-        <v>1366</v>
+        <v>1415</v>
       </c>
       <c r="D305">
         <v>196</v>
@@ -9437,10 +9659,10 @@
         <v>308</v>
       </c>
       <c r="B306" t="s">
-        <v>835</v>
+        <v>859</v>
       </c>
       <c r="C306" t="s">
-        <v>1367</v>
+        <v>1416</v>
       </c>
       <c r="D306">
         <v>147820</v>
@@ -9451,10 +9673,10 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="C307" t="s">
-        <v>1368</v>
+        <v>1417</v>
       </c>
       <c r="D307">
         <v>293</v>
@@ -9465,10 +9687,10 @@
         <v>310</v>
       </c>
       <c r="B308" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
       <c r="C308" t="s">
-        <v>1369</v>
+        <v>1418</v>
       </c>
       <c r="D308">
         <v>318</v>
@@ -9479,10 +9701,10 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
       <c r="C309" t="s">
-        <v>1370</v>
+        <v>1419</v>
       </c>
       <c r="D309">
         <v>70029</v>
@@ -9493,10 +9715,10 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="C310" t="s">
-        <v>1371</v>
+        <v>1420</v>
       </c>
       <c r="D310">
         <v>448814</v>
@@ -9507,10 +9729,10 @@
         <v>313</v>
       </c>
       <c r="B311" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="C311" t="s">
-        <v>1372</v>
+        <v>1421</v>
       </c>
       <c r="D311">
         <v>37249</v>
@@ -9521,10 +9743,10 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="C312" t="s">
-        <v>1373</v>
+        <v>1422</v>
       </c>
       <c r="D312">
         <v>19</v>
@@ -9535,10 +9757,10 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="C313" t="s">
-        <v>1374</v>
+        <v>1423</v>
       </c>
       <c r="D313">
         <v>125460</v>
@@ -9549,10 +9771,10 @@
         <v>316</v>
       </c>
       <c r="B314" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="C314" t="s">
-        <v>1375</v>
+        <v>1424</v>
       </c>
       <c r="D314">
         <v>358</v>
@@ -9563,10 +9785,10 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="C315" t="s">
-        <v>1376</v>
+        <v>1425</v>
       </c>
       <c r="D315">
         <v>4938</v>
@@ -9577,10 +9799,10 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="C316" t="s">
-        <v>1377</v>
+        <v>1426</v>
       </c>
       <c r="D316">
         <v>432701</v>
@@ -9591,10 +9813,10 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="C317" t="s">
-        <v>1378</v>
+        <v>1427</v>
       </c>
       <c r="D317">
         <v>1212</v>
@@ -9605,10 +9827,10 @@
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
       <c r="C318" t="s">
-        <v>1379</v>
+        <v>1428</v>
       </c>
       <c r="D318">
         <v>33588</v>
@@ -9619,10 +9841,10 @@
         <v>321</v>
       </c>
       <c r="B319" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="C319" t="s">
-        <v>1380</v>
+        <v>1429</v>
       </c>
       <c r="D319">
         <v>127375</v>
@@ -9633,10 +9855,10 @@
         <v>322</v>
       </c>
       <c r="B320" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="C320" t="s">
-        <v>1381</v>
+        <v>1430</v>
       </c>
       <c r="D320">
         <v>26892</v>
@@ -9647,10 +9869,10 @@
         <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="C321" t="s">
-        <v>1382</v>
+        <v>1431</v>
       </c>
       <c r="D321">
         <v>16536</v>
@@ -9661,10 +9883,10 @@
         <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="C322" t="s">
-        <v>1383</v>
+        <v>1432</v>
       </c>
       <c r="D322">
         <v>196859</v>
@@ -9675,10 +9897,10 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="C323" t="s">
-        <v>1384</v>
+        <v>1433</v>
       </c>
       <c r="D323">
         <v>66540</v>
@@ -9689,10 +9911,10 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
       <c r="C324" t="s">
-        <v>1385</v>
+        <v>1434</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -9703,10 +9925,10 @@
         <v>327</v>
       </c>
       <c r="B325" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="C325" t="s">
-        <v>1386</v>
+        <v>1435</v>
       </c>
       <c r="D325">
         <v>5719</v>
@@ -9717,10 +9939,10 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
       <c r="C326" t="s">
-        <v>1387</v>
+        <v>1436</v>
       </c>
       <c r="D326">
         <v>30404</v>
@@ -9731,10 +9953,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="C327" t="s">
-        <v>1388</v>
+        <v>1437</v>
       </c>
       <c r="D327">
         <v>243</v>
@@ -9745,10 +9967,10 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="C328" t="s">
-        <v>1389</v>
+        <v>1438</v>
       </c>
       <c r="D328">
         <v>5075</v>
@@ -9759,10 +9981,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
       <c r="C329" t="s">
-        <v>1390</v>
+        <v>1439</v>
       </c>
       <c r="D329">
         <v>54131</v>
@@ -9773,10 +9995,10 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>859</v>
+        <v>883</v>
       </c>
       <c r="C330" t="s">
-        <v>1391</v>
+        <v>1440</v>
       </c>
       <c r="D330">
         <v>145499</v>
@@ -9787,10 +10009,10 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>860</v>
+        <v>884</v>
       </c>
       <c r="C331" t="s">
-        <v>1392</v>
+        <v>1441</v>
       </c>
       <c r="D331">
         <v>73</v>
@@ -9801,10 +10023,10 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
       <c r="C332" t="s">
-        <v>1393</v>
+        <v>1442</v>
       </c>
       <c r="D332">
         <v>81899</v>
@@ -9815,10 +10037,10 @@
         <v>335</v>
       </c>
       <c r="B333" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="C333" t="s">
-        <v>1394</v>
+        <v>1443</v>
       </c>
       <c r="D333">
         <v>85403</v>
@@ -9829,10 +10051,10 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="C334" t="s">
-        <v>1395</v>
+        <v>1444</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -9843,10 +10065,10 @@
         <v>337</v>
       </c>
       <c r="B335" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="C335" t="s">
-        <v>1396</v>
+        <v>1445</v>
       </c>
       <c r="D335">
         <v>120904</v>
@@ -9857,10 +10079,10 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
       <c r="C336" t="s">
-        <v>1397</v>
+        <v>1446</v>
       </c>
       <c r="D336">
         <v>259553</v>
@@ -9871,10 +10093,10 @@
         <v>339</v>
       </c>
       <c r="B337" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="C337" t="s">
-        <v>1398</v>
+        <v>1447</v>
       </c>
       <c r="D337">
         <v>192103</v>
@@ -9885,10 +10107,10 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="C338" t="s">
-        <v>1399</v>
+        <v>1448</v>
       </c>
       <c r="D338">
         <v>74199</v>
@@ -9899,10 +10121,10 @@
         <v>341</v>
       </c>
       <c r="B339" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="C339" t="s">
-        <v>1400</v>
+        <v>1449</v>
       </c>
       <c r="D339">
         <v>11866</v>
@@ -9913,10 +10135,10 @@
         <v>342</v>
       </c>
       <c r="B340" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="C340" t="s">
-        <v>1401</v>
+        <v>1450</v>
       </c>
       <c r="D340">
         <v>452357</v>
@@ -9927,10 +10149,10 @@
         <v>343</v>
       </c>
       <c r="B341" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="C341" t="s">
-        <v>1402</v>
+        <v>1451</v>
       </c>
       <c r="D341">
         <v>274776</v>
@@ -9941,10 +10163,10 @@
         <v>110</v>
       </c>
       <c r="B342" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="C342" t="s">
-        <v>1403</v>
+        <v>1452</v>
       </c>
       <c r="D342">
         <v>3900</v>
@@ -9955,10 +10177,10 @@
         <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="C343" t="s">
-        <v>1404</v>
+        <v>1453</v>
       </c>
       <c r="D343">
         <v>5947</v>
@@ -9969,10 +10191,10 @@
         <v>345</v>
       </c>
       <c r="B344" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
       <c r="C344" t="s">
-        <v>1405</v>
+        <v>1454</v>
       </c>
       <c r="D344">
         <v>7386</v>
@@ -9983,10 +10205,10 @@
         <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
       <c r="C345" t="s">
-        <v>1406</v>
+        <v>1455</v>
       </c>
       <c r="D345">
         <v>4330</v>
@@ -9997,10 +10219,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
       <c r="C346" t="s">
-        <v>1407</v>
+        <v>1456</v>
       </c>
       <c r="D346">
         <v>58</v>
@@ -10011,10 +10233,10 @@
         <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="C347" t="s">
-        <v>1408</v>
+        <v>1457</v>
       </c>
       <c r="D347">
         <v>146332</v>
@@ -10025,10 +10247,10 @@
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
       <c r="C348" t="s">
-        <v>1409</v>
+        <v>1458</v>
       </c>
       <c r="D348">
         <v>2869</v>
@@ -10039,10 +10261,10 @@
         <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
       <c r="C349" t="s">
-        <v>1410</v>
+        <v>1459</v>
       </c>
       <c r="D349">
         <v>1002801</v>
@@ -10053,10 +10275,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="C350" t="s">
-        <v>1411</v>
+        <v>1460</v>
       </c>
       <c r="D350">
         <v>204562</v>
@@ -10067,10 +10289,10 @@
         <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="C351" t="s">
-        <v>1412</v>
+        <v>1461</v>
       </c>
       <c r="D351">
         <v>99175</v>
@@ -10081,10 +10303,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
       <c r="C352" t="s">
-        <v>1413</v>
+        <v>1462</v>
       </c>
       <c r="D352">
         <v>3674</v>
@@ -10095,10 +10317,10 @@
         <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="C353" t="s">
-        <v>1414</v>
+        <v>1463</v>
       </c>
       <c r="D353">
         <v>670224</v>
@@ -10109,10 +10331,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
       <c r="C354" t="s">
-        <v>1415</v>
+        <v>1464</v>
       </c>
       <c r="D354">
         <v>1415</v>
@@ -10123,10 +10345,10 @@
         <v>356</v>
       </c>
       <c r="B355" t="s">
-        <v>884</v>
+        <v>908</v>
       </c>
       <c r="C355" t="s">
-        <v>1416</v>
+        <v>1465</v>
       </c>
       <c r="D355">
         <v>9524</v>
@@ -10137,10 +10359,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="s">
-        <v>885</v>
+        <v>909</v>
       </c>
       <c r="C356" t="s">
-        <v>1417</v>
+        <v>1466</v>
       </c>
       <c r="D356">
         <v>4717</v>
@@ -10151,10 +10373,10 @@
         <v>358</v>
       </c>
       <c r="B357" t="s">
-        <v>886</v>
+        <v>910</v>
       </c>
       <c r="C357" t="s">
-        <v>1418</v>
+        <v>1467</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -10165,10 +10387,10 @@
         <v>359</v>
       </c>
       <c r="B358" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
       <c r="C358" t="s">
-        <v>1419</v>
+        <v>1468</v>
       </c>
       <c r="D358">
         <v>128405</v>
@@ -10179,10 +10401,10 @@
         <v>360</v>
       </c>
       <c r="B359" t="s">
-        <v>888</v>
+        <v>912</v>
       </c>
       <c r="C359" t="s">
-        <v>1420</v>
+        <v>1469</v>
       </c>
       <c r="D359">
         <v>111060</v>
@@ -10193,10 +10415,10 @@
         <v>361</v>
       </c>
       <c r="B360" t="s">
-        <v>889</v>
+        <v>913</v>
       </c>
       <c r="C360" t="s">
-        <v>1421</v>
+        <v>1470</v>
       </c>
       <c r="D360">
         <v>2</v>
@@ -10207,10 +10429,10 @@
         <v>362</v>
       </c>
       <c r="B361" t="s">
-        <v>890</v>
+        <v>914</v>
       </c>
       <c r="C361" t="s">
-        <v>1422</v>
+        <v>1471</v>
       </c>
       <c r="D361">
         <v>50000</v>
@@ -10221,10 +10443,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="s">
-        <v>891</v>
+        <v>915</v>
       </c>
       <c r="C362" t="s">
-        <v>1423</v>
+        <v>1472</v>
       </c>
       <c r="D362">
         <v>153818</v>
@@ -10235,10 +10457,10 @@
         <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>892</v>
+        <v>916</v>
       </c>
       <c r="C363" t="s">
-        <v>1424</v>
+        <v>1473</v>
       </c>
       <c r="D363">
         <v>8765</v>
@@ -10249,10 +10471,10 @@
         <v>365</v>
       </c>
       <c r="B364" t="s">
-        <v>893</v>
+        <v>917</v>
       </c>
       <c r="C364" t="s">
-        <v>1425</v>
+        <v>1474</v>
       </c>
       <c r="D364">
         <v>276</v>
@@ -10263,10 +10485,10 @@
         <v>366</v>
       </c>
       <c r="B365" t="s">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="C365" t="s">
-        <v>1426</v>
+        <v>1475</v>
       </c>
       <c r="D365">
         <v>16875</v>
@@ -10277,10 +10499,10 @@
         <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="C366" t="s">
-        <v>1427</v>
+        <v>1476</v>
       </c>
       <c r="D366">
         <v>26</v>
@@ -10291,10 +10513,10 @@
         <v>368</v>
       </c>
       <c r="B367" t="s">
-        <v>896</v>
+        <v>920</v>
       </c>
       <c r="C367" t="s">
-        <v>1428</v>
+        <v>1477</v>
       </c>
       <c r="D367">
         <v>4</v>
@@ -10305,10 +10527,10 @@
         <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>897</v>
+        <v>921</v>
       </c>
       <c r="C368" t="s">
-        <v>1429</v>
+        <v>1478</v>
       </c>
       <c r="D368">
         <v>36</v>
@@ -10319,10 +10541,10 @@
         <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>898</v>
+        <v>922</v>
       </c>
       <c r="C369" t="s">
-        <v>1430</v>
+        <v>1479</v>
       </c>
       <c r="D369">
         <v>46163</v>
@@ -10333,10 +10555,10 @@
         <v>300</v>
       </c>
       <c r="B370" t="s">
-        <v>899</v>
+        <v>923</v>
       </c>
       <c r="C370" t="s">
-        <v>1431</v>
+        <v>1480</v>
       </c>
       <c r="D370">
         <v>12431</v>
@@ -10347,10 +10569,10 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>900</v>
+        <v>924</v>
       </c>
       <c r="C371" t="s">
-        <v>1432</v>
+        <v>1481</v>
       </c>
       <c r="D371">
         <v>21309</v>
@@ -10361,10 +10583,10 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>901</v>
+        <v>925</v>
       </c>
       <c r="C372" t="s">
-        <v>1433</v>
+        <v>1482</v>
       </c>
       <c r="D372">
         <v>25</v>
@@ -10375,10 +10597,10 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="C373" t="s">
-        <v>1434</v>
+        <v>1483</v>
       </c>
       <c r="D373">
         <v>167286</v>
@@ -10389,10 +10611,10 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="C374" t="s">
-        <v>1435</v>
+        <v>1484</v>
       </c>
       <c r="D374">
         <v>43714</v>
@@ -10403,10 +10625,10 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>904</v>
+        <v>928</v>
       </c>
       <c r="C375" t="s">
-        <v>1436</v>
+        <v>1485</v>
       </c>
       <c r="D375">
         <v>756</v>
@@ -10417,10 +10639,10 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>905</v>
+        <v>929</v>
       </c>
       <c r="C376" t="s">
-        <v>1437</v>
+        <v>1486</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -10431,10 +10653,10 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>906</v>
+        <v>930</v>
       </c>
       <c r="C377" t="s">
-        <v>1438</v>
+        <v>1487</v>
       </c>
       <c r="D377">
         <v>243434</v>
@@ -10445,10 +10667,10 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
       <c r="C378" t="s">
-        <v>1439</v>
+        <v>1488</v>
       </c>
       <c r="D378">
         <v>41</v>
@@ -10459,10 +10681,10 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>908</v>
+        <v>932</v>
       </c>
       <c r="C379" t="s">
-        <v>1440</v>
+        <v>1489</v>
       </c>
       <c r="D379">
         <v>3348</v>
@@ -10473,10 +10695,10 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>909</v>
+        <v>933</v>
       </c>
       <c r="C380" t="s">
-        <v>1441</v>
+        <v>1490</v>
       </c>
       <c r="D380">
         <v>8659</v>
@@ -10487,10 +10709,10 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>910</v>
+        <v>934</v>
       </c>
       <c r="C381" t="s">
-        <v>1442</v>
+        <v>1491</v>
       </c>
       <c r="D381">
         <v>73820</v>
@@ -10501,10 +10723,10 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>911</v>
+        <v>935</v>
       </c>
       <c r="C382" t="s">
-        <v>1443</v>
+        <v>1492</v>
       </c>
       <c r="D382">
         <v>177</v>
@@ -10515,10 +10737,10 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>912</v>
+        <v>936</v>
       </c>
       <c r="C383" t="s">
-        <v>1444</v>
+        <v>1493</v>
       </c>
       <c r="D383">
         <v>13498</v>
@@ -10529,10 +10751,10 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>913</v>
+        <v>937</v>
       </c>
       <c r="C384" t="s">
-        <v>1445</v>
+        <v>1494</v>
       </c>
       <c r="D384">
         <v>10146</v>
@@ -10543,10 +10765,10 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>914</v>
+        <v>938</v>
       </c>
       <c r="C385" t="s">
-        <v>1446</v>
+        <v>1495</v>
       </c>
       <c r="D385">
         <v>7100</v>
@@ -10557,10 +10779,10 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
       <c r="C386" t="s">
-        <v>1447</v>
+        <v>1496</v>
       </c>
       <c r="D386">
         <v>1747</v>
@@ -10571,10 +10793,10 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>916</v>
+        <v>940</v>
       </c>
       <c r="C387" t="s">
-        <v>1448</v>
+        <v>1497</v>
       </c>
       <c r="D387">
         <v>28954</v>
@@ -10585,10 +10807,10 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="C388" t="s">
-        <v>1449</v>
+        <v>1498</v>
       </c>
       <c r="D388">
         <v>4180</v>
@@ -10599,10 +10821,10 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>918</v>
+        <v>942</v>
       </c>
       <c r="C389" t="s">
-        <v>1450</v>
+        <v>1499</v>
       </c>
       <c r="D389">
         <v>91335</v>
@@ -10613,10 +10835,10 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>919</v>
+        <v>943</v>
       </c>
       <c r="C390" t="s">
-        <v>1451</v>
+        <v>1500</v>
       </c>
       <c r="D390">
         <v>142936</v>
@@ -10627,10 +10849,10 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>920</v>
+        <v>944</v>
       </c>
       <c r="C391" t="s">
-        <v>1452</v>
+        <v>1501</v>
       </c>
       <c r="D391">
         <v>262</v>
@@ -10641,10 +10863,10 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>921</v>
+        <v>945</v>
       </c>
       <c r="C392" t="s">
-        <v>1453</v>
+        <v>1502</v>
       </c>
       <c r="D392">
         <v>72844</v>
@@ -10655,10 +10877,10 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>922</v>
+        <v>946</v>
       </c>
       <c r="C393" t="s">
-        <v>1454</v>
+        <v>1503</v>
       </c>
       <c r="D393">
         <v>484</v>
@@ -10669,10 +10891,10 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>923</v>
+        <v>947</v>
       </c>
       <c r="C394" t="s">
-        <v>1455</v>
+        <v>1504</v>
       </c>
       <c r="D394">
         <v>74991</v>
@@ -10683,10 +10905,10 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>924</v>
+        <v>948</v>
       </c>
       <c r="C395" t="s">
-        <v>1456</v>
+        <v>1505</v>
       </c>
       <c r="D395">
         <v>35000</v>
@@ -10697,10 +10919,10 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>925</v>
+        <v>949</v>
       </c>
       <c r="C396" t="s">
-        <v>1457</v>
+        <v>1506</v>
       </c>
       <c r="D396">
         <v>19810</v>
@@ -10711,10 +10933,10 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>926</v>
+        <v>950</v>
       </c>
       <c r="C397" t="s">
-        <v>1458</v>
+        <v>1507</v>
       </c>
       <c r="D397">
         <v>142992</v>
@@ -10725,10 +10947,10 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>927</v>
+        <v>951</v>
       </c>
       <c r="C398" t="s">
-        <v>1459</v>
+        <v>1508</v>
       </c>
       <c r="D398">
         <v>149152</v>
@@ -10739,10 +10961,10 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="C399" t="s">
-        <v>1460</v>
+        <v>1509</v>
       </c>
       <c r="D399">
         <v>13812</v>
@@ -10753,10 +10975,10 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>929</v>
+        <v>953</v>
       </c>
       <c r="C400" t="s">
-        <v>1461</v>
+        <v>1510</v>
       </c>
       <c r="D400">
         <v>410941</v>
@@ -10767,10 +10989,10 @@
         <v>120</v>
       </c>
       <c r="B401" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
       <c r="C401" t="s">
-        <v>1462</v>
+        <v>1511</v>
       </c>
       <c r="D401">
         <v>1274913</v>
@@ -10781,10 +11003,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
       <c r="C402" t="s">
-        <v>1463</v>
+        <v>1512</v>
       </c>
       <c r="D402">
         <v>2892</v>
@@ -10795,10 +11017,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
       <c r="C403" t="s">
-        <v>1464</v>
+        <v>1513</v>
       </c>
       <c r="D403">
         <v>98</v>
@@ -10809,10 +11031,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
       <c r="C404" t="s">
-        <v>1465</v>
+        <v>1514</v>
       </c>
       <c r="D404">
         <v>7667</v>
@@ -10823,10 +11045,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
  